--- a/db/Base.xlsx
+++ b/db/Base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000" activeTab="4"/>
+    <workbookView windowWidth="22188" windowHeight="9000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры_компонентов" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="276">
   <si>
     <t>На этом листе собраны возможные значения параметров, описывающих типы компонентов nanoCAD BIM Вентиляция</t>
   </si>
@@ -819,7 +819,7 @@
     <t>https://www.nevatom.ru/catalog/sektsii_ultrafioletovoy_bakteritsidnoy_obrabotki_sub/</t>
   </si>
   <si>
-    <t>Размер воздуховода</t>
+    <t>Воздуховод (Размер)</t>
   </si>
   <si>
     <t>универсальная</t>
@@ -828,157 +828,109 @@
     <t>https://www.nanocad.ru/products/bim/ventilation/</t>
   </si>
   <si>
+    <t>В компоненте реализована возможность автоматического выбора между обозначением круглого и прямоугольного воздуховодов. Создание выноски обсуждается здесь: https://forum.nanocad.ru/discussion/129/sozdanie-vynoski</t>
+  </si>
+  <si>
+    <t>параметрический</t>
+  </si>
+  <si>
+    <t>100, 125, 200</t>
+  </si>
+  <si>
+    <t>параметрическая</t>
+  </si>
+  <si>
+    <t>180x(100, 100)</t>
+  </si>
+  <si>
+    <t>100, 125, 160</t>
+  </si>
+  <si>
+    <t>125x100, 160x100, 160x125</t>
+  </si>
+  <si>
+    <t>100x100, 125x100, 160x100</t>
+  </si>
+  <si>
+    <t>100x(100, 100)</t>
+  </si>
+  <si>
+    <t>150x100</t>
+  </si>
+  <si>
+    <t>150x150</t>
+  </si>
+  <si>
+    <t>100, 125, 140, 160, 180, 200, 225, 250, 280, 315, 355, 400, 450, 500, 560, 630, 710, 800, 900, 1000, 1120, 1250, 1400, 1600, 1800, 2000</t>
+  </si>
+  <si>
+    <t>100x100...2000x2000</t>
+  </si>
+  <si>
+    <t>100, 125, 140, 160, 180, 200, 225, 250, 280, 315, 355, 400, 450, 500, 560, 630, 710, 800, 900, 1000, 1120, 1250</t>
+  </si>
+  <si>
+    <t>100x100...1000x2000</t>
+  </si>
+  <si>
+    <t>100x(100, 100)...800x(800, 800)</t>
+  </si>
+  <si>
+    <t>100, 125, 140, 160, 180, 200, 225, 250, 280, 315, 355, 400, 450, 500, 560, 630, 710, 800, 900, 1000, 1120, 1250, 1400</t>
+  </si>
+  <si>
+    <t>Ниппель</t>
+  </si>
+  <si>
+    <t>15°</t>
+  </si>
+  <si>
+    <t>30°</t>
+  </si>
+  <si>
+    <t>45°</t>
+  </si>
+  <si>
+    <t>100x100...1400x900</t>
+  </si>
+  <si>
+    <t>60°</t>
+  </si>
+  <si>
+    <t>100, 125, 140, 160, 180, 200, 225, 250, 280, 315, 355, 400, 450, 500, 560, 630, 710, 800, 900</t>
+  </si>
+  <si>
+    <t>90°</t>
+  </si>
+  <si>
+    <t>с прямоугольного сечения на круглое</t>
+  </si>
+  <si>
+    <t>100x(100x100)...1250x(1200x800)</t>
+  </si>
+  <si>
+    <t>концентрический</t>
+  </si>
+  <si>
+    <t>(150x100)x(100x100)...(2000x1400)x(1800x500)</t>
+  </si>
+  <si>
+    <t>100x100...1250x1250</t>
+  </si>
+  <si>
+    <t>(150x150)x(100x100)...(2000x1400)x(1400x1400)</t>
+  </si>
+  <si>
+    <t>Воздуховод (Размер, Скорость, Расход, Потеря давления)</t>
+  </si>
+  <si>
     <t>В компоненте реализована возможность автоматического выбора между обозначением круглого и прямоугольного воздуховодов</t>
   </si>
   <si>
-    <t>параметрический</t>
-  </si>
-  <si>
-    <t>100, 125, 200</t>
-  </si>
-  <si>
-    <t>параметрическая</t>
-  </si>
-  <si>
-    <t>180x(100, 100)</t>
-  </si>
-  <si>
-    <t>100, 125, 160</t>
-  </si>
-  <si>
-    <t>125x100, 160x100, 160x125</t>
-  </si>
-  <si>
-    <t>100x100, 125x100, 160x100</t>
-  </si>
-  <si>
-    <t>100x(100, 100)</t>
-  </si>
-  <si>
-    <t>150x100</t>
-  </si>
-  <si>
-    <t>150x150</t>
-  </si>
-  <si>
-    <t>2024-07-30_162529.png</t>
-  </si>
-  <si>
-    <t>100, 125, 140, 160, 180, 200, 225, 250, 280, 315, 355, 400, 450, 500, 560, 630, 710, 800, 900, 1000, 1120, 1250, 1400, 1600, 1800, 2000</t>
-  </si>
-  <si>
-    <t>2024-07-30_164040.png</t>
-  </si>
-  <si>
-    <t>100x100...2000x2000</t>
-  </si>
-  <si>
-    <t>2024-07-30_164334.png</t>
-  </si>
-  <si>
-    <t>100, 125, 140, 160, 180, 200, 225, 250, 280, 315, 355, 400, 450, 500, 560, 630, 710, 800, 900, 1000, 1120, 1250</t>
-  </si>
-  <si>
-    <t>2024-07-30_164521.png</t>
-  </si>
-  <si>
-    <t>100x100...1000x2000</t>
-  </si>
-  <si>
-    <t>2024-07-30_164728.png</t>
-  </si>
-  <si>
-    <t>2024-07-30_164920.png</t>
-  </si>
-  <si>
-    <t>100x(100, 100)...800x(800, 800)</t>
-  </si>
-  <si>
-    <t>2024-07-30_165208.png</t>
-  </si>
-  <si>
-    <t>100, 125, 140, 160, 180, 200, 225, 250, 280, 315, 355, 400, 450, 500, 560, 630, 710, 800, 900, 1000, 1120, 1250, 1400</t>
-  </si>
-  <si>
-    <t>Ниппель</t>
-  </si>
-  <si>
-    <t>2024-07-30_165420.png</t>
-  </si>
-  <si>
-    <t>15°</t>
-  </si>
-  <si>
-    <t>2024-07-30_165826.png</t>
-  </si>
-  <si>
-    <t>30°</t>
-  </si>
-  <si>
-    <t>2024-07-30_170114.png</t>
-  </si>
-  <si>
-    <t>45°</t>
-  </si>
-  <si>
-    <t>2024-07-30_170211.png</t>
-  </si>
-  <si>
-    <t>2024-07-30_170329.png</t>
-  </si>
-  <si>
-    <t>100x100...1400x900</t>
-  </si>
-  <si>
-    <t>60°</t>
-  </si>
-  <si>
-    <t>2024-07-30_170600.png</t>
-  </si>
-  <si>
-    <t>100, 125, 140, 160, 180, 200, 225, 250, 280, 315, 355, 400, 450, 500, 560, 630, 710, 800, 900</t>
-  </si>
-  <si>
-    <t>90°</t>
-  </si>
-  <si>
-    <t>2024-07-30_170740.png</t>
-  </si>
-  <si>
-    <t>2024-07-30_170926.png</t>
-  </si>
-  <si>
-    <t>2024-07-30_171145.png</t>
-  </si>
-  <si>
-    <t>с прямоугольного сечения на круглое</t>
-  </si>
-  <si>
-    <t>2024-07-30_171406.png</t>
-  </si>
-  <si>
-    <t>100x(100x100)...1250x(1200x800)</t>
-  </si>
-  <si>
-    <t>концентрический</t>
-  </si>
-  <si>
-    <t>2024-07-30_171855.png</t>
-  </si>
-  <si>
-    <t>(150x100)x(100x100)...(2000x1400)x(1800x500)</t>
-  </si>
-  <si>
-    <t>2024-07-30_172408.png</t>
-  </si>
-  <si>
-    <t>100x100...1250x1250</t>
-  </si>
-  <si>
-    <t>2024-07-30_172941.png</t>
-  </si>
-  <si>
-    <t>(150x150)x(100x100)...(2000x1400)x(1400x1400)</t>
+    <t>Вход в систему (Полная потеря давления)</t>
+  </si>
+  <si>
+    <t>Выноска показывает суммарные значения потерь давления в системе. Предназначена для компонента Вход в систему</t>
   </si>
 </sst>
 </file>
@@ -1686,6 +1638,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1703,9 +1658,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1786,7 +1738,7 @@
     <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
     <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
     <dxf/>
     <dxf/>
     <dxf>
@@ -1800,6 +1752,9 @@
         <color auto="1"/>
       </font>
       <numFmt numFmtId="49" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf/>
     <dxf>
@@ -1995,25 +1950,25 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="12"/>
-      <tableStyleElement type="headerRow" dxfId="11"/>
-      <tableStyleElement type="totalRow" dxfId="10"/>
-      <tableStyleElement type="firstColumn" dxfId="9"/>
-      <tableStyleElement type="lastColumn" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="totalRow" dxfId="11"/>
+      <tableStyleElement type="firstColumn" dxfId="10"/>
+      <tableStyleElement type="lastColumn" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="22"/>
-      <tableStyleElement type="totalRow" dxfId="21"/>
-      <tableStyleElement type="firstRowStripe" dxfId="20"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="18"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="17"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="16"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="15"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="14"/>
-      <tableStyleElement type="pageFieldValues" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
+      <tableStyleElement type="totalRow" dxfId="22"/>
+      <tableStyleElement type="firstRowStripe" dxfId="21"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="20"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="19"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="18"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="17"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="16"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="15"/>
+      <tableStyleElement type="pageFieldValues" dxfId="14"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2071,9 +2026,11 @@
     <tableColumn id="6" name="manufacturer"/>
     <tableColumn id="7" name="graphicType"/>
     <tableColumn id="10" name="manufUrl" dataDxfId="4"/>
-    <tableColumn id="8" name="imageUrl"/>
+    <tableColumn id="8" name="imageUrl" dataDxfId="5">
+      <calculatedColumnFormula>IF(B5="","",LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(B5,"-",H5,"-",E5,"-",C5,"-",G5,".png")," ","_"),"""",""),",",""),":","_")))</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="11" name="screenShot"/>
-    <tableColumn id="9" name="typesizes" dataDxfId="5"/>
+    <tableColumn id="9" name="typesizes" dataDxfId="6"/>
     <tableColumn id="17" name="gal_steel"/>
     <tableColumn id="12" name="st_steel"/>
     <tableColumn id="13" name="aluminium"/>
@@ -2374,7 +2331,7 @@
       <c r="B5" s="12"/>
     </row>
     <row r="6" ht="15.15"/>
-    <row r="7" s="7" customFormat="1" spans="2:11">
+    <row r="7" s="8" customFormat="1" spans="2:11">
       <c r="B7" s="14" t="s">
         <v>1</v>
       </c>
@@ -2817,7 +2774,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2834,27 +2791,27 @@
       <c r="E4" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="2:10">
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>63</v>
       </c>
       <c r="D5" t="s">
@@ -2866,11 +2823,11 @@
       <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="10" t="str">
+      <c r="G5" s="4" t="str">
         <f>IF(ISTEXT(F5),VLOOKUP(F5,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Арматура воздуховодов</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I5" t="s">
@@ -2881,7 +2838,7 @@
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="2:10">
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
@@ -2896,11 +2853,11 @@
       <c r="F6" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="10" t="str">
+      <c r="G6" s="4" t="str">
         <f>IF(ISTEXT(F6),VLOOKUP(F6,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Оборудование</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I6" t="s">
@@ -2926,11 +2883,11 @@
       <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="10" t="str">
+      <c r="G7" s="4" t="str">
         <f>IF(ISTEXT(F7),VLOOKUP(F7,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Не применимо</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I7" t="s">
@@ -2941,7 +2898,7 @@
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="2:10">
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -2956,11 +2913,11 @@
       <c r="F8" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="10" t="str">
+      <c r="G8" s="4" t="str">
         <f>IF(ISTEXT(F8),VLOOKUP(F8,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Элементы воздуховодов</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I8" t="s">
@@ -2971,7 +2928,7 @@
       </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="2:10">
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
@@ -2986,11 +2943,11 @@
       <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="10" t="str">
+      <c r="G9" s="4" t="str">
         <f>IF(ISTEXT(F9),VLOOKUP(F9,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Не применимо</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I9" t="s">
@@ -3016,11 +2973,11 @@
       <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="10" t="str">
+      <c r="G10" s="4" t="str">
         <f>IF(ISTEXT(F10),VLOOKUP(F10,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Воздухораспределители</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I10" t="s">
@@ -3031,7 +2988,7 @@
       </c>
     </row>
     <row r="11" ht="25" customHeight="1" spans="2:10">
-      <c r="B11" s="8">
+      <c r="B11" s="9">
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
@@ -3046,11 +3003,11 @@
       <c r="F11" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="10" t="str">
+      <c r="G11" s="4" t="str">
         <f>IF(ISTEXT(F11),VLOOKUP(F11,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Оборудование</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I11" t="s">
@@ -3061,7 +3018,7 @@
       </c>
     </row>
     <row r="12" ht="25" customHeight="1" spans="2:10">
-      <c r="B12" s="5">
+      <c r="B12" s="6">
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -3076,11 +3033,11 @@
       <c r="F12" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="10" t="str">
+      <c r="G12" s="4" t="str">
         <f>IF(ISTEXT(F12),VLOOKUP(F12,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Не применимо</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I12" t="s">
@@ -3106,11 +3063,11 @@
       <c r="F13" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="10" t="str">
+      <c r="G13" s="4" t="str">
         <f>IF(ISTEXT(F13),VLOOKUP(F13,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Оборудование</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I13" t="s">
@@ -3121,7 +3078,7 @@
       </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="2:10">
-      <c r="B14" s="8">
+      <c r="B14" s="9">
         <v>10</v>
       </c>
       <c r="C14" t="s">
@@ -3136,11 +3093,11 @@
       <c r="F14" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="10" t="str">
+      <c r="G14" s="4" t="str">
         <f>IF(ISTEXT(F14),VLOOKUP(F14,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Аннотации</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I14" t="s">
@@ -3151,7 +3108,7 @@
       </c>
     </row>
     <row r="15" ht="25" customHeight="1" spans="2:10">
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -3166,10 +3123,10 @@
       <c r="F15" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I15" t="s">
@@ -3195,10 +3152,10 @@
       <c r="F16" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I16" t="s">
@@ -3209,7 +3166,7 @@
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <v>13</v>
       </c>
       <c r="C17" t="s">
@@ -3224,10 +3181,10 @@
       <c r="F17" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I17" t="s">
@@ -3238,52 +3195,52 @@
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="5"/>
-      <c r="G18" s="10" t="str">
+      <c r="B18" s="6"/>
+      <c r="G18" s="4" t="str">
         <f>IF(ISTEXT(F18),VLOOKUP(F18,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="H18" s="10"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="5"/>
-      <c r="G19" s="10" t="str">
+      <c r="B19" s="6"/>
+      <c r="G19" s="4" t="str">
         <f>IF(ISTEXT(F19),VLOOKUP(F19,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="H19" s="10"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="5"/>
-      <c r="G20" s="10" t="str">
+      <c r="B20" s="6"/>
+      <c r="G20" s="4" t="str">
         <f>IF(ISTEXT(F20),VLOOKUP(F20,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="H20" s="10"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="G21" t="str">
         <f>IF(ISTEXT(F21),VLOOKUP(F21,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="5"/>
+      <c r="B22" s="6"/>
       <c r="G22" t="str">
         <f>IF(ISTEXT(F22),VLOOKUP(F22,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="5"/>
+      <c r="B23" s="6"/>
       <c r="G23" t="str">
         <f>IF(ISTEXT(F23),VLOOKUP(F23,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="5"/>
+      <c r="B24" s="6"/>
       <c r="G24" t="str">
         <f>IF(ISTEXT(F24),VLOOKUP(F24,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
@@ -3320,8 +3277,8 @@
   <sheetPr/>
   <dimension ref="B4:S87"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3423,8 +3380,8 @@
       <c r="J5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="K5" t="str">
-        <f t="shared" ref="K5:K68" si="0">IF(B5="","",LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(B5,"-",H5,"-",E5,"-",C5,"-",G5,".png")," ","_"),"""",""),",","")))</f>
+      <c r="K5" s="4" t="str">
+        <f t="shared" ref="K5:K36" si="0">IF(B5="","",LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(B5,"-",H5,"-",E5,"-",C5,"-",G5,".png")," ","_"),"""",""),",",""),":","_")))</f>
         <v>1-арктос-диффузор-дпу-м-круглый.png</v>
       </c>
       <c r="M5" s="2" t="s">
@@ -3462,7 +3419,7 @@
       <c r="J6" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="K6" t="str">
+      <c r="K6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2-арктос-решетка-амн-прямоугольный.png</v>
       </c>
@@ -3498,7 +3455,7 @@
       <c r="J7" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="K7" t="str">
+      <c r="K7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>3-веза-клапан_противопожарный-кпу-1н_канальный-прямоугольный.png</v>
       </c>
@@ -3537,7 +3494,7 @@
       <c r="J8" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="K8" t="str">
+      <c r="K8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4-веза-клапан_противопожарный-кпу-1н_стеновой-прямоугольный.png</v>
       </c>
@@ -3576,7 +3533,7 @@
       <c r="J9" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K9" t="str">
+      <c r="K9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>5-веза-клапан_противопожарный-кпу-1н_канальный-круглый.png</v>
       </c>
@@ -3615,7 +3572,7 @@
       <c r="J10" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K10" t="str">
+      <c r="K10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6-веза-клапан_противопожарный-кпу-1н_стеновой-круглый.png</v>
       </c>
@@ -3654,7 +3611,7 @@
       <c r="J11" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="K11" t="str">
+      <c r="K11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7-веза-клапан_противопожарный-кпу-2н_канальный_дымовой-круглый.png</v>
       </c>
@@ -3693,7 +3650,7 @@
       <c r="J12" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="K12" t="str">
+      <c r="K12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8-веза-клапан_противопожарный-кпу-2н_канальный_нормально_открытый-круглый.png</v>
       </c>
@@ -3732,7 +3689,7 @@
       <c r="J13" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="K13" t="str">
+      <c r="K13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>9-веза-клапан_противопожарный-кпу-2н_канальный_нормально_закрытый-круглый.png</v>
       </c>
@@ -3771,7 +3728,7 @@
       <c r="J14" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="K14" t="str">
+      <c r="K14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>10-веза-клапан_противопожарный-кпу-2н_ниппельный_дымовой-круглый.png</v>
       </c>
@@ -3810,7 +3767,7 @@
       <c r="J15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="K15" t="str">
+      <c r="K15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>11-веза-клапан_противопожарный-кпу-2н_ниппельный_нормально_открытый-круглый.png</v>
       </c>
@@ -3849,7 +3806,7 @@
       <c r="J16" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="K16" t="str">
+      <c r="K16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>12-веза-клапан_противопожарный-кпу-2н_ниппельный_нормально_закрытый-круглый.png</v>
       </c>
@@ -3888,7 +3845,7 @@
       <c r="J17" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K17" t="str">
+      <c r="K17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>13-веза-клапан_противопожарный-кпу-2н-вд_канальный_нормально_открытый-прямоугольный.png</v>
       </c>
@@ -3927,7 +3884,7 @@
       <c r="J18" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K18" t="str">
+      <c r="K18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>14-веза-клапан_противопожарный-кпу-2н-вд_канальный_нормально_закрытый-прямоугольный.png</v>
       </c>
@@ -3969,7 +3926,7 @@
       <c r="J19" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K19" t="str">
+      <c r="K19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>15-веза-клапан_противопожарный-кпу-дд_канальный-прямоугольный.png</v>
       </c>
@@ -4011,7 +3968,7 @@
       <c r="J20" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K20" t="str">
+      <c r="K20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>16-веза-клапан_противопожарный-кпу-дд_стеновой-прямоугольный.png</v>
       </c>
@@ -4053,7 +4010,7 @@
       <c r="J21" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K21" t="str">
+      <c r="K21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>17-веза-клапан_противопожарный-кпу-дд_канальный-круглый.png</v>
       </c>
@@ -4095,7 +4052,7 @@
       <c r="J22" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K22" t="str">
+      <c r="K22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>18-веза-клапан_противопожарный-кпу-дд_ниппельный-круглый.png</v>
       </c>
@@ -4137,7 +4094,7 @@
       <c r="J23" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="K23" t="str">
+      <c r="K23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>19-веза-клапан_противопожарный-оксид_канальный-прямоугольный.png</v>
       </c>
@@ -4179,7 +4136,7 @@
       <c r="J24" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="K24" t="str">
+      <c r="K24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20-веза-клапан_противопожарный-оксид_стеновой-прямоугольный.png</v>
       </c>
@@ -4221,7 +4178,7 @@
       <c r="J25" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="K25" t="str">
+      <c r="K25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>21-веза-клапан_противопожарный-оксид_канальный_кассетный-прямоугольный.png</v>
       </c>
@@ -4263,7 +4220,7 @@
       <c r="J26" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="K26" t="str">
+      <c r="K26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>22-веза-клапан_противопожарный-прок-круглый.png</v>
       </c>
@@ -4305,7 +4262,7 @@
       <c r="J27" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="K27" t="str">
+      <c r="K27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>23-веза-клапан_противопожарный-прок-прямоугольный.png</v>
       </c>
@@ -4347,7 +4304,7 @@
       <c r="J28" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="K28" t="str">
+      <c r="K28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>24-ровен-шумоглушитель-гтк-круглый.png</v>
       </c>
@@ -4386,7 +4343,7 @@
       <c r="J29" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K29" t="str">
+      <c r="K29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>25-неватом-шумоглушитель-гтк-круглый.png</v>
       </c>
@@ -4425,7 +4382,7 @@
       <c r="J30" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="K30" t="str">
+      <c r="K30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>26-неватом-шумоглушитель-гтп-прямоугольный.png</v>
       </c>
@@ -4464,7 +4421,7 @@
       <c r="J31" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="K31" t="str">
+      <c r="K31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>27-неватом-клапан_воздушный-р-круглый.png</v>
       </c>
@@ -4503,7 +4460,7 @@
       <c r="J32" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="K32" t="str">
+      <c r="K32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>28-неватом-клапан_воздушный-р-прямоугольный.png</v>
       </c>
@@ -4539,7 +4496,7 @@
       <c r="J33" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="K33" t="str">
+      <c r="K33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>29-неватом-клапан_воздушный-kvk-круглый.png</v>
       </c>
@@ -4575,7 +4532,7 @@
       <c r="J34" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="K34" t="str">
+      <c r="K34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>30-неватом-клапан_воздушный-kv-прямоугольный.png</v>
       </c>
@@ -4614,7 +4571,7 @@
       <c r="J35" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="K35" t="str">
+      <c r="K35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>31-неватом-клапан_воздушный-kvu-p-прямоугольный.png</v>
       </c>
@@ -4650,7 +4607,7 @@
       <c r="J36" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="K36" t="str">
+      <c r="K36" s="4" t="str">
         <f t="shared" si="0"/>
         <v>32-неватом-клапан_обратный-ko-круглый.png</v>
       </c>
@@ -4686,8 +4643,8 @@
       <c r="J37" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="K37" t="str">
-        <f t="shared" si="0"/>
+      <c r="K37" s="4" t="str">
+        <f t="shared" ref="K37:K68" si="1">IF(B37="","",LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(B37,"-",H37,"-",E37,"-",C37,"-",G37,".png")," ","_"),"""",""),",",""),":","_")))</f>
         <v>33-неватом-клапан_обратный-ko_типа_бабочка-круглый.png</v>
       </c>
       <c r="M37" s="2" t="s">
@@ -4728,8 +4685,8 @@
       <c r="J38" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="K38" t="str">
-        <f t="shared" si="0"/>
+      <c r="K38" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>34-неватом-клапан_противопожарный-kpno-прямоугольный.png</v>
       </c>
       <c r="M38" s="2" t="s">
@@ -4764,8 +4721,8 @@
       <c r="J39" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="K39" t="str">
-        <f t="shared" si="0"/>
+      <c r="K39" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>35-неватом-воздуховод-tdc_iii-прямоугольный.png</v>
       </c>
       <c r="M39" s="2" t="s">
@@ -4800,8 +4757,8 @@
       <c r="J40" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="K40" t="str">
-        <f t="shared" si="0"/>
+      <c r="K40" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>36-неватом-заглушка-tdc_iii-прямоугольный.png</v>
       </c>
       <c r="M40" s="2" t="s">
@@ -4839,8 +4796,8 @@
       <c r="J41" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="K41" t="str">
-        <f t="shared" si="0"/>
+      <c r="K41" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>37-неватом-отвод-tdc_iii-прямоугольный.png</v>
       </c>
       <c r="M41" s="2" t="s">
@@ -4878,8 +4835,8 @@
       <c r="J42" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="K42" t="str">
-        <f t="shared" si="0"/>
+      <c r="K42" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>38-неватом-диффузор-дп4-прямоугольный.png</v>
       </c>
       <c r="M42" s="2" t="s">
@@ -4917,8 +4874,8 @@
       <c r="J43" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="K43" t="str">
-        <f t="shared" si="0"/>
+      <c r="K43" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>39-неватом-диффузор-кп_(кв)-круглый.png</v>
       </c>
       <c r="M43" s="2" t="s">
@@ -4956,8 +4913,8 @@
       <c r="J44" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K44" t="str">
-        <f t="shared" si="0"/>
+      <c r="K44" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>40-ровен-вентилятор-vc-круглый.png</v>
       </c>
       <c r="M44" s="2" t="s">
@@ -4998,8 +4955,8 @@
       <c r="J45" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="K45" t="str">
-        <f t="shared" si="0"/>
+      <c r="K45" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>41-ровен-вентилятор-vcn-прямоугольный.png</v>
       </c>
       <c r="M45" s="2" t="s">
@@ -5040,8 +4997,8 @@
       <c r="J46" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="K46" t="str">
-        <f t="shared" si="0"/>
+      <c r="K46" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>42-неватом-нагреватель-nwpk-круглый.png</v>
       </c>
       <c r="M46" s="2" t="s">
@@ -5085,8 +5042,8 @@
       <c r="J47" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="K47" t="str">
-        <f t="shared" si="0"/>
+      <c r="K47" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>43-неватом-нагреватель-nwp-прямоугольный.png</v>
       </c>
       <c r="M47" s="2" t="s">
@@ -5127,11 +5084,11 @@
       <c r="I48" t="s">
         <v>16</v>
       </c>
-      <c r="J48" s="4" t="s">
+      <c r="J48" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="K48" t="str">
-        <f t="shared" si="0"/>
+      <c r="K48" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>44-неватом-нагреватель-nek-круглый.png</v>
       </c>
       <c r="M48" s="2" t="s">
@@ -5172,11 +5129,11 @@
       <c r="I49" t="s">
         <v>16</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="J49" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="K49" t="str">
-        <f t="shared" si="0"/>
+      <c r="K49" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>45-неватом-нагреватель-nep-прямоугольный.png</v>
       </c>
       <c r="M49" s="2" t="s">
@@ -5220,8 +5177,8 @@
       <c r="J50" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="K50" t="str">
-        <f t="shared" si="0"/>
+      <c r="K50" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>46-неватом-охладитель-owp-прямоугольный.png</v>
       </c>
       <c r="M50" s="2" t="s">
@@ -5265,8 +5222,8 @@
       <c r="J51" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="K51" t="str">
-        <f t="shared" si="0"/>
+      <c r="K51" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>47-неватом-охладитель-ofp-прямоугольный.png</v>
       </c>
       <c r="M51" s="2" t="s">
@@ -5307,8 +5264,8 @@
       <c r="J52" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="K52" t="str">
-        <f t="shared" si="0"/>
+      <c r="K52" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>48-неватом-бактерицидная_секция-sub-прямоугольный.png</v>
       </c>
       <c r="M52" s="2" t="s">
@@ -5349,9 +5306,9 @@
       <c r="J53" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K53" t="str">
-        <f t="shared" si="0"/>
-        <v>49-нанософт_разработка-выноска-размер_воздуховода-не_применимо.png</v>
+      <c r="K53" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>49-нанософт_разработка-выноска-воздуховод_(размер)-не_применимо.png</v>
       </c>
       <c r="M53" s="2"/>
       <c r="S53" t="s">
@@ -5386,8 +5343,8 @@
       <c r="J54" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K54" t="str">
-        <f t="shared" si="0"/>
+      <c r="K54" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>50-нанософт_разработка-воздуховод-воздуховод-круглый.png</v>
       </c>
       <c r="M54" s="2" t="s">
@@ -5422,8 +5379,8 @@
       <c r="J55" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K55" t="str">
-        <f t="shared" si="0"/>
+      <c r="K55" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>51-нанософт_разработка-крестовина-крестовина-круглый.png</v>
       </c>
       <c r="M55" s="2" t="s">
@@ -5458,8 +5415,8 @@
       <c r="J56" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K56" t="str">
-        <f t="shared" si="0"/>
+      <c r="K56" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>52-нанософт_разработка-отвод-отвод-круглый.png</v>
       </c>
       <c r="M56" s="2" t="s">
@@ -5494,8 +5451,8 @@
       <c r="J57" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K57" t="str">
-        <f t="shared" si="0"/>
+      <c r="K57" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>53-нанософт_разработка-переход-переход-круглый.png</v>
       </c>
       <c r="M57" s="2" t="s">
@@ -5530,8 +5487,8 @@
       <c r="J58" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K58" t="str">
-        <f t="shared" si="0"/>
+      <c r="K58" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>54-нанософт_разработка-тройник-тройник-круглый.png</v>
       </c>
       <c r="M58" s="2" t="s">
@@ -5566,11 +5523,11 @@
       <c r="J59" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K59" t="str">
-        <f t="shared" si="0"/>
+      <c r="K59" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>55-нанософт_разработка-заглушка-заглушка-круглый.png</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="6">
         <v>100</v>
       </c>
     </row>
@@ -5602,8 +5559,8 @@
       <c r="J60" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K60" t="str">
-        <f t="shared" si="0"/>
+      <c r="K60" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>56-нанософт_разработка-крестовина-крестовина-круглый.png</v>
       </c>
       <c r="M60" s="2" t="s">
@@ -5638,11 +5595,11 @@
       <c r="J61" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K61" t="str">
-        <f t="shared" si="0"/>
+      <c r="K61" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>57-нанософт_разработка-отвод-отвод-круглый.png</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="6">
         <v>100</v>
       </c>
     </row>
@@ -5674,8 +5631,8 @@
       <c r="J62" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K62" t="str">
-        <f t="shared" si="0"/>
+      <c r="K62" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>58-нанософт_разработка-переход-переход-круглый.png</v>
       </c>
       <c r="M62" s="2" t="s">
@@ -5710,8 +5667,8 @@
       <c r="J63" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K63" t="str">
-        <f t="shared" si="0"/>
+      <c r="K63" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>59-нанософт_разработка-тройник-тройник-круглый.png</v>
       </c>
       <c r="M63" s="2" t="s">
@@ -5746,11 +5703,11 @@
       <c r="J64" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K64" t="str">
-        <f t="shared" si="0"/>
+      <c r="K64" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>60-нанософт_разработка-трубопровод-трубопровод-круглый.png</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="6">
         <v>150</v>
       </c>
     </row>
@@ -5779,15 +5736,12 @@
       <c r="J65" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K65" t="str">
-        <f t="shared" si="0"/>
+      <c r="K65" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>61-нанософт_разработка-воздуховод-воздуховод-круглый.png</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="66" spans="2:13">
@@ -5815,15 +5769,12 @@
       <c r="J66" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K66" t="str">
-        <f t="shared" si="0"/>
+      <c r="K66" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>62-нанософт_разработка-воздуховод-воздуховод-прямоугольный.png</v>
       </c>
-      <c r="L66" t="s">
-        <v>254</v>
-      </c>
       <c r="M66" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="67" spans="2:13">
@@ -5851,15 +5802,12 @@
       <c r="J67" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K67" t="str">
-        <f t="shared" si="0"/>
+      <c r="K67" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>63-нанософт_разработка-заглушка-заглушка-круглый.png</v>
       </c>
-      <c r="L67" t="s">
-        <v>256</v>
-      </c>
       <c r="M67" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="2:13">
@@ -5887,15 +5835,12 @@
       <c r="J68" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K68" t="str">
-        <f t="shared" si="0"/>
+      <c r="K68" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>64-нанософт_разработка-заглушка-заглушка-прямоугольный.png</v>
       </c>
-      <c r="L68" t="s">
-        <v>258</v>
-      </c>
       <c r="M68" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" spans="2:13">
@@ -5923,15 +5868,12 @@
       <c r="J69" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K69" t="str">
-        <f t="shared" ref="K69:K78" si="1">IF(B69="","",LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(B69,"-",H69,"-",E69,"-",C69,"-",G69,".png")," ","_"),"""",""),",","")))</f>
+      <c r="K69" s="4" t="str">
+        <f t="shared" ref="K69:K87" si="2">IF(B69="","",LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(B69,"-",H69,"-",E69,"-",C69,"-",G69,".png")," ","_"),"""",""),",",""),":","_")))</f>
         <v>65-нанософт_разработка-крестовина-крестовина-прямоугольный.png</v>
       </c>
-      <c r="L69" t="s">
-        <v>260</v>
-      </c>
       <c r="M69" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70" spans="2:13">
@@ -5959,15 +5901,12 @@
       <c r="J70" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K70" t="str">
-        <f t="shared" si="1"/>
+      <c r="K70" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>66-нанософт_разработка-крестовина-крестовина-круглый.png</v>
       </c>
-      <c r="L70" t="s">
-        <v>261</v>
-      </c>
       <c r="M70" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="71" spans="2:13">
@@ -5995,15 +5934,12 @@
       <c r="J71" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K71" t="str">
-        <f t="shared" si="1"/>
+      <c r="K71" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>67-нанософт_разработка-муфта-муфта-круглый.png</v>
       </c>
-      <c r="L71" t="s">
-        <v>263</v>
-      </c>
       <c r="M71" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="72" spans="2:13">
@@ -6011,7 +5947,7 @@
         <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D72" t="s">
         <v>21</v>
@@ -6031,15 +5967,12 @@
       <c r="J72" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K72" t="str">
-        <f t="shared" si="1"/>
+      <c r="K72" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>68-нанософт_разработка-муфта-ниппель-круглый.png</v>
       </c>
-      <c r="L72" t="s">
-        <v>266</v>
-      </c>
       <c r="M72" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="2:13">
@@ -6056,7 +5989,7 @@
         <v>40</v>
       </c>
       <c r="F73" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G73" t="s">
         <v>14</v>
@@ -6070,15 +6003,12 @@
       <c r="J73" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K73" t="str">
-        <f t="shared" si="1"/>
+      <c r="K73" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>69-нанософт_разработка-отвод-отвод-круглый.png</v>
       </c>
-      <c r="L73" t="s">
-        <v>268</v>
-      </c>
       <c r="M73" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" spans="2:13">
@@ -6095,7 +6025,7 @@
         <v>40</v>
       </c>
       <c r="F74" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="G74" t="s">
         <v>14</v>
@@ -6109,15 +6039,12 @@
       <c r="J74" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K74" t="str">
-        <f t="shared" si="1"/>
+      <c r="K74" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>70-нанософт_разработка-отвод-отвод-круглый.png</v>
       </c>
-      <c r="L74" t="s">
-        <v>270</v>
-      </c>
       <c r="M74" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="2:13">
@@ -6134,7 +6061,7 @@
         <v>40</v>
       </c>
       <c r="F75" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="G75" t="s">
         <v>14</v>
@@ -6148,15 +6075,12 @@
       <c r="J75" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K75" t="str">
-        <f t="shared" si="1"/>
+      <c r="K75" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>71-нанософт_разработка-отвод-отвод-круглый.png</v>
       </c>
-      <c r="L75" t="s">
-        <v>272</v>
-      </c>
       <c r="M75" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="76" spans="2:13">
@@ -6173,7 +6097,7 @@
         <v>40</v>
       </c>
       <c r="F76" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="G76" t="s">
         <v>18</v>
@@ -6187,15 +6111,12 @@
       <c r="J76" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K76" t="str">
-        <f t="shared" si="1"/>
+      <c r="K76" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>72-нанософт_разработка-отвод-отвод-прямоугольный.png</v>
       </c>
-      <c r="L76" t="s">
-        <v>273</v>
-      </c>
       <c r="M76" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="77" spans="2:13">
@@ -6212,7 +6133,7 @@
         <v>40</v>
       </c>
       <c r="F77" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="G77" t="s">
         <v>14</v>
@@ -6226,15 +6147,12 @@
       <c r="J77" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K77" t="str">
-        <f t="shared" si="1"/>
+      <c r="K77" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>73-нанософт_разработка-отвод-отвод-круглый.png</v>
       </c>
-      <c r="L77" t="s">
-        <v>276</v>
-      </c>
       <c r="M77" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" spans="2:13">
@@ -6251,7 +6169,7 @@
         <v>40</v>
       </c>
       <c r="F78" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="G78" t="s">
         <v>14</v>
@@ -6265,15 +6183,12 @@
       <c r="J78" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K78" t="str">
-        <f t="shared" si="1"/>
+      <c r="K78" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>74-нанософт_разработка-отвод-отвод-круглый.png</v>
       </c>
-      <c r="L78" t="s">
-        <v>279</v>
-      </c>
       <c r="M78" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="79" spans="2:13">
@@ -6290,7 +6205,7 @@
         <v>40</v>
       </c>
       <c r="F79" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="G79" t="s">
         <v>18</v>
@@ -6304,15 +6219,12 @@
       <c r="J79" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K79" t="str">
-        <f t="shared" ref="K79:K87" si="2">IF(B79="","",LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(B79,"-",H79,"-",E79,"-",C79,"-",G79,".png")," ","_"),"""",""),",","")))</f>
+      <c r="K79" s="4" t="str">
+        <f t="shared" si="2"/>
         <v>75-нанософт_разработка-отвод-отвод-прямоугольный.png</v>
       </c>
-      <c r="L79" t="s">
-        <v>280</v>
-      </c>
       <c r="M79" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="2:13">
@@ -6340,15 +6252,12 @@
       <c r="J80" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K80" t="str">
+      <c r="K80" s="4" t="str">
         <f t="shared" si="2"/>
         <v>76-нанософт_разработка-переход-переход-круглый.png</v>
       </c>
-      <c r="L80" t="s">
-        <v>281</v>
-      </c>
       <c r="M80" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" spans="2:13">
@@ -6365,7 +6274,7 @@
         <v>41</v>
       </c>
       <c r="F81" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="G81" t="s">
         <v>9</v>
@@ -6379,15 +6288,12 @@
       <c r="J81" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K81" t="str">
+      <c r="K81" s="4" t="str">
         <f t="shared" si="2"/>
         <v>77-нанософт_разработка-переход-переход-различные.png</v>
       </c>
-      <c r="L81" t="s">
-        <v>283</v>
-      </c>
       <c r="M81" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
     </row>
     <row r="82" spans="2:13">
@@ -6404,7 +6310,7 @@
         <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="G82" t="s">
         <v>18</v>
@@ -6418,15 +6324,12 @@
       <c r="J82" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K82" t="str">
+      <c r="K82" s="4" t="str">
         <f t="shared" si="2"/>
         <v>78-нанософт_разработка-переход-переход-прямоугольный.png</v>
       </c>
-      <c r="L82" t="s">
-        <v>286</v>
-      </c>
       <c r="M82" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
     </row>
     <row r="83" spans="2:13">
@@ -6454,15 +6357,12 @@
       <c r="J83" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K83" t="str">
+      <c r="K83" s="4" t="str">
         <f t="shared" si="2"/>
         <v>79-нанософт_разработка-тройник-тройник-круглый.png</v>
       </c>
-      <c r="L83" t="s">
-        <v>288</v>
-      </c>
       <c r="M83" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
     </row>
     <row r="84" spans="2:13">
@@ -6490,41 +6390,93 @@
       <c r="J84" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K84" t="str">
+      <c r="K84" s="4" t="str">
         <f t="shared" si="2"/>
         <v>80-нанософт_разработка-тройник-тройник-прямоугольный.png</v>
       </c>
-      <c r="L84" t="s">
-        <v>290</v>
-      </c>
       <c r="M84" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="85" spans="11:11">
-      <c r="K85" t="str">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19">
+      <c r="B85" s="1">
+        <v>81</v>
+      </c>
+      <c r="C85" t="s">
+        <v>272</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85"/>
+      <c r="G85" t="s">
+        <v>6</v>
+      </c>
+      <c r="H85" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" t="s">
+        <v>6</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="K85" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="11:11">
-      <c r="K86" t="str">
+        <v>81-нанософт_разработка-выноска-воздуховод_(размер_скорость_расход_потеря_давления)-не_применимо.png</v>
+      </c>
+      <c r="S85" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19">
+      <c r="B86" s="1">
+        <v>82</v>
+      </c>
+      <c r="C86" t="s">
+        <v>274</v>
+      </c>
+      <c r="D86" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="G86" t="s">
+        <v>6</v>
+      </c>
+      <c r="H86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I86" t="s">
+        <v>6</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="K86" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>82-нанософт_разработка-выноска-вход_в_систему_(полная_потеря_давления)-не_применимо.png</v>
+      </c>
+      <c r="S86" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="87" spans="11:11">
-      <c r="K87" t="str">
+      <c r="K87" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65;H66;H67;H68;H69;H70;H71;H72;H73;H74;H75;H76;H77;H78;H79;H80;H81;H82;H83;H84;H5:H64">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H65;H66;H67;H68;H69;H70;H71;H72;H73;H74;H75;H76;H77;H78;H79;H80;H81;H82;H83;H84;H85;H86;H5:H64">
       <formula1>Производитель</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D66;D67;D68;D69;D70;D71;D72;D73;D74;D75;D76;D77;D78;D79;D80;D81;D82;D83;D84;D5:D65">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D66;D67;D68;D69;D70;D71;D72;D73;D74;D75;D76;D77;D78;D79;D80;D81;D82;D83;D84;D85;D86;D5:D65">
       <formula1>Категория_сайта</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E66;E67;E68;E69;E70;E71;E74;E75;E76;E77;E78;E79;E5:E65;E72:E73">
@@ -6553,7 +6505,7 @@
   <sheetPr/>
   <dimension ref="B4:S200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:S200"/>
     </sheetView>
   </sheetViews>
@@ -10230,7 +10182,7 @@
       </c>
       <c r="C53" t="str">
         <f>IF(Компоненты!C53&lt;&gt;"",Компоненты!C53,"")</f>
-        <v>Размер воздуховода</v>
+        <v>Воздуховод (Размер)</v>
       </c>
       <c r="D53" t="str">
         <f>IF(Компоненты!D53&lt;&gt;"",Компоненты!D53,"")</f>
@@ -10262,7 +10214,7 @@
       </c>
       <c r="K53" t="str">
         <f>IF(Компоненты!K53&lt;&gt;"",Компоненты!K53,"")</f>
-        <v>49-нанософт_разработка-выноска-размер_воздуховода-не_применимо.png</v>
+        <v>49-нанософт_разработка-выноска-воздуховод_(размер)-не_применимо.png</v>
       </c>
       <c r="L53" t="str">
         <f>IF(Компоненты!L53&lt;&gt;"",Компоненты!L53,"")</f>
@@ -10294,7 +10246,7 @@
       </c>
       <c r="S53" t="str">
         <f>IF(Компоненты!S53&lt;&gt;"",Компоненты!S53,"")</f>
-        <v>В компоненте реализована возможность автоматического выбора между обозначением круглого и прямоугольного воздуховодов</v>
+        <v>В компоненте реализована возможность автоматического выбора между обозначением круглого и прямоугольного воздуховодов. Создание выноски обсуждается здесь: https://forum.nanocad.ru/discussion/129/sozdanie-vynoski</v>
       </c>
     </row>
     <row r="54" spans="2:19">
@@ -11154,7 +11106,7 @@
       </c>
       <c r="L65" t="str">
         <f>IF(Компоненты!L65&lt;&gt;"",Компоненты!L65,"")</f>
-        <v>2024-07-30_162529.png</v>
+        <v/>
       </c>
       <c r="M65" t="str">
         <f>IF(Компоненты!M65&lt;&gt;"",Компоненты!M65,"")</f>
@@ -11228,7 +11180,7 @@
       </c>
       <c r="L66" t="str">
         <f>IF(Компоненты!L66&lt;&gt;"",Компоненты!L66,"")</f>
-        <v>2024-07-30_164040.png</v>
+        <v/>
       </c>
       <c r="M66" t="str">
         <f>IF(Компоненты!M66&lt;&gt;"",Компоненты!M66,"")</f>
@@ -11302,7 +11254,7 @@
       </c>
       <c r="L67" t="str">
         <f>IF(Компоненты!L67&lt;&gt;"",Компоненты!L67,"")</f>
-        <v>2024-07-30_164334.png</v>
+        <v/>
       </c>
       <c r="M67" t="str">
         <f>IF(Компоненты!M67&lt;&gt;"",Компоненты!M67,"")</f>
@@ -11376,7 +11328,7 @@
       </c>
       <c r="L68" t="str">
         <f>IF(Компоненты!L68&lt;&gt;"",Компоненты!L68,"")</f>
-        <v>2024-07-30_164521.png</v>
+        <v/>
       </c>
       <c r="M68" t="str">
         <f>IF(Компоненты!M68&lt;&gt;"",Компоненты!M68,"")</f>
@@ -11450,7 +11402,7 @@
       </c>
       <c r="L69" t="str">
         <f>IF(Компоненты!L69&lt;&gt;"",Компоненты!L69,"")</f>
-        <v>2024-07-30_164728.png</v>
+        <v/>
       </c>
       <c r="M69" t="str">
         <f>IF(Компоненты!M69&lt;&gt;"",Компоненты!M69,"")</f>
@@ -11524,7 +11476,7 @@
       </c>
       <c r="L70" t="str">
         <f>IF(Компоненты!L70&lt;&gt;"",Компоненты!L70,"")</f>
-        <v>2024-07-30_164920.png</v>
+        <v/>
       </c>
       <c r="M70" t="str">
         <f>IF(Компоненты!M70&lt;&gt;"",Компоненты!M70,"")</f>
@@ -11598,7 +11550,7 @@
       </c>
       <c r="L71" t="str">
         <f>IF(Компоненты!L71&lt;&gt;"",Компоненты!L71,"")</f>
-        <v>2024-07-30_165208.png</v>
+        <v/>
       </c>
       <c r="M71" t="str">
         <f>IF(Компоненты!M71&lt;&gt;"",Компоненты!M71,"")</f>
@@ -11672,7 +11624,7 @@
       </c>
       <c r="L72" t="str">
         <f>IF(Компоненты!L72&lt;&gt;"",Компоненты!L72,"")</f>
-        <v>2024-07-30_165420.png</v>
+        <v/>
       </c>
       <c r="M72" t="str">
         <f>IF(Компоненты!M72&lt;&gt;"",Компоненты!M72,"")</f>
@@ -11746,7 +11698,7 @@
       </c>
       <c r="L73" t="str">
         <f>IF(Компоненты!L73&lt;&gt;"",Компоненты!L73,"")</f>
-        <v>2024-07-30_165826.png</v>
+        <v/>
       </c>
       <c r="M73" t="str">
         <f>IF(Компоненты!M73&lt;&gt;"",Компоненты!M73,"")</f>
@@ -11820,7 +11772,7 @@
       </c>
       <c r="L74" t="str">
         <f>IF(Компоненты!L74&lt;&gt;"",Компоненты!L74,"")</f>
-        <v>2024-07-30_170114.png</v>
+        <v/>
       </c>
       <c r="M74" t="str">
         <f>IF(Компоненты!M74&lt;&gt;"",Компоненты!M74,"")</f>
@@ -11894,7 +11846,7 @@
       </c>
       <c r="L75" t="str">
         <f>IF(Компоненты!L75&lt;&gt;"",Компоненты!L75,"")</f>
-        <v>2024-07-30_170211.png</v>
+        <v/>
       </c>
       <c r="M75" t="str">
         <f>IF(Компоненты!M75&lt;&gt;"",Компоненты!M75,"")</f>
@@ -11968,7 +11920,7 @@
       </c>
       <c r="L76" t="str">
         <f>IF(Компоненты!L76&lt;&gt;"",Компоненты!L76,"")</f>
-        <v>2024-07-30_170329.png</v>
+        <v/>
       </c>
       <c r="M76" t="str">
         <f>IF(Компоненты!M76&lt;&gt;"",Компоненты!M76,"")</f>
@@ -12042,7 +11994,7 @@
       </c>
       <c r="L77" t="str">
         <f>IF(Компоненты!L77&lt;&gt;"",Компоненты!L77,"")</f>
-        <v>2024-07-30_170600.png</v>
+        <v/>
       </c>
       <c r="M77" t="str">
         <f>IF(Компоненты!M77&lt;&gt;"",Компоненты!M77,"")</f>
@@ -12116,7 +12068,7 @@
       </c>
       <c r="L78" t="str">
         <f>IF(Компоненты!L78&lt;&gt;"",Компоненты!L78,"")</f>
-        <v>2024-07-30_170740.png</v>
+        <v/>
       </c>
       <c r="M78" t="str">
         <f>IF(Компоненты!M78&lt;&gt;"",Компоненты!M78,"")</f>
@@ -12190,7 +12142,7 @@
       </c>
       <c r="L79" t="str">
         <f>IF(Компоненты!L79&lt;&gt;"",Компоненты!L79,"")</f>
-        <v>2024-07-30_170926.png</v>
+        <v/>
       </c>
       <c r="M79" t="str">
         <f>IF(Компоненты!M79&lt;&gt;"",Компоненты!M79,"")</f>
@@ -12264,7 +12216,7 @@
       </c>
       <c r="L80" t="str">
         <f>IF(Компоненты!L80&lt;&gt;"",Компоненты!L80,"")</f>
-        <v>2024-07-30_171145.png</v>
+        <v/>
       </c>
       <c r="M80" t="str">
         <f>IF(Компоненты!M80&lt;&gt;"",Компоненты!M80,"")</f>
@@ -12338,7 +12290,7 @@
       </c>
       <c r="L81" t="str">
         <f>IF(Компоненты!L81&lt;&gt;"",Компоненты!L81,"")</f>
-        <v>2024-07-30_171406.png</v>
+        <v/>
       </c>
       <c r="M81" t="str">
         <f>IF(Компоненты!M81&lt;&gt;"",Компоненты!M81,"")</f>
@@ -12412,7 +12364,7 @@
       </c>
       <c r="L82" t="str">
         <f>IF(Компоненты!L82&lt;&gt;"",Компоненты!L82,"")</f>
-        <v>2024-07-30_171855.png</v>
+        <v/>
       </c>
       <c r="M82" t="str">
         <f>IF(Компоненты!M82&lt;&gt;"",Компоненты!M82,"")</f>
@@ -12486,7 +12438,7 @@
       </c>
       <c r="L83" t="str">
         <f>IF(Компоненты!L83&lt;&gt;"",Компоненты!L83,"")</f>
-        <v>2024-07-30_172408.png</v>
+        <v/>
       </c>
       <c r="M83" t="str">
         <f>IF(Компоненты!M83&lt;&gt;"",Компоненты!M83,"")</f>
@@ -12560,7 +12512,7 @@
       </c>
       <c r="L84" t="str">
         <f>IF(Компоненты!L84&lt;&gt;"",Компоненты!L84,"")</f>
-        <v>2024-07-30_172941.png</v>
+        <v/>
       </c>
       <c r="M84" t="str">
         <f>IF(Компоненты!M84&lt;&gt;"",Компоненты!M84,"")</f>
@@ -12592,21 +12544,21 @@
       </c>
     </row>
     <row r="85" spans="2:19">
-      <c r="B85" t="str">
+      <c r="B85">
         <f>IF(Компоненты!B85&lt;&gt;"",Компоненты!B85,"")</f>
-        <v/>
+        <v>81</v>
       </c>
       <c r="C85" t="str">
         <f>IF(Компоненты!C85&lt;&gt;"",Компоненты!C85,"")</f>
-        <v/>
+        <v>Воздуховод (Размер, Скорость, Расход, Потеря давления)</v>
       </c>
       <c r="D85" t="str">
         <f>IF(Компоненты!D85&lt;&gt;"",Компоненты!D85,"")</f>
-        <v/>
+        <v>Аннотации</v>
       </c>
       <c r="E85" t="str">
         <f>IF(Компоненты!E85&lt;&gt;"",Компоненты!E85,"")</f>
-        <v/>
+        <v>Выноска</v>
       </c>
       <c r="F85" t="str">
         <f>IF(Компоненты!F85&lt;&gt;"",Компоненты!F85,"")</f>
@@ -12614,23 +12566,23 @@
       </c>
       <c r="G85" t="str">
         <f>IF(Компоненты!G85&lt;&gt;"",Компоненты!G85,"")</f>
-        <v/>
+        <v>Не применимо</v>
       </c>
       <c r="H85" t="str">
         <f>IF(Компоненты!H85&lt;&gt;"",Компоненты!H85,"")</f>
-        <v/>
+        <v>Нанософт разработка</v>
       </c>
       <c r="I85" t="str">
         <f>IF(Компоненты!I85&lt;&gt;"",Компоненты!I85,"")</f>
-        <v/>
+        <v>Не применимо</v>
       </c>
       <c r="J85" t="str">
         <f>IF(Компоненты!J85&lt;&gt;"",Компоненты!J85,"")</f>
-        <v/>
+        <v>https://www.nanocad.ru/products/bim/ventilation/</v>
       </c>
       <c r="K85" t="str">
         <f>IF(Компоненты!K85&lt;&gt;"",Компоненты!K85,"")</f>
-        <v/>
+        <v>81-нанософт_разработка-выноска-воздуховод_(размер_скорость_расход_потеря_давления)-не_применимо.png</v>
       </c>
       <c r="L85" t="str">
         <f>IF(Компоненты!L85&lt;&gt;"",Компоненты!L85,"")</f>
@@ -12662,25 +12614,25 @@
       </c>
       <c r="S85" t="str">
         <f>IF(Компоненты!S85&lt;&gt;"",Компоненты!S85,"")</f>
-        <v/>
+        <v>В компоненте реализована возможность автоматического выбора между обозначением круглого и прямоугольного воздуховодов</v>
       </c>
     </row>
     <row r="86" spans="2:19">
-      <c r="B86" t="str">
+      <c r="B86">
         <f>IF(Компоненты!B86&lt;&gt;"",Компоненты!B86,"")</f>
-        <v/>
+        <v>82</v>
       </c>
       <c r="C86" t="str">
         <f>IF(Компоненты!C86&lt;&gt;"",Компоненты!C86,"")</f>
-        <v/>
+        <v>Вход в систему (Полная потеря давления)</v>
       </c>
       <c r="D86" t="str">
         <f>IF(Компоненты!D86&lt;&gt;"",Компоненты!D86,"")</f>
-        <v/>
+        <v>Аннотации</v>
       </c>
       <c r="E86" t="str">
         <f>IF(Компоненты!E86&lt;&gt;"",Компоненты!E86,"")</f>
-        <v/>
+        <v>Выноска</v>
       </c>
       <c r="F86" t="str">
         <f>IF(Компоненты!F86&lt;&gt;"",Компоненты!F86,"")</f>
@@ -12688,23 +12640,23 @@
       </c>
       <c r="G86" t="str">
         <f>IF(Компоненты!G86&lt;&gt;"",Компоненты!G86,"")</f>
-        <v/>
+        <v>Не применимо</v>
       </c>
       <c r="H86" t="str">
         <f>IF(Компоненты!H86&lt;&gt;"",Компоненты!H86,"")</f>
-        <v/>
+        <v>Нанософт разработка</v>
       </c>
       <c r="I86" t="str">
         <f>IF(Компоненты!I86&lt;&gt;"",Компоненты!I86,"")</f>
-        <v/>
+        <v>Не применимо</v>
       </c>
       <c r="J86" t="str">
         <f>IF(Компоненты!J86&lt;&gt;"",Компоненты!J86,"")</f>
-        <v/>
+        <v>https://www.nanocad.ru/products/bim/ventilation/</v>
       </c>
       <c r="K86" t="str">
         <f>IF(Компоненты!K86&lt;&gt;"",Компоненты!K86,"")</f>
-        <v/>
+        <v>82-нанософт_разработка-выноска-вход_в_систему_(полная_потеря_давления)-не_применимо.png</v>
       </c>
       <c r="L86" t="str">
         <f>IF(Компоненты!L86&lt;&gt;"",Компоненты!L86,"")</f>
@@ -12736,7 +12688,7 @@
       </c>
       <c r="S86" t="str">
         <f>IF(Компоненты!S86&lt;&gt;"",Компоненты!S86,"")</f>
-        <v/>
+        <v>Выноска показывает суммарные значения потерь давления в системе. Предназначена для компонента Вход в систему</v>
       </c>
     </row>
     <row r="87" spans="2:19">

--- a/db/Base.xlsx
+++ b/db/Base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000" activeTab="4"/>
+    <workbookView windowWidth="22188" windowHeight="9000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры_компонентов" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="289">
   <si>
     <t>На этом листе собраны возможные значения параметров, описывающих типы компонентов nanoCAD BIM Вентиляция</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Россия</t>
+  </si>
+  <si>
+    <t>Оформление</t>
   </si>
   <si>
     <t>Клапан обратный</t>
@@ -2338,7 +2341,7 @@
   <dimension ref="B1:K41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2428,22 +2431,22 @@
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="18" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="15.15" spans="2:11">
@@ -2451,52 +2454,52 @@
         <v>11</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>6</v>
@@ -2505,12 +2508,12 @@
         <v>6</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>9</v>
@@ -2521,170 +2524,170 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
         <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="4:5">
       <c r="D17" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="4:5">
       <c r="D18" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="4:5">
       <c r="D19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="4:5">
       <c r="D20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="4:5">
       <c r="D21" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="4:5">
       <c r="D22" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="4:5">
       <c r="D23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="4:5">
       <c r="D24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="4:5">
       <c r="D25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="4:5">
       <c r="D26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="4:5">
       <c r="D27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="4:5">
       <c r="D28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="4:5">
       <c r="D29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="4:5">
       <c r="D30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="4:5">
       <c r="D31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="4:5">
       <c r="D32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="4:5">
       <c r="D33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="4:5">
       <c r="D34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="4:5">
       <c r="D35" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="4:5">
       <c r="D41" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E41" s="17">
         <f>SUBTOTAL(103,Таблица_Привязка_категорий[Категория_сайта])</f>
@@ -2726,53 +2729,53 @@
     <row r="1" ht="15.15"/>
     <row r="2" ht="29.55" spans="2:2">
       <c r="B2" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="15.15"/>
     <row r="4" spans="2:3">
       <c r="B4" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2810,21 +2813,21 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>2</v>
@@ -2847,29 +2850,29 @@
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="4" t="str">
         <f>IF(ISTEXT(F5),VLOOKUP(F5,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Арматура воздуховодов</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
         <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="2:10">
@@ -2877,29 +2880,29 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" s="4" t="str">
         <f>IF(ISTEXT(F6),VLOOKUP(F6,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Оборудование</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
         <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="2:10">
@@ -2907,13 +2910,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -2929,7 +2932,7 @@
         <v>9</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="2:10">
@@ -2937,16 +2940,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" s="4" t="str">
         <f>IF(ISTEXT(F8),VLOOKUP(F8,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
@@ -2956,10 +2959,10 @@
         <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="2:10">
@@ -2967,13 +2970,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -2983,13 +2986,13 @@
         <v>Не применимо</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
         <v>9</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1" spans="2:10">
@@ -2997,29 +3000,29 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G10" s="4" t="str">
         <f>IF(ISTEXT(F10),VLOOKUP(F10,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Воздухораспределители</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
         <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1" spans="2:10">
@@ -3027,29 +3030,29 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="4" t="str">
         <f>IF(ISTEXT(F11),VLOOKUP(F11,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Оборудование</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
         <v>9</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25" customHeight="1" spans="2:10">
@@ -3057,13 +3060,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -3073,13 +3076,13 @@
         <v>Не применимо</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
         <v>9</v>
       </c>
       <c r="J12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1" spans="2:10">
@@ -3087,29 +3090,29 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G13" s="4" t="str">
         <f>IF(ISTEXT(F13),VLOOKUP(F13,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Оборудование</v>
       </c>
       <c r="H13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
         <v>16</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="2:10">
@@ -3117,13 +3120,13 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
         <v>7</v>
@@ -3139,7 +3142,7 @@
         <v>6</v>
       </c>
       <c r="J14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="25" customHeight="1" spans="2:10">
@@ -3147,28 +3150,28 @@
         <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1" spans="2:10">
@@ -3176,28 +3179,28 @@
         <v>12</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:10">
@@ -3205,28 +3208,28 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s">
         <v>9</v>
       </c>
       <c r="J17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -3312,8 +3315,8 @@
   <sheetPr/>
   <dimension ref="B4:R93"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3332,55 +3335,55 @@
   <sheetData>
     <row r="4" spans="2:18">
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="2:18">
@@ -3388,38 +3391,38 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L5" s="4" t="str">
         <f t="shared" ref="L5:L36" si="0">IF(B5="","",LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(B5,"-",H5,"-",E5,"-",C5,"-",G5,".png")," ","_"),"""",""),",",""),":","_")))</f>
         <v>1-арктос-диффузор-дпу-м-круглый.png</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="2:16">
@@ -3427,38 +3430,38 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>2-арктос-решетка-амн-прямоугольный.png</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="2:15">
@@ -3466,38 +3469,38 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
       <c r="K7" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>3-веза-клапан_противопожарный-кпу-1н_канальный-прямоугольный.png</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -3505,38 +3508,38 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
       <c r="K8" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>4-веза-клапан_противопожарный-кпу-1н_стеновой-прямоугольный.png</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:15">
@@ -3544,38 +3547,38 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
         <v>17</v>
       </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
-        <v>16</v>
-      </c>
       <c r="K9" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>5-веза-клапан_противопожарный-кпу-1н_канальный-круглый.png</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:15">
@@ -3583,38 +3586,38 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
         <v>17</v>
       </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>16</v>
-      </c>
       <c r="K10" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>6-веза-клапан_противопожарный-кпу-1н_стеновой-круглый.png</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="2:15">
@@ -3622,38 +3625,38 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
         <v>17</v>
       </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>16</v>
-      </c>
       <c r="K11" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>7-веза-клапан_противопожарный-кпу-2н_канальный_дымовой-круглый.png</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="2:15">
@@ -3661,38 +3664,38 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
         <v>17</v>
       </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>16</v>
-      </c>
       <c r="K12" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>8-веза-клапан_противопожарный-кпу-2н_канальный_нормально_открытый-круглый.png</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -3700,38 +3703,38 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
       </c>
       <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
         <v>17</v>
       </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" t="s">
-        <v>16</v>
-      </c>
       <c r="K13" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>9-веза-клапан_противопожарный-кпу-2н_канальный_нормально_закрытый-круглый.png</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -3739,38 +3742,38 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
       </c>
       <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
         <v>17</v>
       </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" t="s">
-        <v>16</v>
-      </c>
       <c r="K14" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>10-веза-клапан_противопожарный-кпу-2н_ниппельный_дымовой-круглый.png</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="2:15">
@@ -3778,38 +3781,38 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
       </c>
       <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
         <v>17</v>
       </c>
-      <c r="G15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" t="s">
-        <v>16</v>
-      </c>
       <c r="K15" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>11-веза-клапан_противопожарный-кпу-2н_ниппельный_нормально_открытый-круглый.png</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="2:15">
@@ -3817,38 +3820,38 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
       </c>
       <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
         <v>17</v>
       </c>
-      <c r="G16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" t="s">
-        <v>16</v>
-      </c>
       <c r="K16" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>12-веза-клапан_противопожарный-кпу-2н_ниппельный_нормально_закрытый-круглый.png</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="2:15">
@@ -3856,38 +3859,38 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
       </c>
       <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
         <v>17</v>
       </c>
-      <c r="G17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" t="s">
-        <v>16</v>
-      </c>
       <c r="K17" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>13-веза-клапан_противопожарный-кпу-2н-вд_канальный_нормально_открытый-прямоугольный.png</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="2:15">
@@ -3895,38 +3898,38 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
       </c>
       <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
         <v>17</v>
       </c>
-      <c r="G18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" t="s">
-        <v>16</v>
-      </c>
       <c r="K18" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>14-веза-клапан_противопожарный-кпу-2н-вд_канальный_нормально_закрытый-прямоугольный.png</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="2:15">
@@ -3934,41 +3937,41 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
       </c>
       <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
         <v>17</v>
       </c>
-      <c r="F19" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" t="s">
-        <v>16</v>
-      </c>
       <c r="K19" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>15-веза-клапан_противопожарный-кпу-дд_канальный-прямоугольный.png</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="2:15">
@@ -3976,41 +3979,41 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
       </c>
       <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
         <v>17</v>
       </c>
-      <c r="F20" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" t="s">
-        <v>16</v>
-      </c>
       <c r="K20" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>16-веза-клапан_противопожарный-кпу-дд_стеновой-прямоугольный.png</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="2:15">
@@ -4018,41 +4021,41 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
         <v>17</v>
       </c>
-      <c r="F21" t="s">
-        <v>135</v>
-      </c>
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" t="s">
-        <v>16</v>
-      </c>
       <c r="K21" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>17-веза-клапан_противопожарный-кпу-дд_канальный-круглый.png</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="2:15">
@@ -4060,41 +4063,41 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
       </c>
       <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
         <v>17</v>
       </c>
-      <c r="F22" t="s">
-        <v>135</v>
-      </c>
-      <c r="G22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" t="s">
-        <v>16</v>
-      </c>
       <c r="K22" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>18-веза-клапан_противопожарный-кпу-дд_ниппельный-круглый.png</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="2:15">
@@ -4102,41 +4105,41 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
       </c>
       <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
         <v>17</v>
       </c>
-      <c r="F23" t="s">
-        <v>144</v>
-      </c>
-      <c r="G23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" t="s">
-        <v>16</v>
-      </c>
       <c r="K23" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>19-веза-клапан_противопожарный-оксид_канальный-прямоугольный.png</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="2:15">
@@ -4144,41 +4147,41 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
       </c>
       <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
         <v>17</v>
       </c>
-      <c r="F24" t="s">
-        <v>144</v>
-      </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" t="s">
-        <v>16</v>
-      </c>
       <c r="K24" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>20-веза-клапан_противопожарный-оксид_стеновой-прямоугольный.png</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="2:15">
@@ -4186,41 +4189,41 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
       </c>
       <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
         <v>17</v>
       </c>
-      <c r="F25" t="s">
-        <v>144</v>
-      </c>
-      <c r="G25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" t="s">
-        <v>16</v>
-      </c>
       <c r="K25" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>21-веза-клапан_противопожарный-оксид_канальный_кассетный-прямоугольный.png</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="2:15">
@@ -4228,41 +4231,41 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
       </c>
       <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
         <v>17</v>
       </c>
-      <c r="F26" t="s">
-        <v>152</v>
-      </c>
-      <c r="G26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" t="s">
-        <v>16</v>
-      </c>
       <c r="K26" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>22-веза-клапан_противопожарный-прок-круглый.png</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="2:15">
@@ -4270,41 +4273,41 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
       </c>
       <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>153</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
         <v>17</v>
       </c>
-      <c r="F27" t="s">
-        <v>152</v>
-      </c>
-      <c r="G27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" t="s">
-        <v>16</v>
-      </c>
       <c r="K27" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>23-веза-клапан_противопожарный-прок-прямоугольный.png</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="2:14">
@@ -4312,38 +4315,38 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>24-ровен-шумоглушитель-гтк-круглый.png</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="2:14">
@@ -4351,38 +4354,38 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>25-неватом-шумоглушитель-гтк-круглый.png</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="2:14">
@@ -4390,38 +4393,38 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>26-неватом-шумоглушитель-гтп-прямоугольный.png</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="2:14">
@@ -4429,7 +4432,7 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
@@ -4438,29 +4441,29 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>27-неватом-клапан_воздушный-р-круглый.png</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="2:14">
@@ -4468,7 +4471,7 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
@@ -4477,29 +4480,29 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>28-неватом-клапан_воздушный-р-прямоугольный.png</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="2:14">
@@ -4507,7 +4510,7 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
@@ -4516,26 +4519,26 @@
         <v>10</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>29-неватом-клапан_воздушный-kvk-круглый.png</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="2:16">
@@ -4543,7 +4546,7 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
@@ -4552,26 +4555,26 @@
         <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L34" s="4" t="str">
         <f t="shared" si="0"/>
         <v>30-неватом-клапан_воздушный-kv-прямоугольный.png</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="2:14">
@@ -4579,7 +4582,7 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D35" t="s">
         <v>11</v>
@@ -4588,29 +4591,29 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L35" s="4" t="str">
         <f t="shared" si="0"/>
         <v>31-неватом-клапан_воздушный-kvu-p-прямоугольный.png</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="2:14">
@@ -4618,35 +4621,35 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L36" s="4" t="str">
         <f t="shared" si="0"/>
         <v>32-неватом-клапан_обратный-ko-круглый.png</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="2:16">
@@ -4654,38 +4657,38 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L37" s="4" t="str">
         <f t="shared" ref="L37:L68" si="1">IF(B37="","",LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(B37,"-",H37,"-",E37,"-",C37,"-",G37,".png")," ","_"),"""",""),",",""),":","_")))</f>
         <v>33-неватом-клапан_обратный-ko_типа_бабочка-круглый.png</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="2:14">
@@ -4693,38 +4696,38 @@
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
       </c>
       <c r="E38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" t="s">
+        <v>189</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" t="s">
         <v>17</v>
       </c>
-      <c r="F38" t="s">
-        <v>188</v>
-      </c>
-      <c r="G38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" t="s">
-        <v>16</v>
-      </c>
       <c r="K38" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L38" s="4" t="str">
         <f t="shared" si="1"/>
         <v>34-неватом-клапан_противопожарный-kpno-прямоугольный.png</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="2:14">
@@ -4732,35 +4735,35 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L39" s="4" t="str">
         <f t="shared" si="1"/>
         <v>35-неватом-воздуховод-tdc_iii-прямоугольный.png</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="2:14">
@@ -4768,35 +4771,35 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L40" s="4" t="str">
         <f t="shared" si="1"/>
         <v>36-неватом-заглушка-tdc_iii-прямоугольный.png</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="2:14">
@@ -4804,38 +4807,38 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L41" s="4" t="str">
         <f t="shared" si="1"/>
         <v>37-неватом-отвод-tdc_iii-прямоугольный.png</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="2:16">
@@ -4843,38 +4846,38 @@
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" t="s">
         <v>23</v>
       </c>
-      <c r="E42" t="s">
-        <v>22</v>
-      </c>
       <c r="F42" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L42" s="4" t="str">
         <f t="shared" si="1"/>
         <v>38-неватом-диффузор-дп4-прямоугольный.png</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="2:14">
@@ -4882,38 +4885,38 @@
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s">
         <v>23</v>
       </c>
-      <c r="E43" t="s">
-        <v>22</v>
-      </c>
       <c r="F43" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L43" s="4" t="str">
         <f t="shared" si="1"/>
         <v>39-неватом-диффузор-кп_(кв)-круглый.png</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N43" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="2:14">
@@ -4921,41 +4924,41 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J44" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L44" s="4" t="str">
         <f t="shared" si="1"/>
         <v>40-ровен-вентилятор-vc-круглый.png</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N44" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="2:14">
@@ -4963,41 +4966,41 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F45" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J45" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L45" s="4" t="str">
         <f t="shared" si="1"/>
         <v>41-ровен-вентилятор-vcn-прямоугольный.png</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N45" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="2:17">
@@ -5005,44 +5008,44 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F46" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H46" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L46" s="4" t="str">
         <f t="shared" si="1"/>
         <v>42-неватом-нагреватель-nwpk-круглый.png</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="2:17">
@@ -5050,44 +5053,44 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L47" s="4" t="str">
         <f t="shared" si="1"/>
         <v>43-неватом-нагреватель-nwp-прямоугольный.png</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N47" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P47" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q47" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="2:15">
@@ -5095,44 +5098,44 @@
         <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J48" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L48" s="4" t="str">
         <f t="shared" si="1"/>
         <v>44-неватом-нагреватель-nek-круглый.png</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="2:15">
@@ -5140,44 +5143,44 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
+        <v>228</v>
+      </c>
+      <c r="D49" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" t="s">
+        <v>225</v>
+      </c>
+      <c r="G49" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" t="s">
+        <v>226</v>
+      </c>
+      <c r="K49" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="D49" t="s">
-        <v>29</v>
-      </c>
-      <c r="E49" t="s">
-        <v>34</v>
-      </c>
-      <c r="F49" t="s">
-        <v>224</v>
-      </c>
-      <c r="G49" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" t="s">
-        <v>24</v>
-      </c>
-      <c r="I49" t="s">
-        <v>16</v>
-      </c>
-      <c r="J49" t="s">
-        <v>225</v>
-      </c>
-      <c r="K49" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="L49" s="4" t="str">
         <f t="shared" si="1"/>
         <v>45-неватом-нагреватель-nep-прямоугольный.png</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N49" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O49" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="2:17">
@@ -5185,44 +5188,44 @@
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L50" s="4" t="str">
         <f t="shared" si="1"/>
         <v>46-неватом-охладитель-owp-прямоугольный.png</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="2:17">
@@ -5230,44 +5233,44 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L51" s="4" t="str">
         <f t="shared" si="1"/>
         <v>47-неватом-охладитель-ofp-прямоугольный.png</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N51" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P51" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q51" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="2:15">
@@ -5275,38 +5278,38 @@
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L52" s="4" t="str">
         <f t="shared" si="1"/>
         <v>48-неватом-бактерицидная_секция-sub-прямоугольный.png</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="2:13">
@@ -5314,35 +5317,35 @@
         <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D53" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" t="s">
+        <v>238</v>
+      </c>
+      <c r="G53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53" t="s">
         <v>21</v>
       </c>
-      <c r="E53" t="s">
-        <v>37</v>
-      </c>
-      <c r="F53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G53" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" t="s">
-        <v>28</v>
-      </c>
-      <c r="I53" t="s">
-        <v>20</v>
-      </c>
       <c r="K53" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L53" s="4" t="str">
         <f t="shared" si="1"/>
         <v>50-нанософт_разработка-воздуховод-воздуховод-круглый.png</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="2:13">
@@ -5350,35 +5353,35 @@
         <v>51</v>
       </c>
       <c r="C54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" t="s">
+        <v>241</v>
+      </c>
+      <c r="G54" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" t="s">
+        <v>29</v>
+      </c>
+      <c r="I54" t="s">
         <v>21</v>
       </c>
-      <c r="E54" t="s">
-        <v>39</v>
-      </c>
-      <c r="F54" t="s">
-        <v>240</v>
-      </c>
-      <c r="G54" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" t="s">
-        <v>28</v>
-      </c>
-      <c r="I54" t="s">
-        <v>20</v>
-      </c>
       <c r="K54" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L54" s="4" t="str">
         <f t="shared" si="1"/>
         <v>51-нанософт_разработка-крестовина-крестовина-круглый.png</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="2:13">
@@ -5386,35 +5389,35 @@
         <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" t="s">
+        <v>238</v>
+      </c>
+      <c r="G55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55" t="s">
         <v>21</v>
       </c>
-      <c r="E55" t="s">
-        <v>40</v>
-      </c>
-      <c r="F55" t="s">
-        <v>237</v>
-      </c>
-      <c r="G55" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" t="s">
-        <v>28</v>
-      </c>
-      <c r="I55" t="s">
-        <v>20</v>
-      </c>
       <c r="K55" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L55" s="4" t="str">
         <f t="shared" si="1"/>
         <v>52-нанософт_разработка-отвод-отвод-круглый.png</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="2:13">
@@ -5422,35 +5425,35 @@
         <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56" t="s">
+        <v>238</v>
+      </c>
+      <c r="G56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" t="s">
         <v>21</v>
       </c>
-      <c r="E56" t="s">
-        <v>41</v>
-      </c>
-      <c r="F56" t="s">
-        <v>237</v>
-      </c>
-      <c r="G56" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" t="s">
-        <v>28</v>
-      </c>
-      <c r="I56" t="s">
-        <v>20</v>
-      </c>
       <c r="K56" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L56" s="4" t="str">
         <f t="shared" si="1"/>
         <v>53-нанософт_разработка-переход-переход-круглый.png</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="2:13">
@@ -5458,35 +5461,35 @@
         <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D57" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>238</v>
+      </c>
+      <c r="G57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" t="s">
         <v>21</v>
       </c>
-      <c r="E57" t="s">
-        <v>42</v>
-      </c>
-      <c r="F57" t="s">
-        <v>237</v>
-      </c>
-      <c r="G57" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" t="s">
-        <v>28</v>
-      </c>
-      <c r="I57" t="s">
-        <v>20</v>
-      </c>
       <c r="K57" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L57" s="4" t="str">
         <f t="shared" si="1"/>
         <v>54-нанософт_разработка-тройник-тройник-круглый.png</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="2:13">
@@ -5494,28 +5497,28 @@
         <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F58" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L58" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5530,35 +5533,35 @@
         <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F59" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L59" s="4" t="str">
         <f t="shared" si="1"/>
         <v>56-нанософт_разработка-крестовина-крестовина-круглый.png</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="60" spans="2:13">
@@ -5566,28 +5569,28 @@
         <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D60" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F60" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L60" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5602,35 +5605,35 @@
         <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F61" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L61" s="4" t="str">
         <f t="shared" si="1"/>
         <v>58-нанософт_разработка-переход-переход-круглый.png</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="62" spans="2:13">
@@ -5638,35 +5641,35 @@
         <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D62" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I62" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L62" s="4" t="str">
         <f t="shared" si="1"/>
         <v>59-нанософт_разработка-тройник-тройник-круглый.png</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="2:13">
@@ -5674,28 +5677,28 @@
         <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F63" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I63" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L63" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5710,32 +5713,32 @@
         <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L64" s="4" t="str">
         <f t="shared" si="1"/>
         <v>61-нанософт_разработка-воздуховод-воздуховод-круглый.png</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="65" spans="2:13">
@@ -5743,32 +5746,32 @@
         <v>62</v>
       </c>
       <c r="C65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I65" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L65" s="4" t="str">
         <f t="shared" si="1"/>
         <v>62-нанософт_разработка-воздуховод-воздуховод-прямоугольный.png</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="66" spans="2:13">
@@ -5776,32 +5779,32 @@
         <v>63</v>
       </c>
       <c r="C66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L66" s="4" t="str">
         <f t="shared" si="1"/>
         <v>63-нанософт_разработка-заглушка-заглушка-круглый.png</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="67" spans="2:13">
@@ -5809,32 +5812,32 @@
         <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L67" s="4" t="str">
         <f t="shared" si="1"/>
         <v>64-нанософт_разработка-заглушка-заглушка-прямоугольный.png</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" spans="2:13">
@@ -5842,32 +5845,32 @@
         <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I68" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L68" s="4" t="str">
         <f t="shared" ref="L68:L93" si="2">IF(B68="","",LOWER(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(_xlfn.CONCAT(B68,"-",H68,"-",E68,"-",C68,"-",G68,".png")," ","_"),"""",""),",",""),":","_")))</f>
         <v>65-нанософт_разработка-крестовина-крестовина-прямоугольный.png</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="2:13">
@@ -5875,32 +5878,32 @@
         <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D69" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L69" s="4" t="str">
         <f t="shared" si="2"/>
         <v>66-нанософт_разработка-крестовина-крестовина-круглый.png</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70" spans="2:13">
@@ -5908,32 +5911,32 @@
         <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D70" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H70" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I70" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L70" s="4" t="str">
         <f t="shared" si="2"/>
         <v>67-нанософт_разработка-муфта-муфта-круглый.png</v>
       </c>
       <c r="M70" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="2:13">
@@ -5941,32 +5944,32 @@
         <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I71" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L71" s="4" t="str">
         <f t="shared" si="2"/>
         <v>68-нанософт_разработка-муфта-ниппель-круглый.png</v>
       </c>
       <c r="M71" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="2:13">
@@ -5974,35 +5977,35 @@
         <v>69</v>
       </c>
       <c r="C72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D72" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F72" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I72" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L72" s="4" t="str">
         <f t="shared" si="2"/>
         <v>69-нанософт_разработка-отвод-отвод-круглый.png</v>
       </c>
       <c r="M72" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="2:13">
@@ -6010,35 +6013,35 @@
         <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F73" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I73" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L73" s="4" t="str">
         <f t="shared" si="2"/>
         <v>70-нанософт_разработка-отвод-отвод-круглый.png</v>
       </c>
       <c r="M73" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="2:13">
@@ -6046,35 +6049,35 @@
         <v>71</v>
       </c>
       <c r="C74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I74" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L74" s="4" t="str">
         <f t="shared" si="2"/>
         <v>71-нанософт_разработка-отвод-отвод-круглый.png</v>
       </c>
       <c r="M74" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="2:13">
@@ -6082,35 +6085,35 @@
         <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D75" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F75" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G75" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I75" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L75" s="4" t="str">
         <f t="shared" si="2"/>
         <v>72-нанософт_разработка-отвод-отвод-прямоугольный.png</v>
       </c>
       <c r="M75" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="76" spans="2:13">
@@ -6118,35 +6121,35 @@
         <v>73</v>
       </c>
       <c r="C76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D76" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F76" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H76" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I76" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L76" s="4" t="str">
         <f t="shared" si="2"/>
         <v>73-нанософт_разработка-отвод-отвод-круглый.png</v>
       </c>
       <c r="M76" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77" spans="2:13">
@@ -6154,35 +6157,35 @@
         <v>74</v>
       </c>
       <c r="C77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D77" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F77" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H77" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I77" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L77" s="4" t="str">
         <f t="shared" si="2"/>
         <v>74-нанософт_разработка-отвод-отвод-круглый.png</v>
       </c>
       <c r="M77" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78" spans="2:13">
@@ -6190,35 +6193,35 @@
         <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F78" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G78" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H78" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I78" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L78" s="4" t="str">
         <f t="shared" si="2"/>
         <v>75-нанософт_разработка-отвод-отвод-прямоугольный.png</v>
       </c>
       <c r="M78" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="79" spans="2:13">
@@ -6226,32 +6229,32 @@
         <v>76</v>
       </c>
       <c r="C79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H79" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I79" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L79" s="4" t="str">
         <f t="shared" si="2"/>
         <v>76-нанософт_разработка-переход-переход-круглый.png</v>
       </c>
       <c r="M79" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="2:13">
@@ -6259,35 +6262,35 @@
         <v>77</v>
       </c>
       <c r="C80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D80" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F80" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G80" t="s">
         <v>9</v>
       </c>
       <c r="H80" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I80" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L80" s="4" t="str">
         <f t="shared" si="2"/>
         <v>77-нанософт_разработка-переход-переход-различные.png</v>
       </c>
       <c r="M80" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" spans="2:13">
@@ -6295,35 +6298,35 @@
         <v>78</v>
       </c>
       <c r="C81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D81" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F81" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I81" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L81" s="4" t="str">
         <f t="shared" si="2"/>
         <v>78-нанософт_разработка-переход-переход-прямоугольный.png</v>
       </c>
       <c r="M81" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82" spans="2:13">
@@ -6331,32 +6334,32 @@
         <v>79</v>
       </c>
       <c r="C82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D82" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I82" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L82" s="4" t="str">
         <f t="shared" si="2"/>
         <v>79-нанософт_разработка-тройник-тройник-круглый.png</v>
       </c>
       <c r="M82" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="83" spans="2:13">
@@ -6364,32 +6367,32 @@
         <v>80</v>
       </c>
       <c r="C83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D83" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G83" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H83" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I83" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L83" s="4" t="str">
         <f t="shared" si="2"/>
         <v>80-нанософт_разработка-тройник-тройник-прямоугольный.png</v>
       </c>
       <c r="M83" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="84" spans="2:12">
@@ -6397,10 +6400,10 @@
         <v>81</v>
       </c>
       <c r="C84" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D84" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E84" t="s">
         <v>7</v>
@@ -6409,16 +6412,16 @@
         <v>6</v>
       </c>
       <c r="H84" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I84" t="s">
         <v>6</v>
       </c>
       <c r="J84" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L84" s="4" t="str">
         <f t="shared" si="2"/>
@@ -6430,10 +6433,10 @@
         <v>82</v>
       </c>
       <c r="C85" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E85" t="s">
         <v>7</v>
@@ -6442,16 +6445,16 @@
         <v>6</v>
       </c>
       <c r="H85" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I85" t="s">
         <v>6</v>
       </c>
       <c r="J85" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L85" s="4" t="str">
         <f t="shared" si="2"/>
@@ -6463,10 +6466,10 @@
         <v>83</v>
       </c>
       <c r="C86" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E86" t="s">
         <v>7</v>
@@ -6475,16 +6478,16 @@
         <v>6</v>
       </c>
       <c r="H86" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I86" t="s">
         <v>6</v>
       </c>
       <c r="J86" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L86" s="4" t="str">
         <f t="shared" si="2"/>
@@ -6496,10 +6499,10 @@
         <v>84</v>
       </c>
       <c r="C87" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E87" t="s">
         <v>7</v>
@@ -6508,16 +6511,16 @@
         <v>6</v>
       </c>
       <c r="H87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I87" t="s">
         <v>6</v>
       </c>
       <c r="J87" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L87" s="4" t="str">
         <f t="shared" si="2"/>
@@ -6529,10 +6532,10 @@
         <v>85</v>
       </c>
       <c r="C88" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D88" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E88" t="s">
         <v>7</v>
@@ -6541,13 +6544,13 @@
         <v>6</v>
       </c>
       <c r="H88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I88" t="s">
         <v>6</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L88" s="4" t="str">
         <f t="shared" si="2"/>
@@ -6559,35 +6562,35 @@
         <v>86</v>
       </c>
       <c r="C89" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F89" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H89" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I89" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K89" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L89" s="4" t="str">
         <f t="shared" si="2"/>
         <v>86-ned-вентилятор-kvr-круглый.png</v>
       </c>
       <c r="M89" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="2:13">
@@ -6595,35 +6598,35 @@
         <v>87</v>
       </c>
       <c r="C90" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E90" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F90" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G90" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H90" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I90" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K90" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L90" s="4" t="str">
         <f t="shared" si="2"/>
         <v>87-ostberg-вентилятор-ire-прямоугольный.png</v>
       </c>
       <c r="M90" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="91" spans="2:13">
@@ -6631,7 +6634,7 @@
         <v>88</v>
       </c>
       <c r="C91" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D91" t="s">
         <v>11</v>
@@ -6640,26 +6643,26 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H91" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I91" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K91" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L91" s="4" t="str">
         <f t="shared" si="2"/>
         <v>88-арктос-клапан_воздушный-rsk-круглый.png</v>
       </c>
       <c r="M91" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="92" spans="12:12">
@@ -6708,8 +6711,8 @@
   <sheetPr/>
   <dimension ref="B4:S200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="O58" sqref="O58"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -12683,7 +12686,7 @@
       </c>
       <c r="D84" t="str">
         <f>IF(Компоненты!D84&lt;&gt;"",Компоненты!D84,"")</f>
-        <v>Аннотации</v>
+        <v>Оформление</v>
       </c>
       <c r="E84" t="str">
         <f>IF(Компоненты!E84&lt;&gt;"",Компоненты!E84,"")</f>
@@ -12757,7 +12760,7 @@
       </c>
       <c r="D85" t="str">
         <f>IF(Компоненты!D85&lt;&gt;"",Компоненты!D85,"")</f>
-        <v>Аннотации</v>
+        <v>Оформление</v>
       </c>
       <c r="E85" t="str">
         <f>IF(Компоненты!E85&lt;&gt;"",Компоненты!E85,"")</f>
@@ -12831,7 +12834,7 @@
       </c>
       <c r="D86" t="str">
         <f>IF(Компоненты!D86&lt;&gt;"",Компоненты!D86,"")</f>
-        <v>Аннотации</v>
+        <v>Оформление</v>
       </c>
       <c r="E86" t="str">
         <f>IF(Компоненты!E86&lt;&gt;"",Компоненты!E86,"")</f>
@@ -12905,7 +12908,7 @@
       </c>
       <c r="D87" t="str">
         <f>IF(Компоненты!D87&lt;&gt;"",Компоненты!D87,"")</f>
-        <v>Аннотации</v>
+        <v>Оформление</v>
       </c>
       <c r="E87" t="str">
         <f>IF(Компоненты!E87&lt;&gt;"",Компоненты!E87,"")</f>
@@ -12979,7 +12982,7 @@
       </c>
       <c r="D88" t="str">
         <f>IF(Компоненты!D88&lt;&gt;"",Компоненты!D88,"")</f>
-        <v>Аннотации</v>
+        <v>Оформление</v>
       </c>
       <c r="E88" t="str">
         <f>IF(Компоненты!E88&lt;&gt;"",Компоненты!E88,"")</f>

--- a/db/Base.xlsx
+++ b/db/Base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000" activeTab="3"/>
+    <workbookView windowWidth="27948" windowHeight="12240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры_компонентов" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="412">
   <si>
     <t>На этом листе собраны возможные значения параметров, описывающих типы компонентов nanoCAD BIM Вентиляция</t>
   </si>
@@ -400,6 +400,9 @@
     <t>st_steel</t>
   </si>
   <si>
+    <t>cbn_steel</t>
+  </si>
+  <si>
     <t>aluminium</t>
   </si>
   <si>
@@ -1264,6 +1267,78 @@
   </si>
   <si>
     <t>http://www.arktika.ru/html/rsk.htm</t>
+  </si>
+  <si>
+    <t>ОСА 300</t>
+  </si>
+  <si>
+    <t>d79cfb94b58df43870b01c8a3d984aac</t>
+  </si>
+  <si>
+    <t>осевой</t>
+  </si>
+  <si>
+    <t>https://www.veza.ru/produktsiya/ventilyatory/obshchepromyshlennye/osevye-obshchepromyshlennye/osa300</t>
+  </si>
+  <si>
+    <t>400...1250</t>
+  </si>
+  <si>
+    <t>ОСА 301</t>
+  </si>
+  <si>
+    <t>fa5ca97d9a0604db9fba8c2578785525</t>
+  </si>
+  <si>
+    <t>https://www.veza.ru/produktsiya/ventilyatory/obshchepromyshlennye/osevye-obshchepromyshlennye/osa301</t>
+  </si>
+  <si>
+    <t>1ВПТР</t>
+  </si>
+  <si>
+    <t>e79338a004e9f2bde6eed32fbed26416</t>
+  </si>
+  <si>
+    <t>Панельный</t>
+  </si>
+  <si>
+    <t>турбулизирующий</t>
+  </si>
+  <si>
+    <t>http://www.arktos.ru/detailitem.phtml?item_id=31</t>
+  </si>
+  <si>
+    <t>900x900</t>
+  </si>
+  <si>
+    <t>ВРАН</t>
+  </si>
+  <si>
+    <t>dd5ba058e66bc4e06e9883cf0bcaacde</t>
+  </si>
+  <si>
+    <t>центробежный</t>
+  </si>
+  <si>
+    <t>https://www.veza.ru/produktsiya/ventilyatory/obshchepromyshlennye/radialnye-obshchepromyshlennye/vran</t>
+  </si>
+  <si>
+    <t>ВРАН6-4.5, ВРАН 9-6.3</t>
+  </si>
+  <si>
+    <t>Зонт</t>
+  </si>
+  <si>
+    <t>ebe9a3c9925649d41a2ed606c28a7869</t>
+  </si>
+  <si>
+    <t>крышный</t>
+  </si>
+  <si>
+    <t>https://www.nevatom.ru/catalog/zonty_ventilyatsionnye/</t>
+  </si>
+  <si>
+    <t>250, 355</t>
   </si>
 </sst>
 </file>
@@ -1958,7 +2033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1982,9 +2057,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2352,9 +2424,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="B4:T100" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B4:T100" etc:filterBottomFollowUsedRange="0"/>
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="B4:U100" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B4:U100" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="20">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="name"/>
     <tableColumn id="11" name="version"/>
@@ -2371,6 +2443,7 @@
     <tableColumn id="9" name="typesizes" dataDxfId="5"/>
     <tableColumn id="17" name="gal_steel"/>
     <tableColumn id="12" name="st_steel"/>
+    <tableColumn id="20" name="cbn_steel"/>
     <tableColumn id="13" name="aluminium"/>
     <tableColumn id="14" name="copper"/>
     <tableColumn id="15" name="plastmass"/>
@@ -2654,7 +2727,7 @@
   <sheetData>
     <row r="1" ht="15.15"/>
     <row r="2" customFormat="1" ht="88" customHeight="1" spans="2:2">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2668,68 +2741,68 @@
       <c r="B5" s="5"/>
     </row>
     <row r="6" ht="15.15"/>
-    <row r="7" s="10" customFormat="1" spans="2:11">
-      <c r="B7" s="16" t="s">
+    <row r="7" s="9" customFormat="1" spans="2:11">
+      <c r="B7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
@@ -2738,91 +2811,91 @@
       <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" ht="15.15" spans="2:11">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D16" t="s">
@@ -2833,18 +2906,18 @@
       </c>
     </row>
     <row r="17" spans="4:5">
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="4:5">
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2865,18 +2938,18 @@
       </c>
     </row>
     <row r="21" spans="4:5">
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="4:5">
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2884,7 +2957,7 @@
       <c r="D23" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2892,7 +2965,7 @@
       <c r="D24" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2900,7 +2973,7 @@
       <c r="D25" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2908,7 +2981,7 @@
       <c r="D26" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2916,7 +2989,7 @@
       <c r="D27" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2924,7 +2997,7 @@
       <c r="D28" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2977,7 +3050,7 @@
       </c>
     </row>
     <row r="35" spans="4:5">
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="18" t="s">
         <v>46</v>
       </c>
       <c r="E35" t="s">
@@ -2985,10 +3058,10 @@
       </c>
     </row>
     <row r="41" spans="4:5">
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="18">
         <f>SUBTOTAL(103,Таблица_Привязка_категорий[Категория_сайта])</f>
         <v>28</v>
       </c>
@@ -3027,13 +3100,13 @@
   <sheetData>
     <row r="1" ht="15.15"/>
     <row r="2" ht="29.55" spans="2:2">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" ht="15.15"/>
     <row r="4" spans="2:3">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>49</v>
       </c>
       <c r="C4" t="s">
@@ -3041,39 +3114,39 @@
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3111,7 +3184,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3128,27 +3201,27 @@
       <c r="E4" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="2:10">
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>64</v>
       </c>
       <c r="D5" t="s">
@@ -3160,11 +3233,11 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="13" t="str">
+      <c r="G5" s="12" t="str">
         <f>IF(ISTEXT(F5),VLOOKUP(F5,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Арматура воздуховодов</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I5" t="s">
@@ -3175,7 +3248,7 @@
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="2:10">
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>2</v>
       </c>
       <c r="C6" t="s">
@@ -3190,11 +3263,11 @@
       <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="13" t="str">
+      <c r="G6" s="12" t="str">
         <f>IF(ISTEXT(F6),VLOOKUP(F6,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Оборудование</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I6" t="s">
@@ -3220,11 +3293,11 @@
       <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="13" t="str">
+      <c r="G7" s="12" t="str">
         <f>IF(ISTEXT(F7),VLOOKUP(F7,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Не применимо</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="I7" t="s">
@@ -3235,7 +3308,7 @@
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="2:10">
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -3250,11 +3323,11 @@
       <c r="F8" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="13" t="str">
+      <c r="G8" s="12" t="str">
         <f>IF(ISTEXT(F8),VLOOKUP(F8,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Элементы воздуховодов</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="I8" t="s">
@@ -3265,7 +3338,7 @@
       </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="2:10">
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -3280,11 +3353,11 @@
       <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="13" t="str">
+      <c r="G9" s="12" t="str">
         <f>IF(ISTEXT(F9),VLOOKUP(F9,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Не применимо</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I9" t="s">
@@ -3310,11 +3383,11 @@
       <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="13" t="str">
+      <c r="G10" s="12" t="str">
         <f>IF(ISTEXT(F10),VLOOKUP(F10,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Воздухораспределители</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I10" t="s">
@@ -3325,7 +3398,7 @@
       </c>
     </row>
     <row r="11" ht="25" customHeight="1" spans="2:10">
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -3340,11 +3413,11 @@
       <c r="F11" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="13" t="str">
+      <c r="G11" s="12" t="str">
         <f>IF(ISTEXT(F11),VLOOKUP(F11,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Оборудование</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I11" t="s">
@@ -3355,7 +3428,7 @@
       </c>
     </row>
     <row r="12" ht="25" customHeight="1" spans="2:10">
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -3370,11 +3443,11 @@
       <c r="F12" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="13" t="str">
+      <c r="G12" s="12" t="str">
         <f>IF(ISTEXT(F12),VLOOKUP(F12,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Не применимо</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I12" t="s">
@@ -3400,11 +3473,11 @@
       <c r="F13" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="13" t="str">
+      <c r="G13" s="12" t="str">
         <f>IF(ISTEXT(F13),VLOOKUP(F13,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Оборудование</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I13" t="s">
@@ -3415,7 +3488,7 @@
       </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="2:10">
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>10</v>
       </c>
       <c r="C14" t="s">
@@ -3430,11 +3503,11 @@
       <c r="F14" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="13" t="str">
+      <c r="G14" s="12" t="str">
         <f>IF(ISTEXT(F14),VLOOKUP(F14,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Аннотации</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="12" t="s">
         <v>6</v>
       </c>
       <c r="I14" t="s">
@@ -3445,7 +3518,7 @@
       </c>
     </row>
     <row r="15" ht="25" customHeight="1" spans="2:10">
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -3460,10 +3533,10 @@
       <c r="F15" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I15" t="s">
@@ -3489,10 +3562,10 @@
       <c r="F16" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I16" t="s">
@@ -3503,7 +3576,7 @@
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>13</v>
       </c>
       <c r="C17" t="s">
@@ -3518,10 +3591,10 @@
       <c r="F17" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I17" t="s">
@@ -3532,52 +3605,52 @@
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="14"/>
-      <c r="G18" s="13" t="str">
+      <c r="B18" s="13"/>
+      <c r="G18" s="12" t="str">
         <f>IF(ISTEXT(F18),VLOOKUP(F18,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="14"/>
-      <c r="G19" s="13" t="str">
+      <c r="B19" s="13"/>
+      <c r="G19" s="12" t="str">
         <f>IF(ISTEXT(F19),VLOOKUP(F19,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="14"/>
-      <c r="G20" s="13" t="str">
+      <c r="B20" s="13"/>
+      <c r="G20" s="12" t="str">
         <f>IF(ISTEXT(F20),VLOOKUP(F20,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="14"/>
+      <c r="B21" s="13"/>
       <c r="G21" t="str">
         <f>IF(ISTEXT(F21),VLOOKUP(F21,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="14"/>
+      <c r="B22" s="13"/>
       <c r="G22" t="str">
         <f>IF(ISTEXT(F22),VLOOKUP(F22,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="14"/>
+      <c r="B23" s="13"/>
       <c r="G23" t="str">
         <f>IF(ISTEXT(F23),VLOOKUP(F23,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="14"/>
+      <c r="B24" s="13"/>
       <c r="G24" t="str">
         <f>IF(ISTEXT(F24),VLOOKUP(F24,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
@@ -3612,10 +3685,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:T100"/>
+  <dimension ref="B4:U100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3633,7 +3706,7 @@
     <col min="14" max="14" width="16.3425925925926" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:21">
       <c r="B4" s="1" t="s">
         <v>90</v>
       </c>
@@ -3691,19 +3764,22 @@
       <c r="T4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" spans="2:20">
+      <c r="U4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="2:21">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -3712,7 +3788,7 @@
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
@@ -3724,27 +3800,27 @@
         <v>21</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="T5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" spans="2:18">
+      <c r="U5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="2:19">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -3753,7 +3829,7 @@
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
@@ -3765,19 +3841,19 @@
         <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="R6" t="s">
-        <v>114</v>
+        <v>122</v>
+      </c>
+      <c r="S6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:17">
@@ -3785,13 +3861,13 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -3809,19 +3885,19 @@
         <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="2:17">
@@ -3829,13 +3905,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -3853,16 +3929,16 @@
         <v>17</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="2:17">
@@ -3870,13 +3946,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -3894,16 +3970,16 @@
         <v>17</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="2:17">
@@ -3911,13 +3987,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -3935,16 +4011,16 @@
         <v>17</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="2:17">
@@ -3952,13 +4028,13 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -3976,16 +4052,16 @@
         <v>17</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="2:17">
@@ -3993,13 +4069,13 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -4017,16 +4093,16 @@
         <v>17</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="2:17">
@@ -4034,13 +4110,13 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -4058,16 +4134,16 @@
         <v>17</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" spans="2:17">
@@ -4075,13 +4151,13 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -4099,16 +4175,16 @@
         <v>17</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="2:17">
@@ -4116,13 +4192,13 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -4140,16 +4216,16 @@
         <v>17</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="2:17">
@@ -4157,13 +4233,13 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -4181,16 +4257,16 @@
         <v>17</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="2:17">
@@ -4198,13 +4274,13 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -4222,16 +4298,16 @@
         <v>17</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="2:17">
@@ -4239,13 +4315,13 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -4263,16 +4339,16 @@
         <v>17</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="2:17">
@@ -4280,13 +4356,13 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -4295,7 +4371,7 @@
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I19" t="s">
         <v>19</v>
@@ -4307,16 +4383,16 @@
         <v>17</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" spans="2:17">
@@ -4324,13 +4400,13 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -4339,7 +4415,7 @@
         <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I20" t="s">
         <v>19</v>
@@ -4351,16 +4427,16 @@
         <v>17</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="2:17">
@@ -4368,13 +4444,13 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -4383,7 +4459,7 @@
         <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I21" t="s">
         <v>15</v>
@@ -4395,16 +4471,16 @@
         <v>17</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" spans="2:17">
@@ -4412,13 +4488,13 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -4427,7 +4503,7 @@
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I22" t="s">
         <v>15</v>
@@ -4439,16 +4515,16 @@
         <v>17</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="2:17">
@@ -4456,13 +4532,13 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -4471,7 +4547,7 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I23" t="s">
         <v>19</v>
@@ -4483,16 +4559,16 @@
         <v>17</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" spans="2:17">
@@ -4500,13 +4576,13 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -4515,7 +4591,7 @@
         <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I24" t="s">
         <v>19</v>
@@ -4527,16 +4603,16 @@
         <v>17</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="2:17">
@@ -4544,13 +4620,13 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -4559,7 +4635,7 @@
         <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I25" t="s">
         <v>19</v>
@@ -4571,16 +4647,16 @@
         <v>17</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" spans="2:17">
@@ -4588,13 +4664,13 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -4603,7 +4679,7 @@
         <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I26" t="s">
         <v>15</v>
@@ -4615,16 +4691,16 @@
         <v>17</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="2:17">
@@ -4632,13 +4708,13 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -4647,7 +4723,7 @@
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I27" t="s">
         <v>19</v>
@@ -4659,16 +4735,16 @@
         <v>17</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" spans="2:16">
@@ -4676,13 +4752,13 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -4691,7 +4767,7 @@
         <v>37</v>
       </c>
       <c r="H28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I28" t="s">
         <v>15</v>
@@ -4703,13 +4779,13 @@
         <v>21</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" spans="2:16">
@@ -4717,13 +4793,13 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
@@ -4732,7 +4808,7 @@
         <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I29" t="s">
         <v>15</v>
@@ -4744,13 +4820,13 @@
         <v>17</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" spans="2:16">
@@ -4758,13 +4834,13 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -4773,7 +4849,7 @@
         <v>37</v>
       </c>
       <c r="H30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I30" t="s">
         <v>19</v>
@@ -4785,13 +4861,13 @@
         <v>17</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" spans="2:16">
@@ -4799,13 +4875,13 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -4814,7 +4890,7 @@
         <v>10</v>
       </c>
       <c r="H31" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I31" t="s">
         <v>15</v>
@@ -4826,13 +4902,13 @@
         <v>21</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" spans="2:16">
@@ -4840,13 +4916,13 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
@@ -4855,7 +4931,7 @@
         <v>10</v>
       </c>
       <c r="H32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I32" t="s">
         <v>19</v>
@@ -4867,13 +4943,13 @@
         <v>21</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" spans="2:16">
@@ -4881,13 +4957,13 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
@@ -4905,27 +4981,27 @@
         <v>17</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" ht="15" customHeight="1" spans="2:18">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" ht="15" customHeight="1" spans="2:19">
       <c r="B34" s="1">
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>
@@ -4943,13 +5019,13 @@
         <v>17</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="R34" t="s">
-        <v>114</v>
+        <v>217</v>
+      </c>
+      <c r="S34" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" spans="2:16">
@@ -4957,13 +5033,13 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
@@ -4972,7 +5048,7 @@
         <v>10</v>
       </c>
       <c r="H35" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I35" t="s">
         <v>19</v>
@@ -4984,13 +5060,13 @@
         <v>17</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" spans="2:16">
@@ -4998,13 +5074,13 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
@@ -5022,27 +5098,27 @@
         <v>17</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P36" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" ht="15" customHeight="1" spans="2:18">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" ht="15" customHeight="1" spans="2:19">
       <c r="B37" s="1">
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
@@ -5060,16 +5136,16 @@
         <v>17</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P37" t="s">
-        <v>114</v>
-      </c>
-      <c r="R37" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="S37" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" spans="2:16">
@@ -5077,13 +5153,13 @@
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
@@ -5092,7 +5168,7 @@
         <v>18</v>
       </c>
       <c r="H38" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I38" t="s">
         <v>19</v>
@@ -5104,13 +5180,13 @@
         <v>17</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" spans="2:16">
@@ -5118,13 +5194,13 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F39" t="s">
         <v>22</v>
@@ -5142,13 +5218,13 @@
         <v>17</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" spans="2:16">
@@ -5156,13 +5232,13 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
@@ -5180,13 +5256,13 @@
         <v>17</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" spans="2:16">
@@ -5194,13 +5270,13 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -5209,7 +5285,7 @@
         <v>41</v>
       </c>
       <c r="H41" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I41" t="s">
         <v>19</v>
@@ -5221,27 +5297,27 @@
         <v>17</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P41" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" ht="15" customHeight="1" spans="2:18">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" ht="15" customHeight="1" spans="2:19">
       <c r="B42" s="1">
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F42" t="s">
         <v>24</v>
@@ -5250,7 +5326,7 @@
         <v>23</v>
       </c>
       <c r="H42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I42" t="s">
         <v>19</v>
@@ -5262,13 +5338,13 @@
         <v>17</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="R42" t="s">
-        <v>114</v>
+        <v>253</v>
+      </c>
+      <c r="S42" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" spans="2:16">
@@ -5276,13 +5352,13 @@
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F43" t="s">
         <v>24</v>
@@ -5291,7 +5367,7 @@
         <v>23</v>
       </c>
       <c r="H43" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I43" t="s">
         <v>15</v>
@@ -5303,13 +5379,13 @@
         <v>17</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P43" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" spans="2:16">
@@ -5317,13 +5393,13 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F44" t="s">
         <v>30</v>
@@ -5332,7 +5408,7 @@
         <v>33</v>
       </c>
       <c r="H44" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I44" t="s">
         <v>15</v>
@@ -5344,16 +5420,16 @@
         <v>21</v>
       </c>
       <c r="L44" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P44" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" spans="2:16">
@@ -5361,13 +5437,13 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F45" t="s">
         <v>30</v>
@@ -5376,7 +5452,7 @@
         <v>33</v>
       </c>
       <c r="H45" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I45" t="s">
         <v>19</v>
@@ -5388,30 +5464,30 @@
         <v>21</v>
       </c>
       <c r="L45" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P45" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" ht="15" customHeight="1" spans="2:19">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" ht="15" customHeight="1" spans="2:20">
       <c r="B46" s="1">
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F46" t="s">
         <v>30</v>
@@ -5420,7 +5496,7 @@
         <v>35</v>
       </c>
       <c r="H46" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I46" t="s">
         <v>15</v>
@@ -5432,33 +5508,33 @@
         <v>17</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P46" t="s">
-        <v>114</v>
-      </c>
-      <c r="R46" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="S46" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" ht="15" customHeight="1" spans="2:19">
+        <v>115</v>
+      </c>
+      <c r="T46" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" ht="15" customHeight="1" spans="2:20">
       <c r="B47" s="1">
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F47" t="s">
         <v>30</v>
@@ -5467,7 +5543,7 @@
         <v>35</v>
       </c>
       <c r="H47" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I47" t="s">
         <v>19</v>
@@ -5479,19 +5555,19 @@
         <v>17</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P47" t="s">
-        <v>114</v>
-      </c>
-      <c r="R47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="S47" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="T47" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" spans="2:17">
@@ -5499,13 +5575,13 @@
         <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F48" t="s">
         <v>30</v>
@@ -5514,7 +5590,7 @@
         <v>35</v>
       </c>
       <c r="H48" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I48" t="s">
         <v>15</v>
@@ -5526,19 +5602,19 @@
         <v>17</v>
       </c>
       <c r="L48" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" spans="2:17">
@@ -5546,13 +5622,13 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F49" t="s">
         <v>30</v>
@@ -5561,7 +5637,7 @@
         <v>35</v>
       </c>
       <c r="H49" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I49" t="s">
         <v>19</v>
@@ -5573,33 +5649,33 @@
         <v>17</v>
       </c>
       <c r="L49" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P49" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q49" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" ht="15" customHeight="1" spans="2:19">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" ht="15" customHeight="1" spans="2:20">
       <c r="B50" s="1">
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F50" t="s">
         <v>30</v>
@@ -5608,7 +5684,7 @@
         <v>36</v>
       </c>
       <c r="H50" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I50" t="s">
         <v>19</v>
@@ -5620,33 +5696,33 @@
         <v>17</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P50" t="s">
-        <v>114</v>
-      </c>
-      <c r="R50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="S50" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" ht="15" customHeight="1" spans="2:19">
+        <v>115</v>
+      </c>
+      <c r="T50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" ht="15" customHeight="1" spans="2:20">
       <c r="B51" s="1">
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F51" t="s">
         <v>30</v>
@@ -5655,7 +5731,7 @@
         <v>36</v>
       </c>
       <c r="H51" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I51" t="s">
         <v>19</v>
@@ -5667,19 +5743,19 @@
         <v>17</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="P51" t="s">
-        <v>114</v>
-      </c>
-      <c r="R51" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="S51" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="T51" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" spans="2:17">
@@ -5687,13 +5763,13 @@
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F52" t="s">
         <v>30</v>
@@ -5711,16 +5787,16 @@
         <v>17</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P52" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q52" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" spans="2:15">
@@ -5734,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F53" t="s">
         <v>22</v>
@@ -5743,7 +5819,7 @@
         <v>38</v>
       </c>
       <c r="H53" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I53" t="s">
         <v>15</v>
@@ -5755,10 +5831,10 @@
         <v>21</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" spans="2:15">
@@ -5772,7 +5848,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F54" t="s">
         <v>22</v>
@@ -5781,7 +5857,7 @@
         <v>40</v>
       </c>
       <c r="H54" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I54" t="s">
         <v>15</v>
@@ -5793,10 +5869,10 @@
         <v>21</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" spans="2:15">
@@ -5810,7 +5886,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F55" t="s">
         <v>22</v>
@@ -5819,7 +5895,7 @@
         <v>41</v>
       </c>
       <c r="H55" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I55" t="s">
         <v>15</v>
@@ -5831,10 +5907,10 @@
         <v>21</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" spans="2:15">
@@ -5848,7 +5924,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F56" t="s">
         <v>22</v>
@@ -5857,7 +5933,7 @@
         <v>42</v>
       </c>
       <c r="H56" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I56" t="s">
         <v>15</v>
@@ -5869,10 +5945,10 @@
         <v>21</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" spans="2:15">
@@ -5886,7 +5962,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F57" t="s">
         <v>22</v>
@@ -5895,7 +5971,7 @@
         <v>43</v>
       </c>
       <c r="H57" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I57" t="s">
         <v>15</v>
@@ -5907,10 +5983,10 @@
         <v>21</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" spans="2:15">
@@ -5924,7 +6000,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F58" t="s">
         <v>26</v>
@@ -5933,7 +6009,7 @@
         <v>39</v>
       </c>
       <c r="H58" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I58" t="s">
         <v>15</v>
@@ -5945,7 +6021,7 @@
         <v>21</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O58" s="7">
         <v>100</v>
@@ -5962,7 +6038,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F59" t="s">
         <v>26</v>
@@ -5971,7 +6047,7 @@
         <v>40</v>
       </c>
       <c r="H59" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I59" t="s">
         <v>15</v>
@@ -5983,10 +6059,10 @@
         <v>21</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" spans="2:15">
@@ -6000,7 +6076,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F60" t="s">
         <v>26</v>
@@ -6009,7 +6085,7 @@
         <v>41</v>
       </c>
       <c r="H60" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I60" t="s">
         <v>15</v>
@@ -6021,7 +6097,7 @@
         <v>21</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O60" s="7">
         <v>100</v>
@@ -6038,7 +6114,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F61" t="s">
         <v>26</v>
@@ -6047,7 +6123,7 @@
         <v>42</v>
       </c>
       <c r="H61" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I61" t="s">
         <v>15</v>
@@ -6059,10 +6135,10 @@
         <v>21</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" spans="2:15">
@@ -6076,7 +6152,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F62" t="s">
         <v>26</v>
@@ -6085,7 +6161,7 @@
         <v>43</v>
       </c>
       <c r="H62" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I62" t="s">
         <v>15</v>
@@ -6097,10 +6173,10 @@
         <v>21</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" spans="2:15">
@@ -6114,7 +6190,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F63" t="s">
         <v>26</v>
@@ -6123,7 +6199,7 @@
         <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I63" t="s">
         <v>15</v>
@@ -6135,7 +6211,7 @@
         <v>21</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O63" s="7">
         <v>150</v>
@@ -6152,7 +6228,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F64" t="s">
         <v>22</v>
@@ -6170,10 +6246,10 @@
         <v>17</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O64" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" spans="2:15">
@@ -6187,7 +6263,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F65" t="s">
         <v>22</v>
@@ -6205,10 +6281,10 @@
         <v>17</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O65" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" spans="2:15">
@@ -6222,7 +6298,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F66" t="s">
         <v>22</v>
@@ -6240,10 +6316,10 @@
         <v>17</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O66" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" spans="2:15">
@@ -6257,7 +6333,7 @@
         <v>1</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F67" t="s">
         <v>22</v>
@@ -6275,10 +6351,10 @@
         <v>17</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O67" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" spans="2:15">
@@ -6292,7 +6368,7 @@
         <v>1</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F68" t="s">
         <v>22</v>
@@ -6310,10 +6386,10 @@
         <v>17</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O68" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" spans="2:15">
@@ -6327,7 +6403,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F69" t="s">
         <v>22</v>
@@ -6345,10 +6421,10 @@
         <v>17</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O69" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" spans="2:15">
@@ -6362,7 +6438,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F70" t="s">
         <v>22</v>
@@ -6380,10 +6456,10 @@
         <v>17</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="O70" s="8" t="s">
-        <v>331</v>
+        <v>300</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" spans="2:15">
@@ -6391,13 +6467,13 @@
         <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F71" t="s">
         <v>22</v>
@@ -6415,10 +6491,10 @@
         <v>17</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="O71" s="8" t="s">
-        <v>331</v>
+        <v>300</v>
+      </c>
+      <c r="O71" s="5" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" spans="2:15">
@@ -6432,7 +6508,7 @@
         <v>1</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F72" t="s">
         <v>22</v>
@@ -6441,7 +6517,7 @@
         <v>41</v>
       </c>
       <c r="H72" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I72" t="s">
         <v>15</v>
@@ -6453,10 +6529,10 @@
         <v>17</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="O72" s="8" t="s">
-        <v>331</v>
+        <v>300</v>
+      </c>
+      <c r="O72" s="5" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" spans="2:15">
@@ -6470,7 +6546,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F73" t="s">
         <v>22</v>
@@ -6479,7 +6555,7 @@
         <v>41</v>
       </c>
       <c r="H73" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I73" t="s">
         <v>15</v>
@@ -6491,10 +6567,10 @@
         <v>17</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="O73" s="8" t="s">
-        <v>331</v>
+        <v>300</v>
+      </c>
+      <c r="O73" s="5" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" spans="2:15">
@@ -6508,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F74" t="s">
         <v>22</v>
@@ -6517,7 +6593,7 @@
         <v>41</v>
       </c>
       <c r="H74" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I74" t="s">
         <v>15</v>
@@ -6529,10 +6605,10 @@
         <v>17</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="O74" s="8" t="s">
-        <v>331</v>
+        <v>300</v>
+      </c>
+      <c r="O74" s="5" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" spans="2:15">
@@ -6546,7 +6622,7 @@
         <v>1</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F75" t="s">
         <v>22</v>
@@ -6555,7 +6631,7 @@
         <v>41</v>
       </c>
       <c r="H75" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I75" t="s">
         <v>19</v>
@@ -6567,10 +6643,10 @@
         <v>17</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="O75" s="8" t="s">
-        <v>341</v>
+        <v>300</v>
+      </c>
+      <c r="O75" s="5" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" spans="2:15">
@@ -6584,7 +6660,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F76" t="s">
         <v>22</v>
@@ -6593,7 +6669,7 @@
         <v>41</v>
       </c>
       <c r="H76" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I76" t="s">
         <v>15</v>
@@ -6605,10 +6681,10 @@
         <v>17</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="O76" s="8" t="s">
-        <v>344</v>
+        <v>300</v>
+      </c>
+      <c r="O76" s="5" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" spans="2:15">
@@ -6622,7 +6698,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F77" t="s">
         <v>22</v>
@@ -6631,7 +6707,7 @@
         <v>41</v>
       </c>
       <c r="H77" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I77" t="s">
         <v>15</v>
@@ -6643,10 +6719,10 @@
         <v>17</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="O77" s="8" t="s">
-        <v>344</v>
+        <v>300</v>
+      </c>
+      <c r="O77" s="5" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1" spans="2:15">
@@ -6660,7 +6736,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F78" t="s">
         <v>22</v>
@@ -6669,7 +6745,7 @@
         <v>41</v>
       </c>
       <c r="H78" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I78" t="s">
         <v>19</v>
@@ -6681,10 +6757,10 @@
         <v>17</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="O78" s="8" t="s">
-        <v>341</v>
+        <v>300</v>
+      </c>
+      <c r="O78" s="5" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" spans="2:15">
@@ -6698,7 +6774,7 @@
         <v>1</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F79" t="s">
         <v>22</v>
@@ -6707,7 +6783,7 @@
         <v>42</v>
       </c>
       <c r="H79" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I79" t="s">
         <v>15</v>
@@ -6719,10 +6795,10 @@
         <v>17</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="O79" s="8" t="s">
-        <v>344</v>
+        <v>300</v>
+      </c>
+      <c r="O79" s="5" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" spans="2:15">
@@ -6736,7 +6812,7 @@
         <v>1</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F80" t="s">
         <v>22</v>
@@ -6745,7 +6821,7 @@
         <v>42</v>
       </c>
       <c r="H80" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I80" t="s">
         <v>9</v>
@@ -6757,10 +6833,10 @@
         <v>17</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="O80" s="8" t="s">
-        <v>352</v>
+        <v>300</v>
+      </c>
+      <c r="O80" s="5" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1" spans="2:15">
@@ -6774,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F81" t="s">
         <v>22</v>
@@ -6783,7 +6859,7 @@
         <v>42</v>
       </c>
       <c r="H81" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I81" t="s">
         <v>19</v>
@@ -6795,10 +6871,10 @@
         <v>17</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="O81" s="8" t="s">
-        <v>354</v>
+        <v>300</v>
+      </c>
+      <c r="O81" s="5" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" spans="2:15">
@@ -6812,7 +6888,7 @@
         <v>1</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F82" t="s">
         <v>22</v>
@@ -6830,10 +6906,10 @@
         <v>17</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="O82" s="8" t="s">
-        <v>356</v>
+        <v>300</v>
+      </c>
+      <c r="O82" s="5" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" spans="2:15">
@@ -6847,7 +6923,7 @@
         <v>1</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F83" t="s">
         <v>22</v>
@@ -6865,10 +6941,10 @@
         <v>17</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="O83" s="8" t="s">
-        <v>358</v>
+        <v>300</v>
+      </c>
+      <c r="O83" s="5" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1" spans="2:15">
@@ -6876,13 +6952,13 @@
         <v>81</v>
       </c>
       <c r="C84" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F84" t="s">
         <v>13</v>
@@ -6900,25 +6976,25 @@
         <v>6</v>
       </c>
       <c r="L84" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="O84" s="8"/>
+        <v>300</v>
+      </c>
+      <c r="O84" s="5"/>
     </row>
     <row r="85" ht="15" customHeight="1" spans="2:15">
       <c r="B85" s="1">
         <v>82</v>
       </c>
       <c r="C85" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F85" t="s">
         <v>13</v>
@@ -6936,25 +7012,25 @@
         <v>6</v>
       </c>
       <c r="L85" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="O85" s="8"/>
+        <v>300</v>
+      </c>
+      <c r="O85" s="5"/>
     </row>
     <row r="86" ht="15" customHeight="1" spans="2:15">
       <c r="B86" s="1">
         <v>83</v>
       </c>
       <c r="C86" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F86" t="s">
         <v>13</v>
@@ -6972,25 +7048,25 @@
         <v>6</v>
       </c>
       <c r="L86" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="O86" s="8"/>
+        <v>300</v>
+      </c>
+      <c r="O86" s="5"/>
     </row>
     <row r="87" ht="15" customHeight="1" spans="2:15">
       <c r="B87" s="1">
         <v>84</v>
       </c>
       <c r="C87" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F87" t="s">
         <v>13</v>
@@ -7008,25 +7084,25 @@
         <v>6</v>
       </c>
       <c r="L87" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="O87" s="8"/>
+        <v>300</v>
+      </c>
+      <c r="O87" s="5"/>
     </row>
     <row r="88" ht="15" customHeight="1" spans="2:15">
       <c r="B88" s="1">
         <v>85</v>
       </c>
       <c r="C88" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F88" t="s">
         <v>13</v>
@@ -7044,22 +7120,22 @@
         <v>6</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="O88" s="8"/>
+        <v>300</v>
+      </c>
+      <c r="O88" s="5"/>
     </row>
     <row r="89" ht="15" customHeight="1" spans="2:15">
       <c r="B89" s="1">
         <v>86</v>
       </c>
       <c r="C89" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F89" t="s">
         <v>30</v>
@@ -7068,22 +7144,22 @@
         <v>33</v>
       </c>
       <c r="H89" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I89" t="s">
         <v>15</v>
       </c>
       <c r="J89" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K89" t="s">
         <v>21</v>
       </c>
       <c r="N89" t="s">
-        <v>377</v>
-      </c>
-      <c r="O89" s="8" t="s">
-        <v>229</v>
+        <v>378</v>
+      </c>
+      <c r="O89" s="5" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1" spans="2:15">
@@ -7091,13 +7167,13 @@
         <v>87</v>
       </c>
       <c r="C90" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F90" t="s">
         <v>30</v>
@@ -7106,22 +7182,22 @@
         <v>33</v>
       </c>
       <c r="H90" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I90" t="s">
         <v>19</v>
       </c>
       <c r="J90" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K90" t="s">
         <v>17</v>
       </c>
       <c r="N90" t="s">
-        <v>382</v>
-      </c>
-      <c r="O90" s="8" t="s">
         <v>383</v>
+      </c>
+      <c r="O90" s="5" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" spans="2:15">
@@ -7129,13 +7205,13 @@
         <v>88</v>
       </c>
       <c r="C91" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F91" t="s">
         <v>11</v>
@@ -7144,7 +7220,7 @@
         <v>10</v>
       </c>
       <c r="H91" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I91" t="s">
         <v>15</v>
@@ -7156,41 +7232,240 @@
         <v>17</v>
       </c>
       <c r="N91" t="s">
-        <v>386</v>
-      </c>
-      <c r="O91" s="8" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="92" ht="15" customHeight="1" spans="15:15">
-      <c r="O92" s="8"/>
-    </row>
-    <row r="93" ht="15" customHeight="1" spans="15:15">
-      <c r="O93" s="8"/>
-    </row>
-    <row r="94" ht="15" customHeight="1" spans="15:15">
-      <c r="O94" s="8"/>
-    </row>
-    <row r="95" ht="15" customHeight="1" spans="15:15">
-      <c r="O95" s="8"/>
-    </row>
-    <row r="96" ht="15" customHeight="1" spans="15:15">
-      <c r="O96" s="8"/>
+        <v>387</v>
+      </c>
+      <c r="O91" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="92" ht="15" customHeight="1" spans="2:19">
+      <c r="B92" s="1">
+        <v>89</v>
+      </c>
+      <c r="C92" t="s">
+        <v>388</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>389</v>
+      </c>
+      <c r="F92" t="s">
+        <v>30</v>
+      </c>
+      <c r="G92" t="s">
+        <v>33</v>
+      </c>
+      <c r="H92" t="s">
+        <v>390</v>
+      </c>
+      <c r="I92" t="s">
+        <v>15</v>
+      </c>
+      <c r="J92" t="s">
+        <v>16</v>
+      </c>
+      <c r="K92" t="s">
+        <v>21</v>
+      </c>
+      <c r="N92" t="s">
+        <v>391</v>
+      </c>
+      <c r="O92" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>115</v>
+      </c>
+      <c r="R92" t="s">
+        <v>115</v>
+      </c>
+      <c r="S92" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" ht="15" customHeight="1" spans="2:19">
+      <c r="B93" s="1">
+        <v>90</v>
+      </c>
+      <c r="C93" t="s">
+        <v>393</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>394</v>
+      </c>
+      <c r="F93" t="s">
+        <v>30</v>
+      </c>
+      <c r="G93" t="s">
+        <v>33</v>
+      </c>
+      <c r="H93" t="s">
+        <v>390</v>
+      </c>
+      <c r="I93" t="s">
+        <v>15</v>
+      </c>
+      <c r="J93" t="s">
+        <v>16</v>
+      </c>
+      <c r="K93" t="s">
+        <v>21</v>
+      </c>
+      <c r="N93" t="s">
+        <v>395</v>
+      </c>
+      <c r="O93" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>115</v>
+      </c>
+      <c r="R93" t="s">
+        <v>115</v>
+      </c>
+      <c r="S93" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" ht="15" customHeight="1" spans="2:21">
+      <c r="B94" s="1">
+        <v>91</v>
+      </c>
+      <c r="C94" t="s">
+        <v>396</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>397</v>
+      </c>
+      <c r="F94" t="s">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s">
+        <v>398</v>
+      </c>
+      <c r="H94" t="s">
+        <v>399</v>
+      </c>
+      <c r="I94" t="s">
+        <v>19</v>
+      </c>
+      <c r="J94" t="s">
+        <v>28</v>
+      </c>
+      <c r="K94" t="s">
+        <v>17</v>
+      </c>
+      <c r="N94" t="s">
+        <v>400</v>
+      </c>
+      <c r="O94" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="U94" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" ht="15" customHeight="1" spans="2:15">
+      <c r="B95" s="1">
+        <v>92</v>
+      </c>
+      <c r="C95" t="s">
+        <v>402</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>403</v>
+      </c>
+      <c r="F95" t="s">
+        <v>30</v>
+      </c>
+      <c r="G95" t="s">
+        <v>33</v>
+      </c>
+      <c r="H95" t="s">
+        <v>404</v>
+      </c>
+      <c r="I95" t="s">
+        <v>9</v>
+      </c>
+      <c r="J95" t="s">
+        <v>16</v>
+      </c>
+      <c r="K95" t="s">
+        <v>17</v>
+      </c>
+      <c r="N95" t="s">
+        <v>405</v>
+      </c>
+      <c r="O95" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="96" ht="15" customHeight="1" spans="2:15">
+      <c r="B96" s="1">
+        <v>93</v>
+      </c>
+      <c r="C96" t="s">
+        <v>407</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>408</v>
+      </c>
+      <c r="F96" t="s">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s">
+        <v>407</v>
+      </c>
+      <c r="H96" t="s">
+        <v>409</v>
+      </c>
+      <c r="I96" t="s">
+        <v>15</v>
+      </c>
+      <c r="J96" t="s">
+        <v>25</v>
+      </c>
+      <c r="K96" t="s">
+        <v>17</v>
+      </c>
+      <c r="N96" t="s">
+        <v>410</v>
+      </c>
+      <c r="O96" s="5" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="97" ht="15" customHeight="1" spans="15:15">
-      <c r="O97" s="8"/>
+      <c r="O97" s="5"/>
     </row>
     <row r="98" ht="15" customHeight="1" spans="15:15">
-      <c r="O98" s="8"/>
+      <c r="O98" s="5"/>
     </row>
     <row r="99" ht="15" customHeight="1" spans="15:15">
-      <c r="O99" s="8"/>
+      <c r="O99" s="5"/>
     </row>
     <row r="100" ht="15" customHeight="1" spans="15:15">
-      <c r="O100" s="8"/>
+      <c r="O100" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P92:U92;P93:U93;P5:U91">
+      <formula1>"ДА"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F86">
       <formula1>Категория_сайта</formula1>
     </dataValidation>
@@ -7205,9 +7480,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K83">
       <formula1>Тип_графики</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P5:T93">
-      <formula1>"ДА"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7299,15 +7571,15 @@
         <v>st_steel</v>
       </c>
       <c r="R4" t="str">
-        <f>IF(Компоненты!R4&lt;&gt;"",Компоненты!R4,"")</f>
+        <f>IF(Компоненты!S4&lt;&gt;"",Компоненты!S4,"")</f>
         <v>aluminium</v>
       </c>
       <c r="S4" t="str">
-        <f>IF(Компоненты!S4&lt;&gt;"",Компоненты!S4,"")</f>
+        <f>IF(Компоненты!T4&lt;&gt;"",Компоненты!T4,"")</f>
         <v>copper</v>
       </c>
       <c r="T4" t="str">
-        <f>IF(Компоненты!T4&lt;&gt;"",Компоненты!T4,"")</f>
+        <f>IF(Компоненты!U4&lt;&gt;"",Компоненты!U4,"")</f>
         <v>plastmass</v>
       </c>
     </row>
@@ -7377,15 +7649,15 @@
         <v/>
       </c>
       <c r="R5" t="str">
-        <f>IF(Компоненты!R5&lt;&gt;"",Компоненты!R5,"")</f>
+        <f>IF(Компоненты!S5&lt;&gt;"",Компоненты!S5,"")</f>
         <v/>
       </c>
       <c r="S5" t="str">
-        <f>IF(Компоненты!S5&lt;&gt;"",Компоненты!S5,"")</f>
+        <f>IF(Компоненты!T5&lt;&gt;"",Компоненты!T5,"")</f>
         <v/>
       </c>
       <c r="T5" t="str">
-        <f>IF(Компоненты!T5&lt;&gt;"",Компоненты!T5,"")</f>
+        <f>IF(Компоненты!U5&lt;&gt;"",Компоненты!U5,"")</f>
         <v>ДА</v>
       </c>
     </row>
@@ -7455,15 +7727,15 @@
         <v/>
       </c>
       <c r="R6" t="str">
-        <f>IF(Компоненты!R6&lt;&gt;"",Компоненты!R6,"")</f>
+        <f>IF(Компоненты!S6&lt;&gt;"",Компоненты!S6,"")</f>
         <v>ДА</v>
       </c>
       <c r="S6" t="str">
-        <f>IF(Компоненты!S6&lt;&gt;"",Компоненты!S6,"")</f>
+        <f>IF(Компоненты!T6&lt;&gt;"",Компоненты!T6,"")</f>
         <v/>
       </c>
       <c r="T6" t="str">
-        <f>IF(Компоненты!T6&lt;&gt;"",Компоненты!T6,"")</f>
+        <f>IF(Компоненты!U6&lt;&gt;"",Компоненты!U6,"")</f>
         <v/>
       </c>
     </row>
@@ -7536,15 +7808,15 @@
         <v>ДА</v>
       </c>
       <c r="R7" t="str">
-        <f>IF(Компоненты!R7&lt;&gt;"",Компоненты!R7,"")</f>
+        <f>IF(Компоненты!S7&lt;&gt;"",Компоненты!S7,"")</f>
         <v/>
       </c>
       <c r="S7" t="str">
-        <f>IF(Компоненты!S7&lt;&gt;"",Компоненты!S7,"")</f>
+        <f>IF(Компоненты!T7&lt;&gt;"",Компоненты!T7,"")</f>
         <v/>
       </c>
       <c r="T7" t="str">
-        <f>IF(Компоненты!T7&lt;&gt;"",Компоненты!T7,"")</f>
+        <f>IF(Компоненты!U7&lt;&gt;"",Компоненты!U7,"")</f>
         <v/>
       </c>
     </row>
@@ -7616,15 +7888,15 @@
         <v>ДА</v>
       </c>
       <c r="R8" t="str">
-        <f>IF(Компоненты!R8&lt;&gt;"",Компоненты!R8,"")</f>
+        <f>IF(Компоненты!S8&lt;&gt;"",Компоненты!S8,"")</f>
         <v/>
       </c>
       <c r="S8" t="str">
-        <f>IF(Компоненты!S8&lt;&gt;"",Компоненты!S8,"")</f>
+        <f>IF(Компоненты!T8&lt;&gt;"",Компоненты!T8,"")</f>
         <v/>
       </c>
       <c r="T8" t="str">
-        <f>IF(Компоненты!T8&lt;&gt;"",Компоненты!T8,"")</f>
+        <f>IF(Компоненты!U8&lt;&gt;"",Компоненты!U8,"")</f>
         <v/>
       </c>
     </row>
@@ -7696,15 +7968,15 @@
         <v>ДА</v>
       </c>
       <c r="R9" t="str">
-        <f>IF(Компоненты!R9&lt;&gt;"",Компоненты!R9,"")</f>
+        <f>IF(Компоненты!S9&lt;&gt;"",Компоненты!S9,"")</f>
         <v/>
       </c>
       <c r="S9" t="str">
-        <f>IF(Компоненты!S9&lt;&gt;"",Компоненты!S9,"")</f>
+        <f>IF(Компоненты!T9&lt;&gt;"",Компоненты!T9,"")</f>
         <v/>
       </c>
       <c r="T9" t="str">
-        <f>IF(Компоненты!T9&lt;&gt;"",Компоненты!T9,"")</f>
+        <f>IF(Компоненты!U9&lt;&gt;"",Компоненты!U9,"")</f>
         <v/>
       </c>
     </row>
@@ -7776,15 +8048,15 @@
         <v>ДА</v>
       </c>
       <c r="R10" t="str">
-        <f>IF(Компоненты!R10&lt;&gt;"",Компоненты!R10,"")</f>
+        <f>IF(Компоненты!S10&lt;&gt;"",Компоненты!S10,"")</f>
         <v/>
       </c>
       <c r="S10" t="str">
-        <f>IF(Компоненты!S10&lt;&gt;"",Компоненты!S10,"")</f>
+        <f>IF(Компоненты!T10&lt;&gt;"",Компоненты!T10,"")</f>
         <v/>
       </c>
       <c r="T10" t="str">
-        <f>IF(Компоненты!T10&lt;&gt;"",Компоненты!T10,"")</f>
+        <f>IF(Компоненты!U10&lt;&gt;"",Компоненты!U10,"")</f>
         <v/>
       </c>
     </row>
@@ -7856,15 +8128,15 @@
         <v>ДА</v>
       </c>
       <c r="R11" t="str">
-        <f>IF(Компоненты!R11&lt;&gt;"",Компоненты!R11,"")</f>
+        <f>IF(Компоненты!S11&lt;&gt;"",Компоненты!S11,"")</f>
         <v/>
       </c>
       <c r="S11" t="str">
-        <f>IF(Компоненты!S11&lt;&gt;"",Компоненты!S11,"")</f>
+        <f>IF(Компоненты!T11&lt;&gt;"",Компоненты!T11,"")</f>
         <v/>
       </c>
       <c r="T11" t="str">
-        <f>IF(Компоненты!T11&lt;&gt;"",Компоненты!T11,"")</f>
+        <f>IF(Компоненты!U11&lt;&gt;"",Компоненты!U11,"")</f>
         <v/>
       </c>
     </row>
@@ -7936,15 +8208,15 @@
         <v>ДА</v>
       </c>
       <c r="R12" t="str">
-        <f>IF(Компоненты!R12&lt;&gt;"",Компоненты!R12,"")</f>
+        <f>IF(Компоненты!S12&lt;&gt;"",Компоненты!S12,"")</f>
         <v/>
       </c>
       <c r="S12" t="str">
-        <f>IF(Компоненты!S12&lt;&gt;"",Компоненты!S12,"")</f>
+        <f>IF(Компоненты!T12&lt;&gt;"",Компоненты!T12,"")</f>
         <v/>
       </c>
       <c r="T12" t="str">
-        <f>IF(Компоненты!T12&lt;&gt;"",Компоненты!T12,"")</f>
+        <f>IF(Компоненты!U12&lt;&gt;"",Компоненты!U12,"")</f>
         <v/>
       </c>
     </row>
@@ -8016,15 +8288,15 @@
         <v>ДА</v>
       </c>
       <c r="R13" t="str">
-        <f>IF(Компоненты!R13&lt;&gt;"",Компоненты!R13,"")</f>
+        <f>IF(Компоненты!S13&lt;&gt;"",Компоненты!S13,"")</f>
         <v/>
       </c>
       <c r="S13" t="str">
-        <f>IF(Компоненты!S13&lt;&gt;"",Компоненты!S13,"")</f>
+        <f>IF(Компоненты!T13&lt;&gt;"",Компоненты!T13,"")</f>
         <v/>
       </c>
       <c r="T13" t="str">
-        <f>IF(Компоненты!T13&lt;&gt;"",Компоненты!T13,"")</f>
+        <f>IF(Компоненты!U13&lt;&gt;"",Компоненты!U13,"")</f>
         <v/>
       </c>
     </row>
@@ -8096,15 +8368,15 @@
         <v>ДА</v>
       </c>
       <c r="R14" t="str">
-        <f>IF(Компоненты!R14&lt;&gt;"",Компоненты!R14,"")</f>
+        <f>IF(Компоненты!S14&lt;&gt;"",Компоненты!S14,"")</f>
         <v/>
       </c>
       <c r="S14" t="str">
-        <f>IF(Компоненты!S14&lt;&gt;"",Компоненты!S14,"")</f>
+        <f>IF(Компоненты!T14&lt;&gt;"",Компоненты!T14,"")</f>
         <v/>
       </c>
       <c r="T14" t="str">
-        <f>IF(Компоненты!T14&lt;&gt;"",Компоненты!T14,"")</f>
+        <f>IF(Компоненты!U14&lt;&gt;"",Компоненты!U14,"")</f>
         <v/>
       </c>
     </row>
@@ -8176,15 +8448,15 @@
         <v>ДА</v>
       </c>
       <c r="R15" t="str">
-        <f>IF(Компоненты!R15&lt;&gt;"",Компоненты!R15,"")</f>
+        <f>IF(Компоненты!S15&lt;&gt;"",Компоненты!S15,"")</f>
         <v/>
       </c>
       <c r="S15" t="str">
-        <f>IF(Компоненты!S15&lt;&gt;"",Компоненты!S15,"")</f>
+        <f>IF(Компоненты!T15&lt;&gt;"",Компоненты!T15,"")</f>
         <v/>
       </c>
       <c r="T15" t="str">
-        <f>IF(Компоненты!T15&lt;&gt;"",Компоненты!T15,"")</f>
+        <f>IF(Компоненты!U15&lt;&gt;"",Компоненты!U15,"")</f>
         <v/>
       </c>
     </row>
@@ -8256,15 +8528,15 @@
         <v>ДА</v>
       </c>
       <c r="R16" t="str">
-        <f>IF(Компоненты!R16&lt;&gt;"",Компоненты!R16,"")</f>
+        <f>IF(Компоненты!S16&lt;&gt;"",Компоненты!S16,"")</f>
         <v/>
       </c>
       <c r="S16" t="str">
-        <f>IF(Компоненты!S16&lt;&gt;"",Компоненты!S16,"")</f>
+        <f>IF(Компоненты!T16&lt;&gt;"",Компоненты!T16,"")</f>
         <v/>
       </c>
       <c r="T16" t="str">
-        <f>IF(Компоненты!T16&lt;&gt;"",Компоненты!T16,"")</f>
+        <f>IF(Компоненты!U16&lt;&gt;"",Компоненты!U16,"")</f>
         <v/>
       </c>
     </row>
@@ -8336,15 +8608,15 @@
         <v>ДА</v>
       </c>
       <c r="R17" t="str">
-        <f>IF(Компоненты!R17&lt;&gt;"",Компоненты!R17,"")</f>
+        <f>IF(Компоненты!S17&lt;&gt;"",Компоненты!S17,"")</f>
         <v/>
       </c>
       <c r="S17" t="str">
-        <f>IF(Компоненты!S17&lt;&gt;"",Компоненты!S17,"")</f>
+        <f>IF(Компоненты!T17&lt;&gt;"",Компоненты!T17,"")</f>
         <v/>
       </c>
       <c r="T17" t="str">
-        <f>IF(Компоненты!T17&lt;&gt;"",Компоненты!T17,"")</f>
+        <f>IF(Компоненты!U17&lt;&gt;"",Компоненты!U17,"")</f>
         <v/>
       </c>
     </row>
@@ -8416,15 +8688,15 @@
         <v>ДА</v>
       </c>
       <c r="R18" t="str">
-        <f>IF(Компоненты!R18&lt;&gt;"",Компоненты!R18,"")</f>
+        <f>IF(Компоненты!S18&lt;&gt;"",Компоненты!S18,"")</f>
         <v/>
       </c>
       <c r="S18" t="str">
-        <f>IF(Компоненты!S18&lt;&gt;"",Компоненты!S18,"")</f>
+        <f>IF(Компоненты!T18&lt;&gt;"",Компоненты!T18,"")</f>
         <v/>
       </c>
       <c r="T18" t="str">
-        <f>IF(Компоненты!T18&lt;&gt;"",Компоненты!T18,"")</f>
+        <f>IF(Компоненты!U18&lt;&gt;"",Компоненты!U18,"")</f>
         <v/>
       </c>
     </row>
@@ -8495,15 +8767,15 @@
         <v>ДА</v>
       </c>
       <c r="R19" t="str">
-        <f>IF(Компоненты!R19&lt;&gt;"",Компоненты!R19,"")</f>
+        <f>IF(Компоненты!S19&lt;&gt;"",Компоненты!S19,"")</f>
         <v/>
       </c>
       <c r="S19" t="str">
-        <f>IF(Компоненты!S19&lt;&gt;"",Компоненты!S19,"")</f>
+        <f>IF(Компоненты!T19&lt;&gt;"",Компоненты!T19,"")</f>
         <v/>
       </c>
       <c r="T19" t="str">
-        <f>IF(Компоненты!T19&lt;&gt;"",Компоненты!T19,"")</f>
+        <f>IF(Компоненты!U19&lt;&gt;"",Компоненты!U19,"")</f>
         <v/>
       </c>
     </row>
@@ -8573,15 +8845,15 @@
         <v>ДА</v>
       </c>
       <c r="R20" t="str">
-        <f>IF(Компоненты!R20&lt;&gt;"",Компоненты!R20,"")</f>
+        <f>IF(Компоненты!S20&lt;&gt;"",Компоненты!S20,"")</f>
         <v/>
       </c>
       <c r="S20" t="str">
-        <f>IF(Компоненты!S20&lt;&gt;"",Компоненты!S20,"")</f>
+        <f>IF(Компоненты!T20&lt;&gt;"",Компоненты!T20,"")</f>
         <v/>
       </c>
       <c r="T20" t="str">
-        <f>IF(Компоненты!T20&lt;&gt;"",Компоненты!T20,"")</f>
+        <f>IF(Компоненты!U20&lt;&gt;"",Компоненты!U20,"")</f>
         <v/>
       </c>
     </row>
@@ -8652,15 +8924,15 @@
         <v>ДА</v>
       </c>
       <c r="R21" t="str">
-        <f>IF(Компоненты!R21&lt;&gt;"",Компоненты!R21,"")</f>
+        <f>IF(Компоненты!S21&lt;&gt;"",Компоненты!S21,"")</f>
         <v/>
       </c>
       <c r="S21" t="str">
-        <f>IF(Компоненты!S21&lt;&gt;"",Компоненты!S21,"")</f>
+        <f>IF(Компоненты!T21&lt;&gt;"",Компоненты!T21,"")</f>
         <v/>
       </c>
       <c r="T21" t="str">
-        <f>IF(Компоненты!T21&lt;&gt;"",Компоненты!T21,"")</f>
+        <f>IF(Компоненты!U21&lt;&gt;"",Компоненты!U21,"")</f>
         <v/>
       </c>
     </row>
@@ -8731,15 +9003,15 @@
         <v>ДА</v>
       </c>
       <c r="R22" t="str">
-        <f>IF(Компоненты!R22&lt;&gt;"",Компоненты!R22,"")</f>
+        <f>IF(Компоненты!S22&lt;&gt;"",Компоненты!S22,"")</f>
         <v/>
       </c>
       <c r="S22" t="str">
-        <f>IF(Компоненты!S22&lt;&gt;"",Компоненты!S22,"")</f>
+        <f>IF(Компоненты!T22&lt;&gt;"",Компоненты!T22,"")</f>
         <v/>
       </c>
       <c r="T22" t="str">
-        <f>IF(Компоненты!T22&lt;&gt;"",Компоненты!T22,"")</f>
+        <f>IF(Компоненты!U22&lt;&gt;"",Компоненты!U22,"")</f>
         <v/>
       </c>
     </row>
@@ -8809,15 +9081,15 @@
         <v>ДА</v>
       </c>
       <c r="R23" t="str">
-        <f>IF(Компоненты!R23&lt;&gt;"",Компоненты!R23,"")</f>
+        <f>IF(Компоненты!S23&lt;&gt;"",Компоненты!S23,"")</f>
         <v/>
       </c>
       <c r="S23" t="str">
-        <f>IF(Компоненты!S23&lt;&gt;"",Компоненты!S23,"")</f>
+        <f>IF(Компоненты!T23&lt;&gt;"",Компоненты!T23,"")</f>
         <v/>
       </c>
       <c r="T23" t="str">
-        <f>IF(Компоненты!T23&lt;&gt;"",Компоненты!T23,"")</f>
+        <f>IF(Компоненты!U23&lt;&gt;"",Компоненты!U23,"")</f>
         <v/>
       </c>
     </row>
@@ -8887,15 +9159,15 @@
         <v>ДА</v>
       </c>
       <c r="R24" t="str">
-        <f>IF(Компоненты!R24&lt;&gt;"",Компоненты!R24,"")</f>
+        <f>IF(Компоненты!S24&lt;&gt;"",Компоненты!S24,"")</f>
         <v/>
       </c>
       <c r="S24" t="str">
-        <f>IF(Компоненты!S24&lt;&gt;"",Компоненты!S24,"")</f>
+        <f>IF(Компоненты!T24&lt;&gt;"",Компоненты!T24,"")</f>
         <v/>
       </c>
       <c r="T24" t="str">
-        <f>IF(Компоненты!T24&lt;&gt;"",Компоненты!T24,"")</f>
+        <f>IF(Компоненты!U24&lt;&gt;"",Компоненты!U24,"")</f>
         <v/>
       </c>
     </row>
@@ -8968,15 +9240,15 @@
         <v>ДА</v>
       </c>
       <c r="R25" t="str">
-        <f>IF(Компоненты!R25&lt;&gt;"",Компоненты!R25,"")</f>
+        <f>IF(Компоненты!S25&lt;&gt;"",Компоненты!S25,"")</f>
         <v/>
       </c>
       <c r="S25" t="str">
-        <f>IF(Компоненты!S25&lt;&gt;"",Компоненты!S25,"")</f>
+        <f>IF(Компоненты!T25&lt;&gt;"",Компоненты!T25,"")</f>
         <v/>
       </c>
       <c r="T25" t="str">
-        <f>IF(Компоненты!T25&lt;&gt;"",Компоненты!T25,"")</f>
+        <f>IF(Компоненты!U25&lt;&gt;"",Компоненты!U25,"")</f>
         <v/>
       </c>
     </row>
@@ -9046,15 +9318,15 @@
         <v>ДА</v>
       </c>
       <c r="R26" t="str">
-        <f>IF(Компоненты!R26&lt;&gt;"",Компоненты!R26,"")</f>
+        <f>IF(Компоненты!S26&lt;&gt;"",Компоненты!S26,"")</f>
         <v/>
       </c>
       <c r="S26" t="str">
-        <f>IF(Компоненты!S26&lt;&gt;"",Компоненты!S26,"")</f>
+        <f>IF(Компоненты!T26&lt;&gt;"",Компоненты!T26,"")</f>
         <v/>
       </c>
       <c r="T26" t="str">
-        <f>IF(Компоненты!T26&lt;&gt;"",Компоненты!T26,"")</f>
+        <f>IF(Компоненты!U26&lt;&gt;"",Компоненты!U26,"")</f>
         <v/>
       </c>
     </row>
@@ -9124,15 +9396,15 @@
         <v>ДА</v>
       </c>
       <c r="R27" t="str">
-        <f>IF(Компоненты!R27&lt;&gt;"",Компоненты!R27,"")</f>
+        <f>IF(Компоненты!S27&lt;&gt;"",Компоненты!S27,"")</f>
         <v/>
       </c>
       <c r="S27" t="str">
-        <f>IF(Компоненты!S27&lt;&gt;"",Компоненты!S27,"")</f>
+        <f>IF(Компоненты!T27&lt;&gt;"",Компоненты!T27,"")</f>
         <v/>
       </c>
       <c r="T27" t="str">
-        <f>IF(Компоненты!T27&lt;&gt;"",Компоненты!T27,"")</f>
+        <f>IF(Компоненты!U27&lt;&gt;"",Компоненты!U27,"")</f>
         <v/>
       </c>
     </row>
@@ -9203,15 +9475,15 @@
         <v/>
       </c>
       <c r="R28" t="str">
-        <f>IF(Компоненты!R28&lt;&gt;"",Компоненты!R28,"")</f>
+        <f>IF(Компоненты!S28&lt;&gt;"",Компоненты!S28,"")</f>
         <v/>
       </c>
       <c r="S28" t="str">
-        <f>IF(Компоненты!S28&lt;&gt;"",Компоненты!S28,"")</f>
+        <f>IF(Компоненты!T28&lt;&gt;"",Компоненты!T28,"")</f>
         <v/>
       </c>
       <c r="T28" t="str">
-        <f>IF(Компоненты!T28&lt;&gt;"",Компоненты!T28,"")</f>
+        <f>IF(Компоненты!U28&lt;&gt;"",Компоненты!U28,"")</f>
         <v/>
       </c>
     </row>
@@ -9282,15 +9554,15 @@
         <v/>
       </c>
       <c r="R29" t="str">
-        <f>IF(Компоненты!R29&lt;&gt;"",Компоненты!R29,"")</f>
+        <f>IF(Компоненты!S29&lt;&gt;"",Компоненты!S29,"")</f>
         <v/>
       </c>
       <c r="S29" t="str">
-        <f>IF(Компоненты!S29&lt;&gt;"",Компоненты!S29,"")</f>
+        <f>IF(Компоненты!T29&lt;&gt;"",Компоненты!T29,"")</f>
         <v/>
       </c>
       <c r="T29" t="str">
-        <f>IF(Компоненты!T29&lt;&gt;"",Компоненты!T29,"")</f>
+        <f>IF(Компоненты!U29&lt;&gt;"",Компоненты!U29,"")</f>
         <v/>
       </c>
     </row>
@@ -9361,15 +9633,15 @@
         <v/>
       </c>
       <c r="R30" t="str">
-        <f>IF(Компоненты!R30&lt;&gt;"",Компоненты!R30,"")</f>
+        <f>IF(Компоненты!S30&lt;&gt;"",Компоненты!S30,"")</f>
         <v/>
       </c>
       <c r="S30" t="str">
-        <f>IF(Компоненты!S30&lt;&gt;"",Компоненты!S30,"")</f>
+        <f>IF(Компоненты!T30&lt;&gt;"",Компоненты!T30,"")</f>
         <v/>
       </c>
       <c r="T30" t="str">
-        <f>IF(Компоненты!T30&lt;&gt;"",Компоненты!T30,"")</f>
+        <f>IF(Компоненты!U30&lt;&gt;"",Компоненты!U30,"")</f>
         <v/>
       </c>
     </row>
@@ -9439,15 +9711,15 @@
         <v/>
       </c>
       <c r="R31" t="str">
-        <f>IF(Компоненты!R31&lt;&gt;"",Компоненты!R31,"")</f>
+        <f>IF(Компоненты!S31&lt;&gt;"",Компоненты!S31,"")</f>
         <v/>
       </c>
       <c r="S31" t="str">
-        <f>IF(Компоненты!S31&lt;&gt;"",Компоненты!S31,"")</f>
+        <f>IF(Компоненты!T31&lt;&gt;"",Компоненты!T31,"")</f>
         <v/>
       </c>
       <c r="T31" t="str">
-        <f>IF(Компоненты!T31&lt;&gt;"",Компоненты!T31,"")</f>
+        <f>IF(Компоненты!U31&lt;&gt;"",Компоненты!U31,"")</f>
         <v/>
       </c>
     </row>
@@ -9517,15 +9789,15 @@
         <v/>
       </c>
       <c r="R32" t="str">
-        <f>IF(Компоненты!R32&lt;&gt;"",Компоненты!R32,"")</f>
+        <f>IF(Компоненты!S32&lt;&gt;"",Компоненты!S32,"")</f>
         <v/>
       </c>
       <c r="S32" t="str">
-        <f>IF(Компоненты!S32&lt;&gt;"",Компоненты!S32,"")</f>
+        <f>IF(Компоненты!T32&lt;&gt;"",Компоненты!T32,"")</f>
         <v/>
       </c>
       <c r="T32" t="str">
-        <f>IF(Компоненты!T32&lt;&gt;"",Компоненты!T32,"")</f>
+        <f>IF(Компоненты!U32&lt;&gt;"",Компоненты!U32,"")</f>
         <v/>
       </c>
     </row>
@@ -9595,15 +9867,15 @@
         <v/>
       </c>
       <c r="R33" t="str">
-        <f>IF(Компоненты!R33&lt;&gt;"",Компоненты!R33,"")</f>
+        <f>IF(Компоненты!S33&lt;&gt;"",Компоненты!S33,"")</f>
         <v/>
       </c>
       <c r="S33" t="str">
-        <f>IF(Компоненты!S33&lt;&gt;"",Компоненты!S33,"")</f>
+        <f>IF(Компоненты!T33&lt;&gt;"",Компоненты!T33,"")</f>
         <v/>
       </c>
       <c r="T33" t="str">
-        <f>IF(Компоненты!T33&lt;&gt;"",Компоненты!T33,"")</f>
+        <f>IF(Компоненты!U33&lt;&gt;"",Компоненты!U33,"")</f>
         <v/>
       </c>
     </row>
@@ -9673,15 +9945,15 @@
         <v/>
       </c>
       <c r="R34" t="str">
-        <f>IF(Компоненты!R34&lt;&gt;"",Компоненты!R34,"")</f>
+        <f>IF(Компоненты!S34&lt;&gt;"",Компоненты!S34,"")</f>
         <v>ДА</v>
       </c>
       <c r="S34" t="str">
-        <f>IF(Компоненты!S34&lt;&gt;"",Компоненты!S34,"")</f>
+        <f>IF(Компоненты!T34&lt;&gt;"",Компоненты!T34,"")</f>
         <v/>
       </c>
       <c r="T34" t="str">
-        <f>IF(Компоненты!T34&lt;&gt;"",Компоненты!T34,"")</f>
+        <f>IF(Компоненты!U34&lt;&gt;"",Компоненты!U34,"")</f>
         <v/>
       </c>
     </row>
@@ -9751,15 +10023,15 @@
         <v/>
       </c>
       <c r="R35" t="str">
-        <f>IF(Компоненты!R35&lt;&gt;"",Компоненты!R35,"")</f>
+        <f>IF(Компоненты!S35&lt;&gt;"",Компоненты!S35,"")</f>
         <v/>
       </c>
       <c r="S35" t="str">
-        <f>IF(Компоненты!S35&lt;&gt;"",Компоненты!S35,"")</f>
+        <f>IF(Компоненты!T35&lt;&gt;"",Компоненты!T35,"")</f>
         <v/>
       </c>
       <c r="T35" t="str">
-        <f>IF(Компоненты!T35&lt;&gt;"",Компоненты!T35,"")</f>
+        <f>IF(Компоненты!U35&lt;&gt;"",Компоненты!U35,"")</f>
         <v/>
       </c>
     </row>
@@ -9829,15 +10101,15 @@
         <v/>
       </c>
       <c r="R36" t="str">
-        <f>IF(Компоненты!R36&lt;&gt;"",Компоненты!R36,"")</f>
+        <f>IF(Компоненты!S36&lt;&gt;"",Компоненты!S36,"")</f>
         <v/>
       </c>
       <c r="S36" t="str">
-        <f>IF(Компоненты!S36&lt;&gt;"",Компоненты!S36,"")</f>
+        <f>IF(Компоненты!T36&lt;&gt;"",Компоненты!T36,"")</f>
         <v/>
       </c>
       <c r="T36" t="str">
-        <f>IF(Компоненты!T36&lt;&gt;"",Компоненты!T36,"")</f>
+        <f>IF(Компоненты!U36&lt;&gt;"",Компоненты!U36,"")</f>
         <v/>
       </c>
     </row>
@@ -9907,15 +10179,15 @@
         <v/>
       </c>
       <c r="R37" t="str">
-        <f>IF(Компоненты!R37&lt;&gt;"",Компоненты!R37,"")</f>
+        <f>IF(Компоненты!S37&lt;&gt;"",Компоненты!S37,"")</f>
         <v>ДА</v>
       </c>
       <c r="S37" t="str">
-        <f>IF(Компоненты!S37&lt;&gt;"",Компоненты!S37,"")</f>
+        <f>IF(Компоненты!T37&lt;&gt;"",Компоненты!T37,"")</f>
         <v/>
       </c>
       <c r="T37" t="str">
-        <f>IF(Компоненты!T37&lt;&gt;"",Компоненты!T37,"")</f>
+        <f>IF(Компоненты!U37&lt;&gt;"",Компоненты!U37,"")</f>
         <v/>
       </c>
     </row>
@@ -9985,15 +10257,15 @@
         <v/>
       </c>
       <c r="R38" t="str">
-        <f>IF(Компоненты!R38&lt;&gt;"",Компоненты!R38,"")</f>
+        <f>IF(Компоненты!S38&lt;&gt;"",Компоненты!S38,"")</f>
         <v/>
       </c>
       <c r="S38" t="str">
-        <f>IF(Компоненты!S38&lt;&gt;"",Компоненты!S38,"")</f>
+        <f>IF(Компоненты!T38&lt;&gt;"",Компоненты!T38,"")</f>
         <v/>
       </c>
       <c r="T38" t="str">
-        <f>IF(Компоненты!T38&lt;&gt;"",Компоненты!T38,"")</f>
+        <f>IF(Компоненты!U38&lt;&gt;"",Компоненты!U38,"")</f>
         <v/>
       </c>
     </row>
@@ -10063,15 +10335,15 @@
         <v/>
       </c>
       <c r="R39" t="str">
-        <f>IF(Компоненты!R39&lt;&gt;"",Компоненты!R39,"")</f>
+        <f>IF(Компоненты!S39&lt;&gt;"",Компоненты!S39,"")</f>
         <v/>
       </c>
       <c r="S39" t="str">
-        <f>IF(Компоненты!S39&lt;&gt;"",Компоненты!S39,"")</f>
+        <f>IF(Компоненты!T39&lt;&gt;"",Компоненты!T39,"")</f>
         <v/>
       </c>
       <c r="T39" t="str">
-        <f>IF(Компоненты!T39&lt;&gt;"",Компоненты!T39,"")</f>
+        <f>IF(Компоненты!U39&lt;&gt;"",Компоненты!U39,"")</f>
         <v/>
       </c>
     </row>
@@ -10141,15 +10413,15 @@
         <v/>
       </c>
       <c r="R40" t="str">
-        <f>IF(Компоненты!R40&lt;&gt;"",Компоненты!R40,"")</f>
+        <f>IF(Компоненты!S40&lt;&gt;"",Компоненты!S40,"")</f>
         <v/>
       </c>
       <c r="S40" t="str">
-        <f>IF(Компоненты!S40&lt;&gt;"",Компоненты!S40,"")</f>
+        <f>IF(Компоненты!T40&lt;&gt;"",Компоненты!T40,"")</f>
         <v/>
       </c>
       <c r="T40" t="str">
-        <f>IF(Компоненты!T40&lt;&gt;"",Компоненты!T40,"")</f>
+        <f>IF(Компоненты!U40&lt;&gt;"",Компоненты!U40,"")</f>
         <v/>
       </c>
     </row>
@@ -10219,15 +10491,15 @@
         <v/>
       </c>
       <c r="R41" t="str">
-        <f>IF(Компоненты!R41&lt;&gt;"",Компоненты!R41,"")</f>
+        <f>IF(Компоненты!S41&lt;&gt;"",Компоненты!S41,"")</f>
         <v/>
       </c>
       <c r="S41" t="str">
-        <f>IF(Компоненты!S41&lt;&gt;"",Компоненты!S41,"")</f>
+        <f>IF(Компоненты!T41&lt;&gt;"",Компоненты!T41,"")</f>
         <v/>
       </c>
       <c r="T41" t="str">
-        <f>IF(Компоненты!T41&lt;&gt;"",Компоненты!T41,"")</f>
+        <f>IF(Компоненты!U41&lt;&gt;"",Компоненты!U41,"")</f>
         <v/>
       </c>
     </row>
@@ -10297,15 +10569,15 @@
         <v/>
       </c>
       <c r="R42" t="str">
-        <f>IF(Компоненты!R42&lt;&gt;"",Компоненты!R42,"")</f>
+        <f>IF(Компоненты!S42&lt;&gt;"",Компоненты!S42,"")</f>
         <v>ДА</v>
       </c>
       <c r="S42" t="str">
-        <f>IF(Компоненты!S42&lt;&gt;"",Компоненты!S42,"")</f>
+        <f>IF(Компоненты!T42&lt;&gt;"",Компоненты!T42,"")</f>
         <v/>
       </c>
       <c r="T42" t="str">
-        <f>IF(Компоненты!T42&lt;&gt;"",Компоненты!T42,"")</f>
+        <f>IF(Компоненты!U42&lt;&gt;"",Компоненты!U42,"")</f>
         <v/>
       </c>
     </row>
@@ -10375,15 +10647,15 @@
         <v/>
       </c>
       <c r="R43" t="str">
-        <f>IF(Компоненты!R43&lt;&gt;"",Компоненты!R43,"")</f>
+        <f>IF(Компоненты!S43&lt;&gt;"",Компоненты!S43,"")</f>
         <v/>
       </c>
       <c r="S43" t="str">
-        <f>IF(Компоненты!S43&lt;&gt;"",Компоненты!S43,"")</f>
+        <f>IF(Компоненты!T43&lt;&gt;"",Компоненты!T43,"")</f>
         <v/>
       </c>
       <c r="T43" t="str">
-        <f>IF(Компоненты!T43&lt;&gt;"",Компоненты!T43,"")</f>
+        <f>IF(Компоненты!U43&lt;&gt;"",Компоненты!U43,"")</f>
         <v/>
       </c>
     </row>
@@ -10453,15 +10725,15 @@
         <v/>
       </c>
       <c r="R44" t="str">
-        <f>IF(Компоненты!R44&lt;&gt;"",Компоненты!R44,"")</f>
+        <f>IF(Компоненты!S44&lt;&gt;"",Компоненты!S44,"")</f>
         <v/>
       </c>
       <c r="S44" t="str">
-        <f>IF(Компоненты!S44&lt;&gt;"",Компоненты!S44,"")</f>
+        <f>IF(Компоненты!T44&lt;&gt;"",Компоненты!T44,"")</f>
         <v/>
       </c>
       <c r="T44" t="str">
-        <f>IF(Компоненты!T44&lt;&gt;"",Компоненты!T44,"")</f>
+        <f>IF(Компоненты!U44&lt;&gt;"",Компоненты!U44,"")</f>
         <v/>
       </c>
     </row>
@@ -10531,15 +10803,15 @@
         <v/>
       </c>
       <c r="R45" t="str">
-        <f>IF(Компоненты!R45&lt;&gt;"",Компоненты!R45,"")</f>
+        <f>IF(Компоненты!S45&lt;&gt;"",Компоненты!S45,"")</f>
         <v/>
       </c>
       <c r="S45" t="str">
-        <f>IF(Компоненты!S45&lt;&gt;"",Компоненты!S45,"")</f>
+        <f>IF(Компоненты!T45&lt;&gt;"",Компоненты!T45,"")</f>
         <v/>
       </c>
       <c r="T45" t="str">
-        <f>IF(Компоненты!T45&lt;&gt;"",Компоненты!T45,"")</f>
+        <f>IF(Компоненты!U45&lt;&gt;"",Компоненты!U45,"")</f>
         <v/>
       </c>
     </row>
@@ -10610,15 +10882,15 @@
         <v/>
       </c>
       <c r="R46" t="str">
-        <f>IF(Компоненты!R46&lt;&gt;"",Компоненты!R46,"")</f>
-        <v>ДА</v>
-      </c>
-      <c r="S46" t="str">
         <f>IF(Компоненты!S46&lt;&gt;"",Компоненты!S46,"")</f>
         <v>ДА</v>
       </c>
+      <c r="S46" t="str">
+        <f>IF(Компоненты!T46&lt;&gt;"",Компоненты!T46,"")</f>
+        <v>ДА</v>
+      </c>
       <c r="T46" t="str">
-        <f>IF(Компоненты!T46&lt;&gt;"",Компоненты!T46,"")</f>
+        <f>IF(Компоненты!U46&lt;&gt;"",Компоненты!U46,"")</f>
         <v/>
       </c>
     </row>
@@ -10691,15 +10963,15 @@
         <v/>
       </c>
       <c r="R47" t="str">
-        <f>IF(Компоненты!R47&lt;&gt;"",Компоненты!R47,"")</f>
-        <v>ДА</v>
-      </c>
-      <c r="S47" t="str">
         <f>IF(Компоненты!S47&lt;&gt;"",Компоненты!S47,"")</f>
         <v>ДА</v>
       </c>
+      <c r="S47" t="str">
+        <f>IF(Компоненты!T47&lt;&gt;"",Компоненты!T47,"")</f>
+        <v>ДА</v>
+      </c>
       <c r="T47" t="str">
-        <f>IF(Компоненты!T47&lt;&gt;"",Компоненты!T47,"")</f>
+        <f>IF(Компоненты!U47&lt;&gt;"",Компоненты!U47,"")</f>
         <v/>
       </c>
     </row>
@@ -10769,15 +11041,15 @@
         <v>ДА</v>
       </c>
       <c r="R48" t="str">
-        <f>IF(Компоненты!R48&lt;&gt;"",Компоненты!R48,"")</f>
+        <f>IF(Компоненты!S48&lt;&gt;"",Компоненты!S48,"")</f>
         <v/>
       </c>
       <c r="S48" t="str">
-        <f>IF(Компоненты!S48&lt;&gt;"",Компоненты!S48,"")</f>
+        <f>IF(Компоненты!T48&lt;&gt;"",Компоненты!T48,"")</f>
         <v/>
       </c>
       <c r="T48" t="str">
-        <f>IF(Компоненты!T48&lt;&gt;"",Компоненты!T48,"")</f>
+        <f>IF(Компоненты!U48&lt;&gt;"",Компоненты!U48,"")</f>
         <v/>
       </c>
     </row>
@@ -10847,15 +11119,15 @@
         <v>ДА</v>
       </c>
       <c r="R49" t="str">
-        <f>IF(Компоненты!R49&lt;&gt;"",Компоненты!R49,"")</f>
+        <f>IF(Компоненты!S49&lt;&gt;"",Компоненты!S49,"")</f>
         <v/>
       </c>
       <c r="S49" t="str">
-        <f>IF(Компоненты!S49&lt;&gt;"",Компоненты!S49,"")</f>
+        <f>IF(Компоненты!T49&lt;&gt;"",Компоненты!T49,"")</f>
         <v/>
       </c>
       <c r="T49" t="str">
-        <f>IF(Компоненты!T49&lt;&gt;"",Компоненты!T49,"")</f>
+        <f>IF(Компоненты!U49&lt;&gt;"",Компоненты!U49,"")</f>
         <v/>
       </c>
     </row>
@@ -10925,15 +11197,15 @@
         <v/>
       </c>
       <c r="R50" t="str">
-        <f>IF(Компоненты!R50&lt;&gt;"",Компоненты!R50,"")</f>
-        <v>ДА</v>
-      </c>
-      <c r="S50" t="str">
         <f>IF(Компоненты!S50&lt;&gt;"",Компоненты!S50,"")</f>
         <v>ДА</v>
       </c>
+      <c r="S50" t="str">
+        <f>IF(Компоненты!T50&lt;&gt;"",Компоненты!T50,"")</f>
+        <v>ДА</v>
+      </c>
       <c r="T50" t="str">
-        <f>IF(Компоненты!T50&lt;&gt;"",Компоненты!T50,"")</f>
+        <f>IF(Компоненты!U50&lt;&gt;"",Компоненты!U50,"")</f>
         <v/>
       </c>
     </row>
@@ -11003,15 +11275,15 @@
         <v/>
       </c>
       <c r="R51" t="str">
-        <f>IF(Компоненты!R51&lt;&gt;"",Компоненты!R51,"")</f>
-        <v>ДА</v>
-      </c>
-      <c r="S51" t="str">
         <f>IF(Компоненты!S51&lt;&gt;"",Компоненты!S51,"")</f>
         <v>ДА</v>
       </c>
+      <c r="S51" t="str">
+        <f>IF(Компоненты!T51&lt;&gt;"",Компоненты!T51,"")</f>
+        <v>ДА</v>
+      </c>
       <c r="T51" t="str">
-        <f>IF(Компоненты!T51&lt;&gt;"",Компоненты!T51,"")</f>
+        <f>IF(Компоненты!U51&lt;&gt;"",Компоненты!U51,"")</f>
         <v/>
       </c>
     </row>
@@ -11081,15 +11353,15 @@
         <v>ДА</v>
       </c>
       <c r="R52" t="str">
-        <f>IF(Компоненты!R52&lt;&gt;"",Компоненты!R52,"")</f>
+        <f>IF(Компоненты!S52&lt;&gt;"",Компоненты!S52,"")</f>
         <v/>
       </c>
       <c r="S52" t="str">
-        <f>IF(Компоненты!S52&lt;&gt;"",Компоненты!S52,"")</f>
+        <f>IF(Компоненты!T52&lt;&gt;"",Компоненты!T52,"")</f>
         <v/>
       </c>
       <c r="T52" t="str">
-        <f>IF(Компоненты!T52&lt;&gt;"",Компоненты!T52,"")</f>
+        <f>IF(Компоненты!U52&lt;&gt;"",Компоненты!U52,"")</f>
         <v/>
       </c>
     </row>
@@ -11159,15 +11431,15 @@
         <v/>
       </c>
       <c r="R53" t="str">
-        <f>IF(Компоненты!R53&lt;&gt;"",Компоненты!R53,"")</f>
+        <f>IF(Компоненты!S53&lt;&gt;"",Компоненты!S53,"")</f>
         <v/>
       </c>
       <c r="S53" t="str">
-        <f>IF(Компоненты!S53&lt;&gt;"",Компоненты!S53,"")</f>
+        <f>IF(Компоненты!T53&lt;&gt;"",Компоненты!T53,"")</f>
         <v/>
       </c>
       <c r="T53" t="str">
-        <f>IF(Компоненты!T53&lt;&gt;"",Компоненты!T53,"")</f>
+        <f>IF(Компоненты!U53&lt;&gt;"",Компоненты!U53,"")</f>
         <v/>
       </c>
     </row>
@@ -11237,15 +11509,15 @@
         <v/>
       </c>
       <c r="R54" t="str">
-        <f>IF(Компоненты!R54&lt;&gt;"",Компоненты!R54,"")</f>
+        <f>IF(Компоненты!S54&lt;&gt;"",Компоненты!S54,"")</f>
         <v/>
       </c>
       <c r="S54" t="str">
-        <f>IF(Компоненты!S54&lt;&gt;"",Компоненты!S54,"")</f>
+        <f>IF(Компоненты!T54&lt;&gt;"",Компоненты!T54,"")</f>
         <v/>
       </c>
       <c r="T54" t="str">
-        <f>IF(Компоненты!T54&lt;&gt;"",Компоненты!T54,"")</f>
+        <f>IF(Компоненты!U54&lt;&gt;"",Компоненты!U54,"")</f>
         <v/>
       </c>
     </row>
@@ -11315,15 +11587,15 @@
         <v/>
       </c>
       <c r="R55" t="str">
-        <f>IF(Компоненты!R55&lt;&gt;"",Компоненты!R55,"")</f>
+        <f>IF(Компоненты!S55&lt;&gt;"",Компоненты!S55,"")</f>
         <v/>
       </c>
       <c r="S55" t="str">
-        <f>IF(Компоненты!S55&lt;&gt;"",Компоненты!S55,"")</f>
+        <f>IF(Компоненты!T55&lt;&gt;"",Компоненты!T55,"")</f>
         <v/>
       </c>
       <c r="T55" t="str">
-        <f>IF(Компоненты!T55&lt;&gt;"",Компоненты!T55,"")</f>
+        <f>IF(Компоненты!U55&lt;&gt;"",Компоненты!U55,"")</f>
         <v/>
       </c>
     </row>
@@ -11393,15 +11665,15 @@
         <v/>
       </c>
       <c r="R56" t="str">
-        <f>IF(Компоненты!R56&lt;&gt;"",Компоненты!R56,"")</f>
+        <f>IF(Компоненты!S56&lt;&gt;"",Компоненты!S56,"")</f>
         <v/>
       </c>
       <c r="S56" t="str">
-        <f>IF(Компоненты!S56&lt;&gt;"",Компоненты!S56,"")</f>
+        <f>IF(Компоненты!T56&lt;&gt;"",Компоненты!T56,"")</f>
         <v/>
       </c>
       <c r="T56" t="str">
-        <f>IF(Компоненты!T56&lt;&gt;"",Компоненты!T56,"")</f>
+        <f>IF(Компоненты!U56&lt;&gt;"",Компоненты!U56,"")</f>
         <v/>
       </c>
     </row>
@@ -11471,15 +11743,15 @@
         <v/>
       </c>
       <c r="R57" t="str">
-        <f>IF(Компоненты!R57&lt;&gt;"",Компоненты!R57,"")</f>
+        <f>IF(Компоненты!S57&lt;&gt;"",Компоненты!S57,"")</f>
         <v/>
       </c>
       <c r="S57" t="str">
-        <f>IF(Компоненты!S57&lt;&gt;"",Компоненты!S57,"")</f>
+        <f>IF(Компоненты!T57&lt;&gt;"",Компоненты!T57,"")</f>
         <v/>
       </c>
       <c r="T57" t="str">
-        <f>IF(Компоненты!T57&lt;&gt;"",Компоненты!T57,"")</f>
+        <f>IF(Компоненты!U57&lt;&gt;"",Компоненты!U57,"")</f>
         <v/>
       </c>
     </row>
@@ -11549,15 +11821,15 @@
         <v/>
       </c>
       <c r="R58" t="str">
-        <f>IF(Компоненты!R58&lt;&gt;"",Компоненты!R58,"")</f>
+        <f>IF(Компоненты!S58&lt;&gt;"",Компоненты!S58,"")</f>
         <v/>
       </c>
       <c r="S58" t="str">
-        <f>IF(Компоненты!S58&lt;&gt;"",Компоненты!S58,"")</f>
+        <f>IF(Компоненты!T58&lt;&gt;"",Компоненты!T58,"")</f>
         <v/>
       </c>
       <c r="T58" t="str">
-        <f>IF(Компоненты!T58&lt;&gt;"",Компоненты!T58,"")</f>
+        <f>IF(Компоненты!U58&lt;&gt;"",Компоненты!U58,"")</f>
         <v/>
       </c>
     </row>
@@ -11627,15 +11899,15 @@
         <v/>
       </c>
       <c r="R59" t="str">
-        <f>IF(Компоненты!R59&lt;&gt;"",Компоненты!R59,"")</f>
+        <f>IF(Компоненты!S59&lt;&gt;"",Компоненты!S59,"")</f>
         <v/>
       </c>
       <c r="S59" t="str">
-        <f>IF(Компоненты!S59&lt;&gt;"",Компоненты!S59,"")</f>
+        <f>IF(Компоненты!T59&lt;&gt;"",Компоненты!T59,"")</f>
         <v/>
       </c>
       <c r="T59" t="str">
-        <f>IF(Компоненты!T59&lt;&gt;"",Компоненты!T59,"")</f>
+        <f>IF(Компоненты!U59&lt;&gt;"",Компоненты!U59,"")</f>
         <v/>
       </c>
     </row>
@@ -11705,15 +11977,15 @@
         <v/>
       </c>
       <c r="R60" t="str">
-        <f>IF(Компоненты!R60&lt;&gt;"",Компоненты!R60,"")</f>
+        <f>IF(Компоненты!S60&lt;&gt;"",Компоненты!S60,"")</f>
         <v/>
       </c>
       <c r="S60" t="str">
-        <f>IF(Компоненты!S60&lt;&gt;"",Компоненты!S60,"")</f>
+        <f>IF(Компоненты!T60&lt;&gt;"",Компоненты!T60,"")</f>
         <v/>
       </c>
       <c r="T60" t="str">
-        <f>IF(Компоненты!T60&lt;&gt;"",Компоненты!T60,"")</f>
+        <f>IF(Компоненты!U60&lt;&gt;"",Компоненты!U60,"")</f>
         <v/>
       </c>
     </row>
@@ -11783,15 +12055,15 @@
         <v/>
       </c>
       <c r="R61" t="str">
-        <f>IF(Компоненты!R61&lt;&gt;"",Компоненты!R61,"")</f>
+        <f>IF(Компоненты!S61&lt;&gt;"",Компоненты!S61,"")</f>
         <v/>
       </c>
       <c r="S61" t="str">
-        <f>IF(Компоненты!S61&lt;&gt;"",Компоненты!S61,"")</f>
+        <f>IF(Компоненты!T61&lt;&gt;"",Компоненты!T61,"")</f>
         <v/>
       </c>
       <c r="T61" t="str">
-        <f>IF(Компоненты!T61&lt;&gt;"",Компоненты!T61,"")</f>
+        <f>IF(Компоненты!U61&lt;&gt;"",Компоненты!U61,"")</f>
         <v/>
       </c>
     </row>
@@ -11861,15 +12133,15 @@
         <v/>
       </c>
       <c r="R62" t="str">
-        <f>IF(Компоненты!R62&lt;&gt;"",Компоненты!R62,"")</f>
+        <f>IF(Компоненты!S62&lt;&gt;"",Компоненты!S62,"")</f>
         <v/>
       </c>
       <c r="S62" t="str">
-        <f>IF(Компоненты!S62&lt;&gt;"",Компоненты!S62,"")</f>
+        <f>IF(Компоненты!T62&lt;&gt;"",Компоненты!T62,"")</f>
         <v/>
       </c>
       <c r="T62" t="str">
-        <f>IF(Компоненты!T62&lt;&gt;"",Компоненты!T62,"")</f>
+        <f>IF(Компоненты!U62&lt;&gt;"",Компоненты!U62,"")</f>
         <v/>
       </c>
     </row>
@@ -11939,15 +12211,15 @@
         <v/>
       </c>
       <c r="R63" t="str">
-        <f>IF(Компоненты!R63&lt;&gt;"",Компоненты!R63,"")</f>
+        <f>IF(Компоненты!S63&lt;&gt;"",Компоненты!S63,"")</f>
         <v/>
       </c>
       <c r="S63" t="str">
-        <f>IF(Компоненты!S63&lt;&gt;"",Компоненты!S63,"")</f>
+        <f>IF(Компоненты!T63&lt;&gt;"",Компоненты!T63,"")</f>
         <v/>
       </c>
       <c r="T63" t="str">
-        <f>IF(Компоненты!T63&lt;&gt;"",Компоненты!T63,"")</f>
+        <f>IF(Компоненты!U63&lt;&gt;"",Компоненты!U63,"")</f>
         <v/>
       </c>
     </row>
@@ -12017,15 +12289,15 @@
         <v/>
       </c>
       <c r="R64" t="str">
-        <f>IF(Компоненты!R64&lt;&gt;"",Компоненты!R64,"")</f>
+        <f>IF(Компоненты!S64&lt;&gt;"",Компоненты!S64,"")</f>
         <v/>
       </c>
       <c r="S64" t="str">
-        <f>IF(Компоненты!S64&lt;&gt;"",Компоненты!S64,"")</f>
+        <f>IF(Компоненты!T64&lt;&gt;"",Компоненты!T64,"")</f>
         <v/>
       </c>
       <c r="T64" t="str">
-        <f>IF(Компоненты!T64&lt;&gt;"",Компоненты!T64,"")</f>
+        <f>IF(Компоненты!U64&lt;&gt;"",Компоненты!U64,"")</f>
         <v/>
       </c>
     </row>
@@ -12095,15 +12367,15 @@
         <v/>
       </c>
       <c r="R65" t="str">
-        <f>IF(Компоненты!R65&lt;&gt;"",Компоненты!R65,"")</f>
+        <f>IF(Компоненты!S65&lt;&gt;"",Компоненты!S65,"")</f>
         <v/>
       </c>
       <c r="S65" t="str">
-        <f>IF(Компоненты!S65&lt;&gt;"",Компоненты!S65,"")</f>
+        <f>IF(Компоненты!T65&lt;&gt;"",Компоненты!T65,"")</f>
         <v/>
       </c>
       <c r="T65" t="str">
-        <f>IF(Компоненты!T65&lt;&gt;"",Компоненты!T65,"")</f>
+        <f>IF(Компоненты!U65&lt;&gt;"",Компоненты!U65,"")</f>
         <v/>
       </c>
     </row>
@@ -12173,15 +12445,15 @@
         <v/>
       </c>
       <c r="R66" t="str">
-        <f>IF(Компоненты!R66&lt;&gt;"",Компоненты!R66,"")</f>
+        <f>IF(Компоненты!S66&lt;&gt;"",Компоненты!S66,"")</f>
         <v/>
       </c>
       <c r="S66" t="str">
-        <f>IF(Компоненты!S66&lt;&gt;"",Компоненты!S66,"")</f>
+        <f>IF(Компоненты!T66&lt;&gt;"",Компоненты!T66,"")</f>
         <v/>
       </c>
       <c r="T66" t="str">
-        <f>IF(Компоненты!T66&lt;&gt;"",Компоненты!T66,"")</f>
+        <f>IF(Компоненты!U66&lt;&gt;"",Компоненты!U66,"")</f>
         <v/>
       </c>
     </row>
@@ -12251,15 +12523,15 @@
         <v/>
       </c>
       <c r="R67" t="str">
-        <f>IF(Компоненты!R67&lt;&gt;"",Компоненты!R67,"")</f>
+        <f>IF(Компоненты!S67&lt;&gt;"",Компоненты!S67,"")</f>
         <v/>
       </c>
       <c r="S67" t="str">
-        <f>IF(Компоненты!S67&lt;&gt;"",Компоненты!S67,"")</f>
+        <f>IF(Компоненты!T67&lt;&gt;"",Компоненты!T67,"")</f>
         <v/>
       </c>
       <c r="T67" t="str">
-        <f>IF(Компоненты!T67&lt;&gt;"",Компоненты!T67,"")</f>
+        <f>IF(Компоненты!U67&lt;&gt;"",Компоненты!U67,"")</f>
         <v/>
       </c>
     </row>
@@ -12329,15 +12601,15 @@
         <v/>
       </c>
       <c r="R68" t="str">
-        <f>IF(Компоненты!R68&lt;&gt;"",Компоненты!R68,"")</f>
+        <f>IF(Компоненты!S68&lt;&gt;"",Компоненты!S68,"")</f>
         <v/>
       </c>
       <c r="S68" t="str">
-        <f>IF(Компоненты!S68&lt;&gt;"",Компоненты!S68,"")</f>
+        <f>IF(Компоненты!T68&lt;&gt;"",Компоненты!T68,"")</f>
         <v/>
       </c>
       <c r="T68" t="str">
-        <f>IF(Компоненты!T68&lt;&gt;"",Компоненты!T68,"")</f>
+        <f>IF(Компоненты!U68&lt;&gt;"",Компоненты!U68,"")</f>
         <v/>
       </c>
     </row>
@@ -12407,15 +12679,15 @@
         <v/>
       </c>
       <c r="R69" t="str">
-        <f>IF(Компоненты!R69&lt;&gt;"",Компоненты!R69,"")</f>
+        <f>IF(Компоненты!S69&lt;&gt;"",Компоненты!S69,"")</f>
         <v/>
       </c>
       <c r="S69" t="str">
-        <f>IF(Компоненты!S69&lt;&gt;"",Компоненты!S69,"")</f>
+        <f>IF(Компоненты!T69&lt;&gt;"",Компоненты!T69,"")</f>
         <v/>
       </c>
       <c r="T69" t="str">
-        <f>IF(Компоненты!T69&lt;&gt;"",Компоненты!T69,"")</f>
+        <f>IF(Компоненты!U69&lt;&gt;"",Компоненты!U69,"")</f>
         <v/>
       </c>
     </row>
@@ -12485,15 +12757,15 @@
         <v/>
       </c>
       <c r="R70" t="str">
-        <f>IF(Компоненты!R70&lt;&gt;"",Компоненты!R70,"")</f>
+        <f>IF(Компоненты!S70&lt;&gt;"",Компоненты!S70,"")</f>
         <v/>
       </c>
       <c r="S70" t="str">
-        <f>IF(Компоненты!S70&lt;&gt;"",Компоненты!S70,"")</f>
+        <f>IF(Компоненты!T70&lt;&gt;"",Компоненты!T70,"")</f>
         <v/>
       </c>
       <c r="T70" t="str">
-        <f>IF(Компоненты!T70&lt;&gt;"",Компоненты!T70,"")</f>
+        <f>IF(Компоненты!U70&lt;&gt;"",Компоненты!U70,"")</f>
         <v/>
       </c>
     </row>
@@ -12563,15 +12835,15 @@
         <v/>
       </c>
       <c r="R71" t="str">
-        <f>IF(Компоненты!R71&lt;&gt;"",Компоненты!R71,"")</f>
+        <f>IF(Компоненты!S71&lt;&gt;"",Компоненты!S71,"")</f>
         <v/>
       </c>
       <c r="S71" t="str">
-        <f>IF(Компоненты!S71&lt;&gt;"",Компоненты!S71,"")</f>
+        <f>IF(Компоненты!T71&lt;&gt;"",Компоненты!T71,"")</f>
         <v/>
       </c>
       <c r="T71" t="str">
-        <f>IF(Компоненты!T71&lt;&gt;"",Компоненты!T71,"")</f>
+        <f>IF(Компоненты!U71&lt;&gt;"",Компоненты!U71,"")</f>
         <v/>
       </c>
     </row>
@@ -12641,15 +12913,15 @@
         <v/>
       </c>
       <c r="R72" t="str">
-        <f>IF(Компоненты!R72&lt;&gt;"",Компоненты!R72,"")</f>
+        <f>IF(Компоненты!S72&lt;&gt;"",Компоненты!S72,"")</f>
         <v/>
       </c>
       <c r="S72" t="str">
-        <f>IF(Компоненты!S72&lt;&gt;"",Компоненты!S72,"")</f>
+        <f>IF(Компоненты!T72&lt;&gt;"",Компоненты!T72,"")</f>
         <v/>
       </c>
       <c r="T72" t="str">
-        <f>IF(Компоненты!T72&lt;&gt;"",Компоненты!T72,"")</f>
+        <f>IF(Компоненты!U72&lt;&gt;"",Компоненты!U72,"")</f>
         <v/>
       </c>
     </row>
@@ -12719,15 +12991,15 @@
         <v/>
       </c>
       <c r="R73" t="str">
-        <f>IF(Компоненты!R73&lt;&gt;"",Компоненты!R73,"")</f>
+        <f>IF(Компоненты!S73&lt;&gt;"",Компоненты!S73,"")</f>
         <v/>
       </c>
       <c r="S73" t="str">
-        <f>IF(Компоненты!S73&lt;&gt;"",Компоненты!S73,"")</f>
+        <f>IF(Компоненты!T73&lt;&gt;"",Компоненты!T73,"")</f>
         <v/>
       </c>
       <c r="T73" t="str">
-        <f>IF(Компоненты!T73&lt;&gt;"",Компоненты!T73,"")</f>
+        <f>IF(Компоненты!U73&lt;&gt;"",Компоненты!U73,"")</f>
         <v/>
       </c>
     </row>
@@ -12797,15 +13069,15 @@
         <v/>
       </c>
       <c r="R74" t="str">
-        <f>IF(Компоненты!R74&lt;&gt;"",Компоненты!R74,"")</f>
+        <f>IF(Компоненты!S74&lt;&gt;"",Компоненты!S74,"")</f>
         <v/>
       </c>
       <c r="S74" t="str">
-        <f>IF(Компоненты!S74&lt;&gt;"",Компоненты!S74,"")</f>
+        <f>IF(Компоненты!T74&lt;&gt;"",Компоненты!T74,"")</f>
         <v/>
       </c>
       <c r="T74" t="str">
-        <f>IF(Компоненты!T74&lt;&gt;"",Компоненты!T74,"")</f>
+        <f>IF(Компоненты!U74&lt;&gt;"",Компоненты!U74,"")</f>
         <v/>
       </c>
     </row>
@@ -12875,15 +13147,15 @@
         <v/>
       </c>
       <c r="R75" t="str">
-        <f>IF(Компоненты!R75&lt;&gt;"",Компоненты!R75,"")</f>
+        <f>IF(Компоненты!S75&lt;&gt;"",Компоненты!S75,"")</f>
         <v/>
       </c>
       <c r="S75" t="str">
-        <f>IF(Компоненты!S75&lt;&gt;"",Компоненты!S75,"")</f>
+        <f>IF(Компоненты!T75&lt;&gt;"",Компоненты!T75,"")</f>
         <v/>
       </c>
       <c r="T75" t="str">
-        <f>IF(Компоненты!T75&lt;&gt;"",Компоненты!T75,"")</f>
+        <f>IF(Компоненты!U75&lt;&gt;"",Компоненты!U75,"")</f>
         <v/>
       </c>
     </row>
@@ -12953,15 +13225,15 @@
         <v/>
       </c>
       <c r="R76" t="str">
-        <f>IF(Компоненты!R76&lt;&gt;"",Компоненты!R76,"")</f>
+        <f>IF(Компоненты!S76&lt;&gt;"",Компоненты!S76,"")</f>
         <v/>
       </c>
       <c r="S76" t="str">
-        <f>IF(Компоненты!S76&lt;&gt;"",Компоненты!S76,"")</f>
+        <f>IF(Компоненты!T76&lt;&gt;"",Компоненты!T76,"")</f>
         <v/>
       </c>
       <c r="T76" t="str">
-        <f>IF(Компоненты!T76&lt;&gt;"",Компоненты!T76,"")</f>
+        <f>IF(Компоненты!U76&lt;&gt;"",Компоненты!U76,"")</f>
         <v/>
       </c>
     </row>
@@ -13031,15 +13303,15 @@
         <v/>
       </c>
       <c r="R77" t="str">
-        <f>IF(Компоненты!R77&lt;&gt;"",Компоненты!R77,"")</f>
+        <f>IF(Компоненты!S77&lt;&gt;"",Компоненты!S77,"")</f>
         <v/>
       </c>
       <c r="S77" t="str">
-        <f>IF(Компоненты!S77&lt;&gt;"",Компоненты!S77,"")</f>
+        <f>IF(Компоненты!T77&lt;&gt;"",Компоненты!T77,"")</f>
         <v/>
       </c>
       <c r="T77" t="str">
-        <f>IF(Компоненты!T77&lt;&gt;"",Компоненты!T77,"")</f>
+        <f>IF(Компоненты!U77&lt;&gt;"",Компоненты!U77,"")</f>
         <v/>
       </c>
     </row>
@@ -13109,15 +13381,15 @@
         <v/>
       </c>
       <c r="R78" t="str">
-        <f>IF(Компоненты!R78&lt;&gt;"",Компоненты!R78,"")</f>
+        <f>IF(Компоненты!S78&lt;&gt;"",Компоненты!S78,"")</f>
         <v/>
       </c>
       <c r="S78" t="str">
-        <f>IF(Компоненты!S78&lt;&gt;"",Компоненты!S78,"")</f>
+        <f>IF(Компоненты!T78&lt;&gt;"",Компоненты!T78,"")</f>
         <v/>
       </c>
       <c r="T78" t="str">
-        <f>IF(Компоненты!T78&lt;&gt;"",Компоненты!T78,"")</f>
+        <f>IF(Компоненты!U78&lt;&gt;"",Компоненты!U78,"")</f>
         <v/>
       </c>
     </row>
@@ -13187,15 +13459,15 @@
         <v/>
       </c>
       <c r="R79" t="str">
-        <f>IF(Компоненты!R79&lt;&gt;"",Компоненты!R79,"")</f>
+        <f>IF(Компоненты!S79&lt;&gt;"",Компоненты!S79,"")</f>
         <v/>
       </c>
       <c r="S79" t="str">
-        <f>IF(Компоненты!S79&lt;&gt;"",Компоненты!S79,"")</f>
+        <f>IF(Компоненты!T79&lt;&gt;"",Компоненты!T79,"")</f>
         <v/>
       </c>
       <c r="T79" t="str">
-        <f>IF(Компоненты!T79&lt;&gt;"",Компоненты!T79,"")</f>
+        <f>IF(Компоненты!U79&lt;&gt;"",Компоненты!U79,"")</f>
         <v/>
       </c>
     </row>
@@ -13265,15 +13537,15 @@
         <v/>
       </c>
       <c r="R80" t="str">
-        <f>IF(Компоненты!R80&lt;&gt;"",Компоненты!R80,"")</f>
+        <f>IF(Компоненты!S80&lt;&gt;"",Компоненты!S80,"")</f>
         <v/>
       </c>
       <c r="S80" t="str">
-        <f>IF(Компоненты!S80&lt;&gt;"",Компоненты!S80,"")</f>
+        <f>IF(Компоненты!T80&lt;&gt;"",Компоненты!T80,"")</f>
         <v/>
       </c>
       <c r="T80" t="str">
-        <f>IF(Компоненты!T80&lt;&gt;"",Компоненты!T80,"")</f>
+        <f>IF(Компоненты!U80&lt;&gt;"",Компоненты!U80,"")</f>
         <v/>
       </c>
     </row>
@@ -13343,15 +13615,15 @@
         <v/>
       </c>
       <c r="R81" t="str">
-        <f>IF(Компоненты!R81&lt;&gt;"",Компоненты!R81,"")</f>
+        <f>IF(Компоненты!S81&lt;&gt;"",Компоненты!S81,"")</f>
         <v/>
       </c>
       <c r="S81" t="str">
-        <f>IF(Компоненты!S81&lt;&gt;"",Компоненты!S81,"")</f>
+        <f>IF(Компоненты!T81&lt;&gt;"",Компоненты!T81,"")</f>
         <v/>
       </c>
       <c r="T81" t="str">
-        <f>IF(Компоненты!T81&lt;&gt;"",Компоненты!T81,"")</f>
+        <f>IF(Компоненты!U81&lt;&gt;"",Компоненты!U81,"")</f>
         <v/>
       </c>
     </row>
@@ -13421,15 +13693,15 @@
         <v/>
       </c>
       <c r="R82" t="str">
-        <f>IF(Компоненты!R82&lt;&gt;"",Компоненты!R82,"")</f>
+        <f>IF(Компоненты!S82&lt;&gt;"",Компоненты!S82,"")</f>
         <v/>
       </c>
       <c r="S82" t="str">
-        <f>IF(Компоненты!S82&lt;&gt;"",Компоненты!S82,"")</f>
+        <f>IF(Компоненты!T82&lt;&gt;"",Компоненты!T82,"")</f>
         <v/>
       </c>
       <c r="T82" t="str">
-        <f>IF(Компоненты!T82&lt;&gt;"",Компоненты!T82,"")</f>
+        <f>IF(Компоненты!U82&lt;&gt;"",Компоненты!U82,"")</f>
         <v/>
       </c>
     </row>
@@ -13499,15 +13771,15 @@
         <v/>
       </c>
       <c r="R83" t="str">
-        <f>IF(Компоненты!R83&lt;&gt;"",Компоненты!R83,"")</f>
+        <f>IF(Компоненты!S83&lt;&gt;"",Компоненты!S83,"")</f>
         <v/>
       </c>
       <c r="S83" t="str">
-        <f>IF(Компоненты!S83&lt;&gt;"",Компоненты!S83,"")</f>
+        <f>IF(Компоненты!T83&lt;&gt;"",Компоненты!T83,"")</f>
         <v/>
       </c>
       <c r="T83" t="str">
-        <f>IF(Компоненты!T83&lt;&gt;"",Компоненты!T83,"")</f>
+        <f>IF(Компоненты!U83&lt;&gt;"",Компоненты!U83,"")</f>
         <v/>
       </c>
     </row>
@@ -13577,15 +13849,15 @@
         <v/>
       </c>
       <c r="R84" t="str">
-        <f>IF(Компоненты!R84&lt;&gt;"",Компоненты!R84,"")</f>
+        <f>IF(Компоненты!S84&lt;&gt;"",Компоненты!S84,"")</f>
         <v/>
       </c>
       <c r="S84" t="str">
-        <f>IF(Компоненты!S84&lt;&gt;"",Компоненты!S84,"")</f>
+        <f>IF(Компоненты!T84&lt;&gt;"",Компоненты!T84,"")</f>
         <v/>
       </c>
       <c r="T84" t="str">
-        <f>IF(Компоненты!T84&lt;&gt;"",Компоненты!T84,"")</f>
+        <f>IF(Компоненты!U84&lt;&gt;"",Компоненты!U84,"")</f>
         <v/>
       </c>
     </row>
@@ -13655,15 +13927,15 @@
         <v/>
       </c>
       <c r="R85" t="str">
-        <f>IF(Компоненты!R85&lt;&gt;"",Компоненты!R85,"")</f>
+        <f>IF(Компоненты!S85&lt;&gt;"",Компоненты!S85,"")</f>
         <v/>
       </c>
       <c r="S85" t="str">
-        <f>IF(Компоненты!S85&lt;&gt;"",Компоненты!S85,"")</f>
+        <f>IF(Компоненты!T85&lt;&gt;"",Компоненты!T85,"")</f>
         <v/>
       </c>
       <c r="T85" t="str">
-        <f>IF(Компоненты!T85&lt;&gt;"",Компоненты!T85,"")</f>
+        <f>IF(Компоненты!U85&lt;&gt;"",Компоненты!U85,"")</f>
         <v/>
       </c>
     </row>
@@ -13733,15 +14005,15 @@
         <v/>
       </c>
       <c r="R86" t="str">
-        <f>IF(Компоненты!R86&lt;&gt;"",Компоненты!R86,"")</f>
+        <f>IF(Компоненты!S86&lt;&gt;"",Компоненты!S86,"")</f>
         <v/>
       </c>
       <c r="S86" t="str">
-        <f>IF(Компоненты!S86&lt;&gt;"",Компоненты!S86,"")</f>
+        <f>IF(Компоненты!T86&lt;&gt;"",Компоненты!T86,"")</f>
         <v/>
       </c>
       <c r="T86" t="str">
-        <f>IF(Компоненты!T86&lt;&gt;"",Компоненты!T86,"")</f>
+        <f>IF(Компоненты!U86&lt;&gt;"",Компоненты!U86,"")</f>
         <v/>
       </c>
     </row>
@@ -13811,15 +14083,15 @@
         <v/>
       </c>
       <c r="R87" t="str">
-        <f>IF(Компоненты!R87&lt;&gt;"",Компоненты!R87,"")</f>
+        <f>IF(Компоненты!S87&lt;&gt;"",Компоненты!S87,"")</f>
         <v/>
       </c>
       <c r="S87" t="str">
-        <f>IF(Компоненты!S87&lt;&gt;"",Компоненты!S87,"")</f>
+        <f>IF(Компоненты!T87&lt;&gt;"",Компоненты!T87,"")</f>
         <v/>
       </c>
       <c r="T87" t="str">
-        <f>IF(Компоненты!T87&lt;&gt;"",Компоненты!T87,"")</f>
+        <f>IF(Компоненты!U87&lt;&gt;"",Компоненты!U87,"")</f>
         <v/>
       </c>
     </row>
@@ -13889,15 +14161,15 @@
         <v/>
       </c>
       <c r="R88" t="str">
-        <f>IF(Компоненты!R88&lt;&gt;"",Компоненты!R88,"")</f>
+        <f>IF(Компоненты!S88&lt;&gt;"",Компоненты!S88,"")</f>
         <v/>
       </c>
       <c r="S88" t="str">
-        <f>IF(Компоненты!S88&lt;&gt;"",Компоненты!S88,"")</f>
+        <f>IF(Компоненты!T88&lt;&gt;"",Компоненты!T88,"")</f>
         <v/>
       </c>
       <c r="T88" t="str">
-        <f>IF(Компоненты!T88&lt;&gt;"",Компоненты!T88,"")</f>
+        <f>IF(Компоненты!U88&lt;&gt;"",Компоненты!U88,"")</f>
         <v/>
       </c>
     </row>
@@ -13967,15 +14239,15 @@
         <v/>
       </c>
       <c r="R89" t="str">
-        <f>IF(Компоненты!R89&lt;&gt;"",Компоненты!R89,"")</f>
+        <f>IF(Компоненты!S89&lt;&gt;"",Компоненты!S89,"")</f>
         <v/>
       </c>
       <c r="S89" t="str">
-        <f>IF(Компоненты!S89&lt;&gt;"",Компоненты!S89,"")</f>
+        <f>IF(Компоненты!T89&lt;&gt;"",Компоненты!T89,"")</f>
         <v/>
       </c>
       <c r="T89" t="str">
-        <f>IF(Компоненты!T89&lt;&gt;"",Компоненты!T89,"")</f>
+        <f>IF(Компоненты!U89&lt;&gt;"",Компоненты!U89,"")</f>
         <v/>
       </c>
     </row>
@@ -14045,15 +14317,15 @@
         <v/>
       </c>
       <c r="R90" t="str">
-        <f>IF(Компоненты!R90&lt;&gt;"",Компоненты!R90,"")</f>
+        <f>IF(Компоненты!S90&lt;&gt;"",Компоненты!S90,"")</f>
         <v/>
       </c>
       <c r="S90" t="str">
-        <f>IF(Компоненты!S90&lt;&gt;"",Компоненты!S90,"")</f>
+        <f>IF(Компоненты!T90&lt;&gt;"",Компоненты!T90,"")</f>
         <v/>
       </c>
       <c r="T90" t="str">
-        <f>IF(Компоненты!T90&lt;&gt;"",Компоненты!T90,"")</f>
+        <f>IF(Компоненты!U90&lt;&gt;"",Компоненты!U90,"")</f>
         <v/>
       </c>
     </row>
@@ -14123,58 +14395,58 @@
         <v/>
       </c>
       <c r="R91" t="str">
-        <f>IF(Компоненты!R91&lt;&gt;"",Компоненты!R91,"")</f>
+        <f>IF(Компоненты!S91&lt;&gt;"",Компоненты!S91,"")</f>
         <v/>
       </c>
       <c r="S91" t="str">
-        <f>IF(Компоненты!S91&lt;&gt;"",Компоненты!S91,"")</f>
+        <f>IF(Компоненты!T91&lt;&gt;"",Компоненты!T91,"")</f>
         <v/>
       </c>
       <c r="T91" t="str">
-        <f>IF(Компоненты!T91&lt;&gt;"",Компоненты!T91,"")</f>
+        <f>IF(Компоненты!U91&lt;&gt;"",Компоненты!U91,"")</f>
         <v/>
       </c>
     </row>
     <row r="92" spans="2:20">
-      <c r="B92" t="str">
+      <c r="B92">
         <f>IF(Компоненты!B92&lt;&gt;"",Компоненты!B92,"")</f>
-        <v/>
+        <v>89</v>
       </c>
       <c r="C92" t="str">
         <f>IF(Компоненты!C92&lt;&gt;"",Компоненты!C92,"")</f>
-        <v/>
-      </c>
-      <c r="D92" t="str">
+        <v>ОСА 300</v>
+      </c>
+      <c r="D92">
         <f>IF(Компоненты!D92&lt;&gt;"",Компоненты!D92,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E92" t="str">
         <f>IF(Компоненты!E92&lt;&gt;"",Компоненты!E92,"")</f>
-        <v/>
+        <v>d79cfb94b58df43870b01c8a3d984aac</v>
       </c>
       <c r="F92" t="str">
         <f>IF(Компоненты!F92&lt;&gt;"",Компоненты!F92,"")</f>
-        <v/>
+        <v>Оборудование</v>
       </c>
       <c r="G92" t="str">
         <f>IF(Компоненты!G92&lt;&gt;"",Компоненты!G92,"")</f>
-        <v/>
+        <v>Вентилятор</v>
       </c>
       <c r="H92" t="str">
         <f>IF(Компоненты!H92&lt;&gt;"",Компоненты!H92,"")</f>
-        <v/>
+        <v>осевой</v>
       </c>
       <c r="I92" t="str">
         <f>IF(Компоненты!I92&lt;&gt;"",Компоненты!I92,"")</f>
-        <v/>
+        <v>Круглый</v>
       </c>
       <c r="J92" t="str">
         <f>IF(Компоненты!J92&lt;&gt;"",Компоненты!J92,"")</f>
-        <v/>
+        <v>Веза</v>
       </c>
       <c r="K92" t="str">
         <f>IF(Компоненты!K92&lt;&gt;"",Компоненты!K92,"")</f>
-        <v/>
+        <v>Параметрическая</v>
       </c>
       <c r="L92" t="str">
         <f>IF(Компоненты!L92&lt;&gt;"",Компоненты!L92,"")</f>
@@ -14186,11 +14458,11 @@
       </c>
       <c r="N92" t="str">
         <f>IF(Компоненты!N92&lt;&gt;"",Компоненты!N92,"")</f>
-        <v/>
+        <v>https://www.veza.ru/produktsiya/ventilyatory/obshchepromyshlennye/osevye-obshchepromyshlennye/osa300</v>
       </c>
       <c r="O92" t="str">
         <f>IF(Компоненты!O92&lt;&gt;"",Компоненты!O92,"")</f>
-        <v/>
+        <v>400...1250</v>
       </c>
       <c r="P92" t="str">
         <f>IF(Компоненты!P92&lt;&gt;"",Компоненты!P92,"")</f>
@@ -14198,61 +14470,61 @@
       </c>
       <c r="Q92" t="str">
         <f>IF(Компоненты!Q92&lt;&gt;"",Компоненты!Q92,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="R92" t="str">
-        <f>IF(Компоненты!R92&lt;&gt;"",Компоненты!R92,"")</f>
-        <v/>
+        <f>IF(Компоненты!S92&lt;&gt;"",Компоненты!S92,"")</f>
+        <v>ДА</v>
       </c>
       <c r="S92" t="str">
-        <f>IF(Компоненты!S92&lt;&gt;"",Компоненты!S92,"")</f>
+        <f>IF(Компоненты!T92&lt;&gt;"",Компоненты!T92,"")</f>
         <v/>
       </c>
       <c r="T92" t="str">
-        <f>IF(Компоненты!T92&lt;&gt;"",Компоненты!T92,"")</f>
+        <f>IF(Компоненты!U92&lt;&gt;"",Компоненты!U92,"")</f>
         <v/>
       </c>
     </row>
     <row r="93" spans="2:20">
-      <c r="B93" t="str">
+      <c r="B93">
         <f>IF(Компоненты!B93&lt;&gt;"",Компоненты!B93,"")</f>
-        <v/>
+        <v>90</v>
       </c>
       <c r="C93" t="str">
         <f>IF(Компоненты!C93&lt;&gt;"",Компоненты!C93,"")</f>
-        <v/>
-      </c>
-      <c r="D93" t="str">
+        <v>ОСА 301</v>
+      </c>
+      <c r="D93">
         <f>IF(Компоненты!D93&lt;&gt;"",Компоненты!D93,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E93" t="str">
         <f>IF(Компоненты!E93&lt;&gt;"",Компоненты!E93,"")</f>
-        <v/>
+        <v>fa5ca97d9a0604db9fba8c2578785525</v>
       </c>
       <c r="F93" t="str">
         <f>IF(Компоненты!F93&lt;&gt;"",Компоненты!F93,"")</f>
-        <v/>
+        <v>Оборудование</v>
       </c>
       <c r="G93" t="str">
         <f>IF(Компоненты!G93&lt;&gt;"",Компоненты!G93,"")</f>
-        <v/>
+        <v>Вентилятор</v>
       </c>
       <c r="H93" t="str">
         <f>IF(Компоненты!H93&lt;&gt;"",Компоненты!H93,"")</f>
-        <v/>
+        <v>осевой</v>
       </c>
       <c r="I93" t="str">
         <f>IF(Компоненты!I93&lt;&gt;"",Компоненты!I93,"")</f>
-        <v/>
+        <v>Круглый</v>
       </c>
       <c r="J93" t="str">
         <f>IF(Компоненты!J93&lt;&gt;"",Компоненты!J93,"")</f>
-        <v/>
+        <v>Веза</v>
       </c>
       <c r="K93" t="str">
         <f>IF(Компоненты!K93&lt;&gt;"",Компоненты!K93,"")</f>
-        <v/>
+        <v>Параметрическая</v>
       </c>
       <c r="L93" t="str">
         <f>IF(Компоненты!L93&lt;&gt;"",Компоненты!L93,"")</f>
@@ -14264,11 +14536,11 @@
       </c>
       <c r="N93" t="str">
         <f>IF(Компоненты!N93&lt;&gt;"",Компоненты!N93,"")</f>
-        <v/>
+        <v>https://www.veza.ru/produktsiya/ventilyatory/obshchepromyshlennye/osevye-obshchepromyshlennye/osa301</v>
       </c>
       <c r="O93" t="str">
         <f>IF(Компоненты!O93&lt;&gt;"",Компоненты!O93,"")</f>
-        <v/>
+        <v>400...1250</v>
       </c>
       <c r="P93" t="str">
         <f>IF(Компоненты!P93&lt;&gt;"",Компоненты!P93,"")</f>
@@ -14276,61 +14548,61 @@
       </c>
       <c r="Q93" t="str">
         <f>IF(Компоненты!Q93&lt;&gt;"",Компоненты!Q93,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="R93" t="str">
-        <f>IF(Компоненты!R93&lt;&gt;"",Компоненты!R93,"")</f>
-        <v/>
+        <f>IF(Компоненты!S93&lt;&gt;"",Компоненты!S93,"")</f>
+        <v>ДА</v>
       </c>
       <c r="S93" t="str">
-        <f>IF(Компоненты!S93&lt;&gt;"",Компоненты!S93,"")</f>
+        <f>IF(Компоненты!T93&lt;&gt;"",Компоненты!T93,"")</f>
         <v/>
       </c>
       <c r="T93" t="str">
-        <f>IF(Компоненты!T93&lt;&gt;"",Компоненты!T93,"")</f>
+        <f>IF(Компоненты!U93&lt;&gt;"",Компоненты!U93,"")</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="2:20">
-      <c r="B94" t="str">
+      <c r="B94">
         <f>IF(Компоненты!B94&lt;&gt;"",Компоненты!B94,"")</f>
-        <v/>
+        <v>91</v>
       </c>
       <c r="C94" t="str">
         <f>IF(Компоненты!C94&lt;&gt;"",Компоненты!C94,"")</f>
-        <v/>
-      </c>
-      <c r="D94" t="str">
+        <v>1ВПТР</v>
+      </c>
+      <c r="D94">
         <f>IF(Компоненты!D94&lt;&gt;"",Компоненты!D94,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E94" t="str">
         <f>IF(Компоненты!E94&lt;&gt;"",Компоненты!E94,"")</f>
-        <v/>
+        <v>e79338a004e9f2bde6eed32fbed26416</v>
       </c>
       <c r="F94" t="str">
         <f>IF(Компоненты!F94&lt;&gt;"",Компоненты!F94,"")</f>
-        <v/>
+        <v>Воздухораспределители</v>
       </c>
       <c r="G94" t="str">
         <f>IF(Компоненты!G94&lt;&gt;"",Компоненты!G94,"")</f>
-        <v/>
+        <v>Панельный</v>
       </c>
       <c r="H94" t="str">
         <f>IF(Компоненты!H94&lt;&gt;"",Компоненты!H94,"")</f>
-        <v/>
+        <v>турбулизирующий</v>
       </c>
       <c r="I94" t="str">
         <f>IF(Компоненты!I94&lt;&gt;"",Компоненты!I94,"")</f>
-        <v/>
+        <v>Прямоугольный</v>
       </c>
       <c r="J94" t="str">
         <f>IF(Компоненты!J94&lt;&gt;"",Компоненты!J94,"")</f>
-        <v/>
+        <v>Арктос</v>
       </c>
       <c r="K94" t="str">
         <f>IF(Компоненты!K94&lt;&gt;"",Компоненты!K94,"")</f>
-        <v/>
+        <v>Статическая</v>
       </c>
       <c r="L94" t="str">
         <f>IF(Компоненты!L94&lt;&gt;"",Компоненты!L94,"")</f>
@@ -14342,11 +14614,11 @@
       </c>
       <c r="N94" t="str">
         <f>IF(Компоненты!N94&lt;&gt;"",Компоненты!N94,"")</f>
-        <v/>
+        <v>http://www.arktos.ru/detailitem.phtml?item_id=31</v>
       </c>
       <c r="O94" t="str">
         <f>IF(Компоненты!O94&lt;&gt;"",Компоненты!O94,"")</f>
-        <v/>
+        <v>900x900</v>
       </c>
       <c r="P94" t="str">
         <f>IF(Компоненты!P94&lt;&gt;"",Компоненты!P94,"")</f>
@@ -14357,58 +14629,58 @@
         <v/>
       </c>
       <c r="R94" t="str">
-        <f>IF(Компоненты!R94&lt;&gt;"",Компоненты!R94,"")</f>
+        <f>IF(Компоненты!S94&lt;&gt;"",Компоненты!S94,"")</f>
         <v/>
       </c>
       <c r="S94" t="str">
-        <f>IF(Компоненты!S94&lt;&gt;"",Компоненты!S94,"")</f>
+        <f>IF(Компоненты!T94&lt;&gt;"",Компоненты!T94,"")</f>
         <v/>
       </c>
       <c r="T94" t="str">
-        <f>IF(Компоненты!T94&lt;&gt;"",Компоненты!T94,"")</f>
-        <v/>
+        <f>IF(Компоненты!U94&lt;&gt;"",Компоненты!U94,"")</f>
+        <v>ДА</v>
       </c>
     </row>
     <row r="95" spans="2:20">
-      <c r="B95" t="str">
+      <c r="B95">
         <f>IF(Компоненты!B95&lt;&gt;"",Компоненты!B95,"")</f>
-        <v/>
+        <v>92</v>
       </c>
       <c r="C95" t="str">
         <f>IF(Компоненты!C95&lt;&gt;"",Компоненты!C95,"")</f>
-        <v/>
-      </c>
-      <c r="D95" t="str">
+        <v>ВРАН</v>
+      </c>
+      <c r="D95">
         <f>IF(Компоненты!D95&lt;&gt;"",Компоненты!D95,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E95" t="str">
         <f>IF(Компоненты!E95&lt;&gt;"",Компоненты!E95,"")</f>
-        <v/>
+        <v>dd5ba058e66bc4e06e9883cf0bcaacde</v>
       </c>
       <c r="F95" t="str">
         <f>IF(Компоненты!F95&lt;&gt;"",Компоненты!F95,"")</f>
-        <v/>
+        <v>Оборудование</v>
       </c>
       <c r="G95" t="str">
         <f>IF(Компоненты!G95&lt;&gt;"",Компоненты!G95,"")</f>
-        <v/>
+        <v>Вентилятор</v>
       </c>
       <c r="H95" t="str">
         <f>IF(Компоненты!H95&lt;&gt;"",Компоненты!H95,"")</f>
-        <v/>
+        <v>центробежный</v>
       </c>
       <c r="I95" t="str">
         <f>IF(Компоненты!I95&lt;&gt;"",Компоненты!I95,"")</f>
-        <v/>
+        <v>Различные</v>
       </c>
       <c r="J95" t="str">
         <f>IF(Компоненты!J95&lt;&gt;"",Компоненты!J95,"")</f>
-        <v/>
+        <v>Веза</v>
       </c>
       <c r="K95" t="str">
         <f>IF(Компоненты!K95&lt;&gt;"",Компоненты!K95,"")</f>
-        <v/>
+        <v>Статическая</v>
       </c>
       <c r="L95" t="str">
         <f>IF(Компоненты!L95&lt;&gt;"",Компоненты!L95,"")</f>
@@ -14420,11 +14692,11 @@
       </c>
       <c r="N95" t="str">
         <f>IF(Компоненты!N95&lt;&gt;"",Компоненты!N95,"")</f>
-        <v/>
+        <v>https://www.veza.ru/produktsiya/ventilyatory/obshchepromyshlennye/radialnye-obshchepromyshlennye/vran</v>
       </c>
       <c r="O95" t="str">
         <f>IF(Компоненты!O95&lt;&gt;"",Компоненты!O95,"")</f>
-        <v/>
+        <v>ВРАН6-4.5, ВРАН 9-6.3</v>
       </c>
       <c r="P95" t="str">
         <f>IF(Компоненты!P95&lt;&gt;"",Компоненты!P95,"")</f>
@@ -14435,58 +14707,58 @@
         <v/>
       </c>
       <c r="R95" t="str">
-        <f>IF(Компоненты!R95&lt;&gt;"",Компоненты!R95,"")</f>
+        <f>IF(Компоненты!S95&lt;&gt;"",Компоненты!S95,"")</f>
         <v/>
       </c>
       <c r="S95" t="str">
-        <f>IF(Компоненты!S95&lt;&gt;"",Компоненты!S95,"")</f>
+        <f>IF(Компоненты!T95&lt;&gt;"",Компоненты!T95,"")</f>
         <v/>
       </c>
       <c r="T95" t="str">
-        <f>IF(Компоненты!T95&lt;&gt;"",Компоненты!T95,"")</f>
+        <f>IF(Компоненты!U95&lt;&gt;"",Компоненты!U95,"")</f>
         <v/>
       </c>
     </row>
     <row r="96" spans="2:20">
-      <c r="B96" t="str">
+      <c r="B96">
         <f>IF(Компоненты!B96&lt;&gt;"",Компоненты!B96,"")</f>
-        <v/>
+        <v>93</v>
       </c>
       <c r="C96" t="str">
         <f>IF(Компоненты!C96&lt;&gt;"",Компоненты!C96,"")</f>
-        <v/>
-      </c>
-      <c r="D96" t="str">
+        <v>Зонт</v>
+      </c>
+      <c r="D96">
         <f>IF(Компоненты!D96&lt;&gt;"",Компоненты!D96,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E96" t="str">
         <f>IF(Компоненты!E96&lt;&gt;"",Компоненты!E96,"")</f>
-        <v/>
+        <v>ebe9a3c9925649d41a2ed606c28a7869</v>
       </c>
       <c r="F96" t="str">
         <f>IF(Компоненты!F96&lt;&gt;"",Компоненты!F96,"")</f>
-        <v/>
+        <v>Воздухораспределители</v>
       </c>
       <c r="G96" t="str">
         <f>IF(Компоненты!G96&lt;&gt;"",Компоненты!G96,"")</f>
-        <v/>
+        <v>Зонт</v>
       </c>
       <c r="H96" t="str">
         <f>IF(Компоненты!H96&lt;&gt;"",Компоненты!H96,"")</f>
-        <v/>
+        <v>крышный</v>
       </c>
       <c r="I96" t="str">
         <f>IF(Компоненты!I96&lt;&gt;"",Компоненты!I96,"")</f>
-        <v/>
+        <v>Круглый</v>
       </c>
       <c r="J96" t="str">
         <f>IF(Компоненты!J96&lt;&gt;"",Компоненты!J96,"")</f>
-        <v/>
+        <v>Неватом</v>
       </c>
       <c r="K96" t="str">
         <f>IF(Компоненты!K96&lt;&gt;"",Компоненты!K96,"")</f>
-        <v/>
+        <v>Статическая</v>
       </c>
       <c r="L96" t="str">
         <f>IF(Компоненты!L96&lt;&gt;"",Компоненты!L96,"")</f>
@@ -14498,11 +14770,11 @@
       </c>
       <c r="N96" t="str">
         <f>IF(Компоненты!N96&lt;&gt;"",Компоненты!N96,"")</f>
-        <v/>
+        <v>https://www.nevatom.ru/catalog/zonty_ventilyatsionnye/</v>
       </c>
       <c r="O96" t="str">
         <f>IF(Компоненты!O96&lt;&gt;"",Компоненты!O96,"")</f>
-        <v/>
+        <v>250, 355</v>
       </c>
       <c r="P96" t="str">
         <f>IF(Компоненты!P96&lt;&gt;"",Компоненты!P96,"")</f>
@@ -14513,15 +14785,15 @@
         <v/>
       </c>
       <c r="R96" t="str">
-        <f>IF(Компоненты!R96&lt;&gt;"",Компоненты!R96,"")</f>
+        <f>IF(Компоненты!S96&lt;&gt;"",Компоненты!S96,"")</f>
         <v/>
       </c>
       <c r="S96" t="str">
-        <f>IF(Компоненты!S96&lt;&gt;"",Компоненты!S96,"")</f>
+        <f>IF(Компоненты!T96&lt;&gt;"",Компоненты!T96,"")</f>
         <v/>
       </c>
       <c r="T96" t="str">
-        <f>IF(Компоненты!T96&lt;&gt;"",Компоненты!T96,"")</f>
+        <f>IF(Компоненты!U96&lt;&gt;"",Компоненты!U96,"")</f>
         <v/>
       </c>
     </row>
@@ -14591,15 +14863,15 @@
         <v/>
       </c>
       <c r="R97" t="str">
-        <f>IF(Компоненты!R97&lt;&gt;"",Компоненты!R97,"")</f>
+        <f>IF(Компоненты!S97&lt;&gt;"",Компоненты!S97,"")</f>
         <v/>
       </c>
       <c r="S97" t="str">
-        <f>IF(Компоненты!S97&lt;&gt;"",Компоненты!S97,"")</f>
+        <f>IF(Компоненты!T97&lt;&gt;"",Компоненты!T97,"")</f>
         <v/>
       </c>
       <c r="T97" t="str">
-        <f>IF(Компоненты!T97&lt;&gt;"",Компоненты!T97,"")</f>
+        <f>IF(Компоненты!U97&lt;&gt;"",Компоненты!U97,"")</f>
         <v/>
       </c>
     </row>
@@ -14669,15 +14941,15 @@
         <v/>
       </c>
       <c r="R98" t="str">
-        <f>IF(Компоненты!R98&lt;&gt;"",Компоненты!R98,"")</f>
+        <f>IF(Компоненты!S98&lt;&gt;"",Компоненты!S98,"")</f>
         <v/>
       </c>
       <c r="S98" t="str">
-        <f>IF(Компоненты!S98&lt;&gt;"",Компоненты!S98,"")</f>
+        <f>IF(Компоненты!T98&lt;&gt;"",Компоненты!T98,"")</f>
         <v/>
       </c>
       <c r="T98" t="str">
-        <f>IF(Компоненты!T98&lt;&gt;"",Компоненты!T98,"")</f>
+        <f>IF(Компоненты!U98&lt;&gt;"",Компоненты!U98,"")</f>
         <v/>
       </c>
     </row>
@@ -14747,15 +15019,15 @@
         <v/>
       </c>
       <c r="R99" t="str">
-        <f>IF(Компоненты!R99&lt;&gt;"",Компоненты!R99,"")</f>
+        <f>IF(Компоненты!S99&lt;&gt;"",Компоненты!S99,"")</f>
         <v/>
       </c>
       <c r="S99" t="str">
-        <f>IF(Компоненты!S99&lt;&gt;"",Компоненты!S99,"")</f>
+        <f>IF(Компоненты!T99&lt;&gt;"",Компоненты!T99,"")</f>
         <v/>
       </c>
       <c r="T99" t="str">
-        <f>IF(Компоненты!T99&lt;&gt;"",Компоненты!T99,"")</f>
+        <f>IF(Компоненты!U99&lt;&gt;"",Компоненты!U99,"")</f>
         <v/>
       </c>
     </row>
@@ -14825,15 +15097,15 @@
         <v/>
       </c>
       <c r="R100" t="str">
-        <f>IF(Компоненты!R100&lt;&gt;"",Компоненты!R100,"")</f>
+        <f>IF(Компоненты!S100&lt;&gt;"",Компоненты!S100,"")</f>
         <v/>
       </c>
       <c r="S100" t="str">
-        <f>IF(Компоненты!S100&lt;&gt;"",Компоненты!S100,"")</f>
+        <f>IF(Компоненты!T100&lt;&gt;"",Компоненты!T100,"")</f>
         <v/>
       </c>
       <c r="T100" t="str">
-        <f>IF(Компоненты!T100&lt;&gt;"",Компоненты!T100,"")</f>
+        <f>IF(Компоненты!U100&lt;&gt;"",Компоненты!U100,"")</f>
         <v/>
       </c>
     </row>

--- a/db/Base.xlsx
+++ b/db/Base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12240" activeTab="3"/>
+    <workbookView windowWidth="22188" windowHeight="9000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры_компонентов" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="430">
   <si>
     <t>На этом листе собраны возможные значения параметров, описывающих типы компонентов nanoCAD BIM Вентиляция</t>
   </si>
@@ -1029,6 +1029,9 @@
     <t>79c1c374d82a11e4c46b9eafffbde9a1</t>
   </si>
   <si>
+    <t>параметрический круглого сечения</t>
+  </si>
+  <si>
     <t>125x100, 160x100, 160x125</t>
   </si>
   <si>
@@ -1227,6 +1230,9 @@
     <t>8df81ddf1fa35eddfc4361a416ce53aa</t>
   </si>
   <si>
+    <t>Выноска может быть применена к любому элементу. Не содержит параметров (пустая).</t>
+  </si>
+  <si>
     <t>KVR</t>
   </si>
   <si>
@@ -1254,6 +1260,9 @@
     <t>Ostberg</t>
   </si>
   <si>
+    <t>Компонент из тест-драйва. В списке замены на параметрику.</t>
+  </si>
+  <si>
     <t>http://www.arktika.ru/html/ire500.htm</t>
   </si>
   <si>
@@ -1278,6 +1287,9 @@
     <t>осевой</t>
   </si>
   <si>
+    <t>Изначально производителем созданы отдельные *.repository-компоненты для различных модификаций вентилятора, отличающиеся значениями параметров и 3D-графикой. Здесь эти компоненты объединены в один *.repository.</t>
+  </si>
+  <si>
     <t>https://www.veza.ru/produktsiya/ventilyatory/obshchepromyshlennye/osevye-obshchepromyshlennye/osa300</t>
   </si>
   <si>
@@ -1305,6 +1317,9 @@
     <t>турбулизирующий</t>
   </si>
   <si>
+    <t>Компонент из тест-драйва "Проектирование насосной станции". В списке замены на параметрику.</t>
+  </si>
+  <si>
     <t>http://www.arktos.ru/detailitem.phtml?item_id=31</t>
   </si>
   <si>
@@ -1339,6 +1354,50 @@
   </si>
   <si>
     <t>250, 355</t>
+  </si>
+  <si>
+    <t>68ed8e0f2c1b72c5e186f9e6388446f6</t>
+  </si>
+  <si>
+    <t>Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров.
+В тройнике также параметризуются вылеты (прямые участки) для отвода и для магистрали.</t>
+  </si>
+  <si>
+    <t>(100x100)x(100x100)...(200x200)x(200x200), (800x200)x(100x100)...(800x200)x(200x200)</t>
+  </si>
+  <si>
+    <t>56f9915dd3d1a96ff8514fc29d16b374</t>
+  </si>
+  <si>
+    <t>90°, параметрический</t>
+  </si>
+  <si>
+    <t>Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров. 
+В данном отводе в dwg-графике задан радиус отвода 1.5 ширины воздуховода (если смотреть на отвод как поворот в горизонтальной плоскости).
+В списке на усовершенствование (добавление угла как параметра, добавление радиуса отвода как параметра).</t>
+  </si>
+  <si>
+    <t>100x100, 200x100, 200x200, 800x200</t>
+  </si>
+  <si>
+    <t>d6a586469ec27826261adc5ab974a267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров. </t>
+  </si>
+  <si>
+    <t>ec6115dee1cbcb52f74e7e014846afe1</t>
+  </si>
+  <si>
+    <t>концентрический прямоугольного сечения</t>
+  </si>
+  <si>
+    <t>Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров. 
+В данном переходе также параметризуется длина патрубков (прямых участков) и длина непосредственно перехода. По умолчанию длина всего перехода равна полутора средним эквивалентным диаметрам перехода; эквивалентый диаметр равен 4xA/P, где A - площадь сечения, P - периметр сечения. Если параметр "Заданная длина перехода" не равен 0, то длина перехода примет указанное значение.
+В списке на усовершенствование (добавление сдвига как параметра).</t>
+  </si>
+  <si>
+    <t>fabb9d3f84dd0d24837307a25eca606f</t>
   </si>
 </sst>
 </file>
@@ -2033,7 +2092,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2057,6 +2116,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2424,8 +2486,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="B4:U100" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B4:U100" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="B4:U105" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B4:U105" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="20">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="name"/>
@@ -2727,7 +2789,7 @@
   <sheetData>
     <row r="1" ht="15.15"/>
     <row r="2" customFormat="1" ht="88" customHeight="1" spans="2:2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2741,68 +2803,68 @@
       <c r="B5" s="5"/>
     </row>
     <row r="6" ht="15.15"/>
-    <row r="7" s="9" customFormat="1" spans="2:11">
-      <c r="B7" s="15" t="s">
+    <row r="7" s="10" customFormat="1" spans="2:11">
+      <c r="B7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
@@ -2811,91 +2873,91 @@
       <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" ht="15.15" spans="2:11">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="20" t="s">
         <v>31</v>
       </c>
       <c r="D16" t="s">
@@ -2906,18 +2968,18 @@
       </c>
     </row>
     <row r="17" spans="4:5">
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="4:5">
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="19" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2938,18 +3000,18 @@
       </c>
     </row>
     <row r="21" spans="4:5">
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="4:5">
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2957,7 +3019,7 @@
       <c r="D23" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2965,7 +3027,7 @@
       <c r="D24" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2973,7 +3035,7 @@
       <c r="D25" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2981,7 +3043,7 @@
       <c r="D26" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2989,7 +3051,7 @@
       <c r="D27" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2997,7 +3059,7 @@
       <c r="D28" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3050,7 +3112,7 @@
       </c>
     </row>
     <row r="35" spans="4:5">
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="19" t="s">
         <v>46</v>
       </c>
       <c r="E35" t="s">
@@ -3058,10 +3120,10 @@
       </c>
     </row>
     <row r="41" spans="4:5">
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="19">
         <f>SUBTOTAL(103,Таблица_Привязка_категорий[Категория_сайта])</f>
         <v>28</v>
       </c>
@@ -3100,13 +3162,13 @@
   <sheetData>
     <row r="1" ht="15.15"/>
     <row r="2" ht="29.55" spans="2:2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" ht="15.15"/>
     <row r="4" spans="2:3">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C4" t="s">
@@ -3114,39 +3176,39 @@
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3184,7 +3246,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3201,27 +3263,27 @@
       <c r="E4" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="2:10">
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D5" t="s">
@@ -3233,11 +3295,11 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="12" t="str">
+      <c r="G5" s="13" t="str">
         <f>IF(ISTEXT(F5),VLOOKUP(F5,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Арматура воздуховодов</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>17</v>
       </c>
       <c r="I5" t="s">
@@ -3248,7 +3310,7 @@
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="2:10">
-      <c r="B6" s="13">
+      <c r="B6" s="14">
         <v>2</v>
       </c>
       <c r="C6" t="s">
@@ -3263,11 +3325,11 @@
       <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="12" t="str">
+      <c r="G6" s="13" t="str">
         <f>IF(ISTEXT(F6),VLOOKUP(F6,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Оборудование</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="13" t="s">
         <v>21</v>
       </c>
       <c r="I6" t="s">
@@ -3293,11 +3355,11 @@
       <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="12" t="str">
+      <c r="G7" s="13" t="str">
         <f>IF(ISTEXT(F7),VLOOKUP(F7,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Не применимо</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I7" t="s">
@@ -3308,7 +3370,7 @@
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="2:10">
-      <c r="B8" s="10">
+      <c r="B8" s="11">
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -3323,11 +3385,11 @@
       <c r="F8" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="12" t="str">
+      <c r="G8" s="13" t="str">
         <f>IF(ISTEXT(F8),VLOOKUP(F8,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Элементы воздуховодов</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I8" t="s">
@@ -3338,7 +3400,7 @@
       </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="2:10">
-      <c r="B9" s="13">
+      <c r="B9" s="14">
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -3353,11 +3415,11 @@
       <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="12" t="str">
+      <c r="G9" s="13" t="str">
         <f>IF(ISTEXT(F9),VLOOKUP(F9,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Не применимо</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="13" t="s">
         <v>21</v>
       </c>
       <c r="I9" t="s">
@@ -3383,11 +3445,11 @@
       <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="12" t="str">
+      <c r="G10" s="13" t="str">
         <f>IF(ISTEXT(F10),VLOOKUP(F10,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Воздухораспределители</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="13" t="s">
         <v>17</v>
       </c>
       <c r="I10" t="s">
@@ -3398,7 +3460,7 @@
       </c>
     </row>
     <row r="11" ht="25" customHeight="1" spans="2:10">
-      <c r="B11" s="10">
+      <c r="B11" s="11">
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -3413,11 +3475,11 @@
       <c r="F11" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="12" t="str">
+      <c r="G11" s="13" t="str">
         <f>IF(ISTEXT(F11),VLOOKUP(F11,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Оборудование</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="13" t="s">
         <v>21</v>
       </c>
       <c r="I11" t="s">
@@ -3428,7 +3490,7 @@
       </c>
     </row>
     <row r="12" ht="25" customHeight="1" spans="2:10">
-      <c r="B12" s="13">
+      <c r="B12" s="14">
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -3443,11 +3505,11 @@
       <c r="F12" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="12" t="str">
+      <c r="G12" s="13" t="str">
         <f>IF(ISTEXT(F12),VLOOKUP(F12,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Не применимо</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="13" t="s">
         <v>17</v>
       </c>
       <c r="I12" t="s">
@@ -3473,11 +3535,11 @@
       <c r="F13" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="12" t="str">
+      <c r="G13" s="13" t="str">
         <f>IF(ISTEXT(F13),VLOOKUP(F13,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Оборудование</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="13" t="s">
         <v>17</v>
       </c>
       <c r="I13" t="s">
@@ -3488,7 +3550,7 @@
       </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="2:10">
-      <c r="B14" s="10">
+      <c r="B14" s="11">
         <v>10</v>
       </c>
       <c r="C14" t="s">
@@ -3503,11 +3565,11 @@
       <c r="F14" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="12" t="str">
+      <c r="G14" s="13" t="str">
         <f>IF(ISTEXT(F14),VLOOKUP(F14,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Аннотации</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I14" t="s">
@@ -3518,7 +3580,7 @@
       </c>
     </row>
     <row r="15" ht="25" customHeight="1" spans="2:10">
-      <c r="B15" s="13">
+      <c r="B15" s="14">
         <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -3533,10 +3595,10 @@
       <c r="F15" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="13" t="s">
         <v>21</v>
       </c>
       <c r="I15" t="s">
@@ -3562,10 +3624,10 @@
       <c r="F16" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="13" t="s">
         <v>21</v>
       </c>
       <c r="I16" t="s">
@@ -3576,7 +3638,7 @@
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="13">
+      <c r="B17" s="14">
         <v>13</v>
       </c>
       <c r="C17" t="s">
@@ -3591,10 +3653,10 @@
       <c r="F17" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="13" t="s">
         <v>17</v>
       </c>
       <c r="I17" t="s">
@@ -3605,52 +3667,52 @@
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="13"/>
-      <c r="G18" s="12" t="str">
+      <c r="B18" s="14"/>
+      <c r="G18" s="13" t="str">
         <f>IF(ISTEXT(F18),VLOOKUP(F18,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="H18" s="12"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="13"/>
-      <c r="G19" s="12" t="str">
+      <c r="B19" s="14"/>
+      <c r="G19" s="13" t="str">
         <f>IF(ISTEXT(F19),VLOOKUP(F19,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="H19" s="12"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="13"/>
-      <c r="G20" s="12" t="str">
+      <c r="B20" s="14"/>
+      <c r="G20" s="13" t="str">
         <f>IF(ISTEXT(F20),VLOOKUP(F20,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="H20" s="12"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="13"/>
+      <c r="B21" s="14"/>
       <c r="G21" t="str">
         <f>IF(ISTEXT(F21),VLOOKUP(F21,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="13"/>
+      <c r="B22" s="14"/>
       <c r="G22" t="str">
         <f>IF(ISTEXT(F22),VLOOKUP(F22,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="13"/>
+      <c r="B23" s="14"/>
       <c r="G23" t="str">
         <f>IF(ISTEXT(F23),VLOOKUP(F23,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="13"/>
+      <c r="B24" s="14"/>
       <c r="G24" t="str">
         <f>IF(ISTEXT(F24),VLOOKUP(F24,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
@@ -3685,10 +3747,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:U100"/>
+  <dimension ref="B4:U105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -5933,7 +5995,7 @@
         <v>42</v>
       </c>
       <c r="H56" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="I56" t="s">
         <v>15</v>
@@ -5948,7 +6010,7 @@
         <v>300</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" spans="2:15">
@@ -5962,7 +6024,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F57" t="s">
         <v>22</v>
@@ -5986,7 +6048,7 @@
         <v>300</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" spans="2:15">
@@ -6000,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F58" t="s">
         <v>26</v>
@@ -6038,7 +6100,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F59" t="s">
         <v>26</v>
@@ -6062,7 +6124,7 @@
         <v>300</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" spans="2:15">
@@ -6076,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F60" t="s">
         <v>26</v>
@@ -6114,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F61" t="s">
         <v>26</v>
@@ -6138,7 +6200,7 @@
         <v>300</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" spans="2:15">
@@ -6152,7 +6214,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F62" t="s">
         <v>26</v>
@@ -6176,7 +6238,7 @@
         <v>300</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" spans="2:15">
@@ -6190,7 +6252,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F63" t="s">
         <v>26</v>
@@ -6228,7 +6290,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F64" t="s">
         <v>22</v>
@@ -6249,7 +6311,7 @@
         <v>300</v>
       </c>
       <c r="O64" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" spans="2:15">
@@ -6263,7 +6325,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F65" t="s">
         <v>22</v>
@@ -6284,7 +6346,7 @@
         <v>300</v>
       </c>
       <c r="O65" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" spans="2:15">
@@ -6298,7 +6360,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F66" t="s">
         <v>22</v>
@@ -6319,7 +6381,7 @@
         <v>300</v>
       </c>
       <c r="O66" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" spans="2:15">
@@ -6333,7 +6395,7 @@
         <v>1</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F67" t="s">
         <v>22</v>
@@ -6354,7 +6416,7 @@
         <v>300</v>
       </c>
       <c r="O67" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" spans="2:15">
@@ -6368,7 +6430,7 @@
         <v>1</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F68" t="s">
         <v>22</v>
@@ -6389,7 +6451,7 @@
         <v>300</v>
       </c>
       <c r="O68" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" spans="2:15">
@@ -6403,7 +6465,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F69" t="s">
         <v>22</v>
@@ -6424,7 +6486,7 @@
         <v>300</v>
       </c>
       <c r="O69" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" spans="2:15">
@@ -6438,7 +6500,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F70" t="s">
         <v>22</v>
@@ -6459,7 +6521,7 @@
         <v>300</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" spans="2:15">
@@ -6467,13 +6529,13 @@
         <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F71" t="s">
         <v>22</v>
@@ -6494,7 +6556,7 @@
         <v>300</v>
       </c>
       <c r="O71" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" spans="2:15">
@@ -6508,7 +6570,7 @@
         <v>1</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F72" t="s">
         <v>22</v>
@@ -6517,7 +6579,7 @@
         <v>41</v>
       </c>
       <c r="H72" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I72" t="s">
         <v>15</v>
@@ -6532,7 +6594,7 @@
         <v>300</v>
       </c>
       <c r="O72" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" spans="2:15">
@@ -6546,7 +6608,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F73" t="s">
         <v>22</v>
@@ -6555,7 +6617,7 @@
         <v>41</v>
       </c>
       <c r="H73" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I73" t="s">
         <v>15</v>
@@ -6570,7 +6632,7 @@
         <v>300</v>
       </c>
       <c r="O73" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" spans="2:15">
@@ -6584,7 +6646,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F74" t="s">
         <v>22</v>
@@ -6593,7 +6655,7 @@
         <v>41</v>
       </c>
       <c r="H74" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I74" t="s">
         <v>15</v>
@@ -6608,7 +6670,7 @@
         <v>300</v>
       </c>
       <c r="O74" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" spans="2:15">
@@ -6622,7 +6684,7 @@
         <v>1</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F75" t="s">
         <v>22</v>
@@ -6631,7 +6693,7 @@
         <v>41</v>
       </c>
       <c r="H75" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I75" t="s">
         <v>19</v>
@@ -6646,7 +6708,7 @@
         <v>300</v>
       </c>
       <c r="O75" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" spans="2:15">
@@ -6660,7 +6722,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F76" t="s">
         <v>22</v>
@@ -6669,7 +6731,7 @@
         <v>41</v>
       </c>
       <c r="H76" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I76" t="s">
         <v>15</v>
@@ -6684,7 +6746,7 @@
         <v>300</v>
       </c>
       <c r="O76" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" spans="2:15">
@@ -6698,7 +6760,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F77" t="s">
         <v>22</v>
@@ -6707,7 +6769,7 @@
         <v>41</v>
       </c>
       <c r="H77" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I77" t="s">
         <v>15</v>
@@ -6722,7 +6784,7 @@
         <v>300</v>
       </c>
       <c r="O77" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1" spans="2:15">
@@ -6736,7 +6798,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F78" t="s">
         <v>22</v>
@@ -6745,7 +6807,7 @@
         <v>41</v>
       </c>
       <c r="H78" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I78" t="s">
         <v>19</v>
@@ -6760,7 +6822,7 @@
         <v>300</v>
       </c>
       <c r="O78" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" spans="2:15">
@@ -6774,7 +6836,7 @@
         <v>1</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F79" t="s">
         <v>22</v>
@@ -6783,7 +6845,7 @@
         <v>42</v>
       </c>
       <c r="H79" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I79" t="s">
         <v>15</v>
@@ -6798,7 +6860,7 @@
         <v>300</v>
       </c>
       <c r="O79" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" spans="2:15">
@@ -6812,7 +6874,7 @@
         <v>1</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F80" t="s">
         <v>22</v>
@@ -6821,7 +6883,7 @@
         <v>42</v>
       </c>
       <c r="H80" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I80" t="s">
         <v>9</v>
@@ -6836,7 +6898,7 @@
         <v>300</v>
       </c>
       <c r="O80" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1" spans="2:15">
@@ -6850,7 +6912,7 @@
         <v>1</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F81" t="s">
         <v>22</v>
@@ -6859,7 +6921,7 @@
         <v>42</v>
       </c>
       <c r="H81" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I81" t="s">
         <v>19</v>
@@ -6874,7 +6936,7 @@
         <v>300</v>
       </c>
       <c r="O81" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" spans="2:15">
@@ -6888,7 +6950,7 @@
         <v>1</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F82" t="s">
         <v>22</v>
@@ -6909,7 +6971,7 @@
         <v>300</v>
       </c>
       <c r="O82" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" spans="2:15">
@@ -6923,7 +6985,7 @@
         <v>1</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F83" t="s">
         <v>22</v>
@@ -6944,7 +7006,7 @@
         <v>300</v>
       </c>
       <c r="O83" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1" spans="2:15">
@@ -6952,13 +7014,13 @@
         <v>81</v>
       </c>
       <c r="C84" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F84" t="s">
         <v>13</v>
@@ -6976,7 +7038,7 @@
         <v>6</v>
       </c>
       <c r="L84" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N84" s="4" t="s">
         <v>300</v>
@@ -6988,13 +7050,13 @@
         <v>82</v>
       </c>
       <c r="C85" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F85" t="s">
         <v>13</v>
@@ -7012,7 +7074,7 @@
         <v>6</v>
       </c>
       <c r="L85" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N85" s="4" t="s">
         <v>300</v>
@@ -7024,13 +7086,13 @@
         <v>83</v>
       </c>
       <c r="C86" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F86" t="s">
         <v>13</v>
@@ -7048,7 +7110,7 @@
         <v>6</v>
       </c>
       <c r="L86" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N86" s="4" t="s">
         <v>300</v>
@@ -7060,13 +7122,13 @@
         <v>84</v>
       </c>
       <c r="C87" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F87" t="s">
         <v>13</v>
@@ -7084,7 +7146,7 @@
         <v>6</v>
       </c>
       <c r="L87" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N87" s="4" t="s">
         <v>300</v>
@@ -7096,13 +7158,13 @@
         <v>85</v>
       </c>
       <c r="C88" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F88" t="s">
         <v>13</v>
@@ -7118,6 +7180,9 @@
       </c>
       <c r="K88" t="s">
         <v>6</v>
+      </c>
+      <c r="L88" t="s">
+        <v>375</v>
       </c>
       <c r="N88" s="4" t="s">
         <v>300</v>
@@ -7129,13 +7194,13 @@
         <v>86</v>
       </c>
       <c r="C89" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F89" t="s">
         <v>30</v>
@@ -7144,19 +7209,19 @@
         <v>33</v>
       </c>
       <c r="H89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I89" t="s">
         <v>15</v>
       </c>
       <c r="J89" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K89" t="s">
         <v>21</v>
       </c>
       <c r="N89" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="O89" s="5" t="s">
         <v>230</v>
@@ -7167,13 +7232,13 @@
         <v>87</v>
       </c>
       <c r="C90" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F90" t="s">
         <v>30</v>
@@ -7182,22 +7247,25 @@
         <v>33</v>
       </c>
       <c r="H90" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I90" t="s">
         <v>19</v>
       </c>
       <c r="J90" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K90" t="s">
         <v>17</v>
       </c>
+      <c r="L90" t="s">
+        <v>385</v>
+      </c>
       <c r="N90" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="O90" s="5" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" spans="2:15">
@@ -7205,13 +7273,13 @@
         <v>88</v>
       </c>
       <c r="C91" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F91" t="s">
         <v>11</v>
@@ -7231,11 +7299,14 @@
       <c r="K91" t="s">
         <v>17</v>
       </c>
+      <c r="L91" t="s">
+        <v>385</v>
+      </c>
       <c r="N91" t="s">
+        <v>390</v>
+      </c>
+      <c r="O91" s="5" t="s">
         <v>387</v>
-      </c>
-      <c r="O91" s="5" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" spans="2:19">
@@ -7243,13 +7314,13 @@
         <v>89</v>
       </c>
       <c r="C92" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F92" t="s">
         <v>30</v>
@@ -7258,7 +7329,7 @@
         <v>33</v>
       </c>
       <c r="H92" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I92" t="s">
         <v>15</v>
@@ -7269,11 +7340,14 @@
       <c r="K92" t="s">
         <v>21</v>
       </c>
+      <c r="L92" t="s">
+        <v>394</v>
+      </c>
       <c r="N92" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="O92" s="5" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q92" t="s">
         <v>115</v>
@@ -7290,13 +7364,13 @@
         <v>90</v>
       </c>
       <c r="C93" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="F93" t="s">
         <v>30</v>
@@ -7305,7 +7379,7 @@
         <v>33</v>
       </c>
       <c r="H93" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I93" t="s">
         <v>15</v>
@@ -7316,11 +7390,14 @@
       <c r="K93" t="s">
         <v>21</v>
       </c>
+      <c r="L93" t="s">
+        <v>394</v>
+      </c>
       <c r="N93" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="O93" s="5" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q93" t="s">
         <v>115</v>
@@ -7337,22 +7414,22 @@
         <v>91</v>
       </c>
       <c r="C94" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="F94" t="s">
         <v>24</v>
       </c>
       <c r="G94" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="H94" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="I94" t="s">
         <v>19</v>
@@ -7363,11 +7440,14 @@
       <c r="K94" t="s">
         <v>17</v>
       </c>
+      <c r="L94" t="s">
+        <v>404</v>
+      </c>
       <c r="N94" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="O94" s="5" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="U94" t="s">
         <v>115</v>
@@ -7378,13 +7458,13 @@
         <v>92</v>
       </c>
       <c r="C95" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="F95" t="s">
         <v>30</v>
@@ -7393,7 +7473,7 @@
         <v>33</v>
       </c>
       <c r="H95" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="I95" t="s">
         <v>9</v>
@@ -7404,11 +7484,14 @@
       <c r="K95" t="s">
         <v>17</v>
       </c>
+      <c r="L95" t="s">
+        <v>404</v>
+      </c>
       <c r="N95" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="O95" s="5" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1" spans="2:15">
@@ -7416,22 +7499,22 @@
         <v>93</v>
       </c>
       <c r="C96" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="F96" t="s">
         <v>24</v>
       </c>
       <c r="G96" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="H96" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="I96" t="s">
         <v>15</v>
@@ -7442,43 +7525,257 @@
       <c r="K96" t="s">
         <v>17</v>
       </c>
+      <c r="L96" t="s">
+        <v>404</v>
+      </c>
       <c r="N96" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="O96" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="97" ht="15" customHeight="1" spans="15:15">
-      <c r="O97" s="5"/>
-    </row>
-    <row r="98" ht="15" customHeight="1" spans="15:15">
-      <c r="O98" s="5"/>
-    </row>
-    <row r="99" ht="15" customHeight="1" spans="15:15">
-      <c r="O99" s="5"/>
-    </row>
-    <row r="100" ht="15" customHeight="1" spans="15:15">
-      <c r="O100" s="5"/>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="97" ht="15" customHeight="1" spans="2:15">
+      <c r="B97" s="1">
+        <v>94</v>
+      </c>
+      <c r="C97" t="s">
+        <v>43</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F97" t="s">
+        <v>22</v>
+      </c>
+      <c r="G97" t="s">
+        <v>43</v>
+      </c>
+      <c r="H97" t="s">
+        <v>299</v>
+      </c>
+      <c r="I97" t="s">
+        <v>19</v>
+      </c>
+      <c r="J97" t="s">
+        <v>29</v>
+      </c>
+      <c r="K97" t="s">
+        <v>21</v>
+      </c>
+      <c r="L97" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="N97" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="O97" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="98" ht="15" customHeight="1" spans="2:15">
+      <c r="B98" s="1">
+        <v>95</v>
+      </c>
+      <c r="C98" t="s">
+        <v>41</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F98" t="s">
+        <v>22</v>
+      </c>
+      <c r="G98" t="s">
+        <v>41</v>
+      </c>
+      <c r="H98" t="s">
+        <v>421</v>
+      </c>
+      <c r="I98" t="s">
+        <v>19</v>
+      </c>
+      <c r="J98" t="s">
+        <v>29</v>
+      </c>
+      <c r="K98" t="s">
+        <v>21</v>
+      </c>
+      <c r="L98" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="N98" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="O98" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="99" ht="15" customHeight="1" spans="2:15">
+      <c r="B99" s="1">
+        <v>96</v>
+      </c>
+      <c r="C99" t="s">
+        <v>38</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F99" t="s">
+        <v>22</v>
+      </c>
+      <c r="G99" t="s">
+        <v>38</v>
+      </c>
+      <c r="H99" t="s">
+        <v>299</v>
+      </c>
+      <c r="I99" t="s">
+        <v>19</v>
+      </c>
+      <c r="J99" t="s">
+        <v>29</v>
+      </c>
+      <c r="K99" t="s">
+        <v>21</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="N99" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="O99" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="100" ht="15" customHeight="1" spans="2:15">
+      <c r="B100" s="1">
+        <v>97</v>
+      </c>
+      <c r="C100" t="s">
+        <v>42</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F100" t="s">
+        <v>22</v>
+      </c>
+      <c r="G100" t="s">
+        <v>42</v>
+      </c>
+      <c r="H100" t="s">
+        <v>427</v>
+      </c>
+      <c r="I100" t="s">
+        <v>19</v>
+      </c>
+      <c r="J100" t="s">
+        <v>29</v>
+      </c>
+      <c r="K100" t="s">
+        <v>21</v>
+      </c>
+      <c r="L100" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="N100" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="O100" s="5" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="101" ht="15" customHeight="1" spans="2:15">
+      <c r="B101" s="1">
+        <v>98</v>
+      </c>
+      <c r="C101" t="s">
+        <v>42</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="F101" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101" t="s">
+        <v>42</v>
+      </c>
+      <c r="H101" t="s">
+        <v>353</v>
+      </c>
+      <c r="I101" t="s">
+        <v>9</v>
+      </c>
+      <c r="J101" t="s">
+        <v>29</v>
+      </c>
+      <c r="K101" t="s">
+        <v>21</v>
+      </c>
+      <c r="L101" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="N101" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="O101" s="5"/>
+    </row>
+    <row r="102" ht="15" customHeight="1" spans="5:15">
+      <c r="E102" s="2"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="5"/>
+    </row>
+    <row r="103" ht="15" customHeight="1" spans="5:15">
+      <c r="E103" s="2"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="5"/>
+    </row>
+    <row r="104" ht="15" customHeight="1" spans="5:15">
+      <c r="E104" s="2"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="5"/>
+    </row>
+    <row r="105" ht="15" customHeight="1" spans="5:15">
+      <c r="E105" s="2"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P92:U92;P93:U93;P5:U91">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P99:U99;Q100:U100;R101:U101;S102:U102;T103:U103;P100:P105;Q101:Q105;R102:R105;S103:S105;P97:U98;P5:U93;T104:U105">
       <formula1>"ДА"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F86">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F86;F97:F105">
       <formula1>Категория_сайта</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G78">
       <formula1>Категория_техническая</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I83">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I83;I97:I105">
       <formula1>Форма</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J88">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J88;J97:J105">
       <formula1>Производитель</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K83">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K83;K97:K105">
       <formula1>Тип_графики</formula1>
     </dataValidation>
   </dataValidations>
@@ -7495,8 +7792,8 @@
   <sheetPr/>
   <dimension ref="B4:T200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -11626,7 +11923,7 @@
       </c>
       <c r="H56" t="str">
         <f>IF(Компоненты!H56&lt;&gt;"",Компоненты!H56,"")</f>
-        <v>параметрический</v>
+        <v>параметрический круглого сечения</v>
       </c>
       <c r="I56" t="str">
         <f>IF(Компоненты!I56&lt;&gt;"",Компоненты!I56,"")</f>
@@ -14138,7 +14435,7 @@
       </c>
       <c r="L88" t="str">
         <f>IF(Компоненты!L88&lt;&gt;"",Компоненты!L88,"")</f>
-        <v/>
+        <v>Выноска может быть применена к любому элементу. Не содержит параметров (пустая).</v>
       </c>
       <c r="M88" t="str">
         <f>IF(Компоненты!M88&lt;&gt;"",Компоненты!M88,"")</f>
@@ -14294,7 +14591,7 @@
       </c>
       <c r="L90" t="str">
         <f>IF(Компоненты!L90&lt;&gt;"",Компоненты!L90,"")</f>
-        <v/>
+        <v>Компонент из тест-драйва. В списке замены на параметрику.</v>
       </c>
       <c r="M90" t="str">
         <f>IF(Компоненты!M90&lt;&gt;"",Компоненты!M90,"")</f>
@@ -14372,7 +14669,7 @@
       </c>
       <c r="L91" t="str">
         <f>IF(Компоненты!L91&lt;&gt;"",Компоненты!L91,"")</f>
-        <v/>
+        <v>Компонент из тест-драйва. В списке замены на параметрику.</v>
       </c>
       <c r="M91" t="str">
         <f>IF(Компоненты!M91&lt;&gt;"",Компоненты!M91,"")</f>
@@ -14450,7 +14747,7 @@
       </c>
       <c r="L92" t="str">
         <f>IF(Компоненты!L92&lt;&gt;"",Компоненты!L92,"")</f>
-        <v/>
+        <v>Изначально производителем созданы отдельные *.repository-компоненты для различных модификаций вентилятора, отличающиеся значениями параметров и 3D-графикой. Здесь эти компоненты объединены в один *.repository.</v>
       </c>
       <c r="M92" t="str">
         <f>IF(Компоненты!M92&lt;&gt;"",Компоненты!M92,"")</f>
@@ -14528,7 +14825,7 @@
       </c>
       <c r="L93" t="str">
         <f>IF(Компоненты!L93&lt;&gt;"",Компоненты!L93,"")</f>
-        <v/>
+        <v>Изначально производителем созданы отдельные *.repository-компоненты для различных модификаций вентилятора, отличающиеся значениями параметров и 3D-графикой. Здесь эти компоненты объединены в один *.repository.</v>
       </c>
       <c r="M93" t="str">
         <f>IF(Компоненты!M93&lt;&gt;"",Компоненты!M93,"")</f>
@@ -14606,7 +14903,7 @@
       </c>
       <c r="L94" t="str">
         <f>IF(Компоненты!L94&lt;&gt;"",Компоненты!L94,"")</f>
-        <v/>
+        <v>Компонент из тест-драйва "Проектирование насосной станции". В списке замены на параметрику.</v>
       </c>
       <c r="M94" t="str">
         <f>IF(Компоненты!M94&lt;&gt;"",Компоненты!M94,"")</f>
@@ -14684,7 +14981,7 @@
       </c>
       <c r="L95" t="str">
         <f>IF(Компоненты!L95&lt;&gt;"",Компоненты!L95,"")</f>
-        <v/>
+        <v>Компонент из тест-драйва "Проектирование насосной станции". В списке замены на параметрику.</v>
       </c>
       <c r="M95" t="str">
         <f>IF(Компоненты!M95&lt;&gt;"",Компоненты!M95,"")</f>
@@ -14762,7 +15059,7 @@
       </c>
       <c r="L96" t="str">
         <f>IF(Компоненты!L96&lt;&gt;"",Компоненты!L96,"")</f>
-        <v/>
+        <v>Компонент из тест-драйва "Проектирование насосной станции". В списке замены на параметрику.</v>
       </c>
       <c r="M96" t="str">
         <f>IF(Компоненты!M96&lt;&gt;"",Компоненты!M96,"")</f>
@@ -14798,49 +15095,50 @@
       </c>
     </row>
     <row r="97" spans="2:20">
-      <c r="B97" t="str">
+      <c r="B97">
         <f>IF(Компоненты!B97&lt;&gt;"",Компоненты!B97,"")</f>
-        <v/>
+        <v>94</v>
       </c>
       <c r="C97" t="str">
         <f>IF(Компоненты!C97&lt;&gt;"",Компоненты!C97,"")</f>
-        <v/>
-      </c>
-      <c r="D97" t="str">
+        <v>Тройник</v>
+      </c>
+      <c r="D97">
         <f>IF(Компоненты!D97&lt;&gt;"",Компоненты!D97,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E97" t="str">
         <f>IF(Компоненты!E97&lt;&gt;"",Компоненты!E97,"")</f>
-        <v/>
+        <v>68ed8e0f2c1b72c5e186f9e6388446f6</v>
       </c>
       <c r="F97" t="str">
         <f>IF(Компоненты!F97&lt;&gt;"",Компоненты!F97,"")</f>
-        <v/>
+        <v>Элементы воздуховодов</v>
       </c>
       <c r="G97" t="str">
         <f>IF(Компоненты!G97&lt;&gt;"",Компоненты!G97,"")</f>
-        <v/>
+        <v>Тройник</v>
       </c>
       <c r="H97" t="str">
         <f>IF(Компоненты!H97&lt;&gt;"",Компоненты!H97,"")</f>
-        <v/>
+        <v>параметрический</v>
       </c>
       <c r="I97" t="str">
         <f>IF(Компоненты!I97&lt;&gt;"",Компоненты!I97,"")</f>
-        <v/>
+        <v>Прямоугольный</v>
       </c>
       <c r="J97" t="str">
         <f>IF(Компоненты!J97&lt;&gt;"",Компоненты!J97,"")</f>
-        <v/>
+        <v>Нанософт разработка</v>
       </c>
       <c r="K97" t="str">
         <f>IF(Компоненты!K97&lt;&gt;"",Компоненты!K97,"")</f>
-        <v/>
+        <v>Параметрическая</v>
       </c>
       <c r="L97" t="str">
         <f>IF(Компоненты!L97&lt;&gt;"",Компоненты!L97,"")</f>
-        <v/>
+        <v>Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров.
+В тройнике также параметризуются вылеты (прямые участки) для отвода и для магистрали.</v>
       </c>
       <c r="M97" t="str">
         <f>IF(Компоненты!M97&lt;&gt;"",Компоненты!M97,"")</f>
@@ -14848,11 +15146,11 @@
       </c>
       <c r="N97" t="str">
         <f>IF(Компоненты!N97&lt;&gt;"",Компоненты!N97,"")</f>
-        <v/>
+        <v>https://www.nanocad.ru/products/bim/ventilation/</v>
       </c>
       <c r="O97" t="str">
         <f>IF(Компоненты!O97&lt;&gt;"",Компоненты!O97,"")</f>
-        <v/>
+        <v>(100x100)x(100x100)...(200x200)x(200x200), (800x200)x(100x100)...(800x200)x(200x200)</v>
       </c>
       <c r="P97" t="str">
         <f>IF(Компоненты!P97&lt;&gt;"",Компоненты!P97,"")</f>
@@ -14876,49 +15174,51 @@
       </c>
     </row>
     <row r="98" spans="2:20">
-      <c r="B98" t="str">
+      <c r="B98">
         <f>IF(Компоненты!B98&lt;&gt;"",Компоненты!B98,"")</f>
-        <v/>
+        <v>95</v>
       </c>
       <c r="C98" t="str">
         <f>IF(Компоненты!C98&lt;&gt;"",Компоненты!C98,"")</f>
-        <v/>
-      </c>
-      <c r="D98" t="str">
+        <v>Отвод</v>
+      </c>
+      <c r="D98">
         <f>IF(Компоненты!D98&lt;&gt;"",Компоненты!D98,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E98" t="str">
         <f>IF(Компоненты!E98&lt;&gt;"",Компоненты!E98,"")</f>
-        <v/>
+        <v>56f9915dd3d1a96ff8514fc29d16b374</v>
       </c>
       <c r="F98" t="str">
         <f>IF(Компоненты!F98&lt;&gt;"",Компоненты!F98,"")</f>
-        <v/>
+        <v>Элементы воздуховодов</v>
       </c>
       <c r="G98" t="str">
         <f>IF(Компоненты!G98&lt;&gt;"",Компоненты!G98,"")</f>
-        <v/>
+        <v>Отвод</v>
       </c>
       <c r="H98" t="str">
         <f>IF(Компоненты!H98&lt;&gt;"",Компоненты!H98,"")</f>
-        <v/>
+        <v>90°, параметрический</v>
       </c>
       <c r="I98" t="str">
         <f>IF(Компоненты!I98&lt;&gt;"",Компоненты!I98,"")</f>
-        <v/>
+        <v>Прямоугольный</v>
       </c>
       <c r="J98" t="str">
         <f>IF(Компоненты!J98&lt;&gt;"",Компоненты!J98,"")</f>
-        <v/>
+        <v>Нанософт разработка</v>
       </c>
       <c r="K98" t="str">
         <f>IF(Компоненты!K98&lt;&gt;"",Компоненты!K98,"")</f>
-        <v/>
+        <v>Параметрическая</v>
       </c>
       <c r="L98" t="str">
         <f>IF(Компоненты!L98&lt;&gt;"",Компоненты!L98,"")</f>
-        <v/>
+        <v>Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров. 
+В данном отводе в dwg-графике задан радиус отвода 1.5 ширины воздуховода (если смотреть на отвод как поворот в горизонтальной плоскости).
+В списке на усовершенствование (добавление угла как параметра, добавление радиуса отвода как параметра).</v>
       </c>
       <c r="M98" t="str">
         <f>IF(Компоненты!M98&lt;&gt;"",Компоненты!M98,"")</f>
@@ -14926,11 +15226,11 @@
       </c>
       <c r="N98" t="str">
         <f>IF(Компоненты!N98&lt;&gt;"",Компоненты!N98,"")</f>
-        <v/>
+        <v>https://www.nanocad.ru/products/bim/ventilation/</v>
       </c>
       <c r="O98" t="str">
         <f>IF(Компоненты!O98&lt;&gt;"",Компоненты!O98,"")</f>
-        <v/>
+        <v>100x100, 200x100, 200x200, 800x200</v>
       </c>
       <c r="P98" t="str">
         <f>IF(Компоненты!P98&lt;&gt;"",Компоненты!P98,"")</f>
@@ -14954,49 +15254,49 @@
       </c>
     </row>
     <row r="99" spans="2:20">
-      <c r="B99" t="str">
+      <c r="B99">
         <f>IF(Компоненты!B99&lt;&gt;"",Компоненты!B99,"")</f>
-        <v/>
+        <v>96</v>
       </c>
       <c r="C99" t="str">
         <f>IF(Компоненты!C99&lt;&gt;"",Компоненты!C99,"")</f>
-        <v/>
-      </c>
-      <c r="D99" t="str">
+        <v>Воздуховод</v>
+      </c>
+      <c r="D99">
         <f>IF(Компоненты!D99&lt;&gt;"",Компоненты!D99,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E99" t="str">
         <f>IF(Компоненты!E99&lt;&gt;"",Компоненты!E99,"")</f>
-        <v/>
+        <v>d6a586469ec27826261adc5ab974a267</v>
       </c>
       <c r="F99" t="str">
         <f>IF(Компоненты!F99&lt;&gt;"",Компоненты!F99,"")</f>
-        <v/>
+        <v>Элементы воздуховодов</v>
       </c>
       <c r="G99" t="str">
         <f>IF(Компоненты!G99&lt;&gt;"",Компоненты!G99,"")</f>
-        <v/>
+        <v>Воздуховод</v>
       </c>
       <c r="H99" t="str">
         <f>IF(Компоненты!H99&lt;&gt;"",Компоненты!H99,"")</f>
-        <v/>
+        <v>параметрический</v>
       </c>
       <c r="I99" t="str">
         <f>IF(Компоненты!I99&lt;&gt;"",Компоненты!I99,"")</f>
-        <v/>
+        <v>Прямоугольный</v>
       </c>
       <c r="J99" t="str">
         <f>IF(Компоненты!J99&lt;&gt;"",Компоненты!J99,"")</f>
-        <v/>
+        <v>Нанософт разработка</v>
       </c>
       <c r="K99" t="str">
         <f>IF(Компоненты!K99&lt;&gt;"",Компоненты!K99,"")</f>
-        <v/>
+        <v>Параметрическая</v>
       </c>
       <c r="L99" t="str">
         <f>IF(Компоненты!L99&lt;&gt;"",Компоненты!L99,"")</f>
-        <v/>
+        <v>Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров. </v>
       </c>
       <c r="M99" t="str">
         <f>IF(Компоненты!M99&lt;&gt;"",Компоненты!M99,"")</f>
@@ -15004,11 +15304,11 @@
       </c>
       <c r="N99" t="str">
         <f>IF(Компоненты!N99&lt;&gt;"",Компоненты!N99,"")</f>
-        <v/>
+        <v>https://www.nanocad.ru/products/bim/ventilation/</v>
       </c>
       <c r="O99" t="str">
         <f>IF(Компоненты!O99&lt;&gt;"",Компоненты!O99,"")</f>
-        <v/>
+        <v>100x100, 200x100, 200x200, 800x200</v>
       </c>
       <c r="P99" t="str">
         <f>IF(Компоненты!P99&lt;&gt;"",Компоненты!P99,"")</f>
@@ -15032,49 +15332,51 @@
       </c>
     </row>
     <row r="100" spans="2:20">
-      <c r="B100" t="str">
+      <c r="B100">
         <f>IF(Компоненты!B100&lt;&gt;"",Компоненты!B100,"")</f>
-        <v/>
+        <v>97</v>
       </c>
       <c r="C100" t="str">
         <f>IF(Компоненты!C100&lt;&gt;"",Компоненты!C100,"")</f>
-        <v/>
-      </c>
-      <c r="D100" t="str">
+        <v>Переход</v>
+      </c>
+      <c r="D100">
         <f>IF(Компоненты!D100&lt;&gt;"",Компоненты!D100,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E100" t="str">
         <f>IF(Компоненты!E100&lt;&gt;"",Компоненты!E100,"")</f>
-        <v/>
+        <v>ec6115dee1cbcb52f74e7e014846afe1</v>
       </c>
       <c r="F100" t="str">
         <f>IF(Компоненты!F100&lt;&gt;"",Компоненты!F100,"")</f>
-        <v/>
+        <v>Элементы воздуховодов</v>
       </c>
       <c r="G100" t="str">
         <f>IF(Компоненты!G100&lt;&gt;"",Компоненты!G100,"")</f>
-        <v/>
+        <v>Переход</v>
       </c>
       <c r="H100" t="str">
         <f>IF(Компоненты!H100&lt;&gt;"",Компоненты!H100,"")</f>
-        <v/>
+        <v>концентрический прямоугольного сечения</v>
       </c>
       <c r="I100" t="str">
         <f>IF(Компоненты!I100&lt;&gt;"",Компоненты!I100,"")</f>
-        <v/>
+        <v>Прямоугольный</v>
       </c>
       <c r="J100" t="str">
         <f>IF(Компоненты!J100&lt;&gt;"",Компоненты!J100,"")</f>
-        <v/>
+        <v>Нанософт разработка</v>
       </c>
       <c r="K100" t="str">
         <f>IF(Компоненты!K100&lt;&gt;"",Компоненты!K100,"")</f>
-        <v/>
+        <v>Параметрическая</v>
       </c>
       <c r="L100" t="str">
         <f>IF(Компоненты!L100&lt;&gt;"",Компоненты!L100,"")</f>
-        <v/>
+        <v>Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров. 
+В данном переходе также параметризуется длина патрубков (прямых участков) и длина непосредственно перехода. По умолчанию длина всего перехода равна полутора средним эквивалентным диаметрам перехода; эквивалентый диаметр равен 4xA/P, где A - площадь сечения, P - периметр сечения. Если параметр "Заданная длина перехода" не равен 0, то длина перехода примет указанное значение.
+В списке на усовершенствование (добавление сдвига как параметра).</v>
       </c>
       <c r="M100" t="str">
         <f>IF(Компоненты!M100&lt;&gt;"",Компоненты!M100,"")</f>
@@ -15082,11 +15384,11 @@
       </c>
       <c r="N100" t="str">
         <f>IF(Компоненты!N100&lt;&gt;"",Компоненты!N100,"")</f>
-        <v/>
+        <v>https://www.nanocad.ru/products/bim/ventilation/</v>
       </c>
       <c r="O100" t="str">
         <f>IF(Компоненты!O100&lt;&gt;"",Компоненты!O100,"")</f>
-        <v/>
+        <v>(100x100)x(100x100)...(200x200)x(200x200), (800x200)x(100x100)...(800x200)x(200x200)</v>
       </c>
       <c r="P100" t="str">
         <f>IF(Компоненты!P100&lt;&gt;"",Компоненты!P100,"")</f>
@@ -15110,49 +15412,51 @@
       </c>
     </row>
     <row r="101" spans="2:20">
-      <c r="B101" t="str">
+      <c r="B101">
         <f>IF(Компоненты!B101&lt;&gt;"",Компоненты!B101,"")</f>
-        <v/>
+        <v>98</v>
       </c>
       <c r="C101" t="str">
         <f>IF(Компоненты!C101&lt;&gt;"",Компоненты!C101,"")</f>
-        <v/>
-      </c>
-      <c r="D101" t="str">
+        <v>Переход</v>
+      </c>
+      <c r="D101">
         <f>IF(Компоненты!D101&lt;&gt;"",Компоненты!D101,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E101" t="str">
         <f>IF(Компоненты!E101&lt;&gt;"",Компоненты!E101,"")</f>
-        <v/>
+        <v>fabb9d3f84dd0d24837307a25eca606f</v>
       </c>
       <c r="F101" t="str">
         <f>IF(Компоненты!F101&lt;&gt;"",Компоненты!F101,"")</f>
-        <v/>
+        <v>Элементы воздуховодов</v>
       </c>
       <c r="G101" t="str">
         <f>IF(Компоненты!G101&lt;&gt;"",Компоненты!G101,"")</f>
-        <v/>
+        <v>Переход</v>
       </c>
       <c r="H101" t="str">
         <f>IF(Компоненты!H101&lt;&gt;"",Компоненты!H101,"")</f>
-        <v/>
+        <v>с прямоугольного сечения на круглое</v>
       </c>
       <c r="I101" t="str">
         <f>IF(Компоненты!I101&lt;&gt;"",Компоненты!I101,"")</f>
-        <v/>
+        <v>Различные</v>
       </c>
       <c r="J101" t="str">
         <f>IF(Компоненты!J101&lt;&gt;"",Компоненты!J101,"")</f>
-        <v/>
+        <v>Нанософт разработка</v>
       </c>
       <c r="K101" t="str">
         <f>IF(Компоненты!K101&lt;&gt;"",Компоненты!K101,"")</f>
-        <v/>
+        <v>Параметрическая</v>
       </c>
       <c r="L101" t="str">
         <f>IF(Компоненты!L101&lt;&gt;"",Компоненты!L101,"")</f>
-        <v/>
+        <v>Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров. 
+В данном переходе также параметризуется длина патрубков (прямых участков) и длина непосредственно перехода. По умолчанию длина всего перехода равна полутора средним эквивалентным диаметрам перехода; эквивалентый диаметр равен 4xA/P, где A - площадь сечения, P - периметр сечения. Если параметр "Заданная длина перехода" не равен 0, то длина перехода примет указанное значение.
+В списке на усовершенствование (добавление сдвига как параметра).</v>
       </c>
       <c r="M101" t="str">
         <f>IF(Компоненты!M101&lt;&gt;"",Компоненты!M101,"")</f>
@@ -15160,7 +15464,7 @@
       </c>
       <c r="N101" t="str">
         <f>IF(Компоненты!N101&lt;&gt;"",Компоненты!N101,"")</f>
-        <v/>
+        <v>https://www.nanocad.ru/products/bim/ventilation/</v>
       </c>
       <c r="O101" t="str">
         <f>IF(Компоненты!O101&lt;&gt;"",Компоненты!O101,"")</f>
@@ -15175,15 +15479,15 @@
         <v/>
       </c>
       <c r="R101" t="str">
-        <f>IF(Компоненты!R101&lt;&gt;"",Компоненты!R101,"")</f>
+        <f>IF(Компоненты!S101&lt;&gt;"",Компоненты!S101,"")</f>
         <v/>
       </c>
       <c r="S101" t="str">
-        <f>IF(Компоненты!S101&lt;&gt;"",Компоненты!S101,"")</f>
+        <f>IF(Компоненты!T101&lt;&gt;"",Компоненты!T101,"")</f>
         <v/>
       </c>
       <c r="T101" t="str">
-        <f>IF(Компоненты!T101&lt;&gt;"",Компоненты!T101,"")</f>
+        <f>IF(Компоненты!U101&lt;&gt;"",Компоненты!U101,"")</f>
         <v/>
       </c>
     </row>
@@ -15253,15 +15557,15 @@
         <v/>
       </c>
       <c r="R102" t="str">
-        <f>IF(Компоненты!R102&lt;&gt;"",Компоненты!R102,"")</f>
+        <f>IF(Компоненты!S102&lt;&gt;"",Компоненты!S102,"")</f>
         <v/>
       </c>
       <c r="S102" t="str">
-        <f>IF(Компоненты!S102&lt;&gt;"",Компоненты!S102,"")</f>
+        <f>IF(Компоненты!T102&lt;&gt;"",Компоненты!T102,"")</f>
         <v/>
       </c>
       <c r="T102" t="str">
-        <f>IF(Компоненты!T102&lt;&gt;"",Компоненты!T102,"")</f>
+        <f>IF(Компоненты!U102&lt;&gt;"",Компоненты!U102,"")</f>
         <v/>
       </c>
     </row>
@@ -15331,15 +15635,15 @@
         <v/>
       </c>
       <c r="R103" t="str">
-        <f>IF(Компоненты!R103&lt;&gt;"",Компоненты!R103,"")</f>
+        <f>IF(Компоненты!S103&lt;&gt;"",Компоненты!S103,"")</f>
         <v/>
       </c>
       <c r="S103" t="str">
-        <f>IF(Компоненты!S103&lt;&gt;"",Компоненты!S103,"")</f>
+        <f>IF(Компоненты!T103&lt;&gt;"",Компоненты!T103,"")</f>
         <v/>
       </c>
       <c r="T103" t="str">
-        <f>IF(Компоненты!T103&lt;&gt;"",Компоненты!T103,"")</f>
+        <f>IF(Компоненты!U103&lt;&gt;"",Компоненты!U103,"")</f>
         <v/>
       </c>
     </row>
@@ -15409,15 +15713,15 @@
         <v/>
       </c>
       <c r="R104" t="str">
-        <f>IF(Компоненты!R104&lt;&gt;"",Компоненты!R104,"")</f>
+        <f>IF(Компоненты!S104&lt;&gt;"",Компоненты!S104,"")</f>
         <v/>
       </c>
       <c r="S104" t="str">
-        <f>IF(Компоненты!S104&lt;&gt;"",Компоненты!S104,"")</f>
+        <f>IF(Компоненты!T104&lt;&gt;"",Компоненты!T104,"")</f>
         <v/>
       </c>
       <c r="T104" t="str">
-        <f>IF(Компоненты!T104&lt;&gt;"",Компоненты!T104,"")</f>
+        <f>IF(Компоненты!U104&lt;&gt;"",Компоненты!U104,"")</f>
         <v/>
       </c>
     </row>
@@ -15487,15 +15791,15 @@
         <v/>
       </c>
       <c r="R105" t="str">
-        <f>IF(Компоненты!R105&lt;&gt;"",Компоненты!R105,"")</f>
+        <f>IF(Компоненты!S105&lt;&gt;"",Компоненты!S105,"")</f>
         <v/>
       </c>
       <c r="S105" t="str">
-        <f>IF(Компоненты!S105&lt;&gt;"",Компоненты!S105,"")</f>
+        <f>IF(Компоненты!T105&lt;&gt;"",Компоненты!T105,"")</f>
         <v/>
       </c>
       <c r="T105" t="str">
-        <f>IF(Компоненты!T105&lt;&gt;"",Компоненты!T105,"")</f>
+        <f>IF(Компоненты!U105&lt;&gt;"",Компоненты!U105,"")</f>
         <v/>
       </c>
     </row>
@@ -15565,15 +15869,15 @@
         <v/>
       </c>
       <c r="R106" t="str">
-        <f>IF(Компоненты!R106&lt;&gt;"",Компоненты!R106,"")</f>
+        <f>IF(Компоненты!S106&lt;&gt;"",Компоненты!S106,"")</f>
         <v/>
       </c>
       <c r="S106" t="str">
-        <f>IF(Компоненты!S106&lt;&gt;"",Компоненты!S106,"")</f>
+        <f>IF(Компоненты!T106&lt;&gt;"",Компоненты!T106,"")</f>
         <v/>
       </c>
       <c r="T106" t="str">
-        <f>IF(Компоненты!T106&lt;&gt;"",Компоненты!T106,"")</f>
+        <f>IF(Компоненты!U106&lt;&gt;"",Компоненты!U106,"")</f>
         <v/>
       </c>
     </row>
@@ -15643,15 +15947,15 @@
         <v/>
       </c>
       <c r="R107" t="str">
-        <f>IF(Компоненты!R107&lt;&gt;"",Компоненты!R107,"")</f>
+        <f>IF(Компоненты!S107&lt;&gt;"",Компоненты!S107,"")</f>
         <v/>
       </c>
       <c r="S107" t="str">
-        <f>IF(Компоненты!S107&lt;&gt;"",Компоненты!S107,"")</f>
+        <f>IF(Компоненты!T107&lt;&gt;"",Компоненты!T107,"")</f>
         <v/>
       </c>
       <c r="T107" t="str">
-        <f>IF(Компоненты!T107&lt;&gt;"",Компоненты!T107,"")</f>
+        <f>IF(Компоненты!U107&lt;&gt;"",Компоненты!U107,"")</f>
         <v/>
       </c>
     </row>
@@ -15721,15 +16025,15 @@
         <v/>
       </c>
       <c r="R108" t="str">
-        <f>IF(Компоненты!R108&lt;&gt;"",Компоненты!R108,"")</f>
+        <f>IF(Компоненты!S108&lt;&gt;"",Компоненты!S108,"")</f>
         <v/>
       </c>
       <c r="S108" t="str">
-        <f>IF(Компоненты!S108&lt;&gt;"",Компоненты!S108,"")</f>
+        <f>IF(Компоненты!T108&lt;&gt;"",Компоненты!T108,"")</f>
         <v/>
       </c>
       <c r="T108" t="str">
-        <f>IF(Компоненты!T108&lt;&gt;"",Компоненты!T108,"")</f>
+        <f>IF(Компоненты!U108&lt;&gt;"",Компоненты!U108,"")</f>
         <v/>
       </c>
     </row>
@@ -15799,15 +16103,15 @@
         <v/>
       </c>
       <c r="R109" t="str">
-        <f>IF(Компоненты!R109&lt;&gt;"",Компоненты!R109,"")</f>
+        <f>IF(Компоненты!S109&lt;&gt;"",Компоненты!S109,"")</f>
         <v/>
       </c>
       <c r="S109" t="str">
-        <f>IF(Компоненты!S109&lt;&gt;"",Компоненты!S109,"")</f>
+        <f>IF(Компоненты!T109&lt;&gt;"",Компоненты!T109,"")</f>
         <v/>
       </c>
       <c r="T109" t="str">
-        <f>IF(Компоненты!T109&lt;&gt;"",Компоненты!T109,"")</f>
+        <f>IF(Компоненты!U109&lt;&gt;"",Компоненты!U109,"")</f>
         <v/>
       </c>
     </row>
@@ -15877,15 +16181,15 @@
         <v/>
       </c>
       <c r="R110" t="str">
-        <f>IF(Компоненты!R110&lt;&gt;"",Компоненты!R110,"")</f>
+        <f>IF(Компоненты!S110&lt;&gt;"",Компоненты!S110,"")</f>
         <v/>
       </c>
       <c r="S110" t="str">
-        <f>IF(Компоненты!S110&lt;&gt;"",Компоненты!S110,"")</f>
+        <f>IF(Компоненты!T110&lt;&gt;"",Компоненты!T110,"")</f>
         <v/>
       </c>
       <c r="T110" t="str">
-        <f>IF(Компоненты!T110&lt;&gt;"",Компоненты!T110,"")</f>
+        <f>IF(Компоненты!U110&lt;&gt;"",Компоненты!U110,"")</f>
         <v/>
       </c>
     </row>
@@ -15955,15 +16259,15 @@
         <v/>
       </c>
       <c r="R111" t="str">
-        <f>IF(Компоненты!R111&lt;&gt;"",Компоненты!R111,"")</f>
+        <f>IF(Компоненты!S111&lt;&gt;"",Компоненты!S111,"")</f>
         <v/>
       </c>
       <c r="S111" t="str">
-        <f>IF(Компоненты!S111&lt;&gt;"",Компоненты!S111,"")</f>
+        <f>IF(Компоненты!T111&lt;&gt;"",Компоненты!T111,"")</f>
         <v/>
       </c>
       <c r="T111" t="str">
-        <f>IF(Компоненты!T111&lt;&gt;"",Компоненты!T111,"")</f>
+        <f>IF(Компоненты!U111&lt;&gt;"",Компоненты!U111,"")</f>
         <v/>
       </c>
     </row>
@@ -16033,15 +16337,15 @@
         <v/>
       </c>
       <c r="R112" t="str">
-        <f>IF(Компоненты!R112&lt;&gt;"",Компоненты!R112,"")</f>
+        <f>IF(Компоненты!S112&lt;&gt;"",Компоненты!S112,"")</f>
         <v/>
       </c>
       <c r="S112" t="str">
-        <f>IF(Компоненты!S112&lt;&gt;"",Компоненты!S112,"")</f>
+        <f>IF(Компоненты!T112&lt;&gt;"",Компоненты!T112,"")</f>
         <v/>
       </c>
       <c r="T112" t="str">
-        <f>IF(Компоненты!T112&lt;&gt;"",Компоненты!T112,"")</f>
+        <f>IF(Компоненты!U112&lt;&gt;"",Компоненты!U112,"")</f>
         <v/>
       </c>
     </row>
@@ -16111,15 +16415,15 @@
         <v/>
       </c>
       <c r="R113" t="str">
-        <f>IF(Компоненты!R113&lt;&gt;"",Компоненты!R113,"")</f>
+        <f>IF(Компоненты!S113&lt;&gt;"",Компоненты!S113,"")</f>
         <v/>
       </c>
       <c r="S113" t="str">
-        <f>IF(Компоненты!S113&lt;&gt;"",Компоненты!S113,"")</f>
+        <f>IF(Компоненты!T113&lt;&gt;"",Компоненты!T113,"")</f>
         <v/>
       </c>
       <c r="T113" t="str">
-        <f>IF(Компоненты!T113&lt;&gt;"",Компоненты!T113,"")</f>
+        <f>IF(Компоненты!U113&lt;&gt;"",Компоненты!U113,"")</f>
         <v/>
       </c>
     </row>
@@ -16189,15 +16493,15 @@
         <v/>
       </c>
       <c r="R114" t="str">
-        <f>IF(Компоненты!R114&lt;&gt;"",Компоненты!R114,"")</f>
+        <f>IF(Компоненты!S114&lt;&gt;"",Компоненты!S114,"")</f>
         <v/>
       </c>
       <c r="S114" t="str">
-        <f>IF(Компоненты!S114&lt;&gt;"",Компоненты!S114,"")</f>
+        <f>IF(Компоненты!T114&lt;&gt;"",Компоненты!T114,"")</f>
         <v/>
       </c>
       <c r="T114" t="str">
-        <f>IF(Компоненты!T114&lt;&gt;"",Компоненты!T114,"")</f>
+        <f>IF(Компоненты!U114&lt;&gt;"",Компоненты!U114,"")</f>
         <v/>
       </c>
     </row>
@@ -16267,15 +16571,15 @@
         <v/>
       </c>
       <c r="R115" t="str">
-        <f>IF(Компоненты!R115&lt;&gt;"",Компоненты!R115,"")</f>
+        <f>IF(Компоненты!S115&lt;&gt;"",Компоненты!S115,"")</f>
         <v/>
       </c>
       <c r="S115" t="str">
-        <f>IF(Компоненты!S115&lt;&gt;"",Компоненты!S115,"")</f>
+        <f>IF(Компоненты!T115&lt;&gt;"",Компоненты!T115,"")</f>
         <v/>
       </c>
       <c r="T115" t="str">
-        <f>IF(Компоненты!T115&lt;&gt;"",Компоненты!T115,"")</f>
+        <f>IF(Компоненты!U115&lt;&gt;"",Компоненты!U115,"")</f>
         <v/>
       </c>
     </row>
@@ -16345,15 +16649,15 @@
         <v/>
       </c>
       <c r="R116" t="str">
-        <f>IF(Компоненты!R116&lt;&gt;"",Компоненты!R116,"")</f>
+        <f>IF(Компоненты!S116&lt;&gt;"",Компоненты!S116,"")</f>
         <v/>
       </c>
       <c r="S116" t="str">
-        <f>IF(Компоненты!S116&lt;&gt;"",Компоненты!S116,"")</f>
+        <f>IF(Компоненты!T116&lt;&gt;"",Компоненты!T116,"")</f>
         <v/>
       </c>
       <c r="T116" t="str">
-        <f>IF(Компоненты!T116&lt;&gt;"",Компоненты!T116,"")</f>
+        <f>IF(Компоненты!U116&lt;&gt;"",Компоненты!U116,"")</f>
         <v/>
       </c>
     </row>
@@ -16423,15 +16727,15 @@
         <v/>
       </c>
       <c r="R117" t="str">
-        <f>IF(Компоненты!R117&lt;&gt;"",Компоненты!R117,"")</f>
+        <f>IF(Компоненты!S117&lt;&gt;"",Компоненты!S117,"")</f>
         <v/>
       </c>
       <c r="S117" t="str">
-        <f>IF(Компоненты!S117&lt;&gt;"",Компоненты!S117,"")</f>
+        <f>IF(Компоненты!T117&lt;&gt;"",Компоненты!T117,"")</f>
         <v/>
       </c>
       <c r="T117" t="str">
-        <f>IF(Компоненты!T117&lt;&gt;"",Компоненты!T117,"")</f>
+        <f>IF(Компоненты!U117&lt;&gt;"",Компоненты!U117,"")</f>
         <v/>
       </c>
     </row>
@@ -16501,15 +16805,15 @@
         <v/>
       </c>
       <c r="R118" t="str">
-        <f>IF(Компоненты!R118&lt;&gt;"",Компоненты!R118,"")</f>
+        <f>IF(Компоненты!S118&lt;&gt;"",Компоненты!S118,"")</f>
         <v/>
       </c>
       <c r="S118" t="str">
-        <f>IF(Компоненты!S118&lt;&gt;"",Компоненты!S118,"")</f>
+        <f>IF(Компоненты!T118&lt;&gt;"",Компоненты!T118,"")</f>
         <v/>
       </c>
       <c r="T118" t="str">
-        <f>IF(Компоненты!T118&lt;&gt;"",Компоненты!T118,"")</f>
+        <f>IF(Компоненты!U118&lt;&gt;"",Компоненты!U118,"")</f>
         <v/>
       </c>
     </row>
@@ -16579,15 +16883,15 @@
         <v/>
       </c>
       <c r="R119" t="str">
-        <f>IF(Компоненты!R119&lt;&gt;"",Компоненты!R119,"")</f>
+        <f>IF(Компоненты!S119&lt;&gt;"",Компоненты!S119,"")</f>
         <v/>
       </c>
       <c r="S119" t="str">
-        <f>IF(Компоненты!S119&lt;&gt;"",Компоненты!S119,"")</f>
+        <f>IF(Компоненты!T119&lt;&gt;"",Компоненты!T119,"")</f>
         <v/>
       </c>
       <c r="T119" t="str">
-        <f>IF(Компоненты!T119&lt;&gt;"",Компоненты!T119,"")</f>
+        <f>IF(Компоненты!U119&lt;&gt;"",Компоненты!U119,"")</f>
         <v/>
       </c>
     </row>
@@ -16657,15 +16961,15 @@
         <v/>
       </c>
       <c r="R120" t="str">
-        <f>IF(Компоненты!R120&lt;&gt;"",Компоненты!R120,"")</f>
+        <f>IF(Компоненты!S120&lt;&gt;"",Компоненты!S120,"")</f>
         <v/>
       </c>
       <c r="S120" t="str">
-        <f>IF(Компоненты!S120&lt;&gt;"",Компоненты!S120,"")</f>
+        <f>IF(Компоненты!T120&lt;&gt;"",Компоненты!T120,"")</f>
         <v/>
       </c>
       <c r="T120" t="str">
-        <f>IF(Компоненты!T120&lt;&gt;"",Компоненты!T120,"")</f>
+        <f>IF(Компоненты!U120&lt;&gt;"",Компоненты!U120,"")</f>
         <v/>
       </c>
     </row>
@@ -16735,15 +17039,15 @@
         <v/>
       </c>
       <c r="R121" t="str">
-        <f>IF(Компоненты!R121&lt;&gt;"",Компоненты!R121,"")</f>
+        <f>IF(Компоненты!S121&lt;&gt;"",Компоненты!S121,"")</f>
         <v/>
       </c>
       <c r="S121" t="str">
-        <f>IF(Компоненты!S121&lt;&gt;"",Компоненты!S121,"")</f>
+        <f>IF(Компоненты!T121&lt;&gt;"",Компоненты!T121,"")</f>
         <v/>
       </c>
       <c r="T121" t="str">
-        <f>IF(Компоненты!T121&lt;&gt;"",Компоненты!T121,"")</f>
+        <f>IF(Компоненты!U121&lt;&gt;"",Компоненты!U121,"")</f>
         <v/>
       </c>
     </row>
@@ -16813,15 +17117,15 @@
         <v/>
       </c>
       <c r="R122" t="str">
-        <f>IF(Компоненты!R122&lt;&gt;"",Компоненты!R122,"")</f>
+        <f>IF(Компоненты!S122&lt;&gt;"",Компоненты!S122,"")</f>
         <v/>
       </c>
       <c r="S122" t="str">
-        <f>IF(Компоненты!S122&lt;&gt;"",Компоненты!S122,"")</f>
+        <f>IF(Компоненты!T122&lt;&gt;"",Компоненты!T122,"")</f>
         <v/>
       </c>
       <c r="T122" t="str">
-        <f>IF(Компоненты!T122&lt;&gt;"",Компоненты!T122,"")</f>
+        <f>IF(Компоненты!U122&lt;&gt;"",Компоненты!U122,"")</f>
         <v/>
       </c>
     </row>
@@ -16891,15 +17195,15 @@
         <v/>
       </c>
       <c r="R123" t="str">
-        <f>IF(Компоненты!R123&lt;&gt;"",Компоненты!R123,"")</f>
+        <f>IF(Компоненты!S123&lt;&gt;"",Компоненты!S123,"")</f>
         <v/>
       </c>
       <c r="S123" t="str">
-        <f>IF(Компоненты!S123&lt;&gt;"",Компоненты!S123,"")</f>
+        <f>IF(Компоненты!T123&lt;&gt;"",Компоненты!T123,"")</f>
         <v/>
       </c>
       <c r="T123" t="str">
-        <f>IF(Компоненты!T123&lt;&gt;"",Компоненты!T123,"")</f>
+        <f>IF(Компоненты!U123&lt;&gt;"",Компоненты!U123,"")</f>
         <v/>
       </c>
     </row>
@@ -16969,15 +17273,15 @@
         <v/>
       </c>
       <c r="R124" t="str">
-        <f>IF(Компоненты!R124&lt;&gt;"",Компоненты!R124,"")</f>
+        <f>IF(Компоненты!S124&lt;&gt;"",Компоненты!S124,"")</f>
         <v/>
       </c>
       <c r="S124" t="str">
-        <f>IF(Компоненты!S124&lt;&gt;"",Компоненты!S124,"")</f>
+        <f>IF(Компоненты!T124&lt;&gt;"",Компоненты!T124,"")</f>
         <v/>
       </c>
       <c r="T124" t="str">
-        <f>IF(Компоненты!T124&lt;&gt;"",Компоненты!T124,"")</f>
+        <f>IF(Компоненты!U124&lt;&gt;"",Компоненты!U124,"")</f>
         <v/>
       </c>
     </row>
@@ -17047,15 +17351,15 @@
         <v/>
       </c>
       <c r="R125" t="str">
-        <f>IF(Компоненты!R125&lt;&gt;"",Компоненты!R125,"")</f>
+        <f>IF(Компоненты!S125&lt;&gt;"",Компоненты!S125,"")</f>
         <v/>
       </c>
       <c r="S125" t="str">
-        <f>IF(Компоненты!S125&lt;&gt;"",Компоненты!S125,"")</f>
+        <f>IF(Компоненты!T125&lt;&gt;"",Компоненты!T125,"")</f>
         <v/>
       </c>
       <c r="T125" t="str">
-        <f>IF(Компоненты!T125&lt;&gt;"",Компоненты!T125,"")</f>
+        <f>IF(Компоненты!U125&lt;&gt;"",Компоненты!U125,"")</f>
         <v/>
       </c>
     </row>
@@ -17125,15 +17429,15 @@
         <v/>
       </c>
       <c r="R126" t="str">
-        <f>IF(Компоненты!R126&lt;&gt;"",Компоненты!R126,"")</f>
+        <f>IF(Компоненты!S126&lt;&gt;"",Компоненты!S126,"")</f>
         <v/>
       </c>
       <c r="S126" t="str">
-        <f>IF(Компоненты!S126&lt;&gt;"",Компоненты!S126,"")</f>
+        <f>IF(Компоненты!T126&lt;&gt;"",Компоненты!T126,"")</f>
         <v/>
       </c>
       <c r="T126" t="str">
-        <f>IF(Компоненты!T126&lt;&gt;"",Компоненты!T126,"")</f>
+        <f>IF(Компоненты!U126&lt;&gt;"",Компоненты!U126,"")</f>
         <v/>
       </c>
     </row>
@@ -17203,15 +17507,15 @@
         <v/>
       </c>
       <c r="R127" t="str">
-        <f>IF(Компоненты!R127&lt;&gt;"",Компоненты!R127,"")</f>
+        <f>IF(Компоненты!S127&lt;&gt;"",Компоненты!S127,"")</f>
         <v/>
       </c>
       <c r="S127" t="str">
-        <f>IF(Компоненты!S127&lt;&gt;"",Компоненты!S127,"")</f>
+        <f>IF(Компоненты!T127&lt;&gt;"",Компоненты!T127,"")</f>
         <v/>
       </c>
       <c r="T127" t="str">
-        <f>IF(Компоненты!T127&lt;&gt;"",Компоненты!T127,"")</f>
+        <f>IF(Компоненты!U127&lt;&gt;"",Компоненты!U127,"")</f>
         <v/>
       </c>
     </row>
@@ -17281,15 +17585,15 @@
         <v/>
       </c>
       <c r="R128" t="str">
-        <f>IF(Компоненты!R128&lt;&gt;"",Компоненты!R128,"")</f>
+        <f>IF(Компоненты!S128&lt;&gt;"",Компоненты!S128,"")</f>
         <v/>
       </c>
       <c r="S128" t="str">
-        <f>IF(Компоненты!S128&lt;&gt;"",Компоненты!S128,"")</f>
+        <f>IF(Компоненты!T128&lt;&gt;"",Компоненты!T128,"")</f>
         <v/>
       </c>
       <c r="T128" t="str">
-        <f>IF(Компоненты!T128&lt;&gt;"",Компоненты!T128,"")</f>
+        <f>IF(Компоненты!U128&lt;&gt;"",Компоненты!U128,"")</f>
         <v/>
       </c>
     </row>
@@ -17359,15 +17663,15 @@
         <v/>
       </c>
       <c r="R129" t="str">
-        <f>IF(Компоненты!R129&lt;&gt;"",Компоненты!R129,"")</f>
+        <f>IF(Компоненты!S129&lt;&gt;"",Компоненты!S129,"")</f>
         <v/>
       </c>
       <c r="S129" t="str">
-        <f>IF(Компоненты!S129&lt;&gt;"",Компоненты!S129,"")</f>
+        <f>IF(Компоненты!T129&lt;&gt;"",Компоненты!T129,"")</f>
         <v/>
       </c>
       <c r="T129" t="str">
-        <f>IF(Компоненты!T129&lt;&gt;"",Компоненты!T129,"")</f>
+        <f>IF(Компоненты!U129&lt;&gt;"",Компоненты!U129,"")</f>
         <v/>
       </c>
     </row>
@@ -17437,15 +17741,15 @@
         <v/>
       </c>
       <c r="R130" t="str">
-        <f>IF(Компоненты!R130&lt;&gt;"",Компоненты!R130,"")</f>
+        <f>IF(Компоненты!S130&lt;&gt;"",Компоненты!S130,"")</f>
         <v/>
       </c>
       <c r="S130" t="str">
-        <f>IF(Компоненты!S130&lt;&gt;"",Компоненты!S130,"")</f>
+        <f>IF(Компоненты!T130&lt;&gt;"",Компоненты!T130,"")</f>
         <v/>
       </c>
       <c r="T130" t="str">
-        <f>IF(Компоненты!T130&lt;&gt;"",Компоненты!T130,"")</f>
+        <f>IF(Компоненты!U130&lt;&gt;"",Компоненты!U130,"")</f>
         <v/>
       </c>
     </row>
@@ -17515,15 +17819,15 @@
         <v/>
       </c>
       <c r="R131" t="str">
-        <f>IF(Компоненты!R131&lt;&gt;"",Компоненты!R131,"")</f>
+        <f>IF(Компоненты!S131&lt;&gt;"",Компоненты!S131,"")</f>
         <v/>
       </c>
       <c r="S131" t="str">
-        <f>IF(Компоненты!S131&lt;&gt;"",Компоненты!S131,"")</f>
+        <f>IF(Компоненты!T131&lt;&gt;"",Компоненты!T131,"")</f>
         <v/>
       </c>
       <c r="T131" t="str">
-        <f>IF(Компоненты!T131&lt;&gt;"",Компоненты!T131,"")</f>
+        <f>IF(Компоненты!U131&lt;&gt;"",Компоненты!U131,"")</f>
         <v/>
       </c>
     </row>
@@ -17593,15 +17897,15 @@
         <v/>
       </c>
       <c r="R132" t="str">
-        <f>IF(Компоненты!R132&lt;&gt;"",Компоненты!R132,"")</f>
+        <f>IF(Компоненты!S132&lt;&gt;"",Компоненты!S132,"")</f>
         <v/>
       </c>
       <c r="S132" t="str">
-        <f>IF(Компоненты!S132&lt;&gt;"",Компоненты!S132,"")</f>
+        <f>IF(Компоненты!T132&lt;&gt;"",Компоненты!T132,"")</f>
         <v/>
       </c>
       <c r="T132" t="str">
-        <f>IF(Компоненты!T132&lt;&gt;"",Компоненты!T132,"")</f>
+        <f>IF(Компоненты!U132&lt;&gt;"",Компоненты!U132,"")</f>
         <v/>
       </c>
     </row>
@@ -17671,15 +17975,15 @@
         <v/>
       </c>
       <c r="R133" t="str">
-        <f>IF(Компоненты!R133&lt;&gt;"",Компоненты!R133,"")</f>
+        <f>IF(Компоненты!S133&lt;&gt;"",Компоненты!S133,"")</f>
         <v/>
       </c>
       <c r="S133" t="str">
-        <f>IF(Компоненты!S133&lt;&gt;"",Компоненты!S133,"")</f>
+        <f>IF(Компоненты!T133&lt;&gt;"",Компоненты!T133,"")</f>
         <v/>
       </c>
       <c r="T133" t="str">
-        <f>IF(Компоненты!T133&lt;&gt;"",Компоненты!T133,"")</f>
+        <f>IF(Компоненты!U133&lt;&gt;"",Компоненты!U133,"")</f>
         <v/>
       </c>
     </row>
@@ -17749,15 +18053,15 @@
         <v/>
       </c>
       <c r="R134" t="str">
-        <f>IF(Компоненты!R134&lt;&gt;"",Компоненты!R134,"")</f>
+        <f>IF(Компоненты!S134&lt;&gt;"",Компоненты!S134,"")</f>
         <v/>
       </c>
       <c r="S134" t="str">
-        <f>IF(Компоненты!S134&lt;&gt;"",Компоненты!S134,"")</f>
+        <f>IF(Компоненты!T134&lt;&gt;"",Компоненты!T134,"")</f>
         <v/>
       </c>
       <c r="T134" t="str">
-        <f>IF(Компоненты!T134&lt;&gt;"",Компоненты!T134,"")</f>
+        <f>IF(Компоненты!U134&lt;&gt;"",Компоненты!U134,"")</f>
         <v/>
       </c>
     </row>
@@ -17827,15 +18131,15 @@
         <v/>
       </c>
       <c r="R135" t="str">
-        <f>IF(Компоненты!R135&lt;&gt;"",Компоненты!R135,"")</f>
+        <f>IF(Компоненты!S135&lt;&gt;"",Компоненты!S135,"")</f>
         <v/>
       </c>
       <c r="S135" t="str">
-        <f>IF(Компоненты!S135&lt;&gt;"",Компоненты!S135,"")</f>
+        <f>IF(Компоненты!T135&lt;&gt;"",Компоненты!T135,"")</f>
         <v/>
       </c>
       <c r="T135" t="str">
-        <f>IF(Компоненты!T135&lt;&gt;"",Компоненты!T135,"")</f>
+        <f>IF(Компоненты!U135&lt;&gt;"",Компоненты!U135,"")</f>
         <v/>
       </c>
     </row>
@@ -17905,15 +18209,15 @@
         <v/>
       </c>
       <c r="R136" t="str">
-        <f>IF(Компоненты!R136&lt;&gt;"",Компоненты!R136,"")</f>
+        <f>IF(Компоненты!S136&lt;&gt;"",Компоненты!S136,"")</f>
         <v/>
       </c>
       <c r="S136" t="str">
-        <f>IF(Компоненты!S136&lt;&gt;"",Компоненты!S136,"")</f>
+        <f>IF(Компоненты!T136&lt;&gt;"",Компоненты!T136,"")</f>
         <v/>
       </c>
       <c r="T136" t="str">
-        <f>IF(Компоненты!T136&lt;&gt;"",Компоненты!T136,"")</f>
+        <f>IF(Компоненты!U136&lt;&gt;"",Компоненты!U136,"")</f>
         <v/>
       </c>
     </row>
@@ -17983,15 +18287,15 @@
         <v/>
       </c>
       <c r="R137" t="str">
-        <f>IF(Компоненты!R137&lt;&gt;"",Компоненты!R137,"")</f>
+        <f>IF(Компоненты!S137&lt;&gt;"",Компоненты!S137,"")</f>
         <v/>
       </c>
       <c r="S137" t="str">
-        <f>IF(Компоненты!S137&lt;&gt;"",Компоненты!S137,"")</f>
+        <f>IF(Компоненты!T137&lt;&gt;"",Компоненты!T137,"")</f>
         <v/>
       </c>
       <c r="T137" t="str">
-        <f>IF(Компоненты!T137&lt;&gt;"",Компоненты!T137,"")</f>
+        <f>IF(Компоненты!U137&lt;&gt;"",Компоненты!U137,"")</f>
         <v/>
       </c>
     </row>
@@ -18061,15 +18365,15 @@
         <v/>
       </c>
       <c r="R138" t="str">
-        <f>IF(Компоненты!R138&lt;&gt;"",Компоненты!R138,"")</f>
+        <f>IF(Компоненты!S138&lt;&gt;"",Компоненты!S138,"")</f>
         <v/>
       </c>
       <c r="S138" t="str">
-        <f>IF(Компоненты!S138&lt;&gt;"",Компоненты!S138,"")</f>
+        <f>IF(Компоненты!T138&lt;&gt;"",Компоненты!T138,"")</f>
         <v/>
       </c>
       <c r="T138" t="str">
-        <f>IF(Компоненты!T138&lt;&gt;"",Компоненты!T138,"")</f>
+        <f>IF(Компоненты!U138&lt;&gt;"",Компоненты!U138,"")</f>
         <v/>
       </c>
     </row>
@@ -18139,15 +18443,15 @@
         <v/>
       </c>
       <c r="R139" t="str">
-        <f>IF(Компоненты!R139&lt;&gt;"",Компоненты!R139,"")</f>
+        <f>IF(Компоненты!S139&lt;&gt;"",Компоненты!S139,"")</f>
         <v/>
       </c>
       <c r="S139" t="str">
-        <f>IF(Компоненты!S139&lt;&gt;"",Компоненты!S139,"")</f>
+        <f>IF(Компоненты!T139&lt;&gt;"",Компоненты!T139,"")</f>
         <v/>
       </c>
       <c r="T139" t="str">
-        <f>IF(Компоненты!T139&lt;&gt;"",Компоненты!T139,"")</f>
+        <f>IF(Компоненты!U139&lt;&gt;"",Компоненты!U139,"")</f>
         <v/>
       </c>
     </row>
@@ -18217,15 +18521,15 @@
         <v/>
       </c>
       <c r="R140" t="str">
-        <f>IF(Компоненты!R140&lt;&gt;"",Компоненты!R140,"")</f>
+        <f>IF(Компоненты!S140&lt;&gt;"",Компоненты!S140,"")</f>
         <v/>
       </c>
       <c r="S140" t="str">
-        <f>IF(Компоненты!S140&lt;&gt;"",Компоненты!S140,"")</f>
+        <f>IF(Компоненты!T140&lt;&gt;"",Компоненты!T140,"")</f>
         <v/>
       </c>
       <c r="T140" t="str">
-        <f>IF(Компоненты!T140&lt;&gt;"",Компоненты!T140,"")</f>
+        <f>IF(Компоненты!U140&lt;&gt;"",Компоненты!U140,"")</f>
         <v/>
       </c>
     </row>
@@ -18295,15 +18599,15 @@
         <v/>
       </c>
       <c r="R141" t="str">
-        <f>IF(Компоненты!R141&lt;&gt;"",Компоненты!R141,"")</f>
+        <f>IF(Компоненты!S141&lt;&gt;"",Компоненты!S141,"")</f>
         <v/>
       </c>
       <c r="S141" t="str">
-        <f>IF(Компоненты!S141&lt;&gt;"",Компоненты!S141,"")</f>
+        <f>IF(Компоненты!T141&lt;&gt;"",Компоненты!T141,"")</f>
         <v/>
       </c>
       <c r="T141" t="str">
-        <f>IF(Компоненты!T141&lt;&gt;"",Компоненты!T141,"")</f>
+        <f>IF(Компоненты!U141&lt;&gt;"",Компоненты!U141,"")</f>
         <v/>
       </c>
     </row>
@@ -18373,15 +18677,15 @@
         <v/>
       </c>
       <c r="R142" t="str">
-        <f>IF(Компоненты!R142&lt;&gt;"",Компоненты!R142,"")</f>
+        <f>IF(Компоненты!S142&lt;&gt;"",Компоненты!S142,"")</f>
         <v/>
       </c>
       <c r="S142" t="str">
-        <f>IF(Компоненты!S142&lt;&gt;"",Компоненты!S142,"")</f>
+        <f>IF(Компоненты!T142&lt;&gt;"",Компоненты!T142,"")</f>
         <v/>
       </c>
       <c r="T142" t="str">
-        <f>IF(Компоненты!T142&lt;&gt;"",Компоненты!T142,"")</f>
+        <f>IF(Компоненты!U142&lt;&gt;"",Компоненты!U142,"")</f>
         <v/>
       </c>
     </row>
@@ -18451,15 +18755,15 @@
         <v/>
       </c>
       <c r="R143" t="str">
-        <f>IF(Компоненты!R143&lt;&gt;"",Компоненты!R143,"")</f>
+        <f>IF(Компоненты!S143&lt;&gt;"",Компоненты!S143,"")</f>
         <v/>
       </c>
       <c r="S143" t="str">
-        <f>IF(Компоненты!S143&lt;&gt;"",Компоненты!S143,"")</f>
+        <f>IF(Компоненты!T143&lt;&gt;"",Компоненты!T143,"")</f>
         <v/>
       </c>
       <c r="T143" t="str">
-        <f>IF(Компоненты!T143&lt;&gt;"",Компоненты!T143,"")</f>
+        <f>IF(Компоненты!U143&lt;&gt;"",Компоненты!U143,"")</f>
         <v/>
       </c>
     </row>
@@ -18529,15 +18833,15 @@
         <v/>
       </c>
       <c r="R144" t="str">
-        <f>IF(Компоненты!R144&lt;&gt;"",Компоненты!R144,"")</f>
+        <f>IF(Компоненты!S144&lt;&gt;"",Компоненты!S144,"")</f>
         <v/>
       </c>
       <c r="S144" t="str">
-        <f>IF(Компоненты!S144&lt;&gt;"",Компоненты!S144,"")</f>
+        <f>IF(Компоненты!T144&lt;&gt;"",Компоненты!T144,"")</f>
         <v/>
       </c>
       <c r="T144" t="str">
-        <f>IF(Компоненты!T144&lt;&gt;"",Компоненты!T144,"")</f>
+        <f>IF(Компоненты!U144&lt;&gt;"",Компоненты!U144,"")</f>
         <v/>
       </c>
     </row>
@@ -18607,15 +18911,15 @@
         <v/>
       </c>
       <c r="R145" t="str">
-        <f>IF(Компоненты!R145&lt;&gt;"",Компоненты!R145,"")</f>
+        <f>IF(Компоненты!S145&lt;&gt;"",Компоненты!S145,"")</f>
         <v/>
       </c>
       <c r="S145" t="str">
-        <f>IF(Компоненты!S145&lt;&gt;"",Компоненты!S145,"")</f>
+        <f>IF(Компоненты!T145&lt;&gt;"",Компоненты!T145,"")</f>
         <v/>
       </c>
       <c r="T145" t="str">
-        <f>IF(Компоненты!T145&lt;&gt;"",Компоненты!T145,"")</f>
+        <f>IF(Компоненты!U145&lt;&gt;"",Компоненты!U145,"")</f>
         <v/>
       </c>
     </row>
@@ -18685,15 +18989,15 @@
         <v/>
       </c>
       <c r="R146" t="str">
-        <f>IF(Компоненты!R146&lt;&gt;"",Компоненты!R146,"")</f>
+        <f>IF(Компоненты!S146&lt;&gt;"",Компоненты!S146,"")</f>
         <v/>
       </c>
       <c r="S146" t="str">
-        <f>IF(Компоненты!S146&lt;&gt;"",Компоненты!S146,"")</f>
+        <f>IF(Компоненты!T146&lt;&gt;"",Компоненты!T146,"")</f>
         <v/>
       </c>
       <c r="T146" t="str">
-        <f>IF(Компоненты!T146&lt;&gt;"",Компоненты!T146,"")</f>
+        <f>IF(Компоненты!U146&lt;&gt;"",Компоненты!U146,"")</f>
         <v/>
       </c>
     </row>
@@ -18763,15 +19067,15 @@
         <v/>
       </c>
       <c r="R147" t="str">
-        <f>IF(Компоненты!R147&lt;&gt;"",Компоненты!R147,"")</f>
+        <f>IF(Компоненты!S147&lt;&gt;"",Компоненты!S147,"")</f>
         <v/>
       </c>
       <c r="S147" t="str">
-        <f>IF(Компоненты!S147&lt;&gt;"",Компоненты!S147,"")</f>
+        <f>IF(Компоненты!T147&lt;&gt;"",Компоненты!T147,"")</f>
         <v/>
       </c>
       <c r="T147" t="str">
-        <f>IF(Компоненты!T147&lt;&gt;"",Компоненты!T147,"")</f>
+        <f>IF(Компоненты!U147&lt;&gt;"",Компоненты!U147,"")</f>
         <v/>
       </c>
     </row>
@@ -18841,15 +19145,15 @@
         <v/>
       </c>
       <c r="R148" t="str">
-        <f>IF(Компоненты!R148&lt;&gt;"",Компоненты!R148,"")</f>
+        <f>IF(Компоненты!S148&lt;&gt;"",Компоненты!S148,"")</f>
         <v/>
       </c>
       <c r="S148" t="str">
-        <f>IF(Компоненты!S148&lt;&gt;"",Компоненты!S148,"")</f>
+        <f>IF(Компоненты!T148&lt;&gt;"",Компоненты!T148,"")</f>
         <v/>
       </c>
       <c r="T148" t="str">
-        <f>IF(Компоненты!T148&lt;&gt;"",Компоненты!T148,"")</f>
+        <f>IF(Компоненты!U148&lt;&gt;"",Компоненты!U148,"")</f>
         <v/>
       </c>
     </row>
@@ -18919,15 +19223,15 @@
         <v/>
       </c>
       <c r="R149" t="str">
-        <f>IF(Компоненты!R149&lt;&gt;"",Компоненты!R149,"")</f>
+        <f>IF(Компоненты!S149&lt;&gt;"",Компоненты!S149,"")</f>
         <v/>
       </c>
       <c r="S149" t="str">
-        <f>IF(Компоненты!S149&lt;&gt;"",Компоненты!S149,"")</f>
+        <f>IF(Компоненты!T149&lt;&gt;"",Компоненты!T149,"")</f>
         <v/>
       </c>
       <c r="T149" t="str">
-        <f>IF(Компоненты!T149&lt;&gt;"",Компоненты!T149,"")</f>
+        <f>IF(Компоненты!U149&lt;&gt;"",Компоненты!U149,"")</f>
         <v/>
       </c>
     </row>
@@ -18997,15 +19301,15 @@
         <v/>
       </c>
       <c r="R150" t="str">
-        <f>IF(Компоненты!R150&lt;&gt;"",Компоненты!R150,"")</f>
+        <f>IF(Компоненты!S150&lt;&gt;"",Компоненты!S150,"")</f>
         <v/>
       </c>
       <c r="S150" t="str">
-        <f>IF(Компоненты!S150&lt;&gt;"",Компоненты!S150,"")</f>
+        <f>IF(Компоненты!T150&lt;&gt;"",Компоненты!T150,"")</f>
         <v/>
       </c>
       <c r="T150" t="str">
-        <f>IF(Компоненты!T150&lt;&gt;"",Компоненты!T150,"")</f>
+        <f>IF(Компоненты!U150&lt;&gt;"",Компоненты!U150,"")</f>
         <v/>
       </c>
     </row>
@@ -19075,15 +19379,15 @@
         <v/>
       </c>
       <c r="R151" t="str">
-        <f>IF(Компоненты!R151&lt;&gt;"",Компоненты!R151,"")</f>
+        <f>IF(Компоненты!S151&lt;&gt;"",Компоненты!S151,"")</f>
         <v/>
       </c>
       <c r="S151" t="str">
-        <f>IF(Компоненты!S151&lt;&gt;"",Компоненты!S151,"")</f>
+        <f>IF(Компоненты!T151&lt;&gt;"",Компоненты!T151,"")</f>
         <v/>
       </c>
       <c r="T151" t="str">
-        <f>IF(Компоненты!T151&lt;&gt;"",Компоненты!T151,"")</f>
+        <f>IF(Компоненты!U151&lt;&gt;"",Компоненты!U151,"")</f>
         <v/>
       </c>
     </row>
@@ -19153,15 +19457,15 @@
         <v/>
       </c>
       <c r="R152" t="str">
-        <f>IF(Компоненты!R152&lt;&gt;"",Компоненты!R152,"")</f>
+        <f>IF(Компоненты!S152&lt;&gt;"",Компоненты!S152,"")</f>
         <v/>
       </c>
       <c r="S152" t="str">
-        <f>IF(Компоненты!S152&lt;&gt;"",Компоненты!S152,"")</f>
+        <f>IF(Компоненты!T152&lt;&gt;"",Компоненты!T152,"")</f>
         <v/>
       </c>
       <c r="T152" t="str">
-        <f>IF(Компоненты!T152&lt;&gt;"",Компоненты!T152,"")</f>
+        <f>IF(Компоненты!U152&lt;&gt;"",Компоненты!U152,"")</f>
         <v/>
       </c>
     </row>
@@ -19231,15 +19535,15 @@
         <v/>
       </c>
       <c r="R153" t="str">
-        <f>IF(Компоненты!R153&lt;&gt;"",Компоненты!R153,"")</f>
+        <f>IF(Компоненты!S153&lt;&gt;"",Компоненты!S153,"")</f>
         <v/>
       </c>
       <c r="S153" t="str">
-        <f>IF(Компоненты!S153&lt;&gt;"",Компоненты!S153,"")</f>
+        <f>IF(Компоненты!T153&lt;&gt;"",Компоненты!T153,"")</f>
         <v/>
       </c>
       <c r="T153" t="str">
-        <f>IF(Компоненты!T153&lt;&gt;"",Компоненты!T153,"")</f>
+        <f>IF(Компоненты!U153&lt;&gt;"",Компоненты!U153,"")</f>
         <v/>
       </c>
     </row>
@@ -19309,15 +19613,15 @@
         <v/>
       </c>
       <c r="R154" t="str">
-        <f>IF(Компоненты!R154&lt;&gt;"",Компоненты!R154,"")</f>
+        <f>IF(Компоненты!S154&lt;&gt;"",Компоненты!S154,"")</f>
         <v/>
       </c>
       <c r="S154" t="str">
-        <f>IF(Компоненты!S154&lt;&gt;"",Компоненты!S154,"")</f>
+        <f>IF(Компоненты!T154&lt;&gt;"",Компоненты!T154,"")</f>
         <v/>
       </c>
       <c r="T154" t="str">
-        <f>IF(Компоненты!T154&lt;&gt;"",Компоненты!T154,"")</f>
+        <f>IF(Компоненты!U154&lt;&gt;"",Компоненты!U154,"")</f>
         <v/>
       </c>
     </row>
@@ -19387,15 +19691,15 @@
         <v/>
       </c>
       <c r="R155" t="str">
-        <f>IF(Компоненты!R155&lt;&gt;"",Компоненты!R155,"")</f>
+        <f>IF(Компоненты!S155&lt;&gt;"",Компоненты!S155,"")</f>
         <v/>
       </c>
       <c r="S155" t="str">
-        <f>IF(Компоненты!S155&lt;&gt;"",Компоненты!S155,"")</f>
+        <f>IF(Компоненты!T155&lt;&gt;"",Компоненты!T155,"")</f>
         <v/>
       </c>
       <c r="T155" t="str">
-        <f>IF(Компоненты!T155&lt;&gt;"",Компоненты!T155,"")</f>
+        <f>IF(Компоненты!U155&lt;&gt;"",Компоненты!U155,"")</f>
         <v/>
       </c>
     </row>
@@ -19465,15 +19769,15 @@
         <v/>
       </c>
       <c r="R156" t="str">
-        <f>IF(Компоненты!R156&lt;&gt;"",Компоненты!R156,"")</f>
+        <f>IF(Компоненты!S156&lt;&gt;"",Компоненты!S156,"")</f>
         <v/>
       </c>
       <c r="S156" t="str">
-        <f>IF(Компоненты!S156&lt;&gt;"",Компоненты!S156,"")</f>
+        <f>IF(Компоненты!T156&lt;&gt;"",Компоненты!T156,"")</f>
         <v/>
       </c>
       <c r="T156" t="str">
-        <f>IF(Компоненты!T156&lt;&gt;"",Компоненты!T156,"")</f>
+        <f>IF(Компоненты!U156&lt;&gt;"",Компоненты!U156,"")</f>
         <v/>
       </c>
     </row>
@@ -19543,15 +19847,15 @@
         <v/>
       </c>
       <c r="R157" t="str">
-        <f>IF(Компоненты!R157&lt;&gt;"",Компоненты!R157,"")</f>
+        <f>IF(Компоненты!S157&lt;&gt;"",Компоненты!S157,"")</f>
         <v/>
       </c>
       <c r="S157" t="str">
-        <f>IF(Компоненты!S157&lt;&gt;"",Компоненты!S157,"")</f>
+        <f>IF(Компоненты!T157&lt;&gt;"",Компоненты!T157,"")</f>
         <v/>
       </c>
       <c r="T157" t="str">
-        <f>IF(Компоненты!T157&lt;&gt;"",Компоненты!T157,"")</f>
+        <f>IF(Компоненты!U157&lt;&gt;"",Компоненты!U157,"")</f>
         <v/>
       </c>
     </row>
@@ -19621,15 +19925,15 @@
         <v/>
       </c>
       <c r="R158" t="str">
-        <f>IF(Компоненты!R158&lt;&gt;"",Компоненты!R158,"")</f>
+        <f>IF(Компоненты!S158&lt;&gt;"",Компоненты!S158,"")</f>
         <v/>
       </c>
       <c r="S158" t="str">
-        <f>IF(Компоненты!S158&lt;&gt;"",Компоненты!S158,"")</f>
+        <f>IF(Компоненты!T158&lt;&gt;"",Компоненты!T158,"")</f>
         <v/>
       </c>
       <c r="T158" t="str">
-        <f>IF(Компоненты!T158&lt;&gt;"",Компоненты!T158,"")</f>
+        <f>IF(Компоненты!U158&lt;&gt;"",Компоненты!U158,"")</f>
         <v/>
       </c>
     </row>
@@ -19699,15 +20003,15 @@
         <v/>
       </c>
       <c r="R159" t="str">
-        <f>IF(Компоненты!R159&lt;&gt;"",Компоненты!R159,"")</f>
+        <f>IF(Компоненты!S159&lt;&gt;"",Компоненты!S159,"")</f>
         <v/>
       </c>
       <c r="S159" t="str">
-        <f>IF(Компоненты!S159&lt;&gt;"",Компоненты!S159,"")</f>
+        <f>IF(Компоненты!T159&lt;&gt;"",Компоненты!T159,"")</f>
         <v/>
       </c>
       <c r="T159" t="str">
-        <f>IF(Компоненты!T159&lt;&gt;"",Компоненты!T159,"")</f>
+        <f>IF(Компоненты!U159&lt;&gt;"",Компоненты!U159,"")</f>
         <v/>
       </c>
     </row>
@@ -19777,15 +20081,15 @@
         <v/>
       </c>
       <c r="R160" t="str">
-        <f>IF(Компоненты!R160&lt;&gt;"",Компоненты!R160,"")</f>
+        <f>IF(Компоненты!S160&lt;&gt;"",Компоненты!S160,"")</f>
         <v/>
       </c>
       <c r="S160" t="str">
-        <f>IF(Компоненты!S160&lt;&gt;"",Компоненты!S160,"")</f>
+        <f>IF(Компоненты!T160&lt;&gt;"",Компоненты!T160,"")</f>
         <v/>
       </c>
       <c r="T160" t="str">
-        <f>IF(Компоненты!T160&lt;&gt;"",Компоненты!T160,"")</f>
+        <f>IF(Компоненты!U160&lt;&gt;"",Компоненты!U160,"")</f>
         <v/>
       </c>
     </row>
@@ -19855,15 +20159,15 @@
         <v/>
       </c>
       <c r="R161" t="str">
-        <f>IF(Компоненты!R161&lt;&gt;"",Компоненты!R161,"")</f>
+        <f>IF(Компоненты!S161&lt;&gt;"",Компоненты!S161,"")</f>
         <v/>
       </c>
       <c r="S161" t="str">
-        <f>IF(Компоненты!S161&lt;&gt;"",Компоненты!S161,"")</f>
+        <f>IF(Компоненты!T161&lt;&gt;"",Компоненты!T161,"")</f>
         <v/>
       </c>
       <c r="T161" t="str">
-        <f>IF(Компоненты!T161&lt;&gt;"",Компоненты!T161,"")</f>
+        <f>IF(Компоненты!U161&lt;&gt;"",Компоненты!U161,"")</f>
         <v/>
       </c>
     </row>
@@ -19933,15 +20237,15 @@
         <v/>
       </c>
       <c r="R162" t="str">
-        <f>IF(Компоненты!R162&lt;&gt;"",Компоненты!R162,"")</f>
+        <f>IF(Компоненты!S162&lt;&gt;"",Компоненты!S162,"")</f>
         <v/>
       </c>
       <c r="S162" t="str">
-        <f>IF(Компоненты!S162&lt;&gt;"",Компоненты!S162,"")</f>
+        <f>IF(Компоненты!T162&lt;&gt;"",Компоненты!T162,"")</f>
         <v/>
       </c>
       <c r="T162" t="str">
-        <f>IF(Компоненты!T162&lt;&gt;"",Компоненты!T162,"")</f>
+        <f>IF(Компоненты!U162&lt;&gt;"",Компоненты!U162,"")</f>
         <v/>
       </c>
     </row>
@@ -20011,15 +20315,15 @@
         <v/>
       </c>
       <c r="R163" t="str">
-        <f>IF(Компоненты!R163&lt;&gt;"",Компоненты!R163,"")</f>
+        <f>IF(Компоненты!S163&lt;&gt;"",Компоненты!S163,"")</f>
         <v/>
       </c>
       <c r="S163" t="str">
-        <f>IF(Компоненты!S163&lt;&gt;"",Компоненты!S163,"")</f>
+        <f>IF(Компоненты!T163&lt;&gt;"",Компоненты!T163,"")</f>
         <v/>
       </c>
       <c r="T163" t="str">
-        <f>IF(Компоненты!T163&lt;&gt;"",Компоненты!T163,"")</f>
+        <f>IF(Компоненты!U163&lt;&gt;"",Компоненты!U163,"")</f>
         <v/>
       </c>
     </row>
@@ -20089,15 +20393,15 @@
         <v/>
       </c>
       <c r="R164" t="str">
-        <f>IF(Компоненты!R164&lt;&gt;"",Компоненты!R164,"")</f>
+        <f>IF(Компоненты!S164&lt;&gt;"",Компоненты!S164,"")</f>
         <v/>
       </c>
       <c r="S164" t="str">
-        <f>IF(Компоненты!S164&lt;&gt;"",Компоненты!S164,"")</f>
+        <f>IF(Компоненты!T164&lt;&gt;"",Компоненты!T164,"")</f>
         <v/>
       </c>
       <c r="T164" t="str">
-        <f>IF(Компоненты!T164&lt;&gt;"",Компоненты!T164,"")</f>
+        <f>IF(Компоненты!U164&lt;&gt;"",Компоненты!U164,"")</f>
         <v/>
       </c>
     </row>
@@ -20167,15 +20471,15 @@
         <v/>
       </c>
       <c r="R165" t="str">
-        <f>IF(Компоненты!R165&lt;&gt;"",Компоненты!R165,"")</f>
+        <f>IF(Компоненты!S165&lt;&gt;"",Компоненты!S165,"")</f>
         <v/>
       </c>
       <c r="S165" t="str">
-        <f>IF(Компоненты!S165&lt;&gt;"",Компоненты!S165,"")</f>
+        <f>IF(Компоненты!T165&lt;&gt;"",Компоненты!T165,"")</f>
         <v/>
       </c>
       <c r="T165" t="str">
-        <f>IF(Компоненты!T165&lt;&gt;"",Компоненты!T165,"")</f>
+        <f>IF(Компоненты!U165&lt;&gt;"",Компоненты!U165,"")</f>
         <v/>
       </c>
     </row>
@@ -20245,15 +20549,15 @@
         <v/>
       </c>
       <c r="R166" t="str">
-        <f>IF(Компоненты!R166&lt;&gt;"",Компоненты!R166,"")</f>
+        <f>IF(Компоненты!S166&lt;&gt;"",Компоненты!S166,"")</f>
         <v/>
       </c>
       <c r="S166" t="str">
-        <f>IF(Компоненты!S166&lt;&gt;"",Компоненты!S166,"")</f>
+        <f>IF(Компоненты!T166&lt;&gt;"",Компоненты!T166,"")</f>
         <v/>
       </c>
       <c r="T166" t="str">
-        <f>IF(Компоненты!T166&lt;&gt;"",Компоненты!T166,"")</f>
+        <f>IF(Компоненты!U166&lt;&gt;"",Компоненты!U166,"")</f>
         <v/>
       </c>
     </row>
@@ -20323,15 +20627,15 @@
         <v/>
       </c>
       <c r="R167" t="str">
-        <f>IF(Компоненты!R167&lt;&gt;"",Компоненты!R167,"")</f>
+        <f>IF(Компоненты!S167&lt;&gt;"",Компоненты!S167,"")</f>
         <v/>
       </c>
       <c r="S167" t="str">
-        <f>IF(Компоненты!S167&lt;&gt;"",Компоненты!S167,"")</f>
+        <f>IF(Компоненты!T167&lt;&gt;"",Компоненты!T167,"")</f>
         <v/>
       </c>
       <c r="T167" t="str">
-        <f>IF(Компоненты!T167&lt;&gt;"",Компоненты!T167,"")</f>
+        <f>IF(Компоненты!U167&lt;&gt;"",Компоненты!U167,"")</f>
         <v/>
       </c>
     </row>
@@ -20401,15 +20705,15 @@
         <v/>
       </c>
       <c r="R168" t="str">
-        <f>IF(Компоненты!R168&lt;&gt;"",Компоненты!R168,"")</f>
+        <f>IF(Компоненты!S168&lt;&gt;"",Компоненты!S168,"")</f>
         <v/>
       </c>
       <c r="S168" t="str">
-        <f>IF(Компоненты!S168&lt;&gt;"",Компоненты!S168,"")</f>
+        <f>IF(Компоненты!T168&lt;&gt;"",Компоненты!T168,"")</f>
         <v/>
       </c>
       <c r="T168" t="str">
-        <f>IF(Компоненты!T168&lt;&gt;"",Компоненты!T168,"")</f>
+        <f>IF(Компоненты!U168&lt;&gt;"",Компоненты!U168,"")</f>
         <v/>
       </c>
     </row>
@@ -20479,15 +20783,15 @@
         <v/>
       </c>
       <c r="R169" t="str">
-        <f>IF(Компоненты!R169&lt;&gt;"",Компоненты!R169,"")</f>
+        <f>IF(Компоненты!S169&lt;&gt;"",Компоненты!S169,"")</f>
         <v/>
       </c>
       <c r="S169" t="str">
-        <f>IF(Компоненты!S169&lt;&gt;"",Компоненты!S169,"")</f>
+        <f>IF(Компоненты!T169&lt;&gt;"",Компоненты!T169,"")</f>
         <v/>
       </c>
       <c r="T169" t="str">
-        <f>IF(Компоненты!T169&lt;&gt;"",Компоненты!T169,"")</f>
+        <f>IF(Компоненты!U169&lt;&gt;"",Компоненты!U169,"")</f>
         <v/>
       </c>
     </row>
@@ -20557,15 +20861,15 @@
         <v/>
       </c>
       <c r="R170" t="str">
-        <f>IF(Компоненты!R170&lt;&gt;"",Компоненты!R170,"")</f>
+        <f>IF(Компоненты!S170&lt;&gt;"",Компоненты!S170,"")</f>
         <v/>
       </c>
       <c r="S170" t="str">
-        <f>IF(Компоненты!S170&lt;&gt;"",Компоненты!S170,"")</f>
+        <f>IF(Компоненты!T170&lt;&gt;"",Компоненты!T170,"")</f>
         <v/>
       </c>
       <c r="T170" t="str">
-        <f>IF(Компоненты!T170&lt;&gt;"",Компоненты!T170,"")</f>
+        <f>IF(Компоненты!U170&lt;&gt;"",Компоненты!U170,"")</f>
         <v/>
       </c>
     </row>
@@ -20635,15 +20939,15 @@
         <v/>
       </c>
       <c r="R171" t="str">
-        <f>IF(Компоненты!R171&lt;&gt;"",Компоненты!R171,"")</f>
+        <f>IF(Компоненты!S171&lt;&gt;"",Компоненты!S171,"")</f>
         <v/>
       </c>
       <c r="S171" t="str">
-        <f>IF(Компоненты!S171&lt;&gt;"",Компоненты!S171,"")</f>
+        <f>IF(Компоненты!T171&lt;&gt;"",Компоненты!T171,"")</f>
         <v/>
       </c>
       <c r="T171" t="str">
-        <f>IF(Компоненты!T171&lt;&gt;"",Компоненты!T171,"")</f>
+        <f>IF(Компоненты!U171&lt;&gt;"",Компоненты!U171,"")</f>
         <v/>
       </c>
     </row>
@@ -20713,15 +21017,15 @@
         <v/>
       </c>
       <c r="R172" t="str">
-        <f>IF(Компоненты!R172&lt;&gt;"",Компоненты!R172,"")</f>
+        <f>IF(Компоненты!S172&lt;&gt;"",Компоненты!S172,"")</f>
         <v/>
       </c>
       <c r="S172" t="str">
-        <f>IF(Компоненты!S172&lt;&gt;"",Компоненты!S172,"")</f>
+        <f>IF(Компоненты!T172&lt;&gt;"",Компоненты!T172,"")</f>
         <v/>
       </c>
       <c r="T172" t="str">
-        <f>IF(Компоненты!T172&lt;&gt;"",Компоненты!T172,"")</f>
+        <f>IF(Компоненты!U172&lt;&gt;"",Компоненты!U172,"")</f>
         <v/>
       </c>
     </row>
@@ -20791,15 +21095,15 @@
         <v/>
       </c>
       <c r="R173" t="str">
-        <f>IF(Компоненты!R173&lt;&gt;"",Компоненты!R173,"")</f>
+        <f>IF(Компоненты!S173&lt;&gt;"",Компоненты!S173,"")</f>
         <v/>
       </c>
       <c r="S173" t="str">
-        <f>IF(Компоненты!S173&lt;&gt;"",Компоненты!S173,"")</f>
+        <f>IF(Компоненты!T173&lt;&gt;"",Компоненты!T173,"")</f>
         <v/>
       </c>
       <c r="T173" t="str">
-        <f>IF(Компоненты!T173&lt;&gt;"",Компоненты!T173,"")</f>
+        <f>IF(Компоненты!U173&lt;&gt;"",Компоненты!U173,"")</f>
         <v/>
       </c>
     </row>
@@ -20869,15 +21173,15 @@
         <v/>
       </c>
       <c r="R174" t="str">
-        <f>IF(Компоненты!R174&lt;&gt;"",Компоненты!R174,"")</f>
+        <f>IF(Компоненты!S174&lt;&gt;"",Компоненты!S174,"")</f>
         <v/>
       </c>
       <c r="S174" t="str">
-        <f>IF(Компоненты!S174&lt;&gt;"",Компоненты!S174,"")</f>
+        <f>IF(Компоненты!T174&lt;&gt;"",Компоненты!T174,"")</f>
         <v/>
       </c>
       <c r="T174" t="str">
-        <f>IF(Компоненты!T174&lt;&gt;"",Компоненты!T174,"")</f>
+        <f>IF(Компоненты!U174&lt;&gt;"",Компоненты!U174,"")</f>
         <v/>
       </c>
     </row>
@@ -20947,15 +21251,15 @@
         <v/>
       </c>
       <c r="R175" t="str">
-        <f>IF(Компоненты!R175&lt;&gt;"",Компоненты!R175,"")</f>
+        <f>IF(Компоненты!S175&lt;&gt;"",Компоненты!S175,"")</f>
         <v/>
       </c>
       <c r="S175" t="str">
-        <f>IF(Компоненты!S175&lt;&gt;"",Компоненты!S175,"")</f>
+        <f>IF(Компоненты!T175&lt;&gt;"",Компоненты!T175,"")</f>
         <v/>
       </c>
       <c r="T175" t="str">
-        <f>IF(Компоненты!T175&lt;&gt;"",Компоненты!T175,"")</f>
+        <f>IF(Компоненты!U175&lt;&gt;"",Компоненты!U175,"")</f>
         <v/>
       </c>
     </row>
@@ -21025,15 +21329,15 @@
         <v/>
       </c>
       <c r="R176" t="str">
-        <f>IF(Компоненты!R176&lt;&gt;"",Компоненты!R176,"")</f>
+        <f>IF(Компоненты!S176&lt;&gt;"",Компоненты!S176,"")</f>
         <v/>
       </c>
       <c r="S176" t="str">
-        <f>IF(Компоненты!S176&lt;&gt;"",Компоненты!S176,"")</f>
+        <f>IF(Компоненты!T176&lt;&gt;"",Компоненты!T176,"")</f>
         <v/>
       </c>
       <c r="T176" t="str">
-        <f>IF(Компоненты!T176&lt;&gt;"",Компоненты!T176,"")</f>
+        <f>IF(Компоненты!U176&lt;&gt;"",Компоненты!U176,"")</f>
         <v/>
       </c>
     </row>
@@ -21103,15 +21407,15 @@
         <v/>
       </c>
       <c r="R177" t="str">
-        <f>IF(Компоненты!R177&lt;&gt;"",Компоненты!R177,"")</f>
+        <f>IF(Компоненты!S177&lt;&gt;"",Компоненты!S177,"")</f>
         <v/>
       </c>
       <c r="S177" t="str">
-        <f>IF(Компоненты!S177&lt;&gt;"",Компоненты!S177,"")</f>
+        <f>IF(Компоненты!T177&lt;&gt;"",Компоненты!T177,"")</f>
         <v/>
       </c>
       <c r="T177" t="str">
-        <f>IF(Компоненты!T177&lt;&gt;"",Компоненты!T177,"")</f>
+        <f>IF(Компоненты!U177&lt;&gt;"",Компоненты!U177,"")</f>
         <v/>
       </c>
     </row>
@@ -21181,15 +21485,15 @@
         <v/>
       </c>
       <c r="R178" t="str">
-        <f>IF(Компоненты!R178&lt;&gt;"",Компоненты!R178,"")</f>
+        <f>IF(Компоненты!S178&lt;&gt;"",Компоненты!S178,"")</f>
         <v/>
       </c>
       <c r="S178" t="str">
-        <f>IF(Компоненты!S178&lt;&gt;"",Компоненты!S178,"")</f>
+        <f>IF(Компоненты!T178&lt;&gt;"",Компоненты!T178,"")</f>
         <v/>
       </c>
       <c r="T178" t="str">
-        <f>IF(Компоненты!T178&lt;&gt;"",Компоненты!T178,"")</f>
+        <f>IF(Компоненты!U178&lt;&gt;"",Компоненты!U178,"")</f>
         <v/>
       </c>
     </row>
@@ -21259,15 +21563,15 @@
         <v/>
       </c>
       <c r="R179" t="str">
-        <f>IF(Компоненты!R179&lt;&gt;"",Компоненты!R179,"")</f>
+        <f>IF(Компоненты!S179&lt;&gt;"",Компоненты!S179,"")</f>
         <v/>
       </c>
       <c r="S179" t="str">
-        <f>IF(Компоненты!S179&lt;&gt;"",Компоненты!S179,"")</f>
+        <f>IF(Компоненты!T179&lt;&gt;"",Компоненты!T179,"")</f>
         <v/>
       </c>
       <c r="T179" t="str">
-        <f>IF(Компоненты!T179&lt;&gt;"",Компоненты!T179,"")</f>
+        <f>IF(Компоненты!U179&lt;&gt;"",Компоненты!U179,"")</f>
         <v/>
       </c>
     </row>
@@ -21337,15 +21641,15 @@
         <v/>
       </c>
       <c r="R180" t="str">
-        <f>IF(Компоненты!R180&lt;&gt;"",Компоненты!R180,"")</f>
+        <f>IF(Компоненты!S180&lt;&gt;"",Компоненты!S180,"")</f>
         <v/>
       </c>
       <c r="S180" t="str">
-        <f>IF(Компоненты!S180&lt;&gt;"",Компоненты!S180,"")</f>
+        <f>IF(Компоненты!T180&lt;&gt;"",Компоненты!T180,"")</f>
         <v/>
       </c>
       <c r="T180" t="str">
-        <f>IF(Компоненты!T180&lt;&gt;"",Компоненты!T180,"")</f>
+        <f>IF(Компоненты!U180&lt;&gt;"",Компоненты!U180,"")</f>
         <v/>
       </c>
     </row>
@@ -21415,15 +21719,15 @@
         <v/>
       </c>
       <c r="R181" t="str">
-        <f>IF(Компоненты!R181&lt;&gt;"",Компоненты!R181,"")</f>
+        <f>IF(Компоненты!S181&lt;&gt;"",Компоненты!S181,"")</f>
         <v/>
       </c>
       <c r="S181" t="str">
-        <f>IF(Компоненты!S181&lt;&gt;"",Компоненты!S181,"")</f>
+        <f>IF(Компоненты!T181&lt;&gt;"",Компоненты!T181,"")</f>
         <v/>
       </c>
       <c r="T181" t="str">
-        <f>IF(Компоненты!T181&lt;&gt;"",Компоненты!T181,"")</f>
+        <f>IF(Компоненты!U181&lt;&gt;"",Компоненты!U181,"")</f>
         <v/>
       </c>
     </row>
@@ -21493,15 +21797,15 @@
         <v/>
       </c>
       <c r="R182" t="str">
-        <f>IF(Компоненты!R182&lt;&gt;"",Компоненты!R182,"")</f>
+        <f>IF(Компоненты!S182&lt;&gt;"",Компоненты!S182,"")</f>
         <v/>
       </c>
       <c r="S182" t="str">
-        <f>IF(Компоненты!S182&lt;&gt;"",Компоненты!S182,"")</f>
+        <f>IF(Компоненты!T182&lt;&gt;"",Компоненты!T182,"")</f>
         <v/>
       </c>
       <c r="T182" t="str">
-        <f>IF(Компоненты!T182&lt;&gt;"",Компоненты!T182,"")</f>
+        <f>IF(Компоненты!U182&lt;&gt;"",Компоненты!U182,"")</f>
         <v/>
       </c>
     </row>
@@ -21571,15 +21875,15 @@
         <v/>
       </c>
       <c r="R183" t="str">
-        <f>IF(Компоненты!R183&lt;&gt;"",Компоненты!R183,"")</f>
+        <f>IF(Компоненты!S183&lt;&gt;"",Компоненты!S183,"")</f>
         <v/>
       </c>
       <c r="S183" t="str">
-        <f>IF(Компоненты!S183&lt;&gt;"",Компоненты!S183,"")</f>
+        <f>IF(Компоненты!T183&lt;&gt;"",Компоненты!T183,"")</f>
         <v/>
       </c>
       <c r="T183" t="str">
-        <f>IF(Компоненты!T183&lt;&gt;"",Компоненты!T183,"")</f>
+        <f>IF(Компоненты!U183&lt;&gt;"",Компоненты!U183,"")</f>
         <v/>
       </c>
     </row>
@@ -21649,15 +21953,15 @@
         <v/>
       </c>
       <c r="R184" t="str">
-        <f>IF(Компоненты!R184&lt;&gt;"",Компоненты!R184,"")</f>
+        <f>IF(Компоненты!S184&lt;&gt;"",Компоненты!S184,"")</f>
         <v/>
       </c>
       <c r="S184" t="str">
-        <f>IF(Компоненты!S184&lt;&gt;"",Компоненты!S184,"")</f>
+        <f>IF(Компоненты!T184&lt;&gt;"",Компоненты!T184,"")</f>
         <v/>
       </c>
       <c r="T184" t="str">
-        <f>IF(Компоненты!T184&lt;&gt;"",Компоненты!T184,"")</f>
+        <f>IF(Компоненты!U184&lt;&gt;"",Компоненты!U184,"")</f>
         <v/>
       </c>
     </row>
@@ -21727,15 +22031,15 @@
         <v/>
       </c>
       <c r="R185" t="str">
-        <f>IF(Компоненты!R185&lt;&gt;"",Компоненты!R185,"")</f>
+        <f>IF(Компоненты!S185&lt;&gt;"",Компоненты!S185,"")</f>
         <v/>
       </c>
       <c r="S185" t="str">
-        <f>IF(Компоненты!S185&lt;&gt;"",Компоненты!S185,"")</f>
+        <f>IF(Компоненты!T185&lt;&gt;"",Компоненты!T185,"")</f>
         <v/>
       </c>
       <c r="T185" t="str">
-        <f>IF(Компоненты!T185&lt;&gt;"",Компоненты!T185,"")</f>
+        <f>IF(Компоненты!U185&lt;&gt;"",Компоненты!U185,"")</f>
         <v/>
       </c>
     </row>
@@ -21805,15 +22109,15 @@
         <v/>
       </c>
       <c r="R186" t="str">
-        <f>IF(Компоненты!R186&lt;&gt;"",Компоненты!R186,"")</f>
+        <f>IF(Компоненты!S186&lt;&gt;"",Компоненты!S186,"")</f>
         <v/>
       </c>
       <c r="S186" t="str">
-        <f>IF(Компоненты!S186&lt;&gt;"",Компоненты!S186,"")</f>
+        <f>IF(Компоненты!T186&lt;&gt;"",Компоненты!T186,"")</f>
         <v/>
       </c>
       <c r="T186" t="str">
-        <f>IF(Компоненты!T186&lt;&gt;"",Компоненты!T186,"")</f>
+        <f>IF(Компоненты!U186&lt;&gt;"",Компоненты!U186,"")</f>
         <v/>
       </c>
     </row>
@@ -21883,15 +22187,15 @@
         <v/>
       </c>
       <c r="R187" t="str">
-        <f>IF(Компоненты!R187&lt;&gt;"",Компоненты!R187,"")</f>
+        <f>IF(Компоненты!S187&lt;&gt;"",Компоненты!S187,"")</f>
         <v/>
       </c>
       <c r="S187" t="str">
-        <f>IF(Компоненты!S187&lt;&gt;"",Компоненты!S187,"")</f>
+        <f>IF(Компоненты!T187&lt;&gt;"",Компоненты!T187,"")</f>
         <v/>
       </c>
       <c r="T187" t="str">
-        <f>IF(Компоненты!T187&lt;&gt;"",Компоненты!T187,"")</f>
+        <f>IF(Компоненты!U187&lt;&gt;"",Компоненты!U187,"")</f>
         <v/>
       </c>
     </row>
@@ -21961,15 +22265,15 @@
         <v/>
       </c>
       <c r="R188" t="str">
-        <f>IF(Компоненты!R188&lt;&gt;"",Компоненты!R188,"")</f>
+        <f>IF(Компоненты!S188&lt;&gt;"",Компоненты!S188,"")</f>
         <v/>
       </c>
       <c r="S188" t="str">
-        <f>IF(Компоненты!S188&lt;&gt;"",Компоненты!S188,"")</f>
+        <f>IF(Компоненты!T188&lt;&gt;"",Компоненты!T188,"")</f>
         <v/>
       </c>
       <c r="T188" t="str">
-        <f>IF(Компоненты!T188&lt;&gt;"",Компоненты!T188,"")</f>
+        <f>IF(Компоненты!U188&lt;&gt;"",Компоненты!U188,"")</f>
         <v/>
       </c>
     </row>
@@ -22039,15 +22343,15 @@
         <v/>
       </c>
       <c r="R189" t="str">
-        <f>IF(Компоненты!R189&lt;&gt;"",Компоненты!R189,"")</f>
+        <f>IF(Компоненты!S189&lt;&gt;"",Компоненты!S189,"")</f>
         <v/>
       </c>
       <c r="S189" t="str">
-        <f>IF(Компоненты!S189&lt;&gt;"",Компоненты!S189,"")</f>
+        <f>IF(Компоненты!T189&lt;&gt;"",Компоненты!T189,"")</f>
         <v/>
       </c>
       <c r="T189" t="str">
-        <f>IF(Компоненты!T189&lt;&gt;"",Компоненты!T189,"")</f>
+        <f>IF(Компоненты!U189&lt;&gt;"",Компоненты!U189,"")</f>
         <v/>
       </c>
     </row>
@@ -22117,15 +22421,15 @@
         <v/>
       </c>
       <c r="R190" t="str">
-        <f>IF(Компоненты!R190&lt;&gt;"",Компоненты!R190,"")</f>
+        <f>IF(Компоненты!S190&lt;&gt;"",Компоненты!S190,"")</f>
         <v/>
       </c>
       <c r="S190" t="str">
-        <f>IF(Компоненты!S190&lt;&gt;"",Компоненты!S190,"")</f>
+        <f>IF(Компоненты!T190&lt;&gt;"",Компоненты!T190,"")</f>
         <v/>
       </c>
       <c r="T190" t="str">
-        <f>IF(Компоненты!T190&lt;&gt;"",Компоненты!T190,"")</f>
+        <f>IF(Компоненты!U190&lt;&gt;"",Компоненты!U190,"")</f>
         <v/>
       </c>
     </row>
@@ -22195,15 +22499,15 @@
         <v/>
       </c>
       <c r="R191" t="str">
-        <f>IF(Компоненты!R191&lt;&gt;"",Компоненты!R191,"")</f>
+        <f>IF(Компоненты!S191&lt;&gt;"",Компоненты!S191,"")</f>
         <v/>
       </c>
       <c r="S191" t="str">
-        <f>IF(Компоненты!S191&lt;&gt;"",Компоненты!S191,"")</f>
+        <f>IF(Компоненты!T191&lt;&gt;"",Компоненты!T191,"")</f>
         <v/>
       </c>
       <c r="T191" t="str">
-        <f>IF(Компоненты!T191&lt;&gt;"",Компоненты!T191,"")</f>
+        <f>IF(Компоненты!U191&lt;&gt;"",Компоненты!U191,"")</f>
         <v/>
       </c>
     </row>
@@ -22273,15 +22577,15 @@
         <v/>
       </c>
       <c r="R192" t="str">
-        <f>IF(Компоненты!R192&lt;&gt;"",Компоненты!R192,"")</f>
+        <f>IF(Компоненты!S192&lt;&gt;"",Компоненты!S192,"")</f>
         <v/>
       </c>
       <c r="S192" t="str">
-        <f>IF(Компоненты!S192&lt;&gt;"",Компоненты!S192,"")</f>
+        <f>IF(Компоненты!T192&lt;&gt;"",Компоненты!T192,"")</f>
         <v/>
       </c>
       <c r="T192" t="str">
-        <f>IF(Компоненты!T192&lt;&gt;"",Компоненты!T192,"")</f>
+        <f>IF(Компоненты!U192&lt;&gt;"",Компоненты!U192,"")</f>
         <v/>
       </c>
     </row>
@@ -22351,15 +22655,15 @@
         <v/>
       </c>
       <c r="R193" t="str">
-        <f>IF(Компоненты!R193&lt;&gt;"",Компоненты!R193,"")</f>
+        <f>IF(Компоненты!S193&lt;&gt;"",Компоненты!S193,"")</f>
         <v/>
       </c>
       <c r="S193" t="str">
-        <f>IF(Компоненты!S193&lt;&gt;"",Компоненты!S193,"")</f>
+        <f>IF(Компоненты!T193&lt;&gt;"",Компоненты!T193,"")</f>
         <v/>
       </c>
       <c r="T193" t="str">
-        <f>IF(Компоненты!T193&lt;&gt;"",Компоненты!T193,"")</f>
+        <f>IF(Компоненты!U193&lt;&gt;"",Компоненты!U193,"")</f>
         <v/>
       </c>
     </row>
@@ -22429,15 +22733,15 @@
         <v/>
       </c>
       <c r="R194" t="str">
-        <f>IF(Компоненты!R194&lt;&gt;"",Компоненты!R194,"")</f>
+        <f>IF(Компоненты!S194&lt;&gt;"",Компоненты!S194,"")</f>
         <v/>
       </c>
       <c r="S194" t="str">
-        <f>IF(Компоненты!S194&lt;&gt;"",Компоненты!S194,"")</f>
+        <f>IF(Компоненты!T194&lt;&gt;"",Компоненты!T194,"")</f>
         <v/>
       </c>
       <c r="T194" t="str">
-        <f>IF(Компоненты!T194&lt;&gt;"",Компоненты!T194,"")</f>
+        <f>IF(Компоненты!U194&lt;&gt;"",Компоненты!U194,"")</f>
         <v/>
       </c>
     </row>
@@ -22507,15 +22811,15 @@
         <v/>
       </c>
       <c r="R195" t="str">
-        <f>IF(Компоненты!R195&lt;&gt;"",Компоненты!R195,"")</f>
+        <f>IF(Компоненты!S195&lt;&gt;"",Компоненты!S195,"")</f>
         <v/>
       </c>
       <c r="S195" t="str">
-        <f>IF(Компоненты!S195&lt;&gt;"",Компоненты!S195,"")</f>
+        <f>IF(Компоненты!T195&lt;&gt;"",Компоненты!T195,"")</f>
         <v/>
       </c>
       <c r="T195" t="str">
-        <f>IF(Компоненты!T195&lt;&gt;"",Компоненты!T195,"")</f>
+        <f>IF(Компоненты!U195&lt;&gt;"",Компоненты!U195,"")</f>
         <v/>
       </c>
     </row>
@@ -22585,15 +22889,15 @@
         <v/>
       </c>
       <c r="R196" t="str">
-        <f>IF(Компоненты!R196&lt;&gt;"",Компоненты!R196,"")</f>
+        <f>IF(Компоненты!S196&lt;&gt;"",Компоненты!S196,"")</f>
         <v/>
       </c>
       <c r="S196" t="str">
-        <f>IF(Компоненты!S196&lt;&gt;"",Компоненты!S196,"")</f>
+        <f>IF(Компоненты!T196&lt;&gt;"",Компоненты!T196,"")</f>
         <v/>
       </c>
       <c r="T196" t="str">
-        <f>IF(Компоненты!T196&lt;&gt;"",Компоненты!T196,"")</f>
+        <f>IF(Компоненты!U196&lt;&gt;"",Компоненты!U196,"")</f>
         <v/>
       </c>
     </row>
@@ -22663,15 +22967,15 @@
         <v/>
       </c>
       <c r="R197" t="str">
-        <f>IF(Компоненты!R197&lt;&gt;"",Компоненты!R197,"")</f>
+        <f>IF(Компоненты!S197&lt;&gt;"",Компоненты!S197,"")</f>
         <v/>
       </c>
       <c r="S197" t="str">
-        <f>IF(Компоненты!S197&lt;&gt;"",Компоненты!S197,"")</f>
+        <f>IF(Компоненты!T197&lt;&gt;"",Компоненты!T197,"")</f>
         <v/>
       </c>
       <c r="T197" t="str">
-        <f>IF(Компоненты!T197&lt;&gt;"",Компоненты!T197,"")</f>
+        <f>IF(Компоненты!U197&lt;&gt;"",Компоненты!U197,"")</f>
         <v/>
       </c>
     </row>
@@ -22741,15 +23045,15 @@
         <v/>
       </c>
       <c r="R198" t="str">
-        <f>IF(Компоненты!R198&lt;&gt;"",Компоненты!R198,"")</f>
+        <f>IF(Компоненты!S198&lt;&gt;"",Компоненты!S198,"")</f>
         <v/>
       </c>
       <c r="S198" t="str">
-        <f>IF(Компоненты!S198&lt;&gt;"",Компоненты!S198,"")</f>
+        <f>IF(Компоненты!T198&lt;&gt;"",Компоненты!T198,"")</f>
         <v/>
       </c>
       <c r="T198" t="str">
-        <f>IF(Компоненты!T198&lt;&gt;"",Компоненты!T198,"")</f>
+        <f>IF(Компоненты!U198&lt;&gt;"",Компоненты!U198,"")</f>
         <v/>
       </c>
     </row>
@@ -22819,15 +23123,15 @@
         <v/>
       </c>
       <c r="R199" t="str">
-        <f>IF(Компоненты!R199&lt;&gt;"",Компоненты!R199,"")</f>
+        <f>IF(Компоненты!S199&lt;&gt;"",Компоненты!S199,"")</f>
         <v/>
       </c>
       <c r="S199" t="str">
-        <f>IF(Компоненты!S199&lt;&gt;"",Компоненты!S199,"")</f>
+        <f>IF(Компоненты!T199&lt;&gt;"",Компоненты!T199,"")</f>
         <v/>
       </c>
       <c r="T199" t="str">
-        <f>IF(Компоненты!T199&lt;&gt;"",Компоненты!T199,"")</f>
+        <f>IF(Компоненты!U199&lt;&gt;"",Компоненты!U199,"")</f>
         <v/>
       </c>
     </row>
@@ -22897,15 +23201,15 @@
         <v/>
       </c>
       <c r="R200" t="str">
-        <f>IF(Компоненты!R200&lt;&gt;"",Компоненты!R200,"")</f>
+        <f>IF(Компоненты!S200&lt;&gt;"",Компоненты!S200,"")</f>
         <v/>
       </c>
       <c r="S200" t="str">
-        <f>IF(Компоненты!S200&lt;&gt;"",Компоненты!S200,"")</f>
+        <f>IF(Компоненты!T200&lt;&gt;"",Компоненты!T200,"")</f>
         <v/>
       </c>
       <c r="T200" t="str">
-        <f>IF(Компоненты!T200&lt;&gt;"",Компоненты!T200,"")</f>
+        <f>IF(Компоненты!U200&lt;&gt;"",Компоненты!U200,"")</f>
         <v/>
       </c>
     </row>

--- a/db/Base.xlsx
+++ b/db/Base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000" activeTab="3"/>
+    <workbookView windowWidth="27948" windowHeight="12240" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры_компонентов" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="433">
   <si>
     <t>На этом листе собраны возможные значения параметров, описывающих типы компонентов nanoCAD BIM Вентиляция</t>
   </si>
@@ -1360,13 +1360,13 @@
   </si>
   <si>
     <t>Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров.
-В тройнике также параметризуются вылеты (прямые участки) для отвода и для магистрали.</t>
+В тройнике также параметризуются вылеты (прямые участки) для отвода и для магистрали. В данном тройнике параметризованы вылеты (прямые участки) магистрали относительно отвода и отвода относительно магистрали.</t>
   </si>
   <si>
     <t>(100x100)x(100x100)...(200x200)x(200x200), (800x200)x(100x100)...(800x200)x(200x200)</t>
   </si>
   <si>
-    <t>56f9915dd3d1a96ff8514fc29d16b374</t>
+    <t>f956a87a69d7fe27299e34d6b80b87db</t>
   </si>
   <si>
     <t>90°, параметрический</t>
@@ -1398,6 +1398,16 @@
   </si>
   <si>
     <t>fabb9d3f84dd0d24837307a25eca606f</t>
+  </si>
+  <si>
+    <t>6ac622492909a14fe1ef51d9d59e89a1</t>
+  </si>
+  <si>
+    <t>1197af013018aca6733b9b7e25c234dc</t>
+  </si>
+  <si>
+    <t>Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров.
+В тройнике также параметризуются вылеты (прямые участки) для отвода и для магистрали. В данной крестовине параметризованы вылеты (прямые участки) магистрали относительно отводов и вылеты отводов относительно магистрали.</t>
   </si>
 </sst>
 </file>
@@ -2092,7 +2102,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2116,9 +2126,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2789,7 +2796,7 @@
   <sheetData>
     <row r="1" ht="15.15"/>
     <row r="2" customFormat="1" ht="88" customHeight="1" spans="2:2">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2803,68 +2810,68 @@
       <c r="B5" s="5"/>
     </row>
     <row r="6" ht="15.15"/>
-    <row r="7" s="10" customFormat="1" spans="2:11">
-      <c r="B7" s="16" t="s">
+    <row r="7" s="9" customFormat="1" spans="2:11">
+      <c r="B7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
@@ -2873,91 +2880,91 @@
       <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" ht="15.15" spans="2:11">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D16" t="s">
@@ -2968,18 +2975,18 @@
       </c>
     </row>
     <row r="17" spans="4:5">
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="4:5">
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3000,18 +3007,18 @@
       </c>
     </row>
     <row r="21" spans="4:5">
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="4:5">
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3019,7 +3026,7 @@
       <c r="D23" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3027,7 +3034,7 @@
       <c r="D24" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3035,7 +3042,7 @@
       <c r="D25" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3043,7 +3050,7 @@
       <c r="D26" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3051,7 +3058,7 @@
       <c r="D27" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3059,7 +3066,7 @@
       <c r="D28" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3112,7 +3119,7 @@
       </c>
     </row>
     <row r="35" spans="4:5">
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="18" t="s">
         <v>46</v>
       </c>
       <c r="E35" t="s">
@@ -3120,10 +3127,10 @@
       </c>
     </row>
     <row r="41" spans="4:5">
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="18">
         <f>SUBTOTAL(103,Таблица_Привязка_категорий[Категория_сайта])</f>
         <v>28</v>
       </c>
@@ -3162,13 +3169,13 @@
   <sheetData>
     <row r="1" ht="15.15"/>
     <row r="2" ht="29.55" spans="2:2">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" ht="15.15"/>
     <row r="4" spans="2:3">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>49</v>
       </c>
       <c r="C4" t="s">
@@ -3176,39 +3183,39 @@
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3246,7 +3253,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3263,27 +3270,27 @@
       <c r="E4" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="2:10">
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>64</v>
       </c>
       <c r="D5" t="s">
@@ -3295,11 +3302,11 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="13" t="str">
+      <c r="G5" s="12" t="str">
         <f>IF(ISTEXT(F5),VLOOKUP(F5,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Арматура воздуховодов</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I5" t="s">
@@ -3310,7 +3317,7 @@
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="2:10">
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>2</v>
       </c>
       <c r="C6" t="s">
@@ -3325,11 +3332,11 @@
       <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="13" t="str">
+      <c r="G6" s="12" t="str">
         <f>IF(ISTEXT(F6),VLOOKUP(F6,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Оборудование</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I6" t="s">
@@ -3355,11 +3362,11 @@
       <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="13" t="str">
+      <c r="G7" s="12" t="str">
         <f>IF(ISTEXT(F7),VLOOKUP(F7,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Не применимо</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="I7" t="s">
@@ -3370,7 +3377,7 @@
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="2:10">
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -3385,11 +3392,11 @@
       <c r="F8" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="13" t="str">
+      <c r="G8" s="12" t="str">
         <f>IF(ISTEXT(F8),VLOOKUP(F8,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Элементы воздуховодов</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="I8" t="s">
@@ -3400,7 +3407,7 @@
       </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="2:10">
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -3415,11 +3422,11 @@
       <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="13" t="str">
+      <c r="G9" s="12" t="str">
         <f>IF(ISTEXT(F9),VLOOKUP(F9,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Не применимо</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I9" t="s">
@@ -3445,11 +3452,11 @@
       <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="13" t="str">
+      <c r="G10" s="12" t="str">
         <f>IF(ISTEXT(F10),VLOOKUP(F10,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Воздухораспределители</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I10" t="s">
@@ -3460,7 +3467,7 @@
       </c>
     </row>
     <row r="11" ht="25" customHeight="1" spans="2:10">
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -3475,11 +3482,11 @@
       <c r="F11" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="13" t="str">
+      <c r="G11" s="12" t="str">
         <f>IF(ISTEXT(F11),VLOOKUP(F11,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Оборудование</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I11" t="s">
@@ -3490,7 +3497,7 @@
       </c>
     </row>
     <row r="12" ht="25" customHeight="1" spans="2:10">
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -3505,11 +3512,11 @@
       <c r="F12" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="13" t="str">
+      <c r="G12" s="12" t="str">
         <f>IF(ISTEXT(F12),VLOOKUP(F12,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Не применимо</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I12" t="s">
@@ -3535,11 +3542,11 @@
       <c r="F13" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="13" t="str">
+      <c r="G13" s="12" t="str">
         <f>IF(ISTEXT(F13),VLOOKUP(F13,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Оборудование</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I13" t="s">
@@ -3550,7 +3557,7 @@
       </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="2:10">
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>10</v>
       </c>
       <c r="C14" t="s">
@@ -3565,11 +3572,11 @@
       <c r="F14" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="13" t="str">
+      <c r="G14" s="12" t="str">
         <f>IF(ISTEXT(F14),VLOOKUP(F14,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Аннотации</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="12" t="s">
         <v>6</v>
       </c>
       <c r="I14" t="s">
@@ -3580,7 +3587,7 @@
       </c>
     </row>
     <row r="15" ht="25" customHeight="1" spans="2:10">
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -3595,10 +3602,10 @@
       <c r="F15" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I15" t="s">
@@ -3624,10 +3631,10 @@
       <c r="F16" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="12" t="s">
         <v>21</v>
       </c>
       <c r="I16" t="s">
@@ -3638,7 +3645,7 @@
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>13</v>
       </c>
       <c r="C17" t="s">
@@ -3653,10 +3660,10 @@
       <c r="F17" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I17" t="s">
@@ -3667,52 +3674,52 @@
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="14"/>
-      <c r="G18" s="13" t="str">
+      <c r="B18" s="13"/>
+      <c r="G18" s="12" t="str">
         <f>IF(ISTEXT(F18),VLOOKUP(F18,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="14"/>
-      <c r="G19" s="13" t="str">
+      <c r="B19" s="13"/>
+      <c r="G19" s="12" t="str">
         <f>IF(ISTEXT(F19),VLOOKUP(F19,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="14"/>
-      <c r="G20" s="13" t="str">
+      <c r="B20" s="13"/>
+      <c r="G20" s="12" t="str">
         <f>IF(ISTEXT(F20),VLOOKUP(F20,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="14"/>
+      <c r="B21" s="13"/>
       <c r="G21" t="str">
         <f>IF(ISTEXT(F21),VLOOKUP(F21,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="14"/>
+      <c r="B22" s="13"/>
       <c r="G22" t="str">
         <f>IF(ISTEXT(F22),VLOOKUP(F22,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="14"/>
+      <c r="B23" s="13"/>
       <c r="G23" t="str">
         <f>IF(ISTEXT(F23),VLOOKUP(F23,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="14"/>
+      <c r="B24" s="13"/>
       <c r="G24" t="str">
         <f>IF(ISTEXT(F24),VLOOKUP(F24,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
@@ -3749,8 +3756,8 @@
   <sheetPr/>
   <dimension ref="B4:U105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105:U105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -7566,7 +7573,7 @@
       <c r="K97" t="s">
         <v>21</v>
       </c>
-      <c r="L97" s="8" t="s">
+      <c r="L97" s="5" t="s">
         <v>418</v>
       </c>
       <c r="N97" s="4" t="s">
@@ -7607,7 +7614,7 @@
       <c r="K98" t="s">
         <v>21</v>
       </c>
-      <c r="L98" s="8" t="s">
+      <c r="L98" s="5" t="s">
         <v>422</v>
       </c>
       <c r="N98" s="4" t="s">
@@ -7648,7 +7655,7 @@
       <c r="K99" t="s">
         <v>21</v>
       </c>
-      <c r="L99" s="8" t="s">
+      <c r="L99" s="5" t="s">
         <v>425</v>
       </c>
       <c r="N99" s="4" t="s">
@@ -7689,7 +7696,7 @@
       <c r="K100" t="s">
         <v>21</v>
       </c>
-      <c r="L100" s="8" t="s">
+      <c r="L100" s="5" t="s">
         <v>428</v>
       </c>
       <c r="N100" s="4" t="s">
@@ -7730,7 +7737,7 @@
       <c r="K101" t="s">
         <v>21</v>
       </c>
-      <c r="L101" s="8" t="s">
+      <c r="L101" s="5" t="s">
         <v>428</v>
       </c>
       <c r="N101" s="4" t="s">
@@ -7738,15 +7745,84 @@
       </c>
       <c r="O101" s="5"/>
     </row>
-    <row r="102" ht="15" customHeight="1" spans="5:15">
-      <c r="E102" s="2"/>
-      <c r="N102" s="4"/>
-      <c r="O102" s="5"/>
-    </row>
-    <row r="103" ht="15" customHeight="1" spans="5:15">
-      <c r="E103" s="2"/>
-      <c r="N103" s="4"/>
-      <c r="O103" s="5"/>
+    <row r="102" ht="15" customHeight="1" spans="2:15">
+      <c r="B102" s="1">
+        <v>99</v>
+      </c>
+      <c r="C102" t="s">
+        <v>39</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F102" t="s">
+        <v>22</v>
+      </c>
+      <c r="G102" t="s">
+        <v>39</v>
+      </c>
+      <c r="I102" t="s">
+        <v>19</v>
+      </c>
+      <c r="J102" t="s">
+        <v>29</v>
+      </c>
+      <c r="K102" t="s">
+        <v>21</v>
+      </c>
+      <c r="L102" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="N102" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="O102" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="103" ht="15" customHeight="1" spans="2:15">
+      <c r="B103" s="1">
+        <v>100</v>
+      </c>
+      <c r="C103" t="s">
+        <v>40</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F103" t="s">
+        <v>22</v>
+      </c>
+      <c r="G103" t="s">
+        <v>40</v>
+      </c>
+      <c r="H103" t="s">
+        <v>303</v>
+      </c>
+      <c r="I103" t="s">
+        <v>19</v>
+      </c>
+      <c r="J103" t="s">
+        <v>29</v>
+      </c>
+      <c r="K103" t="s">
+        <v>21</v>
+      </c>
+      <c r="L103" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="N103" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="O103" s="5" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="104" ht="15" customHeight="1" spans="5:15">
       <c r="E104" s="2"/>
@@ -7760,7 +7836,7 @@
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P99:U99;Q100:U100;R101:U101;S102:U102;T103:U103;P100:P105;Q101:Q105;R102:R105;S103:S105;P97:U98;P5:U93;T104:U105">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q100:U100;R101:U101;P100:P105;Q101:Q105;P5:U93;P97:U99;R102:U105">
       <formula1>"ДА"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F86;F97:F105">
@@ -7792,8 +7868,8 @@
   <sheetPr/>
   <dimension ref="B4:T200"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -7868,16 +7944,16 @@
         <v>st_steel</v>
       </c>
       <c r="R4" t="str">
+        <f>IF(Компоненты!R4&lt;&gt;"",Компоненты!R4,"")</f>
+        <v>cbn_steel</v>
+      </c>
+      <c r="S4" t="str">
         <f>IF(Компоненты!S4&lt;&gt;"",Компоненты!S4,"")</f>
         <v>aluminium</v>
       </c>
-      <c r="S4" t="str">
+      <c r="T4" t="str">
         <f>IF(Компоненты!T4&lt;&gt;"",Компоненты!T4,"")</f>
         <v>copper</v>
-      </c>
-      <c r="T4" t="str">
-        <f>IF(Компоненты!U4&lt;&gt;"",Компоненты!U4,"")</f>
-        <v>plastmass</v>
       </c>
     </row>
     <row r="5" spans="2:20">
@@ -7946,16 +8022,16 @@
         <v/>
       </c>
       <c r="R5" t="str">
+        <f>IF(Компоненты!R5&lt;&gt;"",Компоненты!R5,"")</f>
+        <v/>
+      </c>
+      <c r="S5" t="str">
         <f>IF(Компоненты!S5&lt;&gt;"",Компоненты!S5,"")</f>
         <v/>
       </c>
-      <c r="S5" t="str">
+      <c r="T5" t="str">
         <f>IF(Компоненты!T5&lt;&gt;"",Компоненты!T5,"")</f>
         <v/>
-      </c>
-      <c r="T5" t="str">
-        <f>IF(Компоненты!U5&lt;&gt;"",Компоненты!U5,"")</f>
-        <v>ДА</v>
       </c>
     </row>
     <row r="6" spans="2:20">
@@ -8024,15 +8100,15 @@
         <v/>
       </c>
       <c r="R6" t="str">
+        <f>IF(Компоненты!R6&lt;&gt;"",Компоненты!R6,"")</f>
+        <v/>
+      </c>
+      <c r="S6" t="str">
         <f>IF(Компоненты!S6&lt;&gt;"",Компоненты!S6,"")</f>
         <v>ДА</v>
       </c>
-      <c r="S6" t="str">
+      <c r="T6" t="str">
         <f>IF(Компоненты!T6&lt;&gt;"",Компоненты!T6,"")</f>
-        <v/>
-      </c>
-      <c r="T6" t="str">
-        <f>IF(Компоненты!U6&lt;&gt;"",Компоненты!U6,"")</f>
         <v/>
       </c>
     </row>
@@ -8105,15 +8181,15 @@
         <v>ДА</v>
       </c>
       <c r="R7" t="str">
+        <f>IF(Компоненты!R7&lt;&gt;"",Компоненты!R7,"")</f>
+        <v/>
+      </c>
+      <c r="S7" t="str">
         <f>IF(Компоненты!S7&lt;&gt;"",Компоненты!S7,"")</f>
         <v/>
       </c>
-      <c r="S7" t="str">
+      <c r="T7" t="str">
         <f>IF(Компоненты!T7&lt;&gt;"",Компоненты!T7,"")</f>
-        <v/>
-      </c>
-      <c r="T7" t="str">
-        <f>IF(Компоненты!U7&lt;&gt;"",Компоненты!U7,"")</f>
         <v/>
       </c>
     </row>
@@ -8185,15 +8261,15 @@
         <v>ДА</v>
       </c>
       <c r="R8" t="str">
+        <f>IF(Компоненты!R8&lt;&gt;"",Компоненты!R8,"")</f>
+        <v/>
+      </c>
+      <c r="S8" t="str">
         <f>IF(Компоненты!S8&lt;&gt;"",Компоненты!S8,"")</f>
         <v/>
       </c>
-      <c r="S8" t="str">
+      <c r="T8" t="str">
         <f>IF(Компоненты!T8&lt;&gt;"",Компоненты!T8,"")</f>
-        <v/>
-      </c>
-      <c r="T8" t="str">
-        <f>IF(Компоненты!U8&lt;&gt;"",Компоненты!U8,"")</f>
         <v/>
       </c>
     </row>
@@ -8265,15 +8341,15 @@
         <v>ДА</v>
       </c>
       <c r="R9" t="str">
+        <f>IF(Компоненты!R9&lt;&gt;"",Компоненты!R9,"")</f>
+        <v/>
+      </c>
+      <c r="S9" t="str">
         <f>IF(Компоненты!S9&lt;&gt;"",Компоненты!S9,"")</f>
         <v/>
       </c>
-      <c r="S9" t="str">
+      <c r="T9" t="str">
         <f>IF(Компоненты!T9&lt;&gt;"",Компоненты!T9,"")</f>
-        <v/>
-      </c>
-      <c r="T9" t="str">
-        <f>IF(Компоненты!U9&lt;&gt;"",Компоненты!U9,"")</f>
         <v/>
       </c>
     </row>
@@ -8345,15 +8421,15 @@
         <v>ДА</v>
       </c>
       <c r="R10" t="str">
+        <f>IF(Компоненты!R10&lt;&gt;"",Компоненты!R10,"")</f>
+        <v/>
+      </c>
+      <c r="S10" t="str">
         <f>IF(Компоненты!S10&lt;&gt;"",Компоненты!S10,"")</f>
         <v/>
       </c>
-      <c r="S10" t="str">
+      <c r="T10" t="str">
         <f>IF(Компоненты!T10&lt;&gt;"",Компоненты!T10,"")</f>
-        <v/>
-      </c>
-      <c r="T10" t="str">
-        <f>IF(Компоненты!U10&lt;&gt;"",Компоненты!U10,"")</f>
         <v/>
       </c>
     </row>
@@ -8425,15 +8501,15 @@
         <v>ДА</v>
       </c>
       <c r="R11" t="str">
+        <f>IF(Компоненты!R11&lt;&gt;"",Компоненты!R11,"")</f>
+        <v/>
+      </c>
+      <c r="S11" t="str">
         <f>IF(Компоненты!S11&lt;&gt;"",Компоненты!S11,"")</f>
         <v/>
       </c>
-      <c r="S11" t="str">
+      <c r="T11" t="str">
         <f>IF(Компоненты!T11&lt;&gt;"",Компоненты!T11,"")</f>
-        <v/>
-      </c>
-      <c r="T11" t="str">
-        <f>IF(Компоненты!U11&lt;&gt;"",Компоненты!U11,"")</f>
         <v/>
       </c>
     </row>
@@ -8505,15 +8581,15 @@
         <v>ДА</v>
       </c>
       <c r="R12" t="str">
+        <f>IF(Компоненты!R12&lt;&gt;"",Компоненты!R12,"")</f>
+        <v/>
+      </c>
+      <c r="S12" t="str">
         <f>IF(Компоненты!S12&lt;&gt;"",Компоненты!S12,"")</f>
         <v/>
       </c>
-      <c r="S12" t="str">
+      <c r="T12" t="str">
         <f>IF(Компоненты!T12&lt;&gt;"",Компоненты!T12,"")</f>
-        <v/>
-      </c>
-      <c r="T12" t="str">
-        <f>IF(Компоненты!U12&lt;&gt;"",Компоненты!U12,"")</f>
         <v/>
       </c>
     </row>
@@ -8585,15 +8661,15 @@
         <v>ДА</v>
       </c>
       <c r="R13" t="str">
+        <f>IF(Компоненты!R13&lt;&gt;"",Компоненты!R13,"")</f>
+        <v/>
+      </c>
+      <c r="S13" t="str">
         <f>IF(Компоненты!S13&lt;&gt;"",Компоненты!S13,"")</f>
         <v/>
       </c>
-      <c r="S13" t="str">
+      <c r="T13" t="str">
         <f>IF(Компоненты!T13&lt;&gt;"",Компоненты!T13,"")</f>
-        <v/>
-      </c>
-      <c r="T13" t="str">
-        <f>IF(Компоненты!U13&lt;&gt;"",Компоненты!U13,"")</f>
         <v/>
       </c>
     </row>
@@ -8665,15 +8741,15 @@
         <v>ДА</v>
       </c>
       <c r="R14" t="str">
+        <f>IF(Компоненты!R14&lt;&gt;"",Компоненты!R14,"")</f>
+        <v/>
+      </c>
+      <c r="S14" t="str">
         <f>IF(Компоненты!S14&lt;&gt;"",Компоненты!S14,"")</f>
         <v/>
       </c>
-      <c r="S14" t="str">
+      <c r="T14" t="str">
         <f>IF(Компоненты!T14&lt;&gt;"",Компоненты!T14,"")</f>
-        <v/>
-      </c>
-      <c r="T14" t="str">
-        <f>IF(Компоненты!U14&lt;&gt;"",Компоненты!U14,"")</f>
         <v/>
       </c>
     </row>
@@ -8745,15 +8821,15 @@
         <v>ДА</v>
       </c>
       <c r="R15" t="str">
+        <f>IF(Компоненты!R15&lt;&gt;"",Компоненты!R15,"")</f>
+        <v/>
+      </c>
+      <c r="S15" t="str">
         <f>IF(Компоненты!S15&lt;&gt;"",Компоненты!S15,"")</f>
         <v/>
       </c>
-      <c r="S15" t="str">
+      <c r="T15" t="str">
         <f>IF(Компоненты!T15&lt;&gt;"",Компоненты!T15,"")</f>
-        <v/>
-      </c>
-      <c r="T15" t="str">
-        <f>IF(Компоненты!U15&lt;&gt;"",Компоненты!U15,"")</f>
         <v/>
       </c>
     </row>
@@ -8825,15 +8901,15 @@
         <v>ДА</v>
       </c>
       <c r="R16" t="str">
+        <f>IF(Компоненты!R16&lt;&gt;"",Компоненты!R16,"")</f>
+        <v/>
+      </c>
+      <c r="S16" t="str">
         <f>IF(Компоненты!S16&lt;&gt;"",Компоненты!S16,"")</f>
         <v/>
       </c>
-      <c r="S16" t="str">
+      <c r="T16" t="str">
         <f>IF(Компоненты!T16&lt;&gt;"",Компоненты!T16,"")</f>
-        <v/>
-      </c>
-      <c r="T16" t="str">
-        <f>IF(Компоненты!U16&lt;&gt;"",Компоненты!U16,"")</f>
         <v/>
       </c>
     </row>
@@ -8905,15 +8981,15 @@
         <v>ДА</v>
       </c>
       <c r="R17" t="str">
+        <f>IF(Компоненты!R17&lt;&gt;"",Компоненты!R17,"")</f>
+        <v/>
+      </c>
+      <c r="S17" t="str">
         <f>IF(Компоненты!S17&lt;&gt;"",Компоненты!S17,"")</f>
         <v/>
       </c>
-      <c r="S17" t="str">
+      <c r="T17" t="str">
         <f>IF(Компоненты!T17&lt;&gt;"",Компоненты!T17,"")</f>
-        <v/>
-      </c>
-      <c r="T17" t="str">
-        <f>IF(Компоненты!U17&lt;&gt;"",Компоненты!U17,"")</f>
         <v/>
       </c>
     </row>
@@ -8985,15 +9061,15 @@
         <v>ДА</v>
       </c>
       <c r="R18" t="str">
+        <f>IF(Компоненты!R18&lt;&gt;"",Компоненты!R18,"")</f>
+        <v/>
+      </c>
+      <c r="S18" t="str">
         <f>IF(Компоненты!S18&lt;&gt;"",Компоненты!S18,"")</f>
         <v/>
       </c>
-      <c r="S18" t="str">
+      <c r="T18" t="str">
         <f>IF(Компоненты!T18&lt;&gt;"",Компоненты!T18,"")</f>
-        <v/>
-      </c>
-      <c r="T18" t="str">
-        <f>IF(Компоненты!U18&lt;&gt;"",Компоненты!U18,"")</f>
         <v/>
       </c>
     </row>
@@ -9064,15 +9140,15 @@
         <v>ДА</v>
       </c>
       <c r="R19" t="str">
+        <f>IF(Компоненты!R19&lt;&gt;"",Компоненты!R19,"")</f>
+        <v/>
+      </c>
+      <c r="S19" t="str">
         <f>IF(Компоненты!S19&lt;&gt;"",Компоненты!S19,"")</f>
         <v/>
       </c>
-      <c r="S19" t="str">
+      <c r="T19" t="str">
         <f>IF(Компоненты!T19&lt;&gt;"",Компоненты!T19,"")</f>
-        <v/>
-      </c>
-      <c r="T19" t="str">
-        <f>IF(Компоненты!U19&lt;&gt;"",Компоненты!U19,"")</f>
         <v/>
       </c>
     </row>
@@ -9142,15 +9218,15 @@
         <v>ДА</v>
       </c>
       <c r="R20" t="str">
+        <f>IF(Компоненты!R20&lt;&gt;"",Компоненты!R20,"")</f>
+        <v/>
+      </c>
+      <c r="S20" t="str">
         <f>IF(Компоненты!S20&lt;&gt;"",Компоненты!S20,"")</f>
         <v/>
       </c>
-      <c r="S20" t="str">
+      <c r="T20" t="str">
         <f>IF(Компоненты!T20&lt;&gt;"",Компоненты!T20,"")</f>
-        <v/>
-      </c>
-      <c r="T20" t="str">
-        <f>IF(Компоненты!U20&lt;&gt;"",Компоненты!U20,"")</f>
         <v/>
       </c>
     </row>
@@ -9221,15 +9297,15 @@
         <v>ДА</v>
       </c>
       <c r="R21" t="str">
+        <f>IF(Компоненты!R21&lt;&gt;"",Компоненты!R21,"")</f>
+        <v/>
+      </c>
+      <c r="S21" t="str">
         <f>IF(Компоненты!S21&lt;&gt;"",Компоненты!S21,"")</f>
         <v/>
       </c>
-      <c r="S21" t="str">
+      <c r="T21" t="str">
         <f>IF(Компоненты!T21&lt;&gt;"",Компоненты!T21,"")</f>
-        <v/>
-      </c>
-      <c r="T21" t="str">
-        <f>IF(Компоненты!U21&lt;&gt;"",Компоненты!U21,"")</f>
         <v/>
       </c>
     </row>
@@ -9300,15 +9376,15 @@
         <v>ДА</v>
       </c>
       <c r="R22" t="str">
+        <f>IF(Компоненты!R22&lt;&gt;"",Компоненты!R22,"")</f>
+        <v/>
+      </c>
+      <c r="S22" t="str">
         <f>IF(Компоненты!S22&lt;&gt;"",Компоненты!S22,"")</f>
         <v/>
       </c>
-      <c r="S22" t="str">
+      <c r="T22" t="str">
         <f>IF(Компоненты!T22&lt;&gt;"",Компоненты!T22,"")</f>
-        <v/>
-      </c>
-      <c r="T22" t="str">
-        <f>IF(Компоненты!U22&lt;&gt;"",Компоненты!U22,"")</f>
         <v/>
       </c>
     </row>
@@ -9378,15 +9454,15 @@
         <v>ДА</v>
       </c>
       <c r="R23" t="str">
+        <f>IF(Компоненты!R23&lt;&gt;"",Компоненты!R23,"")</f>
+        <v/>
+      </c>
+      <c r="S23" t="str">
         <f>IF(Компоненты!S23&lt;&gt;"",Компоненты!S23,"")</f>
         <v/>
       </c>
-      <c r="S23" t="str">
+      <c r="T23" t="str">
         <f>IF(Компоненты!T23&lt;&gt;"",Компоненты!T23,"")</f>
-        <v/>
-      </c>
-      <c r="T23" t="str">
-        <f>IF(Компоненты!U23&lt;&gt;"",Компоненты!U23,"")</f>
         <v/>
       </c>
     </row>
@@ -9456,15 +9532,15 @@
         <v>ДА</v>
       </c>
       <c r="R24" t="str">
+        <f>IF(Компоненты!R24&lt;&gt;"",Компоненты!R24,"")</f>
+        <v/>
+      </c>
+      <c r="S24" t="str">
         <f>IF(Компоненты!S24&lt;&gt;"",Компоненты!S24,"")</f>
         <v/>
       </c>
-      <c r="S24" t="str">
+      <c r="T24" t="str">
         <f>IF(Компоненты!T24&lt;&gt;"",Компоненты!T24,"")</f>
-        <v/>
-      </c>
-      <c r="T24" t="str">
-        <f>IF(Компоненты!U24&lt;&gt;"",Компоненты!U24,"")</f>
         <v/>
       </c>
     </row>
@@ -9537,15 +9613,15 @@
         <v>ДА</v>
       </c>
       <c r="R25" t="str">
+        <f>IF(Компоненты!R25&lt;&gt;"",Компоненты!R25,"")</f>
+        <v/>
+      </c>
+      <c r="S25" t="str">
         <f>IF(Компоненты!S25&lt;&gt;"",Компоненты!S25,"")</f>
         <v/>
       </c>
-      <c r="S25" t="str">
+      <c r="T25" t="str">
         <f>IF(Компоненты!T25&lt;&gt;"",Компоненты!T25,"")</f>
-        <v/>
-      </c>
-      <c r="T25" t="str">
-        <f>IF(Компоненты!U25&lt;&gt;"",Компоненты!U25,"")</f>
         <v/>
       </c>
     </row>
@@ -9615,15 +9691,15 @@
         <v>ДА</v>
       </c>
       <c r="R26" t="str">
+        <f>IF(Компоненты!R26&lt;&gt;"",Компоненты!R26,"")</f>
+        <v/>
+      </c>
+      <c r="S26" t="str">
         <f>IF(Компоненты!S26&lt;&gt;"",Компоненты!S26,"")</f>
         <v/>
       </c>
-      <c r="S26" t="str">
+      <c r="T26" t="str">
         <f>IF(Компоненты!T26&lt;&gt;"",Компоненты!T26,"")</f>
-        <v/>
-      </c>
-      <c r="T26" t="str">
-        <f>IF(Компоненты!U26&lt;&gt;"",Компоненты!U26,"")</f>
         <v/>
       </c>
     </row>
@@ -9693,15 +9769,15 @@
         <v>ДА</v>
       </c>
       <c r="R27" t="str">
+        <f>IF(Компоненты!R27&lt;&gt;"",Компоненты!R27,"")</f>
+        <v/>
+      </c>
+      <c r="S27" t="str">
         <f>IF(Компоненты!S27&lt;&gt;"",Компоненты!S27,"")</f>
         <v/>
       </c>
-      <c r="S27" t="str">
+      <c r="T27" t="str">
         <f>IF(Компоненты!T27&lt;&gt;"",Компоненты!T27,"")</f>
-        <v/>
-      </c>
-      <c r="T27" t="str">
-        <f>IF(Компоненты!U27&lt;&gt;"",Компоненты!U27,"")</f>
         <v/>
       </c>
     </row>
@@ -9772,15 +9848,15 @@
         <v/>
       </c>
       <c r="R28" t="str">
+        <f>IF(Компоненты!R28&lt;&gt;"",Компоненты!R28,"")</f>
+        <v/>
+      </c>
+      <c r="S28" t="str">
         <f>IF(Компоненты!S28&lt;&gt;"",Компоненты!S28,"")</f>
         <v/>
       </c>
-      <c r="S28" t="str">
+      <c r="T28" t="str">
         <f>IF(Компоненты!T28&lt;&gt;"",Компоненты!T28,"")</f>
-        <v/>
-      </c>
-      <c r="T28" t="str">
-        <f>IF(Компоненты!U28&lt;&gt;"",Компоненты!U28,"")</f>
         <v/>
       </c>
     </row>
@@ -9851,15 +9927,15 @@
         <v/>
       </c>
       <c r="R29" t="str">
+        <f>IF(Компоненты!R29&lt;&gt;"",Компоненты!R29,"")</f>
+        <v/>
+      </c>
+      <c r="S29" t="str">
         <f>IF(Компоненты!S29&lt;&gt;"",Компоненты!S29,"")</f>
         <v/>
       </c>
-      <c r="S29" t="str">
+      <c r="T29" t="str">
         <f>IF(Компоненты!T29&lt;&gt;"",Компоненты!T29,"")</f>
-        <v/>
-      </c>
-      <c r="T29" t="str">
-        <f>IF(Компоненты!U29&lt;&gt;"",Компоненты!U29,"")</f>
         <v/>
       </c>
     </row>
@@ -9930,15 +10006,15 @@
         <v/>
       </c>
       <c r="R30" t="str">
+        <f>IF(Компоненты!R30&lt;&gt;"",Компоненты!R30,"")</f>
+        <v/>
+      </c>
+      <c r="S30" t="str">
         <f>IF(Компоненты!S30&lt;&gt;"",Компоненты!S30,"")</f>
         <v/>
       </c>
-      <c r="S30" t="str">
+      <c r="T30" t="str">
         <f>IF(Компоненты!T30&lt;&gt;"",Компоненты!T30,"")</f>
-        <v/>
-      </c>
-      <c r="T30" t="str">
-        <f>IF(Компоненты!U30&lt;&gt;"",Компоненты!U30,"")</f>
         <v/>
       </c>
     </row>
@@ -10008,15 +10084,15 @@
         <v/>
       </c>
       <c r="R31" t="str">
+        <f>IF(Компоненты!R31&lt;&gt;"",Компоненты!R31,"")</f>
+        <v/>
+      </c>
+      <c r="S31" t="str">
         <f>IF(Компоненты!S31&lt;&gt;"",Компоненты!S31,"")</f>
         <v/>
       </c>
-      <c r="S31" t="str">
+      <c r="T31" t="str">
         <f>IF(Компоненты!T31&lt;&gt;"",Компоненты!T31,"")</f>
-        <v/>
-      </c>
-      <c r="T31" t="str">
-        <f>IF(Компоненты!U31&lt;&gt;"",Компоненты!U31,"")</f>
         <v/>
       </c>
     </row>
@@ -10086,15 +10162,15 @@
         <v/>
       </c>
       <c r="R32" t="str">
+        <f>IF(Компоненты!R32&lt;&gt;"",Компоненты!R32,"")</f>
+        <v/>
+      </c>
+      <c r="S32" t="str">
         <f>IF(Компоненты!S32&lt;&gt;"",Компоненты!S32,"")</f>
         <v/>
       </c>
-      <c r="S32" t="str">
+      <c r="T32" t="str">
         <f>IF(Компоненты!T32&lt;&gt;"",Компоненты!T32,"")</f>
-        <v/>
-      </c>
-      <c r="T32" t="str">
-        <f>IF(Компоненты!U32&lt;&gt;"",Компоненты!U32,"")</f>
         <v/>
       </c>
     </row>
@@ -10164,15 +10240,15 @@
         <v/>
       </c>
       <c r="R33" t="str">
+        <f>IF(Компоненты!R33&lt;&gt;"",Компоненты!R33,"")</f>
+        <v/>
+      </c>
+      <c r="S33" t="str">
         <f>IF(Компоненты!S33&lt;&gt;"",Компоненты!S33,"")</f>
         <v/>
       </c>
-      <c r="S33" t="str">
+      <c r="T33" t="str">
         <f>IF(Компоненты!T33&lt;&gt;"",Компоненты!T33,"")</f>
-        <v/>
-      </c>
-      <c r="T33" t="str">
-        <f>IF(Компоненты!U33&lt;&gt;"",Компоненты!U33,"")</f>
         <v/>
       </c>
     </row>
@@ -10242,15 +10318,15 @@
         <v/>
       </c>
       <c r="R34" t="str">
+        <f>IF(Компоненты!R34&lt;&gt;"",Компоненты!R34,"")</f>
+        <v/>
+      </c>
+      <c r="S34" t="str">
         <f>IF(Компоненты!S34&lt;&gt;"",Компоненты!S34,"")</f>
         <v>ДА</v>
       </c>
-      <c r="S34" t="str">
+      <c r="T34" t="str">
         <f>IF(Компоненты!T34&lt;&gt;"",Компоненты!T34,"")</f>
-        <v/>
-      </c>
-      <c r="T34" t="str">
-        <f>IF(Компоненты!U34&lt;&gt;"",Компоненты!U34,"")</f>
         <v/>
       </c>
     </row>
@@ -10320,15 +10396,15 @@
         <v/>
       </c>
       <c r="R35" t="str">
+        <f>IF(Компоненты!R35&lt;&gt;"",Компоненты!R35,"")</f>
+        <v/>
+      </c>
+      <c r="S35" t="str">
         <f>IF(Компоненты!S35&lt;&gt;"",Компоненты!S35,"")</f>
         <v/>
       </c>
-      <c r="S35" t="str">
+      <c r="T35" t="str">
         <f>IF(Компоненты!T35&lt;&gt;"",Компоненты!T35,"")</f>
-        <v/>
-      </c>
-      <c r="T35" t="str">
-        <f>IF(Компоненты!U35&lt;&gt;"",Компоненты!U35,"")</f>
         <v/>
       </c>
     </row>
@@ -10398,15 +10474,15 @@
         <v/>
       </c>
       <c r="R36" t="str">
+        <f>IF(Компоненты!R36&lt;&gt;"",Компоненты!R36,"")</f>
+        <v/>
+      </c>
+      <c r="S36" t="str">
         <f>IF(Компоненты!S36&lt;&gt;"",Компоненты!S36,"")</f>
         <v/>
       </c>
-      <c r="S36" t="str">
+      <c r="T36" t="str">
         <f>IF(Компоненты!T36&lt;&gt;"",Компоненты!T36,"")</f>
-        <v/>
-      </c>
-      <c r="T36" t="str">
-        <f>IF(Компоненты!U36&lt;&gt;"",Компоненты!U36,"")</f>
         <v/>
       </c>
     </row>
@@ -10476,15 +10552,15 @@
         <v/>
       </c>
       <c r="R37" t="str">
+        <f>IF(Компоненты!R37&lt;&gt;"",Компоненты!R37,"")</f>
+        <v/>
+      </c>
+      <c r="S37" t="str">
         <f>IF(Компоненты!S37&lt;&gt;"",Компоненты!S37,"")</f>
         <v>ДА</v>
       </c>
-      <c r="S37" t="str">
+      <c r="T37" t="str">
         <f>IF(Компоненты!T37&lt;&gt;"",Компоненты!T37,"")</f>
-        <v/>
-      </c>
-      <c r="T37" t="str">
-        <f>IF(Компоненты!U37&lt;&gt;"",Компоненты!U37,"")</f>
         <v/>
       </c>
     </row>
@@ -10554,15 +10630,15 @@
         <v/>
       </c>
       <c r="R38" t="str">
+        <f>IF(Компоненты!R38&lt;&gt;"",Компоненты!R38,"")</f>
+        <v/>
+      </c>
+      <c r="S38" t="str">
         <f>IF(Компоненты!S38&lt;&gt;"",Компоненты!S38,"")</f>
         <v/>
       </c>
-      <c r="S38" t="str">
+      <c r="T38" t="str">
         <f>IF(Компоненты!T38&lt;&gt;"",Компоненты!T38,"")</f>
-        <v/>
-      </c>
-      <c r="T38" t="str">
-        <f>IF(Компоненты!U38&lt;&gt;"",Компоненты!U38,"")</f>
         <v/>
       </c>
     </row>
@@ -10632,15 +10708,15 @@
         <v/>
       </c>
       <c r="R39" t="str">
+        <f>IF(Компоненты!R39&lt;&gt;"",Компоненты!R39,"")</f>
+        <v/>
+      </c>
+      <c r="S39" t="str">
         <f>IF(Компоненты!S39&lt;&gt;"",Компоненты!S39,"")</f>
         <v/>
       </c>
-      <c r="S39" t="str">
+      <c r="T39" t="str">
         <f>IF(Компоненты!T39&lt;&gt;"",Компоненты!T39,"")</f>
-        <v/>
-      </c>
-      <c r="T39" t="str">
-        <f>IF(Компоненты!U39&lt;&gt;"",Компоненты!U39,"")</f>
         <v/>
       </c>
     </row>
@@ -10710,15 +10786,15 @@
         <v/>
       </c>
       <c r="R40" t="str">
+        <f>IF(Компоненты!R40&lt;&gt;"",Компоненты!R40,"")</f>
+        <v/>
+      </c>
+      <c r="S40" t="str">
         <f>IF(Компоненты!S40&lt;&gt;"",Компоненты!S40,"")</f>
         <v/>
       </c>
-      <c r="S40" t="str">
+      <c r="T40" t="str">
         <f>IF(Компоненты!T40&lt;&gt;"",Компоненты!T40,"")</f>
-        <v/>
-      </c>
-      <c r="T40" t="str">
-        <f>IF(Компоненты!U40&lt;&gt;"",Компоненты!U40,"")</f>
         <v/>
       </c>
     </row>
@@ -10788,15 +10864,15 @@
         <v/>
       </c>
       <c r="R41" t="str">
+        <f>IF(Компоненты!R41&lt;&gt;"",Компоненты!R41,"")</f>
+        <v/>
+      </c>
+      <c r="S41" t="str">
         <f>IF(Компоненты!S41&lt;&gt;"",Компоненты!S41,"")</f>
         <v/>
       </c>
-      <c r="S41" t="str">
+      <c r="T41" t="str">
         <f>IF(Компоненты!T41&lt;&gt;"",Компоненты!T41,"")</f>
-        <v/>
-      </c>
-      <c r="T41" t="str">
-        <f>IF(Компоненты!U41&lt;&gt;"",Компоненты!U41,"")</f>
         <v/>
       </c>
     </row>
@@ -10866,15 +10942,15 @@
         <v/>
       </c>
       <c r="R42" t="str">
+        <f>IF(Компоненты!R42&lt;&gt;"",Компоненты!R42,"")</f>
+        <v/>
+      </c>
+      <c r="S42" t="str">
         <f>IF(Компоненты!S42&lt;&gt;"",Компоненты!S42,"")</f>
         <v>ДА</v>
       </c>
-      <c r="S42" t="str">
+      <c r="T42" t="str">
         <f>IF(Компоненты!T42&lt;&gt;"",Компоненты!T42,"")</f>
-        <v/>
-      </c>
-      <c r="T42" t="str">
-        <f>IF(Компоненты!U42&lt;&gt;"",Компоненты!U42,"")</f>
         <v/>
       </c>
     </row>
@@ -10944,15 +11020,15 @@
         <v/>
       </c>
       <c r="R43" t="str">
+        <f>IF(Компоненты!R43&lt;&gt;"",Компоненты!R43,"")</f>
+        <v/>
+      </c>
+      <c r="S43" t="str">
         <f>IF(Компоненты!S43&lt;&gt;"",Компоненты!S43,"")</f>
         <v/>
       </c>
-      <c r="S43" t="str">
+      <c r="T43" t="str">
         <f>IF(Компоненты!T43&lt;&gt;"",Компоненты!T43,"")</f>
-        <v/>
-      </c>
-      <c r="T43" t="str">
-        <f>IF(Компоненты!U43&lt;&gt;"",Компоненты!U43,"")</f>
         <v/>
       </c>
     </row>
@@ -11022,15 +11098,15 @@
         <v/>
       </c>
       <c r="R44" t="str">
+        <f>IF(Компоненты!R44&lt;&gt;"",Компоненты!R44,"")</f>
+        <v/>
+      </c>
+      <c r="S44" t="str">
         <f>IF(Компоненты!S44&lt;&gt;"",Компоненты!S44,"")</f>
         <v/>
       </c>
-      <c r="S44" t="str">
+      <c r="T44" t="str">
         <f>IF(Компоненты!T44&lt;&gt;"",Компоненты!T44,"")</f>
-        <v/>
-      </c>
-      <c r="T44" t="str">
-        <f>IF(Компоненты!U44&lt;&gt;"",Компоненты!U44,"")</f>
         <v/>
       </c>
     </row>
@@ -11100,15 +11176,15 @@
         <v/>
       </c>
       <c r="R45" t="str">
+        <f>IF(Компоненты!R45&lt;&gt;"",Компоненты!R45,"")</f>
+        <v/>
+      </c>
+      <c r="S45" t="str">
         <f>IF(Компоненты!S45&lt;&gt;"",Компоненты!S45,"")</f>
         <v/>
       </c>
-      <c r="S45" t="str">
+      <c r="T45" t="str">
         <f>IF(Компоненты!T45&lt;&gt;"",Компоненты!T45,"")</f>
-        <v/>
-      </c>
-      <c r="T45" t="str">
-        <f>IF(Компоненты!U45&lt;&gt;"",Компоненты!U45,"")</f>
         <v/>
       </c>
     </row>
@@ -11179,16 +11255,16 @@
         <v/>
       </c>
       <c r="R46" t="str">
+        <f>IF(Компоненты!R46&lt;&gt;"",Компоненты!R46,"")</f>
+        <v/>
+      </c>
+      <c r="S46" t="str">
         <f>IF(Компоненты!S46&lt;&gt;"",Компоненты!S46,"")</f>
         <v>ДА</v>
       </c>
-      <c r="S46" t="str">
+      <c r="T46" t="str">
         <f>IF(Компоненты!T46&lt;&gt;"",Компоненты!T46,"")</f>
         <v>ДА</v>
-      </c>
-      <c r="T46" t="str">
-        <f>IF(Компоненты!U46&lt;&gt;"",Компоненты!U46,"")</f>
-        <v/>
       </c>
     </row>
     <row r="47" spans="2:20">
@@ -11260,16 +11336,16 @@
         <v/>
       </c>
       <c r="R47" t="str">
+        <f>IF(Компоненты!R47&lt;&gt;"",Компоненты!R47,"")</f>
+        <v/>
+      </c>
+      <c r="S47" t="str">
         <f>IF(Компоненты!S47&lt;&gt;"",Компоненты!S47,"")</f>
         <v>ДА</v>
       </c>
-      <c r="S47" t="str">
+      <c r="T47" t="str">
         <f>IF(Компоненты!T47&lt;&gt;"",Компоненты!T47,"")</f>
         <v>ДА</v>
-      </c>
-      <c r="T47" t="str">
-        <f>IF(Компоненты!U47&lt;&gt;"",Компоненты!U47,"")</f>
-        <v/>
       </c>
     </row>
     <row r="48" spans="2:20">
@@ -11338,15 +11414,15 @@
         <v>ДА</v>
       </c>
       <c r="R48" t="str">
+        <f>IF(Компоненты!R48&lt;&gt;"",Компоненты!R48,"")</f>
+        <v/>
+      </c>
+      <c r="S48" t="str">
         <f>IF(Компоненты!S48&lt;&gt;"",Компоненты!S48,"")</f>
         <v/>
       </c>
-      <c r="S48" t="str">
+      <c r="T48" t="str">
         <f>IF(Компоненты!T48&lt;&gt;"",Компоненты!T48,"")</f>
-        <v/>
-      </c>
-      <c r="T48" t="str">
-        <f>IF(Компоненты!U48&lt;&gt;"",Компоненты!U48,"")</f>
         <v/>
       </c>
     </row>
@@ -11416,15 +11492,15 @@
         <v>ДА</v>
       </c>
       <c r="R49" t="str">
+        <f>IF(Компоненты!R49&lt;&gt;"",Компоненты!R49,"")</f>
+        <v/>
+      </c>
+      <c r="S49" t="str">
         <f>IF(Компоненты!S49&lt;&gt;"",Компоненты!S49,"")</f>
         <v/>
       </c>
-      <c r="S49" t="str">
+      <c r="T49" t="str">
         <f>IF(Компоненты!T49&lt;&gt;"",Компоненты!T49,"")</f>
-        <v/>
-      </c>
-      <c r="T49" t="str">
-        <f>IF(Компоненты!U49&lt;&gt;"",Компоненты!U49,"")</f>
         <v/>
       </c>
     </row>
@@ -11494,16 +11570,16 @@
         <v/>
       </c>
       <c r="R50" t="str">
+        <f>IF(Компоненты!R50&lt;&gt;"",Компоненты!R50,"")</f>
+        <v/>
+      </c>
+      <c r="S50" t="str">
         <f>IF(Компоненты!S50&lt;&gt;"",Компоненты!S50,"")</f>
         <v>ДА</v>
       </c>
-      <c r="S50" t="str">
+      <c r="T50" t="str">
         <f>IF(Компоненты!T50&lt;&gt;"",Компоненты!T50,"")</f>
         <v>ДА</v>
-      </c>
-      <c r="T50" t="str">
-        <f>IF(Компоненты!U50&lt;&gt;"",Компоненты!U50,"")</f>
-        <v/>
       </c>
     </row>
     <row r="51" spans="2:20">
@@ -11572,16 +11648,16 @@
         <v/>
       </c>
       <c r="R51" t="str">
+        <f>IF(Компоненты!R51&lt;&gt;"",Компоненты!R51,"")</f>
+        <v/>
+      </c>
+      <c r="S51" t="str">
         <f>IF(Компоненты!S51&lt;&gt;"",Компоненты!S51,"")</f>
         <v>ДА</v>
       </c>
-      <c r="S51" t="str">
+      <c r="T51" t="str">
         <f>IF(Компоненты!T51&lt;&gt;"",Компоненты!T51,"")</f>
         <v>ДА</v>
-      </c>
-      <c r="T51" t="str">
-        <f>IF(Компоненты!U51&lt;&gt;"",Компоненты!U51,"")</f>
-        <v/>
       </c>
     </row>
     <row r="52" spans="2:20">
@@ -11650,15 +11726,15 @@
         <v>ДА</v>
       </c>
       <c r="R52" t="str">
+        <f>IF(Компоненты!R52&lt;&gt;"",Компоненты!R52,"")</f>
+        <v/>
+      </c>
+      <c r="S52" t="str">
         <f>IF(Компоненты!S52&lt;&gt;"",Компоненты!S52,"")</f>
         <v/>
       </c>
-      <c r="S52" t="str">
+      <c r="T52" t="str">
         <f>IF(Компоненты!T52&lt;&gt;"",Компоненты!T52,"")</f>
-        <v/>
-      </c>
-      <c r="T52" t="str">
-        <f>IF(Компоненты!U52&lt;&gt;"",Компоненты!U52,"")</f>
         <v/>
       </c>
     </row>
@@ -11728,15 +11804,15 @@
         <v/>
       </c>
       <c r="R53" t="str">
+        <f>IF(Компоненты!R53&lt;&gt;"",Компоненты!R53,"")</f>
+        <v/>
+      </c>
+      <c r="S53" t="str">
         <f>IF(Компоненты!S53&lt;&gt;"",Компоненты!S53,"")</f>
         <v/>
       </c>
-      <c r="S53" t="str">
+      <c r="T53" t="str">
         <f>IF(Компоненты!T53&lt;&gt;"",Компоненты!T53,"")</f>
-        <v/>
-      </c>
-      <c r="T53" t="str">
-        <f>IF(Компоненты!U53&lt;&gt;"",Компоненты!U53,"")</f>
         <v/>
       </c>
     </row>
@@ -11806,15 +11882,15 @@
         <v/>
       </c>
       <c r="R54" t="str">
+        <f>IF(Компоненты!R54&lt;&gt;"",Компоненты!R54,"")</f>
+        <v/>
+      </c>
+      <c r="S54" t="str">
         <f>IF(Компоненты!S54&lt;&gt;"",Компоненты!S54,"")</f>
         <v/>
       </c>
-      <c r="S54" t="str">
+      <c r="T54" t="str">
         <f>IF(Компоненты!T54&lt;&gt;"",Компоненты!T54,"")</f>
-        <v/>
-      </c>
-      <c r="T54" t="str">
-        <f>IF(Компоненты!U54&lt;&gt;"",Компоненты!U54,"")</f>
         <v/>
       </c>
     </row>
@@ -11884,15 +11960,15 @@
         <v/>
       </c>
       <c r="R55" t="str">
+        <f>IF(Компоненты!R55&lt;&gt;"",Компоненты!R55,"")</f>
+        <v/>
+      </c>
+      <c r="S55" t="str">
         <f>IF(Компоненты!S55&lt;&gt;"",Компоненты!S55,"")</f>
         <v/>
       </c>
-      <c r="S55" t="str">
+      <c r="T55" t="str">
         <f>IF(Компоненты!T55&lt;&gt;"",Компоненты!T55,"")</f>
-        <v/>
-      </c>
-      <c r="T55" t="str">
-        <f>IF(Компоненты!U55&lt;&gt;"",Компоненты!U55,"")</f>
         <v/>
       </c>
     </row>
@@ -11962,15 +12038,15 @@
         <v/>
       </c>
       <c r="R56" t="str">
+        <f>IF(Компоненты!R56&lt;&gt;"",Компоненты!R56,"")</f>
+        <v/>
+      </c>
+      <c r="S56" t="str">
         <f>IF(Компоненты!S56&lt;&gt;"",Компоненты!S56,"")</f>
         <v/>
       </c>
-      <c r="S56" t="str">
+      <c r="T56" t="str">
         <f>IF(Компоненты!T56&lt;&gt;"",Компоненты!T56,"")</f>
-        <v/>
-      </c>
-      <c r="T56" t="str">
-        <f>IF(Компоненты!U56&lt;&gt;"",Компоненты!U56,"")</f>
         <v/>
       </c>
     </row>
@@ -12040,15 +12116,15 @@
         <v/>
       </c>
       <c r="R57" t="str">
+        <f>IF(Компоненты!R57&lt;&gt;"",Компоненты!R57,"")</f>
+        <v/>
+      </c>
+      <c r="S57" t="str">
         <f>IF(Компоненты!S57&lt;&gt;"",Компоненты!S57,"")</f>
         <v/>
       </c>
-      <c r="S57" t="str">
+      <c r="T57" t="str">
         <f>IF(Компоненты!T57&lt;&gt;"",Компоненты!T57,"")</f>
-        <v/>
-      </c>
-      <c r="T57" t="str">
-        <f>IF(Компоненты!U57&lt;&gt;"",Компоненты!U57,"")</f>
         <v/>
       </c>
     </row>
@@ -12118,15 +12194,15 @@
         <v/>
       </c>
       <c r="R58" t="str">
+        <f>IF(Компоненты!R58&lt;&gt;"",Компоненты!R58,"")</f>
+        <v/>
+      </c>
+      <c r="S58" t="str">
         <f>IF(Компоненты!S58&lt;&gt;"",Компоненты!S58,"")</f>
         <v/>
       </c>
-      <c r="S58" t="str">
+      <c r="T58" t="str">
         <f>IF(Компоненты!T58&lt;&gt;"",Компоненты!T58,"")</f>
-        <v/>
-      </c>
-      <c r="T58" t="str">
-        <f>IF(Компоненты!U58&lt;&gt;"",Компоненты!U58,"")</f>
         <v/>
       </c>
     </row>
@@ -12196,15 +12272,15 @@
         <v/>
       </c>
       <c r="R59" t="str">
+        <f>IF(Компоненты!R59&lt;&gt;"",Компоненты!R59,"")</f>
+        <v/>
+      </c>
+      <c r="S59" t="str">
         <f>IF(Компоненты!S59&lt;&gt;"",Компоненты!S59,"")</f>
         <v/>
       </c>
-      <c r="S59" t="str">
+      <c r="T59" t="str">
         <f>IF(Компоненты!T59&lt;&gt;"",Компоненты!T59,"")</f>
-        <v/>
-      </c>
-      <c r="T59" t="str">
-        <f>IF(Компоненты!U59&lt;&gt;"",Компоненты!U59,"")</f>
         <v/>
       </c>
     </row>
@@ -12274,15 +12350,15 @@
         <v/>
       </c>
       <c r="R60" t="str">
+        <f>IF(Компоненты!R60&lt;&gt;"",Компоненты!R60,"")</f>
+        <v/>
+      </c>
+      <c r="S60" t="str">
         <f>IF(Компоненты!S60&lt;&gt;"",Компоненты!S60,"")</f>
         <v/>
       </c>
-      <c r="S60" t="str">
+      <c r="T60" t="str">
         <f>IF(Компоненты!T60&lt;&gt;"",Компоненты!T60,"")</f>
-        <v/>
-      </c>
-      <c r="T60" t="str">
-        <f>IF(Компоненты!U60&lt;&gt;"",Компоненты!U60,"")</f>
         <v/>
       </c>
     </row>
@@ -12352,15 +12428,15 @@
         <v/>
       </c>
       <c r="R61" t="str">
+        <f>IF(Компоненты!R61&lt;&gt;"",Компоненты!R61,"")</f>
+        <v/>
+      </c>
+      <c r="S61" t="str">
         <f>IF(Компоненты!S61&lt;&gt;"",Компоненты!S61,"")</f>
         <v/>
       </c>
-      <c r="S61" t="str">
+      <c r="T61" t="str">
         <f>IF(Компоненты!T61&lt;&gt;"",Компоненты!T61,"")</f>
-        <v/>
-      </c>
-      <c r="T61" t="str">
-        <f>IF(Компоненты!U61&lt;&gt;"",Компоненты!U61,"")</f>
         <v/>
       </c>
     </row>
@@ -12430,15 +12506,15 @@
         <v/>
       </c>
       <c r="R62" t="str">
+        <f>IF(Компоненты!R62&lt;&gt;"",Компоненты!R62,"")</f>
+        <v/>
+      </c>
+      <c r="S62" t="str">
         <f>IF(Компоненты!S62&lt;&gt;"",Компоненты!S62,"")</f>
         <v/>
       </c>
-      <c r="S62" t="str">
+      <c r="T62" t="str">
         <f>IF(Компоненты!T62&lt;&gt;"",Компоненты!T62,"")</f>
-        <v/>
-      </c>
-      <c r="T62" t="str">
-        <f>IF(Компоненты!U62&lt;&gt;"",Компоненты!U62,"")</f>
         <v/>
       </c>
     </row>
@@ -12508,15 +12584,15 @@
         <v/>
       </c>
       <c r="R63" t="str">
+        <f>IF(Компоненты!R63&lt;&gt;"",Компоненты!R63,"")</f>
+        <v/>
+      </c>
+      <c r="S63" t="str">
         <f>IF(Компоненты!S63&lt;&gt;"",Компоненты!S63,"")</f>
         <v/>
       </c>
-      <c r="S63" t="str">
+      <c r="T63" t="str">
         <f>IF(Компоненты!T63&lt;&gt;"",Компоненты!T63,"")</f>
-        <v/>
-      </c>
-      <c r="T63" t="str">
-        <f>IF(Компоненты!U63&lt;&gt;"",Компоненты!U63,"")</f>
         <v/>
       </c>
     </row>
@@ -12586,15 +12662,15 @@
         <v/>
       </c>
       <c r="R64" t="str">
+        <f>IF(Компоненты!R64&lt;&gt;"",Компоненты!R64,"")</f>
+        <v/>
+      </c>
+      <c r="S64" t="str">
         <f>IF(Компоненты!S64&lt;&gt;"",Компоненты!S64,"")</f>
         <v/>
       </c>
-      <c r="S64" t="str">
+      <c r="T64" t="str">
         <f>IF(Компоненты!T64&lt;&gt;"",Компоненты!T64,"")</f>
-        <v/>
-      </c>
-      <c r="T64" t="str">
-        <f>IF(Компоненты!U64&lt;&gt;"",Компоненты!U64,"")</f>
         <v/>
       </c>
     </row>
@@ -12664,15 +12740,15 @@
         <v/>
       </c>
       <c r="R65" t="str">
+        <f>IF(Компоненты!R65&lt;&gt;"",Компоненты!R65,"")</f>
+        <v/>
+      </c>
+      <c r="S65" t="str">
         <f>IF(Компоненты!S65&lt;&gt;"",Компоненты!S65,"")</f>
         <v/>
       </c>
-      <c r="S65" t="str">
+      <c r="T65" t="str">
         <f>IF(Компоненты!T65&lt;&gt;"",Компоненты!T65,"")</f>
-        <v/>
-      </c>
-      <c r="T65" t="str">
-        <f>IF(Компоненты!U65&lt;&gt;"",Компоненты!U65,"")</f>
         <v/>
       </c>
     </row>
@@ -12742,15 +12818,15 @@
         <v/>
       </c>
       <c r="R66" t="str">
+        <f>IF(Компоненты!R66&lt;&gt;"",Компоненты!R66,"")</f>
+        <v/>
+      </c>
+      <c r="S66" t="str">
         <f>IF(Компоненты!S66&lt;&gt;"",Компоненты!S66,"")</f>
         <v/>
       </c>
-      <c r="S66" t="str">
+      <c r="T66" t="str">
         <f>IF(Компоненты!T66&lt;&gt;"",Компоненты!T66,"")</f>
-        <v/>
-      </c>
-      <c r="T66" t="str">
-        <f>IF(Компоненты!U66&lt;&gt;"",Компоненты!U66,"")</f>
         <v/>
       </c>
     </row>
@@ -12820,15 +12896,15 @@
         <v/>
       </c>
       <c r="R67" t="str">
+        <f>IF(Компоненты!R67&lt;&gt;"",Компоненты!R67,"")</f>
+        <v/>
+      </c>
+      <c r="S67" t="str">
         <f>IF(Компоненты!S67&lt;&gt;"",Компоненты!S67,"")</f>
         <v/>
       </c>
-      <c r="S67" t="str">
+      <c r="T67" t="str">
         <f>IF(Компоненты!T67&lt;&gt;"",Компоненты!T67,"")</f>
-        <v/>
-      </c>
-      <c r="T67" t="str">
-        <f>IF(Компоненты!U67&lt;&gt;"",Компоненты!U67,"")</f>
         <v/>
       </c>
     </row>
@@ -12898,15 +12974,15 @@
         <v/>
       </c>
       <c r="R68" t="str">
+        <f>IF(Компоненты!R68&lt;&gt;"",Компоненты!R68,"")</f>
+        <v/>
+      </c>
+      <c r="S68" t="str">
         <f>IF(Компоненты!S68&lt;&gt;"",Компоненты!S68,"")</f>
         <v/>
       </c>
-      <c r="S68" t="str">
+      <c r="T68" t="str">
         <f>IF(Компоненты!T68&lt;&gt;"",Компоненты!T68,"")</f>
-        <v/>
-      </c>
-      <c r="T68" t="str">
-        <f>IF(Компоненты!U68&lt;&gt;"",Компоненты!U68,"")</f>
         <v/>
       </c>
     </row>
@@ -12976,15 +13052,15 @@
         <v/>
       </c>
       <c r="R69" t="str">
+        <f>IF(Компоненты!R69&lt;&gt;"",Компоненты!R69,"")</f>
+        <v/>
+      </c>
+      <c r="S69" t="str">
         <f>IF(Компоненты!S69&lt;&gt;"",Компоненты!S69,"")</f>
         <v/>
       </c>
-      <c r="S69" t="str">
+      <c r="T69" t="str">
         <f>IF(Компоненты!T69&lt;&gt;"",Компоненты!T69,"")</f>
-        <v/>
-      </c>
-      <c r="T69" t="str">
-        <f>IF(Компоненты!U69&lt;&gt;"",Компоненты!U69,"")</f>
         <v/>
       </c>
     </row>
@@ -13054,15 +13130,15 @@
         <v/>
       </c>
       <c r="R70" t="str">
+        <f>IF(Компоненты!R70&lt;&gt;"",Компоненты!R70,"")</f>
+        <v/>
+      </c>
+      <c r="S70" t="str">
         <f>IF(Компоненты!S70&lt;&gt;"",Компоненты!S70,"")</f>
         <v/>
       </c>
-      <c r="S70" t="str">
+      <c r="T70" t="str">
         <f>IF(Компоненты!T70&lt;&gt;"",Компоненты!T70,"")</f>
-        <v/>
-      </c>
-      <c r="T70" t="str">
-        <f>IF(Компоненты!U70&lt;&gt;"",Компоненты!U70,"")</f>
         <v/>
       </c>
     </row>
@@ -13132,15 +13208,15 @@
         <v/>
       </c>
       <c r="R71" t="str">
+        <f>IF(Компоненты!R71&lt;&gt;"",Компоненты!R71,"")</f>
+        <v/>
+      </c>
+      <c r="S71" t="str">
         <f>IF(Компоненты!S71&lt;&gt;"",Компоненты!S71,"")</f>
         <v/>
       </c>
-      <c r="S71" t="str">
+      <c r="T71" t="str">
         <f>IF(Компоненты!T71&lt;&gt;"",Компоненты!T71,"")</f>
-        <v/>
-      </c>
-      <c r="T71" t="str">
-        <f>IF(Компоненты!U71&lt;&gt;"",Компоненты!U71,"")</f>
         <v/>
       </c>
     </row>
@@ -13210,15 +13286,15 @@
         <v/>
       </c>
       <c r="R72" t="str">
+        <f>IF(Компоненты!R72&lt;&gt;"",Компоненты!R72,"")</f>
+        <v/>
+      </c>
+      <c r="S72" t="str">
         <f>IF(Компоненты!S72&lt;&gt;"",Компоненты!S72,"")</f>
         <v/>
       </c>
-      <c r="S72" t="str">
+      <c r="T72" t="str">
         <f>IF(Компоненты!T72&lt;&gt;"",Компоненты!T72,"")</f>
-        <v/>
-      </c>
-      <c r="T72" t="str">
-        <f>IF(Компоненты!U72&lt;&gt;"",Компоненты!U72,"")</f>
         <v/>
       </c>
     </row>
@@ -13288,15 +13364,15 @@
         <v/>
       </c>
       <c r="R73" t="str">
+        <f>IF(Компоненты!R73&lt;&gt;"",Компоненты!R73,"")</f>
+        <v/>
+      </c>
+      <c r="S73" t="str">
         <f>IF(Компоненты!S73&lt;&gt;"",Компоненты!S73,"")</f>
         <v/>
       </c>
-      <c r="S73" t="str">
+      <c r="T73" t="str">
         <f>IF(Компоненты!T73&lt;&gt;"",Компоненты!T73,"")</f>
-        <v/>
-      </c>
-      <c r="T73" t="str">
-        <f>IF(Компоненты!U73&lt;&gt;"",Компоненты!U73,"")</f>
         <v/>
       </c>
     </row>
@@ -13366,15 +13442,15 @@
         <v/>
       </c>
       <c r="R74" t="str">
+        <f>IF(Компоненты!R74&lt;&gt;"",Компоненты!R74,"")</f>
+        <v/>
+      </c>
+      <c r="S74" t="str">
         <f>IF(Компоненты!S74&lt;&gt;"",Компоненты!S74,"")</f>
         <v/>
       </c>
-      <c r="S74" t="str">
+      <c r="T74" t="str">
         <f>IF(Компоненты!T74&lt;&gt;"",Компоненты!T74,"")</f>
-        <v/>
-      </c>
-      <c r="T74" t="str">
-        <f>IF(Компоненты!U74&lt;&gt;"",Компоненты!U74,"")</f>
         <v/>
       </c>
     </row>
@@ -13444,15 +13520,15 @@
         <v/>
       </c>
       <c r="R75" t="str">
+        <f>IF(Компоненты!R75&lt;&gt;"",Компоненты!R75,"")</f>
+        <v/>
+      </c>
+      <c r="S75" t="str">
         <f>IF(Компоненты!S75&lt;&gt;"",Компоненты!S75,"")</f>
         <v/>
       </c>
-      <c r="S75" t="str">
+      <c r="T75" t="str">
         <f>IF(Компоненты!T75&lt;&gt;"",Компоненты!T75,"")</f>
-        <v/>
-      </c>
-      <c r="T75" t="str">
-        <f>IF(Компоненты!U75&lt;&gt;"",Компоненты!U75,"")</f>
         <v/>
       </c>
     </row>
@@ -13522,15 +13598,15 @@
         <v/>
       </c>
       <c r="R76" t="str">
+        <f>IF(Компоненты!R76&lt;&gt;"",Компоненты!R76,"")</f>
+        <v/>
+      </c>
+      <c r="S76" t="str">
         <f>IF(Компоненты!S76&lt;&gt;"",Компоненты!S76,"")</f>
         <v/>
       </c>
-      <c r="S76" t="str">
+      <c r="T76" t="str">
         <f>IF(Компоненты!T76&lt;&gt;"",Компоненты!T76,"")</f>
-        <v/>
-      </c>
-      <c r="T76" t="str">
-        <f>IF(Компоненты!U76&lt;&gt;"",Компоненты!U76,"")</f>
         <v/>
       </c>
     </row>
@@ -13600,15 +13676,15 @@
         <v/>
       </c>
       <c r="R77" t="str">
+        <f>IF(Компоненты!R77&lt;&gt;"",Компоненты!R77,"")</f>
+        <v/>
+      </c>
+      <c r="S77" t="str">
         <f>IF(Компоненты!S77&lt;&gt;"",Компоненты!S77,"")</f>
         <v/>
       </c>
-      <c r="S77" t="str">
+      <c r="T77" t="str">
         <f>IF(Компоненты!T77&lt;&gt;"",Компоненты!T77,"")</f>
-        <v/>
-      </c>
-      <c r="T77" t="str">
-        <f>IF(Компоненты!U77&lt;&gt;"",Компоненты!U77,"")</f>
         <v/>
       </c>
     </row>
@@ -13678,15 +13754,15 @@
         <v/>
       </c>
       <c r="R78" t="str">
+        <f>IF(Компоненты!R78&lt;&gt;"",Компоненты!R78,"")</f>
+        <v/>
+      </c>
+      <c r="S78" t="str">
         <f>IF(Компоненты!S78&lt;&gt;"",Компоненты!S78,"")</f>
         <v/>
       </c>
-      <c r="S78" t="str">
+      <c r="T78" t="str">
         <f>IF(Компоненты!T78&lt;&gt;"",Компоненты!T78,"")</f>
-        <v/>
-      </c>
-      <c r="T78" t="str">
-        <f>IF(Компоненты!U78&lt;&gt;"",Компоненты!U78,"")</f>
         <v/>
       </c>
     </row>
@@ -13756,15 +13832,15 @@
         <v/>
       </c>
       <c r="R79" t="str">
+        <f>IF(Компоненты!R79&lt;&gt;"",Компоненты!R79,"")</f>
+        <v/>
+      </c>
+      <c r="S79" t="str">
         <f>IF(Компоненты!S79&lt;&gt;"",Компоненты!S79,"")</f>
         <v/>
       </c>
-      <c r="S79" t="str">
+      <c r="T79" t="str">
         <f>IF(Компоненты!T79&lt;&gt;"",Компоненты!T79,"")</f>
-        <v/>
-      </c>
-      <c r="T79" t="str">
-        <f>IF(Компоненты!U79&lt;&gt;"",Компоненты!U79,"")</f>
         <v/>
       </c>
     </row>
@@ -13834,15 +13910,15 @@
         <v/>
       </c>
       <c r="R80" t="str">
+        <f>IF(Компоненты!R80&lt;&gt;"",Компоненты!R80,"")</f>
+        <v/>
+      </c>
+      <c r="S80" t="str">
         <f>IF(Компоненты!S80&lt;&gt;"",Компоненты!S80,"")</f>
         <v/>
       </c>
-      <c r="S80" t="str">
+      <c r="T80" t="str">
         <f>IF(Компоненты!T80&lt;&gt;"",Компоненты!T80,"")</f>
-        <v/>
-      </c>
-      <c r="T80" t="str">
-        <f>IF(Компоненты!U80&lt;&gt;"",Компоненты!U80,"")</f>
         <v/>
       </c>
     </row>
@@ -13912,15 +13988,15 @@
         <v/>
       </c>
       <c r="R81" t="str">
+        <f>IF(Компоненты!R81&lt;&gt;"",Компоненты!R81,"")</f>
+        <v/>
+      </c>
+      <c r="S81" t="str">
         <f>IF(Компоненты!S81&lt;&gt;"",Компоненты!S81,"")</f>
         <v/>
       </c>
-      <c r="S81" t="str">
+      <c r="T81" t="str">
         <f>IF(Компоненты!T81&lt;&gt;"",Компоненты!T81,"")</f>
-        <v/>
-      </c>
-      <c r="T81" t="str">
-        <f>IF(Компоненты!U81&lt;&gt;"",Компоненты!U81,"")</f>
         <v/>
       </c>
     </row>
@@ -13990,15 +14066,15 @@
         <v/>
       </c>
       <c r="R82" t="str">
+        <f>IF(Компоненты!R82&lt;&gt;"",Компоненты!R82,"")</f>
+        <v/>
+      </c>
+      <c r="S82" t="str">
         <f>IF(Компоненты!S82&lt;&gt;"",Компоненты!S82,"")</f>
         <v/>
       </c>
-      <c r="S82" t="str">
+      <c r="T82" t="str">
         <f>IF(Компоненты!T82&lt;&gt;"",Компоненты!T82,"")</f>
-        <v/>
-      </c>
-      <c r="T82" t="str">
-        <f>IF(Компоненты!U82&lt;&gt;"",Компоненты!U82,"")</f>
         <v/>
       </c>
     </row>
@@ -14068,15 +14144,15 @@
         <v/>
       </c>
       <c r="R83" t="str">
+        <f>IF(Компоненты!R83&lt;&gt;"",Компоненты!R83,"")</f>
+        <v/>
+      </c>
+      <c r="S83" t="str">
         <f>IF(Компоненты!S83&lt;&gt;"",Компоненты!S83,"")</f>
         <v/>
       </c>
-      <c r="S83" t="str">
+      <c r="T83" t="str">
         <f>IF(Компоненты!T83&lt;&gt;"",Компоненты!T83,"")</f>
-        <v/>
-      </c>
-      <c r="T83" t="str">
-        <f>IF(Компоненты!U83&lt;&gt;"",Компоненты!U83,"")</f>
         <v/>
       </c>
     </row>
@@ -14146,15 +14222,15 @@
         <v/>
       </c>
       <c r="R84" t="str">
+        <f>IF(Компоненты!R84&lt;&gt;"",Компоненты!R84,"")</f>
+        <v/>
+      </c>
+      <c r="S84" t="str">
         <f>IF(Компоненты!S84&lt;&gt;"",Компоненты!S84,"")</f>
         <v/>
       </c>
-      <c r="S84" t="str">
+      <c r="T84" t="str">
         <f>IF(Компоненты!T84&lt;&gt;"",Компоненты!T84,"")</f>
-        <v/>
-      </c>
-      <c r="T84" t="str">
-        <f>IF(Компоненты!U84&lt;&gt;"",Компоненты!U84,"")</f>
         <v/>
       </c>
     </row>
@@ -14224,15 +14300,15 @@
         <v/>
       </c>
       <c r="R85" t="str">
+        <f>IF(Компоненты!R85&lt;&gt;"",Компоненты!R85,"")</f>
+        <v/>
+      </c>
+      <c r="S85" t="str">
         <f>IF(Компоненты!S85&lt;&gt;"",Компоненты!S85,"")</f>
         <v/>
       </c>
-      <c r="S85" t="str">
+      <c r="T85" t="str">
         <f>IF(Компоненты!T85&lt;&gt;"",Компоненты!T85,"")</f>
-        <v/>
-      </c>
-      <c r="T85" t="str">
-        <f>IF(Компоненты!U85&lt;&gt;"",Компоненты!U85,"")</f>
         <v/>
       </c>
     </row>
@@ -14302,15 +14378,15 @@
         <v/>
       </c>
       <c r="R86" t="str">
+        <f>IF(Компоненты!R86&lt;&gt;"",Компоненты!R86,"")</f>
+        <v/>
+      </c>
+      <c r="S86" t="str">
         <f>IF(Компоненты!S86&lt;&gt;"",Компоненты!S86,"")</f>
         <v/>
       </c>
-      <c r="S86" t="str">
+      <c r="T86" t="str">
         <f>IF(Компоненты!T86&lt;&gt;"",Компоненты!T86,"")</f>
-        <v/>
-      </c>
-      <c r="T86" t="str">
-        <f>IF(Компоненты!U86&lt;&gt;"",Компоненты!U86,"")</f>
         <v/>
       </c>
     </row>
@@ -14380,15 +14456,15 @@
         <v/>
       </c>
       <c r="R87" t="str">
+        <f>IF(Компоненты!R87&lt;&gt;"",Компоненты!R87,"")</f>
+        <v/>
+      </c>
+      <c r="S87" t="str">
         <f>IF(Компоненты!S87&lt;&gt;"",Компоненты!S87,"")</f>
         <v/>
       </c>
-      <c r="S87" t="str">
+      <c r="T87" t="str">
         <f>IF(Компоненты!T87&lt;&gt;"",Компоненты!T87,"")</f>
-        <v/>
-      </c>
-      <c r="T87" t="str">
-        <f>IF(Компоненты!U87&lt;&gt;"",Компоненты!U87,"")</f>
         <v/>
       </c>
     </row>
@@ -14458,15 +14534,15 @@
         <v/>
       </c>
       <c r="R88" t="str">
+        <f>IF(Компоненты!R88&lt;&gt;"",Компоненты!R88,"")</f>
+        <v/>
+      </c>
+      <c r="S88" t="str">
         <f>IF(Компоненты!S88&lt;&gt;"",Компоненты!S88,"")</f>
         <v/>
       </c>
-      <c r="S88" t="str">
+      <c r="T88" t="str">
         <f>IF(Компоненты!T88&lt;&gt;"",Компоненты!T88,"")</f>
-        <v/>
-      </c>
-      <c r="T88" t="str">
-        <f>IF(Компоненты!U88&lt;&gt;"",Компоненты!U88,"")</f>
         <v/>
       </c>
     </row>
@@ -14536,15 +14612,15 @@
         <v/>
       </c>
       <c r="R89" t="str">
+        <f>IF(Компоненты!R89&lt;&gt;"",Компоненты!R89,"")</f>
+        <v/>
+      </c>
+      <c r="S89" t="str">
         <f>IF(Компоненты!S89&lt;&gt;"",Компоненты!S89,"")</f>
         <v/>
       </c>
-      <c r="S89" t="str">
+      <c r="T89" t="str">
         <f>IF(Компоненты!T89&lt;&gt;"",Компоненты!T89,"")</f>
-        <v/>
-      </c>
-      <c r="T89" t="str">
-        <f>IF(Компоненты!U89&lt;&gt;"",Компоненты!U89,"")</f>
         <v/>
       </c>
     </row>
@@ -14614,15 +14690,15 @@
         <v/>
       </c>
       <c r="R90" t="str">
+        <f>IF(Компоненты!R90&lt;&gt;"",Компоненты!R90,"")</f>
+        <v/>
+      </c>
+      <c r="S90" t="str">
         <f>IF(Компоненты!S90&lt;&gt;"",Компоненты!S90,"")</f>
         <v/>
       </c>
-      <c r="S90" t="str">
+      <c r="T90" t="str">
         <f>IF(Компоненты!T90&lt;&gt;"",Компоненты!T90,"")</f>
-        <v/>
-      </c>
-      <c r="T90" t="str">
-        <f>IF(Компоненты!U90&lt;&gt;"",Компоненты!U90,"")</f>
         <v/>
       </c>
     </row>
@@ -14692,15 +14768,15 @@
         <v/>
       </c>
       <c r="R91" t="str">
+        <f>IF(Компоненты!R91&lt;&gt;"",Компоненты!R91,"")</f>
+        <v/>
+      </c>
+      <c r="S91" t="str">
         <f>IF(Компоненты!S91&lt;&gt;"",Компоненты!S91,"")</f>
         <v/>
       </c>
-      <c r="S91" t="str">
+      <c r="T91" t="str">
         <f>IF(Компоненты!T91&lt;&gt;"",Компоненты!T91,"")</f>
-        <v/>
-      </c>
-      <c r="T91" t="str">
-        <f>IF(Компоненты!U91&lt;&gt;"",Компоненты!U91,"")</f>
         <v/>
       </c>
     </row>
@@ -14770,15 +14846,15 @@
         <v>ДА</v>
       </c>
       <c r="R92" t="str">
+        <f>IF(Компоненты!R92&lt;&gt;"",Компоненты!R92,"")</f>
+        <v>ДА</v>
+      </c>
+      <c r="S92" t="str">
         <f>IF(Компоненты!S92&lt;&gt;"",Компоненты!S92,"")</f>
         <v>ДА</v>
       </c>
-      <c r="S92" t="str">
+      <c r="T92" t="str">
         <f>IF(Компоненты!T92&lt;&gt;"",Компоненты!T92,"")</f>
-        <v/>
-      </c>
-      <c r="T92" t="str">
-        <f>IF(Компоненты!U92&lt;&gt;"",Компоненты!U92,"")</f>
         <v/>
       </c>
     </row>
@@ -14848,15 +14924,15 @@
         <v>ДА</v>
       </c>
       <c r="R93" t="str">
+        <f>IF(Компоненты!R93&lt;&gt;"",Компоненты!R93,"")</f>
+        <v>ДА</v>
+      </c>
+      <c r="S93" t="str">
         <f>IF(Компоненты!S93&lt;&gt;"",Компоненты!S93,"")</f>
         <v>ДА</v>
       </c>
-      <c r="S93" t="str">
+      <c r="T93" t="str">
         <f>IF(Компоненты!T93&lt;&gt;"",Компоненты!T93,"")</f>
-        <v/>
-      </c>
-      <c r="T93" t="str">
-        <f>IF(Компоненты!U93&lt;&gt;"",Компоненты!U93,"")</f>
         <v/>
       </c>
     </row>
@@ -14926,16 +15002,16 @@
         <v/>
       </c>
       <c r="R94" t="str">
+        <f>IF(Компоненты!R94&lt;&gt;"",Компоненты!R94,"")</f>
+        <v/>
+      </c>
+      <c r="S94" t="str">
         <f>IF(Компоненты!S94&lt;&gt;"",Компоненты!S94,"")</f>
         <v/>
       </c>
-      <c r="S94" t="str">
+      <c r="T94" t="str">
         <f>IF(Компоненты!T94&lt;&gt;"",Компоненты!T94,"")</f>
         <v/>
-      </c>
-      <c r="T94" t="str">
-        <f>IF(Компоненты!U94&lt;&gt;"",Компоненты!U94,"")</f>
-        <v>ДА</v>
       </c>
     </row>
     <row r="95" spans="2:20">
@@ -15004,15 +15080,15 @@
         <v/>
       </c>
       <c r="R95" t="str">
+        <f>IF(Компоненты!R95&lt;&gt;"",Компоненты!R95,"")</f>
+        <v/>
+      </c>
+      <c r="S95" t="str">
         <f>IF(Компоненты!S95&lt;&gt;"",Компоненты!S95,"")</f>
         <v/>
       </c>
-      <c r="S95" t="str">
+      <c r="T95" t="str">
         <f>IF(Компоненты!T95&lt;&gt;"",Компоненты!T95,"")</f>
-        <v/>
-      </c>
-      <c r="T95" t="str">
-        <f>IF(Компоненты!U95&lt;&gt;"",Компоненты!U95,"")</f>
         <v/>
       </c>
     </row>
@@ -15082,15 +15158,15 @@
         <v/>
       </c>
       <c r="R96" t="str">
+        <f>IF(Компоненты!R96&lt;&gt;"",Компоненты!R96,"")</f>
+        <v/>
+      </c>
+      <c r="S96" t="str">
         <f>IF(Компоненты!S96&lt;&gt;"",Компоненты!S96,"")</f>
         <v/>
       </c>
-      <c r="S96" t="str">
+      <c r="T96" t="str">
         <f>IF(Компоненты!T96&lt;&gt;"",Компоненты!T96,"")</f>
-        <v/>
-      </c>
-      <c r="T96" t="str">
-        <f>IF(Компоненты!U96&lt;&gt;"",Компоненты!U96,"")</f>
         <v/>
       </c>
     </row>
@@ -15138,7 +15214,7 @@
       <c r="L97" t="str">
         <f>IF(Компоненты!L97&lt;&gt;"",Компоненты!L97,"")</f>
         <v>Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров.
-В тройнике также параметризуются вылеты (прямые участки) для отвода и для магистрали.</v>
+В тройнике также параметризуются вылеты (прямые участки) для отвода и для магистрали. В данном тройнике параметризованы вылеты (прямые участки) магистрали относительно отвода и отвода относительно магистрали.</v>
       </c>
       <c r="M97" t="str">
         <f>IF(Компоненты!M97&lt;&gt;"",Компоненты!M97,"")</f>
@@ -15161,15 +15237,15 @@
         <v/>
       </c>
       <c r="R97" t="str">
+        <f>IF(Компоненты!R97&lt;&gt;"",Компоненты!R97,"")</f>
+        <v/>
+      </c>
+      <c r="S97" t="str">
         <f>IF(Компоненты!S97&lt;&gt;"",Компоненты!S97,"")</f>
         <v/>
       </c>
-      <c r="S97" t="str">
+      <c r="T97" t="str">
         <f>IF(Компоненты!T97&lt;&gt;"",Компоненты!T97,"")</f>
-        <v/>
-      </c>
-      <c r="T97" t="str">
-        <f>IF(Компоненты!U97&lt;&gt;"",Компоненты!U97,"")</f>
         <v/>
       </c>
     </row>
@@ -15186,9 +15262,8 @@
         <f>IF(Компоненты!D98&lt;&gt;"",Компоненты!D98,"")</f>
         <v>1</v>
       </c>
-      <c r="E98" t="str">
-        <f>IF(Компоненты!E98&lt;&gt;"",Компоненты!E98,"")</f>
-        <v>56f9915dd3d1a96ff8514fc29d16b374</v>
+      <c r="E98" t="s">
+        <v>420</v>
       </c>
       <c r="F98" t="str">
         <f>IF(Компоненты!F98&lt;&gt;"",Компоненты!F98,"")</f>
@@ -15241,15 +15316,15 @@
         <v/>
       </c>
       <c r="R98" t="str">
+        <f>IF(Компоненты!R98&lt;&gt;"",Компоненты!R98,"")</f>
+        <v/>
+      </c>
+      <c r="S98" t="str">
         <f>IF(Компоненты!S98&lt;&gt;"",Компоненты!S98,"")</f>
         <v/>
       </c>
-      <c r="S98" t="str">
+      <c r="T98" t="str">
         <f>IF(Компоненты!T98&lt;&gt;"",Компоненты!T98,"")</f>
-        <v/>
-      </c>
-      <c r="T98" t="str">
-        <f>IF(Компоненты!U98&lt;&gt;"",Компоненты!U98,"")</f>
         <v/>
       </c>
     </row>
@@ -15319,15 +15394,15 @@
         <v/>
       </c>
       <c r="R99" t="str">
+        <f>IF(Компоненты!R99&lt;&gt;"",Компоненты!R99,"")</f>
+        <v/>
+      </c>
+      <c r="S99" t="str">
         <f>IF(Компоненты!S99&lt;&gt;"",Компоненты!S99,"")</f>
         <v/>
       </c>
-      <c r="S99" t="str">
+      <c r="T99" t="str">
         <f>IF(Компоненты!T99&lt;&gt;"",Компоненты!T99,"")</f>
-        <v/>
-      </c>
-      <c r="T99" t="str">
-        <f>IF(Компоненты!U99&lt;&gt;"",Компоненты!U99,"")</f>
         <v/>
       </c>
     </row>
@@ -15399,15 +15474,15 @@
         <v/>
       </c>
       <c r="R100" t="str">
+        <f>IF(Компоненты!R100&lt;&gt;"",Компоненты!R100,"")</f>
+        <v/>
+      </c>
+      <c r="S100" t="str">
         <f>IF(Компоненты!S100&lt;&gt;"",Компоненты!S100,"")</f>
         <v/>
       </c>
-      <c r="S100" t="str">
+      <c r="T100" t="str">
         <f>IF(Компоненты!T100&lt;&gt;"",Компоненты!T100,"")</f>
-        <v/>
-      </c>
-      <c r="T100" t="str">
-        <f>IF(Компоненты!U100&lt;&gt;"",Компоненты!U100,"")</f>
         <v/>
       </c>
     </row>
@@ -15479,42 +15554,42 @@
         <v/>
       </c>
       <c r="R101" t="str">
+        <f>IF(Компоненты!R101&lt;&gt;"",Компоненты!R101,"")</f>
+        <v/>
+      </c>
+      <c r="S101" t="str">
         <f>IF(Компоненты!S101&lt;&gt;"",Компоненты!S101,"")</f>
         <v/>
       </c>
-      <c r="S101" t="str">
+      <c r="T101" t="str">
         <f>IF(Компоненты!T101&lt;&gt;"",Компоненты!T101,"")</f>
         <v/>
       </c>
-      <c r="T101" t="str">
-        <f>IF(Компоненты!U101&lt;&gt;"",Компоненты!U101,"")</f>
-        <v/>
-      </c>
     </row>
     <row r="102" spans="2:20">
-      <c r="B102" t="str">
+      <c r="B102">
         <f>IF(Компоненты!B102&lt;&gt;"",Компоненты!B102,"")</f>
-        <v/>
+        <v>99</v>
       </c>
       <c r="C102" t="str">
         <f>IF(Компоненты!C102&lt;&gt;"",Компоненты!C102,"")</f>
-        <v/>
-      </c>
-      <c r="D102" t="str">
+        <v>Заглушка</v>
+      </c>
+      <c r="D102">
         <f>IF(Компоненты!D102&lt;&gt;"",Компоненты!D102,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E102" t="str">
         <f>IF(Компоненты!E102&lt;&gt;"",Компоненты!E102,"")</f>
-        <v/>
+        <v>6ac622492909a14fe1ef51d9d59e89a1</v>
       </c>
       <c r="F102" t="str">
         <f>IF(Компоненты!F102&lt;&gt;"",Компоненты!F102,"")</f>
-        <v/>
+        <v>Элементы воздуховодов</v>
       </c>
       <c r="G102" t="str">
         <f>IF(Компоненты!G102&lt;&gt;"",Компоненты!G102,"")</f>
-        <v/>
+        <v>Заглушка</v>
       </c>
       <c r="H102" t="str">
         <f>IF(Компоненты!H102&lt;&gt;"",Компоненты!H102,"")</f>
@@ -15522,19 +15597,19 @@
       </c>
       <c r="I102" t="str">
         <f>IF(Компоненты!I102&lt;&gt;"",Компоненты!I102,"")</f>
-        <v/>
+        <v>Прямоугольный</v>
       </c>
       <c r="J102" t="str">
         <f>IF(Компоненты!J102&lt;&gt;"",Компоненты!J102,"")</f>
-        <v/>
+        <v>Нанософт разработка</v>
       </c>
       <c r="K102" t="str">
         <f>IF(Компоненты!K102&lt;&gt;"",Компоненты!K102,"")</f>
-        <v/>
+        <v>Параметрическая</v>
       </c>
       <c r="L102" t="str">
         <f>IF(Компоненты!L102&lt;&gt;"",Компоненты!L102,"")</f>
-        <v/>
+        <v>Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров. </v>
       </c>
       <c r="M102" t="str">
         <f>IF(Компоненты!M102&lt;&gt;"",Компоненты!M102,"")</f>
@@ -15542,11 +15617,11 @@
       </c>
       <c r="N102" t="str">
         <f>IF(Компоненты!N102&lt;&gt;"",Компоненты!N102,"")</f>
-        <v/>
+        <v>https://www.nanocad.ru/products/bim/ventilation/</v>
       </c>
       <c r="O102" t="str">
         <f>IF(Компоненты!O102&lt;&gt;"",Компоненты!O102,"")</f>
-        <v/>
+        <v>100x100, 200x100, 200x200, 800x200</v>
       </c>
       <c r="P102" t="str">
         <f>IF(Компоненты!P102&lt;&gt;"",Компоненты!P102,"")</f>
@@ -15557,62 +15632,63 @@
         <v/>
       </c>
       <c r="R102" t="str">
+        <f>IF(Компоненты!R102&lt;&gt;"",Компоненты!R102,"")</f>
+        <v/>
+      </c>
+      <c r="S102" t="str">
         <f>IF(Компоненты!S102&lt;&gt;"",Компоненты!S102,"")</f>
         <v/>
       </c>
-      <c r="S102" t="str">
+      <c r="T102" t="str">
         <f>IF(Компоненты!T102&lt;&gt;"",Компоненты!T102,"")</f>
         <v/>
       </c>
-      <c r="T102" t="str">
-        <f>IF(Компоненты!U102&lt;&gt;"",Компоненты!U102,"")</f>
-        <v/>
-      </c>
     </row>
     <row r="103" spans="2:20">
-      <c r="B103" t="str">
+      <c r="B103">
         <f>IF(Компоненты!B103&lt;&gt;"",Компоненты!B103,"")</f>
-        <v/>
+        <v>100</v>
       </c>
       <c r="C103" t="str">
         <f>IF(Компоненты!C103&lt;&gt;"",Компоненты!C103,"")</f>
-        <v/>
-      </c>
-      <c r="D103" t="str">
+        <v>Крестовина</v>
+      </c>
+      <c r="D103">
         <f>IF(Компоненты!D103&lt;&gt;"",Компоненты!D103,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E103" t="str">
         <f>IF(Компоненты!E103&lt;&gt;"",Компоненты!E103,"")</f>
-        <v/>
+        <v>1197af013018aca6733b9b7e25c234dc</v>
       </c>
       <c r="F103" t="str">
         <f>IF(Компоненты!F103&lt;&gt;"",Компоненты!F103,"")</f>
-        <v/>
+        <v>Элементы воздуховодов</v>
       </c>
       <c r="G103" t="str">
         <f>IF(Компоненты!G103&lt;&gt;"",Компоненты!G103,"")</f>
-        <v/>
+        <v>Крестовина</v>
       </c>
       <c r="H103" t="str">
         <f>IF(Компоненты!H103&lt;&gt;"",Компоненты!H103,"")</f>
-        <v/>
+        <v>параметрическая</v>
       </c>
       <c r="I103" t="str">
         <f>IF(Компоненты!I103&lt;&gt;"",Компоненты!I103,"")</f>
-        <v/>
+        <v>Прямоугольный</v>
       </c>
       <c r="J103" t="str">
         <f>IF(Компоненты!J103&lt;&gt;"",Компоненты!J103,"")</f>
-        <v/>
+        <v>Нанософт разработка</v>
       </c>
       <c r="K103" t="str">
         <f>IF(Компоненты!K103&lt;&gt;"",Компоненты!K103,"")</f>
-        <v/>
+        <v>Параметрическая</v>
       </c>
       <c r="L103" t="str">
         <f>IF(Компоненты!L103&lt;&gt;"",Компоненты!L103,"")</f>
-        <v/>
+        <v>Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров.
+В тройнике также параметризуются вылеты (прямые участки) для отвода и для магистрали. В данной крестовине параметризованы вылеты (прямые участки) магистрали относительно отводов и вылеты отводов относительно магистрали.</v>
       </c>
       <c r="M103" t="str">
         <f>IF(Компоненты!M103&lt;&gt;"",Компоненты!M103,"")</f>
@@ -15620,11 +15696,11 @@
       </c>
       <c r="N103" t="str">
         <f>IF(Компоненты!N103&lt;&gt;"",Компоненты!N103,"")</f>
-        <v/>
+        <v>https://www.nanocad.ru/products/bim/ventilation/</v>
       </c>
       <c r="O103" t="str">
         <f>IF(Компоненты!O103&lt;&gt;"",Компоненты!O103,"")</f>
-        <v/>
+        <v>(100x100)x(100x100)...(200x200)x(200x200), (800x200)x(100x100)...(800x200)x(200x200)</v>
       </c>
       <c r="P103" t="str">
         <f>IF(Компоненты!P103&lt;&gt;"",Компоненты!P103,"")</f>
@@ -15635,15 +15711,15 @@
         <v/>
       </c>
       <c r="R103" t="str">
+        <f>IF(Компоненты!R103&lt;&gt;"",Компоненты!R103,"")</f>
+        <v/>
+      </c>
+      <c r="S103" t="str">
         <f>IF(Компоненты!S103&lt;&gt;"",Компоненты!S103,"")</f>
         <v/>
       </c>
-      <c r="S103" t="str">
+      <c r="T103" t="str">
         <f>IF(Компоненты!T103&lt;&gt;"",Компоненты!T103,"")</f>
-        <v/>
-      </c>
-      <c r="T103" t="str">
-        <f>IF(Компоненты!U103&lt;&gt;"",Компоненты!U103,"")</f>
         <v/>
       </c>
     </row>
@@ -15713,15 +15789,15 @@
         <v/>
       </c>
       <c r="R104" t="str">
+        <f>IF(Компоненты!R104&lt;&gt;"",Компоненты!R104,"")</f>
+        <v/>
+      </c>
+      <c r="S104" t="str">
         <f>IF(Компоненты!S104&lt;&gt;"",Компоненты!S104,"")</f>
         <v/>
       </c>
-      <c r="S104" t="str">
+      <c r="T104" t="str">
         <f>IF(Компоненты!T104&lt;&gt;"",Компоненты!T104,"")</f>
-        <v/>
-      </c>
-      <c r="T104" t="str">
-        <f>IF(Компоненты!U104&lt;&gt;"",Компоненты!U104,"")</f>
         <v/>
       </c>
     </row>
@@ -15791,15 +15867,15 @@
         <v/>
       </c>
       <c r="R105" t="str">
+        <f>IF(Компоненты!R105&lt;&gt;"",Компоненты!R105,"")</f>
+        <v/>
+      </c>
+      <c r="S105" t="str">
         <f>IF(Компоненты!S105&lt;&gt;"",Компоненты!S105,"")</f>
         <v/>
       </c>
-      <c r="S105" t="str">
+      <c r="T105" t="str">
         <f>IF(Компоненты!T105&lt;&gt;"",Компоненты!T105,"")</f>
-        <v/>
-      </c>
-      <c r="T105" t="str">
-        <f>IF(Компоненты!U105&lt;&gt;"",Компоненты!U105,"")</f>
         <v/>
       </c>
     </row>
@@ -15869,15 +15945,15 @@
         <v/>
       </c>
       <c r="R106" t="str">
+        <f>IF(Компоненты!R106&lt;&gt;"",Компоненты!R106,"")</f>
+        <v/>
+      </c>
+      <c r="S106" t="str">
         <f>IF(Компоненты!S106&lt;&gt;"",Компоненты!S106,"")</f>
         <v/>
       </c>
-      <c r="S106" t="str">
+      <c r="T106" t="str">
         <f>IF(Компоненты!T106&lt;&gt;"",Компоненты!T106,"")</f>
-        <v/>
-      </c>
-      <c r="T106" t="str">
-        <f>IF(Компоненты!U106&lt;&gt;"",Компоненты!U106,"")</f>
         <v/>
       </c>
     </row>
@@ -15947,15 +16023,15 @@
         <v/>
       </c>
       <c r="R107" t="str">
+        <f>IF(Компоненты!R107&lt;&gt;"",Компоненты!R107,"")</f>
+        <v/>
+      </c>
+      <c r="S107" t="str">
         <f>IF(Компоненты!S107&lt;&gt;"",Компоненты!S107,"")</f>
         <v/>
       </c>
-      <c r="S107" t="str">
+      <c r="T107" t="str">
         <f>IF(Компоненты!T107&lt;&gt;"",Компоненты!T107,"")</f>
-        <v/>
-      </c>
-      <c r="T107" t="str">
-        <f>IF(Компоненты!U107&lt;&gt;"",Компоненты!U107,"")</f>
         <v/>
       </c>
     </row>
@@ -16025,15 +16101,15 @@
         <v/>
       </c>
       <c r="R108" t="str">
+        <f>IF(Компоненты!R108&lt;&gt;"",Компоненты!R108,"")</f>
+        <v/>
+      </c>
+      <c r="S108" t="str">
         <f>IF(Компоненты!S108&lt;&gt;"",Компоненты!S108,"")</f>
         <v/>
       </c>
-      <c r="S108" t="str">
+      <c r="T108" t="str">
         <f>IF(Компоненты!T108&lt;&gt;"",Компоненты!T108,"")</f>
-        <v/>
-      </c>
-      <c r="T108" t="str">
-        <f>IF(Компоненты!U108&lt;&gt;"",Компоненты!U108,"")</f>
         <v/>
       </c>
     </row>
@@ -16103,15 +16179,15 @@
         <v/>
       </c>
       <c r="R109" t="str">
+        <f>IF(Компоненты!R109&lt;&gt;"",Компоненты!R109,"")</f>
+        <v/>
+      </c>
+      <c r="S109" t="str">
         <f>IF(Компоненты!S109&lt;&gt;"",Компоненты!S109,"")</f>
         <v/>
       </c>
-      <c r="S109" t="str">
+      <c r="T109" t="str">
         <f>IF(Компоненты!T109&lt;&gt;"",Компоненты!T109,"")</f>
-        <v/>
-      </c>
-      <c r="T109" t="str">
-        <f>IF(Компоненты!U109&lt;&gt;"",Компоненты!U109,"")</f>
         <v/>
       </c>
     </row>
@@ -16181,15 +16257,15 @@
         <v/>
       </c>
       <c r="R110" t="str">
+        <f>IF(Компоненты!R110&lt;&gt;"",Компоненты!R110,"")</f>
+        <v/>
+      </c>
+      <c r="S110" t="str">
         <f>IF(Компоненты!S110&lt;&gt;"",Компоненты!S110,"")</f>
         <v/>
       </c>
-      <c r="S110" t="str">
+      <c r="T110" t="str">
         <f>IF(Компоненты!T110&lt;&gt;"",Компоненты!T110,"")</f>
-        <v/>
-      </c>
-      <c r="T110" t="str">
-        <f>IF(Компоненты!U110&lt;&gt;"",Компоненты!U110,"")</f>
         <v/>
       </c>
     </row>
@@ -16259,15 +16335,15 @@
         <v/>
       </c>
       <c r="R111" t="str">
+        <f>IF(Компоненты!R111&lt;&gt;"",Компоненты!R111,"")</f>
+        <v/>
+      </c>
+      <c r="S111" t="str">
         <f>IF(Компоненты!S111&lt;&gt;"",Компоненты!S111,"")</f>
         <v/>
       </c>
-      <c r="S111" t="str">
+      <c r="T111" t="str">
         <f>IF(Компоненты!T111&lt;&gt;"",Компоненты!T111,"")</f>
-        <v/>
-      </c>
-      <c r="T111" t="str">
-        <f>IF(Компоненты!U111&lt;&gt;"",Компоненты!U111,"")</f>
         <v/>
       </c>
     </row>
@@ -16337,15 +16413,15 @@
         <v/>
       </c>
       <c r="R112" t="str">
+        <f>IF(Компоненты!R112&lt;&gt;"",Компоненты!R112,"")</f>
+        <v/>
+      </c>
+      <c r="S112" t="str">
         <f>IF(Компоненты!S112&lt;&gt;"",Компоненты!S112,"")</f>
         <v/>
       </c>
-      <c r="S112" t="str">
+      <c r="T112" t="str">
         <f>IF(Компоненты!T112&lt;&gt;"",Компоненты!T112,"")</f>
-        <v/>
-      </c>
-      <c r="T112" t="str">
-        <f>IF(Компоненты!U112&lt;&gt;"",Компоненты!U112,"")</f>
         <v/>
       </c>
     </row>
@@ -16415,15 +16491,15 @@
         <v/>
       </c>
       <c r="R113" t="str">
+        <f>IF(Компоненты!R113&lt;&gt;"",Компоненты!R113,"")</f>
+        <v/>
+      </c>
+      <c r="S113" t="str">
         <f>IF(Компоненты!S113&lt;&gt;"",Компоненты!S113,"")</f>
         <v/>
       </c>
-      <c r="S113" t="str">
+      <c r="T113" t="str">
         <f>IF(Компоненты!T113&lt;&gt;"",Компоненты!T113,"")</f>
-        <v/>
-      </c>
-      <c r="T113" t="str">
-        <f>IF(Компоненты!U113&lt;&gt;"",Компоненты!U113,"")</f>
         <v/>
       </c>
     </row>
@@ -16493,15 +16569,15 @@
         <v/>
       </c>
       <c r="R114" t="str">
+        <f>IF(Компоненты!R114&lt;&gt;"",Компоненты!R114,"")</f>
+        <v/>
+      </c>
+      <c r="S114" t="str">
         <f>IF(Компоненты!S114&lt;&gt;"",Компоненты!S114,"")</f>
         <v/>
       </c>
-      <c r="S114" t="str">
+      <c r="T114" t="str">
         <f>IF(Компоненты!T114&lt;&gt;"",Компоненты!T114,"")</f>
-        <v/>
-      </c>
-      <c r="T114" t="str">
-        <f>IF(Компоненты!U114&lt;&gt;"",Компоненты!U114,"")</f>
         <v/>
       </c>
     </row>
@@ -16571,15 +16647,15 @@
         <v/>
       </c>
       <c r="R115" t="str">
+        <f>IF(Компоненты!R115&lt;&gt;"",Компоненты!R115,"")</f>
+        <v/>
+      </c>
+      <c r="S115" t="str">
         <f>IF(Компоненты!S115&lt;&gt;"",Компоненты!S115,"")</f>
         <v/>
       </c>
-      <c r="S115" t="str">
+      <c r="T115" t="str">
         <f>IF(Компоненты!T115&lt;&gt;"",Компоненты!T115,"")</f>
-        <v/>
-      </c>
-      <c r="T115" t="str">
-        <f>IF(Компоненты!U115&lt;&gt;"",Компоненты!U115,"")</f>
         <v/>
       </c>
     </row>
@@ -16649,15 +16725,15 @@
         <v/>
       </c>
       <c r="R116" t="str">
+        <f>IF(Компоненты!R116&lt;&gt;"",Компоненты!R116,"")</f>
+        <v/>
+      </c>
+      <c r="S116" t="str">
         <f>IF(Компоненты!S116&lt;&gt;"",Компоненты!S116,"")</f>
         <v/>
       </c>
-      <c r="S116" t="str">
+      <c r="T116" t="str">
         <f>IF(Компоненты!T116&lt;&gt;"",Компоненты!T116,"")</f>
-        <v/>
-      </c>
-      <c r="T116" t="str">
-        <f>IF(Компоненты!U116&lt;&gt;"",Компоненты!U116,"")</f>
         <v/>
       </c>
     </row>
@@ -16727,15 +16803,15 @@
         <v/>
       </c>
       <c r="R117" t="str">
+        <f>IF(Компоненты!R117&lt;&gt;"",Компоненты!R117,"")</f>
+        <v/>
+      </c>
+      <c r="S117" t="str">
         <f>IF(Компоненты!S117&lt;&gt;"",Компоненты!S117,"")</f>
         <v/>
       </c>
-      <c r="S117" t="str">
+      <c r="T117" t="str">
         <f>IF(Компоненты!T117&lt;&gt;"",Компоненты!T117,"")</f>
-        <v/>
-      </c>
-      <c r="T117" t="str">
-        <f>IF(Компоненты!U117&lt;&gt;"",Компоненты!U117,"")</f>
         <v/>
       </c>
     </row>
@@ -16805,15 +16881,15 @@
         <v/>
       </c>
       <c r="R118" t="str">
+        <f>IF(Компоненты!R118&lt;&gt;"",Компоненты!R118,"")</f>
+        <v/>
+      </c>
+      <c r="S118" t="str">
         <f>IF(Компоненты!S118&lt;&gt;"",Компоненты!S118,"")</f>
         <v/>
       </c>
-      <c r="S118" t="str">
+      <c r="T118" t="str">
         <f>IF(Компоненты!T118&lt;&gt;"",Компоненты!T118,"")</f>
-        <v/>
-      </c>
-      <c r="T118" t="str">
-        <f>IF(Компоненты!U118&lt;&gt;"",Компоненты!U118,"")</f>
         <v/>
       </c>
     </row>
@@ -16883,15 +16959,15 @@
         <v/>
       </c>
       <c r="R119" t="str">
+        <f>IF(Компоненты!R119&lt;&gt;"",Компоненты!R119,"")</f>
+        <v/>
+      </c>
+      <c r="S119" t="str">
         <f>IF(Компоненты!S119&lt;&gt;"",Компоненты!S119,"")</f>
         <v/>
       </c>
-      <c r="S119" t="str">
+      <c r="T119" t="str">
         <f>IF(Компоненты!T119&lt;&gt;"",Компоненты!T119,"")</f>
-        <v/>
-      </c>
-      <c r="T119" t="str">
-        <f>IF(Компоненты!U119&lt;&gt;"",Компоненты!U119,"")</f>
         <v/>
       </c>
     </row>
@@ -16961,15 +17037,15 @@
         <v/>
       </c>
       <c r="R120" t="str">
+        <f>IF(Компоненты!R120&lt;&gt;"",Компоненты!R120,"")</f>
+        <v/>
+      </c>
+      <c r="S120" t="str">
         <f>IF(Компоненты!S120&lt;&gt;"",Компоненты!S120,"")</f>
         <v/>
       </c>
-      <c r="S120" t="str">
+      <c r="T120" t="str">
         <f>IF(Компоненты!T120&lt;&gt;"",Компоненты!T120,"")</f>
-        <v/>
-      </c>
-      <c r="T120" t="str">
-        <f>IF(Компоненты!U120&lt;&gt;"",Компоненты!U120,"")</f>
         <v/>
       </c>
     </row>
@@ -17039,15 +17115,15 @@
         <v/>
       </c>
       <c r="R121" t="str">
+        <f>IF(Компоненты!R121&lt;&gt;"",Компоненты!R121,"")</f>
+        <v/>
+      </c>
+      <c r="S121" t="str">
         <f>IF(Компоненты!S121&lt;&gt;"",Компоненты!S121,"")</f>
         <v/>
       </c>
-      <c r="S121" t="str">
+      <c r="T121" t="str">
         <f>IF(Компоненты!T121&lt;&gt;"",Компоненты!T121,"")</f>
-        <v/>
-      </c>
-      <c r="T121" t="str">
-        <f>IF(Компоненты!U121&lt;&gt;"",Компоненты!U121,"")</f>
         <v/>
       </c>
     </row>
@@ -17117,15 +17193,15 @@
         <v/>
       </c>
       <c r="R122" t="str">
+        <f>IF(Компоненты!R122&lt;&gt;"",Компоненты!R122,"")</f>
+        <v/>
+      </c>
+      <c r="S122" t="str">
         <f>IF(Компоненты!S122&lt;&gt;"",Компоненты!S122,"")</f>
         <v/>
       </c>
-      <c r="S122" t="str">
+      <c r="T122" t="str">
         <f>IF(Компоненты!T122&lt;&gt;"",Компоненты!T122,"")</f>
-        <v/>
-      </c>
-      <c r="T122" t="str">
-        <f>IF(Компоненты!U122&lt;&gt;"",Компоненты!U122,"")</f>
         <v/>
       </c>
     </row>
@@ -17195,15 +17271,15 @@
         <v/>
       </c>
       <c r="R123" t="str">
+        <f>IF(Компоненты!R123&lt;&gt;"",Компоненты!R123,"")</f>
+        <v/>
+      </c>
+      <c r="S123" t="str">
         <f>IF(Компоненты!S123&lt;&gt;"",Компоненты!S123,"")</f>
         <v/>
       </c>
-      <c r="S123" t="str">
+      <c r="T123" t="str">
         <f>IF(Компоненты!T123&lt;&gt;"",Компоненты!T123,"")</f>
-        <v/>
-      </c>
-      <c r="T123" t="str">
-        <f>IF(Компоненты!U123&lt;&gt;"",Компоненты!U123,"")</f>
         <v/>
       </c>
     </row>
@@ -17273,15 +17349,15 @@
         <v/>
       </c>
       <c r="R124" t="str">
+        <f>IF(Компоненты!R124&lt;&gt;"",Компоненты!R124,"")</f>
+        <v/>
+      </c>
+      <c r="S124" t="str">
         <f>IF(Компоненты!S124&lt;&gt;"",Компоненты!S124,"")</f>
         <v/>
       </c>
-      <c r="S124" t="str">
+      <c r="T124" t="str">
         <f>IF(Компоненты!T124&lt;&gt;"",Компоненты!T124,"")</f>
-        <v/>
-      </c>
-      <c r="T124" t="str">
-        <f>IF(Компоненты!U124&lt;&gt;"",Компоненты!U124,"")</f>
         <v/>
       </c>
     </row>
@@ -17351,15 +17427,15 @@
         <v/>
       </c>
       <c r="R125" t="str">
+        <f>IF(Компоненты!R125&lt;&gt;"",Компоненты!R125,"")</f>
+        <v/>
+      </c>
+      <c r="S125" t="str">
         <f>IF(Компоненты!S125&lt;&gt;"",Компоненты!S125,"")</f>
         <v/>
       </c>
-      <c r="S125" t="str">
+      <c r="T125" t="str">
         <f>IF(Компоненты!T125&lt;&gt;"",Компоненты!T125,"")</f>
-        <v/>
-      </c>
-      <c r="T125" t="str">
-        <f>IF(Компоненты!U125&lt;&gt;"",Компоненты!U125,"")</f>
         <v/>
       </c>
     </row>
@@ -17429,15 +17505,15 @@
         <v/>
       </c>
       <c r="R126" t="str">
+        <f>IF(Компоненты!R126&lt;&gt;"",Компоненты!R126,"")</f>
+        <v/>
+      </c>
+      <c r="S126" t="str">
         <f>IF(Компоненты!S126&lt;&gt;"",Компоненты!S126,"")</f>
         <v/>
       </c>
-      <c r="S126" t="str">
+      <c r="T126" t="str">
         <f>IF(Компоненты!T126&lt;&gt;"",Компоненты!T126,"")</f>
-        <v/>
-      </c>
-      <c r="T126" t="str">
-        <f>IF(Компоненты!U126&lt;&gt;"",Компоненты!U126,"")</f>
         <v/>
       </c>
     </row>
@@ -17507,15 +17583,15 @@
         <v/>
       </c>
       <c r="R127" t="str">
+        <f>IF(Компоненты!R127&lt;&gt;"",Компоненты!R127,"")</f>
+        <v/>
+      </c>
+      <c r="S127" t="str">
         <f>IF(Компоненты!S127&lt;&gt;"",Компоненты!S127,"")</f>
         <v/>
       </c>
-      <c r="S127" t="str">
+      <c r="T127" t="str">
         <f>IF(Компоненты!T127&lt;&gt;"",Компоненты!T127,"")</f>
-        <v/>
-      </c>
-      <c r="T127" t="str">
-        <f>IF(Компоненты!U127&lt;&gt;"",Компоненты!U127,"")</f>
         <v/>
       </c>
     </row>
@@ -17585,15 +17661,15 @@
         <v/>
       </c>
       <c r="R128" t="str">
+        <f>IF(Компоненты!R128&lt;&gt;"",Компоненты!R128,"")</f>
+        <v/>
+      </c>
+      <c r="S128" t="str">
         <f>IF(Компоненты!S128&lt;&gt;"",Компоненты!S128,"")</f>
         <v/>
       </c>
-      <c r="S128" t="str">
+      <c r="T128" t="str">
         <f>IF(Компоненты!T128&lt;&gt;"",Компоненты!T128,"")</f>
-        <v/>
-      </c>
-      <c r="T128" t="str">
-        <f>IF(Компоненты!U128&lt;&gt;"",Компоненты!U128,"")</f>
         <v/>
       </c>
     </row>
@@ -17663,15 +17739,15 @@
         <v/>
       </c>
       <c r="R129" t="str">
+        <f>IF(Компоненты!R129&lt;&gt;"",Компоненты!R129,"")</f>
+        <v/>
+      </c>
+      <c r="S129" t="str">
         <f>IF(Компоненты!S129&lt;&gt;"",Компоненты!S129,"")</f>
         <v/>
       </c>
-      <c r="S129" t="str">
+      <c r="T129" t="str">
         <f>IF(Компоненты!T129&lt;&gt;"",Компоненты!T129,"")</f>
-        <v/>
-      </c>
-      <c r="T129" t="str">
-        <f>IF(Компоненты!U129&lt;&gt;"",Компоненты!U129,"")</f>
         <v/>
       </c>
     </row>
@@ -17741,15 +17817,15 @@
         <v/>
       </c>
       <c r="R130" t="str">
+        <f>IF(Компоненты!R130&lt;&gt;"",Компоненты!R130,"")</f>
+        <v/>
+      </c>
+      <c r="S130" t="str">
         <f>IF(Компоненты!S130&lt;&gt;"",Компоненты!S130,"")</f>
         <v/>
       </c>
-      <c r="S130" t="str">
+      <c r="T130" t="str">
         <f>IF(Компоненты!T130&lt;&gt;"",Компоненты!T130,"")</f>
-        <v/>
-      </c>
-      <c r="T130" t="str">
-        <f>IF(Компоненты!U130&lt;&gt;"",Компоненты!U130,"")</f>
         <v/>
       </c>
     </row>
@@ -17819,15 +17895,15 @@
         <v/>
       </c>
       <c r="R131" t="str">
+        <f>IF(Компоненты!R131&lt;&gt;"",Компоненты!R131,"")</f>
+        <v/>
+      </c>
+      <c r="S131" t="str">
         <f>IF(Компоненты!S131&lt;&gt;"",Компоненты!S131,"")</f>
         <v/>
       </c>
-      <c r="S131" t="str">
+      <c r="T131" t="str">
         <f>IF(Компоненты!T131&lt;&gt;"",Компоненты!T131,"")</f>
-        <v/>
-      </c>
-      <c r="T131" t="str">
-        <f>IF(Компоненты!U131&lt;&gt;"",Компоненты!U131,"")</f>
         <v/>
       </c>
     </row>
@@ -17897,15 +17973,15 @@
         <v/>
       </c>
       <c r="R132" t="str">
+        <f>IF(Компоненты!R132&lt;&gt;"",Компоненты!R132,"")</f>
+        <v/>
+      </c>
+      <c r="S132" t="str">
         <f>IF(Компоненты!S132&lt;&gt;"",Компоненты!S132,"")</f>
         <v/>
       </c>
-      <c r="S132" t="str">
+      <c r="T132" t="str">
         <f>IF(Компоненты!T132&lt;&gt;"",Компоненты!T132,"")</f>
-        <v/>
-      </c>
-      <c r="T132" t="str">
-        <f>IF(Компоненты!U132&lt;&gt;"",Компоненты!U132,"")</f>
         <v/>
       </c>
     </row>
@@ -17975,15 +18051,15 @@
         <v/>
       </c>
       <c r="R133" t="str">
+        <f>IF(Компоненты!R133&lt;&gt;"",Компоненты!R133,"")</f>
+        <v/>
+      </c>
+      <c r="S133" t="str">
         <f>IF(Компоненты!S133&lt;&gt;"",Компоненты!S133,"")</f>
         <v/>
       </c>
-      <c r="S133" t="str">
+      <c r="T133" t="str">
         <f>IF(Компоненты!T133&lt;&gt;"",Компоненты!T133,"")</f>
-        <v/>
-      </c>
-      <c r="T133" t="str">
-        <f>IF(Компоненты!U133&lt;&gt;"",Компоненты!U133,"")</f>
         <v/>
       </c>
     </row>
@@ -18053,15 +18129,15 @@
         <v/>
       </c>
       <c r="R134" t="str">
+        <f>IF(Компоненты!R134&lt;&gt;"",Компоненты!R134,"")</f>
+        <v/>
+      </c>
+      <c r="S134" t="str">
         <f>IF(Компоненты!S134&lt;&gt;"",Компоненты!S134,"")</f>
         <v/>
       </c>
-      <c r="S134" t="str">
+      <c r="T134" t="str">
         <f>IF(Компоненты!T134&lt;&gt;"",Компоненты!T134,"")</f>
-        <v/>
-      </c>
-      <c r="T134" t="str">
-        <f>IF(Компоненты!U134&lt;&gt;"",Компоненты!U134,"")</f>
         <v/>
       </c>
     </row>
@@ -18131,15 +18207,15 @@
         <v/>
       </c>
       <c r="R135" t="str">
+        <f>IF(Компоненты!R135&lt;&gt;"",Компоненты!R135,"")</f>
+        <v/>
+      </c>
+      <c r="S135" t="str">
         <f>IF(Компоненты!S135&lt;&gt;"",Компоненты!S135,"")</f>
         <v/>
       </c>
-      <c r="S135" t="str">
+      <c r="T135" t="str">
         <f>IF(Компоненты!T135&lt;&gt;"",Компоненты!T135,"")</f>
-        <v/>
-      </c>
-      <c r="T135" t="str">
-        <f>IF(Компоненты!U135&lt;&gt;"",Компоненты!U135,"")</f>
         <v/>
       </c>
     </row>
@@ -18209,15 +18285,15 @@
         <v/>
       </c>
       <c r="R136" t="str">
+        <f>IF(Компоненты!R136&lt;&gt;"",Компоненты!R136,"")</f>
+        <v/>
+      </c>
+      <c r="S136" t="str">
         <f>IF(Компоненты!S136&lt;&gt;"",Компоненты!S136,"")</f>
         <v/>
       </c>
-      <c r="S136" t="str">
+      <c r="T136" t="str">
         <f>IF(Компоненты!T136&lt;&gt;"",Компоненты!T136,"")</f>
-        <v/>
-      </c>
-      <c r="T136" t="str">
-        <f>IF(Компоненты!U136&lt;&gt;"",Компоненты!U136,"")</f>
         <v/>
       </c>
     </row>
@@ -18287,15 +18363,15 @@
         <v/>
       </c>
       <c r="R137" t="str">
+        <f>IF(Компоненты!R137&lt;&gt;"",Компоненты!R137,"")</f>
+        <v/>
+      </c>
+      <c r="S137" t="str">
         <f>IF(Компоненты!S137&lt;&gt;"",Компоненты!S137,"")</f>
         <v/>
       </c>
-      <c r="S137" t="str">
+      <c r="T137" t="str">
         <f>IF(Компоненты!T137&lt;&gt;"",Компоненты!T137,"")</f>
-        <v/>
-      </c>
-      <c r="T137" t="str">
-        <f>IF(Компоненты!U137&lt;&gt;"",Компоненты!U137,"")</f>
         <v/>
       </c>
     </row>
@@ -18365,15 +18441,15 @@
         <v/>
       </c>
       <c r="R138" t="str">
+        <f>IF(Компоненты!R138&lt;&gt;"",Компоненты!R138,"")</f>
+        <v/>
+      </c>
+      <c r="S138" t="str">
         <f>IF(Компоненты!S138&lt;&gt;"",Компоненты!S138,"")</f>
         <v/>
       </c>
-      <c r="S138" t="str">
+      <c r="T138" t="str">
         <f>IF(Компоненты!T138&lt;&gt;"",Компоненты!T138,"")</f>
-        <v/>
-      </c>
-      <c r="T138" t="str">
-        <f>IF(Компоненты!U138&lt;&gt;"",Компоненты!U138,"")</f>
         <v/>
       </c>
     </row>
@@ -18443,15 +18519,15 @@
         <v/>
       </c>
       <c r="R139" t="str">
+        <f>IF(Компоненты!R139&lt;&gt;"",Компоненты!R139,"")</f>
+        <v/>
+      </c>
+      <c r="S139" t="str">
         <f>IF(Компоненты!S139&lt;&gt;"",Компоненты!S139,"")</f>
         <v/>
       </c>
-      <c r="S139" t="str">
+      <c r="T139" t="str">
         <f>IF(Компоненты!T139&lt;&gt;"",Компоненты!T139,"")</f>
-        <v/>
-      </c>
-      <c r="T139" t="str">
-        <f>IF(Компоненты!U139&lt;&gt;"",Компоненты!U139,"")</f>
         <v/>
       </c>
     </row>
@@ -18521,15 +18597,15 @@
         <v/>
       </c>
       <c r="R140" t="str">
+        <f>IF(Компоненты!R140&lt;&gt;"",Компоненты!R140,"")</f>
+        <v/>
+      </c>
+      <c r="S140" t="str">
         <f>IF(Компоненты!S140&lt;&gt;"",Компоненты!S140,"")</f>
         <v/>
       </c>
-      <c r="S140" t="str">
+      <c r="T140" t="str">
         <f>IF(Компоненты!T140&lt;&gt;"",Компоненты!T140,"")</f>
-        <v/>
-      </c>
-      <c r="T140" t="str">
-        <f>IF(Компоненты!U140&lt;&gt;"",Компоненты!U140,"")</f>
         <v/>
       </c>
     </row>
@@ -18599,15 +18675,15 @@
         <v/>
       </c>
       <c r="R141" t="str">
+        <f>IF(Компоненты!R141&lt;&gt;"",Компоненты!R141,"")</f>
+        <v/>
+      </c>
+      <c r="S141" t="str">
         <f>IF(Компоненты!S141&lt;&gt;"",Компоненты!S141,"")</f>
         <v/>
       </c>
-      <c r="S141" t="str">
+      <c r="T141" t="str">
         <f>IF(Компоненты!T141&lt;&gt;"",Компоненты!T141,"")</f>
-        <v/>
-      </c>
-      <c r="T141" t="str">
-        <f>IF(Компоненты!U141&lt;&gt;"",Компоненты!U141,"")</f>
         <v/>
       </c>
     </row>
@@ -18677,15 +18753,15 @@
         <v/>
       </c>
       <c r="R142" t="str">
+        <f>IF(Компоненты!R142&lt;&gt;"",Компоненты!R142,"")</f>
+        <v/>
+      </c>
+      <c r="S142" t="str">
         <f>IF(Компоненты!S142&lt;&gt;"",Компоненты!S142,"")</f>
         <v/>
       </c>
-      <c r="S142" t="str">
+      <c r="T142" t="str">
         <f>IF(Компоненты!T142&lt;&gt;"",Компоненты!T142,"")</f>
-        <v/>
-      </c>
-      <c r="T142" t="str">
-        <f>IF(Компоненты!U142&lt;&gt;"",Компоненты!U142,"")</f>
         <v/>
       </c>
     </row>
@@ -18755,15 +18831,15 @@
         <v/>
       </c>
       <c r="R143" t="str">
+        <f>IF(Компоненты!R143&lt;&gt;"",Компоненты!R143,"")</f>
+        <v/>
+      </c>
+      <c r="S143" t="str">
         <f>IF(Компоненты!S143&lt;&gt;"",Компоненты!S143,"")</f>
         <v/>
       </c>
-      <c r="S143" t="str">
+      <c r="T143" t="str">
         <f>IF(Компоненты!T143&lt;&gt;"",Компоненты!T143,"")</f>
-        <v/>
-      </c>
-      <c r="T143" t="str">
-        <f>IF(Компоненты!U143&lt;&gt;"",Компоненты!U143,"")</f>
         <v/>
       </c>
     </row>
@@ -18833,15 +18909,15 @@
         <v/>
       </c>
       <c r="R144" t="str">
+        <f>IF(Компоненты!R144&lt;&gt;"",Компоненты!R144,"")</f>
+        <v/>
+      </c>
+      <c r="S144" t="str">
         <f>IF(Компоненты!S144&lt;&gt;"",Компоненты!S144,"")</f>
         <v/>
       </c>
-      <c r="S144" t="str">
+      <c r="T144" t="str">
         <f>IF(Компоненты!T144&lt;&gt;"",Компоненты!T144,"")</f>
-        <v/>
-      </c>
-      <c r="T144" t="str">
-        <f>IF(Компоненты!U144&lt;&gt;"",Компоненты!U144,"")</f>
         <v/>
       </c>
     </row>
@@ -18911,15 +18987,15 @@
         <v/>
       </c>
       <c r="R145" t="str">
+        <f>IF(Компоненты!R145&lt;&gt;"",Компоненты!R145,"")</f>
+        <v/>
+      </c>
+      <c r="S145" t="str">
         <f>IF(Компоненты!S145&lt;&gt;"",Компоненты!S145,"")</f>
         <v/>
       </c>
-      <c r="S145" t="str">
+      <c r="T145" t="str">
         <f>IF(Компоненты!T145&lt;&gt;"",Компоненты!T145,"")</f>
-        <v/>
-      </c>
-      <c r="T145" t="str">
-        <f>IF(Компоненты!U145&lt;&gt;"",Компоненты!U145,"")</f>
         <v/>
       </c>
     </row>
@@ -18989,15 +19065,15 @@
         <v/>
       </c>
       <c r="R146" t="str">
+        <f>IF(Компоненты!R146&lt;&gt;"",Компоненты!R146,"")</f>
+        <v/>
+      </c>
+      <c r="S146" t="str">
         <f>IF(Компоненты!S146&lt;&gt;"",Компоненты!S146,"")</f>
         <v/>
       </c>
-      <c r="S146" t="str">
+      <c r="T146" t="str">
         <f>IF(Компоненты!T146&lt;&gt;"",Компоненты!T146,"")</f>
-        <v/>
-      </c>
-      <c r="T146" t="str">
-        <f>IF(Компоненты!U146&lt;&gt;"",Компоненты!U146,"")</f>
         <v/>
       </c>
     </row>
@@ -19067,15 +19143,15 @@
         <v/>
       </c>
       <c r="R147" t="str">
+        <f>IF(Компоненты!R147&lt;&gt;"",Компоненты!R147,"")</f>
+        <v/>
+      </c>
+      <c r="S147" t="str">
         <f>IF(Компоненты!S147&lt;&gt;"",Компоненты!S147,"")</f>
         <v/>
       </c>
-      <c r="S147" t="str">
+      <c r="T147" t="str">
         <f>IF(Компоненты!T147&lt;&gt;"",Компоненты!T147,"")</f>
-        <v/>
-      </c>
-      <c r="T147" t="str">
-        <f>IF(Компоненты!U147&lt;&gt;"",Компоненты!U147,"")</f>
         <v/>
       </c>
     </row>
@@ -19145,15 +19221,15 @@
         <v/>
       </c>
       <c r="R148" t="str">
+        <f>IF(Компоненты!R148&lt;&gt;"",Компоненты!R148,"")</f>
+        <v/>
+      </c>
+      <c r="S148" t="str">
         <f>IF(Компоненты!S148&lt;&gt;"",Компоненты!S148,"")</f>
         <v/>
       </c>
-      <c r="S148" t="str">
+      <c r="T148" t="str">
         <f>IF(Компоненты!T148&lt;&gt;"",Компоненты!T148,"")</f>
-        <v/>
-      </c>
-      <c r="T148" t="str">
-        <f>IF(Компоненты!U148&lt;&gt;"",Компоненты!U148,"")</f>
         <v/>
       </c>
     </row>
@@ -19223,15 +19299,15 @@
         <v/>
       </c>
       <c r="R149" t="str">
+        <f>IF(Компоненты!R149&lt;&gt;"",Компоненты!R149,"")</f>
+        <v/>
+      </c>
+      <c r="S149" t="str">
         <f>IF(Компоненты!S149&lt;&gt;"",Компоненты!S149,"")</f>
         <v/>
       </c>
-      <c r="S149" t="str">
+      <c r="T149" t="str">
         <f>IF(Компоненты!T149&lt;&gt;"",Компоненты!T149,"")</f>
-        <v/>
-      </c>
-      <c r="T149" t="str">
-        <f>IF(Компоненты!U149&lt;&gt;"",Компоненты!U149,"")</f>
         <v/>
       </c>
     </row>
@@ -19301,15 +19377,15 @@
         <v/>
       </c>
       <c r="R150" t="str">
+        <f>IF(Компоненты!R150&lt;&gt;"",Компоненты!R150,"")</f>
+        <v/>
+      </c>
+      <c r="S150" t="str">
         <f>IF(Компоненты!S150&lt;&gt;"",Компоненты!S150,"")</f>
         <v/>
       </c>
-      <c r="S150" t="str">
+      <c r="T150" t="str">
         <f>IF(Компоненты!T150&lt;&gt;"",Компоненты!T150,"")</f>
-        <v/>
-      </c>
-      <c r="T150" t="str">
-        <f>IF(Компоненты!U150&lt;&gt;"",Компоненты!U150,"")</f>
         <v/>
       </c>
     </row>
@@ -19379,15 +19455,15 @@
         <v/>
       </c>
       <c r="R151" t="str">
+        <f>IF(Компоненты!R151&lt;&gt;"",Компоненты!R151,"")</f>
+        <v/>
+      </c>
+      <c r="S151" t="str">
         <f>IF(Компоненты!S151&lt;&gt;"",Компоненты!S151,"")</f>
         <v/>
       </c>
-      <c r="S151" t="str">
+      <c r="T151" t="str">
         <f>IF(Компоненты!T151&lt;&gt;"",Компоненты!T151,"")</f>
-        <v/>
-      </c>
-      <c r="T151" t="str">
-        <f>IF(Компоненты!U151&lt;&gt;"",Компоненты!U151,"")</f>
         <v/>
       </c>
     </row>
@@ -19457,15 +19533,15 @@
         <v/>
       </c>
       <c r="R152" t="str">
+        <f>IF(Компоненты!R152&lt;&gt;"",Компоненты!R152,"")</f>
+        <v/>
+      </c>
+      <c r="S152" t="str">
         <f>IF(Компоненты!S152&lt;&gt;"",Компоненты!S152,"")</f>
         <v/>
       </c>
-      <c r="S152" t="str">
+      <c r="T152" t="str">
         <f>IF(Компоненты!T152&lt;&gt;"",Компоненты!T152,"")</f>
-        <v/>
-      </c>
-      <c r="T152" t="str">
-        <f>IF(Компоненты!U152&lt;&gt;"",Компоненты!U152,"")</f>
         <v/>
       </c>
     </row>
@@ -19535,15 +19611,15 @@
         <v/>
       </c>
       <c r="R153" t="str">
+        <f>IF(Компоненты!R153&lt;&gt;"",Компоненты!R153,"")</f>
+        <v/>
+      </c>
+      <c r="S153" t="str">
         <f>IF(Компоненты!S153&lt;&gt;"",Компоненты!S153,"")</f>
         <v/>
       </c>
-      <c r="S153" t="str">
+      <c r="T153" t="str">
         <f>IF(Компоненты!T153&lt;&gt;"",Компоненты!T153,"")</f>
-        <v/>
-      </c>
-      <c r="T153" t="str">
-        <f>IF(Компоненты!U153&lt;&gt;"",Компоненты!U153,"")</f>
         <v/>
       </c>
     </row>
@@ -19613,15 +19689,15 @@
         <v/>
       </c>
       <c r="R154" t="str">
+        <f>IF(Компоненты!R154&lt;&gt;"",Компоненты!R154,"")</f>
+        <v/>
+      </c>
+      <c r="S154" t="str">
         <f>IF(Компоненты!S154&lt;&gt;"",Компоненты!S154,"")</f>
         <v/>
       </c>
-      <c r="S154" t="str">
+      <c r="T154" t="str">
         <f>IF(Компоненты!T154&lt;&gt;"",Компоненты!T154,"")</f>
-        <v/>
-      </c>
-      <c r="T154" t="str">
-        <f>IF(Компоненты!U154&lt;&gt;"",Компоненты!U154,"")</f>
         <v/>
       </c>
     </row>
@@ -19691,15 +19767,15 @@
         <v/>
       </c>
       <c r="R155" t="str">
+        <f>IF(Компоненты!R155&lt;&gt;"",Компоненты!R155,"")</f>
+        <v/>
+      </c>
+      <c r="S155" t="str">
         <f>IF(Компоненты!S155&lt;&gt;"",Компоненты!S155,"")</f>
         <v/>
       </c>
-      <c r="S155" t="str">
+      <c r="T155" t="str">
         <f>IF(Компоненты!T155&lt;&gt;"",Компоненты!T155,"")</f>
-        <v/>
-      </c>
-      <c r="T155" t="str">
-        <f>IF(Компоненты!U155&lt;&gt;"",Компоненты!U155,"")</f>
         <v/>
       </c>
     </row>
@@ -19769,15 +19845,15 @@
         <v/>
       </c>
       <c r="R156" t="str">
+        <f>IF(Компоненты!R156&lt;&gt;"",Компоненты!R156,"")</f>
+        <v/>
+      </c>
+      <c r="S156" t="str">
         <f>IF(Компоненты!S156&lt;&gt;"",Компоненты!S156,"")</f>
         <v/>
       </c>
-      <c r="S156" t="str">
+      <c r="T156" t="str">
         <f>IF(Компоненты!T156&lt;&gt;"",Компоненты!T156,"")</f>
-        <v/>
-      </c>
-      <c r="T156" t="str">
-        <f>IF(Компоненты!U156&lt;&gt;"",Компоненты!U156,"")</f>
         <v/>
       </c>
     </row>
@@ -19847,15 +19923,15 @@
         <v/>
       </c>
       <c r="R157" t="str">
+        <f>IF(Компоненты!R157&lt;&gt;"",Компоненты!R157,"")</f>
+        <v/>
+      </c>
+      <c r="S157" t="str">
         <f>IF(Компоненты!S157&lt;&gt;"",Компоненты!S157,"")</f>
         <v/>
       </c>
-      <c r="S157" t="str">
+      <c r="T157" t="str">
         <f>IF(Компоненты!T157&lt;&gt;"",Компоненты!T157,"")</f>
-        <v/>
-      </c>
-      <c r="T157" t="str">
-        <f>IF(Компоненты!U157&lt;&gt;"",Компоненты!U157,"")</f>
         <v/>
       </c>
     </row>
@@ -19925,15 +20001,15 @@
         <v/>
       </c>
       <c r="R158" t="str">
+        <f>IF(Компоненты!R158&lt;&gt;"",Компоненты!R158,"")</f>
+        <v/>
+      </c>
+      <c r="S158" t="str">
         <f>IF(Компоненты!S158&lt;&gt;"",Компоненты!S158,"")</f>
         <v/>
       </c>
-      <c r="S158" t="str">
+      <c r="T158" t="str">
         <f>IF(Компоненты!T158&lt;&gt;"",Компоненты!T158,"")</f>
-        <v/>
-      </c>
-      <c r="T158" t="str">
-        <f>IF(Компоненты!U158&lt;&gt;"",Компоненты!U158,"")</f>
         <v/>
       </c>
     </row>
@@ -20003,15 +20079,15 @@
         <v/>
       </c>
       <c r="R159" t="str">
+        <f>IF(Компоненты!R159&lt;&gt;"",Компоненты!R159,"")</f>
+        <v/>
+      </c>
+      <c r="S159" t="str">
         <f>IF(Компоненты!S159&lt;&gt;"",Компоненты!S159,"")</f>
         <v/>
       </c>
-      <c r="S159" t="str">
+      <c r="T159" t="str">
         <f>IF(Компоненты!T159&lt;&gt;"",Компоненты!T159,"")</f>
-        <v/>
-      </c>
-      <c r="T159" t="str">
-        <f>IF(Компоненты!U159&lt;&gt;"",Компоненты!U159,"")</f>
         <v/>
       </c>
     </row>
@@ -20081,15 +20157,15 @@
         <v/>
       </c>
       <c r="R160" t="str">
+        <f>IF(Компоненты!R160&lt;&gt;"",Компоненты!R160,"")</f>
+        <v/>
+      </c>
+      <c r="S160" t="str">
         <f>IF(Компоненты!S160&lt;&gt;"",Компоненты!S160,"")</f>
         <v/>
       </c>
-      <c r="S160" t="str">
+      <c r="T160" t="str">
         <f>IF(Компоненты!T160&lt;&gt;"",Компоненты!T160,"")</f>
-        <v/>
-      </c>
-      <c r="T160" t="str">
-        <f>IF(Компоненты!U160&lt;&gt;"",Компоненты!U160,"")</f>
         <v/>
       </c>
     </row>
@@ -20159,15 +20235,15 @@
         <v/>
       </c>
       <c r="R161" t="str">
+        <f>IF(Компоненты!R161&lt;&gt;"",Компоненты!R161,"")</f>
+        <v/>
+      </c>
+      <c r="S161" t="str">
         <f>IF(Компоненты!S161&lt;&gt;"",Компоненты!S161,"")</f>
         <v/>
       </c>
-      <c r="S161" t="str">
+      <c r="T161" t="str">
         <f>IF(Компоненты!T161&lt;&gt;"",Компоненты!T161,"")</f>
-        <v/>
-      </c>
-      <c r="T161" t="str">
-        <f>IF(Компоненты!U161&lt;&gt;"",Компоненты!U161,"")</f>
         <v/>
       </c>
     </row>
@@ -20237,15 +20313,15 @@
         <v/>
       </c>
       <c r="R162" t="str">
+        <f>IF(Компоненты!R162&lt;&gt;"",Компоненты!R162,"")</f>
+        <v/>
+      </c>
+      <c r="S162" t="str">
         <f>IF(Компоненты!S162&lt;&gt;"",Компоненты!S162,"")</f>
         <v/>
       </c>
-      <c r="S162" t="str">
+      <c r="T162" t="str">
         <f>IF(Компоненты!T162&lt;&gt;"",Компоненты!T162,"")</f>
-        <v/>
-      </c>
-      <c r="T162" t="str">
-        <f>IF(Компоненты!U162&lt;&gt;"",Компоненты!U162,"")</f>
         <v/>
       </c>
     </row>
@@ -20315,15 +20391,15 @@
         <v/>
       </c>
       <c r="R163" t="str">
+        <f>IF(Компоненты!R163&lt;&gt;"",Компоненты!R163,"")</f>
+        <v/>
+      </c>
+      <c r="S163" t="str">
         <f>IF(Компоненты!S163&lt;&gt;"",Компоненты!S163,"")</f>
         <v/>
       </c>
-      <c r="S163" t="str">
+      <c r="T163" t="str">
         <f>IF(Компоненты!T163&lt;&gt;"",Компоненты!T163,"")</f>
-        <v/>
-      </c>
-      <c r="T163" t="str">
-        <f>IF(Компоненты!U163&lt;&gt;"",Компоненты!U163,"")</f>
         <v/>
       </c>
     </row>
@@ -20393,15 +20469,15 @@
         <v/>
       </c>
       <c r="R164" t="str">
+        <f>IF(Компоненты!R164&lt;&gt;"",Компоненты!R164,"")</f>
+        <v/>
+      </c>
+      <c r="S164" t="str">
         <f>IF(Компоненты!S164&lt;&gt;"",Компоненты!S164,"")</f>
         <v/>
       </c>
-      <c r="S164" t="str">
+      <c r="T164" t="str">
         <f>IF(Компоненты!T164&lt;&gt;"",Компоненты!T164,"")</f>
-        <v/>
-      </c>
-      <c r="T164" t="str">
-        <f>IF(Компоненты!U164&lt;&gt;"",Компоненты!U164,"")</f>
         <v/>
       </c>
     </row>
@@ -20471,15 +20547,15 @@
         <v/>
       </c>
       <c r="R165" t="str">
+        <f>IF(Компоненты!R165&lt;&gt;"",Компоненты!R165,"")</f>
+        <v/>
+      </c>
+      <c r="S165" t="str">
         <f>IF(Компоненты!S165&lt;&gt;"",Компоненты!S165,"")</f>
         <v/>
       </c>
-      <c r="S165" t="str">
+      <c r="T165" t="str">
         <f>IF(Компоненты!T165&lt;&gt;"",Компоненты!T165,"")</f>
-        <v/>
-      </c>
-      <c r="T165" t="str">
-        <f>IF(Компоненты!U165&lt;&gt;"",Компоненты!U165,"")</f>
         <v/>
       </c>
     </row>
@@ -20549,15 +20625,15 @@
         <v/>
       </c>
       <c r="R166" t="str">
+        <f>IF(Компоненты!R166&lt;&gt;"",Компоненты!R166,"")</f>
+        <v/>
+      </c>
+      <c r="S166" t="str">
         <f>IF(Компоненты!S166&lt;&gt;"",Компоненты!S166,"")</f>
         <v/>
       </c>
-      <c r="S166" t="str">
+      <c r="T166" t="str">
         <f>IF(Компоненты!T166&lt;&gt;"",Компоненты!T166,"")</f>
-        <v/>
-      </c>
-      <c r="T166" t="str">
-        <f>IF(Компоненты!U166&lt;&gt;"",Компоненты!U166,"")</f>
         <v/>
       </c>
     </row>
@@ -20627,15 +20703,15 @@
         <v/>
       </c>
       <c r="R167" t="str">
+        <f>IF(Компоненты!R167&lt;&gt;"",Компоненты!R167,"")</f>
+        <v/>
+      </c>
+      <c r="S167" t="str">
         <f>IF(Компоненты!S167&lt;&gt;"",Компоненты!S167,"")</f>
         <v/>
       </c>
-      <c r="S167" t="str">
+      <c r="T167" t="str">
         <f>IF(Компоненты!T167&lt;&gt;"",Компоненты!T167,"")</f>
-        <v/>
-      </c>
-      <c r="T167" t="str">
-        <f>IF(Компоненты!U167&lt;&gt;"",Компоненты!U167,"")</f>
         <v/>
       </c>
     </row>
@@ -20705,15 +20781,15 @@
         <v/>
       </c>
       <c r="R168" t="str">
+        <f>IF(Компоненты!R168&lt;&gt;"",Компоненты!R168,"")</f>
+        <v/>
+      </c>
+      <c r="S168" t="str">
         <f>IF(Компоненты!S168&lt;&gt;"",Компоненты!S168,"")</f>
         <v/>
       </c>
-      <c r="S168" t="str">
+      <c r="T168" t="str">
         <f>IF(Компоненты!T168&lt;&gt;"",Компоненты!T168,"")</f>
-        <v/>
-      </c>
-      <c r="T168" t="str">
-        <f>IF(Компоненты!U168&lt;&gt;"",Компоненты!U168,"")</f>
         <v/>
       </c>
     </row>
@@ -20783,15 +20859,15 @@
         <v/>
       </c>
       <c r="R169" t="str">
+        <f>IF(Компоненты!R169&lt;&gt;"",Компоненты!R169,"")</f>
+        <v/>
+      </c>
+      <c r="S169" t="str">
         <f>IF(Компоненты!S169&lt;&gt;"",Компоненты!S169,"")</f>
         <v/>
       </c>
-      <c r="S169" t="str">
+      <c r="T169" t="str">
         <f>IF(Компоненты!T169&lt;&gt;"",Компоненты!T169,"")</f>
-        <v/>
-      </c>
-      <c r="T169" t="str">
-        <f>IF(Компоненты!U169&lt;&gt;"",Компоненты!U169,"")</f>
         <v/>
       </c>
     </row>
@@ -20861,15 +20937,15 @@
         <v/>
       </c>
       <c r="R170" t="str">
+        <f>IF(Компоненты!R170&lt;&gt;"",Компоненты!R170,"")</f>
+        <v/>
+      </c>
+      <c r="S170" t="str">
         <f>IF(Компоненты!S170&lt;&gt;"",Компоненты!S170,"")</f>
         <v/>
       </c>
-      <c r="S170" t="str">
+      <c r="T170" t="str">
         <f>IF(Компоненты!T170&lt;&gt;"",Компоненты!T170,"")</f>
-        <v/>
-      </c>
-      <c r="T170" t="str">
-        <f>IF(Компоненты!U170&lt;&gt;"",Компоненты!U170,"")</f>
         <v/>
       </c>
     </row>
@@ -20939,15 +21015,15 @@
         <v/>
       </c>
       <c r="R171" t="str">
+        <f>IF(Компоненты!R171&lt;&gt;"",Компоненты!R171,"")</f>
+        <v/>
+      </c>
+      <c r="S171" t="str">
         <f>IF(Компоненты!S171&lt;&gt;"",Компоненты!S171,"")</f>
         <v/>
       </c>
-      <c r="S171" t="str">
+      <c r="T171" t="str">
         <f>IF(Компоненты!T171&lt;&gt;"",Компоненты!T171,"")</f>
-        <v/>
-      </c>
-      <c r="T171" t="str">
-        <f>IF(Компоненты!U171&lt;&gt;"",Компоненты!U171,"")</f>
         <v/>
       </c>
     </row>
@@ -21017,15 +21093,15 @@
         <v/>
       </c>
       <c r="R172" t="str">
+        <f>IF(Компоненты!R172&lt;&gt;"",Компоненты!R172,"")</f>
+        <v/>
+      </c>
+      <c r="S172" t="str">
         <f>IF(Компоненты!S172&lt;&gt;"",Компоненты!S172,"")</f>
         <v/>
       </c>
-      <c r="S172" t="str">
+      <c r="T172" t="str">
         <f>IF(Компоненты!T172&lt;&gt;"",Компоненты!T172,"")</f>
-        <v/>
-      </c>
-      <c r="T172" t="str">
-        <f>IF(Компоненты!U172&lt;&gt;"",Компоненты!U172,"")</f>
         <v/>
       </c>
     </row>
@@ -21095,15 +21171,15 @@
         <v/>
       </c>
       <c r="R173" t="str">
+        <f>IF(Компоненты!R173&lt;&gt;"",Компоненты!R173,"")</f>
+        <v/>
+      </c>
+      <c r="S173" t="str">
         <f>IF(Компоненты!S173&lt;&gt;"",Компоненты!S173,"")</f>
         <v/>
       </c>
-      <c r="S173" t="str">
+      <c r="T173" t="str">
         <f>IF(Компоненты!T173&lt;&gt;"",Компоненты!T173,"")</f>
-        <v/>
-      </c>
-      <c r="T173" t="str">
-        <f>IF(Компоненты!U173&lt;&gt;"",Компоненты!U173,"")</f>
         <v/>
       </c>
     </row>
@@ -21173,15 +21249,15 @@
         <v/>
       </c>
       <c r="R174" t="str">
+        <f>IF(Компоненты!R174&lt;&gt;"",Компоненты!R174,"")</f>
+        <v/>
+      </c>
+      <c r="S174" t="str">
         <f>IF(Компоненты!S174&lt;&gt;"",Компоненты!S174,"")</f>
         <v/>
       </c>
-      <c r="S174" t="str">
+      <c r="T174" t="str">
         <f>IF(Компоненты!T174&lt;&gt;"",Компоненты!T174,"")</f>
-        <v/>
-      </c>
-      <c r="T174" t="str">
-        <f>IF(Компоненты!U174&lt;&gt;"",Компоненты!U174,"")</f>
         <v/>
       </c>
     </row>
@@ -21251,15 +21327,15 @@
         <v/>
       </c>
       <c r="R175" t="str">
+        <f>IF(Компоненты!R175&lt;&gt;"",Компоненты!R175,"")</f>
+        <v/>
+      </c>
+      <c r="S175" t="str">
         <f>IF(Компоненты!S175&lt;&gt;"",Компоненты!S175,"")</f>
         <v/>
       </c>
-      <c r="S175" t="str">
+      <c r="T175" t="str">
         <f>IF(Компоненты!T175&lt;&gt;"",Компоненты!T175,"")</f>
-        <v/>
-      </c>
-      <c r="T175" t="str">
-        <f>IF(Компоненты!U175&lt;&gt;"",Компоненты!U175,"")</f>
         <v/>
       </c>
     </row>
@@ -21329,15 +21405,15 @@
         <v/>
       </c>
       <c r="R176" t="str">
+        <f>IF(Компоненты!R176&lt;&gt;"",Компоненты!R176,"")</f>
+        <v/>
+      </c>
+      <c r="S176" t="str">
         <f>IF(Компоненты!S176&lt;&gt;"",Компоненты!S176,"")</f>
         <v/>
       </c>
-      <c r="S176" t="str">
+      <c r="T176" t="str">
         <f>IF(Компоненты!T176&lt;&gt;"",Компоненты!T176,"")</f>
-        <v/>
-      </c>
-      <c r="T176" t="str">
-        <f>IF(Компоненты!U176&lt;&gt;"",Компоненты!U176,"")</f>
         <v/>
       </c>
     </row>
@@ -21407,15 +21483,15 @@
         <v/>
       </c>
       <c r="R177" t="str">
+        <f>IF(Компоненты!R177&lt;&gt;"",Компоненты!R177,"")</f>
+        <v/>
+      </c>
+      <c r="S177" t="str">
         <f>IF(Компоненты!S177&lt;&gt;"",Компоненты!S177,"")</f>
         <v/>
       </c>
-      <c r="S177" t="str">
+      <c r="T177" t="str">
         <f>IF(Компоненты!T177&lt;&gt;"",Компоненты!T177,"")</f>
-        <v/>
-      </c>
-      <c r="T177" t="str">
-        <f>IF(Компоненты!U177&lt;&gt;"",Компоненты!U177,"")</f>
         <v/>
       </c>
     </row>
@@ -21485,15 +21561,15 @@
         <v/>
       </c>
       <c r="R178" t="str">
+        <f>IF(Компоненты!R178&lt;&gt;"",Компоненты!R178,"")</f>
+        <v/>
+      </c>
+      <c r="S178" t="str">
         <f>IF(Компоненты!S178&lt;&gt;"",Компоненты!S178,"")</f>
         <v/>
       </c>
-      <c r="S178" t="str">
+      <c r="T178" t="str">
         <f>IF(Компоненты!T178&lt;&gt;"",Компоненты!T178,"")</f>
-        <v/>
-      </c>
-      <c r="T178" t="str">
-        <f>IF(Компоненты!U178&lt;&gt;"",Компоненты!U178,"")</f>
         <v/>
       </c>
     </row>
@@ -21563,15 +21639,15 @@
         <v/>
       </c>
       <c r="R179" t="str">
+        <f>IF(Компоненты!R179&lt;&gt;"",Компоненты!R179,"")</f>
+        <v/>
+      </c>
+      <c r="S179" t="str">
         <f>IF(Компоненты!S179&lt;&gt;"",Компоненты!S179,"")</f>
         <v/>
       </c>
-      <c r="S179" t="str">
+      <c r="T179" t="str">
         <f>IF(Компоненты!T179&lt;&gt;"",Компоненты!T179,"")</f>
-        <v/>
-      </c>
-      <c r="T179" t="str">
-        <f>IF(Компоненты!U179&lt;&gt;"",Компоненты!U179,"")</f>
         <v/>
       </c>
     </row>
@@ -21641,15 +21717,15 @@
         <v/>
       </c>
       <c r="R180" t="str">
+        <f>IF(Компоненты!R180&lt;&gt;"",Компоненты!R180,"")</f>
+        <v/>
+      </c>
+      <c r="S180" t="str">
         <f>IF(Компоненты!S180&lt;&gt;"",Компоненты!S180,"")</f>
         <v/>
       </c>
-      <c r="S180" t="str">
+      <c r="T180" t="str">
         <f>IF(Компоненты!T180&lt;&gt;"",Компоненты!T180,"")</f>
-        <v/>
-      </c>
-      <c r="T180" t="str">
-        <f>IF(Компоненты!U180&lt;&gt;"",Компоненты!U180,"")</f>
         <v/>
       </c>
     </row>
@@ -21719,15 +21795,15 @@
         <v/>
       </c>
       <c r="R181" t="str">
+        <f>IF(Компоненты!R181&lt;&gt;"",Компоненты!R181,"")</f>
+        <v/>
+      </c>
+      <c r="S181" t="str">
         <f>IF(Компоненты!S181&lt;&gt;"",Компоненты!S181,"")</f>
         <v/>
       </c>
-      <c r="S181" t="str">
+      <c r="T181" t="str">
         <f>IF(Компоненты!T181&lt;&gt;"",Компоненты!T181,"")</f>
-        <v/>
-      </c>
-      <c r="T181" t="str">
-        <f>IF(Компоненты!U181&lt;&gt;"",Компоненты!U181,"")</f>
         <v/>
       </c>
     </row>
@@ -21797,15 +21873,15 @@
         <v/>
       </c>
       <c r="R182" t="str">
+        <f>IF(Компоненты!R182&lt;&gt;"",Компоненты!R182,"")</f>
+        <v/>
+      </c>
+      <c r="S182" t="str">
         <f>IF(Компоненты!S182&lt;&gt;"",Компоненты!S182,"")</f>
         <v/>
       </c>
-      <c r="S182" t="str">
+      <c r="T182" t="str">
         <f>IF(Компоненты!T182&lt;&gt;"",Компоненты!T182,"")</f>
-        <v/>
-      </c>
-      <c r="T182" t="str">
-        <f>IF(Компоненты!U182&lt;&gt;"",Компоненты!U182,"")</f>
         <v/>
       </c>
     </row>
@@ -21875,15 +21951,15 @@
         <v/>
       </c>
       <c r="R183" t="str">
+        <f>IF(Компоненты!R183&lt;&gt;"",Компоненты!R183,"")</f>
+        <v/>
+      </c>
+      <c r="S183" t="str">
         <f>IF(Компоненты!S183&lt;&gt;"",Компоненты!S183,"")</f>
         <v/>
       </c>
-      <c r="S183" t="str">
+      <c r="T183" t="str">
         <f>IF(Компоненты!T183&lt;&gt;"",Компоненты!T183,"")</f>
-        <v/>
-      </c>
-      <c r="T183" t="str">
-        <f>IF(Компоненты!U183&lt;&gt;"",Компоненты!U183,"")</f>
         <v/>
       </c>
     </row>
@@ -21953,15 +22029,15 @@
         <v/>
       </c>
       <c r="R184" t="str">
+        <f>IF(Компоненты!R184&lt;&gt;"",Компоненты!R184,"")</f>
+        <v/>
+      </c>
+      <c r="S184" t="str">
         <f>IF(Компоненты!S184&lt;&gt;"",Компоненты!S184,"")</f>
         <v/>
       </c>
-      <c r="S184" t="str">
+      <c r="T184" t="str">
         <f>IF(Компоненты!T184&lt;&gt;"",Компоненты!T184,"")</f>
-        <v/>
-      </c>
-      <c r="T184" t="str">
-        <f>IF(Компоненты!U184&lt;&gt;"",Компоненты!U184,"")</f>
         <v/>
       </c>
     </row>
@@ -22031,15 +22107,15 @@
         <v/>
       </c>
       <c r="R185" t="str">
+        <f>IF(Компоненты!R185&lt;&gt;"",Компоненты!R185,"")</f>
+        <v/>
+      </c>
+      <c r="S185" t="str">
         <f>IF(Компоненты!S185&lt;&gt;"",Компоненты!S185,"")</f>
         <v/>
       </c>
-      <c r="S185" t="str">
+      <c r="T185" t="str">
         <f>IF(Компоненты!T185&lt;&gt;"",Компоненты!T185,"")</f>
-        <v/>
-      </c>
-      <c r="T185" t="str">
-        <f>IF(Компоненты!U185&lt;&gt;"",Компоненты!U185,"")</f>
         <v/>
       </c>
     </row>
@@ -22109,15 +22185,15 @@
         <v/>
       </c>
       <c r="R186" t="str">
+        <f>IF(Компоненты!R186&lt;&gt;"",Компоненты!R186,"")</f>
+        <v/>
+      </c>
+      <c r="S186" t="str">
         <f>IF(Компоненты!S186&lt;&gt;"",Компоненты!S186,"")</f>
         <v/>
       </c>
-      <c r="S186" t="str">
+      <c r="T186" t="str">
         <f>IF(Компоненты!T186&lt;&gt;"",Компоненты!T186,"")</f>
-        <v/>
-      </c>
-      <c r="T186" t="str">
-        <f>IF(Компоненты!U186&lt;&gt;"",Компоненты!U186,"")</f>
         <v/>
       </c>
     </row>
@@ -22187,15 +22263,15 @@
         <v/>
       </c>
       <c r="R187" t="str">
+        <f>IF(Компоненты!R187&lt;&gt;"",Компоненты!R187,"")</f>
+        <v/>
+      </c>
+      <c r="S187" t="str">
         <f>IF(Компоненты!S187&lt;&gt;"",Компоненты!S187,"")</f>
         <v/>
       </c>
-      <c r="S187" t="str">
+      <c r="T187" t="str">
         <f>IF(Компоненты!T187&lt;&gt;"",Компоненты!T187,"")</f>
-        <v/>
-      </c>
-      <c r="T187" t="str">
-        <f>IF(Компоненты!U187&lt;&gt;"",Компоненты!U187,"")</f>
         <v/>
       </c>
     </row>
@@ -22265,15 +22341,15 @@
         <v/>
       </c>
       <c r="R188" t="str">
+        <f>IF(Компоненты!R188&lt;&gt;"",Компоненты!R188,"")</f>
+        <v/>
+      </c>
+      <c r="S188" t="str">
         <f>IF(Компоненты!S188&lt;&gt;"",Компоненты!S188,"")</f>
         <v/>
       </c>
-      <c r="S188" t="str">
+      <c r="T188" t="str">
         <f>IF(Компоненты!T188&lt;&gt;"",Компоненты!T188,"")</f>
-        <v/>
-      </c>
-      <c r="T188" t="str">
-        <f>IF(Компоненты!U188&lt;&gt;"",Компоненты!U188,"")</f>
         <v/>
       </c>
     </row>
@@ -22343,15 +22419,15 @@
         <v/>
       </c>
       <c r="R189" t="str">
+        <f>IF(Компоненты!R189&lt;&gt;"",Компоненты!R189,"")</f>
+        <v/>
+      </c>
+      <c r="S189" t="str">
         <f>IF(Компоненты!S189&lt;&gt;"",Компоненты!S189,"")</f>
         <v/>
       </c>
-      <c r="S189" t="str">
+      <c r="T189" t="str">
         <f>IF(Компоненты!T189&lt;&gt;"",Компоненты!T189,"")</f>
-        <v/>
-      </c>
-      <c r="T189" t="str">
-        <f>IF(Компоненты!U189&lt;&gt;"",Компоненты!U189,"")</f>
         <v/>
       </c>
     </row>
@@ -22421,15 +22497,15 @@
         <v/>
       </c>
       <c r="R190" t="str">
+        <f>IF(Компоненты!R190&lt;&gt;"",Компоненты!R190,"")</f>
+        <v/>
+      </c>
+      <c r="S190" t="str">
         <f>IF(Компоненты!S190&lt;&gt;"",Компоненты!S190,"")</f>
         <v/>
       </c>
-      <c r="S190" t="str">
+      <c r="T190" t="str">
         <f>IF(Компоненты!T190&lt;&gt;"",Компоненты!T190,"")</f>
-        <v/>
-      </c>
-      <c r="T190" t="str">
-        <f>IF(Компоненты!U190&lt;&gt;"",Компоненты!U190,"")</f>
         <v/>
       </c>
     </row>
@@ -22499,15 +22575,15 @@
         <v/>
       </c>
       <c r="R191" t="str">
+        <f>IF(Компоненты!R191&lt;&gt;"",Компоненты!R191,"")</f>
+        <v/>
+      </c>
+      <c r="S191" t="str">
         <f>IF(Компоненты!S191&lt;&gt;"",Компоненты!S191,"")</f>
         <v/>
       </c>
-      <c r="S191" t="str">
+      <c r="T191" t="str">
         <f>IF(Компоненты!T191&lt;&gt;"",Компоненты!T191,"")</f>
-        <v/>
-      </c>
-      <c r="T191" t="str">
-        <f>IF(Компоненты!U191&lt;&gt;"",Компоненты!U191,"")</f>
         <v/>
       </c>
     </row>
@@ -22577,15 +22653,15 @@
         <v/>
       </c>
       <c r="R192" t="str">
+        <f>IF(Компоненты!R192&lt;&gt;"",Компоненты!R192,"")</f>
+        <v/>
+      </c>
+      <c r="S192" t="str">
         <f>IF(Компоненты!S192&lt;&gt;"",Компоненты!S192,"")</f>
         <v/>
       </c>
-      <c r="S192" t="str">
+      <c r="T192" t="str">
         <f>IF(Компоненты!T192&lt;&gt;"",Компоненты!T192,"")</f>
-        <v/>
-      </c>
-      <c r="T192" t="str">
-        <f>IF(Компоненты!U192&lt;&gt;"",Компоненты!U192,"")</f>
         <v/>
       </c>
     </row>
@@ -22655,15 +22731,15 @@
         <v/>
       </c>
       <c r="R193" t="str">
+        <f>IF(Компоненты!R193&lt;&gt;"",Компоненты!R193,"")</f>
+        <v/>
+      </c>
+      <c r="S193" t="str">
         <f>IF(Компоненты!S193&lt;&gt;"",Компоненты!S193,"")</f>
         <v/>
       </c>
-      <c r="S193" t="str">
+      <c r="T193" t="str">
         <f>IF(Компоненты!T193&lt;&gt;"",Компоненты!T193,"")</f>
-        <v/>
-      </c>
-      <c r="T193" t="str">
-        <f>IF(Компоненты!U193&lt;&gt;"",Компоненты!U193,"")</f>
         <v/>
       </c>
     </row>
@@ -22733,15 +22809,15 @@
         <v/>
       </c>
       <c r="R194" t="str">
+        <f>IF(Компоненты!R194&lt;&gt;"",Компоненты!R194,"")</f>
+        <v/>
+      </c>
+      <c r="S194" t="str">
         <f>IF(Компоненты!S194&lt;&gt;"",Компоненты!S194,"")</f>
         <v/>
       </c>
-      <c r="S194" t="str">
+      <c r="T194" t="str">
         <f>IF(Компоненты!T194&lt;&gt;"",Компоненты!T194,"")</f>
-        <v/>
-      </c>
-      <c r="T194" t="str">
-        <f>IF(Компоненты!U194&lt;&gt;"",Компоненты!U194,"")</f>
         <v/>
       </c>
     </row>
@@ -22811,15 +22887,15 @@
         <v/>
       </c>
       <c r="R195" t="str">
+        <f>IF(Компоненты!R195&lt;&gt;"",Компоненты!R195,"")</f>
+        <v/>
+      </c>
+      <c r="S195" t="str">
         <f>IF(Компоненты!S195&lt;&gt;"",Компоненты!S195,"")</f>
         <v/>
       </c>
-      <c r="S195" t="str">
+      <c r="T195" t="str">
         <f>IF(Компоненты!T195&lt;&gt;"",Компоненты!T195,"")</f>
-        <v/>
-      </c>
-      <c r="T195" t="str">
-        <f>IF(Компоненты!U195&lt;&gt;"",Компоненты!U195,"")</f>
         <v/>
       </c>
     </row>
@@ -22889,15 +22965,15 @@
         <v/>
       </c>
       <c r="R196" t="str">
+        <f>IF(Компоненты!R196&lt;&gt;"",Компоненты!R196,"")</f>
+        <v/>
+      </c>
+      <c r="S196" t="str">
         <f>IF(Компоненты!S196&lt;&gt;"",Компоненты!S196,"")</f>
         <v/>
       </c>
-      <c r="S196" t="str">
+      <c r="T196" t="str">
         <f>IF(Компоненты!T196&lt;&gt;"",Компоненты!T196,"")</f>
-        <v/>
-      </c>
-      <c r="T196" t="str">
-        <f>IF(Компоненты!U196&lt;&gt;"",Компоненты!U196,"")</f>
         <v/>
       </c>
     </row>
@@ -22967,15 +23043,15 @@
         <v/>
       </c>
       <c r="R197" t="str">
+        <f>IF(Компоненты!R197&lt;&gt;"",Компоненты!R197,"")</f>
+        <v/>
+      </c>
+      <c r="S197" t="str">
         <f>IF(Компоненты!S197&lt;&gt;"",Компоненты!S197,"")</f>
         <v/>
       </c>
-      <c r="S197" t="str">
+      <c r="T197" t="str">
         <f>IF(Компоненты!T197&lt;&gt;"",Компоненты!T197,"")</f>
-        <v/>
-      </c>
-      <c r="T197" t="str">
-        <f>IF(Компоненты!U197&lt;&gt;"",Компоненты!U197,"")</f>
         <v/>
       </c>
     </row>
@@ -23045,15 +23121,15 @@
         <v/>
       </c>
       <c r="R198" t="str">
+        <f>IF(Компоненты!R198&lt;&gt;"",Компоненты!R198,"")</f>
+        <v/>
+      </c>
+      <c r="S198" t="str">
         <f>IF(Компоненты!S198&lt;&gt;"",Компоненты!S198,"")</f>
         <v/>
       </c>
-      <c r="S198" t="str">
+      <c r="T198" t="str">
         <f>IF(Компоненты!T198&lt;&gt;"",Компоненты!T198,"")</f>
-        <v/>
-      </c>
-      <c r="T198" t="str">
-        <f>IF(Компоненты!U198&lt;&gt;"",Компоненты!U198,"")</f>
         <v/>
       </c>
     </row>
@@ -23123,15 +23199,15 @@
         <v/>
       </c>
       <c r="R199" t="str">
+        <f>IF(Компоненты!R199&lt;&gt;"",Компоненты!R199,"")</f>
+        <v/>
+      </c>
+      <c r="S199" t="str">
         <f>IF(Компоненты!S199&lt;&gt;"",Компоненты!S199,"")</f>
         <v/>
       </c>
-      <c r="S199" t="str">
+      <c r="T199" t="str">
         <f>IF(Компоненты!T199&lt;&gt;"",Компоненты!T199,"")</f>
-        <v/>
-      </c>
-      <c r="T199" t="str">
-        <f>IF(Компоненты!U199&lt;&gt;"",Компоненты!U199,"")</f>
         <v/>
       </c>
     </row>
@@ -23201,15 +23277,15 @@
         <v/>
       </c>
       <c r="R200" t="str">
+        <f>IF(Компоненты!R200&lt;&gt;"",Компоненты!R200,"")</f>
+        <v/>
+      </c>
+      <c r="S200" t="str">
         <f>IF(Компоненты!S200&lt;&gt;"",Компоненты!S200,"")</f>
         <v/>
       </c>
-      <c r="S200" t="str">
+      <c r="T200" t="str">
         <f>IF(Компоненты!T200&lt;&gt;"",Компоненты!T200,"")</f>
-        <v/>
-      </c>
-      <c r="T200" t="str">
-        <f>IF(Компоненты!U200&lt;&gt;"",Компоненты!U200,"")</f>
         <v/>
       </c>
     </row>

--- a/db/Base.xlsx
+++ b/db/Base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12240" activeTab="4"/>
+    <workbookView windowWidth="22188" windowHeight="9000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры_компонентов" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="436">
   <si>
     <t>На этом листе собраны возможные значения параметров, описывающих типы компонентов nanoCAD BIM Вентиляция</t>
   </si>
@@ -1408,6 +1408,16 @@
   <si>
     <t>Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров.
 В тройнике также параметризуются вылеты (прямые участки) для отвода и для магистрали. В данной крестовине параметризованы вылеты (прямые участки) магистрали относительно отводов и вылеты отводов относительно магистрали.</t>
+  </si>
+  <si>
+    <t>3a997c454ee9f6677b9ed2835361b6ec</t>
+  </si>
+  <si>
+    <t>Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров.
+В тройнике также параметризуются вылеты (прямые участки) для отвода и для магистрали. В данной утке параметризованы сечения коннекторов, а так же длина утки и перепад высот между коннекторами. Горизонтальное смещение не регулируется,в списке на модернизацию.</t>
+  </si>
+  <si>
+    <t>100x100-100x100, 100x100-200x100, 200x200-800x200</t>
   </si>
 </sst>
 </file>
@@ -3756,8 +3766,8 @@
   <sheetPr/>
   <dimension ref="B4:U105"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105:U105"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -7824,10 +7834,46 @@
         <v>419</v>
       </c>
     </row>
-    <row r="104" ht="15" customHeight="1" spans="5:15">
-      <c r="E104" s="2"/>
-      <c r="N104" s="4"/>
-      <c r="O104" s="5"/>
+    <row r="104" ht="15" customHeight="1" spans="2:15">
+      <c r="B104" s="1">
+        <v>101</v>
+      </c>
+      <c r="C104" t="s">
+        <v>44</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F104" t="s">
+        <v>22</v>
+      </c>
+      <c r="G104" t="s">
+        <v>44</v>
+      </c>
+      <c r="H104" t="s">
+        <v>303</v>
+      </c>
+      <c r="I104" t="s">
+        <v>19</v>
+      </c>
+      <c r="J104" t="s">
+        <v>29</v>
+      </c>
+      <c r="K104" t="s">
+        <v>21</v>
+      </c>
+      <c r="L104" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="N104" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="O104" s="5" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="105" ht="15" customHeight="1" spans="5:15">
       <c r="E105" s="2"/>
@@ -7836,23 +7882,23 @@
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q100:U100;R101:U101;P100:P105;Q101:Q105;P5:U93;P97:U99;R102:U105">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q100:U100;P100:P105;P5:U93;P97:U99;Q101:U105">
       <formula1>"ДА"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F86;F97:F105">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F104;F105;F5:F86;F97:F103">
       <formula1>Категория_сайта</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I104;I105;I5:I83;I97:I103">
+      <formula1>Форма</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J104;J105;J5:J88;J97:J103">
+      <formula1>Производитель</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K104;K105;K5:K83;K97:K103">
+      <formula1>Тип_графики</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G78">
       <formula1>Категория_техническая</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I83;I97:I105">
-      <formula1>Форма</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J88;J97:J105">
-      <formula1>Производитель</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K83;K97:K105">
-      <formula1>Тип_графики</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7868,7 +7914,7 @@
   <sheetPr/>
   <dimension ref="B4:T200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
@@ -15724,49 +15770,50 @@
       </c>
     </row>
     <row r="104" spans="2:20">
-      <c r="B104" t="str">
+      <c r="B104">
         <f>IF(Компоненты!B104&lt;&gt;"",Компоненты!B104,"")</f>
-        <v/>
+        <v>101</v>
       </c>
       <c r="C104" t="str">
         <f>IF(Компоненты!C104&lt;&gt;"",Компоненты!C104,"")</f>
-        <v/>
-      </c>
-      <c r="D104" t="str">
+        <v>Утка</v>
+      </c>
+      <c r="D104">
         <f>IF(Компоненты!D104&lt;&gt;"",Компоненты!D104,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E104" t="str">
         <f>IF(Компоненты!E104&lt;&gt;"",Компоненты!E104,"")</f>
-        <v/>
+        <v>3a997c454ee9f6677b9ed2835361b6ec</v>
       </c>
       <c r="F104" t="str">
         <f>IF(Компоненты!F104&lt;&gt;"",Компоненты!F104,"")</f>
-        <v/>
+        <v>Элементы воздуховодов</v>
       </c>
       <c r="G104" t="str">
         <f>IF(Компоненты!G104&lt;&gt;"",Компоненты!G104,"")</f>
-        <v/>
+        <v>Утка</v>
       </c>
       <c r="H104" t="str">
         <f>IF(Компоненты!H104&lt;&gt;"",Компоненты!H104,"")</f>
-        <v/>
+        <v>параметрическая</v>
       </c>
       <c r="I104" t="str">
         <f>IF(Компоненты!I104&lt;&gt;"",Компоненты!I104,"")</f>
-        <v/>
+        <v>Прямоугольный</v>
       </c>
       <c r="J104" t="str">
         <f>IF(Компоненты!J104&lt;&gt;"",Компоненты!J104,"")</f>
-        <v/>
+        <v>Нанософт разработка</v>
       </c>
       <c r="K104" t="str">
         <f>IF(Компоненты!K104&lt;&gt;"",Компоненты!K104,"")</f>
-        <v/>
+        <v>Параметрическая</v>
       </c>
       <c r="L104" t="str">
         <f>IF(Компоненты!L104&lt;&gt;"",Компоненты!L104,"")</f>
-        <v/>
+        <v>Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров.
+В тройнике также параметризуются вылеты (прямые участки) для отвода и для магистрали. В данной утке параметризованы сечения коннекторов, а так же длина утки и перепад высот между коннекторами. Горизонтальное смещение не регулируется,в списке на модернизацию.</v>
       </c>
       <c r="M104" t="str">
         <f>IF(Компоненты!M104&lt;&gt;"",Компоненты!M104,"")</f>
@@ -15774,11 +15821,11 @@
       </c>
       <c r="N104" t="str">
         <f>IF(Компоненты!N104&lt;&gt;"",Компоненты!N104,"")</f>
-        <v/>
+        <v>https://www.nanocad.ru/products/bim/ventilation/</v>
       </c>
       <c r="O104" t="str">
         <f>IF(Компоненты!O104&lt;&gt;"",Компоненты!O104,"")</f>
-        <v/>
+        <v>100x100-100x100, 100x100-200x100, 200x200-800x200</v>
       </c>
       <c r="P104" t="str">
         <f>IF(Компоненты!P104&lt;&gt;"",Компоненты!P104,"")</f>

--- a/db/Base.xlsx
+++ b/db/Base.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="436">
   <si>
     <t>На этом листе собраны возможные значения параметров, описывающих типы компонентов nanoCAD BIM Вентиляция</t>
   </si>
@@ -1344,16 +1344,17 @@
     <t>Зонт</t>
   </si>
   <si>
-    <t>ebe9a3c9925649d41a2ed606c28a7869</t>
+    <t>56418143bf549b2a498f4e5aba7fb90b</t>
   </si>
   <si>
     <t>крышный</t>
   </si>
   <si>
-    <t>https://www.nevatom.ru/catalog/zonty_ventilyatsionnye/</t>
-  </si>
-  <si>
-    <t>250, 355</t>
+    <t>v1: Компонент из тест-драйва "Проектирование насосной станции" на основе оборудования Неватом. В списке замены на параметрику;
+v2: Создан Параметрический компонент на основе оборудования Ровен</t>
+  </si>
+  <si>
+    <t>100, 200, 400</t>
   </si>
   <si>
     <t>68ed8e0f2c1b72c5e186f9e6388446f6</t>
@@ -1397,7 +1398,7 @@
 В списке на усовершенствование (добавление сдвига как параметра).</t>
   </si>
   <si>
-    <t>fabb9d3f84dd0d24837307a25eca606f</t>
+    <t>7360173f5b2cff8e03e6e3cdf185a9ff</t>
   </si>
   <si>
     <t>6ac622492909a14fe1ef51d9d59e89a1</t>
@@ -2112,7 +2113,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2136,6 +2137,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2806,7 +2810,7 @@
   <sheetData>
     <row r="1" ht="15.15"/>
     <row r="2" customFormat="1" ht="88" customHeight="1" spans="2:2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2820,68 +2824,68 @@
       <c r="B5" s="5"/>
     </row>
     <row r="6" ht="15.15"/>
-    <row r="7" s="9" customFormat="1" spans="2:11">
-      <c r="B7" s="15" t="s">
+    <row r="7" s="10" customFormat="1" spans="2:11">
+      <c r="B7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
@@ -2890,91 +2894,91 @@
       <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" ht="15.15" spans="2:11">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="20" t="s">
         <v>31</v>
       </c>
       <c r="D16" t="s">
@@ -2985,18 +2989,18 @@
       </c>
     </row>
     <row r="17" spans="4:5">
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="4:5">
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="19" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3017,18 +3021,18 @@
       </c>
     </row>
     <row r="21" spans="4:5">
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="4:5">
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3036,7 +3040,7 @@
       <c r="D23" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3044,7 +3048,7 @@
       <c r="D24" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3052,7 +3056,7 @@
       <c r="D25" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3060,7 +3064,7 @@
       <c r="D26" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3068,7 +3072,7 @@
       <c r="D27" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3076,7 +3080,7 @@
       <c r="D28" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3129,7 +3133,7 @@
       </c>
     </row>
     <row r="35" spans="4:5">
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="19" t="s">
         <v>46</v>
       </c>
       <c r="E35" t="s">
@@ -3137,10 +3141,10 @@
       </c>
     </row>
     <row r="41" spans="4:5">
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="18">
+      <c r="E41" s="19">
         <f>SUBTOTAL(103,Таблица_Привязка_категорий[Категория_сайта])</f>
         <v>28</v>
       </c>
@@ -3179,13 +3183,13 @@
   <sheetData>
     <row r="1" ht="15.15"/>
     <row r="2" ht="29.55" spans="2:2">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" ht="15.15"/>
     <row r="4" spans="2:3">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C4" t="s">
@@ -3193,39 +3197,39 @@
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3263,7 +3267,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3280,27 +3284,27 @@
       <c r="E4" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="2:10">
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D5" t="s">
@@ -3312,11 +3316,11 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="12" t="str">
+      <c r="G5" s="13" t="str">
         <f>IF(ISTEXT(F5),VLOOKUP(F5,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Арматура воздуховодов</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>17</v>
       </c>
       <c r="I5" t="s">
@@ -3327,7 +3331,7 @@
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="2:10">
-      <c r="B6" s="13">
+      <c r="B6" s="14">
         <v>2</v>
       </c>
       <c r="C6" t="s">
@@ -3342,11 +3346,11 @@
       <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="12" t="str">
+      <c r="G6" s="13" t="str">
         <f>IF(ISTEXT(F6),VLOOKUP(F6,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Оборудование</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="13" t="s">
         <v>21</v>
       </c>
       <c r="I6" t="s">
@@ -3372,11 +3376,11 @@
       <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="12" t="str">
+      <c r="G7" s="13" t="str">
         <f>IF(ISTEXT(F7),VLOOKUP(F7,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Не применимо</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I7" t="s">
@@ -3387,7 +3391,7 @@
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="2:10">
-      <c r="B8" s="10">
+      <c r="B8" s="11">
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -3402,11 +3406,11 @@
       <c r="F8" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="12" t="str">
+      <c r="G8" s="13" t="str">
         <f>IF(ISTEXT(F8),VLOOKUP(F8,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Элементы воздуховодов</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I8" t="s">
@@ -3417,7 +3421,7 @@
       </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="2:10">
-      <c r="B9" s="13">
+      <c r="B9" s="14">
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -3432,11 +3436,11 @@
       <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="12" t="str">
+      <c r="G9" s="13" t="str">
         <f>IF(ISTEXT(F9),VLOOKUP(F9,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Не применимо</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="13" t="s">
         <v>21</v>
       </c>
       <c r="I9" t="s">
@@ -3462,11 +3466,11 @@
       <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="12" t="str">
+      <c r="G10" s="13" t="str">
         <f>IF(ISTEXT(F10),VLOOKUP(F10,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Воздухораспределители</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="13" t="s">
         <v>17</v>
       </c>
       <c r="I10" t="s">
@@ -3477,7 +3481,7 @@
       </c>
     </row>
     <row r="11" ht="25" customHeight="1" spans="2:10">
-      <c r="B11" s="10">
+      <c r="B11" s="11">
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -3492,11 +3496,11 @@
       <c r="F11" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="12" t="str">
+      <c r="G11" s="13" t="str">
         <f>IF(ISTEXT(F11),VLOOKUP(F11,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Оборудование</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="13" t="s">
         <v>21</v>
       </c>
       <c r="I11" t="s">
@@ -3507,7 +3511,7 @@
       </c>
     </row>
     <row r="12" ht="25" customHeight="1" spans="2:10">
-      <c r="B12" s="13">
+      <c r="B12" s="14">
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -3522,11 +3526,11 @@
       <c r="F12" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="12" t="str">
+      <c r="G12" s="13" t="str">
         <f>IF(ISTEXT(F12),VLOOKUP(F12,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Не применимо</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="13" t="s">
         <v>17</v>
       </c>
       <c r="I12" t="s">
@@ -3552,11 +3556,11 @@
       <c r="F13" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="12" t="str">
+      <c r="G13" s="13" t="str">
         <f>IF(ISTEXT(F13),VLOOKUP(F13,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Оборудование</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="13" t="s">
         <v>17</v>
       </c>
       <c r="I13" t="s">
@@ -3567,7 +3571,7 @@
       </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="2:10">
-      <c r="B14" s="10">
+      <c r="B14" s="11">
         <v>10</v>
       </c>
       <c r="C14" t="s">
@@ -3582,11 +3586,11 @@
       <c r="F14" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="12" t="str">
+      <c r="G14" s="13" t="str">
         <f>IF(ISTEXT(F14),VLOOKUP(F14,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Аннотации</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I14" t="s">
@@ -3597,7 +3601,7 @@
       </c>
     </row>
     <row r="15" ht="25" customHeight="1" spans="2:10">
-      <c r="B15" s="13">
+      <c r="B15" s="14">
         <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -3612,10 +3616,10 @@
       <c r="F15" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="13" t="s">
         <v>21</v>
       </c>
       <c r="I15" t="s">
@@ -3641,10 +3645,10 @@
       <c r="F16" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="13" t="s">
         <v>21</v>
       </c>
       <c r="I16" t="s">
@@ -3655,7 +3659,7 @@
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="13">
+      <c r="B17" s="14">
         <v>13</v>
       </c>
       <c r="C17" t="s">
@@ -3670,10 +3674,10 @@
       <c r="F17" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="13" t="s">
         <v>17</v>
       </c>
       <c r="I17" t="s">
@@ -3684,52 +3688,52 @@
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="13"/>
-      <c r="G18" s="12" t="str">
+      <c r="B18" s="14"/>
+      <c r="G18" s="13" t="str">
         <f>IF(ISTEXT(F18),VLOOKUP(F18,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="H18" s="12"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="13"/>
-      <c r="G19" s="12" t="str">
+      <c r="B19" s="14"/>
+      <c r="G19" s="13" t="str">
         <f>IF(ISTEXT(F19),VLOOKUP(F19,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="H19" s="12"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="13"/>
-      <c r="G20" s="12" t="str">
+      <c r="B20" s="14"/>
+      <c r="G20" s="13" t="str">
         <f>IF(ISTEXT(F20),VLOOKUP(F20,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="H20" s="12"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="13"/>
+      <c r="B21" s="14"/>
       <c r="G21" t="str">
         <f>IF(ISTEXT(F21),VLOOKUP(F21,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="13"/>
+      <c r="B22" s="14"/>
       <c r="G22" t="str">
         <f>IF(ISTEXT(F22),VLOOKUP(F22,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="13"/>
+      <c r="B23" s="14"/>
       <c r="G23" t="str">
         <f>IF(ISTEXT(F23),VLOOKUP(F23,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="13"/>
+      <c r="B24" s="14"/>
       <c r="G24" t="str">
         <f>IF(ISTEXT(F24),VLOOKUP(F24,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
@@ -3767,7 +3771,7 @@
   <dimension ref="B4:U105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -7519,7 +7523,7 @@
         <v>412</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96" t="s">
         <v>413</v>
@@ -7537,16 +7541,19 @@
         <v>15</v>
       </c>
       <c r="J96" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K96" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L96" t="s">
         <v>404</v>
       </c>
-      <c r="N96" t="s">
+      <c r="M96" s="8" t="s">
         <v>415</v>
+      </c>
+      <c r="N96" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="O96" s="5" t="s">
         <v>416</v>
@@ -7882,23 +7889,23 @@
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q100:U100;P100:P105;P5:U93;P97:U99;Q101:U105">
-      <formula1>"ДА"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F104;F105;F5:F86;F97:F103">
-      <formula1>Категория_сайта</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I104;I105;I5:I83;I97:I103">
-      <formula1>Форма</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J104;J105;J5:J88;J97:J103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J96;J5:J88;J97:J105">
       <formula1>Производитель</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K104;K105;K5:K83;K97:K103">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K96;K5:K83;K97:K105">
       <formula1>Тип_графики</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F86;F97:F105">
+      <formula1>Категория_сайта</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G78">
       <formula1>Категория_техническая</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I83;I97:I105">
+      <formula1>Форма</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P100:U105;P5:U93;P97:U99">
+      <formula1>"ДА"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15149,11 +15156,11 @@
       </c>
       <c r="D96">
         <f>IF(Компоненты!D96&lt;&gt;"",Компоненты!D96,"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96" t="str">
         <f>IF(Компоненты!E96&lt;&gt;"",Компоненты!E96,"")</f>
-        <v>ebe9a3c9925649d41a2ed606c28a7869</v>
+        <v>56418143bf549b2a498f4e5aba7fb90b</v>
       </c>
       <c r="F96" t="str">
         <f>IF(Компоненты!F96&lt;&gt;"",Компоненты!F96,"")</f>
@@ -15173,11 +15180,11 @@
       </c>
       <c r="J96" t="str">
         <f>IF(Компоненты!J96&lt;&gt;"",Компоненты!J96,"")</f>
-        <v>Неватом</v>
+        <v>Нанософт разработка</v>
       </c>
       <c r="K96" t="str">
         <f>IF(Компоненты!K96&lt;&gt;"",Компоненты!K96,"")</f>
-        <v>Статическая</v>
+        <v>Параметрическая</v>
       </c>
       <c r="L96" t="str">
         <f>IF(Компоненты!L96&lt;&gt;"",Компоненты!L96,"")</f>
@@ -15185,15 +15192,16 @@
       </c>
       <c r="M96" t="str">
         <f>IF(Компоненты!M96&lt;&gt;"",Компоненты!M96,"")</f>
-        <v/>
+        <v>v1: Компонент из тест-драйва "Проектирование насосной станции" на основе оборудования Неватом. В списке замены на параметрику;
+v2: Создан Параметрический компонент на основе оборудования Ровен</v>
       </c>
       <c r="N96" t="str">
         <f>IF(Компоненты!N96&lt;&gt;"",Компоненты!N96,"")</f>
-        <v>https://www.nevatom.ru/catalog/zonty_ventilyatsionnye/</v>
+        <v>https://www.nanocad.ru/products/bim/ventilation/</v>
       </c>
       <c r="O96" t="str">
         <f>IF(Компоненты!O96&lt;&gt;"",Компоненты!O96,"")</f>
-        <v>250, 355</v>
+        <v>100, 200, 400</v>
       </c>
       <c r="P96" t="str">
         <f>IF(Компоненты!P96&lt;&gt;"",Компоненты!P96,"")</f>
@@ -15547,7 +15555,7 @@
       </c>
       <c r="E101" t="str">
         <f>IF(Компоненты!E101&lt;&gt;"",Компоненты!E101,"")</f>
-        <v>fabb9d3f84dd0d24837307a25eca606f</v>
+        <v>7360173f5b2cff8e03e6e3cdf185a9ff</v>
       </c>
       <c r="F101" t="str">
         <f>IF(Компоненты!F101&lt;&gt;"",Компоненты!F101,"")</f>

--- a/db/Base.xlsx
+++ b/db/Base.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="436">
   <si>
     <t>На этом листе собраны возможные значения параметров, описывающих типы компонентов nanoCAD BIM Вентиляция</t>
   </si>
@@ -3771,7 +3771,7 @@
   <dimension ref="B4:U105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+      <selection activeCell="L96" sqref="L96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -7546,9 +7546,7 @@
       <c r="K96" t="s">
         <v>21</v>
       </c>
-      <c r="L96" t="s">
-        <v>404</v>
-      </c>
+      <c r="L96"/>
       <c r="M96" s="8" t="s">
         <v>415</v>
       </c>
@@ -15188,7 +15186,7 @@
       </c>
       <c r="L96" t="str">
         <f>IF(Компоненты!L96&lt;&gt;"",Компоненты!L96,"")</f>
-        <v>Компонент из тест-драйва "Проектирование насосной станции". В списке замены на параметрику.</v>
+        <v/>
       </c>
       <c r="M96" t="str">
         <f>IF(Компоненты!M96&lt;&gt;"",Компоненты!M96,"")</f>

--- a/db/Base.xlsx
+++ b/db/Base.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="441">
   <si>
     <t>На этом листе собраны возможные значения параметров, описывающих типы компонентов nanoCAD BIM Вентиляция</t>
   </si>
@@ -394,6 +394,9 @@
     <t>typesizes</t>
   </si>
   <si>
+    <t>updDate</t>
+  </si>
+  <si>
     <t>gal_steel</t>
   </si>
   <si>
@@ -425,6 +428,9 @@
   </si>
   <si>
     <t>100, 125, 160, 200, 250</t>
+  </si>
+  <si>
+    <t>2024.08.02</t>
   </si>
   <si>
     <t>ДА</t>
@@ -1248,6 +1254,9 @@
     <t>https://air-ned.com/tovar-5.html</t>
   </si>
   <si>
+    <t>2024.08.10</t>
+  </si>
+  <si>
     <t>IRE</t>
   </si>
   <si>
@@ -1357,6 +1366,9 @@
     <t>100, 200, 400</t>
   </si>
   <si>
+    <t>2024.08.15</t>
+  </si>
+  <si>
     <t>68ed8e0f2c1b72c5e186f9e6388446f6</t>
   </si>
   <si>
@@ -1365,6 +1377,9 @@
   </si>
   <si>
     <t>(100x100)x(100x100)...(200x200)x(200x200), (800x200)x(100x100)...(800x200)x(200x200)</t>
+  </si>
+  <si>
+    <t>2024.08.14</t>
   </si>
   <si>
     <t>f956a87a69d7fe27299e34d6b80b87db</t>
@@ -1425,11 +1440,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd\.mm\.yy;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -2113,7 +2129,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2132,6 +2148,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2139,6 +2158,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2232,7 +2254,7 @@
     <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
     <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
     <dxf/>
     <dxf/>
     <dxf>
@@ -2249,6 +2271,9 @@
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode="dd\.mm\.yy;@"/>
     </dxf>
     <dxf>
       <fill>
@@ -2443,25 +2468,25 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="12"/>
-      <tableStyleElement type="headerRow" dxfId="11"/>
-      <tableStyleElement type="totalRow" dxfId="10"/>
-      <tableStyleElement type="firstColumn" dxfId="9"/>
-      <tableStyleElement type="lastColumn" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="wholeTable" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="totalRow" dxfId="11"/>
+      <tableStyleElement type="firstColumn" dxfId="10"/>
+      <tableStyleElement type="lastColumn" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="22"/>
-      <tableStyleElement type="totalRow" dxfId="21"/>
-      <tableStyleElement type="firstRowStripe" dxfId="20"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="18"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="17"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="16"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="15"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="14"/>
-      <tableStyleElement type="pageFieldValues" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
+      <tableStyleElement type="totalRow" dxfId="22"/>
+      <tableStyleElement type="firstRowStripe" dxfId="21"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="20"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="19"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="18"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="17"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="16"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="15"/>
+      <tableStyleElement type="pageFieldValues" dxfId="14"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2507,9 +2532,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="B4:U105" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B4:U105" etc:filterBottomFollowUsedRange="0"/>
-  <tableColumns count="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="B4:V113" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="B4:V113" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="21">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="name"/>
     <tableColumn id="11" name="version"/>
@@ -2524,6 +2549,7 @@
     <tableColumn id="8" name="versionHistory"/>
     <tableColumn id="10" name="manufUrl" dataDxfId="4"/>
     <tableColumn id="9" name="typesizes" dataDxfId="5"/>
+    <tableColumn id="21" name="updDate" dataDxfId="6"/>
     <tableColumn id="17" name="gal_steel"/>
     <tableColumn id="12" name="st_steel"/>
     <tableColumn id="20" name="cbn_steel"/>
@@ -2810,7 +2836,7 @@
   <sheetData>
     <row r="1" ht="15.15"/>
     <row r="2" customFormat="1" ht="88" customHeight="1" spans="2:2">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2824,68 +2850,68 @@
       <c r="B5" s="5"/>
     </row>
     <row r="6" ht="15.15"/>
-    <row r="7" s="10" customFormat="1" spans="2:11">
-      <c r="B7" s="16" t="s">
+    <row r="7" s="12" customFormat="1" spans="2:11">
+      <c r="B7" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
@@ -2894,91 +2920,91 @@
       <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" ht="15.15" spans="2:11">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="22" t="s">
         <v>31</v>
       </c>
       <c r="D16" t="s">
@@ -2989,18 +3015,18 @@
       </c>
     </row>
     <row r="17" spans="4:5">
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="4:5">
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="21" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3021,18 +3047,18 @@
       </c>
     </row>
     <row r="21" spans="4:5">
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="4:5">
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3040,7 +3066,7 @@
       <c r="D23" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3048,7 +3074,7 @@
       <c r="D24" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3056,7 +3082,7 @@
       <c r="D25" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3064,7 +3090,7 @@
       <c r="D26" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3072,7 +3098,7 @@
       <c r="D27" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3080,7 +3106,7 @@
       <c r="D28" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3133,7 +3159,7 @@
       </c>
     </row>
     <row r="35" spans="4:5">
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="21" t="s">
         <v>46</v>
       </c>
       <c r="E35" t="s">
@@ -3141,10 +3167,10 @@
       </c>
     </row>
     <row r="41" spans="4:5">
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="21">
         <f>SUBTOTAL(103,Таблица_Привязка_категорий[Категория_сайта])</f>
         <v>28</v>
       </c>
@@ -3183,13 +3209,13 @@
   <sheetData>
     <row r="1" ht="15.15"/>
     <row r="2" ht="29.55" spans="2:2">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" ht="15.15"/>
     <row r="4" spans="2:3">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C4" t="s">
@@ -3197,39 +3223,39 @@
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3267,7 +3293,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3284,27 +3310,27 @@
       <c r="E4" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="2:10">
-      <c r="B5" s="11">
+      <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>64</v>
       </c>
       <c r="D5" t="s">
@@ -3316,11 +3342,11 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="13" t="str">
+      <c r="G5" s="15" t="str">
         <f>IF(ISTEXT(F5),VLOOKUP(F5,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Арматура воздуховодов</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I5" t="s">
@@ -3331,7 +3357,7 @@
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="2:10">
-      <c r="B6" s="14">
+      <c r="B6" s="16">
         <v>2</v>
       </c>
       <c r="C6" t="s">
@@ -3346,11 +3372,11 @@
       <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="13" t="str">
+      <c r="G6" s="15" t="str">
         <f>IF(ISTEXT(F6),VLOOKUP(F6,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Оборудование</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="15" t="s">
         <v>21</v>
       </c>
       <c r="I6" t="s">
@@ -3361,7 +3387,7 @@
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="2:10">
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -3376,11 +3402,11 @@
       <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="13" t="str">
+      <c r="G7" s="15" t="str">
         <f>IF(ISTEXT(F7),VLOOKUP(F7,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Не применимо</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="15" t="s">
         <v>9</v>
       </c>
       <c r="I7" t="s">
@@ -3391,7 +3417,7 @@
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="2:10">
-      <c r="B8" s="11">
+      <c r="B8" s="13">
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -3406,11 +3432,11 @@
       <c r="F8" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="13" t="str">
+      <c r="G8" s="15" t="str">
         <f>IF(ISTEXT(F8),VLOOKUP(F8,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Элементы воздуховодов</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="15" t="s">
         <v>9</v>
       </c>
       <c r="I8" t="s">
@@ -3421,7 +3447,7 @@
       </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="2:10">
-      <c r="B9" s="14">
+      <c r="B9" s="16">
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -3436,11 +3462,11 @@
       <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="13" t="str">
+      <c r="G9" s="15" t="str">
         <f>IF(ISTEXT(F9),VLOOKUP(F9,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Не применимо</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="15" t="s">
         <v>21</v>
       </c>
       <c r="I9" t="s">
@@ -3451,7 +3477,7 @@
       </c>
     </row>
     <row r="10" ht="25" customHeight="1" spans="2:10">
-      <c r="B10" s="7">
+      <c r="B10" s="8">
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -3466,11 +3492,11 @@
       <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="13" t="str">
+      <c r="G10" s="15" t="str">
         <f>IF(ISTEXT(F10),VLOOKUP(F10,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Воздухораспределители</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I10" t="s">
@@ -3481,7 +3507,7 @@
       </c>
     </row>
     <row r="11" ht="25" customHeight="1" spans="2:10">
-      <c r="B11" s="11">
+      <c r="B11" s="13">
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -3496,11 +3522,11 @@
       <c r="F11" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="13" t="str">
+      <c r="G11" s="15" t="str">
         <f>IF(ISTEXT(F11),VLOOKUP(F11,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Оборудование</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="15" t="s">
         <v>21</v>
       </c>
       <c r="I11" t="s">
@@ -3511,7 +3537,7 @@
       </c>
     </row>
     <row r="12" ht="25" customHeight="1" spans="2:10">
-      <c r="B12" s="14">
+      <c r="B12" s="16">
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -3526,11 +3552,11 @@
       <c r="F12" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="13" t="str">
+      <c r="G12" s="15" t="str">
         <f>IF(ISTEXT(F12),VLOOKUP(F12,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Не применимо</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I12" t="s">
@@ -3541,7 +3567,7 @@
       </c>
     </row>
     <row r="13" ht="25" customHeight="1" spans="2:10">
-      <c r="B13" s="7">
+      <c r="B13" s="8">
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -3556,11 +3582,11 @@
       <c r="F13" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="13" t="str">
+      <c r="G13" s="15" t="str">
         <f>IF(ISTEXT(F13),VLOOKUP(F13,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Оборудование</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I13" t="s">
@@ -3571,7 +3597,7 @@
       </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="2:10">
-      <c r="B14" s="11">
+      <c r="B14" s="13">
         <v>10</v>
       </c>
       <c r="C14" t="s">
@@ -3586,11 +3612,11 @@
       <c r="F14" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="13" t="str">
+      <c r="G14" s="15" t="str">
         <f>IF(ISTEXT(F14),VLOOKUP(F14,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Аннотации</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="15" t="s">
         <v>6</v>
       </c>
       <c r="I14" t="s">
@@ -3601,7 +3627,7 @@
       </c>
     </row>
     <row r="15" ht="25" customHeight="1" spans="2:10">
-      <c r="B15" s="14">
+      <c r="B15" s="16">
         <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -3616,10 +3642,10 @@
       <c r="F15" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="15" t="s">
         <v>21</v>
       </c>
       <c r="I15" t="s">
@@ -3630,7 +3656,7 @@
       </c>
     </row>
     <row r="16" ht="25" customHeight="1" spans="2:10">
-      <c r="B16" s="7">
+      <c r="B16" s="8">
         <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -3645,10 +3671,10 @@
       <c r="F16" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="15" t="s">
         <v>21</v>
       </c>
       <c r="I16" t="s">
@@ -3659,7 +3685,7 @@
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="14">
+      <c r="B17" s="16">
         <v>13</v>
       </c>
       <c r="C17" t="s">
@@ -3674,10 +3700,10 @@
       <c r="F17" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I17" t="s">
@@ -3688,52 +3714,52 @@
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="14"/>
-      <c r="G18" s="13" t="str">
+      <c r="B18" s="16"/>
+      <c r="G18" s="15" t="str">
         <f>IF(ISTEXT(F18),VLOOKUP(F18,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="14"/>
-      <c r="G19" s="13" t="str">
+      <c r="B19" s="16"/>
+      <c r="G19" s="15" t="str">
         <f>IF(ISTEXT(F19),VLOOKUP(F19,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="14"/>
-      <c r="G20" s="13" t="str">
+      <c r="B20" s="16"/>
+      <c r="G20" s="15" t="str">
         <f>IF(ISTEXT(F20),VLOOKUP(F20,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="14"/>
+      <c r="B21" s="16"/>
       <c r="G21" t="str">
         <f>IF(ISTEXT(F21),VLOOKUP(F21,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="14"/>
+      <c r="B22" s="16"/>
       <c r="G22" t="str">
         <f>IF(ISTEXT(F22),VLOOKUP(F22,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="14"/>
+      <c r="B23" s="16"/>
       <c r="G23" t="str">
         <f>IF(ISTEXT(F23),VLOOKUP(F23,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="14"/>
+      <c r="B24" s="16"/>
       <c r="G24" t="str">
         <f>IF(ISTEXT(F24),VLOOKUP(F24,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
@@ -3768,10 +3794,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:U105"/>
+  <dimension ref="B4:V113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="L96" sqref="L96"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="I80" workbookViewId="0">
+      <selection activeCell="P104" sqref="P104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3787,9 +3813,10 @@
     <col min="11" max="11" width="17.6666666666667" customWidth="1"/>
     <col min="12" max="13" width="13.1666666666667" customWidth="1"/>
     <col min="14" max="14" width="16.3425925925926" customWidth="1"/>
+    <col min="16" max="16" width="10.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:22">
       <c r="B4" s="1" t="s">
         <v>90</v>
       </c>
@@ -3832,7 +3859,7 @@
       <c r="O4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="3" t="s">
         <v>104</v>
       </c>
       <c r="Q4" t="s">
@@ -3850,19 +3877,22 @@
       <c r="U4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="5" ht="15" customHeight="1" spans="2:21">
+      <c r="V4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="2:22">
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -3871,7 +3901,7 @@
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
@@ -3883,27 +3913,30 @@
         <v>21</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="U5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" spans="2:19">
+      <c r="P5" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="V5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="2:20">
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -3912,7 +3945,7 @@
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
@@ -3924,33 +3957,36 @@
         <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="S6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1" spans="2:17">
+        <v>124</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="T6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="2:18">
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -3968,33 +4004,36 @@
         <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="P7" t="s">
-        <v>115</v>
+        <v>129</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="Q7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1" spans="2:17">
+        <v>117</v>
+      </c>
+      <c r="R7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="2:18">
       <c r="B8" s="1">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -4012,30 +4051,33 @@
         <v>17</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="P8" t="s">
-        <v>115</v>
+        <v>132</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="Q8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="2:17">
+        <v>117</v>
+      </c>
+      <c r="R8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="2:18">
       <c r="B9" s="1">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -4053,30 +4095,33 @@
         <v>17</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="P9" t="s">
-        <v>115</v>
+        <v>136</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="Q9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1" spans="2:17">
+        <v>117</v>
+      </c>
+      <c r="R9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="2:18">
       <c r="B10" s="1">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -4094,30 +4139,33 @@
         <v>17</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="P10" t="s">
-        <v>115</v>
+        <v>136</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="Q10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1" spans="2:17">
+        <v>117</v>
+      </c>
+      <c r="R10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="2:18">
       <c r="B11" s="1">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -4135,30 +4183,33 @@
         <v>17</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="P11" t="s">
-        <v>115</v>
+        <v>136</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="Q11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1" spans="2:17">
+        <v>117</v>
+      </c>
+      <c r="R11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="2:18">
       <c r="B12" s="1">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -4176,30 +4227,33 @@
         <v>17</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="P12" t="s">
-        <v>115</v>
+        <v>136</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="Q12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1" spans="2:17">
+        <v>117</v>
+      </c>
+      <c r="R12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="2:18">
       <c r="B13" s="1">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -4217,30 +4271,33 @@
         <v>17</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="P13" t="s">
-        <v>115</v>
+        <v>136</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="Q13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1" spans="2:17">
+        <v>117</v>
+      </c>
+      <c r="R13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1" spans="2:18">
       <c r="B14" s="1">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -4258,30 +4315,33 @@
         <v>17</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="P14" t="s">
-        <v>115</v>
+        <v>136</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="Q14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1" spans="2:17">
+        <v>117</v>
+      </c>
+      <c r="R14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="2:18">
       <c r="B15" s="1">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -4299,30 +4359,33 @@
         <v>17</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="P15" t="s">
-        <v>115</v>
+        <v>136</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="Q15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1" spans="2:17">
+        <v>117</v>
+      </c>
+      <c r="R15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="2:18">
       <c r="B16" s="1">
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -4340,30 +4403,33 @@
         <v>17</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="P16" t="s">
-        <v>115</v>
+        <v>136</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="Q16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1" spans="2:17">
+        <v>117</v>
+      </c>
+      <c r="R16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="2:18">
       <c r="B17" s="1">
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -4381,30 +4447,33 @@
         <v>17</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="P17" t="s">
-        <v>115</v>
+        <v>155</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="Q17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1" spans="2:17">
+        <v>117</v>
+      </c>
+      <c r="R17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1" spans="2:18">
       <c r="B18" s="1">
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -4422,30 +4491,33 @@
         <v>17</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="P18" t="s">
-        <v>115</v>
+        <v>158</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="Q18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1" spans="2:17">
+        <v>117</v>
+      </c>
+      <c r="R18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="2:18">
       <c r="B19" s="1">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -4454,7 +4526,7 @@
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I19" t="s">
         <v>19</v>
@@ -4466,30 +4538,33 @@
         <v>17</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="P19" t="s">
-        <v>115</v>
+        <v>163</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="Q19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1" spans="2:17">
+        <v>117</v>
+      </c>
+      <c r="R19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="2:18">
       <c r="B20" s="1">
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -4498,7 +4573,7 @@
         <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I20" t="s">
         <v>19</v>
@@ -4510,30 +4585,33 @@
         <v>17</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="P20" t="s">
-        <v>115</v>
+        <v>166</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="Q20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1" spans="2:17">
+        <v>117</v>
+      </c>
+      <c r="R20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="2:18">
       <c r="B21" s="1">
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -4542,7 +4620,7 @@
         <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I21" t="s">
         <v>15</v>
@@ -4554,30 +4632,33 @@
         <v>17</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="P21" t="s">
-        <v>115</v>
+        <v>169</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="Q21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1" spans="2:17">
+        <v>117</v>
+      </c>
+      <c r="R21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="2:18">
       <c r="B22" s="1">
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -4586,7 +4667,7 @@
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I22" t="s">
         <v>15</v>
@@ -4598,30 +4679,33 @@
         <v>17</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="P22" t="s">
-        <v>115</v>
+        <v>169</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="Q22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1" spans="2:17">
+        <v>117</v>
+      </c>
+      <c r="R22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="2:18">
       <c r="B23" s="1">
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -4630,7 +4714,7 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I23" t="s">
         <v>19</v>
@@ -4642,30 +4726,33 @@
         <v>17</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="P23" t="s">
-        <v>115</v>
+        <v>176</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="Q23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1" spans="2:17">
+        <v>117</v>
+      </c>
+      <c r="R23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1" spans="2:18">
       <c r="B24" s="1">
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -4674,7 +4761,7 @@
         <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I24" t="s">
         <v>19</v>
@@ -4686,30 +4773,33 @@
         <v>17</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="P24" t="s">
-        <v>115</v>
+        <v>179</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="Q24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1" spans="2:17">
+        <v>117</v>
+      </c>
+      <c r="R24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="2:18">
       <c r="B25" s="1">
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -4718,7 +4808,7 @@
         <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I25" t="s">
         <v>19</v>
@@ -4730,30 +4820,33 @@
         <v>17</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="P25" t="s">
-        <v>115</v>
+        <v>182</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="Q25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1" spans="2:17">
+        <v>117</v>
+      </c>
+      <c r="R25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1" spans="2:18">
       <c r="B26" s="1">
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -4762,7 +4855,7 @@
         <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I26" t="s">
         <v>15</v>
@@ -4774,30 +4867,33 @@
         <v>17</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="P26" t="s">
-        <v>115</v>
+        <v>187</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="Q26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1" spans="2:17">
+        <v>117</v>
+      </c>
+      <c r="R26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="2:18">
       <c r="B27" s="1">
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -4806,7 +4902,7 @@
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I27" t="s">
         <v>19</v>
@@ -4818,30 +4914,33 @@
         <v>17</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="P27" t="s">
-        <v>115</v>
+        <v>191</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="Q27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1" spans="2:16">
+        <v>117</v>
+      </c>
+      <c r="R27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1" spans="2:17">
       <c r="B28" s="1">
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -4850,7 +4949,7 @@
         <v>37</v>
       </c>
       <c r="H28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I28" t="s">
         <v>15</v>
@@ -4862,27 +4961,30 @@
         <v>21</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="P28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1" spans="2:16">
+        <v>196</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1" spans="2:17">
       <c r="B29" s="1">
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
@@ -4891,7 +4993,7 @@
         <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I29" t="s">
         <v>15</v>
@@ -4903,27 +5005,30 @@
         <v>17</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="P29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1" spans="2:16">
+        <v>199</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1" spans="2:17">
       <c r="B30" s="1">
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -4932,7 +5037,7 @@
         <v>37</v>
       </c>
       <c r="H30" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I30" t="s">
         <v>19</v>
@@ -4944,27 +5049,30 @@
         <v>17</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="P30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1" spans="2:16">
+        <v>203</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1" spans="2:17">
       <c r="B31" s="1">
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -4973,7 +5081,7 @@
         <v>10</v>
       </c>
       <c r="H31" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I31" t="s">
         <v>15</v>
@@ -4985,27 +5093,30 @@
         <v>21</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="P31" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" ht="15" customHeight="1" spans="2:16">
+        <v>208</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" ht="15" customHeight="1" spans="2:17">
       <c r="B32" s="1">
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
@@ -5014,7 +5125,7 @@
         <v>10</v>
       </c>
       <c r="H32" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I32" t="s">
         <v>19</v>
@@ -5026,27 +5137,30 @@
         <v>21</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="P32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" ht="15" customHeight="1" spans="2:16">
+        <v>211</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1" spans="2:17">
       <c r="B33" s="1">
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
@@ -5064,27 +5178,30 @@
         <v>17</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="P33" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" ht="15" customHeight="1" spans="2:19">
+        <v>215</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" ht="15" customHeight="1" spans="2:20">
       <c r="B34" s="1">
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>
@@ -5102,27 +5219,30 @@
         <v>17</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="S34" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" ht="15" customHeight="1" spans="2:16">
+        <v>219</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="T34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1" spans="2:17">
       <c r="B35" s="1">
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
@@ -5131,7 +5251,7 @@
         <v>10</v>
       </c>
       <c r="H35" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I35" t="s">
         <v>19</v>
@@ -5143,27 +5263,30 @@
         <v>17</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="P35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" ht="15" customHeight="1" spans="2:16">
+        <v>224</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" ht="15" customHeight="1" spans="2:17">
       <c r="B36" s="1">
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
@@ -5181,27 +5304,30 @@
         <v>17</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="P36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" ht="15" customHeight="1" spans="2:19">
+        <v>228</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" ht="15" customHeight="1" spans="2:20">
       <c r="B37" s="1">
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
@@ -5219,30 +5345,33 @@
         <v>17</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="P37" t="s">
-        <v>115</v>
-      </c>
-      <c r="S37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" ht="15" customHeight="1" spans="2:16">
+        <v>232</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>117</v>
+      </c>
+      <c r="T37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" ht="15" customHeight="1" spans="2:17">
       <c r="B38" s="1">
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
@@ -5251,7 +5380,7 @@
         <v>18</v>
       </c>
       <c r="H38" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I38" t="s">
         <v>19</v>
@@ -5263,27 +5392,30 @@
         <v>17</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="P38" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" ht="15" customHeight="1" spans="2:16">
+        <v>237</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1" spans="2:17">
       <c r="B39" s="1">
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F39" t="s">
         <v>22</v>
@@ -5301,27 +5433,30 @@
         <v>17</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="P39" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" ht="15" customHeight="1" spans="2:16">
+        <v>241</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" ht="15" customHeight="1" spans="2:17">
       <c r="B40" s="1">
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
@@ -5339,27 +5474,30 @@
         <v>17</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="P40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" ht="15" customHeight="1" spans="2:16">
+        <v>245</v>
+      </c>
+      <c r="P40" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" ht="15" customHeight="1" spans="2:17">
       <c r="B41" s="1">
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -5368,7 +5506,7 @@
         <v>41</v>
       </c>
       <c r="H41" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I41" t="s">
         <v>19</v>
@@ -5380,27 +5518,30 @@
         <v>17</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="P41" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" ht="15" customHeight="1" spans="2:19">
+        <v>250</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" ht="15" customHeight="1" spans="2:20">
       <c r="B42" s="1">
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F42" t="s">
         <v>24</v>
@@ -5409,7 +5550,7 @@
         <v>23</v>
       </c>
       <c r="H42" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I42" t="s">
         <v>19</v>
@@ -5421,27 +5562,30 @@
         <v>17</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="S42" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" ht="15" customHeight="1" spans="2:16">
+        <v>255</v>
+      </c>
+      <c r="P42" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="T42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" ht="15" customHeight="1" spans="2:17">
       <c r="B43" s="1">
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F43" t="s">
         <v>24</v>
@@ -5450,7 +5594,7 @@
         <v>23</v>
       </c>
       <c r="H43" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I43" t="s">
         <v>15</v>
@@ -5462,27 +5606,30 @@
         <v>17</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="P43" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" ht="15" customHeight="1" spans="2:16">
+        <v>260</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" ht="15" customHeight="1" spans="2:17">
       <c r="B44" s="1">
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F44" t="s">
         <v>30</v>
@@ -5491,7 +5638,7 @@
         <v>33</v>
       </c>
       <c r="H44" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I44" t="s">
         <v>15</v>
@@ -5503,30 +5650,33 @@
         <v>21</v>
       </c>
       <c r="L44" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="P44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" ht="15" customHeight="1" spans="2:16">
+        <v>266</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" ht="15" customHeight="1" spans="2:17">
       <c r="B45" s="1">
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F45" t="s">
         <v>30</v>
@@ -5535,7 +5685,7 @@
         <v>33</v>
       </c>
       <c r="H45" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I45" t="s">
         <v>19</v>
@@ -5547,30 +5697,33 @@
         <v>21</v>
       </c>
       <c r="L45" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="P45" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" ht="15" customHeight="1" spans="2:20">
+        <v>272</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" ht="15" customHeight="1" spans="2:21">
       <c r="B46" s="1">
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F46" t="s">
         <v>30</v>
@@ -5579,7 +5732,7 @@
         <v>35</v>
       </c>
       <c r="H46" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I46" t="s">
         <v>15</v>
@@ -5591,33 +5744,36 @@
         <v>17</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="P46" t="s">
-        <v>115</v>
-      </c>
-      <c r="S46" t="s">
-        <v>115</v>
+        <v>277</v>
+      </c>
+      <c r="P46" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>117</v>
       </c>
       <c r="T46" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" ht="15" customHeight="1" spans="2:20">
+        <v>117</v>
+      </c>
+      <c r="U46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" ht="15" customHeight="1" spans="2:21">
       <c r="B47" s="1">
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F47" t="s">
         <v>30</v>
@@ -5626,7 +5782,7 @@
         <v>35</v>
       </c>
       <c r="H47" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I47" t="s">
         <v>19</v>
@@ -5638,33 +5794,36 @@
         <v>17</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="P47" t="s">
-        <v>115</v>
-      </c>
-      <c r="S47" t="s">
-        <v>115</v>
+        <v>280</v>
+      </c>
+      <c r="P47" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>117</v>
       </c>
       <c r="T47" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="48" ht="15" customHeight="1" spans="2:17">
+        <v>117</v>
+      </c>
+      <c r="U47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" ht="15" customHeight="1" spans="2:18">
       <c r="B48" s="1">
         <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F48" t="s">
         <v>30</v>
@@ -5673,7 +5832,7 @@
         <v>35</v>
       </c>
       <c r="H48" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I48" t="s">
         <v>15</v>
@@ -5685,33 +5844,36 @@
         <v>17</v>
       </c>
       <c r="L48" t="s">
-        <v>282</v>
-      </c>
-      <c r="N48" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="N48" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="P48" t="s">
-        <v>115</v>
+        <v>232</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="Q48" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" ht="15" customHeight="1" spans="2:17">
+        <v>117</v>
+      </c>
+      <c r="R48" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" ht="15" customHeight="1" spans="2:18">
       <c r="B49" s="1">
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F49" t="s">
         <v>30</v>
@@ -5720,7 +5882,7 @@
         <v>35</v>
       </c>
       <c r="H49" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I49" t="s">
         <v>19</v>
@@ -5732,33 +5894,36 @@
         <v>17</v>
       </c>
       <c r="L49" t="s">
-        <v>282</v>
-      </c>
-      <c r="N49" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="N49" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="P49" t="s">
-        <v>115</v>
+        <v>288</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="Q49" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" ht="15" customHeight="1" spans="2:20">
+        <v>117</v>
+      </c>
+      <c r="R49" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" ht="15" customHeight="1" spans="2:21">
       <c r="B50" s="1">
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F50" t="s">
         <v>30</v>
@@ -5767,7 +5932,7 @@
         <v>36</v>
       </c>
       <c r="H50" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I50" t="s">
         <v>19</v>
@@ -5779,33 +5944,36 @@
         <v>17</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="P50" t="s">
-        <v>115</v>
-      </c>
-      <c r="S50" t="s">
-        <v>115</v>
+        <v>292</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>117</v>
       </c>
       <c r="T50" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" ht="15" customHeight="1" spans="2:20">
+        <v>117</v>
+      </c>
+      <c r="U50" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" ht="15" customHeight="1" spans="2:21">
       <c r="B51" s="1">
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F51" t="s">
         <v>30</v>
@@ -5814,7 +5982,7 @@
         <v>36</v>
       </c>
       <c r="H51" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I51" t="s">
         <v>19</v>
@@ -5826,33 +5994,36 @@
         <v>17</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="P51" t="s">
-        <v>115</v>
-      </c>
-      <c r="S51" t="s">
-        <v>115</v>
+        <v>292</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>117</v>
       </c>
       <c r="T51" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" ht="15" customHeight="1" spans="2:17">
+        <v>117</v>
+      </c>
+      <c r="U51" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" ht="15" customHeight="1" spans="2:18">
       <c r="B52" s="1">
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F52" t="s">
         <v>30</v>
@@ -5870,19 +6041,22 @@
         <v>17</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="P52" t="s">
-        <v>115</v>
+        <v>272</v>
+      </c>
+      <c r="P52" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="Q52" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" ht="15" customHeight="1" spans="2:15">
+        <v>117</v>
+      </c>
+      <c r="R52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" ht="15" customHeight="1" spans="2:16">
       <c r="B53" s="1">
         <v>50</v>
       </c>
@@ -5893,7 +6067,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F53" t="s">
         <v>22</v>
@@ -5902,7 +6076,7 @@
         <v>38</v>
       </c>
       <c r="H53" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I53" t="s">
         <v>15</v>
@@ -5914,13 +6088,16 @@
         <v>21</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="54" ht="15" customHeight="1" spans="2:15">
+        <v>303</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" ht="15" customHeight="1" spans="2:16">
       <c r="B54" s="1">
         <v>51</v>
       </c>
@@ -5931,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F54" t="s">
         <v>22</v>
@@ -5940,7 +6117,7 @@
         <v>40</v>
       </c>
       <c r="H54" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I54" t="s">
         <v>15</v>
@@ -5952,13 +6129,16 @@
         <v>21</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="55" ht="15" customHeight="1" spans="2:15">
+        <v>306</v>
+      </c>
+      <c r="P54" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" ht="15" customHeight="1" spans="2:16">
       <c r="B55" s="1">
         <v>52</v>
       </c>
@@ -5969,7 +6149,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F55" t="s">
         <v>22</v>
@@ -5978,7 +6158,7 @@
         <v>41</v>
       </c>
       <c r="H55" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I55" t="s">
         <v>15</v>
@@ -5990,13 +6170,16 @@
         <v>21</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="56" ht="15" customHeight="1" spans="2:15">
+        <v>308</v>
+      </c>
+      <c r="P55" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" ht="15" customHeight="1" spans="2:16">
       <c r="B56" s="1">
         <v>53</v>
       </c>
@@ -6007,7 +6190,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F56" t="s">
         <v>22</v>
@@ -6016,7 +6199,7 @@
         <v>42</v>
       </c>
       <c r="H56" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I56" t="s">
         <v>15</v>
@@ -6028,13 +6211,16 @@
         <v>21</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="57" ht="15" customHeight="1" spans="2:15">
+        <v>311</v>
+      </c>
+      <c r="P56" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" ht="15" customHeight="1" spans="2:16">
       <c r="B57" s="1">
         <v>54</v>
       </c>
@@ -6045,7 +6231,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F57" t="s">
         <v>22</v>
@@ -6054,7 +6240,7 @@
         <v>43</v>
       </c>
       <c r="H57" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I57" t="s">
         <v>15</v>
@@ -6066,13 +6252,16 @@
         <v>21</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="58" ht="15" customHeight="1" spans="2:15">
+        <v>313</v>
+      </c>
+      <c r="P57" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" ht="15" customHeight="1" spans="2:16">
       <c r="B58" s="1">
         <v>55</v>
       </c>
@@ -6083,7 +6272,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F58" t="s">
         <v>26</v>
@@ -6092,7 +6281,7 @@
         <v>39</v>
       </c>
       <c r="H58" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I58" t="s">
         <v>15</v>
@@ -6104,13 +6293,16 @@
         <v>21</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="O58" s="7">
+        <v>302</v>
+      </c>
+      <c r="O58" s="8">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" ht="15" customHeight="1" spans="2:15">
+      <c r="P58" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" ht="15" customHeight="1" spans="2:16">
       <c r="B59" s="1">
         <v>56</v>
       </c>
@@ -6121,7 +6313,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F59" t="s">
         <v>26</v>
@@ -6130,7 +6322,7 @@
         <v>40</v>
       </c>
       <c r="H59" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I59" t="s">
         <v>15</v>
@@ -6142,13 +6334,16 @@
         <v>21</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="60" ht="15" customHeight="1" spans="2:15">
+        <v>316</v>
+      </c>
+      <c r="P59" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" ht="15" customHeight="1" spans="2:16">
       <c r="B60" s="1">
         <v>57</v>
       </c>
@@ -6159,7 +6354,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F60" t="s">
         <v>26</v>
@@ -6168,7 +6363,7 @@
         <v>41</v>
       </c>
       <c r="H60" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I60" t="s">
         <v>15</v>
@@ -6180,13 +6375,16 @@
         <v>21</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="O60" s="7">
+        <v>302</v>
+      </c>
+      <c r="O60" s="8">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" ht="15" customHeight="1" spans="2:15">
+      <c r="P60" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" ht="15" customHeight="1" spans="2:16">
       <c r="B61" s="1">
         <v>58</v>
       </c>
@@ -6197,7 +6395,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F61" t="s">
         <v>26</v>
@@ -6206,7 +6404,7 @@
         <v>42</v>
       </c>
       <c r="H61" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I61" t="s">
         <v>15</v>
@@ -6218,13 +6416,16 @@
         <v>21</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="62" ht="15" customHeight="1" spans="2:15">
+        <v>319</v>
+      </c>
+      <c r="P61" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" ht="15" customHeight="1" spans="2:16">
       <c r="B62" s="1">
         <v>59</v>
       </c>
@@ -6235,7 +6436,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F62" t="s">
         <v>26</v>
@@ -6244,7 +6445,7 @@
         <v>43</v>
       </c>
       <c r="H62" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I62" t="s">
         <v>15</v>
@@ -6256,13 +6457,16 @@
         <v>21</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="63" ht="15" customHeight="1" spans="2:15">
+        <v>321</v>
+      </c>
+      <c r="P62" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" ht="15" customHeight="1" spans="2:16">
       <c r="B63" s="1">
         <v>60</v>
       </c>
@@ -6273,7 +6477,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F63" t="s">
         <v>26</v>
@@ -6282,7 +6486,7 @@
         <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I63" t="s">
         <v>15</v>
@@ -6294,13 +6498,16 @@
         <v>21</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="O63" s="7">
+        <v>302</v>
+      </c>
+      <c r="O63" s="8">
         <v>150</v>
       </c>
-    </row>
-    <row r="64" ht="15" customHeight="1" spans="2:15">
+      <c r="P63" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" ht="15" customHeight="1" spans="2:16">
       <c r="B64" s="1">
         <v>61</v>
       </c>
@@ -6311,7 +6518,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F64" t="s">
         <v>22</v>
@@ -6329,13 +6536,16 @@
         <v>17</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O64" s="5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="65" ht="15" customHeight="1" spans="2:15">
+        <v>324</v>
+      </c>
+      <c r="P64" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" ht="15" customHeight="1" spans="2:16">
       <c r="B65" s="1">
         <v>62</v>
       </c>
@@ -6346,7 +6556,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F65" t="s">
         <v>22</v>
@@ -6364,13 +6574,16 @@
         <v>17</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O65" s="5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="66" ht="15" customHeight="1" spans="2:15">
+        <v>326</v>
+      </c>
+      <c r="P65" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" ht="15" customHeight="1" spans="2:16">
       <c r="B66" s="1">
         <v>63</v>
       </c>
@@ -6381,7 +6594,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F66" t="s">
         <v>22</v>
@@ -6399,13 +6612,16 @@
         <v>17</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O66" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="67" ht="15" customHeight="1" spans="2:15">
+        <v>328</v>
+      </c>
+      <c r="P66" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" ht="15" customHeight="1" spans="2:16">
       <c r="B67" s="1">
         <v>64</v>
       </c>
@@ -6416,7 +6632,7 @@
         <v>1</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F67" t="s">
         <v>22</v>
@@ -6434,13 +6650,16 @@
         <v>17</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O67" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="68" ht="15" customHeight="1" spans="2:15">
+        <v>330</v>
+      </c>
+      <c r="P67" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" ht="15" customHeight="1" spans="2:16">
       <c r="B68" s="1">
         <v>65</v>
       </c>
@@ -6451,7 +6670,7 @@
         <v>1</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F68" t="s">
         <v>22</v>
@@ -6469,13 +6688,16 @@
         <v>17</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O68" s="5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="69" ht="15" customHeight="1" spans="2:15">
+        <v>326</v>
+      </c>
+      <c r="P68" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" ht="15" customHeight="1" spans="2:16">
       <c r="B69" s="1">
         <v>66</v>
       </c>
@@ -6486,7 +6708,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F69" t="s">
         <v>22</v>
@@ -6504,13 +6726,16 @@
         <v>17</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O69" s="5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="70" ht="15" customHeight="1" spans="2:15">
+        <v>333</v>
+      </c>
+      <c r="P69" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" ht="15" customHeight="1" spans="2:16">
       <c r="B70" s="1">
         <v>67</v>
       </c>
@@ -6521,7 +6746,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F70" t="s">
         <v>22</v>
@@ -6539,24 +6764,27 @@
         <v>17</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="71" ht="15" customHeight="1" spans="2:15">
+        <v>335</v>
+      </c>
+      <c r="P70" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" ht="15" customHeight="1" spans="2:16">
       <c r="B71" s="1">
         <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F71" t="s">
         <v>22</v>
@@ -6574,13 +6802,16 @@
         <v>17</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O71" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="72" ht="15" customHeight="1" spans="2:15">
+        <v>335</v>
+      </c>
+      <c r="P71" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" ht="15" customHeight="1" spans="2:16">
       <c r="B72" s="1">
         <v>69</v>
       </c>
@@ -6591,7 +6822,7 @@
         <v>1</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F72" t="s">
         <v>22</v>
@@ -6600,7 +6831,7 @@
         <v>41</v>
       </c>
       <c r="H72" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I72" t="s">
         <v>15</v>
@@ -6612,13 +6843,16 @@
         <v>17</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O72" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="73" ht="15" customHeight="1" spans="2:15">
+        <v>335</v>
+      </c>
+      <c r="P72" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" ht="15" customHeight="1" spans="2:16">
       <c r="B73" s="1">
         <v>70</v>
       </c>
@@ -6629,7 +6863,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F73" t="s">
         <v>22</v>
@@ -6638,7 +6872,7 @@
         <v>41</v>
       </c>
       <c r="H73" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I73" t="s">
         <v>15</v>
@@ -6650,13 +6884,16 @@
         <v>17</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O73" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="74" ht="15" customHeight="1" spans="2:15">
+        <v>335</v>
+      </c>
+      <c r="P73" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" ht="15" customHeight="1" spans="2:16">
       <c r="B74" s="1">
         <v>71</v>
       </c>
@@ -6667,7 +6904,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F74" t="s">
         <v>22</v>
@@ -6676,7 +6913,7 @@
         <v>41</v>
       </c>
       <c r="H74" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="I74" t="s">
         <v>15</v>
@@ -6688,13 +6925,16 @@
         <v>17</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O74" s="5" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="75" ht="15" customHeight="1" spans="2:15">
+        <v>335</v>
+      </c>
+      <c r="P74" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" ht="15" customHeight="1" spans="2:16">
       <c r="B75" s="1">
         <v>72</v>
       </c>
@@ -6705,7 +6945,7 @@
         <v>1</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F75" t="s">
         <v>22</v>
@@ -6714,7 +6954,7 @@
         <v>41</v>
       </c>
       <c r="H75" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="I75" t="s">
         <v>19</v>
@@ -6726,13 +6966,16 @@
         <v>17</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O75" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="76" ht="15" customHeight="1" spans="2:15">
+        <v>345</v>
+      </c>
+      <c r="P75" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" ht="15" customHeight="1" spans="2:16">
       <c r="B76" s="1">
         <v>73</v>
       </c>
@@ -6743,7 +6986,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F76" t="s">
         <v>22</v>
@@ -6752,7 +6995,7 @@
         <v>41</v>
       </c>
       <c r="H76" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I76" t="s">
         <v>15</v>
@@ -6764,13 +7007,16 @@
         <v>17</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O76" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="77" ht="15" customHeight="1" spans="2:15">
+        <v>348</v>
+      </c>
+      <c r="P76" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" ht="15" customHeight="1" spans="2:16">
       <c r="B77" s="1">
         <v>74</v>
       </c>
@@ -6781,7 +7027,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F77" t="s">
         <v>22</v>
@@ -6790,7 +7036,7 @@
         <v>41</v>
       </c>
       <c r="H77" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I77" t="s">
         <v>15</v>
@@ -6802,13 +7048,16 @@
         <v>17</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O77" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="78" ht="15" customHeight="1" spans="2:15">
+        <v>348</v>
+      </c>
+      <c r="P77" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" ht="15" customHeight="1" spans="2:16">
       <c r="B78" s="1">
         <v>75</v>
       </c>
@@ -6819,7 +7068,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F78" t="s">
         <v>22</v>
@@ -6828,7 +7077,7 @@
         <v>41</v>
       </c>
       <c r="H78" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I78" t="s">
         <v>19</v>
@@ -6840,13 +7089,16 @@
         <v>17</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O78" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="79" ht="15" customHeight="1" spans="2:15">
+        <v>345</v>
+      </c>
+      <c r="P78" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" ht="15" customHeight="1" spans="2:16">
       <c r="B79" s="1">
         <v>76</v>
       </c>
@@ -6857,7 +7109,7 @@
         <v>1</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F79" t="s">
         <v>22</v>
@@ -6866,7 +7118,7 @@
         <v>42</v>
       </c>
       <c r="H79" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I79" t="s">
         <v>15</v>
@@ -6878,13 +7130,16 @@
         <v>17</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O79" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="80" ht="15" customHeight="1" spans="2:15">
+        <v>348</v>
+      </c>
+      <c r="P79" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" ht="15" customHeight="1" spans="2:16">
       <c r="B80" s="1">
         <v>77</v>
       </c>
@@ -6895,7 +7150,7 @@
         <v>1</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F80" t="s">
         <v>22</v>
@@ -6904,7 +7159,7 @@
         <v>42</v>
       </c>
       <c r="H80" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I80" t="s">
         <v>9</v>
@@ -6916,13 +7171,16 @@
         <v>17</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O80" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="81" ht="15" customHeight="1" spans="2:15">
+        <v>356</v>
+      </c>
+      <c r="P80" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" ht="15" customHeight="1" spans="2:16">
       <c r="B81" s="1">
         <v>78</v>
       </c>
@@ -6933,7 +7191,7 @@
         <v>1</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F81" t="s">
         <v>22</v>
@@ -6942,7 +7200,7 @@
         <v>42</v>
       </c>
       <c r="H81" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I81" t="s">
         <v>19</v>
@@ -6954,13 +7212,16 @@
         <v>17</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O81" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="82" ht="15" customHeight="1" spans="2:15">
+        <v>358</v>
+      </c>
+      <c r="P81" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" ht="15" customHeight="1" spans="2:16">
       <c r="B82" s="1">
         <v>79</v>
       </c>
@@ -6971,7 +7232,7 @@
         <v>1</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F82" t="s">
         <v>22</v>
@@ -6989,13 +7250,16 @@
         <v>17</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O82" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="83" ht="15" customHeight="1" spans="2:15">
+        <v>360</v>
+      </c>
+      <c r="P82" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" ht="15" customHeight="1" spans="2:16">
       <c r="B83" s="1">
         <v>80</v>
       </c>
@@ -7006,7 +7270,7 @@
         <v>1</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F83" t="s">
         <v>22</v>
@@ -7024,24 +7288,27 @@
         <v>17</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O83" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="84" ht="15" customHeight="1" spans="2:15">
+        <v>362</v>
+      </c>
+      <c r="P83" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" ht="15" customHeight="1" spans="2:16">
       <c r="B84" s="1">
         <v>81</v>
       </c>
       <c r="C84" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F84" t="s">
         <v>13</v>
@@ -7059,25 +7326,28 @@
         <v>6</v>
       </c>
       <c r="L84" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O84" s="5"/>
-    </row>
-    <row r="85" ht="15" customHeight="1" spans="2:15">
+      <c r="P84" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" ht="15" customHeight="1" spans="2:16">
       <c r="B85" s="1">
         <v>82</v>
       </c>
       <c r="C85" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F85" t="s">
         <v>13</v>
@@ -7095,25 +7365,28 @@
         <v>6</v>
       </c>
       <c r="L85" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O85" s="5"/>
-    </row>
-    <row r="86" ht="15" customHeight="1" spans="2:15">
+      <c r="P85" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" ht="15" customHeight="1" spans="2:16">
       <c r="B86" s="1">
         <v>83</v>
       </c>
       <c r="C86" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F86" t="s">
         <v>13</v>
@@ -7131,25 +7404,28 @@
         <v>6</v>
       </c>
       <c r="L86" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O86" s="5"/>
-    </row>
-    <row r="87" ht="15" customHeight="1" spans="2:15">
+      <c r="P86" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" ht="15" customHeight="1" spans="2:16">
       <c r="B87" s="1">
         <v>84</v>
       </c>
       <c r="C87" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F87" t="s">
         <v>13</v>
@@ -7167,25 +7443,28 @@
         <v>6</v>
       </c>
       <c r="L87" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O87" s="5"/>
-    </row>
-    <row r="88" ht="15" customHeight="1" spans="2:15">
+      <c r="P87" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" ht="15" customHeight="1" spans="2:16">
       <c r="B88" s="1">
         <v>85</v>
       </c>
       <c r="C88" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F88" t="s">
         <v>13</v>
@@ -7203,25 +7482,28 @@
         <v>6</v>
       </c>
       <c r="L88" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O88" s="5"/>
-    </row>
-    <row r="89" ht="15" customHeight="1" spans="2:15">
+      <c r="P88" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" ht="15" customHeight="1" spans="2:16">
       <c r="B89" s="1">
         <v>86</v>
       </c>
       <c r="C89" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F89" t="s">
         <v>30</v>
@@ -7230,36 +7512,39 @@
         <v>33</v>
       </c>
       <c r="H89" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="I89" t="s">
         <v>15</v>
       </c>
       <c r="J89" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K89" t="s">
         <v>21</v>
       </c>
       <c r="N89" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="O89" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="90" ht="15" customHeight="1" spans="2:15">
+        <v>232</v>
+      </c>
+      <c r="P89" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="90" ht="15" customHeight="1" spans="2:16">
       <c r="B90" s="1">
         <v>87</v>
       </c>
       <c r="C90" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F90" t="s">
         <v>30</v>
@@ -7268,39 +7553,42 @@
         <v>33</v>
       </c>
       <c r="H90" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="I90" t="s">
         <v>19</v>
       </c>
       <c r="J90" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="K90" t="s">
         <v>17</v>
       </c>
       <c r="L90" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="N90" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="O90" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="91" ht="15" customHeight="1" spans="2:15">
+        <v>390</v>
+      </c>
+      <c r="P90" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="91" ht="15" customHeight="1" spans="2:16">
       <c r="B91" s="1">
         <v>88</v>
       </c>
       <c r="C91" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F91" t="s">
         <v>11</v>
@@ -7309,7 +7597,7 @@
         <v>10</v>
       </c>
       <c r="H91" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I91" t="s">
         <v>15</v>
@@ -7321,27 +7609,30 @@
         <v>17</v>
       </c>
       <c r="L91" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="N91" t="s">
+        <v>393</v>
+      </c>
+      <c r="O91" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="O91" s="5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="92" ht="15" customHeight="1" spans="2:19">
+      <c r="P91" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="92" ht="15" customHeight="1" spans="2:20">
       <c r="B92" s="1">
         <v>89</v>
       </c>
       <c r="C92" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F92" t="s">
         <v>30</v>
@@ -7350,7 +7641,7 @@
         <v>33</v>
       </c>
       <c r="H92" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="I92" t="s">
         <v>15</v>
@@ -7362,36 +7653,39 @@
         <v>21</v>
       </c>
       <c r="L92" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="N92" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="O92" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>115</v>
+        <v>399</v>
+      </c>
+      <c r="P92" s="6" t="s">
+        <v>383</v>
       </c>
       <c r="R92" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="S92" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="93" ht="15" customHeight="1" spans="2:19">
+        <v>117</v>
+      </c>
+      <c r="T92" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" ht="15" customHeight="1" spans="2:20">
       <c r="B93" s="1">
         <v>90</v>
       </c>
       <c r="C93" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F93" t="s">
         <v>30</v>
@@ -7400,7 +7694,7 @@
         <v>33</v>
       </c>
       <c r="H93" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="I93" t="s">
         <v>15</v>
@@ -7412,45 +7706,48 @@
         <v>21</v>
       </c>
       <c r="L93" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="N93" t="s">
+        <v>402</v>
+      </c>
+      <c r="O93" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="O93" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>115</v>
+      <c r="P93" s="6" t="s">
+        <v>383</v>
       </c>
       <c r="R93" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="S93" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="94" ht="15" customHeight="1" spans="2:21">
+        <v>117</v>
+      </c>
+      <c r="T93" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" ht="15" customHeight="1" spans="2:22">
       <c r="B94" s="1">
         <v>91</v>
       </c>
       <c r="C94" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F94" t="s">
         <v>24</v>
       </c>
       <c r="G94" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H94" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="I94" t="s">
         <v>19</v>
@@ -7462,30 +7759,33 @@
         <v>17</v>
       </c>
       <c r="L94" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="N94" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="O94" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="U94" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="95" ht="15" customHeight="1" spans="2:15">
+        <v>409</v>
+      </c>
+      <c r="P94" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="V94" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="95" ht="15" customHeight="1" spans="2:16">
       <c r="B95" s="1">
         <v>92</v>
       </c>
       <c r="C95" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F95" t="s">
         <v>30</v>
@@ -7494,7 +7794,7 @@
         <v>33</v>
       </c>
       <c r="H95" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="I95" t="s">
         <v>9</v>
@@ -7506,36 +7806,39 @@
         <v>17</v>
       </c>
       <c r="L95" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="N95" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="O95" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="96" ht="15" customHeight="1" spans="2:15">
+        <v>414</v>
+      </c>
+      <c r="P95" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="96" ht="15" customHeight="1" spans="2:16">
       <c r="B96" s="1">
         <v>93</v>
       </c>
       <c r="C96" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D96">
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F96" t="s">
         <v>24</v>
       </c>
       <c r="G96" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="H96" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="I96" t="s">
         <v>15</v>
@@ -7547,17 +7850,20 @@
         <v>21</v>
       </c>
       <c r="L96"/>
-      <c r="M96" s="8" t="s">
-        <v>415</v>
+      <c r="M96" s="9" t="s">
+        <v>418</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O96" s="5" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="97" ht="15" customHeight="1" spans="2:15">
+        <v>419</v>
+      </c>
+      <c r="P96" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="97" ht="15" customHeight="1" spans="2:16">
       <c r="B97" s="1">
         <v>94</v>
       </c>
@@ -7568,7 +7874,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F97" t="s">
         <v>22</v>
@@ -7577,7 +7883,7 @@
         <v>43</v>
       </c>
       <c r="H97" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I97" t="s">
         <v>19</v>
@@ -7589,16 +7895,19 @@
         <v>21</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O97" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="98" ht="15" customHeight="1" spans="2:15">
+        <v>423</v>
+      </c>
+      <c r="P97" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="98" ht="15" customHeight="1" spans="2:16">
       <c r="B98" s="1">
         <v>95</v>
       </c>
@@ -7609,7 +7918,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="F98" t="s">
         <v>22</v>
@@ -7618,7 +7927,7 @@
         <v>41</v>
       </c>
       <c r="H98" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="I98" t="s">
         <v>19</v>
@@ -7630,16 +7939,19 @@
         <v>21</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O98" s="5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="99" ht="15" customHeight="1" spans="2:15">
+        <v>428</v>
+      </c>
+      <c r="P98" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="99" ht="15" customHeight="1" spans="2:16">
       <c r="B99" s="1">
         <v>96</v>
       </c>
@@ -7650,7 +7962,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="F99" t="s">
         <v>22</v>
@@ -7659,7 +7971,7 @@
         <v>38</v>
       </c>
       <c r="H99" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I99" t="s">
         <v>19</v>
@@ -7671,16 +7983,19 @@
         <v>21</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O99" s="5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="100" ht="15" customHeight="1" spans="2:15">
+        <v>428</v>
+      </c>
+      <c r="P99" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="100" ht="15" customHeight="1" spans="2:16">
       <c r="B100" s="1">
         <v>97</v>
       </c>
@@ -7691,7 +8006,7 @@
         <v>1</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="F100" t="s">
         <v>22</v>
@@ -7700,7 +8015,7 @@
         <v>42</v>
       </c>
       <c r="H100" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="I100" t="s">
         <v>19</v>
@@ -7712,16 +8027,19 @@
         <v>21</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O100" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="101" ht="15" customHeight="1" spans="2:15">
+        <v>423</v>
+      </c>
+      <c r="P100" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="101" ht="15" customHeight="1" spans="2:16">
       <c r="B101" s="1">
         <v>98</v>
       </c>
@@ -7732,7 +8050,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="F101" t="s">
         <v>22</v>
@@ -7741,7 +8059,7 @@
         <v>42</v>
       </c>
       <c r="H101" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I101" t="s">
         <v>9</v>
@@ -7753,14 +8071,17 @@
         <v>21</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O101" s="5"/>
-    </row>
-    <row r="102" ht="15" customHeight="1" spans="2:15">
+      <c r="P101" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="102" ht="15" customHeight="1" spans="2:16">
       <c r="B102" s="1">
         <v>99</v>
       </c>
@@ -7771,7 +8092,7 @@
         <v>1</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="F102" t="s">
         <v>22</v>
@@ -7789,16 +8110,19 @@
         <v>21</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="N102" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O102" s="5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="103" ht="15" customHeight="1" spans="2:15">
+        <v>428</v>
+      </c>
+      <c r="P102" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="103" ht="15" customHeight="1" spans="2:16">
       <c r="B103" s="1">
         <v>100</v>
       </c>
@@ -7809,7 +8133,7 @@
         <v>1</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="F103" t="s">
         <v>22</v>
@@ -7818,7 +8142,7 @@
         <v>40</v>
       </c>
       <c r="H103" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I103" t="s">
         <v>19</v>
@@ -7830,16 +8154,19 @@
         <v>21</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="N103" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O103" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="104" ht="15" customHeight="1" spans="2:15">
+        <v>423</v>
+      </c>
+      <c r="P103" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="104" ht="15" customHeight="1" spans="2:16">
       <c r="B104" s="1">
         <v>101</v>
       </c>
@@ -7850,7 +8177,7 @@
         <v>1</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="F104" t="s">
         <v>22</v>
@@ -7859,7 +8186,7 @@
         <v>44</v>
       </c>
       <c r="H104" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I104" t="s">
         <v>19</v>
@@ -7871,39 +8198,99 @@
         <v>21</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="N104" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O104" s="5" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="105" ht="15" customHeight="1" spans="5:15">
+        <v>440</v>
+      </c>
+      <c r="P104" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="105" ht="15" customHeight="1" spans="5:16">
       <c r="E105" s="2"/>
+      <c r="L105" s="5"/>
       <c r="N105" s="4"/>
       <c r="O105" s="5"/>
+      <c r="P105" s="10"/>
+    </row>
+    <row r="106" ht="15" customHeight="1" spans="5:16">
+      <c r="E106" s="2"/>
+      <c r="L106" s="5"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="5"/>
+      <c r="P106" s="10"/>
+    </row>
+    <row r="107" ht="15" customHeight="1" spans="5:16">
+      <c r="E107" s="2"/>
+      <c r="L107" s="5"/>
+      <c r="N107" s="4"/>
+      <c r="O107" s="5"/>
+      <c r="P107" s="10"/>
+    </row>
+    <row r="108" ht="15" customHeight="1" spans="5:16">
+      <c r="E108" s="2"/>
+      <c r="L108" s="5"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="5"/>
+      <c r="P108" s="10"/>
+    </row>
+    <row r="109" ht="15" customHeight="1" spans="5:16">
+      <c r="E109" s="2"/>
+      <c r="L109" s="5"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="5"/>
+      <c r="P109" s="10"/>
+    </row>
+    <row r="110" ht="15" customHeight="1" spans="5:16">
+      <c r="E110" s="2"/>
+      <c r="L110" s="5"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="5"/>
+      <c r="P110" s="10"/>
+    </row>
+    <row r="111" ht="15" customHeight="1" spans="5:16">
+      <c r="E111" s="2"/>
+      <c r="L111" s="5"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="5"/>
+      <c r="P111" s="10"/>
+    </row>
+    <row r="112" ht="15" customHeight="1" spans="5:16">
+      <c r="E112" s="2"/>
+      <c r="L112" s="5"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="5"/>
+      <c r="P112" s="10"/>
+    </row>
+    <row r="113" ht="15" customHeight="1" spans="5:16">
+      <c r="E113" s="2"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="5"/>
+      <c r="P113" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J96;J5:J88;J97:J105">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J96;J105;J106;J107;J108;J109;J110;J111;J112;J113;J5:J88;J97:J104">
       <formula1>Производитель</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K96;K5:K83;K97:K105">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K96;K105;K106;K107;K108;K109;K110;K111;K112;K113;K5:K83;K97:K104">
       <formula1>Тип_графики</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F86;F97:F105">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F105;F106;F107;F108;F109;F110;F111;F112;F113;F5:F86;F97:F104">
       <formula1>Категория_сайта</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I105;I106;I107;I108;I109;I110;I111;I112;I113;I5:I83;I97:I104">
+      <formula1>Форма</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q105:V105;Q106:V106;Q107:V107;Q108:V108;Q109:V109;Q110:V110;Q111:V111;Q112:V112;Q113:V113;Q5:V93;Q100:V104;Q97:V99">
+      <formula1>"ДА"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G78">
       <formula1>Категория_техническая</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I83;I97:I105">
-      <formula1>Форма</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P100:U105;P5:U93;P97:U99">
-      <formula1>"ДА"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7917,10 +8304,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:T200"/>
+  <dimension ref="B4:U200"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -7929,7 +8316,7 @@
     <col min="5" max="5" width="36.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:21">
       <c r="B4" t="str">
         <f>IF(Компоненты!B4&lt;&gt;"",Компоненты!B4,"")</f>
         <v>id</v>
@@ -7988,26 +8375,30 @@
       </c>
       <c r="P4" t="str">
         <f>IF(Компоненты!P4&lt;&gt;"",Компоненты!P4,"")</f>
-        <v>gal_steel</v>
+        <v>updDate</v>
       </c>
       <c r="Q4" t="str">
         <f>IF(Компоненты!Q4&lt;&gt;"",Компоненты!Q4,"")</f>
-        <v>st_steel</v>
+        <v>gal_steel</v>
       </c>
       <c r="R4" t="str">
         <f>IF(Компоненты!R4&lt;&gt;"",Компоненты!R4,"")</f>
-        <v>cbn_steel</v>
+        <v>st_steel</v>
       </c>
       <c r="S4" t="str">
         <f>IF(Компоненты!S4&lt;&gt;"",Компоненты!S4,"")</f>
-        <v>aluminium</v>
+        <v>cbn_steel</v>
       </c>
       <c r="T4" t="str">
         <f>IF(Компоненты!T4&lt;&gt;"",Компоненты!T4,"")</f>
+        <v>aluminium</v>
+      </c>
+      <c r="U4" t="str">
+        <f>IF(Компоненты!U4&lt;&gt;"",Компоненты!U4,"")</f>
         <v>copper</v>
       </c>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:21">
       <c r="B5">
         <f>IF(Компоненты!B5&lt;&gt;"",Компоненты!B5,"")</f>
         <v>1</v>
@@ -8066,7 +8457,7 @@
       </c>
       <c r="P5" t="str">
         <f>IF(Компоненты!P5&lt;&gt;"",Компоненты!P5,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q5" t="str">
         <f>IF(Компоненты!Q5&lt;&gt;"",Компоненты!Q5,"")</f>
@@ -8084,8 +8475,12 @@
         <f>IF(Компоненты!T5&lt;&gt;"",Компоненты!T5,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="2:20">
+      <c r="U5" t="str">
+        <f>IF(Компоненты!U5&lt;&gt;"",Компоненты!U5,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="2:21">
       <c r="B6">
         <f>IF(Компоненты!B6&lt;&gt;"",Компоненты!B6,"")</f>
         <v>2</v>
@@ -8144,7 +8539,7 @@
       </c>
       <c r="P6" t="str">
         <f>IF(Компоненты!P6&lt;&gt;"",Компоненты!P6,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q6" t="str">
         <f>IF(Компоненты!Q6&lt;&gt;"",Компоненты!Q6,"")</f>
@@ -8156,14 +8551,18 @@
       </c>
       <c r="S6" t="str">
         <f>IF(Компоненты!S6&lt;&gt;"",Компоненты!S6,"")</f>
-        <v>ДА</v>
+        <v/>
       </c>
       <c r="T6" t="str">
         <f>IF(Компоненты!T6&lt;&gt;"",Компоненты!T6,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="2:20">
+        <v>ДА</v>
+      </c>
+      <c r="U6" t="str">
+        <f>IF(Компоненты!U6&lt;&gt;"",Компоненты!U6,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="2:21">
       <c r="B7">
         <f>IF(Компоненты!B7&lt;&gt;"",Компоненты!B7,"")</f>
         <v>3</v>
@@ -8225,7 +8624,7 @@
       </c>
       <c r="P7" t="str">
         <f>IF(Компоненты!P7&lt;&gt;"",Компоненты!P7,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q7" t="str">
         <f>IF(Компоненты!Q7&lt;&gt;"",Компоненты!Q7,"")</f>
@@ -8233,7 +8632,7 @@
       </c>
       <c r="R7" t="str">
         <f>IF(Компоненты!R7&lt;&gt;"",Компоненты!R7,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="S7" t="str">
         <f>IF(Компоненты!S7&lt;&gt;"",Компоненты!S7,"")</f>
@@ -8243,8 +8642,12 @@
         <f>IF(Компоненты!T7&lt;&gt;"",Компоненты!T7,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="2:20">
+      <c r="U7" t="str">
+        <f>IF(Компоненты!U7&lt;&gt;"",Компоненты!U7,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:21">
       <c r="B8">
         <f>IF(Компоненты!B8&lt;&gt;"",Компоненты!B8,"")</f>
         <v>4</v>
@@ -8305,7 +8708,7 @@
       </c>
       <c r="P8" t="str">
         <f>IF(Компоненты!P8&lt;&gt;"",Компоненты!P8,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q8" t="str">
         <f>IF(Компоненты!Q8&lt;&gt;"",Компоненты!Q8,"")</f>
@@ -8313,7 +8716,7 @@
       </c>
       <c r="R8" t="str">
         <f>IF(Компоненты!R8&lt;&gt;"",Компоненты!R8,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="S8" t="str">
         <f>IF(Компоненты!S8&lt;&gt;"",Компоненты!S8,"")</f>
@@ -8323,8 +8726,12 @@
         <f>IF(Компоненты!T8&lt;&gt;"",Компоненты!T8,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="2:20">
+      <c r="U8" t="str">
+        <f>IF(Компоненты!U8&lt;&gt;"",Компоненты!U8,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:21">
       <c r="B9">
         <f>IF(Компоненты!B9&lt;&gt;"",Компоненты!B9,"")</f>
         <v>5</v>
@@ -8385,7 +8792,7 @@
       </c>
       <c r="P9" t="str">
         <f>IF(Компоненты!P9&lt;&gt;"",Компоненты!P9,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q9" t="str">
         <f>IF(Компоненты!Q9&lt;&gt;"",Компоненты!Q9,"")</f>
@@ -8393,7 +8800,7 @@
       </c>
       <c r="R9" t="str">
         <f>IF(Компоненты!R9&lt;&gt;"",Компоненты!R9,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="S9" t="str">
         <f>IF(Компоненты!S9&lt;&gt;"",Компоненты!S9,"")</f>
@@ -8403,8 +8810,12 @@
         <f>IF(Компоненты!T9&lt;&gt;"",Компоненты!T9,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="2:20">
+      <c r="U9" t="str">
+        <f>IF(Компоненты!U9&lt;&gt;"",Компоненты!U9,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:21">
       <c r="B10">
         <f>IF(Компоненты!B10&lt;&gt;"",Компоненты!B10,"")</f>
         <v>6</v>
@@ -8465,7 +8876,7 @@
       </c>
       <c r="P10" t="str">
         <f>IF(Компоненты!P10&lt;&gt;"",Компоненты!P10,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q10" t="str">
         <f>IF(Компоненты!Q10&lt;&gt;"",Компоненты!Q10,"")</f>
@@ -8473,7 +8884,7 @@
       </c>
       <c r="R10" t="str">
         <f>IF(Компоненты!R10&lt;&gt;"",Компоненты!R10,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="S10" t="str">
         <f>IF(Компоненты!S10&lt;&gt;"",Компоненты!S10,"")</f>
@@ -8483,8 +8894,12 @@
         <f>IF(Компоненты!T10&lt;&gt;"",Компоненты!T10,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="2:20">
+      <c r="U10" t="str">
+        <f>IF(Компоненты!U10&lt;&gt;"",Компоненты!U10,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:21">
       <c r="B11">
         <f>IF(Компоненты!B11&lt;&gt;"",Компоненты!B11,"")</f>
         <v>7</v>
@@ -8545,7 +8960,7 @@
       </c>
       <c r="P11" t="str">
         <f>IF(Компоненты!P11&lt;&gt;"",Компоненты!P11,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q11" t="str">
         <f>IF(Компоненты!Q11&lt;&gt;"",Компоненты!Q11,"")</f>
@@ -8553,7 +8968,7 @@
       </c>
       <c r="R11" t="str">
         <f>IF(Компоненты!R11&lt;&gt;"",Компоненты!R11,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="S11" t="str">
         <f>IF(Компоненты!S11&lt;&gt;"",Компоненты!S11,"")</f>
@@ -8563,8 +8978,12 @@
         <f>IF(Компоненты!T11&lt;&gt;"",Компоненты!T11,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="2:20">
+      <c r="U11" t="str">
+        <f>IF(Компоненты!U11&lt;&gt;"",Компоненты!U11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:21">
       <c r="B12">
         <f>IF(Компоненты!B12&lt;&gt;"",Компоненты!B12,"")</f>
         <v>8</v>
@@ -8625,7 +9044,7 @@
       </c>
       <c r="P12" t="str">
         <f>IF(Компоненты!P12&lt;&gt;"",Компоненты!P12,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q12" t="str">
         <f>IF(Компоненты!Q12&lt;&gt;"",Компоненты!Q12,"")</f>
@@ -8633,7 +9052,7 @@
       </c>
       <c r="R12" t="str">
         <f>IF(Компоненты!R12&lt;&gt;"",Компоненты!R12,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="S12" t="str">
         <f>IF(Компоненты!S12&lt;&gt;"",Компоненты!S12,"")</f>
@@ -8643,8 +9062,12 @@
         <f>IF(Компоненты!T12&lt;&gt;"",Компоненты!T12,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="2:20">
+      <c r="U12" t="str">
+        <f>IF(Компоненты!U12&lt;&gt;"",Компоненты!U12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:21">
       <c r="B13">
         <f>IF(Компоненты!B13&lt;&gt;"",Компоненты!B13,"")</f>
         <v>9</v>
@@ -8705,7 +9128,7 @@
       </c>
       <c r="P13" t="str">
         <f>IF(Компоненты!P13&lt;&gt;"",Компоненты!P13,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q13" t="str">
         <f>IF(Компоненты!Q13&lt;&gt;"",Компоненты!Q13,"")</f>
@@ -8713,7 +9136,7 @@
       </c>
       <c r="R13" t="str">
         <f>IF(Компоненты!R13&lt;&gt;"",Компоненты!R13,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="S13" t="str">
         <f>IF(Компоненты!S13&lt;&gt;"",Компоненты!S13,"")</f>
@@ -8723,8 +9146,12 @@
         <f>IF(Компоненты!T13&lt;&gt;"",Компоненты!T13,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="2:20">
+      <c r="U13" t="str">
+        <f>IF(Компоненты!U13&lt;&gt;"",Компоненты!U13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:21">
       <c r="B14">
         <f>IF(Компоненты!B14&lt;&gt;"",Компоненты!B14,"")</f>
         <v>10</v>
@@ -8785,7 +9212,7 @@
       </c>
       <c r="P14" t="str">
         <f>IF(Компоненты!P14&lt;&gt;"",Компоненты!P14,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q14" t="str">
         <f>IF(Компоненты!Q14&lt;&gt;"",Компоненты!Q14,"")</f>
@@ -8793,7 +9220,7 @@
       </c>
       <c r="R14" t="str">
         <f>IF(Компоненты!R14&lt;&gt;"",Компоненты!R14,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="S14" t="str">
         <f>IF(Компоненты!S14&lt;&gt;"",Компоненты!S14,"")</f>
@@ -8803,8 +9230,12 @@
         <f>IF(Компоненты!T14&lt;&gt;"",Компоненты!T14,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="2:20">
+      <c r="U14" t="str">
+        <f>IF(Компоненты!U14&lt;&gt;"",Компоненты!U14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:21">
       <c r="B15">
         <f>IF(Компоненты!B15&lt;&gt;"",Компоненты!B15,"")</f>
         <v>11</v>
@@ -8865,7 +9296,7 @@
       </c>
       <c r="P15" t="str">
         <f>IF(Компоненты!P15&lt;&gt;"",Компоненты!P15,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q15" t="str">
         <f>IF(Компоненты!Q15&lt;&gt;"",Компоненты!Q15,"")</f>
@@ -8873,7 +9304,7 @@
       </c>
       <c r="R15" t="str">
         <f>IF(Компоненты!R15&lt;&gt;"",Компоненты!R15,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="S15" t="str">
         <f>IF(Компоненты!S15&lt;&gt;"",Компоненты!S15,"")</f>
@@ -8883,8 +9314,12 @@
         <f>IF(Компоненты!T15&lt;&gt;"",Компоненты!T15,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="2:20">
+      <c r="U15" t="str">
+        <f>IF(Компоненты!U15&lt;&gt;"",Компоненты!U15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:21">
       <c r="B16">
         <f>IF(Компоненты!B16&lt;&gt;"",Компоненты!B16,"")</f>
         <v>12</v>
@@ -8945,7 +9380,7 @@
       </c>
       <c r="P16" t="str">
         <f>IF(Компоненты!P16&lt;&gt;"",Компоненты!P16,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q16" t="str">
         <f>IF(Компоненты!Q16&lt;&gt;"",Компоненты!Q16,"")</f>
@@ -8953,7 +9388,7 @@
       </c>
       <c r="R16" t="str">
         <f>IF(Компоненты!R16&lt;&gt;"",Компоненты!R16,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="S16" t="str">
         <f>IF(Компоненты!S16&lt;&gt;"",Компоненты!S16,"")</f>
@@ -8963,8 +9398,12 @@
         <f>IF(Компоненты!T16&lt;&gt;"",Компоненты!T16,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="2:20">
+      <c r="U16" t="str">
+        <f>IF(Компоненты!U16&lt;&gt;"",Компоненты!U16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:21">
       <c r="B17">
         <f>IF(Компоненты!B17&lt;&gt;"",Компоненты!B17,"")</f>
         <v>13</v>
@@ -9025,7 +9464,7 @@
       </c>
       <c r="P17" t="str">
         <f>IF(Компоненты!P17&lt;&gt;"",Компоненты!P17,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q17" t="str">
         <f>IF(Компоненты!Q17&lt;&gt;"",Компоненты!Q17,"")</f>
@@ -9033,7 +9472,7 @@
       </c>
       <c r="R17" t="str">
         <f>IF(Компоненты!R17&lt;&gt;"",Компоненты!R17,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="S17" t="str">
         <f>IF(Компоненты!S17&lt;&gt;"",Компоненты!S17,"")</f>
@@ -9043,8 +9482,12 @@
         <f>IF(Компоненты!T17&lt;&gt;"",Компоненты!T17,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="2:20">
+      <c r="U17" t="str">
+        <f>IF(Компоненты!U17&lt;&gt;"",Компоненты!U17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:21">
       <c r="B18">
         <f>IF(Компоненты!B18&lt;&gt;"",Компоненты!B18,"")</f>
         <v>14</v>
@@ -9105,7 +9548,7 @@
       </c>
       <c r="P18" t="str">
         <f>IF(Компоненты!P18&lt;&gt;"",Компоненты!P18,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q18" t="str">
         <f>IF(Компоненты!Q18&lt;&gt;"",Компоненты!Q18,"")</f>
@@ -9113,7 +9556,7 @@
       </c>
       <c r="R18" t="str">
         <f>IF(Компоненты!R18&lt;&gt;"",Компоненты!R18,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="S18" t="str">
         <f>IF(Компоненты!S18&lt;&gt;"",Компоненты!S18,"")</f>
@@ -9123,8 +9566,12 @@
         <f>IF(Компоненты!T18&lt;&gt;"",Компоненты!T18,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="2:20">
+      <c r="U18" t="str">
+        <f>IF(Компоненты!U18&lt;&gt;"",Компоненты!U18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:21">
       <c r="B19">
         <f>IF(Компоненты!B19&lt;&gt;"",Компоненты!B19,"")</f>
         <v>15</v>
@@ -9184,7 +9631,7 @@
       </c>
       <c r="P19" t="str">
         <f>IF(Компоненты!P19&lt;&gt;"",Компоненты!P19,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q19" t="str">
         <f>IF(Компоненты!Q19&lt;&gt;"",Компоненты!Q19,"")</f>
@@ -9192,7 +9639,7 @@
       </c>
       <c r="R19" t="str">
         <f>IF(Компоненты!R19&lt;&gt;"",Компоненты!R19,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="S19" t="str">
         <f>IF(Компоненты!S19&lt;&gt;"",Компоненты!S19,"")</f>
@@ -9202,8 +9649,12 @@
         <f>IF(Компоненты!T19&lt;&gt;"",Компоненты!T19,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="2:20">
+      <c r="U19" t="str">
+        <f>IF(Компоненты!U19&lt;&gt;"",Компоненты!U19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:21">
       <c r="B20">
         <f>IF(Компоненты!B20&lt;&gt;"",Компоненты!B20,"")</f>
         <v>16</v>
@@ -9262,7 +9713,7 @@
       </c>
       <c r="P20" t="str">
         <f>IF(Компоненты!P20&lt;&gt;"",Компоненты!P20,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q20" t="str">
         <f>IF(Компоненты!Q20&lt;&gt;"",Компоненты!Q20,"")</f>
@@ -9270,7 +9721,7 @@
       </c>
       <c r="R20" t="str">
         <f>IF(Компоненты!R20&lt;&gt;"",Компоненты!R20,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="S20" t="str">
         <f>IF(Компоненты!S20&lt;&gt;"",Компоненты!S20,"")</f>
@@ -9280,8 +9731,12 @@
         <f>IF(Компоненты!T20&lt;&gt;"",Компоненты!T20,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="2:20">
+      <c r="U20" t="str">
+        <f>IF(Компоненты!U20&lt;&gt;"",Компоненты!U20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:21">
       <c r="B21">
         <f>IF(Компоненты!B21&lt;&gt;"",Компоненты!B21,"")</f>
         <v>17</v>
@@ -9341,7 +9796,7 @@
       </c>
       <c r="P21" t="str">
         <f>IF(Компоненты!P21&lt;&gt;"",Компоненты!P21,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q21" t="str">
         <f>IF(Компоненты!Q21&lt;&gt;"",Компоненты!Q21,"")</f>
@@ -9349,7 +9804,7 @@
       </c>
       <c r="R21" t="str">
         <f>IF(Компоненты!R21&lt;&gt;"",Компоненты!R21,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="S21" t="str">
         <f>IF(Компоненты!S21&lt;&gt;"",Компоненты!S21,"")</f>
@@ -9359,8 +9814,12 @@
         <f>IF(Компоненты!T21&lt;&gt;"",Компоненты!T21,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="2:20">
+      <c r="U21" t="str">
+        <f>IF(Компоненты!U21&lt;&gt;"",Компоненты!U21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:21">
       <c r="B22">
         <f>IF(Компоненты!B22&lt;&gt;"",Компоненты!B22,"")</f>
         <v>18</v>
@@ -9420,7 +9879,7 @@
       </c>
       <c r="P22" t="str">
         <f>IF(Компоненты!P22&lt;&gt;"",Компоненты!P22,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q22" t="str">
         <f>IF(Компоненты!Q22&lt;&gt;"",Компоненты!Q22,"")</f>
@@ -9428,7 +9887,7 @@
       </c>
       <c r="R22" t="str">
         <f>IF(Компоненты!R22&lt;&gt;"",Компоненты!R22,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="S22" t="str">
         <f>IF(Компоненты!S22&lt;&gt;"",Компоненты!S22,"")</f>
@@ -9438,8 +9897,12 @@
         <f>IF(Компоненты!T22&lt;&gt;"",Компоненты!T22,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="2:20">
+      <c r="U22" t="str">
+        <f>IF(Компоненты!U22&lt;&gt;"",Компоненты!U22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:21">
       <c r="B23">
         <f>IF(Компоненты!B23&lt;&gt;"",Компоненты!B23,"")</f>
         <v>19</v>
@@ -9498,7 +9961,7 @@
       </c>
       <c r="P23" t="str">
         <f>IF(Компоненты!P23&lt;&gt;"",Компоненты!P23,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q23" t="str">
         <f>IF(Компоненты!Q23&lt;&gt;"",Компоненты!Q23,"")</f>
@@ -9506,7 +9969,7 @@
       </c>
       <c r="R23" t="str">
         <f>IF(Компоненты!R23&lt;&gt;"",Компоненты!R23,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="S23" t="str">
         <f>IF(Компоненты!S23&lt;&gt;"",Компоненты!S23,"")</f>
@@ -9516,8 +9979,12 @@
         <f>IF(Компоненты!T23&lt;&gt;"",Компоненты!T23,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="2:20">
+      <c r="U23" t="str">
+        <f>IF(Компоненты!U23&lt;&gt;"",Компоненты!U23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:21">
       <c r="B24">
         <f>IF(Компоненты!B24&lt;&gt;"",Компоненты!B24,"")</f>
         <v>20</v>
@@ -9576,7 +10043,7 @@
       </c>
       <c r="P24" t="str">
         <f>IF(Компоненты!P24&lt;&gt;"",Компоненты!P24,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q24" t="str">
         <f>IF(Компоненты!Q24&lt;&gt;"",Компоненты!Q24,"")</f>
@@ -9584,7 +10051,7 @@
       </c>
       <c r="R24" t="str">
         <f>IF(Компоненты!R24&lt;&gt;"",Компоненты!R24,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="S24" t="str">
         <f>IF(Компоненты!S24&lt;&gt;"",Компоненты!S24,"")</f>
@@ -9594,8 +10061,12 @@
         <f>IF(Компоненты!T24&lt;&gt;"",Компоненты!T24,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="2:20">
+      <c r="U24" t="str">
+        <f>IF(Компоненты!U24&lt;&gt;"",Компоненты!U24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:21">
       <c r="B25">
         <f>IF(Компоненты!B25&lt;&gt;"",Компоненты!B25,"")</f>
         <v>21</v>
@@ -9657,7 +10128,7 @@
       </c>
       <c r="P25" t="str">
         <f>IF(Компоненты!P25&lt;&gt;"",Компоненты!P25,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q25" t="str">
         <f>IF(Компоненты!Q25&lt;&gt;"",Компоненты!Q25,"")</f>
@@ -9665,7 +10136,7 @@
       </c>
       <c r="R25" t="str">
         <f>IF(Компоненты!R25&lt;&gt;"",Компоненты!R25,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="S25" t="str">
         <f>IF(Компоненты!S25&lt;&gt;"",Компоненты!S25,"")</f>
@@ -9675,8 +10146,12 @@
         <f>IF(Компоненты!T25&lt;&gt;"",Компоненты!T25,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="2:20">
+      <c r="U25" t="str">
+        <f>IF(Компоненты!U25&lt;&gt;"",Компоненты!U25,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:21">
       <c r="B26">
         <f>IF(Компоненты!B26&lt;&gt;"",Компоненты!B26,"")</f>
         <v>22</v>
@@ -9735,7 +10210,7 @@
       </c>
       <c r="P26" t="str">
         <f>IF(Компоненты!P26&lt;&gt;"",Компоненты!P26,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q26" t="str">
         <f>IF(Компоненты!Q26&lt;&gt;"",Компоненты!Q26,"")</f>
@@ -9743,7 +10218,7 @@
       </c>
       <c r="R26" t="str">
         <f>IF(Компоненты!R26&lt;&gt;"",Компоненты!R26,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="S26" t="str">
         <f>IF(Компоненты!S26&lt;&gt;"",Компоненты!S26,"")</f>
@@ -9753,8 +10228,12 @@
         <f>IF(Компоненты!T26&lt;&gt;"",Компоненты!T26,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="2:20">
+      <c r="U26" t="str">
+        <f>IF(Компоненты!U26&lt;&gt;"",Компоненты!U26,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:21">
       <c r="B27">
         <f>IF(Компоненты!B27&lt;&gt;"",Компоненты!B27,"")</f>
         <v>23</v>
@@ -9813,7 +10292,7 @@
       </c>
       <c r="P27" t="str">
         <f>IF(Компоненты!P27&lt;&gt;"",Компоненты!P27,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q27" t="str">
         <f>IF(Компоненты!Q27&lt;&gt;"",Компоненты!Q27,"")</f>
@@ -9821,7 +10300,7 @@
       </c>
       <c r="R27" t="str">
         <f>IF(Компоненты!R27&lt;&gt;"",Компоненты!R27,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="S27" t="str">
         <f>IF(Компоненты!S27&lt;&gt;"",Компоненты!S27,"")</f>
@@ -9831,8 +10310,12 @@
         <f>IF(Компоненты!T27&lt;&gt;"",Компоненты!T27,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="2:20">
+      <c r="U27" t="str">
+        <f>IF(Компоненты!U27&lt;&gt;"",Компоненты!U27,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:21">
       <c r="B28">
         <f>IF(Компоненты!B28&lt;&gt;"",Компоненты!B28,"")</f>
         <v>24</v>
@@ -9892,11 +10375,11 @@
       </c>
       <c r="P28" t="str">
         <f>IF(Компоненты!P28&lt;&gt;"",Компоненты!P28,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q28" t="str">
         <f>IF(Компоненты!Q28&lt;&gt;"",Компоненты!Q28,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="R28" t="str">
         <f>IF(Компоненты!R28&lt;&gt;"",Компоненты!R28,"")</f>
@@ -9910,8 +10393,12 @@
         <f>IF(Компоненты!T28&lt;&gt;"",Компоненты!T28,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="2:20">
+      <c r="U28" t="str">
+        <f>IF(Компоненты!U28&lt;&gt;"",Компоненты!U28,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:21">
       <c r="B29">
         <f>IF(Компоненты!B29&lt;&gt;"",Компоненты!B29,"")</f>
         <v>25</v>
@@ -9971,11 +10458,11 @@
       </c>
       <c r="P29" t="str">
         <f>IF(Компоненты!P29&lt;&gt;"",Компоненты!P29,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q29" t="str">
         <f>IF(Компоненты!Q29&lt;&gt;"",Компоненты!Q29,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="R29" t="str">
         <f>IF(Компоненты!R29&lt;&gt;"",Компоненты!R29,"")</f>
@@ -9989,8 +10476,12 @@
         <f>IF(Компоненты!T29&lt;&gt;"",Компоненты!T29,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="2:20">
+      <c r="U29" t="str">
+        <f>IF(Компоненты!U29&lt;&gt;"",Компоненты!U29,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:21">
       <c r="B30">
         <f>IF(Компоненты!B30&lt;&gt;"",Компоненты!B30,"")</f>
         <v>26</v>
@@ -10050,11 +10541,11 @@
       </c>
       <c r="P30" t="str">
         <f>IF(Компоненты!P30&lt;&gt;"",Компоненты!P30,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q30" t="str">
         <f>IF(Компоненты!Q30&lt;&gt;"",Компоненты!Q30,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="R30" t="str">
         <f>IF(Компоненты!R30&lt;&gt;"",Компоненты!R30,"")</f>
@@ -10068,8 +10559,12 @@
         <f>IF(Компоненты!T30&lt;&gt;"",Компоненты!T30,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="2:20">
+      <c r="U30" t="str">
+        <f>IF(Компоненты!U30&lt;&gt;"",Компоненты!U30,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:21">
       <c r="B31">
         <f>IF(Компоненты!B31&lt;&gt;"",Компоненты!B31,"")</f>
         <v>27</v>
@@ -10128,11 +10623,11 @@
       </c>
       <c r="P31" t="str">
         <f>IF(Компоненты!P31&lt;&gt;"",Компоненты!P31,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q31" t="str">
         <f>IF(Компоненты!Q31&lt;&gt;"",Компоненты!Q31,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="R31" t="str">
         <f>IF(Компоненты!R31&lt;&gt;"",Компоненты!R31,"")</f>
@@ -10146,8 +10641,12 @@
         <f>IF(Компоненты!T31&lt;&gt;"",Компоненты!T31,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="2:20">
+      <c r="U31" t="str">
+        <f>IF(Компоненты!U31&lt;&gt;"",Компоненты!U31,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:21">
       <c r="B32">
         <f>IF(Компоненты!B32&lt;&gt;"",Компоненты!B32,"")</f>
         <v>28</v>
@@ -10206,11 +10705,11 @@
       </c>
       <c r="P32" t="str">
         <f>IF(Компоненты!P32&lt;&gt;"",Компоненты!P32,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q32" t="str">
         <f>IF(Компоненты!Q32&lt;&gt;"",Компоненты!Q32,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="R32" t="str">
         <f>IF(Компоненты!R32&lt;&gt;"",Компоненты!R32,"")</f>
@@ -10224,8 +10723,12 @@
         <f>IF(Компоненты!T32&lt;&gt;"",Компоненты!T32,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="2:20">
+      <c r="U32" t="str">
+        <f>IF(Компоненты!U32&lt;&gt;"",Компоненты!U32,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:21">
       <c r="B33">
         <f>IF(Компоненты!B33&lt;&gt;"",Компоненты!B33,"")</f>
         <v>29</v>
@@ -10284,11 +10787,11 @@
       </c>
       <c r="P33" t="str">
         <f>IF(Компоненты!P33&lt;&gt;"",Компоненты!P33,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q33" t="str">
         <f>IF(Компоненты!Q33&lt;&gt;"",Компоненты!Q33,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="R33" t="str">
         <f>IF(Компоненты!R33&lt;&gt;"",Компоненты!R33,"")</f>
@@ -10302,8 +10805,12 @@
         <f>IF(Компоненты!T33&lt;&gt;"",Компоненты!T33,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="2:20">
+      <c r="U33" t="str">
+        <f>IF(Компоненты!U33&lt;&gt;"",Компоненты!U33,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:21">
       <c r="B34">
         <f>IF(Компоненты!B34&lt;&gt;"",Компоненты!B34,"")</f>
         <v>30</v>
@@ -10362,7 +10869,7 @@
       </c>
       <c r="P34" t="str">
         <f>IF(Компоненты!P34&lt;&gt;"",Компоненты!P34,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q34" t="str">
         <f>IF(Компоненты!Q34&lt;&gt;"",Компоненты!Q34,"")</f>
@@ -10374,14 +10881,18 @@
       </c>
       <c r="S34" t="str">
         <f>IF(Компоненты!S34&lt;&gt;"",Компоненты!S34,"")</f>
-        <v>ДА</v>
+        <v/>
       </c>
       <c r="T34" t="str">
         <f>IF(Компоненты!T34&lt;&gt;"",Компоненты!T34,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="2:20">
+        <v>ДА</v>
+      </c>
+      <c r="U34" t="str">
+        <f>IF(Компоненты!U34&lt;&gt;"",Компоненты!U34,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:21">
       <c r="B35">
         <f>IF(Компоненты!B35&lt;&gt;"",Компоненты!B35,"")</f>
         <v>31</v>
@@ -10440,11 +10951,11 @@
       </c>
       <c r="P35" t="str">
         <f>IF(Компоненты!P35&lt;&gt;"",Компоненты!P35,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q35" t="str">
         <f>IF(Компоненты!Q35&lt;&gt;"",Компоненты!Q35,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="R35" t="str">
         <f>IF(Компоненты!R35&lt;&gt;"",Компоненты!R35,"")</f>
@@ -10458,8 +10969,12 @@
         <f>IF(Компоненты!T35&lt;&gt;"",Компоненты!T35,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="2:20">
+      <c r="U35" t="str">
+        <f>IF(Компоненты!U35&lt;&gt;"",Компоненты!U35,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:21">
       <c r="B36">
         <f>IF(Компоненты!B36&lt;&gt;"",Компоненты!B36,"")</f>
         <v>32</v>
@@ -10518,11 +11033,11 @@
       </c>
       <c r="P36" t="str">
         <f>IF(Компоненты!P36&lt;&gt;"",Компоненты!P36,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q36" t="str">
         <f>IF(Компоненты!Q36&lt;&gt;"",Компоненты!Q36,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="R36" t="str">
         <f>IF(Компоненты!R36&lt;&gt;"",Компоненты!R36,"")</f>
@@ -10536,8 +11051,12 @@
         <f>IF(Компоненты!T36&lt;&gt;"",Компоненты!T36,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="2:20">
+      <c r="U36" t="str">
+        <f>IF(Компоненты!U36&lt;&gt;"",Компоненты!U36,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:21">
       <c r="B37">
         <f>IF(Компоненты!B37&lt;&gt;"",Компоненты!B37,"")</f>
         <v>33</v>
@@ -10596,11 +11115,11 @@
       </c>
       <c r="P37" t="str">
         <f>IF(Компоненты!P37&lt;&gt;"",Компоненты!P37,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q37" t="str">
         <f>IF(Компоненты!Q37&lt;&gt;"",Компоненты!Q37,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="R37" t="str">
         <f>IF(Компоненты!R37&lt;&gt;"",Компоненты!R37,"")</f>
@@ -10608,14 +11127,18 @@
       </c>
       <c r="S37" t="str">
         <f>IF(Компоненты!S37&lt;&gt;"",Компоненты!S37,"")</f>
-        <v>ДА</v>
+        <v/>
       </c>
       <c r="T37" t="str">
         <f>IF(Компоненты!T37&lt;&gt;"",Компоненты!T37,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="2:20">
+        <v>ДА</v>
+      </c>
+      <c r="U37" t="str">
+        <f>IF(Компоненты!U37&lt;&gt;"",Компоненты!U37,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="2:21">
       <c r="B38">
         <f>IF(Компоненты!B38&lt;&gt;"",Компоненты!B38,"")</f>
         <v>34</v>
@@ -10674,11 +11197,11 @@
       </c>
       <c r="P38" t="str">
         <f>IF(Компоненты!P38&lt;&gt;"",Компоненты!P38,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q38" t="str">
         <f>IF(Компоненты!Q38&lt;&gt;"",Компоненты!Q38,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="R38" t="str">
         <f>IF(Компоненты!R38&lt;&gt;"",Компоненты!R38,"")</f>
@@ -10692,8 +11215,12 @@
         <f>IF(Компоненты!T38&lt;&gt;"",Компоненты!T38,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="2:20">
+      <c r="U38" t="str">
+        <f>IF(Компоненты!U38&lt;&gt;"",Компоненты!U38,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="2:21">
       <c r="B39">
         <f>IF(Компоненты!B39&lt;&gt;"",Компоненты!B39,"")</f>
         <v>35</v>
@@ -10752,11 +11279,11 @@
       </c>
       <c r="P39" t="str">
         <f>IF(Компоненты!P39&lt;&gt;"",Компоненты!P39,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q39" t="str">
         <f>IF(Компоненты!Q39&lt;&gt;"",Компоненты!Q39,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="R39" t="str">
         <f>IF(Компоненты!R39&lt;&gt;"",Компоненты!R39,"")</f>
@@ -10770,8 +11297,12 @@
         <f>IF(Компоненты!T39&lt;&gt;"",Компоненты!T39,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="2:20">
+      <c r="U39" t="str">
+        <f>IF(Компоненты!U39&lt;&gt;"",Компоненты!U39,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:21">
       <c r="B40">
         <f>IF(Компоненты!B40&lt;&gt;"",Компоненты!B40,"")</f>
         <v>36</v>
@@ -10830,11 +11361,11 @@
       </c>
       <c r="P40" t="str">
         <f>IF(Компоненты!P40&lt;&gt;"",Компоненты!P40,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q40" t="str">
         <f>IF(Компоненты!Q40&lt;&gt;"",Компоненты!Q40,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="R40" t="str">
         <f>IF(Компоненты!R40&lt;&gt;"",Компоненты!R40,"")</f>
@@ -10848,8 +11379,12 @@
         <f>IF(Компоненты!T40&lt;&gt;"",Компоненты!T40,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="2:20">
+      <c r="U40" t="str">
+        <f>IF(Компоненты!U40&lt;&gt;"",Компоненты!U40,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:21">
       <c r="B41">
         <f>IF(Компоненты!B41&lt;&gt;"",Компоненты!B41,"")</f>
         <v>37</v>
@@ -10908,11 +11443,11 @@
       </c>
       <c r="P41" t="str">
         <f>IF(Компоненты!P41&lt;&gt;"",Компоненты!P41,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q41" t="str">
         <f>IF(Компоненты!Q41&lt;&gt;"",Компоненты!Q41,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="R41" t="str">
         <f>IF(Компоненты!R41&lt;&gt;"",Компоненты!R41,"")</f>
@@ -10926,8 +11461,12 @@
         <f>IF(Компоненты!T41&lt;&gt;"",Компоненты!T41,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="2:20">
+      <c r="U41" t="str">
+        <f>IF(Компоненты!U41&lt;&gt;"",Компоненты!U41,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="2:21">
       <c r="B42">
         <f>IF(Компоненты!B42&lt;&gt;"",Компоненты!B42,"")</f>
         <v>38</v>
@@ -10986,7 +11525,7 @@
       </c>
       <c r="P42" t="str">
         <f>IF(Компоненты!P42&lt;&gt;"",Компоненты!P42,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q42" t="str">
         <f>IF(Компоненты!Q42&lt;&gt;"",Компоненты!Q42,"")</f>
@@ -10998,14 +11537,18 @@
       </c>
       <c r="S42" t="str">
         <f>IF(Компоненты!S42&lt;&gt;"",Компоненты!S42,"")</f>
-        <v>ДА</v>
+        <v/>
       </c>
       <c r="T42" t="str">
         <f>IF(Компоненты!T42&lt;&gt;"",Компоненты!T42,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="2:20">
+        <v>ДА</v>
+      </c>
+      <c r="U42" t="str">
+        <f>IF(Компоненты!U42&lt;&gt;"",Компоненты!U42,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:21">
       <c r="B43">
         <f>IF(Компоненты!B43&lt;&gt;"",Компоненты!B43,"")</f>
         <v>39</v>
@@ -11064,11 +11607,11 @@
       </c>
       <c r="P43" t="str">
         <f>IF(Компоненты!P43&lt;&gt;"",Компоненты!P43,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q43" t="str">
         <f>IF(Компоненты!Q43&lt;&gt;"",Компоненты!Q43,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="R43" t="str">
         <f>IF(Компоненты!R43&lt;&gt;"",Компоненты!R43,"")</f>
@@ -11082,8 +11625,12 @@
         <f>IF(Компоненты!T43&lt;&gt;"",Компоненты!T43,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="2:20">
+      <c r="U43" t="str">
+        <f>IF(Компоненты!U43&lt;&gt;"",Компоненты!U43,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="2:21">
       <c r="B44">
         <f>IF(Компоненты!B44&lt;&gt;"",Компоненты!B44,"")</f>
         <v>40</v>
@@ -11142,11 +11689,11 @@
       </c>
       <c r="P44" t="str">
         <f>IF(Компоненты!P44&lt;&gt;"",Компоненты!P44,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q44" t="str">
         <f>IF(Компоненты!Q44&lt;&gt;"",Компоненты!Q44,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="R44" t="str">
         <f>IF(Компоненты!R44&lt;&gt;"",Компоненты!R44,"")</f>
@@ -11160,8 +11707,12 @@
         <f>IF(Компоненты!T44&lt;&gt;"",Компоненты!T44,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="2:20">
+      <c r="U44" t="str">
+        <f>IF(Компоненты!U44&lt;&gt;"",Компоненты!U44,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:21">
       <c r="B45">
         <f>IF(Компоненты!B45&lt;&gt;"",Компоненты!B45,"")</f>
         <v>41</v>
@@ -11220,11 +11771,11 @@
       </c>
       <c r="P45" t="str">
         <f>IF(Компоненты!P45&lt;&gt;"",Компоненты!P45,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q45" t="str">
         <f>IF(Компоненты!Q45&lt;&gt;"",Компоненты!Q45,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="R45" t="str">
         <f>IF(Компоненты!R45&lt;&gt;"",Компоненты!R45,"")</f>
@@ -11238,8 +11789,12 @@
         <f>IF(Компоненты!T45&lt;&gt;"",Компоненты!T45,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="2:20">
+      <c r="U45" t="str">
+        <f>IF(Компоненты!U45&lt;&gt;"",Компоненты!U45,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="2:21">
       <c r="B46">
         <f>IF(Компоненты!B46&lt;&gt;"",Компоненты!B46,"")</f>
         <v>42</v>
@@ -11299,11 +11854,11 @@
       </c>
       <c r="P46" t="str">
         <f>IF(Компоненты!P46&lt;&gt;"",Компоненты!P46,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q46" t="str">
         <f>IF(Компоненты!Q46&lt;&gt;"",Компоненты!Q46,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="R46" t="str">
         <f>IF(Компоненты!R46&lt;&gt;"",Компоненты!R46,"")</f>
@@ -11311,14 +11866,18 @@
       </c>
       <c r="S46" t="str">
         <f>IF(Компоненты!S46&lt;&gt;"",Компоненты!S46,"")</f>
-        <v>ДА</v>
+        <v/>
       </c>
       <c r="T46" t="str">
         <f>IF(Компоненты!T46&lt;&gt;"",Компоненты!T46,"")</f>
         <v>ДА</v>
       </c>
-    </row>
-    <row r="47" spans="2:20">
+      <c r="U46" t="str">
+        <f>IF(Компоненты!U46&lt;&gt;"",Компоненты!U46,"")</f>
+        <v>ДА</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21">
       <c r="B47">
         <f>IF(Компоненты!B47&lt;&gt;"",Компоненты!B47,"")</f>
         <v>43</v>
@@ -11380,11 +11939,11 @@
       </c>
       <c r="P47" t="str">
         <f>IF(Компоненты!P47&lt;&gt;"",Компоненты!P47,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q47" t="str">
         <f>IF(Компоненты!Q47&lt;&gt;"",Компоненты!Q47,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="R47" t="str">
         <f>IF(Компоненты!R47&lt;&gt;"",Компоненты!R47,"")</f>
@@ -11392,14 +11951,18 @@
       </c>
       <c r="S47" t="str">
         <f>IF(Компоненты!S47&lt;&gt;"",Компоненты!S47,"")</f>
-        <v>ДА</v>
+        <v/>
       </c>
       <c r="T47" t="str">
         <f>IF(Компоненты!T47&lt;&gt;"",Компоненты!T47,"")</f>
         <v>ДА</v>
       </c>
-    </row>
-    <row r="48" spans="2:20">
+      <c r="U47" t="str">
+        <f>IF(Компоненты!U47&lt;&gt;"",Компоненты!U47,"")</f>
+        <v>ДА</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21">
       <c r="B48">
         <f>IF(Компоненты!B48&lt;&gt;"",Компоненты!B48,"")</f>
         <v>44</v>
@@ -11458,7 +12021,7 @@
       </c>
       <c r="P48" t="str">
         <f>IF(Компоненты!P48&lt;&gt;"",Компоненты!P48,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q48" t="str">
         <f>IF(Компоненты!Q48&lt;&gt;"",Компоненты!Q48,"")</f>
@@ -11466,7 +12029,7 @@
       </c>
       <c r="R48" t="str">
         <f>IF(Компоненты!R48&lt;&gt;"",Компоненты!R48,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="S48" t="str">
         <f>IF(Компоненты!S48&lt;&gt;"",Компоненты!S48,"")</f>
@@ -11476,8 +12039,12 @@
         <f>IF(Компоненты!T48&lt;&gt;"",Компоненты!T48,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="2:20">
+      <c r="U48" t="str">
+        <f>IF(Компоненты!U48&lt;&gt;"",Компоненты!U48,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:21">
       <c r="B49">
         <f>IF(Компоненты!B49&lt;&gt;"",Компоненты!B49,"")</f>
         <v>45</v>
@@ -11536,7 +12103,7 @@
       </c>
       <c r="P49" t="str">
         <f>IF(Компоненты!P49&lt;&gt;"",Компоненты!P49,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q49" t="str">
         <f>IF(Компоненты!Q49&lt;&gt;"",Компоненты!Q49,"")</f>
@@ -11544,7 +12111,7 @@
       </c>
       <c r="R49" t="str">
         <f>IF(Компоненты!R49&lt;&gt;"",Компоненты!R49,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="S49" t="str">
         <f>IF(Компоненты!S49&lt;&gt;"",Компоненты!S49,"")</f>
@@ -11554,8 +12121,12 @@
         <f>IF(Компоненты!T49&lt;&gt;"",Компоненты!T49,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="2:20">
+      <c r="U49" t="str">
+        <f>IF(Компоненты!U49&lt;&gt;"",Компоненты!U49,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:21">
       <c r="B50">
         <f>IF(Компоненты!B50&lt;&gt;"",Компоненты!B50,"")</f>
         <v>46</v>
@@ -11614,11 +12185,11 @@
       </c>
       <c r="P50" t="str">
         <f>IF(Компоненты!P50&lt;&gt;"",Компоненты!P50,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q50" t="str">
         <f>IF(Компоненты!Q50&lt;&gt;"",Компоненты!Q50,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="R50" t="str">
         <f>IF(Компоненты!R50&lt;&gt;"",Компоненты!R50,"")</f>
@@ -11626,14 +12197,18 @@
       </c>
       <c r="S50" t="str">
         <f>IF(Компоненты!S50&lt;&gt;"",Компоненты!S50,"")</f>
-        <v>ДА</v>
+        <v/>
       </c>
       <c r="T50" t="str">
         <f>IF(Компоненты!T50&lt;&gt;"",Компоненты!T50,"")</f>
         <v>ДА</v>
       </c>
-    </row>
-    <row r="51" spans="2:20">
+      <c r="U50" t="str">
+        <f>IF(Компоненты!U50&lt;&gt;"",Компоненты!U50,"")</f>
+        <v>ДА</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21">
       <c r="B51">
         <f>IF(Компоненты!B51&lt;&gt;"",Компоненты!B51,"")</f>
         <v>47</v>
@@ -11692,11 +12267,11 @@
       </c>
       <c r="P51" t="str">
         <f>IF(Компоненты!P51&lt;&gt;"",Компоненты!P51,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q51" t="str">
         <f>IF(Компоненты!Q51&lt;&gt;"",Компоненты!Q51,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="R51" t="str">
         <f>IF(Компоненты!R51&lt;&gt;"",Компоненты!R51,"")</f>
@@ -11704,14 +12279,18 @@
       </c>
       <c r="S51" t="str">
         <f>IF(Компоненты!S51&lt;&gt;"",Компоненты!S51,"")</f>
-        <v>ДА</v>
+        <v/>
       </c>
       <c r="T51" t="str">
         <f>IF(Компоненты!T51&lt;&gt;"",Компоненты!T51,"")</f>
         <v>ДА</v>
       </c>
-    </row>
-    <row r="52" spans="2:20">
+      <c r="U51" t="str">
+        <f>IF(Компоненты!U51&lt;&gt;"",Компоненты!U51,"")</f>
+        <v>ДА</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21">
       <c r="B52">
         <f>IF(Компоненты!B52&lt;&gt;"",Компоненты!B52,"")</f>
         <v>48</v>
@@ -11770,7 +12349,7 @@
       </c>
       <c r="P52" t="str">
         <f>IF(Компоненты!P52&lt;&gt;"",Компоненты!P52,"")</f>
-        <v>ДА</v>
+        <v>2024.08.02</v>
       </c>
       <c r="Q52" t="str">
         <f>IF(Компоненты!Q52&lt;&gt;"",Компоненты!Q52,"")</f>
@@ -11778,7 +12357,7 @@
       </c>
       <c r="R52" t="str">
         <f>IF(Компоненты!R52&lt;&gt;"",Компоненты!R52,"")</f>
-        <v/>
+        <v>ДА</v>
       </c>
       <c r="S52" t="str">
         <f>IF(Компоненты!S52&lt;&gt;"",Компоненты!S52,"")</f>
@@ -11788,8 +12367,12 @@
         <f>IF(Компоненты!T52&lt;&gt;"",Компоненты!T52,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="2:20">
+      <c r="U52" t="str">
+        <f>IF(Компоненты!U52&lt;&gt;"",Компоненты!U52,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:21">
       <c r="B53">
         <f>IF(Компоненты!B53&lt;&gt;"",Компоненты!B53,"")</f>
         <v>50</v>
@@ -11848,7 +12431,7 @@
       </c>
       <c r="P53" t="str">
         <f>IF(Компоненты!P53&lt;&gt;"",Компоненты!P53,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q53" t="str">
         <f>IF(Компоненты!Q53&lt;&gt;"",Компоненты!Q53,"")</f>
@@ -11866,8 +12449,12 @@
         <f>IF(Компоненты!T53&lt;&gt;"",Компоненты!T53,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="2:20">
+      <c r="U53" t="str">
+        <f>IF(Компоненты!U53&lt;&gt;"",Компоненты!U53,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:21">
       <c r="B54">
         <f>IF(Компоненты!B54&lt;&gt;"",Компоненты!B54,"")</f>
         <v>51</v>
@@ -11926,7 +12513,7 @@
       </c>
       <c r="P54" t="str">
         <f>IF(Компоненты!P54&lt;&gt;"",Компоненты!P54,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q54" t="str">
         <f>IF(Компоненты!Q54&lt;&gt;"",Компоненты!Q54,"")</f>
@@ -11944,8 +12531,12 @@
         <f>IF(Компоненты!T54&lt;&gt;"",Компоненты!T54,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="55" spans="2:20">
+      <c r="U54" t="str">
+        <f>IF(Компоненты!U54&lt;&gt;"",Компоненты!U54,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="2:21">
       <c r="B55">
         <f>IF(Компоненты!B55&lt;&gt;"",Компоненты!B55,"")</f>
         <v>52</v>
@@ -12004,7 +12595,7 @@
       </c>
       <c r="P55" t="str">
         <f>IF(Компоненты!P55&lt;&gt;"",Компоненты!P55,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q55" t="str">
         <f>IF(Компоненты!Q55&lt;&gt;"",Компоненты!Q55,"")</f>
@@ -12022,8 +12613,12 @@
         <f>IF(Компоненты!T55&lt;&gt;"",Компоненты!T55,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="56" spans="2:20">
+      <c r="U55" t="str">
+        <f>IF(Компоненты!U55&lt;&gt;"",Компоненты!U55,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="2:21">
       <c r="B56">
         <f>IF(Компоненты!B56&lt;&gt;"",Компоненты!B56,"")</f>
         <v>53</v>
@@ -12082,7 +12677,7 @@
       </c>
       <c r="P56" t="str">
         <f>IF(Компоненты!P56&lt;&gt;"",Компоненты!P56,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q56" t="str">
         <f>IF(Компоненты!Q56&lt;&gt;"",Компоненты!Q56,"")</f>
@@ -12100,8 +12695,12 @@
         <f>IF(Компоненты!T56&lt;&gt;"",Компоненты!T56,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="57" spans="2:20">
+      <c r="U56" t="str">
+        <f>IF(Компоненты!U56&lt;&gt;"",Компоненты!U56,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:21">
       <c r="B57">
         <f>IF(Компоненты!B57&lt;&gt;"",Компоненты!B57,"")</f>
         <v>54</v>
@@ -12160,7 +12759,7 @@
       </c>
       <c r="P57" t="str">
         <f>IF(Компоненты!P57&lt;&gt;"",Компоненты!P57,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q57" t="str">
         <f>IF(Компоненты!Q57&lt;&gt;"",Компоненты!Q57,"")</f>
@@ -12178,8 +12777,12 @@
         <f>IF(Компоненты!T57&lt;&gt;"",Компоненты!T57,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="2:20">
+      <c r="U57" t="str">
+        <f>IF(Компоненты!U57&lt;&gt;"",Компоненты!U57,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="2:21">
       <c r="B58">
         <f>IF(Компоненты!B58&lt;&gt;"",Компоненты!B58,"")</f>
         <v>55</v>
@@ -12238,7 +12841,7 @@
       </c>
       <c r="P58" t="str">
         <f>IF(Компоненты!P58&lt;&gt;"",Компоненты!P58,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q58" t="str">
         <f>IF(Компоненты!Q58&lt;&gt;"",Компоненты!Q58,"")</f>
@@ -12256,8 +12859,12 @@
         <f>IF(Компоненты!T58&lt;&gt;"",Компоненты!T58,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="59" spans="2:20">
+      <c r="U58" t="str">
+        <f>IF(Компоненты!U58&lt;&gt;"",Компоненты!U58,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="2:21">
       <c r="B59">
         <f>IF(Компоненты!B59&lt;&gt;"",Компоненты!B59,"")</f>
         <v>56</v>
@@ -12316,7 +12923,7 @@
       </c>
       <c r="P59" t="str">
         <f>IF(Компоненты!P59&lt;&gt;"",Компоненты!P59,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q59" t="str">
         <f>IF(Компоненты!Q59&lt;&gt;"",Компоненты!Q59,"")</f>
@@ -12334,8 +12941,12 @@
         <f>IF(Компоненты!T59&lt;&gt;"",Компоненты!T59,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="2:20">
+      <c r="U59" t="str">
+        <f>IF(Компоненты!U59&lt;&gt;"",Компоненты!U59,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="2:21">
       <c r="B60">
         <f>IF(Компоненты!B60&lt;&gt;"",Компоненты!B60,"")</f>
         <v>57</v>
@@ -12394,7 +13005,7 @@
       </c>
       <c r="P60" t="str">
         <f>IF(Компоненты!P60&lt;&gt;"",Компоненты!P60,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q60" t="str">
         <f>IF(Компоненты!Q60&lt;&gt;"",Компоненты!Q60,"")</f>
@@ -12412,8 +13023,12 @@
         <f>IF(Компоненты!T60&lt;&gt;"",Компоненты!T60,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="61" spans="2:20">
+      <c r="U60" t="str">
+        <f>IF(Компоненты!U60&lt;&gt;"",Компоненты!U60,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="2:21">
       <c r="B61">
         <f>IF(Компоненты!B61&lt;&gt;"",Компоненты!B61,"")</f>
         <v>58</v>
@@ -12472,7 +13087,7 @@
       </c>
       <c r="P61" t="str">
         <f>IF(Компоненты!P61&lt;&gt;"",Компоненты!P61,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q61" t="str">
         <f>IF(Компоненты!Q61&lt;&gt;"",Компоненты!Q61,"")</f>
@@ -12490,8 +13105,12 @@
         <f>IF(Компоненты!T61&lt;&gt;"",Компоненты!T61,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="2:20">
+      <c r="U61" t="str">
+        <f>IF(Компоненты!U61&lt;&gt;"",Компоненты!U61,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="2:21">
       <c r="B62">
         <f>IF(Компоненты!B62&lt;&gt;"",Компоненты!B62,"")</f>
         <v>59</v>
@@ -12550,7 +13169,7 @@
       </c>
       <c r="P62" t="str">
         <f>IF(Компоненты!P62&lt;&gt;"",Компоненты!P62,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q62" t="str">
         <f>IF(Компоненты!Q62&lt;&gt;"",Компоненты!Q62,"")</f>
@@ -12568,8 +13187,12 @@
         <f>IF(Компоненты!T62&lt;&gt;"",Компоненты!T62,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="2:20">
+      <c r="U62" t="str">
+        <f>IF(Компоненты!U62&lt;&gt;"",Компоненты!U62,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="2:21">
       <c r="B63">
         <f>IF(Компоненты!B63&lt;&gt;"",Компоненты!B63,"")</f>
         <v>60</v>
@@ -12628,7 +13251,7 @@
       </c>
       <c r="P63" t="str">
         <f>IF(Компоненты!P63&lt;&gt;"",Компоненты!P63,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q63" t="str">
         <f>IF(Компоненты!Q63&lt;&gt;"",Компоненты!Q63,"")</f>
@@ -12646,8 +13269,12 @@
         <f>IF(Компоненты!T63&lt;&gt;"",Компоненты!T63,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="64" spans="2:20">
+      <c r="U63" t="str">
+        <f>IF(Компоненты!U63&lt;&gt;"",Компоненты!U63,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="2:21">
       <c r="B64">
         <f>IF(Компоненты!B64&lt;&gt;"",Компоненты!B64,"")</f>
         <v>61</v>
@@ -12706,7 +13333,7 @@
       </c>
       <c r="P64" t="str">
         <f>IF(Компоненты!P64&lt;&gt;"",Компоненты!P64,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q64" t="str">
         <f>IF(Компоненты!Q64&lt;&gt;"",Компоненты!Q64,"")</f>
@@ -12724,8 +13351,12 @@
         <f>IF(Компоненты!T64&lt;&gt;"",Компоненты!T64,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="65" spans="2:20">
+      <c r="U64" t="str">
+        <f>IF(Компоненты!U64&lt;&gt;"",Компоненты!U64,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="2:21">
       <c r="B65">
         <f>IF(Компоненты!B65&lt;&gt;"",Компоненты!B65,"")</f>
         <v>62</v>
@@ -12784,7 +13415,7 @@
       </c>
       <c r="P65" t="str">
         <f>IF(Компоненты!P65&lt;&gt;"",Компоненты!P65,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q65" t="str">
         <f>IF(Компоненты!Q65&lt;&gt;"",Компоненты!Q65,"")</f>
@@ -12802,8 +13433,12 @@
         <f>IF(Компоненты!T65&lt;&gt;"",Компоненты!T65,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="66" spans="2:20">
+      <c r="U65" t="str">
+        <f>IF(Компоненты!U65&lt;&gt;"",Компоненты!U65,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="2:21">
       <c r="B66">
         <f>IF(Компоненты!B66&lt;&gt;"",Компоненты!B66,"")</f>
         <v>63</v>
@@ -12862,7 +13497,7 @@
       </c>
       <c r="P66" t="str">
         <f>IF(Компоненты!P66&lt;&gt;"",Компоненты!P66,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q66" t="str">
         <f>IF(Компоненты!Q66&lt;&gt;"",Компоненты!Q66,"")</f>
@@ -12880,8 +13515,12 @@
         <f>IF(Компоненты!T66&lt;&gt;"",Компоненты!T66,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="2:20">
+      <c r="U66" t="str">
+        <f>IF(Компоненты!U66&lt;&gt;"",Компоненты!U66,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="2:21">
       <c r="B67">
         <f>IF(Компоненты!B67&lt;&gt;"",Компоненты!B67,"")</f>
         <v>64</v>
@@ -12940,7 +13579,7 @@
       </c>
       <c r="P67" t="str">
         <f>IF(Компоненты!P67&lt;&gt;"",Компоненты!P67,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q67" t="str">
         <f>IF(Компоненты!Q67&lt;&gt;"",Компоненты!Q67,"")</f>
@@ -12958,8 +13597,12 @@
         <f>IF(Компоненты!T67&lt;&gt;"",Компоненты!T67,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="68" spans="2:20">
+      <c r="U67" t="str">
+        <f>IF(Компоненты!U67&lt;&gt;"",Компоненты!U67,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="2:21">
       <c r="B68">
         <f>IF(Компоненты!B68&lt;&gt;"",Компоненты!B68,"")</f>
         <v>65</v>
@@ -13018,7 +13661,7 @@
       </c>
       <c r="P68" t="str">
         <f>IF(Компоненты!P68&lt;&gt;"",Компоненты!P68,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q68" t="str">
         <f>IF(Компоненты!Q68&lt;&gt;"",Компоненты!Q68,"")</f>
@@ -13036,8 +13679,12 @@
         <f>IF(Компоненты!T68&lt;&gt;"",Компоненты!T68,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="69" spans="2:20">
+      <c r="U68" t="str">
+        <f>IF(Компоненты!U68&lt;&gt;"",Компоненты!U68,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="2:21">
       <c r="B69">
         <f>IF(Компоненты!B69&lt;&gt;"",Компоненты!B69,"")</f>
         <v>66</v>
@@ -13096,7 +13743,7 @@
       </c>
       <c r="P69" t="str">
         <f>IF(Компоненты!P69&lt;&gt;"",Компоненты!P69,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q69" t="str">
         <f>IF(Компоненты!Q69&lt;&gt;"",Компоненты!Q69,"")</f>
@@ -13114,8 +13761,12 @@
         <f>IF(Компоненты!T69&lt;&gt;"",Компоненты!T69,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="70" spans="2:20">
+      <c r="U69" t="str">
+        <f>IF(Компоненты!U69&lt;&gt;"",Компоненты!U69,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="2:21">
       <c r="B70">
         <f>IF(Компоненты!B70&lt;&gt;"",Компоненты!B70,"")</f>
         <v>67</v>
@@ -13174,7 +13825,7 @@
       </c>
       <c r="P70" t="str">
         <f>IF(Компоненты!P70&lt;&gt;"",Компоненты!P70,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q70" t="str">
         <f>IF(Компоненты!Q70&lt;&gt;"",Компоненты!Q70,"")</f>
@@ -13192,8 +13843,12 @@
         <f>IF(Компоненты!T70&lt;&gt;"",Компоненты!T70,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="71" spans="2:20">
+      <c r="U70" t="str">
+        <f>IF(Компоненты!U70&lt;&gt;"",Компоненты!U70,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="2:21">
       <c r="B71">
         <f>IF(Компоненты!B71&lt;&gt;"",Компоненты!B71,"")</f>
         <v>68</v>
@@ -13252,7 +13907,7 @@
       </c>
       <c r="P71" t="str">
         <f>IF(Компоненты!P71&lt;&gt;"",Компоненты!P71,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q71" t="str">
         <f>IF(Компоненты!Q71&lt;&gt;"",Компоненты!Q71,"")</f>
@@ -13270,8 +13925,12 @@
         <f>IF(Компоненты!T71&lt;&gt;"",Компоненты!T71,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="72" spans="2:20">
+      <c r="U71" t="str">
+        <f>IF(Компоненты!U71&lt;&gt;"",Компоненты!U71,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="2:21">
       <c r="B72">
         <f>IF(Компоненты!B72&lt;&gt;"",Компоненты!B72,"")</f>
         <v>69</v>
@@ -13330,7 +13989,7 @@
       </c>
       <c r="P72" t="str">
         <f>IF(Компоненты!P72&lt;&gt;"",Компоненты!P72,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q72" t="str">
         <f>IF(Компоненты!Q72&lt;&gt;"",Компоненты!Q72,"")</f>
@@ -13348,8 +14007,12 @@
         <f>IF(Компоненты!T72&lt;&gt;"",Компоненты!T72,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="73" spans="2:20">
+      <c r="U72" t="str">
+        <f>IF(Компоненты!U72&lt;&gt;"",Компоненты!U72,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="2:21">
       <c r="B73">
         <f>IF(Компоненты!B73&lt;&gt;"",Компоненты!B73,"")</f>
         <v>70</v>
@@ -13408,7 +14071,7 @@
       </c>
       <c r="P73" t="str">
         <f>IF(Компоненты!P73&lt;&gt;"",Компоненты!P73,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q73" t="str">
         <f>IF(Компоненты!Q73&lt;&gt;"",Компоненты!Q73,"")</f>
@@ -13426,8 +14089,12 @@
         <f>IF(Компоненты!T73&lt;&gt;"",Компоненты!T73,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="74" spans="2:20">
+      <c r="U73" t="str">
+        <f>IF(Компоненты!U73&lt;&gt;"",Компоненты!U73,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="2:21">
       <c r="B74">
         <f>IF(Компоненты!B74&lt;&gt;"",Компоненты!B74,"")</f>
         <v>71</v>
@@ -13486,7 +14153,7 @@
       </c>
       <c r="P74" t="str">
         <f>IF(Компоненты!P74&lt;&gt;"",Компоненты!P74,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q74" t="str">
         <f>IF(Компоненты!Q74&lt;&gt;"",Компоненты!Q74,"")</f>
@@ -13504,8 +14171,12 @@
         <f>IF(Компоненты!T74&lt;&gt;"",Компоненты!T74,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="75" spans="2:20">
+      <c r="U74" t="str">
+        <f>IF(Компоненты!U74&lt;&gt;"",Компоненты!U74,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="2:21">
       <c r="B75">
         <f>IF(Компоненты!B75&lt;&gt;"",Компоненты!B75,"")</f>
         <v>72</v>
@@ -13564,7 +14235,7 @@
       </c>
       <c r="P75" t="str">
         <f>IF(Компоненты!P75&lt;&gt;"",Компоненты!P75,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q75" t="str">
         <f>IF(Компоненты!Q75&lt;&gt;"",Компоненты!Q75,"")</f>
@@ -13582,8 +14253,12 @@
         <f>IF(Компоненты!T75&lt;&gt;"",Компоненты!T75,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="76" spans="2:20">
+      <c r="U75" t="str">
+        <f>IF(Компоненты!U75&lt;&gt;"",Компоненты!U75,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="2:21">
       <c r="B76">
         <f>IF(Компоненты!B76&lt;&gt;"",Компоненты!B76,"")</f>
         <v>73</v>
@@ -13642,7 +14317,7 @@
       </c>
       <c r="P76" t="str">
         <f>IF(Компоненты!P76&lt;&gt;"",Компоненты!P76,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q76" t="str">
         <f>IF(Компоненты!Q76&lt;&gt;"",Компоненты!Q76,"")</f>
@@ -13660,8 +14335,12 @@
         <f>IF(Компоненты!T76&lt;&gt;"",Компоненты!T76,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="77" spans="2:20">
+      <c r="U76" t="str">
+        <f>IF(Компоненты!U76&lt;&gt;"",Компоненты!U76,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="2:21">
       <c r="B77">
         <f>IF(Компоненты!B77&lt;&gt;"",Компоненты!B77,"")</f>
         <v>74</v>
@@ -13720,7 +14399,7 @@
       </c>
       <c r="P77" t="str">
         <f>IF(Компоненты!P77&lt;&gt;"",Компоненты!P77,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q77" t="str">
         <f>IF(Компоненты!Q77&lt;&gt;"",Компоненты!Q77,"")</f>
@@ -13738,8 +14417,12 @@
         <f>IF(Компоненты!T77&lt;&gt;"",Компоненты!T77,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="78" spans="2:20">
+      <c r="U77" t="str">
+        <f>IF(Компоненты!U77&lt;&gt;"",Компоненты!U77,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="2:21">
       <c r="B78">
         <f>IF(Компоненты!B78&lt;&gt;"",Компоненты!B78,"")</f>
         <v>75</v>
@@ -13798,7 +14481,7 @@
       </c>
       <c r="P78" t="str">
         <f>IF(Компоненты!P78&lt;&gt;"",Компоненты!P78,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q78" t="str">
         <f>IF(Компоненты!Q78&lt;&gt;"",Компоненты!Q78,"")</f>
@@ -13816,8 +14499,12 @@
         <f>IF(Компоненты!T78&lt;&gt;"",Компоненты!T78,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="79" spans="2:20">
+      <c r="U78" t="str">
+        <f>IF(Компоненты!U78&lt;&gt;"",Компоненты!U78,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="2:21">
       <c r="B79">
         <f>IF(Компоненты!B79&lt;&gt;"",Компоненты!B79,"")</f>
         <v>76</v>
@@ -13876,7 +14563,7 @@
       </c>
       <c r="P79" t="str">
         <f>IF(Компоненты!P79&lt;&gt;"",Компоненты!P79,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q79" t="str">
         <f>IF(Компоненты!Q79&lt;&gt;"",Компоненты!Q79,"")</f>
@@ -13894,8 +14581,12 @@
         <f>IF(Компоненты!T79&lt;&gt;"",Компоненты!T79,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="80" spans="2:20">
+      <c r="U79" t="str">
+        <f>IF(Компоненты!U79&lt;&gt;"",Компоненты!U79,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="2:21">
       <c r="B80">
         <f>IF(Компоненты!B80&lt;&gt;"",Компоненты!B80,"")</f>
         <v>77</v>
@@ -13954,7 +14645,7 @@
       </c>
       <c r="P80" t="str">
         <f>IF(Компоненты!P80&lt;&gt;"",Компоненты!P80,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q80" t="str">
         <f>IF(Компоненты!Q80&lt;&gt;"",Компоненты!Q80,"")</f>
@@ -13972,8 +14663,12 @@
         <f>IF(Компоненты!T80&lt;&gt;"",Компоненты!T80,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="81" spans="2:20">
+      <c r="U80" t="str">
+        <f>IF(Компоненты!U80&lt;&gt;"",Компоненты!U80,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="2:21">
       <c r="B81">
         <f>IF(Компоненты!B81&lt;&gt;"",Компоненты!B81,"")</f>
         <v>78</v>
@@ -14032,7 +14727,7 @@
       </c>
       <c r="P81" t="str">
         <f>IF(Компоненты!P81&lt;&gt;"",Компоненты!P81,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q81" t="str">
         <f>IF(Компоненты!Q81&lt;&gt;"",Компоненты!Q81,"")</f>
@@ -14050,8 +14745,12 @@
         <f>IF(Компоненты!T81&lt;&gt;"",Компоненты!T81,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="82" spans="2:20">
+      <c r="U81" t="str">
+        <f>IF(Компоненты!U81&lt;&gt;"",Компоненты!U81,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="2:21">
       <c r="B82">
         <f>IF(Компоненты!B82&lt;&gt;"",Компоненты!B82,"")</f>
         <v>79</v>
@@ -14110,7 +14809,7 @@
       </c>
       <c r="P82" t="str">
         <f>IF(Компоненты!P82&lt;&gt;"",Компоненты!P82,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q82" t="str">
         <f>IF(Компоненты!Q82&lt;&gt;"",Компоненты!Q82,"")</f>
@@ -14128,8 +14827,12 @@
         <f>IF(Компоненты!T82&lt;&gt;"",Компоненты!T82,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="83" spans="2:20">
+      <c r="U82" t="str">
+        <f>IF(Компоненты!U82&lt;&gt;"",Компоненты!U82,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="2:21">
       <c r="B83">
         <f>IF(Компоненты!B83&lt;&gt;"",Компоненты!B83,"")</f>
         <v>80</v>
@@ -14188,7 +14891,7 @@
       </c>
       <c r="P83" t="str">
         <f>IF(Компоненты!P83&lt;&gt;"",Компоненты!P83,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q83" t="str">
         <f>IF(Компоненты!Q83&lt;&gt;"",Компоненты!Q83,"")</f>
@@ -14206,8 +14909,12 @@
         <f>IF(Компоненты!T83&lt;&gt;"",Компоненты!T83,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="84" spans="2:20">
+      <c r="U83" t="str">
+        <f>IF(Компоненты!U83&lt;&gt;"",Компоненты!U83,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="2:21">
       <c r="B84">
         <f>IF(Компоненты!B84&lt;&gt;"",Компоненты!B84,"")</f>
         <v>81</v>
@@ -14266,7 +14973,7 @@
       </c>
       <c r="P84" t="str">
         <f>IF(Компоненты!P84&lt;&gt;"",Компоненты!P84,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q84" t="str">
         <f>IF(Компоненты!Q84&lt;&gt;"",Компоненты!Q84,"")</f>
@@ -14284,8 +14991,12 @@
         <f>IF(Компоненты!T84&lt;&gt;"",Компоненты!T84,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="85" spans="2:20">
+      <c r="U84" t="str">
+        <f>IF(Компоненты!U84&lt;&gt;"",Компоненты!U84,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="2:21">
       <c r="B85">
         <f>IF(Компоненты!B85&lt;&gt;"",Компоненты!B85,"")</f>
         <v>82</v>
@@ -14344,7 +15055,7 @@
       </c>
       <c r="P85" t="str">
         <f>IF(Компоненты!P85&lt;&gt;"",Компоненты!P85,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q85" t="str">
         <f>IF(Компоненты!Q85&lt;&gt;"",Компоненты!Q85,"")</f>
@@ -14362,8 +15073,12 @@
         <f>IF(Компоненты!T85&lt;&gt;"",Компоненты!T85,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="86" spans="2:20">
+      <c r="U85" t="str">
+        <f>IF(Компоненты!U85&lt;&gt;"",Компоненты!U85,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="2:21">
       <c r="B86">
         <f>IF(Компоненты!B86&lt;&gt;"",Компоненты!B86,"")</f>
         <v>83</v>
@@ -14422,7 +15137,7 @@
       </c>
       <c r="P86" t="str">
         <f>IF(Компоненты!P86&lt;&gt;"",Компоненты!P86,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q86" t="str">
         <f>IF(Компоненты!Q86&lt;&gt;"",Компоненты!Q86,"")</f>
@@ -14440,8 +15155,12 @@
         <f>IF(Компоненты!T86&lt;&gt;"",Компоненты!T86,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="87" spans="2:20">
+      <c r="U86" t="str">
+        <f>IF(Компоненты!U86&lt;&gt;"",Компоненты!U86,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="2:21">
       <c r="B87">
         <f>IF(Компоненты!B87&lt;&gt;"",Компоненты!B87,"")</f>
         <v>84</v>
@@ -14500,7 +15219,7 @@
       </c>
       <c r="P87" t="str">
         <f>IF(Компоненты!P87&lt;&gt;"",Компоненты!P87,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q87" t="str">
         <f>IF(Компоненты!Q87&lt;&gt;"",Компоненты!Q87,"")</f>
@@ -14518,8 +15237,12 @@
         <f>IF(Компоненты!T87&lt;&gt;"",Компоненты!T87,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="88" spans="2:20">
+      <c r="U87" t="str">
+        <f>IF(Компоненты!U87&lt;&gt;"",Компоненты!U87,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="2:21">
       <c r="B88">
         <f>IF(Компоненты!B88&lt;&gt;"",Компоненты!B88,"")</f>
         <v>85</v>
@@ -14578,7 +15301,7 @@
       </c>
       <c r="P88" t="str">
         <f>IF(Компоненты!P88&lt;&gt;"",Компоненты!P88,"")</f>
-        <v/>
+        <v>2024.08.02</v>
       </c>
       <c r="Q88" t="str">
         <f>IF(Компоненты!Q88&lt;&gt;"",Компоненты!Q88,"")</f>
@@ -14596,8 +15319,12 @@
         <f>IF(Компоненты!T88&lt;&gt;"",Компоненты!T88,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="89" spans="2:20">
+      <c r="U88" t="str">
+        <f>IF(Компоненты!U88&lt;&gt;"",Компоненты!U88,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="2:21">
       <c r="B89">
         <f>IF(Компоненты!B89&lt;&gt;"",Компоненты!B89,"")</f>
         <v>86</v>
@@ -14656,7 +15383,7 @@
       </c>
       <c r="P89" t="str">
         <f>IF(Компоненты!P89&lt;&gt;"",Компоненты!P89,"")</f>
-        <v/>
+        <v>2024.08.10</v>
       </c>
       <c r="Q89" t="str">
         <f>IF(Компоненты!Q89&lt;&gt;"",Компоненты!Q89,"")</f>
@@ -14674,8 +15401,12 @@
         <f>IF(Компоненты!T89&lt;&gt;"",Компоненты!T89,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="90" spans="2:20">
+      <c r="U89" t="str">
+        <f>IF(Компоненты!U89&lt;&gt;"",Компоненты!U89,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="2:21">
       <c r="B90">
         <f>IF(Компоненты!B90&lt;&gt;"",Компоненты!B90,"")</f>
         <v>87</v>
@@ -14734,7 +15465,7 @@
       </c>
       <c r="P90" t="str">
         <f>IF(Компоненты!P90&lt;&gt;"",Компоненты!P90,"")</f>
-        <v/>
+        <v>2024.08.10</v>
       </c>
       <c r="Q90" t="str">
         <f>IF(Компоненты!Q90&lt;&gt;"",Компоненты!Q90,"")</f>
@@ -14752,8 +15483,12 @@
         <f>IF(Компоненты!T90&lt;&gt;"",Компоненты!T90,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="91" spans="2:20">
+      <c r="U90" t="str">
+        <f>IF(Компоненты!U90&lt;&gt;"",Компоненты!U90,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="2:21">
       <c r="B91">
         <f>IF(Компоненты!B91&lt;&gt;"",Компоненты!B91,"")</f>
         <v>88</v>
@@ -14812,7 +15547,7 @@
       </c>
       <c r="P91" t="str">
         <f>IF(Компоненты!P91&lt;&gt;"",Компоненты!P91,"")</f>
-        <v/>
+        <v>2024.08.10</v>
       </c>
       <c r="Q91" t="str">
         <f>IF(Компоненты!Q91&lt;&gt;"",Компоненты!Q91,"")</f>
@@ -14830,8 +15565,12 @@
         <f>IF(Компоненты!T91&lt;&gt;"",Компоненты!T91,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="92" spans="2:20">
+      <c r="U91" t="str">
+        <f>IF(Компоненты!U91&lt;&gt;"",Компоненты!U91,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="2:21">
       <c r="B92">
         <f>IF(Компоненты!B92&lt;&gt;"",Компоненты!B92,"")</f>
         <v>89</v>
@@ -14890,11 +15629,11 @@
       </c>
       <c r="P92" t="str">
         <f>IF(Компоненты!P92&lt;&gt;"",Компоненты!P92,"")</f>
-        <v/>
+        <v>2024.08.10</v>
       </c>
       <c r="Q92" t="str">
         <f>IF(Компоненты!Q92&lt;&gt;"",Компоненты!Q92,"")</f>
-        <v>ДА</v>
+        <v/>
       </c>
       <c r="R92" t="str">
         <f>IF(Компоненты!R92&lt;&gt;"",Компоненты!R92,"")</f>
@@ -14906,10 +15645,14 @@
       </c>
       <c r="T92" t="str">
         <f>IF(Компоненты!T92&lt;&gt;"",Компоненты!T92,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="2:20">
+        <v>ДА</v>
+      </c>
+      <c r="U92" t="str">
+        <f>IF(Компоненты!U92&lt;&gt;"",Компоненты!U92,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="2:21">
       <c r="B93">
         <f>IF(Компоненты!B93&lt;&gt;"",Компоненты!B93,"")</f>
         <v>90</v>
@@ -14968,11 +15711,11 @@
       </c>
       <c r="P93" t="str">
         <f>IF(Компоненты!P93&lt;&gt;"",Компоненты!P93,"")</f>
-        <v/>
+        <v>2024.08.10</v>
       </c>
       <c r="Q93" t="str">
         <f>IF(Компоненты!Q93&lt;&gt;"",Компоненты!Q93,"")</f>
-        <v>ДА</v>
+        <v/>
       </c>
       <c r="R93" t="str">
         <f>IF(Компоненты!R93&lt;&gt;"",Компоненты!R93,"")</f>
@@ -14984,10 +15727,14 @@
       </c>
       <c r="T93" t="str">
         <f>IF(Компоненты!T93&lt;&gt;"",Компоненты!T93,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="2:20">
+        <v>ДА</v>
+      </c>
+      <c r="U93" t="str">
+        <f>IF(Компоненты!U93&lt;&gt;"",Компоненты!U93,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="2:21">
       <c r="B94">
         <f>IF(Компоненты!B94&lt;&gt;"",Компоненты!B94,"")</f>
         <v>91</v>
@@ -15046,7 +15793,7 @@
       </c>
       <c r="P94" t="str">
         <f>IF(Компоненты!P94&lt;&gt;"",Компоненты!P94,"")</f>
-        <v/>
+        <v>2024.08.10</v>
       </c>
       <c r="Q94" t="str">
         <f>IF(Компоненты!Q94&lt;&gt;"",Компоненты!Q94,"")</f>
@@ -15064,8 +15811,12 @@
         <f>IF(Компоненты!T94&lt;&gt;"",Компоненты!T94,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="95" spans="2:20">
+      <c r="U94" t="str">
+        <f>IF(Компоненты!U94&lt;&gt;"",Компоненты!U94,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="2:21">
       <c r="B95">
         <f>IF(Компоненты!B95&lt;&gt;"",Компоненты!B95,"")</f>
         <v>92</v>
@@ -15124,7 +15875,7 @@
       </c>
       <c r="P95" t="str">
         <f>IF(Компоненты!P95&lt;&gt;"",Компоненты!P95,"")</f>
-        <v/>
+        <v>2024.08.10</v>
       </c>
       <c r="Q95" t="str">
         <f>IF(Компоненты!Q95&lt;&gt;"",Компоненты!Q95,"")</f>
@@ -15142,8 +15893,12 @@
         <f>IF(Компоненты!T95&lt;&gt;"",Компоненты!T95,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="96" spans="2:20">
+      <c r="U95" t="str">
+        <f>IF(Компоненты!U95&lt;&gt;"",Компоненты!U95,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="2:21">
       <c r="B96">
         <f>IF(Компоненты!B96&lt;&gt;"",Компоненты!B96,"")</f>
         <v>93</v>
@@ -15203,7 +15958,7 @@
       </c>
       <c r="P96" t="str">
         <f>IF(Компоненты!P96&lt;&gt;"",Компоненты!P96,"")</f>
-        <v/>
+        <v>2024.08.15</v>
       </c>
       <c r="Q96" t="str">
         <f>IF(Компоненты!Q96&lt;&gt;"",Компоненты!Q96,"")</f>
@@ -15221,8 +15976,12 @@
         <f>IF(Компоненты!T96&lt;&gt;"",Компоненты!T96,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="97" spans="2:20">
+      <c r="U96" t="str">
+        <f>IF(Компоненты!U96&lt;&gt;"",Компоненты!U96,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="2:21">
       <c r="B97">
         <f>IF(Компоненты!B97&lt;&gt;"",Компоненты!B97,"")</f>
         <v>94</v>
@@ -15282,7 +16041,7 @@
       </c>
       <c r="P97" t="str">
         <f>IF(Компоненты!P97&lt;&gt;"",Компоненты!P97,"")</f>
-        <v/>
+        <v>2024.08.14</v>
       </c>
       <c r="Q97" t="str">
         <f>IF(Компоненты!Q97&lt;&gt;"",Компоненты!Q97,"")</f>
@@ -15300,8 +16059,12 @@
         <f>IF(Компоненты!T97&lt;&gt;"",Компоненты!T97,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="98" spans="2:20">
+      <c r="U97" t="str">
+        <f>IF(Компоненты!U97&lt;&gt;"",Компоненты!U97,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="2:21">
       <c r="B98">
         <f>IF(Компоненты!B98&lt;&gt;"",Компоненты!B98,"")</f>
         <v>95</v>
@@ -15314,8 +16077,9 @@
         <f>IF(Компоненты!D98&lt;&gt;"",Компоненты!D98,"")</f>
         <v>1</v>
       </c>
-      <c r="E98" t="s">
-        <v>420</v>
+      <c r="E98" t="str">
+        <f>IF(Компоненты!E98&lt;&gt;"",Компоненты!E98,"")</f>
+        <v>f956a87a69d7fe27299e34d6b80b87db</v>
       </c>
       <c r="F98" t="str">
         <f>IF(Компоненты!F98&lt;&gt;"",Компоненты!F98,"")</f>
@@ -15361,7 +16125,7 @@
       </c>
       <c r="P98" t="str">
         <f>IF(Компоненты!P98&lt;&gt;"",Компоненты!P98,"")</f>
-        <v/>
+        <v>2024.08.14</v>
       </c>
       <c r="Q98" t="str">
         <f>IF(Компоненты!Q98&lt;&gt;"",Компоненты!Q98,"")</f>
@@ -15379,8 +16143,12 @@
         <f>IF(Компоненты!T98&lt;&gt;"",Компоненты!T98,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="99" spans="2:20">
+      <c r="U98" t="str">
+        <f>IF(Компоненты!U98&lt;&gt;"",Компоненты!U98,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="2:21">
       <c r="B99">
         <f>IF(Компоненты!B99&lt;&gt;"",Компоненты!B99,"")</f>
         <v>96</v>
@@ -15439,7 +16207,7 @@
       </c>
       <c r="P99" t="str">
         <f>IF(Компоненты!P99&lt;&gt;"",Компоненты!P99,"")</f>
-        <v/>
+        <v>2024.08.14</v>
       </c>
       <c r="Q99" t="str">
         <f>IF(Компоненты!Q99&lt;&gt;"",Компоненты!Q99,"")</f>
@@ -15457,8 +16225,12 @@
         <f>IF(Компоненты!T99&lt;&gt;"",Компоненты!T99,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="100" spans="2:20">
+      <c r="U99" t="str">
+        <f>IF(Компоненты!U99&lt;&gt;"",Компоненты!U99,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="2:21">
       <c r="B100">
         <f>IF(Компоненты!B100&lt;&gt;"",Компоненты!B100,"")</f>
         <v>97</v>
@@ -15519,7 +16291,7 @@
       </c>
       <c r="P100" t="str">
         <f>IF(Компоненты!P100&lt;&gt;"",Компоненты!P100,"")</f>
-        <v/>
+        <v>2024.08.14</v>
       </c>
       <c r="Q100" t="str">
         <f>IF(Компоненты!Q100&lt;&gt;"",Компоненты!Q100,"")</f>
@@ -15537,8 +16309,12 @@
         <f>IF(Компоненты!T100&lt;&gt;"",Компоненты!T100,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="101" spans="2:20">
+      <c r="U100" t="str">
+        <f>IF(Компоненты!U100&lt;&gt;"",Компоненты!U100,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="2:21">
       <c r="B101">
         <f>IF(Компоненты!B101&lt;&gt;"",Компоненты!B101,"")</f>
         <v>98</v>
@@ -15599,7 +16375,7 @@
       </c>
       <c r="P101" t="str">
         <f>IF(Компоненты!P101&lt;&gt;"",Компоненты!P101,"")</f>
-        <v/>
+        <v>2024.08.14</v>
       </c>
       <c r="Q101" t="str">
         <f>IF(Компоненты!Q101&lt;&gt;"",Компоненты!Q101,"")</f>
@@ -15617,8 +16393,12 @@
         <f>IF(Компоненты!T101&lt;&gt;"",Компоненты!T101,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="102" spans="2:20">
+      <c r="U101" t="str">
+        <f>IF(Компоненты!U101&lt;&gt;"",Компоненты!U101,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="2:21">
       <c r="B102">
         <f>IF(Компоненты!B102&lt;&gt;"",Компоненты!B102,"")</f>
         <v>99</v>
@@ -15677,7 +16457,7 @@
       </c>
       <c r="P102" t="str">
         <f>IF(Компоненты!P102&lt;&gt;"",Компоненты!P102,"")</f>
-        <v/>
+        <v>2024.08.14</v>
       </c>
       <c r="Q102" t="str">
         <f>IF(Компоненты!Q102&lt;&gt;"",Компоненты!Q102,"")</f>
@@ -15695,8 +16475,12 @@
         <f>IF(Компоненты!T102&lt;&gt;"",Компоненты!T102,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="103" spans="2:20">
+      <c r="U102" t="str">
+        <f>IF(Компоненты!U102&lt;&gt;"",Компоненты!U102,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="2:21">
       <c r="B103">
         <f>IF(Компоненты!B103&lt;&gt;"",Компоненты!B103,"")</f>
         <v>100</v>
@@ -15756,7 +16540,7 @@
       </c>
       <c r="P103" t="str">
         <f>IF(Компоненты!P103&lt;&gt;"",Компоненты!P103,"")</f>
-        <v/>
+        <v>2024.08.14</v>
       </c>
       <c r="Q103" t="str">
         <f>IF(Компоненты!Q103&lt;&gt;"",Компоненты!Q103,"")</f>
@@ -15774,8 +16558,12 @@
         <f>IF(Компоненты!T103&lt;&gt;"",Компоненты!T103,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="104" spans="2:20">
+      <c r="U103" t="str">
+        <f>IF(Компоненты!U103&lt;&gt;"",Компоненты!U103,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="2:21">
       <c r="B104">
         <f>IF(Компоненты!B104&lt;&gt;"",Компоненты!B104,"")</f>
         <v>101</v>
@@ -15835,7 +16623,7 @@
       </c>
       <c r="P104" t="str">
         <f>IF(Компоненты!P104&lt;&gt;"",Компоненты!P104,"")</f>
-        <v/>
+        <v>2024.08.15</v>
       </c>
       <c r="Q104" t="str">
         <f>IF(Компоненты!Q104&lt;&gt;"",Компоненты!Q104,"")</f>
@@ -15853,8 +16641,12 @@
         <f>IF(Компоненты!T104&lt;&gt;"",Компоненты!T104,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="105" spans="2:20">
+      <c r="U104" t="str">
+        <f>IF(Компоненты!U104&lt;&gt;"",Компоненты!U104,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="2:21">
       <c r="B105" t="str">
         <f>IF(Компоненты!B105&lt;&gt;"",Компоненты!B105,"")</f>
         <v/>
@@ -15931,8 +16723,12 @@
         <f>IF(Компоненты!T105&lt;&gt;"",Компоненты!T105,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="106" spans="2:20">
+      <c r="U105" t="str">
+        <f>IF(Компоненты!U105&lt;&gt;"",Компоненты!U105,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="2:21">
       <c r="B106" t="str">
         <f>IF(Компоненты!B106&lt;&gt;"",Компоненты!B106,"")</f>
         <v/>
@@ -16009,8 +16805,12 @@
         <f>IF(Компоненты!T106&lt;&gt;"",Компоненты!T106,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="107" spans="2:20">
+      <c r="U106" t="str">
+        <f>IF(Компоненты!U106&lt;&gt;"",Компоненты!U106,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="2:21">
       <c r="B107" t="str">
         <f>IF(Компоненты!B107&lt;&gt;"",Компоненты!B107,"")</f>
         <v/>
@@ -16087,8 +16887,12 @@
         <f>IF(Компоненты!T107&lt;&gt;"",Компоненты!T107,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="108" spans="2:20">
+      <c r="U107" t="str">
+        <f>IF(Компоненты!U107&lt;&gt;"",Компоненты!U107,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="2:21">
       <c r="B108" t="str">
         <f>IF(Компоненты!B108&lt;&gt;"",Компоненты!B108,"")</f>
         <v/>
@@ -16165,8 +16969,12 @@
         <f>IF(Компоненты!T108&lt;&gt;"",Компоненты!T108,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="109" spans="2:20">
+      <c r="U108" t="str">
+        <f>IF(Компоненты!U108&lt;&gt;"",Компоненты!U108,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="2:21">
       <c r="B109" t="str">
         <f>IF(Компоненты!B109&lt;&gt;"",Компоненты!B109,"")</f>
         <v/>
@@ -16243,8 +17051,12 @@
         <f>IF(Компоненты!T109&lt;&gt;"",Компоненты!T109,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="110" spans="2:20">
+      <c r="U109" t="str">
+        <f>IF(Компоненты!U109&lt;&gt;"",Компоненты!U109,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="2:21">
       <c r="B110" t="str">
         <f>IF(Компоненты!B110&lt;&gt;"",Компоненты!B110,"")</f>
         <v/>
@@ -16321,8 +17133,12 @@
         <f>IF(Компоненты!T110&lt;&gt;"",Компоненты!T110,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="111" spans="2:20">
+      <c r="U110" t="str">
+        <f>IF(Компоненты!U110&lt;&gt;"",Компоненты!U110,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="2:21">
       <c r="B111" t="str">
         <f>IF(Компоненты!B111&lt;&gt;"",Компоненты!B111,"")</f>
         <v/>
@@ -16399,8 +17215,12 @@
         <f>IF(Компоненты!T111&lt;&gt;"",Компоненты!T111,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="112" spans="2:20">
+      <c r="U111" t="str">
+        <f>IF(Компоненты!U111&lt;&gt;"",Компоненты!U111,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="2:21">
       <c r="B112" t="str">
         <f>IF(Компоненты!B112&lt;&gt;"",Компоненты!B112,"")</f>
         <v/>
@@ -16477,8 +17297,12 @@
         <f>IF(Компоненты!T112&lt;&gt;"",Компоненты!T112,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="113" spans="2:20">
+      <c r="U112" t="str">
+        <f>IF(Компоненты!U112&lt;&gt;"",Компоненты!U112,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="2:21">
       <c r="B113" t="str">
         <f>IF(Компоненты!B113&lt;&gt;"",Компоненты!B113,"")</f>
         <v/>
@@ -16555,8 +17379,12 @@
         <f>IF(Компоненты!T113&lt;&gt;"",Компоненты!T113,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="114" spans="2:20">
+      <c r="U113" t="str">
+        <f>IF(Компоненты!U113&lt;&gt;"",Компоненты!U113,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="2:21">
       <c r="B114" t="str">
         <f>IF(Компоненты!B114&lt;&gt;"",Компоненты!B114,"")</f>
         <v/>
@@ -16633,8 +17461,12 @@
         <f>IF(Компоненты!T114&lt;&gt;"",Компоненты!T114,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="115" spans="2:20">
+      <c r="U114" t="str">
+        <f>IF(Компоненты!U114&lt;&gt;"",Компоненты!U114,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="2:21">
       <c r="B115" t="str">
         <f>IF(Компоненты!B115&lt;&gt;"",Компоненты!B115,"")</f>
         <v/>
@@ -16711,8 +17543,12 @@
         <f>IF(Компоненты!T115&lt;&gt;"",Компоненты!T115,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="116" spans="2:20">
+      <c r="U115" t="str">
+        <f>IF(Компоненты!U115&lt;&gt;"",Компоненты!U115,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="2:21">
       <c r="B116" t="str">
         <f>IF(Компоненты!B116&lt;&gt;"",Компоненты!B116,"")</f>
         <v/>
@@ -16789,8 +17625,12 @@
         <f>IF(Компоненты!T116&lt;&gt;"",Компоненты!T116,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="117" spans="2:20">
+      <c r="U116" t="str">
+        <f>IF(Компоненты!U116&lt;&gt;"",Компоненты!U116,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="2:21">
       <c r="B117" t="str">
         <f>IF(Компоненты!B117&lt;&gt;"",Компоненты!B117,"")</f>
         <v/>
@@ -16867,8 +17707,12 @@
         <f>IF(Компоненты!T117&lt;&gt;"",Компоненты!T117,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="118" spans="2:20">
+      <c r="U117" t="str">
+        <f>IF(Компоненты!U117&lt;&gt;"",Компоненты!U117,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="2:21">
       <c r="B118" t="str">
         <f>IF(Компоненты!B118&lt;&gt;"",Компоненты!B118,"")</f>
         <v/>
@@ -16945,8 +17789,12 @@
         <f>IF(Компоненты!T118&lt;&gt;"",Компоненты!T118,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="119" spans="2:20">
+      <c r="U118" t="str">
+        <f>IF(Компоненты!U118&lt;&gt;"",Компоненты!U118,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="2:21">
       <c r="B119" t="str">
         <f>IF(Компоненты!B119&lt;&gt;"",Компоненты!B119,"")</f>
         <v/>
@@ -17023,8 +17871,12 @@
         <f>IF(Компоненты!T119&lt;&gt;"",Компоненты!T119,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="120" spans="2:20">
+      <c r="U119" t="str">
+        <f>IF(Компоненты!U119&lt;&gt;"",Компоненты!U119,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="2:21">
       <c r="B120" t="str">
         <f>IF(Компоненты!B120&lt;&gt;"",Компоненты!B120,"")</f>
         <v/>
@@ -17101,8 +17953,12 @@
         <f>IF(Компоненты!T120&lt;&gt;"",Компоненты!T120,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="121" spans="2:20">
+      <c r="U120" t="str">
+        <f>IF(Компоненты!U120&lt;&gt;"",Компоненты!U120,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="2:21">
       <c r="B121" t="str">
         <f>IF(Компоненты!B121&lt;&gt;"",Компоненты!B121,"")</f>
         <v/>
@@ -17179,8 +18035,12 @@
         <f>IF(Компоненты!T121&lt;&gt;"",Компоненты!T121,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="122" spans="2:20">
+      <c r="U121" t="str">
+        <f>IF(Компоненты!U121&lt;&gt;"",Компоненты!U121,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="2:21">
       <c r="B122" t="str">
         <f>IF(Компоненты!B122&lt;&gt;"",Компоненты!B122,"")</f>
         <v/>
@@ -17257,8 +18117,12 @@
         <f>IF(Компоненты!T122&lt;&gt;"",Компоненты!T122,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="123" spans="2:20">
+      <c r="U122" t="str">
+        <f>IF(Компоненты!U122&lt;&gt;"",Компоненты!U122,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="2:21">
       <c r="B123" t="str">
         <f>IF(Компоненты!B123&lt;&gt;"",Компоненты!B123,"")</f>
         <v/>
@@ -17335,8 +18199,12 @@
         <f>IF(Компоненты!T123&lt;&gt;"",Компоненты!T123,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="124" spans="2:20">
+      <c r="U123" t="str">
+        <f>IF(Компоненты!U123&lt;&gt;"",Компоненты!U123,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="2:21">
       <c r="B124" t="str">
         <f>IF(Компоненты!B124&lt;&gt;"",Компоненты!B124,"")</f>
         <v/>
@@ -17413,8 +18281,12 @@
         <f>IF(Компоненты!T124&lt;&gt;"",Компоненты!T124,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="125" spans="2:20">
+      <c r="U124" t="str">
+        <f>IF(Компоненты!U124&lt;&gt;"",Компоненты!U124,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="2:21">
       <c r="B125" t="str">
         <f>IF(Компоненты!B125&lt;&gt;"",Компоненты!B125,"")</f>
         <v/>
@@ -17491,8 +18363,12 @@
         <f>IF(Компоненты!T125&lt;&gt;"",Компоненты!T125,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="126" spans="2:20">
+      <c r="U125" t="str">
+        <f>IF(Компоненты!U125&lt;&gt;"",Компоненты!U125,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="2:21">
       <c r="B126" t="str">
         <f>IF(Компоненты!B126&lt;&gt;"",Компоненты!B126,"")</f>
         <v/>
@@ -17569,8 +18445,12 @@
         <f>IF(Компоненты!T126&lt;&gt;"",Компоненты!T126,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="127" spans="2:20">
+      <c r="U126" t="str">
+        <f>IF(Компоненты!U126&lt;&gt;"",Компоненты!U126,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="2:21">
       <c r="B127" t="str">
         <f>IF(Компоненты!B127&lt;&gt;"",Компоненты!B127,"")</f>
         <v/>
@@ -17647,8 +18527,12 @@
         <f>IF(Компоненты!T127&lt;&gt;"",Компоненты!T127,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="128" spans="2:20">
+      <c r="U127" t="str">
+        <f>IF(Компоненты!U127&lt;&gt;"",Компоненты!U127,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="2:21">
       <c r="B128" t="str">
         <f>IF(Компоненты!B128&lt;&gt;"",Компоненты!B128,"")</f>
         <v/>
@@ -17725,8 +18609,12 @@
         <f>IF(Компоненты!T128&lt;&gt;"",Компоненты!T128,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="129" spans="2:20">
+      <c r="U128" t="str">
+        <f>IF(Компоненты!U128&lt;&gt;"",Компоненты!U128,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="2:21">
       <c r="B129" t="str">
         <f>IF(Компоненты!B129&lt;&gt;"",Компоненты!B129,"")</f>
         <v/>
@@ -17803,8 +18691,12 @@
         <f>IF(Компоненты!T129&lt;&gt;"",Компоненты!T129,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="130" spans="2:20">
+      <c r="U129" t="str">
+        <f>IF(Компоненты!U129&lt;&gt;"",Компоненты!U129,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="2:21">
       <c r="B130" t="str">
         <f>IF(Компоненты!B130&lt;&gt;"",Компоненты!B130,"")</f>
         <v/>
@@ -17881,8 +18773,12 @@
         <f>IF(Компоненты!T130&lt;&gt;"",Компоненты!T130,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="131" spans="2:20">
+      <c r="U130" t="str">
+        <f>IF(Компоненты!U130&lt;&gt;"",Компоненты!U130,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="2:21">
       <c r="B131" t="str">
         <f>IF(Компоненты!B131&lt;&gt;"",Компоненты!B131,"")</f>
         <v/>
@@ -17959,8 +18855,12 @@
         <f>IF(Компоненты!T131&lt;&gt;"",Компоненты!T131,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="132" spans="2:20">
+      <c r="U131" t="str">
+        <f>IF(Компоненты!U131&lt;&gt;"",Компоненты!U131,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="2:21">
       <c r="B132" t="str">
         <f>IF(Компоненты!B132&lt;&gt;"",Компоненты!B132,"")</f>
         <v/>
@@ -18037,8 +18937,12 @@
         <f>IF(Компоненты!T132&lt;&gt;"",Компоненты!T132,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="133" spans="2:20">
+      <c r="U132" t="str">
+        <f>IF(Компоненты!U132&lt;&gt;"",Компоненты!U132,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="2:21">
       <c r="B133" t="str">
         <f>IF(Компоненты!B133&lt;&gt;"",Компоненты!B133,"")</f>
         <v/>
@@ -18115,8 +19019,12 @@
         <f>IF(Компоненты!T133&lt;&gt;"",Компоненты!T133,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="134" spans="2:20">
+      <c r="U133" t="str">
+        <f>IF(Компоненты!U133&lt;&gt;"",Компоненты!U133,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="2:21">
       <c r="B134" t="str">
         <f>IF(Компоненты!B134&lt;&gt;"",Компоненты!B134,"")</f>
         <v/>
@@ -18193,8 +19101,12 @@
         <f>IF(Компоненты!T134&lt;&gt;"",Компоненты!T134,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="135" spans="2:20">
+      <c r="U134" t="str">
+        <f>IF(Компоненты!U134&lt;&gt;"",Компоненты!U134,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="2:21">
       <c r="B135" t="str">
         <f>IF(Компоненты!B135&lt;&gt;"",Компоненты!B135,"")</f>
         <v/>
@@ -18271,8 +19183,12 @@
         <f>IF(Компоненты!T135&lt;&gt;"",Компоненты!T135,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="136" spans="2:20">
+      <c r="U135" t="str">
+        <f>IF(Компоненты!U135&lt;&gt;"",Компоненты!U135,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="2:21">
       <c r="B136" t="str">
         <f>IF(Компоненты!B136&lt;&gt;"",Компоненты!B136,"")</f>
         <v/>
@@ -18349,8 +19265,12 @@
         <f>IF(Компоненты!T136&lt;&gt;"",Компоненты!T136,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="137" spans="2:20">
+      <c r="U136" t="str">
+        <f>IF(Компоненты!U136&lt;&gt;"",Компоненты!U136,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="2:21">
       <c r="B137" t="str">
         <f>IF(Компоненты!B137&lt;&gt;"",Компоненты!B137,"")</f>
         <v/>
@@ -18427,8 +19347,12 @@
         <f>IF(Компоненты!T137&lt;&gt;"",Компоненты!T137,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="138" spans="2:20">
+      <c r="U137" t="str">
+        <f>IF(Компоненты!U137&lt;&gt;"",Компоненты!U137,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="2:21">
       <c r="B138" t="str">
         <f>IF(Компоненты!B138&lt;&gt;"",Компоненты!B138,"")</f>
         <v/>
@@ -18505,8 +19429,12 @@
         <f>IF(Компоненты!T138&lt;&gt;"",Компоненты!T138,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="139" spans="2:20">
+      <c r="U138" t="str">
+        <f>IF(Компоненты!U138&lt;&gt;"",Компоненты!U138,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="2:21">
       <c r="B139" t="str">
         <f>IF(Компоненты!B139&lt;&gt;"",Компоненты!B139,"")</f>
         <v/>
@@ -18583,8 +19511,12 @@
         <f>IF(Компоненты!T139&lt;&gt;"",Компоненты!T139,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="140" spans="2:20">
+      <c r="U139" t="str">
+        <f>IF(Компоненты!U139&lt;&gt;"",Компоненты!U139,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="2:21">
       <c r="B140" t="str">
         <f>IF(Компоненты!B140&lt;&gt;"",Компоненты!B140,"")</f>
         <v/>
@@ -18661,8 +19593,12 @@
         <f>IF(Компоненты!T140&lt;&gt;"",Компоненты!T140,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="141" spans="2:20">
+      <c r="U140" t="str">
+        <f>IF(Компоненты!U140&lt;&gt;"",Компоненты!U140,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="2:21">
       <c r="B141" t="str">
         <f>IF(Компоненты!B141&lt;&gt;"",Компоненты!B141,"")</f>
         <v/>
@@ -18739,8 +19675,12 @@
         <f>IF(Компоненты!T141&lt;&gt;"",Компоненты!T141,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="142" spans="2:20">
+      <c r="U141" t="str">
+        <f>IF(Компоненты!U141&lt;&gt;"",Компоненты!U141,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="2:21">
       <c r="B142" t="str">
         <f>IF(Компоненты!B142&lt;&gt;"",Компоненты!B142,"")</f>
         <v/>
@@ -18817,8 +19757,12 @@
         <f>IF(Компоненты!T142&lt;&gt;"",Компоненты!T142,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="143" spans="2:20">
+      <c r="U142" t="str">
+        <f>IF(Компоненты!U142&lt;&gt;"",Компоненты!U142,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="2:21">
       <c r="B143" t="str">
         <f>IF(Компоненты!B143&lt;&gt;"",Компоненты!B143,"")</f>
         <v/>
@@ -18895,8 +19839,12 @@
         <f>IF(Компоненты!T143&lt;&gt;"",Компоненты!T143,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="144" spans="2:20">
+      <c r="U143" t="str">
+        <f>IF(Компоненты!U143&lt;&gt;"",Компоненты!U143,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="2:21">
       <c r="B144" t="str">
         <f>IF(Компоненты!B144&lt;&gt;"",Компоненты!B144,"")</f>
         <v/>
@@ -18973,8 +19921,12 @@
         <f>IF(Компоненты!T144&lt;&gt;"",Компоненты!T144,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="145" spans="2:20">
+      <c r="U144" t="str">
+        <f>IF(Компоненты!U144&lt;&gt;"",Компоненты!U144,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="2:21">
       <c r="B145" t="str">
         <f>IF(Компоненты!B145&lt;&gt;"",Компоненты!B145,"")</f>
         <v/>
@@ -19051,8 +20003,12 @@
         <f>IF(Компоненты!T145&lt;&gt;"",Компоненты!T145,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="146" spans="2:20">
+      <c r="U145" t="str">
+        <f>IF(Компоненты!U145&lt;&gt;"",Компоненты!U145,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="2:21">
       <c r="B146" t="str">
         <f>IF(Компоненты!B146&lt;&gt;"",Компоненты!B146,"")</f>
         <v/>
@@ -19129,8 +20085,12 @@
         <f>IF(Компоненты!T146&lt;&gt;"",Компоненты!T146,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="147" spans="2:20">
+      <c r="U146" t="str">
+        <f>IF(Компоненты!U146&lt;&gt;"",Компоненты!U146,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="2:21">
       <c r="B147" t="str">
         <f>IF(Компоненты!B147&lt;&gt;"",Компоненты!B147,"")</f>
         <v/>
@@ -19207,8 +20167,12 @@
         <f>IF(Компоненты!T147&lt;&gt;"",Компоненты!T147,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="148" spans="2:20">
+      <c r="U147" t="str">
+        <f>IF(Компоненты!U147&lt;&gt;"",Компоненты!U147,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="2:21">
       <c r="B148" t="str">
         <f>IF(Компоненты!B148&lt;&gt;"",Компоненты!B148,"")</f>
         <v/>
@@ -19285,8 +20249,12 @@
         <f>IF(Компоненты!T148&lt;&gt;"",Компоненты!T148,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="149" spans="2:20">
+      <c r="U148" t="str">
+        <f>IF(Компоненты!U148&lt;&gt;"",Компоненты!U148,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="2:21">
       <c r="B149" t="str">
         <f>IF(Компоненты!B149&lt;&gt;"",Компоненты!B149,"")</f>
         <v/>
@@ -19363,8 +20331,12 @@
         <f>IF(Компоненты!T149&lt;&gt;"",Компоненты!T149,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="150" spans="2:20">
+      <c r="U149" t="str">
+        <f>IF(Компоненты!U149&lt;&gt;"",Компоненты!U149,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="2:21">
       <c r="B150" t="str">
         <f>IF(Компоненты!B150&lt;&gt;"",Компоненты!B150,"")</f>
         <v/>
@@ -19441,8 +20413,12 @@
         <f>IF(Компоненты!T150&lt;&gt;"",Компоненты!T150,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="151" spans="2:20">
+      <c r="U150" t="str">
+        <f>IF(Компоненты!U150&lt;&gt;"",Компоненты!U150,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="2:21">
       <c r="B151" t="str">
         <f>IF(Компоненты!B151&lt;&gt;"",Компоненты!B151,"")</f>
         <v/>
@@ -19519,8 +20495,12 @@
         <f>IF(Компоненты!T151&lt;&gt;"",Компоненты!T151,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="152" spans="2:20">
+      <c r="U151" t="str">
+        <f>IF(Компоненты!U151&lt;&gt;"",Компоненты!U151,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="2:21">
       <c r="B152" t="str">
         <f>IF(Компоненты!B152&lt;&gt;"",Компоненты!B152,"")</f>
         <v/>
@@ -19597,8 +20577,12 @@
         <f>IF(Компоненты!T152&lt;&gt;"",Компоненты!T152,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="153" spans="2:20">
+      <c r="U152" t="str">
+        <f>IF(Компоненты!U152&lt;&gt;"",Компоненты!U152,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="2:21">
       <c r="B153" t="str">
         <f>IF(Компоненты!B153&lt;&gt;"",Компоненты!B153,"")</f>
         <v/>
@@ -19675,8 +20659,12 @@
         <f>IF(Компоненты!T153&lt;&gt;"",Компоненты!T153,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="154" spans="2:20">
+      <c r="U153" t="str">
+        <f>IF(Компоненты!U153&lt;&gt;"",Компоненты!U153,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="2:21">
       <c r="B154" t="str">
         <f>IF(Компоненты!B154&lt;&gt;"",Компоненты!B154,"")</f>
         <v/>
@@ -19753,8 +20741,12 @@
         <f>IF(Компоненты!T154&lt;&gt;"",Компоненты!T154,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="155" spans="2:20">
+      <c r="U154" t="str">
+        <f>IF(Компоненты!U154&lt;&gt;"",Компоненты!U154,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="2:21">
       <c r="B155" t="str">
         <f>IF(Компоненты!B155&lt;&gt;"",Компоненты!B155,"")</f>
         <v/>
@@ -19831,8 +20823,12 @@
         <f>IF(Компоненты!T155&lt;&gt;"",Компоненты!T155,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="156" spans="2:20">
+      <c r="U155" t="str">
+        <f>IF(Компоненты!U155&lt;&gt;"",Компоненты!U155,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="2:21">
       <c r="B156" t="str">
         <f>IF(Компоненты!B156&lt;&gt;"",Компоненты!B156,"")</f>
         <v/>
@@ -19909,8 +20905,12 @@
         <f>IF(Компоненты!T156&lt;&gt;"",Компоненты!T156,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="157" spans="2:20">
+      <c r="U156" t="str">
+        <f>IF(Компоненты!U156&lt;&gt;"",Компоненты!U156,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="2:21">
       <c r="B157" t="str">
         <f>IF(Компоненты!B157&lt;&gt;"",Компоненты!B157,"")</f>
         <v/>
@@ -19987,8 +20987,12 @@
         <f>IF(Компоненты!T157&lt;&gt;"",Компоненты!T157,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="158" spans="2:20">
+      <c r="U157" t="str">
+        <f>IF(Компоненты!U157&lt;&gt;"",Компоненты!U157,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="2:21">
       <c r="B158" t="str">
         <f>IF(Компоненты!B158&lt;&gt;"",Компоненты!B158,"")</f>
         <v/>
@@ -20065,8 +21069,12 @@
         <f>IF(Компоненты!T158&lt;&gt;"",Компоненты!T158,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="159" spans="2:20">
+      <c r="U158" t="str">
+        <f>IF(Компоненты!U158&lt;&gt;"",Компоненты!U158,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="2:21">
       <c r="B159" t="str">
         <f>IF(Компоненты!B159&lt;&gt;"",Компоненты!B159,"")</f>
         <v/>
@@ -20143,8 +21151,12 @@
         <f>IF(Компоненты!T159&lt;&gt;"",Компоненты!T159,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="160" spans="2:20">
+      <c r="U159" t="str">
+        <f>IF(Компоненты!U159&lt;&gt;"",Компоненты!U159,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="2:21">
       <c r="B160" t="str">
         <f>IF(Компоненты!B160&lt;&gt;"",Компоненты!B160,"")</f>
         <v/>
@@ -20221,8 +21233,12 @@
         <f>IF(Компоненты!T160&lt;&gt;"",Компоненты!T160,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="161" spans="2:20">
+      <c r="U160" t="str">
+        <f>IF(Компоненты!U160&lt;&gt;"",Компоненты!U160,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="2:21">
       <c r="B161" t="str">
         <f>IF(Компоненты!B161&lt;&gt;"",Компоненты!B161,"")</f>
         <v/>
@@ -20299,8 +21315,12 @@
         <f>IF(Компоненты!T161&lt;&gt;"",Компоненты!T161,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="162" spans="2:20">
+      <c r="U161" t="str">
+        <f>IF(Компоненты!U161&lt;&gt;"",Компоненты!U161,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="2:21">
       <c r="B162" t="str">
         <f>IF(Компоненты!B162&lt;&gt;"",Компоненты!B162,"")</f>
         <v/>
@@ -20377,8 +21397,12 @@
         <f>IF(Компоненты!T162&lt;&gt;"",Компоненты!T162,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="163" spans="2:20">
+      <c r="U162" t="str">
+        <f>IF(Компоненты!U162&lt;&gt;"",Компоненты!U162,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="2:21">
       <c r="B163" t="str">
         <f>IF(Компоненты!B163&lt;&gt;"",Компоненты!B163,"")</f>
         <v/>
@@ -20455,8 +21479,12 @@
         <f>IF(Компоненты!T163&lt;&gt;"",Компоненты!T163,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="164" spans="2:20">
+      <c r="U163" t="str">
+        <f>IF(Компоненты!U163&lt;&gt;"",Компоненты!U163,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="2:21">
       <c r="B164" t="str">
         <f>IF(Компоненты!B164&lt;&gt;"",Компоненты!B164,"")</f>
         <v/>
@@ -20533,8 +21561,12 @@
         <f>IF(Компоненты!T164&lt;&gt;"",Компоненты!T164,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="165" spans="2:20">
+      <c r="U164" t="str">
+        <f>IF(Компоненты!U164&lt;&gt;"",Компоненты!U164,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="2:21">
       <c r="B165" t="str">
         <f>IF(Компоненты!B165&lt;&gt;"",Компоненты!B165,"")</f>
         <v/>
@@ -20611,8 +21643,12 @@
         <f>IF(Компоненты!T165&lt;&gt;"",Компоненты!T165,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="166" spans="2:20">
+      <c r="U165" t="str">
+        <f>IF(Компоненты!U165&lt;&gt;"",Компоненты!U165,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="2:21">
       <c r="B166" t="str">
         <f>IF(Компоненты!B166&lt;&gt;"",Компоненты!B166,"")</f>
         <v/>
@@ -20689,8 +21725,12 @@
         <f>IF(Компоненты!T166&lt;&gt;"",Компоненты!T166,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="167" spans="2:20">
+      <c r="U166" t="str">
+        <f>IF(Компоненты!U166&lt;&gt;"",Компоненты!U166,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="2:21">
       <c r="B167" t="str">
         <f>IF(Компоненты!B167&lt;&gt;"",Компоненты!B167,"")</f>
         <v/>
@@ -20767,8 +21807,12 @@
         <f>IF(Компоненты!T167&lt;&gt;"",Компоненты!T167,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="168" spans="2:20">
+      <c r="U167" t="str">
+        <f>IF(Компоненты!U167&lt;&gt;"",Компоненты!U167,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="2:21">
       <c r="B168" t="str">
         <f>IF(Компоненты!B168&lt;&gt;"",Компоненты!B168,"")</f>
         <v/>
@@ -20845,8 +21889,12 @@
         <f>IF(Компоненты!T168&lt;&gt;"",Компоненты!T168,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="169" spans="2:20">
+      <c r="U168" t="str">
+        <f>IF(Компоненты!U168&lt;&gt;"",Компоненты!U168,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="2:21">
       <c r="B169" t="str">
         <f>IF(Компоненты!B169&lt;&gt;"",Компоненты!B169,"")</f>
         <v/>
@@ -20923,8 +21971,12 @@
         <f>IF(Компоненты!T169&lt;&gt;"",Компоненты!T169,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="170" spans="2:20">
+      <c r="U169" t="str">
+        <f>IF(Компоненты!U169&lt;&gt;"",Компоненты!U169,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="2:21">
       <c r="B170" t="str">
         <f>IF(Компоненты!B170&lt;&gt;"",Компоненты!B170,"")</f>
         <v/>
@@ -21001,8 +22053,12 @@
         <f>IF(Компоненты!T170&lt;&gt;"",Компоненты!T170,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="171" spans="2:20">
+      <c r="U170" t="str">
+        <f>IF(Компоненты!U170&lt;&gt;"",Компоненты!U170,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="2:21">
       <c r="B171" t="str">
         <f>IF(Компоненты!B171&lt;&gt;"",Компоненты!B171,"")</f>
         <v/>
@@ -21079,8 +22135,12 @@
         <f>IF(Компоненты!T171&lt;&gt;"",Компоненты!T171,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="172" spans="2:20">
+      <c r="U171" t="str">
+        <f>IF(Компоненты!U171&lt;&gt;"",Компоненты!U171,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="2:21">
       <c r="B172" t="str">
         <f>IF(Компоненты!B172&lt;&gt;"",Компоненты!B172,"")</f>
         <v/>
@@ -21157,8 +22217,12 @@
         <f>IF(Компоненты!T172&lt;&gt;"",Компоненты!T172,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="173" spans="2:20">
+      <c r="U172" t="str">
+        <f>IF(Компоненты!U172&lt;&gt;"",Компоненты!U172,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="2:21">
       <c r="B173" t="str">
         <f>IF(Компоненты!B173&lt;&gt;"",Компоненты!B173,"")</f>
         <v/>
@@ -21235,8 +22299,12 @@
         <f>IF(Компоненты!T173&lt;&gt;"",Компоненты!T173,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="174" spans="2:20">
+      <c r="U173" t="str">
+        <f>IF(Компоненты!U173&lt;&gt;"",Компоненты!U173,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="2:21">
       <c r="B174" t="str">
         <f>IF(Компоненты!B174&lt;&gt;"",Компоненты!B174,"")</f>
         <v/>
@@ -21313,8 +22381,12 @@
         <f>IF(Компоненты!T174&lt;&gt;"",Компоненты!T174,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="175" spans="2:20">
+      <c r="U174" t="str">
+        <f>IF(Компоненты!U174&lt;&gt;"",Компоненты!U174,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="2:21">
       <c r="B175" t="str">
         <f>IF(Компоненты!B175&lt;&gt;"",Компоненты!B175,"")</f>
         <v/>
@@ -21391,8 +22463,12 @@
         <f>IF(Компоненты!T175&lt;&gt;"",Компоненты!T175,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="176" spans="2:20">
+      <c r="U175" t="str">
+        <f>IF(Компоненты!U175&lt;&gt;"",Компоненты!U175,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="2:21">
       <c r="B176" t="str">
         <f>IF(Компоненты!B176&lt;&gt;"",Компоненты!B176,"")</f>
         <v/>
@@ -21469,8 +22545,12 @@
         <f>IF(Компоненты!T176&lt;&gt;"",Компоненты!T176,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="177" spans="2:20">
+      <c r="U176" t="str">
+        <f>IF(Компоненты!U176&lt;&gt;"",Компоненты!U176,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="2:21">
       <c r="B177" t="str">
         <f>IF(Компоненты!B177&lt;&gt;"",Компоненты!B177,"")</f>
         <v/>
@@ -21547,8 +22627,12 @@
         <f>IF(Компоненты!T177&lt;&gt;"",Компоненты!T177,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="178" spans="2:20">
+      <c r="U177" t="str">
+        <f>IF(Компоненты!U177&lt;&gt;"",Компоненты!U177,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="2:21">
       <c r="B178" t="str">
         <f>IF(Компоненты!B178&lt;&gt;"",Компоненты!B178,"")</f>
         <v/>
@@ -21625,8 +22709,12 @@
         <f>IF(Компоненты!T178&lt;&gt;"",Компоненты!T178,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="179" spans="2:20">
+      <c r="U178" t="str">
+        <f>IF(Компоненты!U178&lt;&gt;"",Компоненты!U178,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="2:21">
       <c r="B179" t="str">
         <f>IF(Компоненты!B179&lt;&gt;"",Компоненты!B179,"")</f>
         <v/>
@@ -21703,8 +22791,12 @@
         <f>IF(Компоненты!T179&lt;&gt;"",Компоненты!T179,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="180" spans="2:20">
+      <c r="U179" t="str">
+        <f>IF(Компоненты!U179&lt;&gt;"",Компоненты!U179,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="2:21">
       <c r="B180" t="str">
         <f>IF(Компоненты!B180&lt;&gt;"",Компоненты!B180,"")</f>
         <v/>
@@ -21781,8 +22873,12 @@
         <f>IF(Компоненты!T180&lt;&gt;"",Компоненты!T180,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="181" spans="2:20">
+      <c r="U180" t="str">
+        <f>IF(Компоненты!U180&lt;&gt;"",Компоненты!U180,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="2:21">
       <c r="B181" t="str">
         <f>IF(Компоненты!B181&lt;&gt;"",Компоненты!B181,"")</f>
         <v/>
@@ -21859,8 +22955,12 @@
         <f>IF(Компоненты!T181&lt;&gt;"",Компоненты!T181,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="182" spans="2:20">
+      <c r="U181" t="str">
+        <f>IF(Компоненты!U181&lt;&gt;"",Компоненты!U181,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="2:21">
       <c r="B182" t="str">
         <f>IF(Компоненты!B182&lt;&gt;"",Компоненты!B182,"")</f>
         <v/>
@@ -21937,8 +23037,12 @@
         <f>IF(Компоненты!T182&lt;&gt;"",Компоненты!T182,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="183" spans="2:20">
+      <c r="U182" t="str">
+        <f>IF(Компоненты!U182&lt;&gt;"",Компоненты!U182,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="2:21">
       <c r="B183" t="str">
         <f>IF(Компоненты!B183&lt;&gt;"",Компоненты!B183,"")</f>
         <v/>
@@ -22015,8 +23119,12 @@
         <f>IF(Компоненты!T183&lt;&gt;"",Компоненты!T183,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="184" spans="2:20">
+      <c r="U183" t="str">
+        <f>IF(Компоненты!U183&lt;&gt;"",Компоненты!U183,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="2:21">
       <c r="B184" t="str">
         <f>IF(Компоненты!B184&lt;&gt;"",Компоненты!B184,"")</f>
         <v/>
@@ -22093,8 +23201,12 @@
         <f>IF(Компоненты!T184&lt;&gt;"",Компоненты!T184,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="185" spans="2:20">
+      <c r="U184" t="str">
+        <f>IF(Компоненты!U184&lt;&gt;"",Компоненты!U184,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="2:21">
       <c r="B185" t="str">
         <f>IF(Компоненты!B185&lt;&gt;"",Компоненты!B185,"")</f>
         <v/>
@@ -22171,8 +23283,12 @@
         <f>IF(Компоненты!T185&lt;&gt;"",Компоненты!T185,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="186" spans="2:20">
+      <c r="U185" t="str">
+        <f>IF(Компоненты!U185&lt;&gt;"",Компоненты!U185,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="2:21">
       <c r="B186" t="str">
         <f>IF(Компоненты!B186&lt;&gt;"",Компоненты!B186,"")</f>
         <v/>
@@ -22249,8 +23365,12 @@
         <f>IF(Компоненты!T186&lt;&gt;"",Компоненты!T186,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="187" spans="2:20">
+      <c r="U186" t="str">
+        <f>IF(Компоненты!U186&lt;&gt;"",Компоненты!U186,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="2:21">
       <c r="B187" t="str">
         <f>IF(Компоненты!B187&lt;&gt;"",Компоненты!B187,"")</f>
         <v/>
@@ -22327,8 +23447,12 @@
         <f>IF(Компоненты!T187&lt;&gt;"",Компоненты!T187,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="188" spans="2:20">
+      <c r="U187" t="str">
+        <f>IF(Компоненты!U187&lt;&gt;"",Компоненты!U187,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="2:21">
       <c r="B188" t="str">
         <f>IF(Компоненты!B188&lt;&gt;"",Компоненты!B188,"")</f>
         <v/>
@@ -22405,8 +23529,12 @@
         <f>IF(Компоненты!T188&lt;&gt;"",Компоненты!T188,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="189" spans="2:20">
+      <c r="U188" t="str">
+        <f>IF(Компоненты!U188&lt;&gt;"",Компоненты!U188,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="2:21">
       <c r="B189" t="str">
         <f>IF(Компоненты!B189&lt;&gt;"",Компоненты!B189,"")</f>
         <v/>
@@ -22483,8 +23611,12 @@
         <f>IF(Компоненты!T189&lt;&gt;"",Компоненты!T189,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="190" spans="2:20">
+      <c r="U189" t="str">
+        <f>IF(Компоненты!U189&lt;&gt;"",Компоненты!U189,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="2:21">
       <c r="B190" t="str">
         <f>IF(Компоненты!B190&lt;&gt;"",Компоненты!B190,"")</f>
         <v/>
@@ -22561,8 +23693,12 @@
         <f>IF(Компоненты!T190&lt;&gt;"",Компоненты!T190,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="191" spans="2:20">
+      <c r="U190" t="str">
+        <f>IF(Компоненты!U190&lt;&gt;"",Компоненты!U190,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="2:21">
       <c r="B191" t="str">
         <f>IF(Компоненты!B191&lt;&gt;"",Компоненты!B191,"")</f>
         <v/>
@@ -22639,8 +23775,12 @@
         <f>IF(Компоненты!T191&lt;&gt;"",Компоненты!T191,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="192" spans="2:20">
+      <c r="U191" t="str">
+        <f>IF(Компоненты!U191&lt;&gt;"",Компоненты!U191,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="2:21">
       <c r="B192" t="str">
         <f>IF(Компоненты!B192&lt;&gt;"",Компоненты!B192,"")</f>
         <v/>
@@ -22717,8 +23857,12 @@
         <f>IF(Компоненты!T192&lt;&gt;"",Компоненты!T192,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="193" spans="2:20">
+      <c r="U192" t="str">
+        <f>IF(Компоненты!U192&lt;&gt;"",Компоненты!U192,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="2:21">
       <c r="B193" t="str">
         <f>IF(Компоненты!B193&lt;&gt;"",Компоненты!B193,"")</f>
         <v/>
@@ -22795,8 +23939,12 @@
         <f>IF(Компоненты!T193&lt;&gt;"",Компоненты!T193,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="194" spans="2:20">
+      <c r="U193" t="str">
+        <f>IF(Компоненты!U193&lt;&gt;"",Компоненты!U193,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="2:21">
       <c r="B194" t="str">
         <f>IF(Компоненты!B194&lt;&gt;"",Компоненты!B194,"")</f>
         <v/>
@@ -22873,8 +24021,12 @@
         <f>IF(Компоненты!T194&lt;&gt;"",Компоненты!T194,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="195" spans="2:20">
+      <c r="U194" t="str">
+        <f>IF(Компоненты!U194&lt;&gt;"",Компоненты!U194,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="2:21">
       <c r="B195" t="str">
         <f>IF(Компоненты!B195&lt;&gt;"",Компоненты!B195,"")</f>
         <v/>
@@ -22951,8 +24103,12 @@
         <f>IF(Компоненты!T195&lt;&gt;"",Компоненты!T195,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="196" spans="2:20">
+      <c r="U195" t="str">
+        <f>IF(Компоненты!U195&lt;&gt;"",Компоненты!U195,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="2:21">
       <c r="B196" t="str">
         <f>IF(Компоненты!B196&lt;&gt;"",Компоненты!B196,"")</f>
         <v/>
@@ -23029,8 +24185,12 @@
         <f>IF(Компоненты!T196&lt;&gt;"",Компоненты!T196,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="197" spans="2:20">
+      <c r="U196" t="str">
+        <f>IF(Компоненты!U196&lt;&gt;"",Компоненты!U196,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="2:21">
       <c r="B197" t="str">
         <f>IF(Компоненты!B197&lt;&gt;"",Компоненты!B197,"")</f>
         <v/>
@@ -23107,8 +24267,12 @@
         <f>IF(Компоненты!T197&lt;&gt;"",Компоненты!T197,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="198" spans="2:20">
+      <c r="U197" t="str">
+        <f>IF(Компоненты!U197&lt;&gt;"",Компоненты!U197,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="2:21">
       <c r="B198" t="str">
         <f>IF(Компоненты!B198&lt;&gt;"",Компоненты!B198,"")</f>
         <v/>
@@ -23185,8 +24349,12 @@
         <f>IF(Компоненты!T198&lt;&gt;"",Компоненты!T198,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="199" spans="2:20">
+      <c r="U198" t="str">
+        <f>IF(Компоненты!U198&lt;&gt;"",Компоненты!U198,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="2:21">
       <c r="B199" t="str">
         <f>IF(Компоненты!B199&lt;&gt;"",Компоненты!B199,"")</f>
         <v/>
@@ -23263,8 +24431,12 @@
         <f>IF(Компоненты!T199&lt;&gt;"",Компоненты!T199,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="200" spans="2:20">
+      <c r="U199" t="str">
+        <f>IF(Компоненты!U199&lt;&gt;"",Компоненты!U199,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="2:21">
       <c r="B200" t="str">
         <f>IF(Компоненты!B200&lt;&gt;"",Компоненты!B200,"")</f>
         <v/>
@@ -23339,6 +24511,10 @@
       </c>
       <c r="T200" t="str">
         <f>IF(Компоненты!T200&lt;&gt;"",Компоненты!T200,"")</f>
+        <v/>
+      </c>
+      <c r="U200" t="str">
+        <f>IF(Компоненты!U200&lt;&gt;"",Компоненты!U200,"")</f>
         <v/>
       </c>
     </row>

--- a/db/Base.xlsx
+++ b/db/Base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000" activeTab="3"/>
+    <workbookView windowWidth="27948" windowHeight="12240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры_компонентов" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="440">
   <si>
     <t>На этом листе собраны возможные значения параметров, описывающих типы компонентов nanoCAD BIM Вентиляция</t>
   </si>
@@ -1372,8 +1372,7 @@
     <t>68ed8e0f2c1b72c5e186f9e6388446f6</t>
   </si>
   <si>
-    <t>Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров.
-В тройнике также параметризуются вылеты (прямые участки) для отвода и для магистрали. В данном тройнике параметризованы вылеты (прямые участки) магистрали относительно отвода и отвода относительно магистрали.</t>
+    <t>Параметризованы вылеты (прямые участки) для отвода и для магистрали</t>
   </si>
   <si>
     <t>(100x100)x(100x100)...(200x200)x(200x200), (800x200)x(100x100)...(800x200)x(200x200)</t>
@@ -1388,9 +1387,8 @@
     <t>90°, параметрический</t>
   </si>
   <si>
-    <t>Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров. 
-В данном отводе в dwg-графике задан радиус отвода 1.5 ширины воздуховода (если смотреть на отвод как поворот в горизонтальной плоскости).
-В списке на усовершенствование (добавление угла как параметра, добавление радиуса отвода как параметра).</t>
+    <t>Радиус отвода жестко задан как 1.5 ширины воздуховода (если смотреть на отвод как поворот в горизонтальной плоскости).
+В списке на совершенствование (добавление угла как параметра, добавление радиуса отвода как параметра).</t>
   </si>
   <si>
     <t>100x100, 200x100, 200x200, 800x200</t>
@@ -1399,18 +1397,14 @@
     <t>d6a586469ec27826261adc5ab974a267</t>
   </si>
   <si>
-    <t xml:space="preserve">Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров. </t>
-  </si>
-  <si>
     <t>ec6115dee1cbcb52f74e7e014846afe1</t>
   </si>
   <si>
     <t>концентрический прямоугольного сечения</t>
   </si>
   <si>
-    <t>Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров. 
-В данном переходе также параметризуется длина патрубков (прямых участков) и длина непосредственно перехода. По умолчанию длина всего перехода равна полутора средним эквивалентным диаметрам перехода; эквивалентый диаметр равен 4xA/P, где A - площадь сечения, P - периметр сечения. Если параметр "Заданная длина перехода" не равен 0, то длина перехода примет указанное значение.
-В списке на усовершенствование (добавление сдвига как параметра).</t>
+    <t>Параметризована длина патрубков и длина всего перехода. По умолчанию длина всего перехода равна полутора средним эквивалентным диаметрам перехода; эквивалентый диаметр равен 4xA/P, где A - площадь сечения, P - периметр сечения. Если параметр "Заданная длина перехода" задан, то длина перехода примет указанное значение.
+В списке на совершенствование (добавление сдвига как параметра).</t>
   </si>
   <si>
     <t>7360173f5b2cff8e03e6e3cdf185a9ff</t>
@@ -1422,15 +1416,13 @@
     <t>1197af013018aca6733b9b7e25c234dc</t>
   </si>
   <si>
-    <t>Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров.
-В тройнике также параметризуются вылеты (прямые участки) для отвода и для магистрали. В данной крестовине параметризованы вылеты (прямые участки) магистрали относительно отводов и вылеты отводов относительно магистрали.</t>
+    <t>Параметризованы вылеты (прямые участки) для отводов и для магистрали</t>
   </si>
   <si>
     <t>3a997c454ee9f6677b9ed2835361b6ec</t>
   </si>
   <si>
-    <t>Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров.
-В тройнике также параметризуются вылеты (прямые участки) для отвода и для магистрали. В данной утке параметризованы сечения коннекторов, а так же длина утки и перепад высот между коннекторами. Горизонтальное смещение не регулируется,в списке на модернизацию.</t>
+    <t>Параметризованы сечения коннекторов, длина утки и перепад высот. В списке на совершенствование (горизонтальное смещение утки).</t>
   </si>
   <si>
     <t>100x100-100x100, 100x100-200x100, 200x200-800x200</t>
@@ -2129,7 +2121,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2156,9 +2148,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2836,7 +2825,7 @@
   <sheetData>
     <row r="1" ht="15.15"/>
     <row r="2" customFormat="1" ht="88" customHeight="1" spans="2:2">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2850,68 +2839,68 @@
       <c r="B5" s="5"/>
     </row>
     <row r="6" ht="15.15"/>
-    <row r="7" s="12" customFormat="1" spans="2:11">
-      <c r="B7" s="18" t="s">
+    <row r="7" s="11" customFormat="1" spans="2:11">
+      <c r="B7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
@@ -2920,91 +2909,91 @@
       <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" ht="15.15" spans="2:11">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>31</v>
       </c>
       <c r="D16" t="s">
@@ -3015,18 +3004,18 @@
       </c>
     </row>
     <row r="17" spans="4:5">
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="4:5">
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3047,18 +3036,18 @@
       </c>
     </row>
     <row r="21" spans="4:5">
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="4:5">
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3066,7 +3055,7 @@
       <c r="D23" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3074,7 +3063,7 @@
       <c r="D24" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3082,7 +3071,7 @@
       <c r="D25" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3090,7 +3079,7 @@
       <c r="D26" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3098,7 +3087,7 @@
       <c r="D27" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3106,7 +3095,7 @@
       <c r="D28" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="20" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3159,7 +3148,7 @@
       </c>
     </row>
     <row r="35" spans="4:5">
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="20" t="s">
         <v>46</v>
       </c>
       <c r="E35" t="s">
@@ -3167,10 +3156,10 @@
       </c>
     </row>
     <row r="41" spans="4:5">
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="20">
         <f>SUBTOTAL(103,Таблица_Привязка_категорий[Категория_сайта])</f>
         <v>28</v>
       </c>
@@ -3209,13 +3198,13 @@
   <sheetData>
     <row r="1" ht="15.15"/>
     <row r="2" ht="29.55" spans="2:2">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" ht="15.15"/>
     <row r="4" spans="2:3">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C4" t="s">
@@ -3223,39 +3212,39 @@
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3293,7 +3282,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3310,27 +3299,27 @@
       <c r="E4" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="2:10">
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>64</v>
       </c>
       <c r="D5" t="s">
@@ -3342,11 +3331,11 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="15" t="str">
+      <c r="G5" s="14" t="str">
         <f>IF(ISTEXT(F5),VLOOKUP(F5,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Арматура воздуховодов</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>17</v>
       </c>
       <c r="I5" t="s">
@@ -3357,7 +3346,7 @@
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="2:10">
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>2</v>
       </c>
       <c r="C6" t="s">
@@ -3372,11 +3361,11 @@
       <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="15" t="str">
+      <c r="G6" s="14" t="str">
         <f>IF(ISTEXT(F6),VLOOKUP(F6,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Оборудование</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I6" t="s">
@@ -3402,11 +3391,11 @@
       <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="15" t="str">
+      <c r="G7" s="14" t="str">
         <f>IF(ISTEXT(F7),VLOOKUP(F7,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Не применимо</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>9</v>
       </c>
       <c r="I7" t="s">
@@ -3417,7 +3406,7 @@
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="2:10">
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -3432,11 +3421,11 @@
       <c r="F8" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="15" t="str">
+      <c r="G8" s="14" t="str">
         <f>IF(ISTEXT(F8),VLOOKUP(F8,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Элементы воздуховодов</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>9</v>
       </c>
       <c r="I8" t="s">
@@ -3447,7 +3436,7 @@
       </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="2:10">
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -3462,11 +3451,11 @@
       <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="15" t="str">
+      <c r="G9" s="14" t="str">
         <f>IF(ISTEXT(F9),VLOOKUP(F9,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Не применимо</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I9" t="s">
@@ -3492,11 +3481,11 @@
       <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="15" t="str">
+      <c r="G10" s="14" t="str">
         <f>IF(ISTEXT(F10),VLOOKUP(F10,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Воздухораспределители</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>17</v>
       </c>
       <c r="I10" t="s">
@@ -3507,7 +3496,7 @@
       </c>
     </row>
     <row r="11" ht="25" customHeight="1" spans="2:10">
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -3522,11 +3511,11 @@
       <c r="F11" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="15" t="str">
+      <c r="G11" s="14" t="str">
         <f>IF(ISTEXT(F11),VLOOKUP(F11,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Оборудование</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I11" t="s">
@@ -3537,7 +3526,7 @@
       </c>
     </row>
     <row r="12" ht="25" customHeight="1" spans="2:10">
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -3552,11 +3541,11 @@
       <c r="F12" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="15" t="str">
+      <c r="G12" s="14" t="str">
         <f>IF(ISTEXT(F12),VLOOKUP(F12,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Не применимо</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="I12" t="s">
@@ -3582,11 +3571,11 @@
       <c r="F13" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="15" t="str">
+      <c r="G13" s="14" t="str">
         <f>IF(ISTEXT(F13),VLOOKUP(F13,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Оборудование</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="14" t="s">
         <v>17</v>
       </c>
       <c r="I13" t="s">
@@ -3597,7 +3586,7 @@
       </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="2:10">
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>10</v>
       </c>
       <c r="C14" t="s">
@@ -3612,11 +3601,11 @@
       <c r="F14" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="15" t="str">
+      <c r="G14" s="14" t="str">
         <f>IF(ISTEXT(F14),VLOOKUP(F14,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Аннотации</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="14" t="s">
         <v>6</v>
       </c>
       <c r="I14" t="s">
@@ -3627,7 +3616,7 @@
       </c>
     </row>
     <row r="15" ht="25" customHeight="1" spans="2:10">
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -3642,10 +3631,10 @@
       <c r="F15" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I15" t="s">
@@ -3671,10 +3660,10 @@
       <c r="F16" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I16" t="s">
@@ -3685,7 +3674,7 @@
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <v>13</v>
       </c>
       <c r="C17" t="s">
@@ -3700,10 +3689,10 @@
       <c r="F17" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="14" t="s">
         <v>17</v>
       </c>
       <c r="I17" t="s">
@@ -3714,52 +3703,52 @@
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="16"/>
-      <c r="G18" s="15" t="str">
+      <c r="B18" s="15"/>
+      <c r="G18" s="14" t="str">
         <f>IF(ISTEXT(F18),VLOOKUP(F18,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="H18" s="15"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="16"/>
-      <c r="G19" s="15" t="str">
+      <c r="B19" s="15"/>
+      <c r="G19" s="14" t="str">
         <f>IF(ISTEXT(F19),VLOOKUP(F19,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="H19" s="15"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="16"/>
-      <c r="G20" s="15" t="str">
+      <c r="B20" s="15"/>
+      <c r="G20" s="14" t="str">
         <f>IF(ISTEXT(F20),VLOOKUP(F20,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="H20" s="15"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="16"/>
+      <c r="B21" s="15"/>
       <c r="G21" t="str">
         <f>IF(ISTEXT(F21),VLOOKUP(F21,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="16"/>
+      <c r="B22" s="15"/>
       <c r="G22" t="str">
         <f>IF(ISTEXT(F22),VLOOKUP(F22,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="16"/>
+      <c r="B23" s="15"/>
       <c r="G23" t="str">
         <f>IF(ISTEXT(F23),VLOOKUP(F23,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="16"/>
+      <c r="B24" s="15"/>
       <c r="G24" t="str">
         <f>IF(ISTEXT(F24),VLOOKUP(F24,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
@@ -3796,8 +3785,8 @@
   <sheetPr/>
   <dimension ref="B4:V113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="I80" workbookViewId="0">
-      <selection activeCell="P104" sqref="P104"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="L99" sqref="L99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3811,7 +3800,8 @@
     <col min="9" max="9" width="16.1111111111111" customWidth="1"/>
     <col min="10" max="10" width="18.1666666666667" customWidth="1"/>
     <col min="11" max="11" width="17.6666666666667" customWidth="1"/>
-    <col min="12" max="13" width="13.1666666666667" customWidth="1"/>
+    <col min="12" max="12" width="81.3055555555556" customWidth="1"/>
+    <col min="13" max="13" width="13.1666666666667" customWidth="1"/>
     <col min="14" max="14" width="16.3425925925926" customWidth="1"/>
     <col min="16" max="16" width="10.8888888888889"/>
   </cols>
@@ -7849,8 +7839,7 @@
       <c r="K96" t="s">
         <v>21</v>
       </c>
-      <c r="L96"/>
-      <c r="M96" s="9" t="s">
+      <c r="M96" s="5" t="s">
         <v>418</v>
       </c>
       <c r="N96" s="4" t="s">
@@ -7982,9 +7971,7 @@
       <c r="K99" t="s">
         <v>21</v>
       </c>
-      <c r="L99" s="5" t="s">
-        <v>430</v>
-      </c>
+      <c r="L99" s="5"/>
       <c r="N99" s="4" t="s">
         <v>302</v>
       </c>
@@ -8006,7 +7993,7 @@
         <v>1</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F100" t="s">
         <v>22</v>
@@ -8015,7 +8002,7 @@
         <v>42</v>
       </c>
       <c r="H100" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I100" t="s">
         <v>19</v>
@@ -8027,7 +8014,7 @@
         <v>21</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N100" s="4" t="s">
         <v>302</v>
@@ -8050,7 +8037,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F101" t="s">
         <v>22</v>
@@ -8071,7 +8058,7 @@
         <v>21</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N101" s="4" t="s">
         <v>302</v>
@@ -8092,7 +8079,7 @@
         <v>1</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F102" t="s">
         <v>22</v>
@@ -8109,9 +8096,7 @@
       <c r="K102" t="s">
         <v>21</v>
       </c>
-      <c r="L102" s="5" t="s">
-        <v>430</v>
-      </c>
+      <c r="L102" s="5"/>
       <c r="N102" s="4" t="s">
         <v>302</v>
       </c>
@@ -8133,7 +8118,7 @@
         <v>1</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F103" t="s">
         <v>22</v>
@@ -8154,7 +8139,7 @@
         <v>21</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N103" s="4" t="s">
         <v>302</v>
@@ -8177,7 +8162,7 @@
         <v>1</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F104" t="s">
         <v>22</v>
@@ -8198,13 +8183,13 @@
         <v>21</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N104" s="4" t="s">
         <v>302</v>
       </c>
       <c r="O104" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P104" s="6" t="s">
         <v>420</v>
@@ -8215,82 +8200,82 @@
       <c r="L105" s="5"/>
       <c r="N105" s="4"/>
       <c r="O105" s="5"/>
-      <c r="P105" s="10"/>
+      <c r="P105" s="9"/>
     </row>
     <row r="106" ht="15" customHeight="1" spans="5:16">
       <c r="E106" s="2"/>
       <c r="L106" s="5"/>
       <c r="N106" s="4"/>
       <c r="O106" s="5"/>
-      <c r="P106" s="10"/>
+      <c r="P106" s="9"/>
     </row>
     <row r="107" ht="15" customHeight="1" spans="5:16">
       <c r="E107" s="2"/>
       <c r="L107" s="5"/>
       <c r="N107" s="4"/>
       <c r="O107" s="5"/>
-      <c r="P107" s="10"/>
+      <c r="P107" s="9"/>
     </row>
     <row r="108" ht="15" customHeight="1" spans="5:16">
       <c r="E108" s="2"/>
       <c r="L108" s="5"/>
       <c r="N108" s="4"/>
       <c r="O108" s="5"/>
-      <c r="P108" s="10"/>
+      <c r="P108" s="9"/>
     </row>
     <row r="109" ht="15" customHeight="1" spans="5:16">
       <c r="E109" s="2"/>
       <c r="L109" s="5"/>
       <c r="N109" s="4"/>
       <c r="O109" s="5"/>
-      <c r="P109" s="10"/>
+      <c r="P109" s="9"/>
     </row>
     <row r="110" ht="15" customHeight="1" spans="5:16">
       <c r="E110" s="2"/>
       <c r="L110" s="5"/>
       <c r="N110" s="4"/>
       <c r="O110" s="5"/>
-      <c r="P110" s="10"/>
+      <c r="P110" s="9"/>
     </row>
     <row r="111" ht="15" customHeight="1" spans="5:16">
       <c r="E111" s="2"/>
       <c r="L111" s="5"/>
       <c r="N111" s="4"/>
       <c r="O111" s="5"/>
-      <c r="P111" s="10"/>
+      <c r="P111" s="9"/>
     </row>
     <row r="112" ht="15" customHeight="1" spans="5:16">
       <c r="E112" s="2"/>
       <c r="L112" s="5"/>
       <c r="N112" s="4"/>
       <c r="O112" s="5"/>
-      <c r="P112" s="10"/>
+      <c r="P112" s="9"/>
     </row>
     <row r="113" ht="15" customHeight="1" spans="5:16">
       <c r="E113" s="2"/>
       <c r="N113" s="4"/>
       <c r="O113" s="5"/>
-      <c r="P113" s="10"/>
+      <c r="P113" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J96;J105;J106;J107;J108;J109;J110;J111;J112;J113;J5:J88;J97:J104">
-      <formula1>Производитель</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K96;K105;K106;K107;K108;K109;K110;K111;K112;K113;K5:K83;K97:K104">
-      <formula1>Тип_графики</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F105;F106;F107;F108;F109;F110;F111;F112;F113;F5:F86;F97:F104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F86;F97:F113">
       <formula1>Категория_сайта</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I105;I106;I107;I108;I109;I110;I111;I112;I113;I5:I83;I97:I104">
-      <formula1>Форма</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q105:V105;Q106:V106;Q107:V107;Q108:V108;Q109:V109;Q110:V110;Q111:V111;Q112:V112;Q113:V113;Q5:V93;Q100:V104;Q97:V99">
-      <formula1>"ДА"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G78">
       <formula1>Категория_техническая</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I83;I97:I113">
+      <formula1>Форма</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J88;J96:J113">
+      <formula1>Производитель</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K83;K96:K113">
+      <formula1>Тип_графики</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:V93;Q97:V113">
+      <formula1>"ДА"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16024,8 +16009,7 @@
       </c>
       <c r="L97" t="str">
         <f>IF(Компоненты!L97&lt;&gt;"",Компоненты!L97,"")</f>
-        <v>Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров.
-В тройнике также параметризуются вылеты (прямые участки) для отвода и для магистрали. В данном тройнике параметризованы вылеты (прямые участки) магистрали относительно отвода и отвода относительно магистрали.</v>
+        <v>Параметризованы вылеты (прямые участки) для отвода и для магистрали</v>
       </c>
       <c r="M97" t="str">
         <f>IF(Компоненты!M97&lt;&gt;"",Компоненты!M97,"")</f>
@@ -16107,9 +16091,8 @@
       </c>
       <c r="L98" t="str">
         <f>IF(Компоненты!L98&lt;&gt;"",Компоненты!L98,"")</f>
-        <v>Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров. 
-В данном отводе в dwg-графике задан радиус отвода 1.5 ширины воздуховода (если смотреть на отвод как поворот в горизонтальной плоскости).
-В списке на усовершенствование (добавление угла как параметра, добавление радиуса отвода как параметра).</v>
+        <v>Радиус отвода жестко задан как 1.5 ширины воздуховода (если смотреть на отвод как поворот в горизонтальной плоскости).
+В списке на совершенствование (добавление угла как параметра, добавление радиуса отвода как параметра).</v>
       </c>
       <c r="M98" t="str">
         <f>IF(Компоненты!M98&lt;&gt;"",Компоненты!M98,"")</f>
@@ -16191,7 +16174,7 @@
       </c>
       <c r="L99" t="str">
         <f>IF(Компоненты!L99&lt;&gt;"",Компоненты!L99,"")</f>
-        <v>Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров. </v>
+        <v/>
       </c>
       <c r="M99" t="str">
         <f>IF(Компоненты!M99&lt;&gt;"",Компоненты!M99,"")</f>
@@ -16273,9 +16256,8 @@
       </c>
       <c r="L100" t="str">
         <f>IF(Компоненты!L100&lt;&gt;"",Компоненты!L100,"")</f>
-        <v>Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров. 
-В данном переходе также параметризуется длина патрубков (прямых участков) и длина непосредственно перехода. По умолчанию длина всего перехода равна полутора средним эквивалентным диаметрам перехода; эквивалентый диаметр равен 4xA/P, где A - площадь сечения, P - периметр сечения. Если параметр "Заданная длина перехода" не равен 0, то длина перехода примет указанное значение.
-В списке на усовершенствование (добавление сдвига как параметра).</v>
+        <v>Параметризована длина патрубков и длина всего перехода. По умолчанию длина всего перехода равна полутора средним эквивалентным диаметрам перехода; эквивалентый диаметр равен 4xA/P, где A - площадь сечения, P - периметр сечения. Если параметр "Заданная длина перехода" задан, то длина перехода примет указанное значение.
+В списке на совершенствование (добавление сдвига как параметра).</v>
       </c>
       <c r="M100" t="str">
         <f>IF(Компоненты!M100&lt;&gt;"",Компоненты!M100,"")</f>
@@ -16357,9 +16339,8 @@
       </c>
       <c r="L101" t="str">
         <f>IF(Компоненты!L101&lt;&gt;"",Компоненты!L101,"")</f>
-        <v>Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров. 
-В данном переходе также параметризуется длина патрубков (прямых участков) и длина непосредственно перехода. По умолчанию длина всего перехода равна полутора средним эквивалентным диаметрам перехода; эквивалентый диаметр равен 4xA/P, где A - площадь сечения, P - периметр сечения. Если параметр "Заданная длина перехода" не равен 0, то длина перехода примет указанное значение.
-В списке на усовершенствование (добавление сдвига как параметра).</v>
+        <v>Параметризована длина патрубков и длина всего перехода. По умолчанию длина всего перехода равна полутора средним эквивалентным диаметрам перехода; эквивалентый диаметр равен 4xA/P, где A - площадь сечения, P - периметр сечения. Если параметр "Заданная длина перехода" задан, то длина перехода примет указанное значение.
+В списке на совершенствование (добавление сдвига как параметра).</v>
       </c>
       <c r="M101" t="str">
         <f>IF(Компоненты!M101&lt;&gt;"",Компоненты!M101,"")</f>
@@ -16441,7 +16422,7 @@
       </c>
       <c r="L102" t="str">
         <f>IF(Компоненты!L102&lt;&gt;"",Компоненты!L102,"")</f>
-        <v>Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров. </v>
+        <v/>
       </c>
       <c r="M102" t="str">
         <f>IF(Компоненты!M102&lt;&gt;"",Компоненты!M102,"")</f>
@@ -16523,8 +16504,7 @@
       </c>
       <c r="L103" t="str">
         <f>IF(Компоненты!L103&lt;&gt;"",Компоненты!L103,"")</f>
-        <v>Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров.
-В тройнике также параметризуются вылеты (прямые участки) для отвода и для магистрали. В данной крестовине параметризованы вылеты (прямые участки) магистрали относительно отводов и вылеты отводов относительно магистрали.</v>
+        <v>Параметризованы вылеты (прямые участки) для отводов и для магистрали</v>
       </c>
       <c r="M103" t="str">
         <f>IF(Компоненты!M103&lt;&gt;"",Компоненты!M103,"")</f>
@@ -16606,8 +16586,7 @@
       </c>
       <c r="L104" t="str">
         <f>IF(Компоненты!L104&lt;&gt;"",Компоненты!L104,"")</f>
-        <v>Параметрические компоненты дают возможность создать любые новые типоразмеры компонента в несколько кликов - простой заменой параметров.
-В тройнике также параметризуются вылеты (прямые участки) для отвода и для магистрали. В данной утке параметризованы сечения коннекторов, а так же длина утки и перепад высот между коннекторами. Горизонтальное смещение не регулируется,в списке на модернизацию.</v>
+        <v>Параметризованы сечения коннекторов, длина утки и перепад высот. В списке на совершенствование (горизонтальное смещение утки).</v>
       </c>
       <c r="M104" t="str">
         <f>IF(Компоненты!M104&lt;&gt;"",Компоненты!M104,"")</f>

--- a/db/Base.xlsx
+++ b/db/Base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12240" activeTab="3"/>
+    <workbookView windowWidth="22188" windowHeight="9000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры_компонентов" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="445">
   <si>
     <t>На этом листе собраны возможные значения параметров, описывающих типы компонентов nanoCAD BIM Вентиляция</t>
   </si>
@@ -129,7 +129,7 @@
     <t>Арктос</t>
   </si>
   <si>
-    <t>Нанософт разработка</t>
+    <t>Базовое оборудование</t>
   </si>
   <si>
     <t>Оборудование</t>
@@ -325,6 +325,9 @@
     <t>Выноска размер воздуховода.zip</t>
   </si>
   <si>
+    <t>Нанософт разработка</t>
+  </si>
+  <si>
     <t>• воздуховод круглый
 • крестовина круглая
 • отвод круглый
@@ -1426,6 +1429,18 @@
   </si>
   <si>
     <t>100x100-100x100, 100x100-200x100, 200x200-800x200</t>
+  </si>
+  <si>
+    <t>7f2479b8a4cf83ab15392a7ed85678ed</t>
+  </si>
+  <si>
+    <t>Параметризованы диаметр и длина клапана. Параметры для площадки для ручки, для длины ручки могут быть выведены в параметры компонента при необходимости. В списке на совершенствование (взять реальные габариты, параметризовать ручку, внести массу приблизительно)</t>
+  </si>
+  <si>
+    <t>100, 125, 160, 200, 250, 315, 355, 400</t>
+  </si>
+  <si>
+    <t>2024.08.21</t>
   </si>
 </sst>
 </file>
@@ -2121,7 +2136,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2144,6 +2159,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2180,9 +2201,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
@@ -2810,8 +2828,8 @@
   <sheetPr/>
   <dimension ref="B1:K41"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2825,7 +2843,7 @@
   <sheetData>
     <row r="1" ht="15.15"/>
     <row r="2" customFormat="1" ht="88" customHeight="1" spans="2:2">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2839,68 +2857,68 @@
       <c r="B5" s="5"/>
     </row>
     <row r="6" ht="15.15"/>
-    <row r="7" s="11" customFormat="1" spans="2:11">
-      <c r="B7" s="17" t="s">
+    <row r="7" s="13" customFormat="1" spans="2:11">
+      <c r="B7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
@@ -2909,91 +2927,91 @@
       <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" ht="15.15" spans="2:11">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="22" t="s">
+      <c r="K11" s="23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="20" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="22" t="s">
         <v>31</v>
       </c>
       <c r="D16" t="s">
@@ -3004,18 +3022,18 @@
       </c>
     </row>
     <row r="17" spans="4:5">
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="4:5">
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3036,18 +3054,18 @@
       </c>
     </row>
     <row r="21" spans="4:5">
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="4:5">
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3055,7 +3073,7 @@
       <c r="D23" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3063,7 +3081,7 @@
       <c r="D24" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3071,7 +3089,7 @@
       <c r="D25" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3079,7 +3097,7 @@
       <c r="D26" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3087,7 +3105,7 @@
       <c r="D27" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3095,7 +3113,7 @@
       <c r="D28" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3148,7 +3166,7 @@
       </c>
     </row>
     <row r="35" spans="4:5">
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E35" t="s">
@@ -3156,10 +3174,10 @@
       </c>
     </row>
     <row r="41" spans="4:5">
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E41" s="9">
         <f>SUBTOTAL(103,Таблица_Привязка_категорий[Категория_сайта])</f>
         <v>28</v>
       </c>
@@ -3198,13 +3216,13 @@
   <sheetData>
     <row r="1" ht="15.15"/>
     <row r="2" ht="29.55" spans="2:2">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" ht="15.15"/>
     <row r="4" spans="2:3">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C4" t="s">
@@ -3212,39 +3230,39 @@
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="21" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="21" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="20" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3282,7 +3300,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3299,27 +3317,27 @@
       <c r="E4" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="2:10">
-      <c r="B5" s="12">
+      <c r="B5" s="14">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="15" t="s">
         <v>64</v>
       </c>
       <c r="D5" t="s">
@@ -3331,11 +3349,11 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="14" t="str">
+      <c r="G5" s="16" t="str">
         <f>IF(ISTEXT(F5),VLOOKUP(F5,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Арматура воздуховодов</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="16" t="s">
         <v>17</v>
       </c>
       <c r="I5" t="s">
@@ -3346,7 +3364,7 @@
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="2:10">
-      <c r="B6" s="15">
+      <c r="B6" s="17">
         <v>2</v>
       </c>
       <c r="C6" t="s">
@@ -3361,11 +3379,11 @@
       <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="14" t="str">
+      <c r="G6" s="16" t="str">
         <f>IF(ISTEXT(F6),VLOOKUP(F6,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Оборудование</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="16" t="s">
         <v>21</v>
       </c>
       <c r="I6" t="s">
@@ -3376,7 +3394,7 @@
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="2:10">
-      <c r="B7" s="8">
+      <c r="B7" s="10">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -3391,11 +3409,11 @@
       <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="14" t="str">
+      <c r="G7" s="16" t="str">
         <f>IF(ISTEXT(F7),VLOOKUP(F7,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Не применимо</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="16" t="s">
         <v>9</v>
       </c>
       <c r="I7" t="s">
@@ -3406,7 +3424,7 @@
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="2:10">
-      <c r="B8" s="12">
+      <c r="B8" s="14">
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -3421,11 +3439,11 @@
       <c r="F8" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="14" t="str">
+      <c r="G8" s="16" t="str">
         <f>IF(ISTEXT(F8),VLOOKUP(F8,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Элементы воздуховодов</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="16" t="s">
         <v>9</v>
       </c>
       <c r="I8" t="s">
@@ -3436,7 +3454,7 @@
       </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="2:10">
-      <c r="B9" s="15">
+      <c r="B9" s="17">
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -3451,11 +3469,11 @@
       <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="14" t="str">
+      <c r="G9" s="16" t="str">
         <f>IF(ISTEXT(F9),VLOOKUP(F9,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Не применимо</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="16" t="s">
         <v>21</v>
       </c>
       <c r="I9" t="s">
@@ -3466,7 +3484,7 @@
       </c>
     </row>
     <row r="10" ht="25" customHeight="1" spans="2:10">
-      <c r="B10" s="8">
+      <c r="B10" s="10">
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -3481,11 +3499,11 @@
       <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="14" t="str">
+      <c r="G10" s="16" t="str">
         <f>IF(ISTEXT(F10),VLOOKUP(F10,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Воздухораспределители</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="16" t="s">
         <v>17</v>
       </c>
       <c r="I10" t="s">
@@ -3496,7 +3514,7 @@
       </c>
     </row>
     <row r="11" ht="25" customHeight="1" spans="2:10">
-      <c r="B11" s="12">
+      <c r="B11" s="14">
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -3511,11 +3529,11 @@
       <c r="F11" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="14" t="str">
+      <c r="G11" s="16" t="str">
         <f>IF(ISTEXT(F11),VLOOKUP(F11,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Оборудование</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="I11" t="s">
@@ -3526,7 +3544,7 @@
       </c>
     </row>
     <row r="12" ht="25" customHeight="1" spans="2:10">
-      <c r="B12" s="15">
+      <c r="B12" s="17">
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -3541,11 +3559,11 @@
       <c r="F12" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="14" t="str">
+      <c r="G12" s="16" t="str">
         <f>IF(ISTEXT(F12),VLOOKUP(F12,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Не применимо</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="16" t="s">
         <v>17</v>
       </c>
       <c r="I12" t="s">
@@ -3556,7 +3574,7 @@
       </c>
     </row>
     <row r="13" ht="25" customHeight="1" spans="2:10">
-      <c r="B13" s="8">
+      <c r="B13" s="10">
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -3571,11 +3589,11 @@
       <c r="F13" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="14" t="str">
+      <c r="G13" s="16" t="str">
         <f>IF(ISTEXT(F13),VLOOKUP(F13,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Оборудование</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="16" t="s">
         <v>17</v>
       </c>
       <c r="I13" t="s">
@@ -3586,7 +3604,7 @@
       </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="2:10">
-      <c r="B14" s="12">
+      <c r="B14" s="14">
         <v>10</v>
       </c>
       <c r="C14" t="s">
@@ -3601,154 +3619,154 @@
       <c r="F14" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="14" t="str">
+      <c r="G14" s="16" t="str">
         <f>IF(ISTEXT(F14),VLOOKUP(F14,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Аннотации</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="16" t="s">
         <v>6</v>
       </c>
       <c r="I14" t="s">
         <v>6</v>
       </c>
       <c r="J14" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" ht="25" customHeight="1" spans="2:10">
-      <c r="B15" s="15">
+      <c r="B15" s="17">
         <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
         <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="16" t="s">
         <v>21</v>
       </c>
       <c r="I15" t="s">
         <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1" spans="2:10">
-      <c r="B16" s="8">
+      <c r="B16" s="10">
         <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
         <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="16" t="s">
         <v>21</v>
       </c>
       <c r="I16" t="s">
         <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="15">
+      <c r="B17" s="17">
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
         <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="16" t="s">
         <v>17</v>
       </c>
       <c r="I17" t="s">
         <v>9</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="15"/>
-      <c r="G18" s="14" t="str">
+      <c r="B18" s="17"/>
+      <c r="G18" s="16" t="str">
         <f>IF(ISTEXT(F18),VLOOKUP(F18,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="15"/>
-      <c r="G19" s="14" t="str">
+      <c r="B19" s="17"/>
+      <c r="G19" s="16" t="str">
         <f>IF(ISTEXT(F19),VLOOKUP(F19,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="H19" s="14"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="15"/>
-      <c r="G20" s="14" t="str">
+      <c r="B20" s="17"/>
+      <c r="G20" s="16" t="str">
         <f>IF(ISTEXT(F20),VLOOKUP(F20,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="H20" s="14"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="15"/>
+      <c r="B21" s="17"/>
       <c r="G21" t="str">
         <f>IF(ISTEXT(F21),VLOOKUP(F21,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="15"/>
+      <c r="B22" s="17"/>
       <c r="G22" t="str">
         <f>IF(ISTEXT(F22),VLOOKUP(F22,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="15"/>
+      <c r="B23" s="17"/>
       <c r="G23" t="str">
         <f>IF(ISTEXT(F23),VLOOKUP(F23,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="15"/>
+      <c r="B24" s="17"/>
       <c r="G24" t="str">
         <f>IF(ISTEXT(F24),VLOOKUP(F24,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
@@ -3785,8 +3803,8 @@
   <sheetPr/>
   <dimension ref="B4:V113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="L99" sqref="L99"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3808,67 +3826,67 @@
   <sheetData>
     <row r="4" spans="2:22">
       <c r="B4" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="S4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="2:22">
@@ -3876,13 +3894,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -3891,7 +3909,7 @@
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
@@ -3903,16 +3921,16 @@
         <v>21</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="2:20">
@@ -3920,13 +3938,13 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -3935,7 +3953,7 @@
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
@@ -3947,22 +3965,22 @@
         <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="T6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="2:18">
@@ -3970,13 +3988,13 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -3994,22 +4012,22 @@
         <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" spans="2:18">
@@ -4017,13 +4035,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
@@ -4041,19 +4059,19 @@
         <v>17</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" spans="2:18">
@@ -4061,13 +4079,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -4085,19 +4103,19 @@
         <v>17</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" spans="2:18">
@@ -4105,13 +4123,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
@@ -4129,19 +4147,19 @@
         <v>17</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="2:18">
@@ -4149,13 +4167,13 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
@@ -4173,19 +4191,19 @@
         <v>17</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="2:18">
@@ -4193,13 +4211,13 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
@@ -4217,19 +4235,19 @@
         <v>17</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="2:18">
@@ -4237,13 +4255,13 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
@@ -4261,19 +4279,19 @@
         <v>17</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" spans="2:18">
@@ -4281,13 +4299,13 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -4305,19 +4323,19 @@
         <v>17</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" spans="2:18">
@@ -4325,13 +4343,13 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -4349,19 +4367,19 @@
         <v>17</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" spans="2:18">
@@ -4369,13 +4387,13 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -4393,19 +4411,19 @@
         <v>17</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" spans="2:18">
@@ -4413,13 +4431,13 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -4437,19 +4455,19 @@
         <v>17</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" spans="2:18">
@@ -4457,13 +4475,13 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -4481,19 +4499,19 @@
         <v>17</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" spans="2:18">
@@ -4501,13 +4519,13 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -4516,7 +4534,7 @@
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I19" t="s">
         <v>19</v>
@@ -4528,19 +4546,19 @@
         <v>17</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" spans="2:18">
@@ -4548,13 +4566,13 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -4563,7 +4581,7 @@
         <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I20" t="s">
         <v>19</v>
@@ -4575,19 +4593,19 @@
         <v>17</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R20" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="2:18">
@@ -4595,13 +4613,13 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -4610,7 +4628,7 @@
         <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I21" t="s">
         <v>15</v>
@@ -4622,19 +4640,19 @@
         <v>17</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1" spans="2:18">
@@ -4642,13 +4660,13 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -4657,7 +4675,7 @@
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I22" t="s">
         <v>15</v>
@@ -4669,19 +4687,19 @@
         <v>17</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" spans="2:18">
@@ -4689,13 +4707,13 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -4704,7 +4722,7 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I23" t="s">
         <v>19</v>
@@ -4716,19 +4734,19 @@
         <v>17</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" spans="2:18">
@@ -4736,13 +4754,13 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -4751,7 +4769,7 @@
         <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I24" t="s">
         <v>19</v>
@@ -4763,19 +4781,19 @@
         <v>17</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1" spans="2:18">
@@ -4783,13 +4801,13 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -4798,7 +4816,7 @@
         <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I25" t="s">
         <v>19</v>
@@ -4810,19 +4828,19 @@
         <v>17</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" spans="2:18">
@@ -4830,13 +4848,13 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
@@ -4845,7 +4863,7 @@
         <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I26" t="s">
         <v>15</v>
@@ -4857,19 +4875,19 @@
         <v>17</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="2:18">
@@ -4877,13 +4895,13 @@
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -4892,7 +4910,7 @@
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I27" t="s">
         <v>19</v>
@@ -4904,19 +4922,19 @@
         <v>17</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" spans="2:17">
@@ -4924,13 +4942,13 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -4939,7 +4957,7 @@
         <v>37</v>
       </c>
       <c r="H28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I28" t="s">
         <v>15</v>
@@ -4951,16 +4969,16 @@
         <v>21</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" spans="2:17">
@@ -4968,13 +4986,13 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
@@ -4983,7 +5001,7 @@
         <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I29" t="s">
         <v>15</v>
@@ -4995,16 +5013,16 @@
         <v>17</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1" spans="2:17">
@@ -5012,13 +5030,13 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -5027,7 +5045,7 @@
         <v>37</v>
       </c>
       <c r="H30" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I30" t="s">
         <v>19</v>
@@ -5039,16 +5057,16 @@
         <v>17</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1" spans="2:17">
@@ -5056,13 +5074,13 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
@@ -5071,7 +5089,7 @@
         <v>10</v>
       </c>
       <c r="H31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I31" t="s">
         <v>15</v>
@@ -5083,16 +5101,16 @@
         <v>21</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" spans="2:17">
@@ -5100,13 +5118,13 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
@@ -5115,7 +5133,7 @@
         <v>10</v>
       </c>
       <c r="H32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I32" t="s">
         <v>19</v>
@@ -5127,16 +5145,16 @@
         <v>21</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1" spans="2:17">
@@ -5144,13 +5162,13 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
@@ -5168,16 +5186,16 @@
         <v>17</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1" spans="2:20">
@@ -5185,13 +5203,13 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>
@@ -5209,16 +5227,16 @@
         <v>17</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="T34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1" spans="2:17">
@@ -5226,13 +5244,13 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
@@ -5241,7 +5259,7 @@
         <v>10</v>
       </c>
       <c r="H35" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I35" t="s">
         <v>19</v>
@@ -5253,16 +5271,16 @@
         <v>17</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1" spans="2:17">
@@ -5270,13 +5288,13 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
@@ -5294,16 +5312,16 @@
         <v>17</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" spans="2:20">
@@ -5311,13 +5329,13 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
@@ -5335,19 +5353,19 @@
         <v>17</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="T37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1" spans="2:17">
@@ -5355,13 +5373,13 @@
         <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
@@ -5370,7 +5388,7 @@
         <v>18</v>
       </c>
       <c r="H38" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I38" t="s">
         <v>19</v>
@@ -5382,16 +5400,16 @@
         <v>17</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1" spans="2:17">
@@ -5399,13 +5417,13 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F39" t="s">
         <v>22</v>
@@ -5423,16 +5441,16 @@
         <v>17</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1" spans="2:17">
@@ -5440,13 +5458,13 @@
         <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F40" t="s">
         <v>22</v>
@@ -5464,16 +5482,16 @@
         <v>17</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q40" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" spans="2:17">
@@ -5481,13 +5499,13 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F41" t="s">
         <v>22</v>
@@ -5496,7 +5514,7 @@
         <v>41</v>
       </c>
       <c r="H41" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I41" t="s">
         <v>19</v>
@@ -5508,16 +5526,16 @@
         <v>17</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P41" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1" spans="2:20">
@@ -5525,13 +5543,13 @@
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F42" t="s">
         <v>24</v>
@@ -5540,7 +5558,7 @@
         <v>23</v>
       </c>
       <c r="H42" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I42" t="s">
         <v>19</v>
@@ -5552,16 +5570,16 @@
         <v>17</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="T42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1" spans="2:17">
@@ -5569,13 +5587,13 @@
         <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F43" t="s">
         <v>24</v>
@@ -5584,7 +5602,7 @@
         <v>23</v>
       </c>
       <c r="H43" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I43" t="s">
         <v>15</v>
@@ -5596,16 +5614,16 @@
         <v>17</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1" spans="2:17">
@@ -5613,13 +5631,13 @@
         <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F44" t="s">
         <v>30</v>
@@ -5628,7 +5646,7 @@
         <v>33</v>
       </c>
       <c r="H44" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I44" t="s">
         <v>15</v>
@@ -5640,19 +5658,19 @@
         <v>21</v>
       </c>
       <c r="L44" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P44" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q44" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" spans="2:17">
@@ -5660,13 +5678,13 @@
         <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F45" t="s">
         <v>30</v>
@@ -5675,7 +5693,7 @@
         <v>33</v>
       </c>
       <c r="H45" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I45" t="s">
         <v>19</v>
@@ -5687,19 +5705,19 @@
         <v>21</v>
       </c>
       <c r="L45" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q45" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" spans="2:21">
@@ -5707,13 +5725,13 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F46" t="s">
         <v>30</v>
@@ -5722,7 +5740,7 @@
         <v>35</v>
       </c>
       <c r="H46" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I46" t="s">
         <v>15</v>
@@ -5734,22 +5752,22 @@
         <v>17</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q46" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="T46" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="U46" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" spans="2:21">
@@ -5757,13 +5775,13 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F47" t="s">
         <v>30</v>
@@ -5772,7 +5790,7 @@
         <v>35</v>
       </c>
       <c r="H47" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I47" t="s">
         <v>19</v>
@@ -5784,22 +5802,22 @@
         <v>17</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q47" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="T47" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="U47" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" spans="2:18">
@@ -5807,13 +5825,13 @@
         <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F48" t="s">
         <v>30</v>
@@ -5822,7 +5840,7 @@
         <v>35</v>
       </c>
       <c r="H48" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I48" t="s">
         <v>15</v>
@@ -5834,22 +5852,22 @@
         <v>17</v>
       </c>
       <c r="L48" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q48" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R48" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" spans="2:18">
@@ -5857,13 +5875,13 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F49" t="s">
         <v>30</v>
@@ -5872,7 +5890,7 @@
         <v>35</v>
       </c>
       <c r="H49" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I49" t="s">
         <v>19</v>
@@ -5884,22 +5902,22 @@
         <v>17</v>
       </c>
       <c r="L49" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q49" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R49" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" spans="2:21">
@@ -5907,13 +5925,13 @@
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F50" t="s">
         <v>30</v>
@@ -5922,7 +5940,7 @@
         <v>36</v>
       </c>
       <c r="H50" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I50" t="s">
         <v>19</v>
@@ -5934,22 +5952,22 @@
         <v>17</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q50" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="T50" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="U50" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" spans="2:21">
@@ -5957,13 +5975,13 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F51" t="s">
         <v>30</v>
@@ -5972,7 +5990,7 @@
         <v>36</v>
       </c>
       <c r="H51" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I51" t="s">
         <v>19</v>
@@ -5984,22 +6002,22 @@
         <v>17</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q51" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="T51" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="U51" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" spans="2:18">
@@ -6007,13 +6025,13 @@
         <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F52" t="s">
         <v>30</v>
@@ -6021,29 +6039,29 @@
       <c r="G52" t="s">
         <v>32</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="8" t="s">
         <v>17</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q52" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="R52" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" spans="2:16">
@@ -6057,7 +6075,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F53" t="s">
         <v>22</v>
@@ -6066,25 +6084,25 @@
         <v>38</v>
       </c>
       <c r="H53" t="s">
-        <v>301</v>
-      </c>
-      <c r="I53" t="s">
+        <v>302</v>
+      </c>
+      <c r="I53" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" spans="2:16">
@@ -6098,7 +6116,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F54" t="s">
         <v>22</v>
@@ -6107,25 +6125,25 @@
         <v>40</v>
       </c>
       <c r="H54" t="s">
-        <v>305</v>
-      </c>
-      <c r="I54" t="s">
+        <v>306</v>
+      </c>
+      <c r="I54" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1" spans="2:16">
@@ -6139,7 +6157,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F55" t="s">
         <v>22</v>
@@ -6148,25 +6166,25 @@
         <v>41</v>
       </c>
       <c r="H55" t="s">
-        <v>301</v>
-      </c>
-      <c r="I55" t="s">
+        <v>302</v>
+      </c>
+      <c r="I55" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P55" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1" spans="2:16">
@@ -6180,7 +6198,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F56" t="s">
         <v>22</v>
@@ -6189,25 +6207,25 @@
         <v>42</v>
       </c>
       <c r="H56" t="s">
-        <v>310</v>
-      </c>
-      <c r="I56" t="s">
+        <v>311</v>
+      </c>
+      <c r="I56" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1" spans="2:16">
@@ -6221,7 +6239,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F57" t="s">
         <v>22</v>
@@ -6230,25 +6248,25 @@
         <v>43</v>
       </c>
       <c r="H57" t="s">
-        <v>301</v>
-      </c>
-      <c r="I57" t="s">
+        <v>302</v>
+      </c>
+      <c r="I57" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K57" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1" spans="2:16">
@@ -6262,7 +6280,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F58" t="s">
         <v>26</v>
@@ -6271,25 +6289,25 @@
         <v>39</v>
       </c>
       <c r="H58" t="s">
-        <v>305</v>
-      </c>
-      <c r="I58" t="s">
+        <v>306</v>
+      </c>
+      <c r="I58" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K58" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="O58" s="8">
+        <v>303</v>
+      </c>
+      <c r="O58" s="10">
         <v>100</v>
       </c>
       <c r="P58" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1" spans="2:16">
@@ -6303,7 +6321,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F59" t="s">
         <v>26</v>
@@ -6312,25 +6330,25 @@
         <v>40</v>
       </c>
       <c r="H59" t="s">
-        <v>305</v>
-      </c>
-      <c r="I59" t="s">
+        <v>306</v>
+      </c>
+      <c r="I59" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K59" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P59" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1" spans="2:16">
@@ -6344,7 +6362,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F60" t="s">
         <v>26</v>
@@ -6353,25 +6371,25 @@
         <v>41</v>
       </c>
       <c r="H60" t="s">
-        <v>305</v>
-      </c>
-      <c r="I60" t="s">
+        <v>306</v>
+      </c>
+      <c r="I60" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="O60" s="8">
+        <v>303</v>
+      </c>
+      <c r="O60" s="10">
         <v>100</v>
       </c>
       <c r="P60" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1" spans="2:16">
@@ -6385,7 +6403,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F61" t="s">
         <v>26</v>
@@ -6394,25 +6412,25 @@
         <v>42</v>
       </c>
       <c r="H61" t="s">
-        <v>301</v>
-      </c>
-      <c r="I61" t="s">
+        <v>302</v>
+      </c>
+      <c r="I61" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K61" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1" spans="2:16">
@@ -6426,7 +6444,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F62" t="s">
         <v>26</v>
@@ -6435,25 +6453,25 @@
         <v>43</v>
       </c>
       <c r="H62" t="s">
-        <v>301</v>
-      </c>
-      <c r="I62" t="s">
+        <v>302</v>
+      </c>
+      <c r="I62" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K62" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P62" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1" spans="2:16">
@@ -6467,7 +6485,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F63" t="s">
         <v>26</v>
@@ -6476,25 +6494,25 @@
         <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>301</v>
-      </c>
-      <c r="I63" t="s">
+        <v>302</v>
+      </c>
+      <c r="I63" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J63" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K63" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="O63" s="8">
+        <v>303</v>
+      </c>
+      <c r="O63" s="10">
         <v>150</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1" spans="2:16">
@@ -6508,7 +6526,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F64" t="s">
         <v>22</v>
@@ -6516,23 +6534,23 @@
       <c r="G64" t="s">
         <v>38</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J64" t="s">
+      <c r="J64" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K64" s="8" t="s">
         <v>17</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O64" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1" spans="2:16">
@@ -6546,7 +6564,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F65" t="s">
         <v>22</v>
@@ -6554,23 +6572,23 @@
       <c r="G65" t="s">
         <v>38</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J65" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65" s="8" t="s">
         <v>17</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O65" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P65" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1" spans="2:16">
@@ -6584,7 +6602,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F66" t="s">
         <v>22</v>
@@ -6592,23 +6610,23 @@
       <c r="G66" t="s">
         <v>39</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J66" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K66" s="8" t="s">
         <v>17</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O66" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1" spans="2:16">
@@ -6622,7 +6640,7 @@
         <v>1</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F67" t="s">
         <v>22</v>
@@ -6630,23 +6648,23 @@
       <c r="G67" t="s">
         <v>39</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J67" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K67" s="8" t="s">
         <v>17</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O67" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P67" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1" spans="2:16">
@@ -6660,7 +6678,7 @@
         <v>1</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F68" t="s">
         <v>22</v>
@@ -6668,23 +6686,23 @@
       <c r="G68" t="s">
         <v>40</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K68" s="8" t="s">
         <v>17</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O68" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P68" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1" spans="2:16">
@@ -6698,7 +6716,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F69" t="s">
         <v>22</v>
@@ -6706,23 +6724,23 @@
       <c r="G69" t="s">
         <v>40</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J69" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K69" s="8" t="s">
         <v>17</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O69" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P69" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1" spans="2:16">
@@ -6736,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F70" t="s">
         <v>22</v>
@@ -6744,23 +6762,23 @@
       <c r="G70" t="s">
         <v>45</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J70" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K70" t="s">
+      <c r="K70" s="8" t="s">
         <v>17</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P70" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1" spans="2:16">
@@ -6768,13 +6786,13 @@
         <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F71" t="s">
         <v>22</v>
@@ -6782,23 +6800,23 @@
       <c r="G71" t="s">
         <v>45</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J71" t="s">
+      <c r="J71" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K71" t="s">
+      <c r="K71" s="8" t="s">
         <v>17</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O71" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P71" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1" spans="2:16">
@@ -6812,7 +6830,7 @@
         <v>1</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F72" t="s">
         <v>22</v>
@@ -6821,25 +6839,25 @@
         <v>41</v>
       </c>
       <c r="H72" t="s">
-        <v>339</v>
-      </c>
-      <c r="I72" t="s">
+        <v>340</v>
+      </c>
+      <c r="I72" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J72" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K72" t="s">
+      <c r="K72" s="8" t="s">
         <v>17</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O72" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P72" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1" spans="2:16">
@@ -6853,7 +6871,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F73" t="s">
         <v>22</v>
@@ -6862,25 +6880,25 @@
         <v>41</v>
       </c>
       <c r="H73" t="s">
-        <v>341</v>
-      </c>
-      <c r="I73" t="s">
+        <v>342</v>
+      </c>
+      <c r="I73" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J73" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K73" t="s">
+      <c r="K73" s="8" t="s">
         <v>17</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O73" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P73" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1" spans="2:16">
@@ -6894,7 +6912,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F74" t="s">
         <v>22</v>
@@ -6903,25 +6921,25 @@
         <v>41</v>
       </c>
       <c r="H74" t="s">
-        <v>343</v>
-      </c>
-      <c r="I74" t="s">
+        <v>344</v>
+      </c>
+      <c r="I74" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J74" t="s">
+      <c r="J74" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K74" t="s">
+      <c r="K74" s="8" t="s">
         <v>17</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O74" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P74" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1" spans="2:16">
@@ -6935,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F75" t="s">
         <v>22</v>
@@ -6944,25 +6962,25 @@
         <v>41</v>
       </c>
       <c r="H75" t="s">
-        <v>343</v>
-      </c>
-      <c r="I75" t="s">
+        <v>344</v>
+      </c>
+      <c r="I75" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J75" t="s">
+      <c r="J75" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K75" t="s">
+      <c r="K75" s="8" t="s">
         <v>17</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O75" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P75" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1" spans="2:16">
@@ -6976,7 +6994,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F76" t="s">
         <v>22</v>
@@ -6985,25 +7003,25 @@
         <v>41</v>
       </c>
       <c r="H76" t="s">
-        <v>347</v>
-      </c>
-      <c r="I76" t="s">
+        <v>348</v>
+      </c>
+      <c r="I76" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J76" t="s">
+      <c r="J76" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K76" t="s">
+      <c r="K76" s="8" t="s">
         <v>17</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O76" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P76" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1" spans="2:16">
@@ -7017,7 +7035,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F77" t="s">
         <v>22</v>
@@ -7026,25 +7044,25 @@
         <v>41</v>
       </c>
       <c r="H77" t="s">
-        <v>350</v>
-      </c>
-      <c r="I77" t="s">
+        <v>351</v>
+      </c>
+      <c r="I77" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J77" t="s">
+      <c r="J77" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K77" t="s">
+      <c r="K77" s="8" t="s">
         <v>17</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O77" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P77" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1" spans="2:16">
@@ -7058,7 +7076,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F78" t="s">
         <v>22</v>
@@ -7067,25 +7085,25 @@
         <v>41</v>
       </c>
       <c r="H78" t="s">
-        <v>350</v>
-      </c>
-      <c r="I78" t="s">
+        <v>351</v>
+      </c>
+      <c r="I78" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J78" t="s">
+      <c r="J78" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K78" t="s">
+      <c r="K78" s="8" t="s">
         <v>17</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O78" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P78" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1" spans="2:16">
@@ -7099,7 +7117,7 @@
         <v>1</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F79" t="s">
         <v>22</v>
@@ -7108,25 +7126,25 @@
         <v>42</v>
       </c>
       <c r="H79" t="s">
-        <v>353</v>
-      </c>
-      <c r="I79" t="s">
+        <v>354</v>
+      </c>
+      <c r="I79" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J79" t="s">
+      <c r="J79" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K79" t="s">
+      <c r="K79" s="8" t="s">
         <v>17</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O79" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P79" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1" spans="2:16">
@@ -7140,7 +7158,7 @@
         <v>1</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F80" t="s">
         <v>22</v>
@@ -7149,25 +7167,25 @@
         <v>42</v>
       </c>
       <c r="H80" t="s">
-        <v>355</v>
-      </c>
-      <c r="I80" t="s">
+        <v>356</v>
+      </c>
+      <c r="I80" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J80" t="s">
+      <c r="J80" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K80" t="s">
+      <c r="K80" s="8" t="s">
         <v>17</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O80" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P80" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1" spans="2:16">
@@ -7181,7 +7199,7 @@
         <v>1</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F81" t="s">
         <v>22</v>
@@ -7190,25 +7208,25 @@
         <v>42</v>
       </c>
       <c r="H81" t="s">
-        <v>353</v>
-      </c>
-      <c r="I81" t="s">
+        <v>354</v>
+      </c>
+      <c r="I81" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J81" t="s">
+      <c r="J81" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K81" t="s">
+      <c r="K81" s="8" t="s">
         <v>17</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O81" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P81" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" spans="2:16">
@@ -7222,7 +7240,7 @@
         <v>1</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F82" t="s">
         <v>22</v>
@@ -7230,23 +7248,23 @@
       <c r="G82" t="s">
         <v>43</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J82" t="s">
+      <c r="J82" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K82" t="s">
+      <c r="K82" s="8" t="s">
         <v>17</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O82" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P82" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1" spans="2:16">
@@ -7260,7 +7278,7 @@
         <v>1</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F83" t="s">
         <v>22</v>
@@ -7268,23 +7286,23 @@
       <c r="G83" t="s">
         <v>43</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I83" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J83" t="s">
+      <c r="J83" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K83" t="s">
+      <c r="K83" s="8" t="s">
         <v>17</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O83" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P83" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1" spans="2:16">
@@ -7292,13 +7310,13 @@
         <v>81</v>
       </c>
       <c r="C84" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F84" t="s">
         <v>13</v>
@@ -7306,24 +7324,24 @@
       <c r="G84" t="s">
         <v>7</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J84" t="s">
+      <c r="J84" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K84" t="s">
+      <c r="K84" s="8" t="s">
         <v>6</v>
       </c>
       <c r="L84" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O84" s="5"/>
       <c r="P84" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1" spans="2:16">
@@ -7331,13 +7349,13 @@
         <v>82</v>
       </c>
       <c r="C85" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F85" t="s">
         <v>13</v>
@@ -7345,24 +7363,24 @@
       <c r="G85" t="s">
         <v>7</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I85" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J85" t="s">
+      <c r="J85" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K85" t="s">
+      <c r="K85" s="8" t="s">
         <v>6</v>
       </c>
       <c r="L85" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O85" s="5"/>
       <c r="P85" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1" spans="2:16">
@@ -7370,13 +7388,13 @@
         <v>83</v>
       </c>
       <c r="C86" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F86" t="s">
         <v>13</v>
@@ -7384,24 +7402,24 @@
       <c r="G86" t="s">
         <v>7</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J86" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K86" t="s">
+      <c r="K86" s="8" t="s">
         <v>6</v>
       </c>
       <c r="L86" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O86" s="5"/>
       <c r="P86" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1" spans="2:16">
@@ -7409,13 +7427,13 @@
         <v>84</v>
       </c>
       <c r="C87" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F87" t="s">
         <v>13</v>
@@ -7423,24 +7441,24 @@
       <c r="G87" t="s">
         <v>7</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I87" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J87" t="s">
+      <c r="J87" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K87" t="s">
+      <c r="K87" s="8" t="s">
         <v>6</v>
       </c>
       <c r="L87" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O87" s="5"/>
       <c r="P87" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1" spans="2:16">
@@ -7448,13 +7466,13 @@
         <v>85</v>
       </c>
       <c r="C88" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F88" t="s">
         <v>13</v>
@@ -7462,24 +7480,24 @@
       <c r="G88" t="s">
         <v>7</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I88" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J88" t="s">
+      <c r="J88" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K88" t="s">
+      <c r="K88" s="8" t="s">
         <v>6</v>
       </c>
       <c r="L88" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O88" s="5"/>
       <c r="P88" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1" spans="2:16">
@@ -7487,13 +7505,13 @@
         <v>86</v>
       </c>
       <c r="C89" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F89" t="s">
         <v>30</v>
@@ -7502,25 +7520,25 @@
         <v>33</v>
       </c>
       <c r="H89" t="s">
-        <v>380</v>
-      </c>
-      <c r="I89" t="s">
+        <v>381</v>
+      </c>
+      <c r="I89" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J89" t="s">
-        <v>381</v>
-      </c>
-      <c r="K89" t="s">
+      <c r="J89" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="K89" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N89" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O89" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P89" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1" spans="2:16">
@@ -7528,13 +7546,13 @@
         <v>87</v>
       </c>
       <c r="C90" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F90" t="s">
         <v>30</v>
@@ -7543,28 +7561,28 @@
         <v>33</v>
       </c>
       <c r="H90" t="s">
-        <v>386</v>
-      </c>
-      <c r="I90" t="s">
+        <v>387</v>
+      </c>
+      <c r="I90" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J90" t="s">
-        <v>387</v>
-      </c>
-      <c r="K90" t="s">
+      <c r="J90" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="K90" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L90" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N90" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O90" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P90" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" spans="2:16">
@@ -7572,13 +7590,13 @@
         <v>88</v>
       </c>
       <c r="C91" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F91" t="s">
         <v>11</v>
@@ -7587,28 +7605,28 @@
         <v>10</v>
       </c>
       <c r="H91" t="s">
-        <v>185</v>
-      </c>
-      <c r="I91" t="s">
+        <v>186</v>
+      </c>
+      <c r="I91" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J91" t="s">
+      <c r="J91" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K91" t="s">
+      <c r="K91" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L91" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N91" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O91" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P91" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" spans="2:20">
@@ -7616,13 +7634,13 @@
         <v>89</v>
       </c>
       <c r="C92" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F92" t="s">
         <v>30</v>
@@ -7631,37 +7649,37 @@
         <v>33</v>
       </c>
       <c r="H92" t="s">
-        <v>396</v>
-      </c>
-      <c r="I92" t="s">
+        <v>397</v>
+      </c>
+      <c r="I92" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J92" t="s">
+      <c r="J92" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K92" t="s">
+      <c r="K92" s="8" t="s">
         <v>21</v>
       </c>
       <c r="L92" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N92" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O92" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P92" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="R92" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="S92" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="T92" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1" spans="2:20">
@@ -7669,13 +7687,13 @@
         <v>90</v>
       </c>
       <c r="C93" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F93" t="s">
         <v>30</v>
@@ -7684,37 +7702,37 @@
         <v>33</v>
       </c>
       <c r="H93" t="s">
-        <v>396</v>
-      </c>
-      <c r="I93" t="s">
+        <v>397</v>
+      </c>
+      <c r="I93" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J93" t="s">
+      <c r="J93" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K93" t="s">
+      <c r="K93" s="8" t="s">
         <v>21</v>
       </c>
       <c r="L93" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N93" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O93" s="5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P93" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="R93" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="S93" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="T93" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1" spans="2:22">
@@ -7722,46 +7740,46 @@
         <v>91</v>
       </c>
       <c r="C94" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F94" t="s">
         <v>24</v>
       </c>
       <c r="G94" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H94" t="s">
-        <v>406</v>
-      </c>
-      <c r="I94" t="s">
+        <v>407</v>
+      </c>
+      <c r="I94" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J94" t="s">
+      <c r="J94" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K94" t="s">
+      <c r="K94" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L94" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N94" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O94" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P94" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="V94" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1" spans="2:16">
@@ -7769,13 +7787,13 @@
         <v>92</v>
       </c>
       <c r="C95" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F95" t="s">
         <v>30</v>
@@ -7784,28 +7802,28 @@
         <v>33</v>
       </c>
       <c r="H95" t="s">
-        <v>412</v>
-      </c>
-      <c r="I95" t="s">
+        <v>413</v>
+      </c>
+      <c r="I95" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J95" t="s">
+      <c r="J95" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K95" t="s">
+      <c r="K95" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L95" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N95" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O95" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P95" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1" spans="2:16">
@@ -7813,43 +7831,43 @@
         <v>93</v>
       </c>
       <c r="C96" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D96">
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F96" t="s">
         <v>24</v>
       </c>
       <c r="G96" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H96" t="s">
-        <v>417</v>
-      </c>
-      <c r="I96" t="s">
+        <v>418</v>
+      </c>
+      <c r="I96" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J96" t="s">
+      <c r="J96" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K96" t="s">
+      <c r="K96" s="8" t="s">
         <v>21</v>
       </c>
       <c r="M96" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O96" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P96" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" spans="2:16">
@@ -7863,7 +7881,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F97" t="s">
         <v>22</v>
@@ -7872,28 +7890,28 @@
         <v>43</v>
       </c>
       <c r="H97" t="s">
-        <v>301</v>
-      </c>
-      <c r="I97" t="s">
+        <v>302</v>
+      </c>
+      <c r="I97" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J97" t="s">
+      <c r="J97" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K97" t="s">
+      <c r="K97" s="8" t="s">
         <v>21</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O97" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P97" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" spans="2:16">
@@ -7907,7 +7925,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F98" t="s">
         <v>22</v>
@@ -7916,28 +7934,28 @@
         <v>41</v>
       </c>
       <c r="H98" t="s">
-        <v>426</v>
-      </c>
-      <c r="I98" t="s">
+        <v>427</v>
+      </c>
+      <c r="I98" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J98" t="s">
+      <c r="J98" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K98" t="s">
+      <c r="K98" s="8" t="s">
         <v>21</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O98" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P98" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1" spans="2:16">
@@ -7951,7 +7969,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F99" t="s">
         <v>22</v>
@@ -7960,26 +7978,26 @@
         <v>38</v>
       </c>
       <c r="H99" t="s">
-        <v>301</v>
-      </c>
-      <c r="I99" t="s">
+        <v>302</v>
+      </c>
+      <c r="I99" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J99" t="s">
+      <c r="J99" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K99" t="s">
+      <c r="K99" s="8" t="s">
         <v>21</v>
       </c>
       <c r="L99" s="5"/>
       <c r="N99" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O99" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P99" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" spans="2:16">
@@ -7993,7 +8011,7 @@
         <v>1</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F100" t="s">
         <v>22</v>
@@ -8002,28 +8020,28 @@
         <v>42</v>
       </c>
       <c r="H100" t="s">
-        <v>431</v>
-      </c>
-      <c r="I100" t="s">
+        <v>432</v>
+      </c>
+      <c r="I100" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J100" t="s">
+      <c r="J100" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K100" t="s">
+      <c r="K100" s="8" t="s">
         <v>21</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O100" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P100" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" spans="2:16">
@@ -8037,7 +8055,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F101" t="s">
         <v>22</v>
@@ -8046,26 +8064,26 @@
         <v>42</v>
       </c>
       <c r="H101" t="s">
-        <v>355</v>
-      </c>
-      <c r="I101" t="s">
+        <v>356</v>
+      </c>
+      <c r="I101" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J101" t="s">
+      <c r="J101" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K101" t="s">
+      <c r="K101" s="8" t="s">
         <v>21</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O101" s="5"/>
       <c r="P101" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1" spans="2:16">
@@ -8079,7 +8097,7 @@
         <v>1</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F102" t="s">
         <v>22</v>
@@ -8087,24 +8105,24 @@
       <c r="G102" t="s">
         <v>39</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J102" t="s">
+      <c r="J102" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K102" t="s">
+      <c r="K102" s="8" t="s">
         <v>21</v>
       </c>
       <c r="L102" s="5"/>
       <c r="N102" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O102" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P102" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1" spans="2:16">
@@ -8118,7 +8136,7 @@
         <v>1</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F103" t="s">
         <v>22</v>
@@ -8127,28 +8145,28 @@
         <v>40</v>
       </c>
       <c r="H103" t="s">
-        <v>305</v>
-      </c>
-      <c r="I103" t="s">
+        <v>306</v>
+      </c>
+      <c r="I103" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J103" t="s">
+      <c r="J103" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K103" t="s">
+      <c r="K103" s="8" t="s">
         <v>21</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N103" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O103" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P103" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1" spans="2:16">
@@ -8162,7 +8180,7 @@
         <v>1</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F104" t="s">
         <v>22</v>
@@ -8171,94 +8189,137 @@
         <v>44</v>
       </c>
       <c r="H104" t="s">
-        <v>305</v>
-      </c>
-      <c r="I104" t="s">
+        <v>306</v>
+      </c>
+      <c r="I104" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J104" t="s">
+      <c r="J104" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K104" t="s">
+      <c r="K104" s="8" t="s">
         <v>21</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N104" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O104" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P104" s="6" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="105" ht="15" customHeight="1" spans="5:16">
-      <c r="E105" s="2"/>
-      <c r="L105" s="5"/>
-      <c r="N105" s="4"/>
-      <c r="O105" s="5"/>
-      <c r="P105" s="9"/>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="105" ht="15" customHeight="1" spans="2:16">
+      <c r="B105" s="1">
+        <v>102</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F105" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" t="s">
+        <v>10</v>
+      </c>
+      <c r="H105" t="s">
+        <v>306</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K105" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L105" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="N105" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="O105" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="P105" s="6" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="106" ht="15" customHeight="1" spans="5:16">
       <c r="E106" s="2"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
       <c r="L106" s="5"/>
       <c r="N106" s="4"/>
       <c r="O106" s="5"/>
-      <c r="P106" s="9"/>
+      <c r="P106" s="11"/>
     </row>
     <row r="107" ht="15" customHeight="1" spans="5:16">
       <c r="E107" s="2"/>
       <c r="L107" s="5"/>
       <c r="N107" s="4"/>
       <c r="O107" s="5"/>
-      <c r="P107" s="9"/>
+      <c r="P107" s="11"/>
     </row>
     <row r="108" ht="15" customHeight="1" spans="5:16">
       <c r="E108" s="2"/>
       <c r="L108" s="5"/>
       <c r="N108" s="4"/>
       <c r="O108" s="5"/>
-      <c r="P108" s="9"/>
+      <c r="P108" s="11"/>
     </row>
     <row r="109" ht="15" customHeight="1" spans="5:16">
       <c r="E109" s="2"/>
       <c r="L109" s="5"/>
       <c r="N109" s="4"/>
       <c r="O109" s="5"/>
-      <c r="P109" s="9"/>
+      <c r="P109" s="11"/>
     </row>
     <row r="110" ht="15" customHeight="1" spans="5:16">
       <c r="E110" s="2"/>
       <c r="L110" s="5"/>
       <c r="N110" s="4"/>
       <c r="O110" s="5"/>
-      <c r="P110" s="9"/>
+      <c r="P110" s="11"/>
     </row>
     <row r="111" ht="15" customHeight="1" spans="5:16">
       <c r="E111" s="2"/>
       <c r="L111" s="5"/>
       <c r="N111" s="4"/>
       <c r="O111" s="5"/>
-      <c r="P111" s="9"/>
+      <c r="P111" s="11"/>
     </row>
     <row r="112" ht="15" customHeight="1" spans="5:16">
       <c r="E112" s="2"/>
       <c r="L112" s="5"/>
       <c r="N112" s="4"/>
       <c r="O112" s="5"/>
-      <c r="P112" s="9"/>
+      <c r="P112" s="11"/>
     </row>
     <row r="113" ht="15" customHeight="1" spans="5:16">
       <c r="E113" s="2"/>
       <c r="N113" s="4"/>
       <c r="O113" s="5"/>
-      <c r="P113" s="9"/>
+      <c r="P113" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K105;K5:K83;K96:K104;K106:K113">
+      <formula1>Тип_графики</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F86;F97:F113">
       <formula1>Категория_сайта</formula1>
     </dataValidation>
@@ -8268,11 +8329,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I83;I97:I113">
       <formula1>Форма</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J88;J96:J113">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J52;J106:J113">
       <formula1>Производитель</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K83;K96:K113">
-      <formula1>Тип_графики</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:V93;Q97:V113">
       <formula1>"ДА"</formula1>
@@ -12392,7 +12450,7 @@
       </c>
       <c r="J53" t="str">
         <f>IF(Компоненты!J53&lt;&gt;"",Компоненты!J53,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K53" t="str">
         <f>IF(Компоненты!K53&lt;&gt;"",Компоненты!K53,"")</f>
@@ -12474,7 +12532,7 @@
       </c>
       <c r="J54" t="str">
         <f>IF(Компоненты!J54&lt;&gt;"",Компоненты!J54,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K54" t="str">
         <f>IF(Компоненты!K54&lt;&gt;"",Компоненты!K54,"")</f>
@@ -12556,7 +12614,7 @@
       </c>
       <c r="J55" t="str">
         <f>IF(Компоненты!J55&lt;&gt;"",Компоненты!J55,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K55" t="str">
         <f>IF(Компоненты!K55&lt;&gt;"",Компоненты!K55,"")</f>
@@ -12638,7 +12696,7 @@
       </c>
       <c r="J56" t="str">
         <f>IF(Компоненты!J56&lt;&gt;"",Компоненты!J56,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K56" t="str">
         <f>IF(Компоненты!K56&lt;&gt;"",Компоненты!K56,"")</f>
@@ -12720,7 +12778,7 @@
       </c>
       <c r="J57" t="str">
         <f>IF(Компоненты!J57&lt;&gt;"",Компоненты!J57,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K57" t="str">
         <f>IF(Компоненты!K57&lt;&gt;"",Компоненты!K57,"")</f>
@@ -12802,7 +12860,7 @@
       </c>
       <c r="J58" t="str">
         <f>IF(Компоненты!J58&lt;&gt;"",Компоненты!J58,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K58" t="str">
         <f>IF(Компоненты!K58&lt;&gt;"",Компоненты!K58,"")</f>
@@ -12884,7 +12942,7 @@
       </c>
       <c r="J59" t="str">
         <f>IF(Компоненты!J59&lt;&gt;"",Компоненты!J59,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K59" t="str">
         <f>IF(Компоненты!K59&lt;&gt;"",Компоненты!K59,"")</f>
@@ -12966,7 +13024,7 @@
       </c>
       <c r="J60" t="str">
         <f>IF(Компоненты!J60&lt;&gt;"",Компоненты!J60,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K60" t="str">
         <f>IF(Компоненты!K60&lt;&gt;"",Компоненты!K60,"")</f>
@@ -13048,7 +13106,7 @@
       </c>
       <c r="J61" t="str">
         <f>IF(Компоненты!J61&lt;&gt;"",Компоненты!J61,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K61" t="str">
         <f>IF(Компоненты!K61&lt;&gt;"",Компоненты!K61,"")</f>
@@ -13130,7 +13188,7 @@
       </c>
       <c r="J62" t="str">
         <f>IF(Компоненты!J62&lt;&gt;"",Компоненты!J62,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K62" t="str">
         <f>IF(Компоненты!K62&lt;&gt;"",Компоненты!K62,"")</f>
@@ -13212,7 +13270,7 @@
       </c>
       <c r="J63" t="str">
         <f>IF(Компоненты!J63&lt;&gt;"",Компоненты!J63,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K63" t="str">
         <f>IF(Компоненты!K63&lt;&gt;"",Компоненты!K63,"")</f>
@@ -13294,7 +13352,7 @@
       </c>
       <c r="J64" t="str">
         <f>IF(Компоненты!J64&lt;&gt;"",Компоненты!J64,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K64" t="str">
         <f>IF(Компоненты!K64&lt;&gt;"",Компоненты!K64,"")</f>
@@ -13376,7 +13434,7 @@
       </c>
       <c r="J65" t="str">
         <f>IF(Компоненты!J65&lt;&gt;"",Компоненты!J65,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K65" t="str">
         <f>IF(Компоненты!K65&lt;&gt;"",Компоненты!K65,"")</f>
@@ -13458,7 +13516,7 @@
       </c>
       <c r="J66" t="str">
         <f>IF(Компоненты!J66&lt;&gt;"",Компоненты!J66,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K66" t="str">
         <f>IF(Компоненты!K66&lt;&gt;"",Компоненты!K66,"")</f>
@@ -13540,7 +13598,7 @@
       </c>
       <c r="J67" t="str">
         <f>IF(Компоненты!J67&lt;&gt;"",Компоненты!J67,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K67" t="str">
         <f>IF(Компоненты!K67&lt;&gt;"",Компоненты!K67,"")</f>
@@ -13622,7 +13680,7 @@
       </c>
       <c r="J68" t="str">
         <f>IF(Компоненты!J68&lt;&gt;"",Компоненты!J68,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K68" t="str">
         <f>IF(Компоненты!K68&lt;&gt;"",Компоненты!K68,"")</f>
@@ -13704,7 +13762,7 @@
       </c>
       <c r="J69" t="str">
         <f>IF(Компоненты!J69&lt;&gt;"",Компоненты!J69,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K69" t="str">
         <f>IF(Компоненты!K69&lt;&gt;"",Компоненты!K69,"")</f>
@@ -13786,7 +13844,7 @@
       </c>
       <c r="J70" t="str">
         <f>IF(Компоненты!J70&lt;&gt;"",Компоненты!J70,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K70" t="str">
         <f>IF(Компоненты!K70&lt;&gt;"",Компоненты!K70,"")</f>
@@ -13868,7 +13926,7 @@
       </c>
       <c r="J71" t="str">
         <f>IF(Компоненты!J71&lt;&gt;"",Компоненты!J71,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K71" t="str">
         <f>IF(Компоненты!K71&lt;&gt;"",Компоненты!K71,"")</f>
@@ -13950,7 +14008,7 @@
       </c>
       <c r="J72" t="str">
         <f>IF(Компоненты!J72&lt;&gt;"",Компоненты!J72,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K72" t="str">
         <f>IF(Компоненты!K72&lt;&gt;"",Компоненты!K72,"")</f>
@@ -14032,7 +14090,7 @@
       </c>
       <c r="J73" t="str">
         <f>IF(Компоненты!J73&lt;&gt;"",Компоненты!J73,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K73" t="str">
         <f>IF(Компоненты!K73&lt;&gt;"",Компоненты!K73,"")</f>
@@ -14114,7 +14172,7 @@
       </c>
       <c r="J74" t="str">
         <f>IF(Компоненты!J74&lt;&gt;"",Компоненты!J74,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K74" t="str">
         <f>IF(Компоненты!K74&lt;&gt;"",Компоненты!K74,"")</f>
@@ -14196,7 +14254,7 @@
       </c>
       <c r="J75" t="str">
         <f>IF(Компоненты!J75&lt;&gt;"",Компоненты!J75,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K75" t="str">
         <f>IF(Компоненты!K75&lt;&gt;"",Компоненты!K75,"")</f>
@@ -14278,7 +14336,7 @@
       </c>
       <c r="J76" t="str">
         <f>IF(Компоненты!J76&lt;&gt;"",Компоненты!J76,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K76" t="str">
         <f>IF(Компоненты!K76&lt;&gt;"",Компоненты!K76,"")</f>
@@ -14360,7 +14418,7 @@
       </c>
       <c r="J77" t="str">
         <f>IF(Компоненты!J77&lt;&gt;"",Компоненты!J77,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K77" t="str">
         <f>IF(Компоненты!K77&lt;&gt;"",Компоненты!K77,"")</f>
@@ -14442,7 +14500,7 @@
       </c>
       <c r="J78" t="str">
         <f>IF(Компоненты!J78&lt;&gt;"",Компоненты!J78,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K78" t="str">
         <f>IF(Компоненты!K78&lt;&gt;"",Компоненты!K78,"")</f>
@@ -14524,7 +14582,7 @@
       </c>
       <c r="J79" t="str">
         <f>IF(Компоненты!J79&lt;&gt;"",Компоненты!J79,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K79" t="str">
         <f>IF(Компоненты!K79&lt;&gt;"",Компоненты!K79,"")</f>
@@ -14606,7 +14664,7 @@
       </c>
       <c r="J80" t="str">
         <f>IF(Компоненты!J80&lt;&gt;"",Компоненты!J80,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K80" t="str">
         <f>IF(Компоненты!K80&lt;&gt;"",Компоненты!K80,"")</f>
@@ -14688,7 +14746,7 @@
       </c>
       <c r="J81" t="str">
         <f>IF(Компоненты!J81&lt;&gt;"",Компоненты!J81,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K81" t="str">
         <f>IF(Компоненты!K81&lt;&gt;"",Компоненты!K81,"")</f>
@@ -14770,7 +14828,7 @@
       </c>
       <c r="J82" t="str">
         <f>IF(Компоненты!J82&lt;&gt;"",Компоненты!J82,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K82" t="str">
         <f>IF(Компоненты!K82&lt;&gt;"",Компоненты!K82,"")</f>
@@ -14852,7 +14910,7 @@
       </c>
       <c r="J83" t="str">
         <f>IF(Компоненты!J83&lt;&gt;"",Компоненты!J83,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K83" t="str">
         <f>IF(Компоненты!K83&lt;&gt;"",Компоненты!K83,"")</f>
@@ -14934,7 +14992,7 @@
       </c>
       <c r="J84" t="str">
         <f>IF(Компоненты!J84&lt;&gt;"",Компоненты!J84,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K84" t="str">
         <f>IF(Компоненты!K84&lt;&gt;"",Компоненты!K84,"")</f>
@@ -15016,7 +15074,7 @@
       </c>
       <c r="J85" t="str">
         <f>IF(Компоненты!J85&lt;&gt;"",Компоненты!J85,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K85" t="str">
         <f>IF(Компоненты!K85&lt;&gt;"",Компоненты!K85,"")</f>
@@ -15098,7 +15156,7 @@
       </c>
       <c r="J86" t="str">
         <f>IF(Компоненты!J86&lt;&gt;"",Компоненты!J86,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K86" t="str">
         <f>IF(Компоненты!K86&lt;&gt;"",Компоненты!K86,"")</f>
@@ -15180,7 +15238,7 @@
       </c>
       <c r="J87" t="str">
         <f>IF(Компоненты!J87&lt;&gt;"",Компоненты!J87,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K87" t="str">
         <f>IF(Компоненты!K87&lt;&gt;"",Компоненты!K87,"")</f>
@@ -15262,7 +15320,7 @@
       </c>
       <c r="J88" t="str">
         <f>IF(Компоненты!J88&lt;&gt;"",Компоненты!J88,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K88" t="str">
         <f>IF(Компоненты!K88&lt;&gt;"",Компоненты!K88,"")</f>
@@ -15918,7 +15976,7 @@
       </c>
       <c r="J96" t="str">
         <f>IF(Компоненты!J96&lt;&gt;"",Компоненты!J96,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K96" t="str">
         <f>IF(Компоненты!K96&lt;&gt;"",Компоненты!K96,"")</f>
@@ -16001,7 +16059,7 @@
       </c>
       <c r="J97" t="str">
         <f>IF(Компоненты!J97&lt;&gt;"",Компоненты!J97,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K97" t="str">
         <f>IF(Компоненты!K97&lt;&gt;"",Компоненты!K97,"")</f>
@@ -16083,7 +16141,7 @@
       </c>
       <c r="J98" t="str">
         <f>IF(Компоненты!J98&lt;&gt;"",Компоненты!J98,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K98" t="str">
         <f>IF(Компоненты!K98&lt;&gt;"",Компоненты!K98,"")</f>
@@ -16166,7 +16224,7 @@
       </c>
       <c r="J99" t="str">
         <f>IF(Компоненты!J99&lt;&gt;"",Компоненты!J99,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K99" t="str">
         <f>IF(Компоненты!K99&lt;&gt;"",Компоненты!K99,"")</f>
@@ -16248,7 +16306,7 @@
       </c>
       <c r="J100" t="str">
         <f>IF(Компоненты!J100&lt;&gt;"",Компоненты!J100,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K100" t="str">
         <f>IF(Компоненты!K100&lt;&gt;"",Компоненты!K100,"")</f>
@@ -16331,7 +16389,7 @@
       </c>
       <c r="J101" t="str">
         <f>IF(Компоненты!J101&lt;&gt;"",Компоненты!J101,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K101" t="str">
         <f>IF(Компоненты!K101&lt;&gt;"",Компоненты!K101,"")</f>
@@ -16414,7 +16472,7 @@
       </c>
       <c r="J102" t="str">
         <f>IF(Компоненты!J102&lt;&gt;"",Компоненты!J102,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K102" t="str">
         <f>IF(Компоненты!K102&lt;&gt;"",Компоненты!K102,"")</f>
@@ -16496,7 +16554,7 @@
       </c>
       <c r="J103" t="str">
         <f>IF(Компоненты!J103&lt;&gt;"",Компоненты!J103,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K103" t="str">
         <f>IF(Компоненты!K103&lt;&gt;"",Компоненты!K103,"")</f>
@@ -16578,7 +16636,7 @@
       </c>
       <c r="J104" t="str">
         <f>IF(Компоненты!J104&lt;&gt;"",Компоненты!J104,"")</f>
-        <v>Нанософт разработка</v>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K104" t="str">
         <f>IF(Компоненты!K104&lt;&gt;"",Компоненты!K104,"")</f>
@@ -16626,49 +16684,49 @@
       </c>
     </row>
     <row r="105" spans="2:21">
-      <c r="B105" t="str">
+      <c r="B105">
         <f>IF(Компоненты!B105&lt;&gt;"",Компоненты!B105,"")</f>
-        <v/>
+        <v>102</v>
       </c>
       <c r="C105" t="str">
         <f>IF(Компоненты!C105&lt;&gt;"",Компоненты!C105,"")</f>
-        <v/>
-      </c>
-      <c r="D105" t="str">
+        <v>Клапан воздушный</v>
+      </c>
+      <c r="D105">
         <f>IF(Компоненты!D105&lt;&gt;"",Компоненты!D105,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E105" t="str">
         <f>IF(Компоненты!E105&lt;&gt;"",Компоненты!E105,"")</f>
-        <v/>
+        <v>7f2479b8a4cf83ab15392a7ed85678ed</v>
       </c>
       <c r="F105" t="str">
         <f>IF(Компоненты!F105&lt;&gt;"",Компоненты!F105,"")</f>
-        <v/>
+        <v>Арматура воздуховодов</v>
       </c>
       <c r="G105" t="str">
         <f>IF(Компоненты!G105&lt;&gt;"",Компоненты!G105,"")</f>
-        <v/>
+        <v>Клапан воздушный</v>
       </c>
       <c r="H105" t="str">
         <f>IF(Компоненты!H105&lt;&gt;"",Компоненты!H105,"")</f>
-        <v/>
+        <v>параметрическая</v>
       </c>
       <c r="I105" t="str">
         <f>IF(Компоненты!I105&lt;&gt;"",Компоненты!I105,"")</f>
-        <v/>
+        <v>Круглый</v>
       </c>
       <c r="J105" t="str">
         <f>IF(Компоненты!J105&lt;&gt;"",Компоненты!J105,"")</f>
-        <v/>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K105" t="str">
         <f>IF(Компоненты!K105&lt;&gt;"",Компоненты!K105,"")</f>
-        <v/>
+        <v>Параметрическая</v>
       </c>
       <c r="L105" t="str">
         <f>IF(Компоненты!L105&lt;&gt;"",Компоненты!L105,"")</f>
-        <v/>
+        <v>Параметризованы диаметр и длина клапана. Параметры для площадки для ручки, для длины ручки могут быть выведены в параметры компонента при необходимости. В списке на совершенствование (взять реальные габариты, параметризовать ручку, внести массу приблизительно)</v>
       </c>
       <c r="M105" t="str">
         <f>IF(Компоненты!M105&lt;&gt;"",Компоненты!M105,"")</f>
@@ -16676,15 +16734,15 @@
       </c>
       <c r="N105" t="str">
         <f>IF(Компоненты!N105&lt;&gt;"",Компоненты!N105,"")</f>
-        <v/>
+        <v>https://www.nanocad.ru/products/bim/ventilation/</v>
       </c>
       <c r="O105" t="str">
         <f>IF(Компоненты!O105&lt;&gt;"",Компоненты!O105,"")</f>
-        <v/>
+        <v>100, 125, 160, 200, 250, 315, 355, 400</v>
       </c>
       <c r="P105" t="str">
         <f>IF(Компоненты!P105&lt;&gt;"",Компоненты!P105,"")</f>
-        <v/>
+        <v>2024.08.21</v>
       </c>
       <c r="Q105" t="str">
         <f>IF(Компоненты!Q105&lt;&gt;"",Компоненты!Q105,"")</f>

--- a/db/Base.xlsx
+++ b/db/Base.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="447">
   <si>
     <t>На этом листе собраны возможные значения параметров, описывающих типы компонентов nanoCAD BIM Вентиляция</t>
   </si>
@@ -1170,6 +1170,9 @@
     <t>концентрический</t>
   </si>
   <si>
+    <t>В списке на совершенствование (отображение меньшего диаметра в начале и большего потом)</t>
+  </si>
+  <si>
     <t>c41219195f1575b75378aa02b0cd8424</t>
   </si>
   <si>
@@ -1431,16 +1434,20 @@
     <t>100x100-100x100, 100x100-200x100, 200x200-800x200</t>
   </si>
   <si>
-    <t>7f2479b8a4cf83ab15392a7ed85678ed</t>
-  </si>
-  <si>
-    <t>Параметризованы диаметр и длина клапана. Параметры для площадки для ручки, для длины ручки могут быть выведены в параметры компонента при необходимости. В списке на совершенствование (взять реальные габариты, параметризовать ручку, внести массу приблизительно)</t>
-  </si>
-  <si>
-    <t>100, 125, 160, 200, 250, 315, 355, 400</t>
-  </si>
-  <si>
-    <t>2024.08.21</t>
+    <t>8ea4ca2d518051522b5721c028c0deec</t>
+  </si>
+  <si>
+    <t>Параметризованы диаметр, длина клапана, длина ручки и вылет ручки - все габариты. Внесены аэродинамические данные.</t>
+  </si>
+  <si>
+    <t>v1: Компонент параметризован не полностью, габариты приблизительные;
+v2: Габариты полностью соответствуют Арктос КВК-Р, добавлена аэродинамика, исправлена ошибка свойств Арматура (Арматуру нужно обязательно добавлять через кнопку "Задать тип оборудования"!)</t>
+  </si>
+  <si>
+    <t>100, 125</t>
+  </si>
+  <si>
+    <t>2024.08.22</t>
   </si>
 </sst>
 </file>
@@ -2164,11 +2171,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2861,10 +2868,10 @@
       <c r="B7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="19" t="s">
@@ -2881,10 +2888,10 @@
       <c r="B8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="20" t="s">
@@ -2901,10 +2908,10 @@
       <c r="B9" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="20" t="s">
@@ -2941,10 +2948,10 @@
       <c r="B11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="23" t="s">
@@ -2961,10 +2968,10 @@
       <c r="B12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>24</v>
       </c>
       <c r="I12" s="20" t="s">
@@ -2975,10 +2982,10 @@
       <c r="B13" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>24</v>
       </c>
       <c r="I13" s="20" t="s">
@@ -2989,10 +2996,10 @@
       <c r="B14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="20" t="s">
@@ -3003,10 +3010,10 @@
       <c r="B15" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3022,18 +3029,18 @@
       </c>
     </row>
     <row r="17" spans="4:5">
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="4:5">
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3054,18 +3061,18 @@
       </c>
     </row>
     <row r="21" spans="4:5">
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="4:5">
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3073,7 +3080,7 @@
       <c r="D23" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3081,7 +3088,7 @@
       <c r="D24" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3089,7 +3096,7 @@
       <c r="D25" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3097,7 +3104,7 @@
       <c r="D26" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3105,7 +3112,7 @@
       <c r="D27" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3113,7 +3120,7 @@
       <c r="D28" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3166,7 +3173,7 @@
       </c>
     </row>
     <row r="35" spans="4:5">
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E35" t="s">
@@ -3174,10 +3181,10 @@
       </c>
     </row>
     <row r="41" spans="4:5">
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="8">
         <f>SUBTOTAL(103,Таблица_Привязка_категорий[Категория_сайта])</f>
         <v>28</v>
       </c>
@@ -3394,7 +3401,7 @@
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="2:10">
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -3484,7 +3491,7 @@
       </c>
     </row>
     <row r="10" ht="25" customHeight="1" spans="2:10">
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -3574,7 +3581,7 @@
       </c>
     </row>
     <row r="13" ht="25" customHeight="1" spans="2:10">
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -3663,7 +3670,7 @@
       </c>
     </row>
     <row r="16" ht="25" customHeight="1" spans="2:10">
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -3803,8 +3810,8 @@
   <sheetPr/>
   <dimension ref="B4:V113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C92" workbookViewId="0">
+      <selection activeCell="M101" sqref="M101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -6089,7 +6096,7 @@
       <c r="I53" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J53" s="9" t="s">
+      <c r="J53" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K53" s="8" t="s">
@@ -6130,7 +6137,7 @@
       <c r="I54" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J54" s="9" t="s">
+      <c r="J54" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K54" s="8" t="s">
@@ -6171,7 +6178,7 @@
       <c r="I55" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="9" t="s">
+      <c r="J55" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K55" s="8" t="s">
@@ -6212,7 +6219,7 @@
       <c r="I56" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J56" s="9" t="s">
+      <c r="J56" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K56" s="8" t="s">
@@ -6253,7 +6260,7 @@
       <c r="I57" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J57" s="9" t="s">
+      <c r="J57" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K57" s="8" t="s">
@@ -6294,7 +6301,7 @@
       <c r="I58" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J58" s="9" t="s">
+      <c r="J58" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K58" s="8" t="s">
@@ -6303,7 +6310,7 @@
       <c r="N58" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="O58" s="10">
+      <c r="O58" s="9">
         <v>100</v>
       </c>
       <c r="P58" s="6" t="s">
@@ -6335,7 +6342,7 @@
       <c r="I59" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J59" s="9" t="s">
+      <c r="J59" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K59" s="8" t="s">
@@ -6376,7 +6383,7 @@
       <c r="I60" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J60" s="9" t="s">
+      <c r="J60" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K60" s="8" t="s">
@@ -6385,7 +6392,7 @@
       <c r="N60" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="O60" s="10">
+      <c r="O60" s="9">
         <v>100</v>
       </c>
       <c r="P60" s="6" t="s">
@@ -6417,7 +6424,7 @@
       <c r="I61" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J61" s="9" t="s">
+      <c r="J61" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K61" s="8" t="s">
@@ -6458,7 +6465,7 @@
       <c r="I62" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J62" s="9" t="s">
+      <c r="J62" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K62" s="8" t="s">
@@ -6499,7 +6506,7 @@
       <c r="I63" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J63" s="9" t="s">
+      <c r="J63" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K63" s="8" t="s">
@@ -6508,7 +6515,7 @@
       <c r="N63" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="O63" s="10">
+      <c r="O63" s="9">
         <v>150</v>
       </c>
       <c r="P63" s="6" t="s">
@@ -6537,7 +6544,7 @@
       <c r="I64" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J64" s="9" t="s">
+      <c r="J64" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K64" s="8" t="s">
@@ -6575,7 +6582,7 @@
       <c r="I65" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J65" s="9" t="s">
+      <c r="J65" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K65" s="8" t="s">
@@ -6613,7 +6620,7 @@
       <c r="I66" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J66" s="9" t="s">
+      <c r="J66" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K66" s="8" t="s">
@@ -6651,7 +6658,7 @@
       <c r="I67" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J67" s="9" t="s">
+      <c r="J67" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K67" s="8" t="s">
@@ -6689,7 +6696,7 @@
       <c r="I68" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J68" s="9" t="s">
+      <c r="J68" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K68" s="8" t="s">
@@ -6727,7 +6734,7 @@
       <c r="I69" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J69" s="9" t="s">
+      <c r="J69" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K69" s="8" t="s">
@@ -6765,7 +6772,7 @@
       <c r="I70" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J70" s="9" t="s">
+      <c r="J70" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K70" s="8" t="s">
@@ -6803,7 +6810,7 @@
       <c r="I71" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J71" s="9" t="s">
+      <c r="J71" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K71" s="8" t="s">
@@ -6844,7 +6851,7 @@
       <c r="I72" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J72" s="9" t="s">
+      <c r="J72" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K72" s="8" t="s">
@@ -6885,7 +6892,7 @@
       <c r="I73" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J73" s="9" t="s">
+      <c r="J73" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K73" s="8" t="s">
@@ -6926,7 +6933,7 @@
       <c r="I74" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J74" s="9" t="s">
+      <c r="J74" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K74" s="8" t="s">
@@ -6967,7 +6974,7 @@
       <c r="I75" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J75" s="9" t="s">
+      <c r="J75" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K75" s="8" t="s">
@@ -7008,7 +7015,7 @@
       <c r="I76" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J76" s="9" t="s">
+      <c r="J76" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K76" s="8" t="s">
@@ -7049,7 +7056,7 @@
       <c r="I77" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J77" s="9" t="s">
+      <c r="J77" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K77" s="8" t="s">
@@ -7090,7 +7097,7 @@
       <c r="I78" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J78" s="9" t="s">
+      <c r="J78" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K78" s="8" t="s">
@@ -7131,11 +7138,14 @@
       <c r="I79" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J79" s="9" t="s">
+      <c r="J79" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K79" s="8" t="s">
         <v>17</v>
+      </c>
+      <c r="L79" t="s">
+        <v>355</v>
       </c>
       <c r="N79" s="4" t="s">
         <v>303</v>
@@ -7158,7 +7168,7 @@
         <v>1</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F80" t="s">
         <v>22</v>
@@ -7167,12 +7177,12 @@
         <v>42</v>
       </c>
       <c r="H80" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I80" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J80" s="9" t="s">
+      <c r="J80" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K80" s="8" t="s">
@@ -7182,7 +7192,7 @@
         <v>303</v>
       </c>
       <c r="O80" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P80" s="6" t="s">
         <v>117</v>
@@ -7199,7 +7209,7 @@
         <v>1</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F81" t="s">
         <v>22</v>
@@ -7213,7 +7223,7 @@
       <c r="I81" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J81" s="9" t="s">
+      <c r="J81" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K81" s="8" t="s">
@@ -7223,7 +7233,7 @@
         <v>303</v>
       </c>
       <c r="O81" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P81" s="6" t="s">
         <v>117</v>
@@ -7240,7 +7250,7 @@
         <v>1</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F82" t="s">
         <v>22</v>
@@ -7251,7 +7261,7 @@
       <c r="I82" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J82" s="9" t="s">
+      <c r="J82" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K82" s="8" t="s">
@@ -7261,7 +7271,7 @@
         <v>303</v>
       </c>
       <c r="O82" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P82" s="6" t="s">
         <v>117</v>
@@ -7278,7 +7288,7 @@
         <v>1</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F83" t="s">
         <v>22</v>
@@ -7289,7 +7299,7 @@
       <c r="I83" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J83" s="9" t="s">
+      <c r="J83" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K83" s="8" t="s">
@@ -7299,7 +7309,7 @@
         <v>303</v>
       </c>
       <c r="O83" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P83" s="6" t="s">
         <v>117</v>
@@ -7310,13 +7320,13 @@
         <v>81</v>
       </c>
       <c r="C84" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F84" t="s">
         <v>13</v>
@@ -7327,14 +7337,14 @@
       <c r="I84" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J84" s="9" t="s">
+      <c r="J84" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K84" s="8" t="s">
         <v>6</v>
       </c>
       <c r="L84" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N84" s="4" t="s">
         <v>303</v>
@@ -7349,13 +7359,13 @@
         <v>82</v>
       </c>
       <c r="C85" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F85" t="s">
         <v>13</v>
@@ -7366,14 +7376,14 @@
       <c r="I85" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J85" s="9" t="s">
+      <c r="J85" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K85" s="8" t="s">
         <v>6</v>
       </c>
       <c r="L85" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N85" s="4" t="s">
         <v>303</v>
@@ -7388,13 +7398,13 @@
         <v>83</v>
       </c>
       <c r="C86" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F86" t="s">
         <v>13</v>
@@ -7405,14 +7415,14 @@
       <c r="I86" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J86" s="9" t="s">
+      <c r="J86" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K86" s="8" t="s">
         <v>6</v>
       </c>
       <c r="L86" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N86" s="4" t="s">
         <v>303</v>
@@ -7427,13 +7437,13 @@
         <v>84</v>
       </c>
       <c r="C87" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F87" t="s">
         <v>13</v>
@@ -7444,14 +7454,14 @@
       <c r="I87" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J87" s="9" t="s">
+      <c r="J87" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K87" s="8" t="s">
         <v>6</v>
       </c>
       <c r="L87" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N87" s="4" t="s">
         <v>303</v>
@@ -7466,13 +7476,13 @@
         <v>85</v>
       </c>
       <c r="C88" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F88" t="s">
         <v>13</v>
@@ -7483,14 +7493,14 @@
       <c r="I88" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J88" s="9" t="s">
+      <c r="J88" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K88" s="8" t="s">
         <v>6</v>
       </c>
       <c r="L88" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N88" s="4" t="s">
         <v>303</v>
@@ -7505,13 +7515,13 @@
         <v>86</v>
       </c>
       <c r="C89" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F89" t="s">
         <v>30</v>
@@ -7520,25 +7530,25 @@
         <v>33</v>
       </c>
       <c r="H89" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I89" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K89" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N89" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O89" s="5" t="s">
         <v>233</v>
       </c>
       <c r="P89" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1" spans="2:16">
@@ -7546,13 +7556,13 @@
         <v>87</v>
       </c>
       <c r="C90" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F90" t="s">
         <v>30</v>
@@ -7561,28 +7571,28 @@
         <v>33</v>
       </c>
       <c r="H90" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I90" s="8" t="s">
         <v>19</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K90" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L90" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N90" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O90" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P90" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1" spans="2:16">
@@ -7590,13 +7600,13 @@
         <v>88</v>
       </c>
       <c r="C91" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F91" t="s">
         <v>11</v>
@@ -7617,16 +7627,16 @@
         <v>17</v>
       </c>
       <c r="L91" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N91" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O91" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P91" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1" spans="2:20">
@@ -7634,13 +7644,13 @@
         <v>89</v>
       </c>
       <c r="C92" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F92" t="s">
         <v>30</v>
@@ -7649,7 +7659,7 @@
         <v>33</v>
       </c>
       <c r="H92" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I92" s="8" t="s">
         <v>15</v>
@@ -7661,16 +7671,16 @@
         <v>21</v>
       </c>
       <c r="L92" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N92" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O92" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P92" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="R92" t="s">
         <v>118</v>
@@ -7687,13 +7697,13 @@
         <v>90</v>
       </c>
       <c r="C93" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F93" t="s">
         <v>30</v>
@@ -7702,7 +7712,7 @@
         <v>33</v>
       </c>
       <c r="H93" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I93" s="8" t="s">
         <v>15</v>
@@ -7714,16 +7724,16 @@
         <v>21</v>
       </c>
       <c r="L93" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N93" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O93" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P93" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="R93" t="s">
         <v>118</v>
@@ -7740,22 +7750,22 @@
         <v>91</v>
       </c>
       <c r="C94" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F94" t="s">
         <v>24</v>
       </c>
       <c r="G94" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H94" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I94" s="8" t="s">
         <v>19</v>
@@ -7767,16 +7777,16 @@
         <v>17</v>
       </c>
       <c r="L94" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N94" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O94" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P94" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="V94" t="s">
         <v>118</v>
@@ -7787,13 +7797,13 @@
         <v>92</v>
       </c>
       <c r="C95" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F95" t="s">
         <v>30</v>
@@ -7802,7 +7812,7 @@
         <v>33</v>
       </c>
       <c r="H95" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I95" s="8" t="s">
         <v>9</v>
@@ -7814,16 +7824,16 @@
         <v>17</v>
       </c>
       <c r="L95" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N95" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O95" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P95" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1" spans="2:16">
@@ -7831,43 +7841,43 @@
         <v>93</v>
       </c>
       <c r="C96" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D96">
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F96" t="s">
         <v>24</v>
       </c>
       <c r="G96" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H96" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I96" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J96" s="9" t="s">
+      <c r="J96" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K96" s="8" t="s">
         <v>21</v>
       </c>
       <c r="M96" s="5" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N96" s="4" t="s">
         <v>303</v>
       </c>
       <c r="O96" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P96" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1" spans="2:16">
@@ -7881,7 +7891,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F97" t="s">
         <v>22</v>
@@ -7895,23 +7905,23 @@
       <c r="I97" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J97" s="9" t="s">
+      <c r="J97" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K97" s="8" t="s">
         <v>21</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N97" s="4" t="s">
         <v>303</v>
       </c>
       <c r="O97" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P97" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1" spans="2:16">
@@ -7925,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F98" t="s">
         <v>22</v>
@@ -7934,28 +7944,28 @@
         <v>41</v>
       </c>
       <c r="H98" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I98" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J98" s="9" t="s">
+      <c r="J98" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K98" s="8" t="s">
         <v>21</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N98" s="4" t="s">
         <v>303</v>
       </c>
       <c r="O98" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P98" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1" spans="2:16">
@@ -7969,7 +7979,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F99" t="s">
         <v>22</v>
@@ -7983,7 +7993,7 @@
       <c r="I99" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J99" s="9" t="s">
+      <c r="J99" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K99" s="8" t="s">
@@ -7994,10 +8004,10 @@
         <v>303</v>
       </c>
       <c r="O99" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P99" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1" spans="2:16">
@@ -8011,7 +8021,7 @@
         <v>1</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F100" t="s">
         <v>22</v>
@@ -8020,28 +8030,28 @@
         <v>42</v>
       </c>
       <c r="H100" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I100" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J100" s="9" t="s">
+      <c r="J100" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K100" s="8" t="s">
         <v>21</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N100" s="4" t="s">
         <v>303</v>
       </c>
       <c r="O100" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P100" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1" spans="2:16">
@@ -8055,7 +8065,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F101" t="s">
         <v>22</v>
@@ -8064,26 +8074,26 @@
         <v>42</v>
       </c>
       <c r="H101" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I101" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J101" s="9" t="s">
+      <c r="J101" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K101" s="8" t="s">
         <v>21</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N101" s="4" t="s">
         <v>303</v>
       </c>
       <c r="O101" s="5"/>
       <c r="P101" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1" spans="2:16">
@@ -8097,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F102" t="s">
         <v>22</v>
@@ -8108,7 +8118,7 @@
       <c r="I102" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J102" s="9" t="s">
+      <c r="J102" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K102" s="8" t="s">
@@ -8119,10 +8129,10 @@
         <v>303</v>
       </c>
       <c r="O102" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P102" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1" spans="2:16">
@@ -8136,7 +8146,7 @@
         <v>1</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F103" t="s">
         <v>22</v>
@@ -8150,23 +8160,23 @@
       <c r="I103" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J103" s="9" t="s">
+      <c r="J103" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K103" s="8" t="s">
         <v>21</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N103" s="4" t="s">
         <v>303</v>
       </c>
       <c r="O103" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P103" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1" spans="2:16">
@@ -8180,7 +8190,7 @@
         <v>1</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F104" t="s">
         <v>22</v>
@@ -8194,23 +8204,23 @@
       <c r="I104" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J104" s="9" t="s">
+      <c r="J104" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K104" s="8" t="s">
         <v>21</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N104" s="4" t="s">
         <v>303</v>
       </c>
       <c r="O104" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P104" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1" spans="2:16">
@@ -8221,10 +8231,10 @@
         <v>10</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F105" t="s">
         <v>11</v>
@@ -8238,23 +8248,26 @@
       <c r="I105" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J105" s="9" t="s">
-        <v>29</v>
+      <c r="J105" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="K105" s="8" t="s">
         <v>21</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
+      </c>
+      <c r="M105" s="10" t="s">
+        <v>444</v>
       </c>
       <c r="N105" s="4" t="s">
         <v>303</v>
       </c>
       <c r="O105" s="5" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P105" s="6" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1" spans="5:16">
@@ -8317,9 +8330,6 @@
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K105;K5:K83;K96:K104;K106:K113">
-      <formula1>Тип_графики</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F86;F97:F113">
       <formula1>Категория_сайта</formula1>
     </dataValidation>
@@ -8331,6 +8341,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J52;J106:J113">
       <formula1>Производитель</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K83;K96:K113">
+      <formula1>Тип_графики</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:V93;Q97:V113">
       <formula1>"ДА"</formula1>
@@ -14590,7 +14603,7 @@
       </c>
       <c r="L79" t="str">
         <f>IF(Компоненты!L79&lt;&gt;"",Компоненты!L79,"")</f>
-        <v/>
+        <v>В списке на совершенствование (отображение меньшего диаметра в начале и большего потом)</v>
       </c>
       <c r="M79" t="str">
         <f>IF(Компоненты!M79&lt;&gt;"",Компоненты!M79,"")</f>
@@ -16694,11 +16707,11 @@
       </c>
       <c r="D105">
         <f>IF(Компоненты!D105&lt;&gt;"",Компоненты!D105,"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E105" t="str">
         <f>IF(Компоненты!E105&lt;&gt;"",Компоненты!E105,"")</f>
-        <v>7f2479b8a4cf83ab15392a7ed85678ed</v>
+        <v>8ea4ca2d518051522b5721c028c0deec</v>
       </c>
       <c r="F105" t="str">
         <f>IF(Компоненты!F105&lt;&gt;"",Компоненты!F105,"")</f>
@@ -16718,7 +16731,7 @@
       </c>
       <c r="J105" t="str">
         <f>IF(Компоненты!J105&lt;&gt;"",Компоненты!J105,"")</f>
-        <v>Базовое оборудование</v>
+        <v>Арктос</v>
       </c>
       <c r="K105" t="str">
         <f>IF(Компоненты!K105&lt;&gt;"",Компоненты!K105,"")</f>
@@ -16726,11 +16739,12 @@
       </c>
       <c r="L105" t="str">
         <f>IF(Компоненты!L105&lt;&gt;"",Компоненты!L105,"")</f>
-        <v>Параметризованы диаметр и длина клапана. Параметры для площадки для ручки, для длины ручки могут быть выведены в параметры компонента при необходимости. В списке на совершенствование (взять реальные габариты, параметризовать ручку, внести массу приблизительно)</v>
+        <v>Параметризованы диаметр, длина клапана, длина ручки и вылет ручки - все габариты. Внесены аэродинамические данные.</v>
       </c>
       <c r="M105" t="str">
         <f>IF(Компоненты!M105&lt;&gt;"",Компоненты!M105,"")</f>
-        <v/>
+        <v>v1: Компонент параметризован не полностью, габариты приблизительные;
+v2: Габариты полностью соответствуют Арктос КВК-Р, добавлена аэродинамика, исправлена ошибка свойств Арматура (Арматуру нужно обязательно добавлять через кнопку "Задать тип оборудования"!)</v>
       </c>
       <c r="N105" t="str">
         <f>IF(Компоненты!N105&lt;&gt;"",Компоненты!N105,"")</f>
@@ -16738,11 +16752,11 @@
       </c>
       <c r="O105" t="str">
         <f>IF(Компоненты!O105&lt;&gt;"",Компоненты!O105,"")</f>
-        <v>100, 125, 160, 200, 250, 315, 355, 400</v>
+        <v>100, 125</v>
       </c>
       <c r="P105" t="str">
         <f>IF(Компоненты!P105&lt;&gt;"",Компоненты!P105,"")</f>
-        <v>2024.08.21</v>
+        <v>2024.08.22</v>
       </c>
       <c r="Q105" t="str">
         <f>IF(Компоненты!Q105&lt;&gt;"",Компоненты!Q105,"")</f>

--- a/db/Base.xlsx
+++ b/db/Base.xlsx
@@ -2143,7 +2143,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2173,9 +2173,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2850,7 +2847,7 @@
   <sheetData>
     <row r="1" ht="15.15"/>
     <row r="2" customFormat="1" ht="88" customHeight="1" spans="2:2">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2864,8 +2861,8 @@
       <c r="B5" s="5"/>
     </row>
     <row r="6" ht="15.15"/>
-    <row r="7" s="13" customFormat="1" spans="2:11">
-      <c r="B7" s="19" t="s">
+    <row r="7" s="12" customFormat="1" spans="2:11">
+      <c r="B7" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -2874,18 +2871,18 @@
       <c r="E7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -2894,18 +2891,18 @@
       <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -2914,18 +2911,18 @@
       <c r="E9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
@@ -2934,18 +2931,18 @@
       <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" ht="15.15" spans="2:11">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -2954,18 +2951,18 @@
       <c r="E11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="22" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -2974,12 +2971,12 @@
       <c r="E12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -2988,12 +2985,12 @@
       <c r="E13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -3002,12 +2999,12 @@
       <c r="E14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -3018,7 +3015,7 @@
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>31</v>
       </c>
       <c r="D16" t="s">
@@ -3223,13 +3220,13 @@
   <sheetData>
     <row r="1" ht="15.15"/>
     <row r="2" ht="29.55" spans="2:2">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" ht="15.15"/>
     <row r="4" spans="2:3">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C4" t="s">
@@ -3237,39 +3234,39 @@
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3307,7 +3304,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3324,27 +3321,27 @@
       <c r="E4" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="2:10">
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>64</v>
       </c>
       <c r="D5" t="s">
@@ -3356,11 +3353,11 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="16" t="str">
+      <c r="G5" s="15" t="str">
         <f>IF(ISTEXT(F5),VLOOKUP(F5,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Арматура воздуховодов</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I5" t="s">
@@ -3371,7 +3368,7 @@
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="2:10">
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>2</v>
       </c>
       <c r="C6" t="s">
@@ -3386,11 +3383,11 @@
       <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="16" t="str">
+      <c r="G6" s="15" t="str">
         <f>IF(ISTEXT(F6),VLOOKUP(F6,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Оборудование</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>21</v>
       </c>
       <c r="I6" t="s">
@@ -3416,11 +3413,11 @@
       <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="16" t="str">
+      <c r="G7" s="15" t="str">
         <f>IF(ISTEXT(F7),VLOOKUP(F7,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Не применимо</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>9</v>
       </c>
       <c r="I7" t="s">
@@ -3431,7 +3428,7 @@
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="2:10">
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -3446,11 +3443,11 @@
       <c r="F8" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="16" t="str">
+      <c r="G8" s="15" t="str">
         <f>IF(ISTEXT(F8),VLOOKUP(F8,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Элементы воздуховодов</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>9</v>
       </c>
       <c r="I8" t="s">
@@ -3461,7 +3458,7 @@
       </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="2:10">
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -3476,11 +3473,11 @@
       <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="16" t="str">
+      <c r="G9" s="15" t="str">
         <f>IF(ISTEXT(F9),VLOOKUP(F9,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Не применимо</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>21</v>
       </c>
       <c r="I9" t="s">
@@ -3506,11 +3503,11 @@
       <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="16" t="str">
+      <c r="G10" s="15" t="str">
         <f>IF(ISTEXT(F10),VLOOKUP(F10,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Воздухораспределители</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I10" t="s">
@@ -3521,7 +3518,7 @@
       </c>
     </row>
     <row r="11" ht="25" customHeight="1" spans="2:10">
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -3536,11 +3533,11 @@
       <c r="F11" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="16" t="str">
+      <c r="G11" s="15" t="str">
         <f>IF(ISTEXT(F11),VLOOKUP(F11,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Оборудование</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>21</v>
       </c>
       <c r="I11" t="s">
@@ -3551,7 +3548,7 @@
       </c>
     </row>
     <row r="12" ht="25" customHeight="1" spans="2:10">
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -3566,11 +3563,11 @@
       <c r="F12" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="16" t="str">
+      <c r="G12" s="15" t="str">
         <f>IF(ISTEXT(F12),VLOOKUP(F12,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Не применимо</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I12" t="s">
@@ -3596,11 +3593,11 @@
       <c r="F13" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="16" t="str">
+      <c r="G13" s="15" t="str">
         <f>IF(ISTEXT(F13),VLOOKUP(F13,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Оборудование</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I13" t="s">
@@ -3611,7 +3608,7 @@
       </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="2:10">
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>10</v>
       </c>
       <c r="C14" t="s">
@@ -3626,11 +3623,11 @@
       <c r="F14" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="16" t="str">
+      <c r="G14" s="15" t="str">
         <f>IF(ISTEXT(F14),VLOOKUP(F14,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>Аннотации</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="15" t="s">
         <v>6</v>
       </c>
       <c r="I14" t="s">
@@ -3641,7 +3638,7 @@
       </c>
     </row>
     <row r="15" ht="25" customHeight="1" spans="2:10">
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -3656,10 +3653,10 @@
       <c r="F15" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="15" t="s">
         <v>21</v>
       </c>
       <c r="I15" t="s">
@@ -3685,10 +3682,10 @@
       <c r="F16" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="15" t="s">
         <v>21</v>
       </c>
       <c r="I16" t="s">
@@ -3699,7 +3696,7 @@
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="17">
+      <c r="B17" s="16">
         <v>13</v>
       </c>
       <c r="C17" t="s">
@@ -3714,10 +3711,10 @@
       <c r="F17" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I17" t="s">
@@ -3728,52 +3725,52 @@
       </c>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="17"/>
-      <c r="G18" s="16" t="str">
+      <c r="B18" s="16"/>
+      <c r="G18" s="15" t="str">
         <f>IF(ISTEXT(F18),VLOOKUP(F18,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="H18" s="16"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="17"/>
-      <c r="G19" s="16" t="str">
+      <c r="B19" s="16"/>
+      <c r="G19" s="15" t="str">
         <f>IF(ISTEXT(F19),VLOOKUP(F19,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="H19" s="16"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="17"/>
-      <c r="G20" s="16" t="str">
+      <c r="B20" s="16"/>
+      <c r="G20" s="15" t="str">
         <f>IF(ISTEXT(F20),VLOOKUP(F20,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
-      <c r="H20" s="16"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="17"/>
+      <c r="B21" s="16"/>
       <c r="G21" t="str">
         <f>IF(ISTEXT(F21),VLOOKUP(F21,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="17"/>
+      <c r="B22" s="16"/>
       <c r="G22" t="str">
         <f>IF(ISTEXT(F22),VLOOKUP(F22,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="17"/>
+      <c r="B23" s="16"/>
       <c r="G23" t="str">
         <f>IF(ISTEXT(F23),VLOOKUP(F23,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="17"/>
+      <c r="B24" s="16"/>
       <c r="G24" t="str">
         <f>IF(ISTEXT(F24),VLOOKUP(F24,Таблица_Привязка_категорий[],2,FALSE),"-")</f>
         <v>-</v>
@@ -3811,7 +3808,7 @@
   <dimension ref="B4:V113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C92" workbookViewId="0">
-      <selection activeCell="M101" sqref="M101"/>
+      <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -8243,7 +8240,7 @@
         <v>10</v>
       </c>
       <c r="H105" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
       <c r="I105" s="8" t="s">
         <v>15</v>
@@ -8257,7 +8254,7 @@
       <c r="L105" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="M105" s="10" t="s">
+      <c r="M105" s="5" t="s">
         <v>444</v>
       </c>
       <c r="N105" s="4" t="s">
@@ -8278,55 +8275,55 @@
       <c r="L106" s="5"/>
       <c r="N106" s="4"/>
       <c r="O106" s="5"/>
-      <c r="P106" s="11"/>
+      <c r="P106" s="10"/>
     </row>
     <row r="107" ht="15" customHeight="1" spans="5:16">
       <c r="E107" s="2"/>
       <c r="L107" s="5"/>
       <c r="N107" s="4"/>
       <c r="O107" s="5"/>
-      <c r="P107" s="11"/>
+      <c r="P107" s="10"/>
     </row>
     <row r="108" ht="15" customHeight="1" spans="5:16">
       <c r="E108" s="2"/>
       <c r="L108" s="5"/>
       <c r="N108" s="4"/>
       <c r="O108" s="5"/>
-      <c r="P108" s="11"/>
+      <c r="P108" s="10"/>
     </row>
     <row r="109" ht="15" customHeight="1" spans="5:16">
       <c r="E109" s="2"/>
       <c r="L109" s="5"/>
       <c r="N109" s="4"/>
       <c r="O109" s="5"/>
-      <c r="P109" s="11"/>
+      <c r="P109" s="10"/>
     </row>
     <row r="110" ht="15" customHeight="1" spans="5:16">
       <c r="E110" s="2"/>
       <c r="L110" s="5"/>
       <c r="N110" s="4"/>
       <c r="O110" s="5"/>
-      <c r="P110" s="11"/>
+      <c r="P110" s="10"/>
     </row>
     <row r="111" ht="15" customHeight="1" spans="5:16">
       <c r="E111" s="2"/>
       <c r="L111" s="5"/>
       <c r="N111" s="4"/>
       <c r="O111" s="5"/>
-      <c r="P111" s="11"/>
+      <c r="P111" s="10"/>
     </row>
     <row r="112" ht="15" customHeight="1" spans="5:16">
       <c r="E112" s="2"/>
       <c r="L112" s="5"/>
       <c r="N112" s="4"/>
       <c r="O112" s="5"/>
-      <c r="P112" s="11"/>
+      <c r="P112" s="10"/>
     </row>
     <row r="113" ht="15" customHeight="1" spans="5:16">
       <c r="E113" s="2"/>
       <c r="N113" s="4"/>
       <c r="O113" s="5"/>
-      <c r="P113" s="11"/>
+      <c r="P113" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="6">
@@ -16723,7 +16720,7 @@
       </c>
       <c r="H105" t="str">
         <f>IF(Компоненты!H105&lt;&gt;"",Компоненты!H105,"")</f>
-        <v>параметрическая</v>
+        <v>ручной</v>
       </c>
       <c r="I105" t="str">
         <f>IF(Компоненты!I105&lt;&gt;"",Компоненты!I105,"")</f>

--- a/db/Base.xlsx
+++ b/db/Base.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="450">
   <si>
     <t>На этом листе собраны возможные значения параметров, описывающих типы компонентов nanoCAD BIM Вентиляция</t>
   </si>
@@ -1448,6 +1448,15 @@
   </si>
   <si>
     <t>2024.08.22</t>
+  </si>
+  <si>
+    <t>689ea6b671e113595877f96820db574d</t>
+  </si>
+  <si>
+    <t>(100x100)x(100),(200x200)x(200),(800x200)x(200)</t>
+  </si>
+  <si>
+    <t>2024.08.23\</t>
   </si>
 </sst>
 </file>
@@ -3807,8 +3816,8 @@
   <sheetPr/>
   <dimension ref="B4:V113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C92" workbookViewId="0">
-      <selection activeCell="H105" sqref="H105"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -8267,15 +8276,49 @@
         <v>446</v>
       </c>
     </row>
-    <row r="106" ht="15" customHeight="1" spans="5:16">
-      <c r="E106" s="2"/>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
-      <c r="K106" s="8"/>
-      <c r="L106" s="5"/>
-      <c r="N106" s="4"/>
-      <c r="O106" s="5"/>
-      <c r="P106" s="10"/>
+    <row r="106" ht="15" customHeight="1" spans="2:16">
+      <c r="B106" s="1">
+        <v>103</v>
+      </c>
+      <c r="C106" t="s">
+        <v>43</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F106" t="s">
+        <v>22</v>
+      </c>
+      <c r="G106" t="s">
+        <v>43</v>
+      </c>
+      <c r="H106" t="s">
+        <v>302</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J106" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K106" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L106" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="N106" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="O106" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="P106" s="6" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="107" ht="15" customHeight="1" spans="5:16">
       <c r="E107" s="2"/>
@@ -8327,20 +8370,20 @@
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F86;F97:F113">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F106;F5:F86;F97:F105;F107:F113">
       <formula1>Категория_сайта</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K106;K5:K83;K96:K105;K107:K113">
+      <formula1>Тип_графики</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G78">
       <formula1>Категория_техническая</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I83;I97:I113">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I83;I97:I105;I107:I113">
       <formula1>Форма</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J52;J106:J113">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J52;J107:J113">
       <formula1>Производитель</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K83;K96:K113">
-      <formula1>Тип_графики</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:V93;Q97:V113">
       <formula1>"ДА"</formula1>
@@ -8359,8 +8402,8 @@
   <sheetPr/>
   <dimension ref="B4:U200"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -16777,49 +16820,49 @@
       </c>
     </row>
     <row r="106" spans="2:21">
-      <c r="B106" t="str">
+      <c r="B106">
         <f>IF(Компоненты!B106&lt;&gt;"",Компоненты!B106,"")</f>
-        <v/>
+        <v>103</v>
       </c>
       <c r="C106" t="str">
         <f>IF(Компоненты!C106&lt;&gt;"",Компоненты!C106,"")</f>
-        <v/>
-      </c>
-      <c r="D106" t="str">
+        <v>Тройник</v>
+      </c>
+      <c r="D106">
         <f>IF(Компоненты!D106&lt;&gt;"",Компоненты!D106,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E106" t="str">
         <f>IF(Компоненты!E106&lt;&gt;"",Компоненты!E106,"")</f>
-        <v/>
+        <v>689ea6b671e113595877f96820db574d</v>
       </c>
       <c r="F106" t="str">
         <f>IF(Компоненты!F106&lt;&gt;"",Компоненты!F106,"")</f>
-        <v/>
+        <v>Элементы воздуховодов</v>
       </c>
       <c r="G106" t="str">
         <f>IF(Компоненты!G106&lt;&gt;"",Компоненты!G106,"")</f>
-        <v/>
+        <v>Тройник</v>
       </c>
       <c r="H106" t="str">
         <f>IF(Компоненты!H106&lt;&gt;"",Компоненты!H106,"")</f>
-        <v/>
+        <v>параметрический</v>
       </c>
       <c r="I106" t="str">
         <f>IF(Компоненты!I106&lt;&gt;"",Компоненты!I106,"")</f>
-        <v/>
+        <v>Различные</v>
       </c>
       <c r="J106" t="str">
         <f>IF(Компоненты!J106&lt;&gt;"",Компоненты!J106,"")</f>
-        <v/>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K106" t="str">
         <f>IF(Компоненты!K106&lt;&gt;"",Компоненты!K106,"")</f>
-        <v/>
+        <v>Параметрическая</v>
       </c>
       <c r="L106" t="str">
         <f>IF(Компоненты!L106&lt;&gt;"",Компоненты!L106,"")</f>
-        <v/>
+        <v>Параметризованы вылеты (прямые участки) для отвода и для магистрали</v>
       </c>
       <c r="M106" t="str">
         <f>IF(Компоненты!M106&lt;&gt;"",Компоненты!M106,"")</f>
@@ -16827,15 +16870,15 @@
       </c>
       <c r="N106" t="str">
         <f>IF(Компоненты!N106&lt;&gt;"",Компоненты!N106,"")</f>
-        <v/>
+        <v>https://www.nanocad.ru/products/bim/ventilation/</v>
       </c>
       <c r="O106" t="str">
         <f>IF(Компоненты!O106&lt;&gt;"",Компоненты!O106,"")</f>
-        <v/>
+        <v>(100x100)x(100),(200x200)x(200),(800x200)x(200)</v>
       </c>
       <c r="P106" t="str">
         <f>IF(Компоненты!P106&lt;&gt;"",Компоненты!P106,"")</f>
-        <v/>
+        <v>2024.08.23\</v>
       </c>
       <c r="Q106" t="str">
         <f>IF(Компоненты!Q106&lt;&gt;"",Компоненты!Q106,"")</f>

--- a/db/Base.xlsx
+++ b/db/Base.xlsx
@@ -1456,7 +1456,7 @@
     <t>(100x100)x(100),(200x200)x(200),(800x200)x(200)</t>
   </si>
   <si>
-    <t>2024.08.23\</t>
+    <t>2024.08.23</t>
   </si>
 </sst>
 </file>
@@ -3816,8 +3816,8 @@
   <sheetPr/>
   <dimension ref="B4:V113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="H107" sqref="H107"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="I92" workbookViewId="0">
+      <selection activeCell="P107" sqref="P107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -8370,11 +8370,8 @@
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F106;F5:F86;F97:F105;F107:F113">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F86;F97:F113">
       <formula1>Категория_сайта</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K106;K5:K83;K96:K105;K107:K113">
-      <formula1>Тип_графики</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G78">
       <formula1>Категория_техническая</formula1>
@@ -8384,6 +8381,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J52;J107:J113">
       <formula1>Производитель</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K83;K96:K113">
+      <formula1>Тип_графики</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:V93;Q97:V113">
       <formula1>"ДА"</formula1>
@@ -16878,7 +16878,7 @@
       </c>
       <c r="P106" t="str">
         <f>IF(Компоненты!P106&lt;&gt;"",Компоненты!P106,"")</f>
-        <v>2024.08.23\</v>
+        <v>2024.08.23</v>
       </c>
       <c r="Q106" t="str">
         <f>IF(Компоненты!Q106&lt;&gt;"",Компоненты!Q106,"")</f>

--- a/db/Base.xlsx
+++ b/db/Base.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="454">
   <si>
     <t>На этом листе собраны возможные значения параметров, описывающих типы компонентов nanoCAD BIM Вентиляция</t>
   </si>
@@ -1457,6 +1457,18 @@
   </si>
   <si>
     <t>2024.08.23</t>
+  </si>
+  <si>
+    <t>e83be117d00f7ad6d6e759a69d263522</t>
+  </si>
+  <si>
+    <t>с полкой параметрический</t>
+  </si>
+  <si>
+    <t>Параметризован размер полки и угол отвода</t>
+  </si>
+  <si>
+    <t>2024.08.29</t>
   </si>
 </sst>
 </file>
@@ -3816,8 +3828,8 @@
   <sheetPr/>
   <dimension ref="B4:V113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="I92" workbookViewId="0">
-      <selection activeCell="P107" sqref="P107"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C92" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -8320,12 +8332,49 @@
         <v>449</v>
       </c>
     </row>
-    <row r="107" ht="15" customHeight="1" spans="5:16">
-      <c r="E107" s="2"/>
-      <c r="L107" s="5"/>
-      <c r="N107" s="4"/>
-      <c r="O107" s="5"/>
-      <c r="P107" s="10"/>
+    <row r="107" ht="15" customHeight="1" spans="2:16">
+      <c r="B107" s="1">
+        <v>104</v>
+      </c>
+      <c r="C107" t="s">
+        <v>41</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F107" t="s">
+        <v>22</v>
+      </c>
+      <c r="G107" t="s">
+        <v>41</v>
+      </c>
+      <c r="H107" t="s">
+        <v>451</v>
+      </c>
+      <c r="I107" t="s">
+        <v>19</v>
+      </c>
+      <c r="J107" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K107" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L107" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="N107" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="O107" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="P107" s="6" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="108" ht="15" customHeight="1" spans="5:16">
       <c r="E108" s="2"/>
@@ -8370,8 +8419,11 @@
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F86;F97:F113">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F107;F5:F86;F97:F106;F108:F113">
       <formula1>Категория_сайта</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K107;K5:K83;K96:K106;K108:K113">
+      <formula1>Тип_графики</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G78">
       <formula1>Категория_техническая</formula1>
@@ -8379,11 +8431,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I83;I97:I105;I107:I113">
       <formula1>Форма</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J52;J107:J113">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J52;J108:J113">
       <formula1>Производитель</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K83;K96:K113">
-      <formula1>Тип_графики</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:V93;Q97:V113">
       <formula1>"ДА"</formula1>
@@ -16902,49 +16951,49 @@
       </c>
     </row>
     <row r="107" spans="2:21">
-      <c r="B107" t="str">
+      <c r="B107">
         <f>IF(Компоненты!B107&lt;&gt;"",Компоненты!B107,"")</f>
-        <v/>
+        <v>104</v>
       </c>
       <c r="C107" t="str">
         <f>IF(Компоненты!C107&lt;&gt;"",Компоненты!C107,"")</f>
-        <v/>
-      </c>
-      <c r="D107" t="str">
+        <v>Отвод</v>
+      </c>
+      <c r="D107">
         <f>IF(Компоненты!D107&lt;&gt;"",Компоненты!D107,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E107" t="str">
         <f>IF(Компоненты!E107&lt;&gt;"",Компоненты!E107,"")</f>
-        <v/>
+        <v>e83be117d00f7ad6d6e759a69d263522</v>
       </c>
       <c r="F107" t="str">
         <f>IF(Компоненты!F107&lt;&gt;"",Компоненты!F107,"")</f>
-        <v/>
+        <v>Элементы воздуховодов</v>
       </c>
       <c r="G107" t="str">
         <f>IF(Компоненты!G107&lt;&gt;"",Компоненты!G107,"")</f>
-        <v/>
+        <v>Отвод</v>
       </c>
       <c r="H107" t="str">
         <f>IF(Компоненты!H107&lt;&gt;"",Компоненты!H107,"")</f>
-        <v/>
+        <v>с полкой параметрический</v>
       </c>
       <c r="I107" t="str">
         <f>IF(Компоненты!I107&lt;&gt;"",Компоненты!I107,"")</f>
-        <v/>
+        <v>Прямоугольный</v>
       </c>
       <c r="J107" t="str">
         <f>IF(Компоненты!J107&lt;&gt;"",Компоненты!J107,"")</f>
-        <v/>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K107" t="str">
         <f>IF(Компоненты!K107&lt;&gt;"",Компоненты!K107,"")</f>
-        <v/>
+        <v>Параметрическая</v>
       </c>
       <c r="L107" t="str">
         <f>IF(Компоненты!L107&lt;&gt;"",Компоненты!L107,"")</f>
-        <v/>
+        <v>Параметризован размер полки и угол отвода</v>
       </c>
       <c r="M107" t="str">
         <f>IF(Компоненты!M107&lt;&gt;"",Компоненты!M107,"")</f>
@@ -16952,15 +17001,15 @@
       </c>
       <c r="N107" t="str">
         <f>IF(Компоненты!N107&lt;&gt;"",Компоненты!N107,"")</f>
-        <v/>
+        <v>https://www.nanocad.ru/products/bim/ventilation/</v>
       </c>
       <c r="O107" t="str">
         <f>IF(Компоненты!O107&lt;&gt;"",Компоненты!O107,"")</f>
-        <v/>
+        <v>100x100, 200x100, 200x200, 800x200</v>
       </c>
       <c r="P107" t="str">
         <f>IF(Компоненты!P107&lt;&gt;"",Компоненты!P107,"")</f>
-        <v/>
+        <v>2024.08.29</v>
       </c>
       <c r="Q107" t="str">
         <f>IF(Компоненты!Q107&lt;&gt;"",Компоненты!Q107,"")</f>

--- a/db/Base.xlsx
+++ b/db/Base.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="458">
   <si>
     <t>На этом листе собраны возможные значения параметров, описывающих типы компонентов nanoCAD BIM Вентиляция</t>
   </si>
@@ -1409,7 +1409,7 @@
     <t>концентрический прямоугольного сечения</t>
   </si>
   <si>
-    <t>Параметризована длина патрубков и длина всего перехода. По умолчанию длина всего перехода равна полутора средним эквивалентным диаметрам перехода; эквивалентый диаметр равен 4xA/P, где A - площадь сечения, P - периметр сечения. Если параметр "Заданная длина перехода" задан, то длина перехода примет указанное значение.
+    <t>Параметризована длина патрубков и длина всего перехода, габариты сечения. По умолчанию длина всего перехода равна полутора средним эквивалентным диаметрам перехода; эквивалентый диаметр равен 4xA/P, где A - площадь сечения, P - периметр сечения. Если параметр "Заданная длина перехода" задан, то длина перехода примет указанное значение.
 В списке на совершенствование (добавление сдвига как параметра).</t>
   </si>
   <si>
@@ -1422,13 +1422,13 @@
     <t>1197af013018aca6733b9b7e25c234dc</t>
   </si>
   <si>
-    <t>Параметризованы вылеты (прямые участки) для отводов и для магистрали</t>
+    <t>Параметризованы вылеты (прямые участки) для отводов и для магистрали, габариты сечения</t>
   </si>
   <si>
     <t>3a997c454ee9f6677b9ed2835361b6ec</t>
   </si>
   <si>
-    <t>Параметризованы сечения коннекторов, длина утки и перепад высот. В списке на совершенствование (горизонтальное смещение утки).</t>
+    <t>Параметризованы длина утки и перепад высот, габариты сечения. В списке на совершенствование (горизонтальное смещение утки).</t>
   </si>
   <si>
     <t>100x100-100x100, 100x100-200x100, 200x200-800x200</t>
@@ -1453,6 +1453,9 @@
     <t>689ea6b671e113595877f96820db574d</t>
   </si>
   <si>
+    <t>Параметризованы вылеты (прямые участки) для отвода и для магистрали, габариты сечения</t>
+  </si>
+  <si>
     <t>(100x100)x(100),(200x200)x(200),(800x200)x(200)</t>
   </si>
   <si>
@@ -1469,6 +1472,15 @@
   </si>
   <si>
     <t>2024.08.29</t>
+  </si>
+  <si>
+    <t>7a2daa04bad7b97d75a83bc2aa016057</t>
+  </si>
+  <si>
+    <t>прямоугольная с круглым отводом</t>
+  </si>
+  <si>
+    <t>2024.08.30</t>
   </si>
 </sst>
 </file>
@@ -3828,8 +3840,8 @@
   <sheetPr/>
   <dimension ref="B4:V113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C92" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="J92" workbookViewId="0">
+      <selection activeCell="P109" sqref="P109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -8320,16 +8332,16 @@
         <v>21</v>
       </c>
       <c r="L106" s="5" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="N106" s="4" t="s">
         <v>303</v>
       </c>
       <c r="O106" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P106" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1" spans="2:16">
@@ -8343,7 +8355,7 @@
         <v>1</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F107" t="s">
         <v>22</v>
@@ -8352,7 +8364,7 @@
         <v>41</v>
       </c>
       <c r="H107" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I107" t="s">
         <v>19</v>
@@ -8364,7 +8376,7 @@
         <v>21</v>
       </c>
       <c r="L107" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N107" s="4" t="s">
         <v>303</v>
@@ -8373,15 +8385,52 @@
         <v>430</v>
       </c>
       <c r="P107" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="108" ht="15" customHeight="1" spans="5:16">
-      <c r="E108" s="2"/>
-      <c r="L108" s="5"/>
-      <c r="N108" s="4"/>
-      <c r="O108" s="5"/>
-      <c r="P108" s="10"/>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="108" ht="15" customHeight="1" spans="2:16">
+      <c r="B108" s="1">
+        <v>105</v>
+      </c>
+      <c r="C108" t="s">
+        <v>40</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="F108" t="s">
+        <v>22</v>
+      </c>
+      <c r="G108" t="s">
+        <v>40</v>
+      </c>
+      <c r="H108" t="s">
+        <v>456</v>
+      </c>
+      <c r="I108" t="s">
+        <v>9</v>
+      </c>
+      <c r="J108" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K108" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L108" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="N108" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="O108" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="P108" s="6" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="109" ht="15" customHeight="1" spans="5:16">
       <c r="E109" s="2"/>
@@ -8419,10 +8468,10 @@
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F107;F5:F86;F97:F106;F108:F113">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F108;F5:F86;F97:F107;F109:F113">
       <formula1>Категория_сайта</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K107;K5:K83;K96:K106;K108:K113">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K108;K5:K83;K96:K107;K109:K113">
       <formula1>Тип_графики</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G78">
@@ -8431,7 +8480,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I83;I97:I105;I107:I113">
       <formula1>Форма</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J52;J108:J113">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J52;J109:J113">
       <formula1>Производитель</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:V93;Q97:V113">
@@ -16416,7 +16465,7 @@
       </c>
       <c r="L100" t="str">
         <f>IF(Компоненты!L100&lt;&gt;"",Компоненты!L100,"")</f>
-        <v>Параметризована длина патрубков и длина всего перехода. По умолчанию длина всего перехода равна полутора средним эквивалентным диаметрам перехода; эквивалентый диаметр равен 4xA/P, где A - площадь сечения, P - периметр сечения. Если параметр "Заданная длина перехода" задан, то длина перехода примет указанное значение.
+        <v>Параметризована длина патрубков и длина всего перехода, габариты сечения. По умолчанию длина всего перехода равна полутора средним эквивалентным диаметрам перехода; эквивалентый диаметр равен 4xA/P, где A - площадь сечения, P - периметр сечения. Если параметр "Заданная длина перехода" задан, то длина перехода примет указанное значение.
 В списке на совершенствование (добавление сдвига как параметра).</v>
       </c>
       <c r="M100" t="str">
@@ -16499,7 +16548,7 @@
       </c>
       <c r="L101" t="str">
         <f>IF(Компоненты!L101&lt;&gt;"",Компоненты!L101,"")</f>
-        <v>Параметризована длина патрубков и длина всего перехода. По умолчанию длина всего перехода равна полутора средним эквивалентным диаметрам перехода; эквивалентый диаметр равен 4xA/P, где A - площадь сечения, P - периметр сечения. Если параметр "Заданная длина перехода" задан, то длина перехода примет указанное значение.
+        <v>Параметризована длина патрубков и длина всего перехода, габариты сечения. По умолчанию длина всего перехода равна полутора средним эквивалентным диаметрам перехода; эквивалентый диаметр равен 4xA/P, где A - площадь сечения, P - периметр сечения. Если параметр "Заданная длина перехода" задан, то длина перехода примет указанное значение.
 В списке на совершенствование (добавление сдвига как параметра).</v>
       </c>
       <c r="M101" t="str">
@@ -16664,7 +16713,7 @@
       </c>
       <c r="L103" t="str">
         <f>IF(Компоненты!L103&lt;&gt;"",Компоненты!L103,"")</f>
-        <v>Параметризованы вылеты (прямые участки) для отводов и для магистрали</v>
+        <v>Параметризованы вылеты (прямые участки) для отводов и для магистрали, габариты сечения</v>
       </c>
       <c r="M103" t="str">
         <f>IF(Компоненты!M103&lt;&gt;"",Компоненты!M103,"")</f>
@@ -16746,7 +16795,7 @@
       </c>
       <c r="L104" t="str">
         <f>IF(Компоненты!L104&lt;&gt;"",Компоненты!L104,"")</f>
-        <v>Параметризованы сечения коннекторов, длина утки и перепад высот. В списке на совершенствование (горизонтальное смещение утки).</v>
+        <v>Параметризованы длина утки и перепад высот, габариты сечения. В списке на совершенствование (горизонтальное смещение утки).</v>
       </c>
       <c r="M104" t="str">
         <f>IF(Компоненты!M104&lt;&gt;"",Компоненты!M104,"")</f>
@@ -16911,7 +16960,7 @@
       </c>
       <c r="L106" t="str">
         <f>IF(Компоненты!L106&lt;&gt;"",Компоненты!L106,"")</f>
-        <v>Параметризованы вылеты (прямые участки) для отвода и для магистрали</v>
+        <v>Параметризованы вылеты (прямые участки) для отвода и для магистрали, габариты сечения</v>
       </c>
       <c r="M106" t="str">
         <f>IF(Компоненты!M106&lt;&gt;"",Компоненты!M106,"")</f>
@@ -17033,49 +17082,49 @@
       </c>
     </row>
     <row r="108" spans="2:21">
-      <c r="B108" t="str">
+      <c r="B108">
         <f>IF(Компоненты!B108&lt;&gt;"",Компоненты!B108,"")</f>
-        <v/>
+        <v>105</v>
       </c>
       <c r="C108" t="str">
         <f>IF(Компоненты!C108&lt;&gt;"",Компоненты!C108,"")</f>
-        <v/>
-      </c>
-      <c r="D108" t="str">
+        <v>Крестовина</v>
+      </c>
+      <c r="D108">
         <f>IF(Компоненты!D108&lt;&gt;"",Компоненты!D108,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="E108" t="str">
         <f>IF(Компоненты!E108&lt;&gt;"",Компоненты!E108,"")</f>
-        <v/>
+        <v>7a2daa04bad7b97d75a83bc2aa016057</v>
       </c>
       <c r="F108" t="str">
         <f>IF(Компоненты!F108&lt;&gt;"",Компоненты!F108,"")</f>
-        <v/>
+        <v>Элементы воздуховодов</v>
       </c>
       <c r="G108" t="str">
         <f>IF(Компоненты!G108&lt;&gt;"",Компоненты!G108,"")</f>
-        <v/>
+        <v>Крестовина</v>
       </c>
       <c r="H108" t="str">
         <f>IF(Компоненты!H108&lt;&gt;"",Компоненты!H108,"")</f>
-        <v/>
+        <v>прямоугольная с круглым отводом</v>
       </c>
       <c r="I108" t="str">
         <f>IF(Компоненты!I108&lt;&gt;"",Компоненты!I108,"")</f>
-        <v/>
+        <v>Различные</v>
       </c>
       <c r="J108" t="str">
         <f>IF(Компоненты!J108&lt;&gt;"",Компоненты!J108,"")</f>
-        <v/>
+        <v>Базовое оборудование</v>
       </c>
       <c r="K108" t="str">
         <f>IF(Компоненты!K108&lt;&gt;"",Компоненты!K108,"")</f>
-        <v/>
+        <v>Параметрическая</v>
       </c>
       <c r="L108" t="str">
         <f>IF(Компоненты!L108&lt;&gt;"",Компоненты!L108,"")</f>
-        <v/>
+        <v>Параметризованы вылеты (прямые участки) для отвода и для магистрали, габариты сечения</v>
       </c>
       <c r="M108" t="str">
         <f>IF(Компоненты!M108&lt;&gt;"",Компоненты!M108,"")</f>
@@ -17083,15 +17132,15 @@
       </c>
       <c r="N108" t="str">
         <f>IF(Компоненты!N108&lt;&gt;"",Компоненты!N108,"")</f>
-        <v/>
+        <v>https://www.nanocad.ru/products/bim/ventilation/</v>
       </c>
       <c r="O108" t="str">
         <f>IF(Компоненты!O108&lt;&gt;"",Компоненты!O108,"")</f>
-        <v/>
+        <v>(100x100)x(100),(200x200)x(200),(800x200)x(200)</v>
       </c>
       <c r="P108" t="str">
         <f>IF(Компоненты!P108&lt;&gt;"",Компоненты!P108,"")</f>
-        <v/>
+        <v>2024.08.30</v>
       </c>
       <c r="Q108" t="str">
         <f>IF(Компоненты!Q108&lt;&gt;"",Компоненты!Q108,"")</f>
